--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>503.6</v>
+        <v>493.73</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E3">
-        <v>1906.11</v>
+        <v>1909.39</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E6">
-        <v>940.35</v>
+        <v>943.23</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12">
-        <v>1075.22</v>
+        <v>1070.94</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E14">
-        <v>333.11</v>
+        <v>338.21</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>244.6</v>
+        <v>252.89</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>427.6</v>
+        <v>450.71</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20">
-        <v>329.32</v>
+        <v>326.99</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E24">
-        <v>409.57</v>
+        <v>452.31</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1021,19 +1021,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>OCROS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>SAN PEDRO</t>
         </is>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>22.55</v>
+        <v>221.73</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1047,19 +1047,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>RECUAY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>RECUAY</t>
         </is>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>28.18</v>
+        <v>22.55</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1078,14 +1078,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E28">
-        <v>5.57</v>
+        <v>31.82</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1104,14 +1104,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>11.2</v>
+        <v>5.57</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D30">
-        <v>439</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2915.2</v>
+        <v>11.2</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1156,14 +1156,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>457</v>
       </c>
       <c r="E31">
-        <v>12.09</v>
+        <v>3034.73</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1182,14 +1182,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>18.49</v>
+        <v>13.14</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1208,14 +1208,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>166.82</v>
+        <v>18.49</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1229,19 +1229,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIHUAS</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>14.3</v>
+        <v>187.67</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1255,19 +1255,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>YUNGAY</t>
+          <t>SIHUAS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QUILLO</t>
+          <t>SAN JUAN</t>
         </is>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>7.53</v>
+        <v>14.3</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1276,24 +1276,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>ANCASH</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>YUNGAY</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ACOCRO</t>
+          <t>QUILLO</t>
         </is>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>10.56</v>
+        <v>7.53</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1312,14 +1312,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ANDRES AVELINO CACERES D.</t>
+          <t>ACOCRO</t>
         </is>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>3.13</v>
+        <v>10.56</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1338,14 +1338,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>ANDRES AVELINO CACERES D.</t>
         </is>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1.7</v>
+        <v>3.13</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1364,14 +1364,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>13.57</v>
+        <v>1.76</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1411,19 +1411,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D41">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1108.85</v>
+        <v>13.57</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1442,14 +1442,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>345.13</v>
+        <v>1131.48</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1468,14 +1468,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E43">
-        <v>15.81</v>
+        <v>336.5</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SANTILLANA</t>
+          <t>LURICOCHA</t>
         </is>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>28.01</v>
+        <v>15.81</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>SANTILLANA</t>
         </is>
       </c>
       <c r="D45">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1576.95</v>
+        <v>28.01</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1541,19 +1541,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E46">
-        <v>24.34</v>
+        <v>1585.76</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>35.93</v>
+        <v>24.34</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1598,14 +1598,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D48">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>1163.75</v>
+        <v>35.93</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="E49">
-        <v>1283.81</v>
+        <v>1184.35</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E50">
-        <v>158.64</v>
+        <v>1283.81</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>12.17</v>
+        <v>158.64</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1702,14 +1702,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D52">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>367.38</v>
+        <v>12.17</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1728,17 +1728,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E53">
-        <v>696.38</v>
+        <v>391.34</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>696.38</v>
+      </c>
+      <c r="F54">
         <v>1</v>
-      </c>
-      <c r="E54">
-        <v>40.11</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1780,14 +1780,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>7.18</v>
+        <v>40.11</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1801,19 +1801,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VICTOR FAJARDO</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HUANCARAYLLA</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>87.11</v>
+        <v>7.18</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1822,24 +1822,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>VICTOR FAJARDO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>HUANCARAYLLA</t>
         </is>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1.18</v>
+        <v>87.11</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1858,14 +1858,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LOS BAÑOS DEL INCA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1.78</v>
+        <v>1.18</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>11.05</v>
+        <v>22.1</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="D66">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="E66">
-        <v>10518.35</v>
+        <v>11237.23</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="D67">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E67">
-        <v>369.66</v>
+        <v>407.9</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>230.06</v>
+        <v>306.75</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="D69">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E69">
-        <v>5590.06</v>
+        <v>5782.31</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2170,14 +2170,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CALLAYUC</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>10.7</v>
+        <v>31.47</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>31.47</v>
+        <v>11.3</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2217,19 +2217,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="E72">
-        <v>11.3</v>
+        <v>940.5</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2248,14 +2248,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D73">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>928.4400000000001</v>
+        <v>66.36</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2274,17 +2274,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>2011</v>
       </c>
       <c r="E74">
-        <v>66.36</v>
+        <v>1841.42</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D75">
-        <v>1909</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>1748.02</v>
+        <v>10.59</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>242.65</v>
+        <v>114.19</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="D81">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E81">
-        <v>444.08</v>
+        <v>427.84</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="D84">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E84">
-        <v>639.79</v>
+        <v>637.37</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>19.88</v>
+        <v>24.85</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2612,14 +2612,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EL PRADO</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>123.3</v>
+        <v>28.39</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2633,19 +2633,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>28.39</v>
+        <v>110.79</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2659,19 +2659,19 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>66.47</v>
+        <v>10.32</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>10.32</v>
+        <v>10.55</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2706,24 +2706,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E91">
-        <v>10.55</v>
+        <v>44.53</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2742,14 +2742,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D92">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="E92">
-        <v>43.33</v>
+        <v>26.05</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D93">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E93">
-        <v>24.75</v>
+        <v>24.87</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2794,14 +2794,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>22.79</v>
+        <v>10.63</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2820,14 +2820,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>9.109999999999999</v>
+        <v>49.96</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2846,14 +2846,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="E96">
-        <v>49.96</v>
+        <v>293.23</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2872,40 +2872,40 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D97">
-        <v>144</v>
+        <v>527</v>
       </c>
       <c r="E97">
-        <v>262.27</v>
+        <v>132.74</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D98">
-        <v>481</v>
+        <v>20</v>
       </c>
       <c r="E98">
-        <v>121.15</v>
+        <v>212.92</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2919,19 +2919,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D99">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>191.63</v>
+        <v>18.08</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2945,19 +2945,19 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>18.08</v>
+        <v>4.08</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>3.26</v>
+        <v>0.7</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2997,19 +2997,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SAN SEBASTIAN</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E102">
-        <v>0.7</v>
+        <v>820.42</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3028,14 +3028,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D103">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E103">
-        <v>820.42</v>
+        <v>265.66</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3054,17 +3054,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D104">
-        <v>48</v>
+        <v>328</v>
       </c>
       <c r="E104">
-        <v>255.03</v>
+        <v>2352.43</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3080,17 +3080,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D105">
-        <v>329</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>2359.61</v>
+        <v>68.17</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3106,14 +3106,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E106">
-        <v>68.17</v>
+        <v>1187.45</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3132,14 +3132,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D107">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>1187.45</v>
+        <v>159.14</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3158,14 +3158,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E108">
-        <v>159.14</v>
+        <v>778.4</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3184,14 +3184,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>OCOBAMBA</t>
         </is>
       </c>
       <c r="D109">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>778.4</v>
+        <v>51.37</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3210,17 +3210,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>OCOBAMBA</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>424</v>
       </c>
       <c r="E110">
-        <v>51.37</v>
+        <v>1801.57</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D111">
-        <v>425</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>1805.82</v>
+        <v>40.15</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>1032</v>
       </c>
       <c r="E112">
-        <v>33.46</v>
+        <v>3461.11</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3288,14 +3288,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D113">
-        <v>1003</v>
+        <v>34</v>
       </c>
       <c r="E113">
-        <v>3363.85</v>
+        <v>616.5</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3314,14 +3314,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D114">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E114">
-        <v>616.5</v>
+        <v>3283.34</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D115">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="E115">
-        <v>3283.34</v>
+        <v>1450.48</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3361,19 +3361,19 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D116">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>1409.03</v>
+        <v>955.53</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3387,19 +3387,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D117">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>955.53</v>
+        <v>16.85</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3408,24 +3408,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>16.85</v>
+        <v>4.21</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3444,14 +3444,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>CONCHAMARCA</t>
         </is>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>4.21</v>
+        <v>23.76</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3465,19 +3465,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>HUACAYBAMBA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CONCHAMARCA</t>
+          <t>HUACAYBAMBA</t>
         </is>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>23.76</v>
+        <v>18.06</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3491,19 +3491,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>HUACAYBAMBA</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HUACAYBAMBA</t>
+          <t>MONZON</t>
         </is>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E121">
-        <v>36.13</v>
+        <v>325.91</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3517,19 +3517,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MONZON</t>
+          <t>CHINCHAO</t>
         </is>
       </c>
       <c r="D122">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>534.13</v>
+        <v>37.49</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CHINCHAO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D123">
         <v>5</v>
       </c>
       <c r="E123">
-        <v>37.49</v>
+        <v>5.1</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3574,14 +3574,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>PILLCO MARCA</t>
         </is>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>5.1</v>
+        <v>1.84</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3595,19 +3595,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>LAURICOCHA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PILLCO MARCA</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>3.68</v>
+        <v>29.74</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3621,19 +3621,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>LAURICOCHA</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>JESUS</t>
+          <t>CASTILLO GRANDE</t>
         </is>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="E126">
-        <v>29.74</v>
+        <v>2032.61</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3652,14 +3652,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CASTILLO GRANDE</t>
+          <t>DANIEL ALOMIA ROBLES</t>
         </is>
       </c>
       <c r="D127">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="E127">
-        <v>2090.07</v>
+        <v>480.29</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3678,14 +3678,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DANIEL ALOMIA ROBLES</t>
+          <t>HERMILIO VALDIZAN</t>
         </is>
       </c>
       <c r="D128">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>522.67</v>
+        <v>54.11</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3704,14 +3704,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HERMILIO VALDIZAN</t>
+          <t>JOSE CRESPO Y CASTILLO</t>
         </is>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E129">
-        <v>81.17</v>
+        <v>292.33</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3730,14 +3730,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>JOSE CRESPO Y CASTILLO</t>
+          <t>LUYANDO</t>
         </is>
       </c>
       <c r="D130">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="E130">
-        <v>349.97</v>
+        <v>1636.81</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3756,14 +3756,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>LUYANDO</t>
+          <t>MARIANO DAMASO BERAUN</t>
         </is>
       </c>
       <c r="D131">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="E131">
-        <v>1729.46</v>
+        <v>577.54</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MARIANO DAMASO BERAUN</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D132">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E132">
-        <v>646.5</v>
+        <v>253.57</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,17 +3808,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="D133">
-        <v>12</v>
+        <v>853</v>
       </c>
       <c r="E133">
-        <v>276.63</v>
+        <v>1408.33</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>SANTO DOMINGO DE ANDA</t>
         </is>
       </c>
       <c r="D134">
-        <v>882</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>1456.21</v>
+        <v>306.98</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3855,19 +3855,19 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ANDA</t>
+          <t>CHOLON</t>
         </is>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E135">
-        <v>306.98</v>
+        <v>213.33</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3886,14 +3886,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CHOLON</t>
+          <t>LA MORADA</t>
         </is>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E136">
-        <v>213.33</v>
+        <v>518.27</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LA MORADA</t>
+          <t>SANTA ROSA DE ALTO YANAJANCA</t>
         </is>
       </c>
       <c r="D137">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>518.27</v>
+        <v>216.84</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3933,19 +3933,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE ALTO YANAJANCA</t>
+          <t>CHAGLLA</t>
         </is>
       </c>
       <c r="D138">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>216.84</v>
+        <v>41.23</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3959,19 +3959,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CHAGLLA</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="E139">
-        <v>41.23</v>
+        <v>1644.77</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3990,14 +3990,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D140">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>1656.2</v>
+        <v>82.34</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="E141">
-        <v>82.34</v>
+        <v>1537.79</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4042,14 +4042,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D142">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>1502.64</v>
+        <v>264.43</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4068,14 +4068,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D143">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E143">
-        <v>264.43</v>
+        <v>303.47</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4084,27 +4084,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D144">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="E144">
-        <v>303.47</v>
+        <v>1133.86</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4120,17 +4120,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D145">
-        <v>107</v>
+        <v>1623</v>
       </c>
       <c r="E145">
-        <v>1123.36</v>
+        <v>1978.64</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -4146,17 +4146,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D146">
-        <v>1598</v>
+        <v>78</v>
       </c>
       <c r="E146">
-        <v>1948.16</v>
+        <v>509.5</v>
       </c>
       <c r="F146">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4172,14 +4172,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D147">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E147">
-        <v>496.44</v>
+        <v>288.42</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4198,17 +4198,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D148">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="E148">
-        <v>274.69</v>
+        <v>914.1</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4224,17 +4224,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D149">
-        <v>281</v>
+        <v>1405</v>
       </c>
       <c r="E149">
-        <v>910.86</v>
+        <v>1808.35</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D150">
-        <v>1381</v>
+        <v>595</v>
       </c>
       <c r="E150">
-        <v>1777.46</v>
+        <v>1707.95</v>
       </c>
       <c r="F150">
         <v>4</v>
@@ -4276,17 +4276,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D151">
-        <v>575</v>
+        <v>51</v>
       </c>
       <c r="E151">
-        <v>1650.54</v>
+        <v>734.76</v>
       </c>
       <c r="F151">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4297,22 +4297,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D152">
-        <v>48</v>
+        <v>1088</v>
       </c>
       <c r="E152">
-        <v>691.54</v>
+        <v>598.52</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4328,17 +4328,17 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D153">
-        <v>1049</v>
+        <v>189</v>
       </c>
       <c r="E153">
-        <v>577.0700000000001</v>
+        <v>378.79</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4354,14 +4354,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D154">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E154">
-        <v>362.75</v>
+        <v>404.59</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4380,17 +4380,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D155">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E155">
-        <v>400.88</v>
+        <v>1879.7</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4406,17 +4406,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D156">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E156">
-        <v>1861.8</v>
+        <v>393.21</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4432,14 +4432,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D157">
-        <v>29</v>
+        <v>501</v>
       </c>
       <c r="E157">
-        <v>325.81</v>
+        <v>793.12</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4458,14 +4458,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D158">
-        <v>472</v>
+        <v>61</v>
       </c>
       <c r="E158">
-        <v>747.21</v>
+        <v>739.21</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4484,17 +4484,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D159">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="E159">
-        <v>739.21</v>
+        <v>659.83</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -4510,17 +4510,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D160">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="E160">
-        <v>644.1900000000001</v>
+        <v>896.39</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -4536,14 +4536,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D161">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="E161">
-        <v>849.83</v>
+        <v>1196.23</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D162">
-        <v>188</v>
+        <v>325</v>
       </c>
       <c r="E162">
-        <v>1165.24</v>
+        <v>992.3099999999999</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4588,17 +4588,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D163">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="E163">
-        <v>973.99</v>
+        <v>847.51</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4614,17 +4614,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D164">
-        <v>288</v>
+        <v>59</v>
       </c>
       <c r="E164">
-        <v>833.04</v>
+        <v>1067.68</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4640,14 +4640,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D165">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>1013.39</v>
+        <v>221.73</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4661,19 +4661,19 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E166">
-        <v>221.73</v>
+        <v>1294.22</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4692,14 +4692,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D167">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E167">
-        <v>1294.22</v>
+        <v>130.55</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4718,14 +4718,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E168">
-        <v>130.55</v>
+        <v>40.71</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4744,17 +4744,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>818</v>
       </c>
       <c r="E169">
-        <v>40.71</v>
+        <v>2579.14</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4770,17 +4770,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D170">
-        <v>816</v>
+        <v>355</v>
       </c>
       <c r="E170">
-        <v>2572.83</v>
+        <v>1345.46</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4791,19 +4791,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D171">
-        <v>354</v>
+        <v>22</v>
       </c>
       <c r="E171">
-        <v>1341.67</v>
+        <v>1189.19</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4822,14 +4822,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D172">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E172">
-        <v>1135.14</v>
+        <v>951.33</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D173">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E173">
-        <v>896.02</v>
+        <v>464.19</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4874,14 +4874,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D174">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>464.19</v>
+        <v>93.2</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4895,19 +4895,19 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>HUMAY</t>
         </is>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>93.2</v>
+        <v>113.97</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4926,14 +4926,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HUMAY</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D176">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E176">
-        <v>113.97</v>
+        <v>314.01</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4952,14 +4952,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>PARACAS</t>
         </is>
       </c>
       <c r="D177">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E177">
-        <v>314.01</v>
+        <v>118.37</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4978,17 +4978,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>PARACAS</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="D178">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="E178">
-        <v>108.5</v>
+        <v>539.73</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5004,17 +5004,17 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>SAN ANDRES</t>
         </is>
       </c>
       <c r="D179">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="E179">
-        <v>529.03</v>
+        <v>263.54</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -5030,17 +5030,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SAN ANDRES</t>
+          <t>SAN CLEMENTE</t>
         </is>
       </c>
       <c r="D180">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E180">
-        <v>257.69</v>
+        <v>232.62</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5056,40 +5056,40 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SAN CLEMENTE</t>
+          <t>TUPAC AMARU INCA</t>
         </is>
       </c>
       <c r="D181">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="E181">
-        <v>216.46</v>
+        <v>700.36</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>TUPAC AMARU INCA</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="D182">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="E182">
-        <v>675.87</v>
+        <v>1317</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5108,17 +5108,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>PERENE</t>
         </is>
       </c>
       <c r="D183">
-        <v>381</v>
+        <v>592</v>
       </c>
       <c r="E183">
-        <v>1293.24</v>
+        <v>983.39</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5134,17 +5134,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PERENE</t>
+          <t>PICHANAQUI</t>
         </is>
       </c>
       <c r="D184">
-        <v>592</v>
+        <v>277</v>
       </c>
       <c r="E184">
-        <v>983.39</v>
+        <v>660.15</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -5160,17 +5160,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>PICHANAQUI</t>
+          <t>SAN LUIS DE SHUARO</t>
         </is>
       </c>
       <c r="D185">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="E185">
-        <v>660.15</v>
+        <v>594.92</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5186,17 +5186,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SAN LUIS DE SHUARO</t>
+          <t>SAN RAMON</t>
         </is>
       </c>
       <c r="D186">
-        <v>23</v>
+        <v>429</v>
       </c>
       <c r="E186">
-        <v>621.96</v>
+        <v>1452.07</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -5212,17 +5212,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SAN RAMON</t>
+          <t>VITOC</t>
         </is>
       </c>
       <c r="D187">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="E187">
-        <v>1424.99</v>
+        <v>185.99</v>
       </c>
       <c r="F187">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5233,19 +5233,19 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>VITOC</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>185.99</v>
+        <v>1.92</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5264,14 +5264,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>1.92</v>
+        <v>2.33</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5285,19 +5285,19 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>3.11</v>
+        <v>22.28</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5316,14 +5316,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D191">
         <v>1</v>
       </c>
       <c r="E191">
-        <v>22.28</v>
+        <v>44.46</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -5342,14 +5342,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
       <c r="E192">
-        <v>44.46</v>
+        <v>51.15</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -5363,19 +5363,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>51.15</v>
+        <v>19.08</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -5389,19 +5389,19 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E194">
-        <v>19.08</v>
+        <v>637.98</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5420,14 +5420,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D195">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E195">
-        <v>637.98</v>
+        <v>115.49</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -5446,14 +5446,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E196">
-        <v>128.32</v>
+        <v>142.7</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -5472,14 +5472,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D197">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>138.17</v>
+        <v>28.91</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E198">
-        <v>28.91</v>
+        <v>291.27</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -5524,14 +5524,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D199">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="E199">
-        <v>285.42</v>
+        <v>264.9</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -5550,14 +5550,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D200">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="E200">
-        <v>259.26</v>
+        <v>135.27</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -5576,14 +5576,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D201">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="E201">
-        <v>131.97</v>
+        <v>671.75</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5602,14 +5602,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D202">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="E202">
-        <v>667.21</v>
+        <v>212.21</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -5618,24 +5618,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D203">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E203">
-        <v>212.21</v>
+        <v>202.58</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -5654,14 +5654,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D204">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E204">
-        <v>202.58</v>
+        <v>76.84</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5680,14 +5680,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D205">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E205">
-        <v>76.84</v>
+        <v>240.34</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -5706,14 +5706,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D206">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E206">
-        <v>228.02</v>
+        <v>71.12</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -5732,14 +5732,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E207">
-        <v>71.12</v>
+        <v>144.91</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -5758,14 +5758,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D208">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>141.54</v>
+        <v>10.54</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5784,14 +5784,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>10.54</v>
+        <v>19.93</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -5805,19 +5805,19 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>BAMBAMARCA</t>
         </is>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>19.93</v>
+        <v>31.35</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -5831,19 +5831,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>BAMBAMARCA</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="E211">
-        <v>31.35</v>
+        <v>533.48</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5862,14 +5862,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>PACANGA</t>
         </is>
       </c>
       <c r="D212">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>453.56</v>
+        <v>11.72</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5888,14 +5888,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>PACANGA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>39.07</v>
+        <v>7.72</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5909,19 +5909,19 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>CASCAS</t>
         </is>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E214">
-        <v>7.72</v>
+        <v>414.65</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5940,14 +5940,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>CASCAS</t>
+          <t>SAYAPULLO</t>
         </is>
       </c>
       <c r="D215">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>386.53</v>
+        <v>15.6</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -5961,19 +5961,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>JULCAN</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>SAYAPULLO</t>
+          <t>CALAMARCA</t>
         </is>
       </c>
       <c r="D216">
         <v>1</v>
       </c>
       <c r="E216">
-        <v>15.6</v>
+        <v>20.18</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -5987,22 +5987,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>JULCAN</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CALAMARCA</t>
+          <t>GUADALUPE</t>
         </is>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="E217">
-        <v>20.18</v>
+        <v>1542.49</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -6018,17 +6018,17 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="D218">
-        <v>688</v>
+        <v>29</v>
       </c>
       <c r="E218">
-        <v>1513.88</v>
+        <v>86.73</v>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D219">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E219">
-        <v>83.73999999999999</v>
+        <v>115.31</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -6070,14 +6070,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>SAN PEDRO DE LLOC</t>
         </is>
       </c>
       <c r="D220">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E220">
-        <v>115.31</v>
+        <v>109.87</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6091,19 +6091,19 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE LLOC</t>
+          <t>PARCOY</t>
         </is>
       </c>
       <c r="D221">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>114.86</v>
+        <v>9.34</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6122,14 +6122,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>PARCOY</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E222">
-        <v>9.34</v>
+        <v>53.85</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6148,14 +6148,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>TAYABAMBA</t>
         </is>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>44.88</v>
+        <v>7.13</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6169,19 +6169,19 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>SANCHEZ CARRION</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TAYABAMBA</t>
+          <t>MARCABAL</t>
         </is>
       </c>
       <c r="D224">
         <v>1</v>
       </c>
       <c r="E224">
-        <v>7.13</v>
+        <v>8.82</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6195,19 +6195,19 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SANCHEZ CARRION</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>COCHORCO</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>364</v>
       </c>
       <c r="E225">
-        <v>9.43</v>
+        <v>148.93</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -6226,14 +6226,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>FLORENCIA DE MORA</t>
         </is>
       </c>
       <c r="D226">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="E226">
-        <v>142.79</v>
+        <v>649.88</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6252,14 +6252,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA</t>
+          <t>HUANCHACO</t>
         </is>
       </c>
       <c r="D227">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E227">
-        <v>625.26</v>
+        <v>242.98</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6278,17 +6278,17 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>HUANCHACO</t>
+          <t>LA ESPERANZA</t>
         </is>
       </c>
       <c r="D228">
-        <v>206</v>
+        <v>2578</v>
       </c>
       <c r="E228">
-        <v>215.75</v>
+        <v>1081.58</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -6304,17 +6304,17 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>LA ESPERANZA</t>
+          <t>LAREDO</t>
         </is>
       </c>
       <c r="D229">
-        <v>2489</v>
+        <v>101</v>
       </c>
       <c r="E229">
-        <v>1044.24</v>
+        <v>222.73</v>
       </c>
       <c r="F229">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -6330,14 +6330,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>LAREDO</t>
+          <t>MOCHE</t>
         </is>
       </c>
       <c r="D230">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E230">
-        <v>213.91</v>
+        <v>45.88</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6356,14 +6356,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MOCHE</t>
+          <t>POROTO</t>
         </is>
       </c>
       <c r="D231">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>48.06</v>
+        <v>73.14</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -6382,14 +6382,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>POROTO</t>
+          <t>SALAVERRY</t>
         </is>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E232">
-        <v>73.14</v>
+        <v>57.01</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6408,14 +6408,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>SALAVERRY</t>
+          <t>SIMBAL</t>
         </is>
       </c>
       <c r="D233">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>52.94</v>
+        <v>21.11</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -6434,17 +6434,17 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>SIMBAL</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D234">
+        <v>789</v>
+      </c>
+      <c r="E234">
+        <v>218.68</v>
+      </c>
+      <c r="F234">
         <v>1</v>
-      </c>
-      <c r="E234">
-        <v>21.11</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -6460,17 +6460,17 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>VICTOR LARCO HERRERA</t>
         </is>
       </c>
       <c r="D235">
-        <v>766</v>
+        <v>33</v>
       </c>
       <c r="E235">
-        <v>212.31</v>
+        <v>39.64</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -6481,22 +6481,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA</t>
+          <t>CHAO</t>
         </is>
       </c>
       <c r="D236">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="E236">
-        <v>39.64</v>
+        <v>717.6</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -6512,14 +6512,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>CHAO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="D237">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="E237">
-        <v>687.12</v>
+        <v>430.64</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -6528,27 +6528,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CAYALTI</t>
         </is>
       </c>
       <c r="D238">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="E238">
-        <v>364.26</v>
+        <v>520.97</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -6564,17 +6564,17 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>CAYALTI</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="D239">
-        <v>75</v>
+        <v>3397</v>
       </c>
       <c r="E239">
-        <v>488.41</v>
+        <v>1143.3</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
@@ -6590,17 +6590,17 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>CHONGOYAPE</t>
         </is>
       </c>
       <c r="D240">
-        <v>3124</v>
+        <v>134</v>
       </c>
       <c r="E240">
-        <v>1051.42</v>
+        <v>665.71</v>
       </c>
       <c r="F240">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -6616,17 +6616,17 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>CHONGOYAPE</t>
+          <t>ETEN</t>
         </is>
       </c>
       <c r="D241">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>655.77</v>
+        <v>43.96</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -6642,14 +6642,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ETEN</t>
+          <t>ETEN PUERTO</t>
         </is>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>43.96</v>
+        <v>80.16</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="D243">
-        <v>995</v>
+        <v>1044</v>
       </c>
       <c r="E243">
-        <v>587.01</v>
+        <v>615.92</v>
       </c>
       <c r="F243">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -6698,10 +6698,10 @@
         </is>
       </c>
       <c r="D244">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="E244">
-        <v>559.39</v>
+        <v>644.23</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="D246">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E246">
-        <v>154.81</v>
+        <v>171.1</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         </is>
       </c>
       <c r="D248">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E248">
-        <v>1032.04</v>
+        <v>1056.04</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="D249">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E249">
-        <v>616.95</v>
+        <v>624.71</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="D250">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E250">
-        <v>1163.02</v>
+        <v>1189.76</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="D251">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E251">
-        <v>145.36</v>
+        <v>151.03</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="D252">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E252">
-        <v>315.37</v>
+        <v>326.12</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="D253">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E253">
-        <v>525.39</v>
+        <v>591.0700000000001</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6964,7 +6964,7 @@
         <v>135.94</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -7010,10 +7010,10 @@
         </is>
       </c>
       <c r="D256">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E256">
-        <v>1350.18</v>
+        <v>1405.45</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7036,10 +7036,10 @@
         </is>
       </c>
       <c r="D257">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E257">
-        <v>1031</v>
+        <v>1037.58</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -7088,10 +7088,10 @@
         </is>
       </c>
       <c r="D259">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="E259">
-        <v>874.58</v>
+        <v>984.87</v>
       </c>
       <c r="F259">
         <v>5</v>
@@ -7140,10 +7140,10 @@
         </is>
       </c>
       <c r="D261">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E261">
-        <v>398.5</v>
+        <v>421.94</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7166,10 +7166,10 @@
         </is>
       </c>
       <c r="D262">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E262">
-        <v>1334.34</v>
+        <v>1378.82</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -7192,10 +7192,10 @@
         </is>
       </c>
       <c r="D263">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E263">
-        <v>1170.09</v>
+        <v>1194.73</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="D265">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E265">
-        <v>451.35</v>
+        <v>571.72</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         </is>
       </c>
       <c r="D266">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E266">
-        <v>1449.83</v>
+        <v>1483.21</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7296,10 +7296,10 @@
         </is>
       </c>
       <c r="D267">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="E267">
-        <v>424.99</v>
+        <v>484.7</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="D268">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E268">
-        <v>71.16</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="D269">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E269">
-        <v>200.02</v>
+        <v>206.8</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="D270">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E270">
-        <v>2533.26</v>
+        <v>2541.55</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -7400,10 +7400,10 @@
         </is>
       </c>
       <c r="D271">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E271">
-        <v>214.56</v>
+        <v>230</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="D272">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E272">
-        <v>1168.6</v>
+        <v>1189.84</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         </is>
       </c>
       <c r="D273">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E273">
-        <v>239.59</v>
+        <v>260.73</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -7478,10 +7478,10 @@
         </is>
       </c>
       <c r="D274">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E274">
-        <v>47.19</v>
+        <v>52.43</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -7504,10 +7504,10 @@
         </is>
       </c>
       <c r="D275">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E275">
-        <v>50.57</v>
+        <v>58.35</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="D278">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E278">
-        <v>129.12</v>
+        <v>136.29</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7686,10 +7686,10 @@
         </is>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E282">
-        <v>31.62</v>
+        <v>42.15</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="D284">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E284">
-        <v>12.46</v>
+        <v>17.45</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -7790,10 +7790,10 @@
         </is>
       </c>
       <c r="D286">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E286">
-        <v>998.95</v>
+        <v>1010.3</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -7816,10 +7816,10 @@
         </is>
       </c>
       <c r="D287">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E287">
-        <v>26.59</v>
+        <v>36.57</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -7842,10 +7842,10 @@
         </is>
       </c>
       <c r="D288">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E288">
-        <v>1324.58</v>
+        <v>1413.28</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -7920,10 +7920,10 @@
         </is>
       </c>
       <c r="D291">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E291">
-        <v>33.26</v>
+        <v>36.42</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -8128,10 +8128,10 @@
         </is>
       </c>
       <c r="D299">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E299">
-        <v>1454.11</v>
+        <v>1442.19</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -8232,10 +8232,10 @@
         </is>
       </c>
       <c r="D303">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E303">
-        <v>113.3</v>
+        <v>143.52</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -8284,10 +8284,10 @@
         </is>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E305">
-        <v>76.05</v>
+        <v>152.09</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         </is>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E306">
-        <v>5.49</v>
+        <v>6.87</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8414,10 +8414,10 @@
         </is>
       </c>
       <c r="D310">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E310">
-        <v>200.72</v>
+        <v>210.6</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -8440,10 +8440,10 @@
         </is>
       </c>
       <c r="D311">
-        <v>901</v>
+        <v>951</v>
       </c>
       <c r="E311">
-        <v>126.35</v>
+        <v>133.36</v>
       </c>
       <c r="F311">
         <v>1</v>
@@ -8518,10 +8518,10 @@
         </is>
       </c>
       <c r="D314">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="E314">
-        <v>83.14</v>
+        <v>87.12</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         </is>
       </c>
       <c r="D315">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="E315">
-        <v>1038.4</v>
+        <v>1124.93</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         </is>
       </c>
       <c r="D316">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E316">
-        <v>12.05</v>
+        <v>13.93</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         </is>
       </c>
       <c r="D317">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E317">
-        <v>167.15</v>
+        <v>172.06</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -8622,10 +8622,10 @@
         </is>
       </c>
       <c r="D318">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="E318">
-        <v>111.49</v>
+        <v>115.67</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="D319">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E319">
-        <v>28.66</v>
+        <v>29.52</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -8674,10 +8674,10 @@
         </is>
       </c>
       <c r="D320">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E320">
-        <v>68.75</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="D321">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E321">
-        <v>21.86</v>
+        <v>24.17</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="D322">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E322">
-        <v>69.3</v>
+        <v>70.48</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         </is>
       </c>
       <c r="D323">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E323">
-        <v>19.43</v>
+        <v>21.98</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -8778,10 +8778,10 @@
         </is>
       </c>
       <c r="D324">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E324">
-        <v>22.06</v>
+        <v>24.59</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="D325">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E325">
-        <v>46.98</v>
+        <v>51.68</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="D326">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E326">
-        <v>23.18</v>
+        <v>24.54</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="D327">
-        <v>586</v>
+        <v>636</v>
       </c>
       <c r="E327">
-        <v>192.78</v>
+        <v>209.23</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="D328">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E328">
-        <v>73.7</v>
+        <v>77.17</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="D330">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E330">
-        <v>5.15</v>
+        <v>6.01</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="D331">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E331">
-        <v>74.42</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="D333">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E333">
-        <v>22.09</v>
+        <v>26.11</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -9038,10 +9038,10 @@
         </is>
       </c>
       <c r="D334">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="E334">
-        <v>134.44</v>
+        <v>145.25</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9064,10 +9064,10 @@
         </is>
       </c>
       <c r="D335">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="E335">
-        <v>187.24</v>
+        <v>203.77</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -9116,10 +9116,10 @@
         </is>
       </c>
       <c r="D337">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E337">
-        <v>13.5</v>
+        <v>12.75</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="D338">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E338">
-        <v>5.63</v>
+        <v>7.04</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9168,10 +9168,10 @@
         </is>
       </c>
       <c r="D339">
-        <v>2381</v>
+        <v>2429</v>
       </c>
       <c r="E339">
-        <v>191.94</v>
+        <v>195.81</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9194,10 +9194,10 @@
         </is>
       </c>
       <c r="D340">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="E340">
-        <v>367.48</v>
+        <v>369.8</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9220,10 +9220,10 @@
         </is>
       </c>
       <c r="D341">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E341">
-        <v>6.9</v>
+        <v>10.34</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="D342">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="E342">
-        <v>38.62</v>
+        <v>40.02</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -9298,10 +9298,10 @@
         </is>
       </c>
       <c r="D344">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E344">
-        <v>18.48</v>
+        <v>19.76</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="D346">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E346">
-        <v>50.46</v>
+        <v>57.67</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         </is>
       </c>
       <c r="D347">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E347">
-        <v>10.31</v>
+        <v>12.89</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -9428,10 +9428,10 @@
         </is>
       </c>
       <c r="D349">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E349">
-        <v>15.62</v>
+        <v>16.98</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="D350">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="E350">
-        <v>93.23999999999999</v>
+        <v>102.61</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         </is>
       </c>
       <c r="D353">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E353">
-        <v>138.59</v>
+        <v>133.26</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         </is>
       </c>
       <c r="D354">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E354">
-        <v>687.76</v>
+        <v>707.41</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -9662,10 +9662,10 @@
         </is>
       </c>
       <c r="D358">
-        <v>1881</v>
+        <v>1868</v>
       </c>
       <c r="E358">
-        <v>1681.48</v>
+        <v>1669.86</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         </is>
       </c>
       <c r="D360">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E360">
-        <v>2365.89</v>
+        <v>2406.89</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E365">
-        <v>339.88</v>
+        <v>328.46</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9922,10 +9922,10 @@
         </is>
       </c>
       <c r="D368">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E368">
-        <v>176.88</v>
+        <v>185.73</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         </is>
       </c>
       <c r="D370">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E370">
-        <v>273.03</v>
+        <v>280.83</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -10104,10 +10104,10 @@
         </is>
       </c>
       <c r="D375">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E375">
-        <v>328.15</v>
+        <v>335.07</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         </is>
       </c>
       <c r="D383">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="E383">
-        <v>396.99</v>
+        <v>400.14</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -10494,10 +10494,10 @@
         </is>
       </c>
       <c r="D390">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E390">
-        <v>2062.87</v>
+        <v>2082.51</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         </is>
       </c>
       <c r="D393">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E393">
-        <v>550.34</v>
+        <v>553.84</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10624,10 +10624,10 @@
         </is>
       </c>
       <c r="D395">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E395">
-        <v>1365.52</v>
+        <v>1379.31</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -10728,10 +10728,10 @@
         </is>
       </c>
       <c r="D399">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E399">
-        <v>1568.14</v>
+        <v>1679.68</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="D410">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="E410">
-        <v>960.78</v>
+        <v>963.48</v>
       </c>
       <c r="F410">
         <v>1</v>
@@ -11400,14 +11400,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>PAIMAS</t>
+          <t>PACAIPAMPA</t>
         </is>
       </c>
       <c r="D425">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E425">
-        <v>76.72</v>
+        <v>4.32</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -11426,14 +11426,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>SUYO</t>
+          <t>PAIMAS</t>
         </is>
       </c>
       <c r="D426">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="E426">
-        <v>1762.45</v>
+        <v>76.72</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -11447,19 +11447,19 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>CANCHAQUE</t>
+          <t>SUYO</t>
         </is>
       </c>
       <c r="D427">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="E427">
-        <v>147.89</v>
+        <v>1762.45</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -11478,17 +11478,17 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>CANCHAQUE</t>
         </is>
       </c>
       <c r="D428">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E428">
-        <v>30.77</v>
+        <v>147.89</v>
       </c>
       <c r="F428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -11504,17 +11504,17 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>HUARMACA</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="D429">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E429">
-        <v>18.7</v>
+        <v>30.77</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -11530,14 +11530,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE EL FAIQUE</t>
+          <t>HUARMACA</t>
         </is>
       </c>
       <c r="D430">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E430">
-        <v>423.33</v>
+        <v>18.7</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -11556,14 +11556,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>SONDOR</t>
+          <t>SAN MIGUEL DE EL FAIQUE</t>
         </is>
       </c>
       <c r="D431">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E431">
-        <v>27.39</v>
+        <v>423.33</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -11577,19 +11577,19 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>SONDOR</t>
         </is>
       </c>
       <c r="D432">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E432">
-        <v>672.86</v>
+        <v>27.39</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -11608,14 +11608,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>CHALACO</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D433">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E433">
-        <v>13.17</v>
+        <v>682.34</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -11634,17 +11634,17 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>CHULUCANAS</t>
+          <t>CHALACO</t>
         </is>
       </c>
       <c r="D434">
-        <v>3866</v>
+        <v>1</v>
       </c>
       <c r="E434">
-        <v>4213.44</v>
+        <v>13.17</v>
       </c>
       <c r="F434">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -11660,17 +11660,17 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>LA MATANZA</t>
+          <t>CHULUCANAS</t>
         </is>
       </c>
       <c r="D435">
-        <v>318</v>
+        <v>4056</v>
       </c>
       <c r="E435">
-        <v>2038.98</v>
+        <v>4420.52</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436">
@@ -11686,14 +11686,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>LA MATANZA</t>
         </is>
       </c>
       <c r="D436">
-        <v>581</v>
+        <v>322</v>
       </c>
       <c r="E436">
-        <v>3549.18</v>
+        <v>2064.63</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -11712,14 +11712,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="D437">
-        <v>238</v>
+        <v>591</v>
       </c>
       <c r="E437">
-        <v>2557.21</v>
+        <v>3610.26</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -11738,14 +11738,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>SAN JUAN DE BIGOTE</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D438">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="E438">
-        <v>1903.22</v>
+        <v>2567.96</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -11764,14 +11764,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>SANTA CATALINA DE MOSSA</t>
+          <t>SAN JUAN DE BIGOTE</t>
         </is>
       </c>
       <c r="D439">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="E439">
-        <v>632.74</v>
+        <v>1903.22</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -11790,14 +11790,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>SANTA CATALINA DE MOSSA</t>
         </is>
       </c>
       <c r="D440">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E440">
-        <v>137.24</v>
+        <v>632.74</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -11816,14 +11816,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>YAMANGO</t>
+          <t>SANTO DOMINGO</t>
         </is>
       </c>
       <c r="D441">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E441">
-        <v>68.8</v>
+        <v>137.24</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -11837,22 +11837,22 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>AMOTAPE</t>
+          <t>YAMANGO</t>
         </is>
       </c>
       <c r="D442">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E442">
-        <v>1795.26</v>
+        <v>80.27</v>
       </c>
       <c r="F442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -11868,17 +11868,17 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>ARENAL</t>
+          <t>AMOTAPE</t>
         </is>
       </c>
       <c r="D443">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E443">
-        <v>384.32</v>
+        <v>1795.26</v>
       </c>
       <c r="F443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -11894,14 +11894,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>COLAN</t>
+          <t>ARENAL</t>
         </is>
       </c>
       <c r="D444">
-        <v>318</v>
+        <v>5</v>
       </c>
       <c r="E444">
-        <v>1798.95</v>
+        <v>384.32</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -11920,17 +11920,17 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>LA HUACA</t>
+          <t>COLAN</t>
         </is>
       </c>
       <c r="D445">
-        <v>1146</v>
+        <v>350</v>
       </c>
       <c r="E445">
-        <v>7735.4</v>
+        <v>1979.97</v>
       </c>
       <c r="F445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -11946,14 +11946,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>LA HUACA</t>
         </is>
       </c>
       <c r="D446">
-        <v>1012</v>
+        <v>1171</v>
       </c>
       <c r="E446">
-        <v>932.8</v>
+        <v>7904.15</v>
       </c>
       <c r="F446">
         <v>1</v>
@@ -11972,17 +11972,17 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>TAMARINDO</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="D447">
-        <v>35</v>
+        <v>1069</v>
       </c>
       <c r="E447">
-        <v>624.89</v>
+        <v>985.34</v>
       </c>
       <c r="F447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -11998,14 +11998,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>VICHAYAL</t>
+          <t>TAMARINDO</t>
         </is>
       </c>
       <c r="D448">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E448">
-        <v>279.16</v>
+        <v>624.89</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -12019,22 +12019,22 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>CASTILLA</t>
+          <t>VICHAYAL</t>
         </is>
       </c>
       <c r="D449">
-        <v>3803</v>
+        <v>19</v>
       </c>
       <c r="E449">
-        <v>1942.72</v>
+        <v>294.67</v>
       </c>
       <c r="F449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -12050,14 +12050,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>CATACAOS</t>
+          <t>CASTILLA</t>
         </is>
       </c>
       <c r="D450">
-        <v>1377</v>
+        <v>3968</v>
       </c>
       <c r="E450">
-        <v>1625.8</v>
+        <v>2027.01</v>
       </c>
       <c r="F450">
         <v>1</v>
@@ -12076,17 +12076,17 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>CURA MORI</t>
+          <t>CATACAOS</t>
         </is>
       </c>
       <c r="D451">
-        <v>456</v>
+        <v>1401</v>
       </c>
       <c r="E451">
-        <v>2175.47</v>
+        <v>1654.13</v>
       </c>
       <c r="F451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -12102,14 +12102,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>EL TALLAN</t>
+          <t>CURA MORI</t>
         </is>
       </c>
       <c r="D452">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="E452">
-        <v>3847.48</v>
+        <v>2204.09</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -12128,14 +12128,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>LA ARENA</t>
+          <t>EL TALLAN</t>
         </is>
       </c>
       <c r="D453">
-        <v>739</v>
+        <v>226</v>
       </c>
       <c r="E453">
-        <v>1710.45</v>
+        <v>3881.83</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>LA UNION</t>
+          <t>LA ARENA</t>
         </is>
       </c>
       <c r="D454">
-        <v>937</v>
+        <v>778</v>
       </c>
       <c r="E454">
-        <v>2016.14</v>
+        <v>1800.72</v>
       </c>
       <c r="F454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -12180,17 +12180,17 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>LAS LOMAS</t>
+          <t>LA UNION</t>
         </is>
       </c>
       <c r="D455">
-        <v>117</v>
+        <v>1049</v>
       </c>
       <c r="E455">
-        <v>386.69</v>
+        <v>2257.13</v>
       </c>
       <c r="F455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -12206,17 +12206,17 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>LAS LOMAS</t>
         </is>
       </c>
       <c r="D456">
-        <v>3926</v>
+        <v>123</v>
       </c>
       <c r="E456">
-        <v>2071.24</v>
+        <v>406.52</v>
       </c>
       <c r="F456">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -12232,17 +12232,17 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TAMBO GRANDE</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D457">
-        <v>1025</v>
+        <v>4238</v>
       </c>
       <c r="E457">
-        <v>785.5700000000001</v>
+        <v>2235.85</v>
       </c>
       <c r="F457">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -12258,17 +12258,17 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE</t>
+          <t>TAMBO GRANDE</t>
         </is>
       </c>
       <c r="D458">
-        <v>1711</v>
+        <v>1066</v>
       </c>
       <c r="E458">
-        <v>868.95</v>
+        <v>816.99</v>
       </c>
       <c r="F458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -12279,19 +12279,19 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>BELLAVISTA DE LA UNION</t>
+          <t>VEINTISEIS DE OCTUBRE</t>
         </is>
       </c>
       <c r="D459">
-        <v>68</v>
+        <v>1846</v>
       </c>
       <c r="E459">
-        <v>1227.88</v>
+        <v>937.51</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -12310,14 +12310,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>BERNAL</t>
+          <t>BELLAVISTA DE LA UNION</t>
         </is>
       </c>
       <c r="D460">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E460">
-        <v>515.34</v>
+        <v>1570.96</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>CRISTO NOS VALGA</t>
+          <t>BERNAL</t>
         </is>
       </c>
       <c r="D461">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E461">
-        <v>358.09</v>
+        <v>515.34</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -12362,14 +12362,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>RINCONADA-LLICUAR</t>
+          <t>CRISTO NOS VALGA</t>
         </is>
       </c>
       <c r="D462">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E462">
-        <v>641.22</v>
+        <v>621.9400000000001</v>
       </c>
       <c r="F462">
         <v>0</v>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>RINCONADA-LLICUAR</t>
         </is>
       </c>
       <c r="D463">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="E463">
-        <v>544.85</v>
+        <v>702.29</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -12414,14 +12414,14 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>VICE</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="D464">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="E464">
-        <v>282.75</v>
+        <v>570.28</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -12435,22 +12435,22 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>VICE</t>
         </is>
       </c>
       <c r="D465">
-        <v>587</v>
+        <v>57</v>
       </c>
       <c r="E465">
-        <v>1462.16</v>
+        <v>298.46</v>
       </c>
       <c r="F465">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -12466,17 +12466,17 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>IGNACIO ESCUDERO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D466">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E466">
-        <v>2719.03</v>
+        <v>1511.98</v>
       </c>
       <c r="F466">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467">
@@ -12492,17 +12492,17 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>LANCONES</t>
+          <t>IGNACIO ESCUDERO</t>
         </is>
       </c>
       <c r="D467">
-        <v>17</v>
+        <v>626</v>
       </c>
       <c r="E467">
-        <v>124.78</v>
+        <v>2781.23</v>
       </c>
       <c r="F467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -12518,14 +12518,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>MARCAVELICA</t>
+          <t>LANCONES</t>
         </is>
       </c>
       <c r="D468">
-        <v>815</v>
+        <v>17</v>
       </c>
       <c r="E468">
-        <v>2434.73</v>
+        <v>124.78</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -12544,14 +12544,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>MIGUEL CHECA</t>
+          <t>MARCAVELICA</t>
         </is>
       </c>
       <c r="D469">
-        <v>195</v>
+        <v>833</v>
       </c>
       <c r="E469">
-        <v>1831.85</v>
+        <v>2488.5</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12570,14 +12570,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>QUERECOTILLO</t>
+          <t>MIGUEL CHECA</t>
         </is>
       </c>
       <c r="D470">
-        <v>519</v>
+        <v>198</v>
       </c>
       <c r="E470">
-        <v>1791.08</v>
+        <v>1860.03</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -12596,14 +12596,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>QUERECOTILLO</t>
         </is>
       </c>
       <c r="D471">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="E471">
-        <v>526.25</v>
+        <v>1822.13</v>
       </c>
       <c r="F471">
         <v>0</v>
@@ -12622,17 +12622,17 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D472">
-        <v>2864</v>
+        <v>43</v>
       </c>
       <c r="E472">
-        <v>1462.63</v>
+        <v>538.78</v>
       </c>
       <c r="F472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -12643,22 +12643,22 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TALARA</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>EL ALTO</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="D473">
-        <v>44</v>
+        <v>2949</v>
       </c>
       <c r="E473">
-        <v>471.19</v>
+        <v>1506.04</v>
       </c>
       <c r="F473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -12674,14 +12674,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>LA BREA</t>
+          <t>EL ALTO</t>
         </is>
       </c>
       <c r="D474">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E474">
-        <v>44.38</v>
+        <v>471.19</v>
       </c>
       <c r="F474">
         <v>0</v>
@@ -12700,14 +12700,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>LOBITOS</t>
+          <t>LA BREA</t>
         </is>
       </c>
       <c r="D475">
         <v>6</v>
       </c>
       <c r="E475">
-        <v>428.27</v>
+        <v>44.38</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12726,14 +12726,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>LOS ORGANOS</t>
+          <t>LOBITOS</t>
         </is>
       </c>
       <c r="D476">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E476">
-        <v>149.75</v>
+        <v>428.27</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -12752,14 +12752,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>MANCORA</t>
+          <t>LOS ORGANOS</t>
         </is>
       </c>
       <c r="D477">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E477">
-        <v>396.85</v>
+        <v>158.07</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -12778,43 +12778,43 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>PARIÑÃ‰AS</t>
+          <t>MANCORA</t>
         </is>
       </c>
       <c r="D478">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="E478">
-        <v>162.2</v>
+        <v>410.54</v>
       </c>
       <c r="F478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CARABAYA</t>
+          <t>TALARA</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>AYAPATA</t>
+          <t>PARIÑÃ‰AS</t>
         </is>
       </c>
       <c r="D479">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="E479">
-        <v>96.26000000000001</v>
+        <v>179.71</v>
       </c>
       <c r="F479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -12830,14 +12830,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>SAN GABAN</t>
+          <t>AYAPATA</t>
         </is>
       </c>
       <c r="D480">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="E480">
-        <v>2037.8</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -12846,24 +12846,24 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CARABAYA</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>ALTO BIAVO</t>
+          <t>SAN GABAN</t>
         </is>
       </c>
       <c r="D481">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="E481">
-        <v>95.59</v>
+        <v>2037.8</v>
       </c>
       <c r="F481">
         <v>0</v>
@@ -12882,14 +12882,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>BAJO BIAVO</t>
+          <t>ALTO BIAVO</t>
         </is>
       </c>
       <c r="D482">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E482">
-        <v>177.96</v>
+        <v>95.59</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -12908,17 +12908,17 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>BAJO BIAVO</t>
         </is>
       </c>
       <c r="D483">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="E483">
-        <v>855.36</v>
+        <v>177.96</v>
       </c>
       <c r="F483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -12934,17 +12934,17 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D484">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E484">
-        <v>361.27</v>
+        <v>865.6</v>
       </c>
       <c r="F484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -12960,14 +12960,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="D485">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E485">
-        <v>317.28</v>
+        <v>361.27</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -12986,14 +12986,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D486">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E486">
-        <v>249.3</v>
+        <v>317.28</v>
       </c>
       <c r="F486">
         <v>0</v>
@@ -13007,22 +13007,22 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>EL DORADO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>AGUA BLANCA</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="D487">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E487">
-        <v>83.79000000000001</v>
+        <v>249.3</v>
       </c>
       <c r="F487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -13038,14 +13038,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>SAN JOSE DE SISA</t>
+          <t>AGUA BLANCA</t>
         </is>
       </c>
       <c r="D488">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E488">
-        <v>117.28</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="F488">
         <v>1</v>
@@ -13064,17 +13064,17 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>SAN JOSE DE SISA</t>
         </is>
       </c>
       <c r="D489">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E489">
-        <v>36.02</v>
+        <v>117.28</v>
       </c>
       <c r="F489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -13090,14 +13090,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="D490">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E490">
-        <v>13.03</v>
+        <v>36.02</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -13116,14 +13116,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>SHATOJA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D491">
         <v>1</v>
       </c>
       <c r="E491">
-        <v>29.64</v>
+        <v>13.03</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -13137,19 +13137,19 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>EL DORADO</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>ALTO SAPOSOA</t>
+          <t>SHATOJA</t>
         </is>
       </c>
       <c r="D492">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E492">
-        <v>51.61</v>
+        <v>29.64</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -13168,14 +13168,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>EL ESLABON</t>
+          <t>ALTO SAPOSOA</t>
         </is>
       </c>
       <c r="D493">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E493">
-        <v>460.36</v>
+        <v>51.61</v>
       </c>
       <c r="F493">
         <v>0</v>
@@ -13194,14 +13194,14 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>PISCOYACU</t>
+          <t>EL ESLABON</t>
         </is>
       </c>
       <c r="D494">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E494">
-        <v>103.22</v>
+        <v>460.36</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -13220,14 +13220,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>SACANCHE</t>
+          <t>PISCOYACU</t>
         </is>
       </c>
       <c r="D495">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E495">
-        <v>636.4</v>
+        <v>103.22</v>
       </c>
       <c r="F495">
         <v>0</v>
@@ -13246,14 +13246,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>SAPOSOA</t>
+          <t>SACANCHE</t>
         </is>
       </c>
       <c r="D496">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E496">
-        <v>244.22</v>
+        <v>636.4</v>
       </c>
       <c r="F496">
         <v>0</v>
@@ -13272,14 +13272,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>TINGO DE SAPOSOA</t>
+          <t>SAPOSOA</t>
         </is>
       </c>
       <c r="D497">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E497">
-        <v>469.48</v>
+        <v>244.22</v>
       </c>
       <c r="F497">
         <v>0</v>
@@ -13293,19 +13293,19 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>BARRANQUITA</t>
+          <t>TINGO DE SAPOSOA</t>
         </is>
       </c>
       <c r="D498">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E498">
-        <v>788.2</v>
+        <v>469.48</v>
       </c>
       <c r="F498">
         <v>0</v>
@@ -13324,17 +13324,17 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>CAYNARACHI</t>
+          <t>BARRANQUITA</t>
         </is>
       </c>
       <c r="D499">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="E499">
-        <v>1512.53</v>
+        <v>788.2</v>
       </c>
       <c r="F499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -13350,17 +13350,17 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>CUÑUMBUQUI</t>
+          <t>CAYNARACHI</t>
         </is>
       </c>
       <c r="D500">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="E500">
-        <v>460.07</v>
+        <v>1512.53</v>
       </c>
       <c r="F500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -13376,14 +13376,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>CUÑUMBUQUI</t>
         </is>
       </c>
       <c r="D501">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="E501">
-        <v>985.25</v>
+        <v>460.07</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -13402,14 +13402,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>PINTO RECODO</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="D502">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="E502">
-        <v>152.59</v>
+        <v>985.25</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -13428,14 +13428,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>RUMISAPA</t>
+          <t>PINTO RECODO</t>
         </is>
       </c>
       <c r="D503">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E503">
-        <v>647.25</v>
+        <v>152.59</v>
       </c>
       <c r="F503">
         <v>0</v>
@@ -13454,14 +13454,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>SAN ROQUE DE CUMBAZA</t>
+          <t>RUMISAPA</t>
         </is>
       </c>
       <c r="D504">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E504">
-        <v>282.97</v>
+        <v>647.25</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -13480,14 +13480,14 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>SHANAO</t>
+          <t>SAN ROQUE DE CUMBAZA</t>
         </is>
       </c>
       <c r="D505">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E505">
-        <v>1230.6</v>
+        <v>282.97</v>
       </c>
       <c r="F505">
         <v>0</v>
@@ -13506,14 +13506,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>TABALOSOS</t>
+          <t>SHANAO</t>
         </is>
       </c>
       <c r="D506">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E506">
-        <v>273.13</v>
+        <v>1230.6</v>
       </c>
       <c r="F506">
         <v>0</v>
@@ -13532,14 +13532,14 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>ZAPATERO</t>
+          <t>TABALOSOS</t>
         </is>
       </c>
       <c r="D507">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E507">
-        <v>475.72</v>
+        <v>266.47</v>
       </c>
       <c r="F507">
         <v>0</v>
@@ -13553,19 +13553,19 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>MARISCAL CACERES</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>CAMPANILLA</t>
+          <t>ZAPATERO</t>
         </is>
       </c>
       <c r="D508">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E508">
-        <v>205.08</v>
+        <v>475.72</v>
       </c>
       <c r="F508">
         <v>0</v>
@@ -13584,14 +13584,14 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>HUICUNGO</t>
+          <t>CAMPANILLA</t>
         </is>
       </c>
       <c r="D509">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E509">
-        <v>176.68</v>
+        <v>205.08</v>
       </c>
       <c r="F509">
         <v>0</v>
@@ -13610,17 +13610,17 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>JUANJUI</t>
+          <t>HUICUNGO</t>
         </is>
       </c>
       <c r="D510">
-        <v>346</v>
+        <v>18</v>
       </c>
       <c r="E510">
-        <v>959.72</v>
+        <v>176.68</v>
       </c>
       <c r="F510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -13636,17 +13636,17 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>PACHIZA</t>
+          <t>JUANJUI</t>
         </is>
       </c>
       <c r="D511">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="E511">
-        <v>204.83</v>
+        <v>973.59</v>
       </c>
       <c r="F511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -13662,14 +13662,14 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>PAJARILLO</t>
+          <t>PACHIZA</t>
         </is>
       </c>
       <c r="D512">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E512">
-        <v>195.44</v>
+        <v>204.83</v>
       </c>
       <c r="F512">
         <v>0</v>
@@ -13683,19 +13683,19 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>MARISCAL CACERES</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>CALZADA</t>
+          <t>PAJARILLO</t>
         </is>
       </c>
       <c r="D513">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E513">
-        <v>161.16</v>
+        <v>195.44</v>
       </c>
       <c r="F513">
         <v>0</v>
@@ -13714,14 +13714,14 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>HABANA</t>
+          <t>CALZADA</t>
         </is>
       </c>
       <c r="D514">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E514">
-        <v>408.4</v>
+        <v>161.16</v>
       </c>
       <c r="F514">
         <v>0</v>
@@ -13740,14 +13740,14 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>JEPELACIO</t>
+          <t>HABANA</t>
         </is>
       </c>
       <c r="D515">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E515">
-        <v>75.5</v>
+        <v>408.4</v>
       </c>
       <c r="F515">
         <v>0</v>
@@ -13766,17 +13766,17 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>JEPELACIO</t>
         </is>
       </c>
       <c r="D516">
-        <v>514</v>
+        <v>12</v>
       </c>
       <c r="E516">
-        <v>579.17</v>
+        <v>75.5</v>
       </c>
       <c r="F516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -13792,17 +13792,17 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>SORITOR</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="D517">
-        <v>40</v>
+        <v>504</v>
       </c>
       <c r="E517">
-        <v>171.61</v>
+        <v>567.9</v>
       </c>
       <c r="F517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -13818,14 +13818,14 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>YANTALO</t>
+          <t>SORITOR</t>
         </is>
       </c>
       <c r="D518">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E518">
-        <v>66.31</v>
+        <v>175.9</v>
       </c>
       <c r="F518">
         <v>0</v>
@@ -13839,19 +13839,19 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>YANTALO</t>
         </is>
       </c>
       <c r="D519">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E519">
-        <v>32.16</v>
+        <v>99.47</v>
       </c>
       <c r="F519">
         <v>0</v>
@@ -13870,14 +13870,14 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D520">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E520">
-        <v>141.64</v>
+        <v>32.16</v>
       </c>
       <c r="F520">
         <v>0</v>
@@ -13896,14 +13896,14 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>PILLUANA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="D521">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E521">
-        <v>111.73</v>
+        <v>141.64</v>
       </c>
       <c r="F521">
         <v>0</v>
@@ -13922,14 +13922,14 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>PUCACACA</t>
+          <t>PILLUANA</t>
         </is>
       </c>
       <c r="D522">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E522">
-        <v>162.02</v>
+        <v>111.73</v>
       </c>
       <c r="F522">
         <v>0</v>
@@ -13948,14 +13948,14 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>SAN HILARION</t>
+          <t>PUCACACA</t>
         </is>
       </c>
       <c r="D523">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E523">
-        <v>105.85</v>
+        <v>162.02</v>
       </c>
       <c r="F523">
         <v>0</v>
@@ -13974,14 +13974,14 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>SHAMBOYACU</t>
+          <t>SAN HILARION</t>
         </is>
       </c>
       <c r="D524">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E524">
-        <v>9.09</v>
+        <v>105.85</v>
       </c>
       <c r="F524">
         <v>0</v>
@@ -14000,14 +14000,14 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>TINGO DE PONASA</t>
+          <t>SHAMBOYACU</t>
         </is>
       </c>
       <c r="D525">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E525">
-        <v>302.04</v>
+        <v>9.09</v>
       </c>
       <c r="F525">
         <v>0</v>
@@ -14026,14 +14026,14 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>TRES UNIDOS</t>
+          <t>TINGO DE PONASA</t>
         </is>
       </c>
       <c r="D526">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E526">
-        <v>23.64</v>
+        <v>302.04</v>
       </c>
       <c r="F526">
         <v>0</v>
@@ -14047,19 +14047,19 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>AWAJUN</t>
+          <t>TRES UNIDOS</t>
         </is>
       </c>
       <c r="D527">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E527">
-        <v>23.43</v>
+        <v>23.64</v>
       </c>
       <c r="F527">
         <v>0</v>
@@ -14078,14 +14078,14 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>ELIAS SOPLIN VARGAS</t>
+          <t>AWAJUN</t>
         </is>
       </c>
       <c r="D528">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E528">
-        <v>177.14</v>
+        <v>23.43</v>
       </c>
       <c r="F528">
         <v>0</v>
@@ -14104,14 +14104,14 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>NUEVA CAJAMARCA</t>
+          <t>ELIAS SOPLIN VARGAS</t>
         </is>
       </c>
       <c r="D529">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E529">
-        <v>150.18</v>
+        <v>168.5</v>
       </c>
       <c r="F529">
         <v>0</v>
@@ -14130,14 +14130,14 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PARDO MIGUEL</t>
+          <t>NUEVA CAJAMARCA</t>
         </is>
       </c>
       <c r="D530">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E530">
-        <v>50.86</v>
+        <v>146.12</v>
       </c>
       <c r="F530">
         <v>0</v>
@@ -14156,14 +14156,14 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>POSIC</t>
+          <t>PARDO MIGUEL</t>
         </is>
       </c>
       <c r="D531">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E531">
-        <v>43.98</v>
+        <v>50.86</v>
       </c>
       <c r="F531">
         <v>0</v>
@@ -14182,14 +14182,14 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>POSIC</t>
         </is>
       </c>
       <c r="D532">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E532">
-        <v>212.77</v>
+        <v>43.98</v>
       </c>
       <c r="F532">
         <v>0</v>
@@ -14208,14 +14208,14 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="D533">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E533">
-        <v>777.9</v>
+        <v>212.77</v>
       </c>
       <c r="F533">
         <v>0</v>
@@ -14234,14 +14234,14 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>YORONGOS</t>
+          <t>SAN FERNANDO</t>
         </is>
       </c>
       <c r="D534">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E534">
-        <v>38.85</v>
+        <v>777.9</v>
       </c>
       <c r="F534">
         <v>0</v>
@@ -14260,14 +14260,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>YURACYACU</t>
+          <t>YORONGOS</t>
         </is>
       </c>
       <c r="D535">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E535">
-        <v>157.81</v>
+        <v>38.85</v>
       </c>
       <c r="F535">
         <v>0</v>
@@ -14281,19 +14281,19 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>ALBERTO LEVEAU</t>
+          <t>YURACYACU</t>
         </is>
       </c>
       <c r="D536">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E536">
-        <v>416.67</v>
+        <v>157.81</v>
       </c>
       <c r="F536">
         <v>0</v>
@@ -14312,14 +14312,14 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>CACATACHI</t>
+          <t>ALBERTO LEVEAU</t>
         </is>
       </c>
       <c r="D537">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E537">
-        <v>251.64</v>
+        <v>416.67</v>
       </c>
       <c r="F537">
         <v>0</v>
@@ -14338,14 +14338,14 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>CHAZUTA</t>
+          <t>CACATACHI</t>
         </is>
       </c>
       <c r="D538">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E538">
-        <v>761.51</v>
+        <v>251.64</v>
       </c>
       <c r="F538">
         <v>0</v>
@@ -14364,14 +14364,14 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>CHIPURANA</t>
+          <t>CHAZUTA</t>
         </is>
       </c>
       <c r="D539">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E539">
-        <v>38.85</v>
+        <v>770.47</v>
       </c>
       <c r="F539">
         <v>0</v>
@@ -14390,14 +14390,14 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>CHIPURANA</t>
         </is>
       </c>
       <c r="D540">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E540">
-        <v>220.91</v>
+        <v>38.85</v>
       </c>
       <c r="F540">
         <v>0</v>
@@ -14416,14 +14416,14 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>HUIMBAYOC</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D541">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E541">
-        <v>34.33</v>
+        <v>220.91</v>
       </c>
       <c r="F541">
         <v>0</v>
@@ -14442,14 +14442,14 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>JUAN GUERRA</t>
+          <t>HUIMBAYOC</t>
         </is>
       </c>
       <c r="D542">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E542">
-        <v>251.31</v>
+        <v>34.33</v>
       </c>
       <c r="F542">
         <v>0</v>
@@ -14468,14 +14468,14 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO</t>
+          <t>JUAN GUERRA</t>
         </is>
       </c>
       <c r="D543">
-        <v>717</v>
+        <v>11</v>
       </c>
       <c r="E543">
-        <v>1349.27</v>
+        <v>251.31</v>
       </c>
       <c r="F543">
         <v>0</v>
@@ -14494,14 +14494,14 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>LA BANDA DE SHILCAYO</t>
         </is>
       </c>
       <c r="D544">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="E544">
-        <v>808.15</v>
+        <v>1364.32</v>
       </c>
       <c r="F544">
         <v>0</v>
@@ -14520,14 +14520,14 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>PAPAPLAYA</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="D545">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="E545">
-        <v>1409.11</v>
+        <v>812.46</v>
       </c>
       <c r="F545">
         <v>0</v>
@@ -14546,14 +14546,14 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>PAPAPLAYA</t>
         </is>
       </c>
       <c r="D546">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E546">
-        <v>220.87</v>
+        <v>1409.11</v>
       </c>
       <c r="F546">
         <v>0</v>
@@ -14572,14 +14572,14 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>SAUCE</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D547">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E547">
-        <v>119.58</v>
+        <v>220.87</v>
       </c>
       <c r="F547">
         <v>0</v>
@@ -14598,14 +14598,14 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>SHAPAJA</t>
+          <t>SAUCE</t>
         </is>
       </c>
       <c r="D548">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E548">
-        <v>884.13</v>
+        <v>119.58</v>
       </c>
       <c r="F548">
         <v>0</v>
@@ -14624,17 +14624,17 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>TARAPOTO</t>
+          <t>SHAPAJA</t>
         </is>
       </c>
       <c r="D549">
-        <v>461</v>
+        <v>19</v>
       </c>
       <c r="E549">
-        <v>530.51</v>
+        <v>884.13</v>
       </c>
       <c r="F549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -14645,22 +14645,22 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>NUEVO PROGRESO</t>
+          <t>TARAPOTO</t>
         </is>
       </c>
       <c r="D550">
-        <v>127</v>
+        <v>477</v>
       </c>
       <c r="E550">
-        <v>995.38</v>
+        <v>548.9299999999999</v>
       </c>
       <c r="F550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -14676,14 +14676,14 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>POLVORA</t>
+          <t>NUEVO PROGRESO</t>
         </is>
       </c>
       <c r="D551">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="E551">
-        <v>410.09</v>
+        <v>1026.73</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -14702,14 +14702,14 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>SANTA LUCIA</t>
+          <t>POLVORA</t>
         </is>
       </c>
       <c r="D552">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E552">
-        <v>119.7</v>
+        <v>436.84</v>
       </c>
       <c r="F552">
         <v>0</v>
@@ -14728,14 +14728,14 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SANTA LUCIA</t>
         </is>
       </c>
       <c r="D553">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="E553">
-        <v>600.42</v>
+        <v>136.8</v>
       </c>
       <c r="F553">
         <v>0</v>
@@ -14754,14 +14754,14 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>UCHIZA</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="D554">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="E554">
-        <v>459.97</v>
+        <v>603.63</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -14770,24 +14770,24 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>TACNA</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>TACNA</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>TACNA**</t>
+          <t>UCHIZA</t>
         </is>
       </c>
       <c r="D555">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E555">
-        <v>0.92</v>
+        <v>466.64</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -14862,10 +14862,10 @@
         </is>
       </c>
       <c r="D558">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E558">
-        <v>1194.87</v>
+        <v>1119.76</v>
       </c>
       <c r="F558">
         <v>0</v>
@@ -14888,10 +14888,10 @@
         </is>
       </c>
       <c r="D559">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E559">
-        <v>818.99</v>
+        <v>841.74</v>
       </c>
       <c r="F559">
         <v>0</v>
@@ -14914,10 +14914,10 @@
         </is>
       </c>
       <c r="D560">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E560">
-        <v>270.17</v>
+        <v>342.22</v>
       </c>
       <c r="F560">
         <v>0</v>
@@ -14940,10 +14940,10 @@
         </is>
       </c>
       <c r="D561">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E561">
-        <v>77.11</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="F561">
         <v>0</v>
@@ -14966,10 +14966,10 @@
         </is>
       </c>
       <c r="D562">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E562">
-        <v>280.78</v>
+        <v>291.58</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -15018,10 +15018,10 @@
         </is>
       </c>
       <c r="D564">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="E564">
-        <v>442.13</v>
+        <v>460.76</v>
       </c>
       <c r="F564">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         </is>
       </c>
       <c r="D565">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E565">
-        <v>197.76</v>
+        <v>202.7</v>
       </c>
       <c r="F565">
         <v>0</v>
@@ -15096,10 +15096,10 @@
         </is>
       </c>
       <c r="D567">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E567">
-        <v>876.73</v>
+        <v>836.88</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -15122,10 +15122,10 @@
         </is>
       </c>
       <c r="D568">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E568">
-        <v>361.62</v>
+        <v>354.24</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -15174,10 +15174,10 @@
         </is>
       </c>
       <c r="D570">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E570">
-        <v>557.58</v>
+        <v>568.96</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -15200,10 +15200,10 @@
         </is>
       </c>
       <c r="D571">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E571">
-        <v>317.65</v>
+        <v>360.58</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -15252,10 +15252,10 @@
         </is>
       </c>
       <c r="D573">
-        <v>3424</v>
+        <v>3433</v>
       </c>
       <c r="E573">
-        <v>1884.41</v>
+        <v>1889.37</v>
       </c>
       <c r="F573">
         <v>3</v>
@@ -15408,10 +15408,10 @@
         </is>
       </c>
       <c r="D579">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E579">
-        <v>1067.13</v>
+        <v>1067.92</v>
       </c>
       <c r="F579">
         <v>5</v>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E3">
-        <v>2060.3</v>
+        <v>2063.58</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>259.17</v>
+        <v>246.21</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E14">
-        <v>372.2</v>
+        <v>373.9</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>374.76</v>
+        <v>383.48</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E21">
-        <v>404.06</v>
+        <v>411.07</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>7.03</v>
+        <v>4.22</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -995,19 +995,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HUARAZ</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PARIACOTO</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="E25">
-        <v>18.44</v>
+        <v>669.5599999999999</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1026,14 +1026,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>HUAYAN</t>
         </is>
       </c>
       <c r="D26">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>630.39</v>
+        <v>104.49</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1047,19 +1047,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>OCROS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HUAYAN</t>
+          <t>SAN PEDRO</t>
         </is>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>104.49</v>
+        <v>221.73</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1073,19 +1073,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>OCROS</t>
+          <t>RECUAY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>RECUAY</t>
         </is>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>221.73</v>
+        <v>22.55</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1099,19 +1099,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>CACERES DEL PERU</t>
         </is>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>22.55</v>
+        <v>20.65</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CACERES DEL PERU</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D30">
+        <v>139</v>
+      </c>
+      <c r="E30">
+        <v>63.18</v>
+      </c>
+      <c r="F30">
         <v>1</v>
-      </c>
-      <c r="E30">
-        <v>20.65</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D31">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>60.91</v>
+        <v>16.7</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1182,14 +1182,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>11.13</v>
+        <v>33.6</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1208,14 +1208,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>578</v>
       </c>
       <c r="E33">
-        <v>22.4</v>
+        <v>3838.24</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1234,14 +1234,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D34">
-        <v>575</v>
+        <v>51</v>
       </c>
       <c r="E34">
-        <v>3818.31</v>
+        <v>26.81</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1260,14 +1260,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D35">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>25.76</v>
+        <v>18.49</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1286,14 +1286,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E36">
-        <v>18.49</v>
+        <v>266.91</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1302,24 +1302,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>ANDAHUAYLAS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>TALAVERA**</t>
         </is>
       </c>
       <c r="D37">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>233.55</v>
+        <v>4.92</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1328,24 +1328,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ABANCAY</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ABANCAY**</t>
+          <t>ACOCRO</t>
         </is>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1.26</v>
+        <v>10.56</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1354,24 +1354,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHINCHEROS</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HUACCANA**</t>
+          <t>ANDRES AVELINO CACERES D.</t>
         </is>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>18.54</v>
+        <v>3.13</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ACOCRO</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>10.56</v>
+        <v>1.7</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1416,14 +1416,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ANDRES AVELINO CACERES D.</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>3.13</v>
+        <v>1.76</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1442,14 +1442,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>1.7</v>
+        <v>13.57</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1463,19 +1463,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E43">
-        <v>1.76</v>
+        <v>1018.33</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1489,19 +1489,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>13.57</v>
+        <v>301.98</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>LURICOCHA</t>
         </is>
       </c>
       <c r="D45">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1018.33</v>
+        <v>15.81</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1546,14 +1546,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>SANTILLANA</t>
         </is>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>319.24</v>
+        <v>28.01</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E47">
-        <v>15.81</v>
+        <v>1594.57</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1593,19 +1593,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SANTILLANA</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>28.01</v>
+        <v>24.34</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1619,19 +1619,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D49">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>1585.76</v>
+        <v>35.93</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="E50">
-        <v>24.34</v>
+        <v>1194.64</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E51">
-        <v>35.93</v>
+        <v>1283.81</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1702,14 +1702,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D52">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>1184.35</v>
+        <v>215.3</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1728,14 +1728,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1283.81</v>
+        <v>12.17</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E54">
-        <v>192.63</v>
+        <v>383.36</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1780,17 +1780,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D55">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>603.53</v>
+      </c>
+      <c r="F55">
         <v>1</v>
-      </c>
-      <c r="E55">
-        <v>12.17</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1801,19 +1801,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>399.33</v>
+        <v>40.11</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1827,22 +1827,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>603.53</v>
+        <v>7.18</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>40.11</v>
+        <v>16.66</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1874,24 +1874,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>7.18</v>
+        <v>2.83</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1900,24 +1900,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>16.66</v>
+        <v>13.07</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1931,19 +1931,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>2.83</v>
+        <v>1.57</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1962,14 +1962,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>13.07</v>
+        <v>13.69</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1988,14 +1988,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>1.18</v>
+        <v>55.25</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2009,19 +2009,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>55.25</v>
+        <v>3.41</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>UTCO</t>
         </is>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>3.41</v>
+        <v>94.43000000000001</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2061,19 +2061,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>UTCO</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>94.43000000000001</v>
+        <v>21.18</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>21.18</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2118,14 +2118,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>11.65</v>
+        <v>168.09</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2144,14 +2144,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>168.09</v>
+        <v>11.56</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2170,14 +2170,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>11.56</v>
+        <v>105.04</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>105.04</v>
+        <v>117.23</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2217,19 +2217,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>359</v>
       </c>
       <c r="E72">
-        <v>117.23</v>
+        <v>13583.05</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2248,14 +2248,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D73">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="E73">
-        <v>13280.36</v>
+        <v>484.38</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2274,14 +2274,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D74">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>484.38</v>
+        <v>421.78</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>481</v>
       </c>
       <c r="E75">
-        <v>421.78</v>
+        <v>7113.28</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2321,19 +2321,19 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D76">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>6921.03</v>
+        <v>31.47</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>31.47</v>
+        <v>7.8</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2378,14 +2378,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>7.8</v>
+        <v>11.3</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2399,19 +2399,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="E79">
-        <v>11.3</v>
+        <v>982.7</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2430,14 +2430,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D80">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>946.52</v>
+        <v>56.88</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>2291</v>
       </c>
       <c r="E81">
-        <v>56.88</v>
+        <v>2097.81</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D82">
-        <v>2177</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>1993.43</v>
+        <v>10.59</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E83">
-        <v>10.59</v>
+        <v>171.28</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>171.28</v>
+        <v>21.51</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>21.51</v>
+        <v>36.4</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>24.27</v>
+        <v>9.81</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2607,19 +2607,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E87">
-        <v>9.81</v>
+        <v>73.11</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D88">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E88">
-        <v>73.11</v>
+        <v>417.01</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D89">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>449.5</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>9.220000000000001</v>
+        <v>60.2</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2716,14 +2716,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="E91">
-        <v>60.2</v>
+        <v>622.89</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2742,14 +2742,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D92">
-        <v>267</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>644.62</v>
+        <v>14.91</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>14.91</v>
+        <v>19.67</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2789,19 +2789,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>19.67</v>
+        <v>4.58</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="D100">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E100">
-        <v>55.36</v>
+        <v>56.57</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="D101">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E101">
-        <v>33.68</v>
+        <v>35.73</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         </is>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103">
-        <v>13.67</v>
+        <v>15.19</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="D105">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E105">
-        <v>344.23</v>
+        <v>351.52</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="D106">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="E106">
-        <v>172.03</v>
+        <v>179.08</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="D107">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E107">
-        <v>308.74</v>
+        <v>340.68</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         </is>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>4.08</v>
+        <v>4.89</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="D111">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E111">
-        <v>276.29</v>
+        <v>281.6</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="D113">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E113">
-        <v>2381.12</v>
+        <v>2287.89</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="D115">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E115">
-        <v>1357.08</v>
+        <v>1328.81</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="D119">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E119">
-        <v>1839.81</v>
+        <v>1814.32</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="D121">
-        <v>1110</v>
+        <v>1131</v>
       </c>
       <c r="E121">
-        <v>3722.71</v>
+        <v>3793.14</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="D122">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E122">
-        <v>634.63</v>
+        <v>652.77</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3552,10 +3552,10 @@
         </is>
       </c>
       <c r="D123">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E123">
-        <v>3364.41</v>
+        <v>3283.34</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3734,10 +3734,10 @@
         </is>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>3.28</v>
+        <v>2.19</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3760,10 +3760,10 @@
         </is>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>29.99</v>
+        <v>37.49</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="D132">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>7.15</v>
+        <v>5.1</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3890,10 +3890,10 @@
         </is>
       </c>
       <c r="D136">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E136">
-        <v>2111.61</v>
+        <v>2154.71</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="D137">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E137">
-        <v>550.9299999999999</v>
+        <v>579.1799999999999</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         </is>
       </c>
       <c r="D140">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E140">
-        <v>1780.93</v>
+        <v>1791.23</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="D141">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E141">
-        <v>594.78</v>
+        <v>560.3</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         </is>
       </c>
       <c r="D144">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E144">
-        <v>1512.35</v>
+        <v>1517.3</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="D152">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E152">
-        <v>1608.08</v>
+        <v>1827.77</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="D156">
-        <v>1706</v>
+        <v>1712</v>
       </c>
       <c r="E156">
-        <v>2079.83</v>
+        <v>2087.14</v>
       </c>
       <c r="F156">
         <v>13</v>
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="D157">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E157">
-        <v>627.08</v>
+        <v>646.6799999999999</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="D158">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E158">
-        <v>322.76</v>
+        <v>336.49</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4488,13 +4488,13 @@
         </is>
       </c>
       <c r="D159">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E159">
-        <v>991.9</v>
+        <v>1014.59</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="D160">
-        <v>1562</v>
+        <v>1582</v>
       </c>
       <c r="E160">
-        <v>2010.43</v>
+        <v>2036.17</v>
       </c>
       <c r="F160">
         <v>5</v>
@@ -4540,10 +4540,10 @@
         </is>
       </c>
       <c r="D161">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="E161">
-        <v>1857.22</v>
+        <v>1877.31</v>
       </c>
       <c r="F161">
         <v>4</v>
@@ -4566,10 +4566,10 @@
         </is>
       </c>
       <c r="D162">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E162">
-        <v>821.21</v>
+        <v>835.61</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="D163">
-        <v>1300</v>
+        <v>1341</v>
       </c>
       <c r="E163">
-        <v>715.15</v>
+        <v>737.7</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -4618,10 +4618,10 @@
         </is>
       </c>
       <c r="D164">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E164">
-        <v>462.96</v>
+        <v>464.97</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="D165">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E165">
-        <v>489.96</v>
+        <v>493.67</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="D166">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E166">
-        <v>2022.91</v>
+        <v>2094.52</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="D167">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E167">
-        <v>426.92</v>
+        <v>449.39</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="D168">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E168">
-        <v>886.52</v>
+        <v>900.77</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="D169">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E169">
-        <v>824.04</v>
+        <v>848.28</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="D170">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E170">
-        <v>806.8</v>
+        <v>822.4400000000001</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="D172">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E172">
-        <v>1276.81</v>
+        <v>1295.4</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="D173">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E173">
-        <v>1102.22</v>
+        <v>1126.65</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="D174">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E174">
-        <v>1003.7</v>
+        <v>1044.2</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="D175">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E175">
-        <v>1284.84</v>
+        <v>1302.93</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="D180">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E180">
-        <v>2604.36</v>
+        <v>2607.52</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="D183">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E183">
-        <v>1017.7</v>
+        <v>1061.95</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         </is>
       </c>
       <c r="D184">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E184">
-        <v>530.5</v>
+        <v>563.66</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5216,10 +5216,10 @@
         </is>
       </c>
       <c r="D187">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>146.53</v>
+        <v>162.81</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -5242,10 +5242,10 @@
         </is>
       </c>
       <c r="D188">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E188">
-        <v>333.64</v>
+        <v>346.72</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5268,10 +5268,10 @@
         </is>
       </c>
       <c r="D189">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>128.23</v>
+        <v>118.37</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5294,10 +5294,10 @@
         </is>
       </c>
       <c r="D190">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="E190">
-        <v>631.27</v>
+        <v>655.05</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -5320,10 +5320,10 @@
         </is>
       </c>
       <c r="D191">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E191">
-        <v>298.68</v>
+        <v>316.25</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="D192">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E192">
-        <v>342.47</v>
+        <v>358.62</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="D193">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E193">
-        <v>935.45</v>
+        <v>955.04</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="D194">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E194">
-        <v>1344.15</v>
+        <v>1384.88</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5424,10 +5424,10 @@
         </is>
       </c>
       <c r="D195">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E195">
-        <v>976.74</v>
+        <v>985.05</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -5476,10 +5476,10 @@
         </is>
       </c>
       <c r="D197">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E197">
-        <v>621.96</v>
+        <v>594.92</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -5502,10 +5502,10 @@
         </is>
       </c>
       <c r="D198">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E198">
-        <v>1414.84</v>
+        <v>1424.99</v>
       </c>
       <c r="F198">
         <v>3</v>
@@ -5788,10 +5788,10 @@
         </is>
       </c>
       <c r="D209">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E209">
-        <v>156.29</v>
+        <v>151.76</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -5840,10 +5840,10 @@
         </is>
       </c>
       <c r="D211">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E211">
-        <v>302.98</v>
+        <v>301.52</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         </is>
       </c>
       <c r="D212">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E212">
-        <v>270.54</v>
+        <v>264.9</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="D213">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E213">
-        <v>131.97</v>
+        <v>135.27</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5918,10 +5918,10 @@
         </is>
       </c>
       <c r="D214">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E214">
-        <v>676.29</v>
+        <v>669.48</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="D217">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E217">
-        <v>90.2</v>
+        <v>96.89</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="D220">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E220">
-        <v>165.13</v>
+        <v>175.24</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>31.61</v>
+        <v>42.15</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E222">
-        <v>29.9</v>
+        <v>34.88</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6152,10 +6152,10 @@
         </is>
       </c>
       <c r="D223">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="E223">
-        <v>691.3200000000001</v>
+        <v>733.28</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         </is>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>19.54</v>
+        <v>23.44</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6230,10 +6230,10 @@
         </is>
       </c>
       <c r="D226">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E226">
-        <v>548.1799999999999</v>
+        <v>555.2</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6308,10 +6308,10 @@
         </is>
       </c>
       <c r="D229">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="E229">
-        <v>1615.1</v>
+        <v>1626.11</v>
       </c>
       <c r="F229">
         <v>3</v>
@@ -6438,10 +6438,10 @@
         </is>
       </c>
       <c r="D234">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E234">
-        <v>152.58</v>
+        <v>188.48</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="D237">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E237">
-        <v>168.16</v>
+        <v>170.61</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         </is>
       </c>
       <c r="D238">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E238">
-        <v>800.04</v>
+        <v>809.89</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="D239">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="E239">
-        <v>293.26</v>
+        <v>318.39</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         </is>
       </c>
       <c r="D240">
-        <v>2972</v>
+        <v>3039</v>
       </c>
       <c r="E240">
-        <v>1246.87</v>
+        <v>1274.98</v>
       </c>
       <c r="F240">
         <v>3</v>
@@ -6620,10 +6620,10 @@
         </is>
       </c>
       <c r="D241">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E241">
-        <v>273.45</v>
+        <v>297.71</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6646,10 +6646,10 @@
         </is>
       </c>
       <c r="D242">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E242">
-        <v>61.17</v>
+        <v>58.99</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>73.14</v>
+        <v>48.76</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6698,10 +6698,10 @@
         </is>
       </c>
       <c r="D244">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E244">
-        <v>52.94</v>
+        <v>61.08</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         </is>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>42.21</v>
+        <v>63.32</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="D246">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="E246">
-        <v>255.82</v>
+        <v>267.46</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="D247">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E247">
-        <v>50.45</v>
+        <v>51.65</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         </is>
       </c>
       <c r="D248">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E248">
-        <v>898.1799999999999</v>
+        <v>900.52</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -6824,43 +6824,43 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>GUADALUPITO</t>
         </is>
       </c>
       <c r="D249">
-        <v>424</v>
+        <v>1</v>
       </c>
       <c r="E249">
-        <v>686.4299999999999</v>
+        <v>12.4</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>CAYALTI</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="D250">
-        <v>166</v>
+        <v>426</v>
       </c>
       <c r="E250">
-        <v>1081.01</v>
+        <v>689.67</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6876,17 +6876,17 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>CAYALTI</t>
         </is>
       </c>
       <c r="D251">
-        <v>4187</v>
+        <v>190</v>
       </c>
       <c r="E251">
-        <v>1409.18</v>
+        <v>1237.3</v>
       </c>
       <c r="F251">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -6902,17 +6902,17 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>CHONGOYAPE</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="D252">
-        <v>150</v>
+        <v>4285</v>
       </c>
       <c r="E252">
-        <v>745.1900000000001</v>
+        <v>1442.16</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
@@ -6928,17 +6928,17 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>ETEN</t>
+          <t>CHONGOYAPE</t>
         </is>
       </c>
       <c r="D253">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="E253">
-        <v>51.29</v>
+        <v>745.1900000000001</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6954,14 +6954,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>ETEN PUERTO</t>
+          <t>ETEN</t>
         </is>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E254">
-        <v>80.16</v>
+        <v>58.61</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6980,17 +6980,17 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ</t>
+          <t>ETEN PUERTO</t>
         </is>
       </c>
       <c r="D255">
-        <v>1260</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>743.35</v>
+        <v>160.32</v>
       </c>
       <c r="F255">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -7006,17 +7006,17 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>JOSE LEONARDO ORTIZ</t>
         </is>
       </c>
       <c r="D256">
-        <v>818</v>
+        <v>1315</v>
       </c>
       <c r="E256">
-        <v>807.02</v>
+        <v>775.8</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
@@ -7032,17 +7032,17 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="D257">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="E257">
-        <v>107.79</v>
+        <v>828.72</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7058,14 +7058,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MONSEFU</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D258">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E258">
-        <v>206.41</v>
+        <v>107.79</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7084,14 +7084,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>NUEVA ARICA</t>
+          <t>MONSEFU</t>
         </is>
       </c>
       <c r="D259">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E259">
-        <v>1619.12</v>
+        <v>209.13</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7110,14 +7110,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>OYOTUN</t>
+          <t>NUEVA ARICA</t>
         </is>
       </c>
       <c r="D260">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="E260">
-        <v>1224.05</v>
+        <v>1619.12</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>PATAPO</t>
+          <t>OYOTUN</t>
         </is>
       </c>
       <c r="D261">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="E261">
-        <v>682.91</v>
+        <v>1224.05</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7162,17 +7162,17 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>PICSI</t>
+          <t>PATAPO</t>
         </is>
       </c>
       <c r="D262">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="E262">
-        <v>1356.86</v>
+        <v>686.79</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -7188,17 +7188,17 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>PIMENTEL</t>
+          <t>PICSI</t>
         </is>
       </c>
       <c r="D263">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="E263">
-        <v>235.98</v>
+        <v>1363.55</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -7214,17 +7214,17 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>POMALCA</t>
+          <t>PIMENTEL</t>
         </is>
       </c>
       <c r="D264">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E264">
-        <v>390.62</v>
+        <v>245.42</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -7240,14 +7240,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>PUCALA</t>
+          <t>POMALCA</t>
         </is>
       </c>
       <c r="D265">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E265">
-        <v>875.66</v>
+        <v>401.38</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7266,17 +7266,17 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>REQUE</t>
+          <t>PUCALA</t>
         </is>
       </c>
       <c r="D266">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E266">
-        <v>157.69</v>
+        <v>1072.68</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -7292,17 +7292,17 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>REQUE</t>
         </is>
       </c>
       <c r="D267">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E267">
-        <v>89.84999999999999</v>
+        <v>174</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -7318,14 +7318,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>SAÑA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D268">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="E268">
-        <v>1476.51</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>TUMAN</t>
+          <t>SAÑA</t>
         </is>
       </c>
       <c r="D269">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="E269">
-        <v>1103.46</v>
+        <v>1476.51</v>
       </c>
       <c r="F269">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -7365,22 +7365,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>CAÑARIS</t>
+          <t>TUMAN</t>
         </is>
       </c>
       <c r="D270">
+        <v>336</v>
+      </c>
+      <c r="E270">
+        <v>1106.76</v>
+      </c>
+      <c r="F270">
         <v>3</v>
-      </c>
-      <c r="E270">
-        <v>23.97</v>
-      </c>
-      <c r="F270">
-        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -7396,17 +7396,17 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>CAÑARIS</t>
         </is>
       </c>
       <c r="D271">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="E271">
-        <v>1072.07</v>
+        <v>23.97</v>
       </c>
       <c r="F271">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -7422,17 +7422,17 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>INCAHUASI</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>430</v>
       </c>
       <c r="E272">
-        <v>12.76</v>
+        <v>1102.85</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
@@ -7448,14 +7448,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>MANUEL ANTONIO MESONES MURO</t>
+          <t>INCAHUASI</t>
         </is>
       </c>
       <c r="D273">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>421.94</v>
+        <v>12.76</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -7474,17 +7474,17 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>PITIPO</t>
+          <t>MANUEL ANTONIO MESONES MURO</t>
         </is>
       </c>
       <c r="D274">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="E274">
-        <v>1645.69</v>
+        <v>445.38</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -7500,14 +7500,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PITIPO</t>
         </is>
       </c>
       <c r="D275">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="E275">
-        <v>1200.89</v>
+        <v>1716.85</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -7521,19 +7521,19 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>CHOCHOPE</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D276">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="E276">
-        <v>830.86</v>
+        <v>1231.68</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -7552,17 +7552,17 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>ILLIMO</t>
+          <t>CHOCHOPE</t>
         </is>
       </c>
       <c r="D277">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E277">
-        <v>702.11</v>
+        <v>830.86</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -7578,14 +7578,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>JAYANCA</t>
+          <t>ILLIMO</t>
         </is>
       </c>
       <c r="D278">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="E278">
-        <v>2169.97</v>
+        <v>792.38</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7604,17 +7604,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>JAYANCA</t>
         </is>
       </c>
       <c r="D279">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E279">
-        <v>535.05</v>
+        <v>2217.67</v>
       </c>
       <c r="F279">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -7630,17 +7630,17 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>MOCHUMI</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="D280">
-        <v>17</v>
+        <v>459</v>
       </c>
       <c r="E280">
-        <v>80.65000000000001</v>
+        <v>537.39</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -7656,14 +7656,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>MORROPE</t>
+          <t>MOCHUMI</t>
         </is>
       </c>
       <c r="D281">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="E281">
-        <v>223.76</v>
+        <v>90.14</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -7682,17 +7682,17 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>MOTUPE</t>
+          <t>MORROPE</t>
         </is>
       </c>
       <c r="D282">
-        <v>1064</v>
+        <v>134</v>
       </c>
       <c r="E282">
-        <v>2942.56</v>
+        <v>227.15</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -7708,17 +7708,17 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>OLMOS</t>
+          <t>MOTUPE</t>
         </is>
       </c>
       <c r="D283">
-        <v>185</v>
+        <v>1070</v>
       </c>
       <c r="E283">
-        <v>317.54</v>
+        <v>2959.15</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -7734,14 +7734,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>PACORA</t>
+          <t>OLMOS</t>
         </is>
       </c>
       <c r="D284">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E284">
-        <v>1455.43</v>
+        <v>324.41</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -7760,14 +7760,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>PACORA</t>
         </is>
       </c>
       <c r="D285">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="E285">
-        <v>295.96</v>
+        <v>1561.67</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -7786,14 +7786,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D286">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E286">
-        <v>57.68</v>
+        <v>295.96</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -7812,14 +7812,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>TUCUME</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D287">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E287">
-        <v>54.46</v>
+        <v>57.68</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -7828,24 +7828,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>TUCUME</t>
         </is>
       </c>
       <c r="D288">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E288">
-        <v>6.64</v>
+        <v>62.24</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -7864,14 +7864,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>SUPE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D289">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E289">
-        <v>14.87</v>
+        <v>7.97</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7890,14 +7890,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>SUPE PUERTO</t>
+          <t>SUPE</t>
         </is>
       </c>
       <c r="D290">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E290">
-        <v>272.58</v>
+        <v>14.87</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7911,19 +7911,19 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>SUPE PUERTO</t>
         </is>
       </c>
       <c r="D291">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E291">
-        <v>321.1</v>
+        <v>272.58</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -7942,14 +7942,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE QUIVES</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E292">
-        <v>34.76</v>
+        <v>321.1</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -7963,19 +7963,19 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>CAÑETE</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>ASIA</t>
+          <t>SANTA ROSA DE QUIVES</t>
         </is>
       </c>
       <c r="D293">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E293">
-        <v>97.34999999999999</v>
+        <v>34.76</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -7994,14 +7994,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>ASIA</t>
         </is>
       </c>
       <c r="D294">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E294">
-        <v>42.15</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -8020,14 +8020,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>CERRO AZUL</t>
         </is>
       </c>
       <c r="D295">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E295">
-        <v>63.34</v>
+        <v>42.15</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -8046,14 +8046,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>IMPERIAL</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D296">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E296">
-        <v>32.4</v>
+        <v>67.3</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -8072,14 +8072,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>LUNAHUANA</t>
+          <t>IMPERIAL</t>
         </is>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E297">
-        <v>24.61</v>
+        <v>37.39</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -8098,17 +8098,17 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>MALA</t>
+          <t>LUNAHUANA</t>
         </is>
       </c>
       <c r="D298">
-        <v>367</v>
+        <v>1</v>
       </c>
       <c r="E298">
-        <v>1041.52</v>
+        <v>24.61</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -8124,17 +8124,17 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>NUEVO IMPERIAL</t>
+          <t>MALA</t>
         </is>
       </c>
       <c r="D299">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="E299">
-        <v>43.22</v>
+        <v>1041.52</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -8150,14 +8150,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>QUILMANA</t>
+          <t>NUEVO IMPERIAL</t>
         </is>
       </c>
       <c r="D300">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="E300">
-        <v>1596.59</v>
+        <v>49.86</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -8176,14 +8176,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>QUILMANA</t>
         </is>
       </c>
       <c r="D301">
-        <v>7</v>
+        <v>281</v>
       </c>
       <c r="E301">
-        <v>145.83</v>
+        <v>1661.64</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -8202,14 +8202,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D302">
         <v>7</v>
       </c>
       <c r="E302">
-        <v>51.66</v>
+        <v>145.83</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -8228,14 +8228,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>SAN VICENTE DE CAÑETE</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="D303">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E303">
-        <v>50.68</v>
+        <v>51.66</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -8254,14 +8254,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE FLORES</t>
+          <t>SAN VICENTE DE CAÑETE</t>
         </is>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E304">
-        <v>30.28</v>
+        <v>53.85</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -8275,19 +8275,19 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CAÑETE</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>AUCALLAMA</t>
+          <t>SANTA CRUZ DE FLORES</t>
         </is>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E305">
-        <v>9.01</v>
+        <v>30.28</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -8306,14 +8306,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>AUCALLAMA</t>
         </is>
       </c>
       <c r="D306">
         <v>2</v>
       </c>
       <c r="E306">
-        <v>3.16</v>
+        <v>9.01</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8332,14 +8332,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="D307">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E307">
-        <v>8.17</v>
+        <v>3.16</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -8353,19 +8353,19 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>HUAROCHIRI</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>CASTA</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E308">
-        <v>119.76</v>
+        <v>8.17</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -8384,14 +8384,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>HUAROCHIRI</t>
+          <t>CASTA</t>
         </is>
       </c>
       <c r="D309">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E309">
-        <v>420.88</v>
+        <v>119.76</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -8410,14 +8410,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>MATUCANA</t>
+          <t>HUAROCHIRI</t>
         </is>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E310">
-        <v>25.48</v>
+        <v>420.88</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="D312">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E312">
-        <v>1466.03</v>
+        <v>1477.95</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         </is>
       </c>
       <c r="D316">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E316">
-        <v>128.41</v>
+        <v>143.52</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         </is>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E317">
-        <v>29.52</v>
+        <v>59.05</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -8674,10 +8674,10 @@
         </is>
       </c>
       <c r="D320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E320">
-        <v>6.79</v>
+        <v>10.19</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="D322">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E322">
-        <v>22.02</v>
+        <v>24.47</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -8778,10 +8778,10 @@
         </is>
       </c>
       <c r="D324">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E324">
-        <v>256.66</v>
+        <v>262.15</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="D325">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="E325">
-        <v>167.58</v>
+        <v>168.42</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="D326">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E326">
-        <v>21.32</v>
+        <v>26.65</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="D327">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E327">
-        <v>14.3</v>
+        <v>13.28</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="D328">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E328">
-        <v>109.14</v>
+        <v>110.54</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="D329">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="E329">
-        <v>1166.04</v>
+        <v>1243.92</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="D330">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E330">
-        <v>20.36</v>
+        <v>23.04</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="D331">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E331">
-        <v>226.14</v>
+        <v>228.6</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -8986,13 +8986,13 @@
         </is>
       </c>
       <c r="D332">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="E332">
-        <v>147.43</v>
+        <v>149.77</v>
       </c>
       <c r="F332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="D333">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E333">
-        <v>40.21</v>
+        <v>40.64</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -9038,10 +9038,10 @@
         </is>
       </c>
       <c r="D334">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E334">
-        <v>92.38</v>
+        <v>93.67</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9064,10 +9064,10 @@
         </is>
       </c>
       <c r="D335">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E335">
-        <v>34.52</v>
+        <v>36.82</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -9116,10 +9116,10 @@
         </is>
       </c>
       <c r="D337">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E337">
-        <v>23</v>
+        <v>24.03</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="D338">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E338">
-        <v>37.25</v>
+        <v>40.15</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9168,10 +9168,10 @@
         </is>
       </c>
       <c r="D339">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E339">
-        <v>64.20999999999999</v>
+        <v>65.78</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9194,10 +9194,10 @@
         </is>
       </c>
       <c r="D340">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E340">
-        <v>35.99</v>
+        <v>37.36</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9220,10 +9220,10 @@
         </is>
       </c>
       <c r="D341">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="E341">
-        <v>250.36</v>
+        <v>257.59</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="D342">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E342">
-        <v>81.51000000000001</v>
+        <v>83.23999999999999</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9272,10 +9272,10 @@
         </is>
       </c>
       <c r="D343">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E343">
-        <v>17.27</v>
+        <v>18.71</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         </is>
       </c>
       <c r="D344">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E344">
-        <v>11.16</v>
+        <v>12.01</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         </is>
       </c>
       <c r="D345">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E345">
-        <v>108.36</v>
+        <v>111.63</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="D346">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E346">
-        <v>55.91</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         </is>
       </c>
       <c r="D347">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E347">
-        <v>34.14</v>
+        <v>36.15</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="D348">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="E348">
-        <v>176.22</v>
+        <v>179.34</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -9428,10 +9428,10 @@
         </is>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E349">
-        <v>4.33</v>
+        <v>8.67</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="D350">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="E350">
-        <v>278.46</v>
+        <v>291.26</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         </is>
       </c>
       <c r="D351">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E351">
-        <v>53.06</v>
+        <v>74.28</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="D352">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E352">
-        <v>16.5</v>
+        <v>15.75</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         </is>
       </c>
       <c r="D353">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E353">
-        <v>15.48</v>
+        <v>16.89</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         </is>
       </c>
       <c r="D354">
-        <v>2713</v>
+        <v>2795</v>
       </c>
       <c r="E354">
-        <v>218.7</v>
+        <v>225.31</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -9584,10 +9584,10 @@
         </is>
       </c>
       <c r="D355">
-        <v>1810</v>
+        <v>1870</v>
       </c>
       <c r="E355">
-        <v>420.18</v>
+        <v>434.1</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         </is>
       </c>
       <c r="D356">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E356">
-        <v>15.52</v>
+        <v>18.97</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9636,10 +9636,10 @@
         </is>
       </c>
       <c r="D357">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="E357">
-        <v>52.94</v>
+        <v>54.6</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="D359">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E359">
-        <v>28.36</v>
+        <v>29.22</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="D361">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E361">
-        <v>67.28</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="D362">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E362">
-        <v>18.28</v>
+        <v>18.98</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         </is>
       </c>
       <c r="D364">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E364">
-        <v>24.67</v>
+        <v>26.48</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="E365">
-        <v>129.19</v>
+        <v>133.55</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="D373">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="E373">
-        <v>1675.22</v>
+        <v>1677.9</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10494,10 +10494,10 @@
         </is>
       </c>
       <c r="D390">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E390">
-        <v>364.15</v>
+        <v>353.07</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="D392">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E392">
-        <v>268.39</v>
+        <v>276.78</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         </is>
       </c>
       <c r="D393">
-        <v>1046</v>
+        <v>1071</v>
       </c>
       <c r="E393">
-        <v>632.75</v>
+        <v>647.87</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         </is>
       </c>
       <c r="D397">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="E397">
-        <v>1271.76</v>
+        <v>1275.04</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="D398">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="E398">
-        <v>390.68</v>
+        <v>378.71</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -11014,13 +11014,13 @@
         </is>
       </c>
       <c r="D410">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E410">
-        <v>1510.34</v>
+        <v>1534.48</v>
       </c>
       <c r="F410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -11118,10 +11118,10 @@
         </is>
       </c>
       <c r="D414">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E414">
-        <v>1679.68</v>
+        <v>1751.85</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -11404,10 +11404,10 @@
         </is>
       </c>
       <c r="D425">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="E425">
-        <v>956.27</v>
+        <v>959.88</v>
       </c>
       <c r="F425">
         <v>1</v>
@@ -11456,10 +11456,10 @@
         </is>
       </c>
       <c r="D427">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E427">
-        <v>21.97</v>
+        <v>27.46</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -11482,10 +11482,10 @@
         </is>
       </c>
       <c r="D428">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E428">
-        <v>189.55</v>
+        <v>177.7</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -11820,10 +11820,10 @@
         </is>
       </c>
       <c r="D441">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E441">
-        <v>86.31</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="D443">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E443">
-        <v>188.22</v>
+        <v>215.11</v>
       </c>
       <c r="F443">
         <v>0</v>
@@ -11898,10 +11898,10 @@
         </is>
       </c>
       <c r="D444">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E444">
-        <v>37.61</v>
+        <v>44.44</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -12054,13 +12054,13 @@
         </is>
       </c>
       <c r="D450">
-        <v>4225</v>
+        <v>4215</v>
       </c>
       <c r="E450">
-        <v>4604.7</v>
+        <v>4593.81</v>
       </c>
       <c r="F450">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451">
@@ -12080,13 +12080,13 @@
         </is>
       </c>
       <c r="D451">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E451">
-        <v>2346.76</v>
+        <v>2359.58</v>
       </c>
       <c r="F451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="D452">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E452">
-        <v>3805.74</v>
+        <v>3854.61</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -12158,10 +12158,10 @@
         </is>
       </c>
       <c r="D454">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E454">
-        <v>2124.52</v>
+        <v>2301.56</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12262,10 +12262,10 @@
         </is>
       </c>
       <c r="D458">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E458">
-        <v>2291.83</v>
+        <v>2482.81</v>
       </c>
       <c r="F458">
         <v>1</v>
@@ -12288,10 +12288,10 @@
         </is>
       </c>
       <c r="D459">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E459">
-        <v>461.18</v>
+        <v>538.05</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -12314,10 +12314,10 @@
         </is>
       </c>
       <c r="D460">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E460">
-        <v>2076.14</v>
+        <v>2115.74</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -12340,10 +12340,10 @@
         </is>
       </c>
       <c r="D461">
-        <v>1306</v>
+        <v>1321</v>
       </c>
       <c r="E461">
-        <v>8815.389999999999</v>
+        <v>8916.639999999999</v>
       </c>
       <c r="F461">
         <v>2</v>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="D462">
-        <v>1256</v>
+        <v>1265</v>
       </c>
       <c r="E462">
-        <v>1157.71</v>
+        <v>1166.01</v>
       </c>
       <c r="F462">
         <v>2</v>
@@ -12392,10 +12392,10 @@
         </is>
       </c>
       <c r="D463">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E463">
-        <v>928.41</v>
+        <v>981.97</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -12444,13 +12444,13 @@
         </is>
       </c>
       <c r="D465">
-        <v>4691</v>
+        <v>4829</v>
       </c>
       <c r="E465">
-        <v>2396.35</v>
+        <v>2466.85</v>
       </c>
       <c r="F465">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466">
@@ -12470,10 +12470,10 @@
         </is>
       </c>
       <c r="D466">
-        <v>1635</v>
+        <v>1644</v>
       </c>
       <c r="E466">
-        <v>1930.41</v>
+        <v>1941.04</v>
       </c>
       <c r="F466">
         <v>2</v>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="D467">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="E467">
-        <v>2256.57</v>
+        <v>2347.22</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12522,10 +12522,10 @@
         </is>
       </c>
       <c r="D468">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E468">
-        <v>3950.53</v>
+        <v>4087.94</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -12548,10 +12548,10 @@
         </is>
       </c>
       <c r="D469">
-        <v>834</v>
+        <v>855</v>
       </c>
       <c r="E469">
-        <v>1930.33</v>
+        <v>1978.94</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="D470">
-        <v>1222</v>
+        <v>1274</v>
       </c>
       <c r="E470">
-        <v>2629.37</v>
+        <v>2741.26</v>
       </c>
       <c r="F470">
         <v>2</v>
@@ -12626,13 +12626,13 @@
         </is>
       </c>
       <c r="D472">
-        <v>5155</v>
+        <v>5360</v>
       </c>
       <c r="E472">
-        <v>2719.63</v>
+        <v>2827.78</v>
       </c>
       <c r="F472">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473">
@@ -12652,13 +12652,13 @@
         </is>
       </c>
       <c r="D473">
-        <v>1193</v>
+        <v>1229</v>
       </c>
       <c r="E473">
-        <v>914.3200000000001</v>
+        <v>941.91</v>
       </c>
       <c r="F473">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -12678,13 +12678,13 @@
         </is>
       </c>
       <c r="D474">
-        <v>2180</v>
+        <v>2349</v>
       </c>
       <c r="E474">
-        <v>1107.14</v>
+        <v>1192.97</v>
       </c>
       <c r="F474">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475">
@@ -12704,10 +12704,10 @@
         </is>
       </c>
       <c r="D475">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E475">
-        <v>2564.1</v>
+        <v>2546.05</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12756,10 +12756,10 @@
         </is>
       </c>
       <c r="D477">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E477">
-        <v>697.3200000000001</v>
+        <v>678.48</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -12808,10 +12808,10 @@
         </is>
       </c>
       <c r="D479">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E479">
-        <v>624.76</v>
+        <v>622.95</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -12834,10 +12834,10 @@
         </is>
       </c>
       <c r="D480">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E480">
-        <v>377</v>
+        <v>382.24</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -12860,13 +12860,13 @@
         </is>
       </c>
       <c r="D481">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="E481">
-        <v>1589.2</v>
+        <v>1629.05</v>
       </c>
       <c r="F481">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482">
@@ -12886,10 +12886,10 @@
         </is>
       </c>
       <c r="D482">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E482">
-        <v>2794.56</v>
+        <v>2803.45</v>
       </c>
       <c r="F482">
         <v>3</v>
@@ -12938,10 +12938,10 @@
         </is>
       </c>
       <c r="D484">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="E484">
-        <v>2613.97</v>
+        <v>2652.81</v>
       </c>
       <c r="F484">
         <v>0</v>
@@ -12964,10 +12964,10 @@
         </is>
       </c>
       <c r="D485">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E485">
-        <v>2076.09</v>
+        <v>2094.88</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -12990,10 +12990,10 @@
         </is>
       </c>
       <c r="D486">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="E486">
-        <v>2018.84</v>
+        <v>2043</v>
       </c>
       <c r="F486">
         <v>1</v>
@@ -13016,10 +13016,10 @@
         </is>
       </c>
       <c r="D487">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E487">
-        <v>877.08</v>
+        <v>1002.38</v>
       </c>
       <c r="F487">
         <v>0</v>
@@ -13042,13 +13042,13 @@
         </is>
       </c>
       <c r="D488">
-        <v>3271</v>
+        <v>3329</v>
       </c>
       <c r="E488">
-        <v>1670.49</v>
+        <v>1700.11</v>
       </c>
       <c r="F488">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489">
@@ -13146,10 +13146,10 @@
         </is>
       </c>
       <c r="D492">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E492">
-        <v>199.67</v>
+        <v>232.95</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="D494">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E494">
-        <v>208.28</v>
+        <v>210.12</v>
       </c>
       <c r="F494">
         <v>1</v>
@@ -14004,10 +14004,10 @@
         </is>
       </c>
       <c r="D525">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E525">
-        <v>205.08</v>
+        <v>210.34</v>
       </c>
       <c r="F525">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         </is>
       </c>
       <c r="D527">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E527">
-        <v>929.21</v>
+        <v>934.76</v>
       </c>
       <c r="F527">
         <v>1</v>
@@ -14134,10 +14134,10 @@
         </is>
       </c>
       <c r="D530">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E530">
-        <v>221.6</v>
+        <v>261.89</v>
       </c>
       <c r="F530">
         <v>0</v>
@@ -14186,10 +14186,10 @@
         </is>
       </c>
       <c r="D532">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E532">
-        <v>88.08</v>
+        <v>106.95</v>
       </c>
       <c r="F532">
         <v>0</v>
@@ -14212,10 +14212,10 @@
         </is>
       </c>
       <c r="D533">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E533">
-        <v>598.3200000000001</v>
+        <v>599.45</v>
       </c>
       <c r="F533">
         <v>2</v>
@@ -14654,10 +14654,10 @@
         </is>
       </c>
       <c r="D550">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E550">
-        <v>804.72</v>
+        <v>724.25</v>
       </c>
       <c r="F550">
         <v>0</v>
@@ -14888,10 +14888,10 @@
         </is>
       </c>
       <c r="D559">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E559">
-        <v>274.16</v>
+        <v>297.01</v>
       </c>
       <c r="F559">
         <v>0</v>
@@ -14914,10 +14914,10 @@
         </is>
       </c>
       <c r="D560">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E560">
-        <v>1409.48</v>
+        <v>1413.25</v>
       </c>
       <c r="F560">
         <v>0</v>
@@ -14940,10 +14940,10 @@
         </is>
       </c>
       <c r="D561">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E561">
-        <v>793.0700000000001</v>
+        <v>795.22</v>
       </c>
       <c r="F561">
         <v>0</v>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="D566">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E566">
-        <v>589.2</v>
+        <v>607.62</v>
       </c>
       <c r="F566">
         <v>2</v>
@@ -15096,10 +15096,10 @@
         </is>
       </c>
       <c r="D567">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E567">
-        <v>1003.21</v>
+        <v>1058.08</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -15122,10 +15122,10 @@
         </is>
       </c>
       <c r="D568">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E568">
-        <v>454.67</v>
+        <v>472.5</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -15226,10 +15226,10 @@
         </is>
       </c>
       <c r="D572">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E572">
-        <v>479.97</v>
+        <v>486.63</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -15252,10 +15252,10 @@
         </is>
       </c>
       <c r="D573">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E573">
-        <v>193.26</v>
+        <v>253.65</v>
       </c>
       <c r="F573">
         <v>0</v>
@@ -15304,10 +15304,10 @@
         </is>
       </c>
       <c r="D575">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E575">
-        <v>1433.84</v>
+        <v>1440.67</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -15330,10 +15330,10 @@
         </is>
       </c>
       <c r="D576">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E576">
-        <v>959.28</v>
+        <v>1000.99</v>
       </c>
       <c r="F576">
         <v>0</v>
@@ -15356,10 +15356,10 @@
         </is>
       </c>
       <c r="D577">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E577">
-        <v>423.27</v>
+        <v>486.31</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -15408,10 +15408,10 @@
         </is>
       </c>
       <c r="D579">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E579">
-        <v>529.16</v>
+        <v>539.96</v>
       </c>
       <c r="F579">
         <v>0</v>
@@ -15434,10 +15434,10 @@
         </is>
       </c>
       <c r="D580">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E580">
-        <v>408.72</v>
+        <v>428.18</v>
       </c>
       <c r="F580">
         <v>0</v>
@@ -15460,10 +15460,10 @@
         </is>
       </c>
       <c r="D581">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="E581">
-        <v>592.89</v>
+        <v>632.7</v>
       </c>
       <c r="F581">
         <v>0</v>
@@ -15486,10 +15486,10 @@
         </is>
       </c>
       <c r="D582">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E582">
-        <v>217.53</v>
+        <v>207.64</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="D584">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E584">
-        <v>850.16</v>
+        <v>876.73</v>
       </c>
       <c r="F584">
         <v>0</v>
@@ -15564,10 +15564,10 @@
         </is>
       </c>
       <c r="D585">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E585">
-        <v>435.42</v>
+        <v>409.59</v>
       </c>
       <c r="F585">
         <v>0</v>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="D590">
-        <v>3580</v>
+        <v>3601</v>
       </c>
       <c r="E590">
-        <v>1970.27</v>
+        <v>1981.83</v>
       </c>
       <c r="F590">
         <v>3</v>
@@ -15798,10 +15798,10 @@
         </is>
       </c>
       <c r="D594">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E594">
-        <v>993.87</v>
+        <v>1055.98</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -15850,10 +15850,10 @@
         </is>
       </c>
       <c r="D596">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="E596">
-        <v>1094.05</v>
+        <v>1098.8</v>
       </c>
       <c r="F596">
         <v>5</v>
@@ -15876,10 +15876,10 @@
         </is>
       </c>
       <c r="D597">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E597">
-        <v>520.67</v>
+        <v>535.99</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -15902,10 +15902,10 @@
         </is>
       </c>
       <c r="D598">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E598">
-        <v>212.07</v>
+        <v>192.79</v>
       </c>
       <c r="F598">
         <v>0</v>
@@ -15928,10 +15928,10 @@
         </is>
       </c>
       <c r="D599">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E599">
-        <v>251.61</v>
+        <v>260.28</v>
       </c>
       <c r="F599">
         <v>0</v>
@@ -15954,10 +15954,10 @@
         </is>
       </c>
       <c r="D600">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E600">
-        <v>91.81</v>
+        <v>114.76</v>
       </c>
       <c r="F600">
         <v>0</v>
@@ -16006,10 +16006,10 @@
         </is>
       </c>
       <c r="D602">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E602">
-        <v>757.04</v>
+        <v>765.85</v>
       </c>
       <c r="F602">
         <v>0</v>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>493.73</v>
+        <v>464.11</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E3">
-        <v>2063.58</v>
+        <v>2043.9</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4">
-        <v>3163.02</v>
+        <v>3140.9</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E6">
-        <v>1044.19</v>
+        <v>992.27</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>1133.75</v>
+        <v>1118.43</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -579,19 +579,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>BONGARA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BALSAS</t>
+          <t>YAMBRASBAMBA</t>
         </is>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>251.47</v>
+        <v>17.66</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -610,14 +610,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>BALSAS</t>
         </is>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>7.43</v>
+        <v>251.47</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -631,19 +631,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CONDORCANQUI</t>
+          <t>CHACHAPOYAS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EL CENEPA</t>
+          <t>CHACHAPOYAS</t>
         </is>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>114.23</v>
+        <v>7.43</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -662,14 +662,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NIEVA</t>
+          <t>EL CENEPA</t>
         </is>
       </c>
       <c r="D12">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>1075.22</v>
+        <v>114.23</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -688,14 +688,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RIO SANTIAGO</t>
+          <t>NIEVA</t>
         </is>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="E13">
-        <v>207.18</v>
+        <v>1075.22</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -709,19 +709,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UTCUBAMBA</t>
+          <t>CONDORCANQUI</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BAGUA GRANDE</t>
+          <t>RIO SANTIAGO</t>
         </is>
       </c>
       <c r="D14">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>373.9</v>
+        <v>207.18</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -735,19 +735,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UTCUBAMBA</t>
+          <t>RODRIGUEZ DE MENDOZA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CAJARURO</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>265.33</v>
+        <v>22.29</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -766,14 +766,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUMBA</t>
+          <t>BAGUA GRANDE</t>
         </is>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="E16">
-        <v>485.38</v>
+        <v>373.9</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -792,14 +792,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EL MILAGRO</t>
+          <t>CAJARURO</t>
         </is>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E17">
-        <v>615.38</v>
+        <v>265.33</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -818,14 +818,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LONYA GRANDE</t>
+          <t>CUMBA</t>
         </is>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>383.48</v>
+        <v>485.38</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -834,24 +834,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>AMAZONAS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOLOGNESI</t>
+          <t>UTCUBAMBA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COLQUIOC</t>
+          <t>EL MILAGRO</t>
         </is>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>47.06</v>
+        <v>600</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -860,24 +860,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>AMAZONAS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASMA</t>
+          <t>UTCUBAMBA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BUENA VISTA ALTA</t>
+          <t>LONYA GRANDE</t>
         </is>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>17.49</v>
+        <v>383.48</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -891,19 +891,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CASMA</t>
+          <t>BOLOGNESI</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CASMA</t>
+          <t>COLQUIOC</t>
         </is>
       </c>
       <c r="D21">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>411.07</v>
+        <v>94.12</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -922,14 +922,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>YAUTAN</t>
+          <t>BUENA VISTA ALTA</t>
         </is>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>10.49</v>
+        <v>17.49</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -943,19 +943,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CORONGO</t>
+          <t>CASMA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CORONGO</t>
+          <t>CASMA</t>
         </is>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="E23">
-        <v>55.9</v>
+        <v>408.74</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -969,19 +969,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HUARAZ</t>
+          <t>CASMA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HUARAZ</t>
+          <t>YAUTAN</t>
         </is>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>4.22</v>
+        <v>10.49</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -995,19 +995,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>CORONGO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>CORONGO</t>
         </is>
       </c>
       <c r="D25">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>669.5599999999999</v>
+        <v>55.9</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1021,19 +1021,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>HUARAZ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HUAYAN</t>
+          <t>HUARAZ</t>
         </is>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>104.49</v>
+        <v>4.22</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1047,19 +1047,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OCROS</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="E27">
-        <v>221.73</v>
+        <v>630.39</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1073,19 +1073,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>HUAYAN</t>
         </is>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>22.55</v>
+        <v>104.49</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1099,19 +1099,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>OCROS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CACERES DEL PERU</t>
+          <t>SAN PEDRO</t>
         </is>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>20.65</v>
+        <v>221.73</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>RECUAY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>RECUAY</t>
         </is>
       </c>
       <c r="D30">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>63.18</v>
+        <v>22.55</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1156,14 +1156,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>CACERES DEL PERU</t>
         </is>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>16.7</v>
+        <v>20.65</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="E32">
-        <v>33.6</v>
+        <v>65.45</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D33">
-        <v>578</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>3838.24</v>
+        <v>16.7</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1234,14 +1234,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D34">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>26.81</v>
+        <v>44.8</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1260,14 +1260,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>577</v>
       </c>
       <c r="E35">
-        <v>18.49</v>
+        <v>3831.6</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1286,14 +1286,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D36">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E36">
-        <v>266.91</v>
+        <v>27.87</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1302,24 +1302,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>ANCASH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ANDAHUAYLAS</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TALAVERA**</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>4.92</v>
+        <v>18.49</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1328,24 +1328,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>ANCASH</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ACOCRO</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E38">
-        <v>10.56</v>
+        <v>266.91</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1364,14 +1364,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ANDRES AVELINO CACERES D.</t>
+          <t>ACOCRO</t>
         </is>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>3.13</v>
+        <v>10.56</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>ANDRES AVELINO CACERES D.</t>
         </is>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1.7</v>
+        <v>3.13</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1416,14 +1416,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1442,14 +1442,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>13.57</v>
+        <v>1.76</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1463,19 +1463,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D43">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1018.33</v>
+        <v>13.57</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E44">
-        <v>301.98</v>
+        <v>1018.33</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>15.81</v>
+        <v>319.24</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1546,14 +1546,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SANTILLANA</t>
+          <t>LURICOCHA</t>
         </is>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>28.01</v>
+        <v>15.81</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>SANTILLANA</t>
         </is>
       </c>
       <c r="D47">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>1594.57</v>
+        <v>28.01</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1593,19 +1593,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="E48">
-        <v>24.34</v>
+        <v>1568.14</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>35.93</v>
+        <v>24.34</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D50">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1194.64</v>
+        <v>53.9</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="E51">
-        <v>1283.81</v>
+        <v>1204.94</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1702,14 +1702,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>215.3</v>
+        <v>1283.81</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1728,14 +1728,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>12.17</v>
+        <v>215.3</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>383.36</v>
+        <v>24.34</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1780,17 +1780,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E55">
-        <v>603.53</v>
+        <v>375.37</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1801,22 +1801,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D56">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>603.53</v>
+      </c>
+      <c r="F56">
         <v>1</v>
-      </c>
-      <c r="E56">
-        <v>40.11</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1832,14 +1832,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>7.18</v>
+        <v>40.11</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1853,19 +1853,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>16.66</v>
+        <v>7.18</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1874,24 +1874,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>2.83</v>
+        <v>16.66</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1905,19 +1905,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>13.07</v>
+        <v>2.83</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1936,14 +1936,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>1.57</v>
+        <v>13.07</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1962,14 +1962,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>COSPAN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>13.69</v>
+        <v>1.57</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1988,14 +1988,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>55.25</v>
+        <v>13.69</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2009,19 +2009,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>3.41</v>
+        <v>55.25</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>UTCO</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>94.43000000000001</v>
+        <v>3.41</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2061,19 +2061,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>UTCO</t>
         </is>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>21.18</v>
+        <v>94.43000000000001</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>9.710000000000001</v>
+        <v>21.18</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2118,14 +2118,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>168.09</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2144,14 +2144,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>11.56</v>
+        <v>182.1</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2170,14 +2170,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>105.04</v>
+        <v>11.56</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>117.23</v>
+        <v>105.04</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2217,19 +2217,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D72">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>13583.05</v>
+        <v>117.23</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2248,14 +2248,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D73">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="E73">
-        <v>484.38</v>
+        <v>13507.38</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2274,14 +2274,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E74">
-        <v>421.78</v>
+        <v>497.13</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D75">
-        <v>481</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>7113.28</v>
+        <v>421.78</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2321,19 +2321,19 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="E76">
-        <v>31.47</v>
+        <v>7438.63</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>7.8</v>
+        <v>31.47</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2378,14 +2378,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>11.3</v>
+        <v>7.8</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2399,19 +2399,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D79">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>982.7</v>
+        <v>11.3</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2430,14 +2430,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="E80">
-        <v>56.88</v>
+        <v>994.75</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D81">
-        <v>2291</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <v>2097.81</v>
+        <v>56.88</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2482,17 +2482,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2366</v>
       </c>
       <c r="E82">
-        <v>10.59</v>
+        <v>2166.49</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>171.28</v>
+        <v>10.59</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E84">
-        <v>21.51</v>
+        <v>185.56</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>36.4</v>
+        <v>21.51</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>9.81</v>
+        <v>24.27</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2607,19 +2607,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>73.11</v>
+        <v>9.81</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D88">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="E88">
-        <v>417.01</v>
+        <v>73.11</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E89">
-        <v>9.220000000000001</v>
+        <v>395.34</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>60.2</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2716,14 +2716,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D91">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="E91">
-        <v>622.89</v>
+        <v>60.2</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2742,14 +2742,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="E92">
-        <v>14.91</v>
+        <v>618.0599999999999</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>19.67</v>
+        <v>24.85</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2789,19 +2789,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PEDRO GALVEZ</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>4.58</v>
+        <v>34.42</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2815,19 +2815,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NANCHOC</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>75.47</v>
+        <v>4.58</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2846,14 +2846,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>NANCHOC</t>
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <v>28.39</v>
+        <v>452.83</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2867,19 +2867,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>199.42</v>
+        <v>28.39</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2893,19 +2893,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>10.32</v>
+        <v>243.74</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>31.65</v>
+        <v>10.32</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2940,24 +2940,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D100">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>56.57</v>
+        <v>31.65</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D101">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="E101">
-        <v>35.73</v>
+        <v>56.57</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3002,14 +3002,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D102">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="E102">
-        <v>45.59</v>
+        <v>38.52</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3028,14 +3028,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>15.19</v>
+        <v>43.52</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3054,14 +3054,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E104">
-        <v>49.96</v>
+        <v>16.7</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3080,14 +3080,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D105">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>351.52</v>
+        <v>24.98</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3106,43 +3106,43 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D106">
-        <v>711</v>
+        <v>205</v>
       </c>
       <c r="E106">
-        <v>179.08</v>
+        <v>373.37</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D107">
-        <v>32</v>
+        <v>734</v>
       </c>
       <c r="E107">
-        <v>340.68</v>
+        <v>184.87</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -3153,19 +3153,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E108">
-        <v>18.08</v>
+        <v>415.2</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3179,19 +3179,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>4.89</v>
+        <v>18.08</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3205,19 +3205,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D110">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>957.16</v>
+        <v>4.89</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D111">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E111">
-        <v>281.6</v>
+        <v>957.16</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HUAYOPATA</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E112">
-        <v>18.53</v>
+        <v>276.29</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3288,17 +3288,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>HUAYOPATA</t>
         </is>
       </c>
       <c r="D113">
-        <v>319</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>2287.89</v>
+        <v>18.53</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3314,17 +3314,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E114">
-        <v>102.25</v>
+        <v>2309.4</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D115">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>1328.81</v>
+        <v>102.25</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3366,14 +3366,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E116">
-        <v>218.82</v>
+        <v>1357.08</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3392,14 +3392,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D117">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E117">
-        <v>790.5599999999999</v>
+        <v>218.82</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3418,14 +3418,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>OCOBAMBA</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E118">
-        <v>51.37</v>
+        <v>802.72</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3444,17 +3444,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>OCOBAMBA</t>
         </is>
       </c>
       <c r="D119">
-        <v>427</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>1814.32</v>
+        <v>51.37</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3470,17 +3470,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>429</v>
       </c>
       <c r="E120">
-        <v>46.84</v>
+        <v>1822.82</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3496,14 +3496,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D121">
-        <v>1131</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>3793.14</v>
+        <v>46.84</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3522,14 +3522,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D122">
-        <v>36</v>
+        <v>1144</v>
       </c>
       <c r="E122">
-        <v>652.77</v>
+        <v>3836.74</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D123">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E123">
-        <v>3283.34</v>
+        <v>652.77</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3574,14 +3574,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D124">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E124">
-        <v>1823.46</v>
+        <v>3283.34</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3595,19 +3595,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D125">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E125">
-        <v>955.53</v>
+        <v>1823.46</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3621,19 +3621,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E126">
-        <v>16.85</v>
+        <v>955.53</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3642,24 +3642,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>4.21</v>
+        <v>16.85</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3673,19 +3673,19 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>LLATA</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>7.43</v>
+        <v>4.21</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3704,14 +3704,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MONZON</t>
+          <t>LLATA</t>
         </is>
       </c>
       <c r="D129">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>353.07</v>
+        <v>7.43</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3725,19 +3725,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>AMARILIS</t>
+          <t>MONZON</t>
         </is>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E130">
-        <v>2.19</v>
+        <v>362.12</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3756,14 +3756,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CHINCHAO</t>
+          <t>AMARILIS</t>
         </is>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>37.49</v>
+        <v>4.37</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>CHINCHAO</t>
         </is>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>5.1</v>
+        <v>22.5</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,14 +3808,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PILLCO MARCA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>3.68</v>
+        <v>5.1</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3834,14 +3834,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE CHAULAN</t>
+          <t>PILLCO MARCA</t>
         </is>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E134">
-        <v>38.08</v>
+        <v>5.52</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3855,19 +3855,19 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LAURICOCHA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>JESUS</t>
+          <t>SAN PEDRO DE CHAULAN</t>
         </is>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135">
-        <v>29.74</v>
+        <v>38.08</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3881,19 +3881,19 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>LAURICOCHA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CASTILLO GRANDE</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D136">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>2154.71</v>
+        <v>29.74</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DANIEL ALOMIA ROBLES</t>
+          <t>CASTILLO GRANDE</t>
         </is>
       </c>
       <c r="D137">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="E137">
-        <v>579.1799999999999</v>
+        <v>2147.53</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3938,14 +3938,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HERMILIO VALDIZAN</t>
+          <t>DANIEL ALOMIA ROBLES</t>
         </is>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E138">
-        <v>135.28</v>
+        <v>579.1799999999999</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3964,14 +3964,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>JOSE CRESPO Y CASTILLO</t>
+          <t>HERMILIO VALDIZAN</t>
         </is>
       </c>
       <c r="D139">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>300.56</v>
+        <v>135.28</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3990,14 +3990,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>LUYANDO</t>
+          <t>JOSE CRESPO Y CASTILLO</t>
         </is>
       </c>
       <c r="D140">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="E140">
-        <v>1791.23</v>
+        <v>308.79</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MARIANO DAMASO BERAUN</t>
+          <t>LUYANDO</t>
         </is>
       </c>
       <c r="D141">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="E141">
-        <v>560.3</v>
+        <v>1791.23</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4042,14 +4042,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PUCAYACU</t>
+          <t>MARIANO DAMASO BERAUN</t>
         </is>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E142">
-        <v>25.42</v>
+        <v>568.92</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4068,14 +4068,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PUCAYACU</t>
         </is>
       </c>
       <c r="D143">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>253.57</v>
+        <v>25.42</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4094,14 +4094,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D144">
-        <v>919</v>
+        <v>12</v>
       </c>
       <c r="E144">
-        <v>1517.3</v>
+        <v>276.63</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4120,14 +4120,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ANDA</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="D145">
-        <v>8</v>
+        <v>917</v>
       </c>
       <c r="E145">
-        <v>306.98</v>
+        <v>1514</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4141,19 +4141,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CHOLON</t>
+          <t>SANTO DOMINGO DE ANDA</t>
         </is>
       </c>
       <c r="D146">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>213.33</v>
+        <v>306.98</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4172,14 +4172,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>LA MORADA</t>
+          <t>CHOLON</t>
         </is>
       </c>
       <c r="D147">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E147">
-        <v>492.36</v>
+        <v>213.33</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4198,14 +4198,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE ALTO YANAJANCA</t>
+          <t>LA MORADA</t>
         </is>
       </c>
       <c r="D148">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E148">
-        <v>216.84</v>
+        <v>492.36</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4219,19 +4219,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CHAGLLA</t>
+          <t>SANTA ROSA DE ALTO YANAJANCA</t>
         </is>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>41.23</v>
+        <v>216.84</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4245,19 +4245,19 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>CHAGLLA</t>
         </is>
       </c>
       <c r="D150">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>1644.77</v>
+        <v>41.23</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4276,14 +4276,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="E151">
-        <v>82.34</v>
+        <v>1644.77</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4302,14 +4302,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D152">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>1827.77</v>
+        <v>82.34</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4328,14 +4328,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D153">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="E153">
-        <v>264.43</v>
+        <v>1827.77</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4354,14 +4354,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E154">
-        <v>317.92</v>
+        <v>264.43</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4370,27 +4370,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D155">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="E155">
-        <v>1186.35</v>
+        <v>317.92</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -4406,17 +4406,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D156">
-        <v>1712</v>
+        <v>113</v>
       </c>
       <c r="E156">
-        <v>2087.14</v>
+        <v>1186.35</v>
       </c>
       <c r="F156">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4432,17 +4432,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D157">
-        <v>99</v>
+        <v>1734</v>
       </c>
       <c r="E157">
-        <v>646.6799999999999</v>
+        <v>2113.96</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -4458,14 +4458,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D158">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="E158">
-        <v>336.49</v>
+        <v>666.27</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4484,17 +4484,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D159">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c r="E159">
-        <v>1014.59</v>
+        <v>336.49</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4510,17 +4510,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D160">
-        <v>1582</v>
+        <v>318</v>
       </c>
       <c r="E160">
-        <v>2036.17</v>
+        <v>1030.79</v>
       </c>
       <c r="F160">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -4536,17 +4536,17 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D161">
-        <v>654</v>
+        <v>1615</v>
       </c>
       <c r="E161">
-        <v>1877.31</v>
+        <v>2078.64</v>
       </c>
       <c r="F161">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
@@ -4562,17 +4562,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D162">
-        <v>58</v>
+        <v>655</v>
       </c>
       <c r="E162">
-        <v>835.61</v>
+        <v>1880.18</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -4583,22 +4583,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D163">
-        <v>1341</v>
+        <v>63</v>
       </c>
       <c r="E163">
-        <v>737.7</v>
+        <v>907.65</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4614,17 +4614,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D164">
-        <v>232</v>
+        <v>1374</v>
       </c>
       <c r="E164">
-        <v>464.97</v>
+        <v>755.85</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4640,14 +4640,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D165">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="E165">
-        <v>493.67</v>
+        <v>487.01</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4666,17 +4666,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D166">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E166">
-        <v>2094.52</v>
+        <v>512.23</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4692,17 +4692,17 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D167">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="E167">
-        <v>449.39</v>
+        <v>2094.52</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4718,14 +4718,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D168">
-        <v>569</v>
+        <v>40</v>
       </c>
       <c r="E168">
-        <v>900.77</v>
+        <v>449.39</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4744,14 +4744,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D169">
-        <v>70</v>
+        <v>582</v>
       </c>
       <c r="E169">
-        <v>848.28</v>
+        <v>921.35</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4770,17 +4770,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D170">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="E170">
-        <v>822.4400000000001</v>
+        <v>860.4</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4796,17 +4796,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D171">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="E171">
-        <v>1129.22</v>
+        <v>863.09</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4822,14 +4822,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D172">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="E172">
-        <v>1295.4</v>
+        <v>1187.43</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D173">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="E173">
-        <v>1126.65</v>
+        <v>1301.6</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4874,17 +4874,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D174">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E174">
-        <v>1044.2</v>
+        <v>1129.7</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4900,17 +4900,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D175">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="E175">
-        <v>1302.93</v>
+        <v>1076.02</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4926,14 +4926,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E176">
-        <v>221.73</v>
+        <v>1302.93</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4947,19 +4947,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D177">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>1380.5</v>
+        <v>221.73</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4978,14 +4978,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E178">
-        <v>130.55</v>
+        <v>1380.5</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5004,14 +5004,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D179">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E179">
-        <v>50.89</v>
+        <v>130.55</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5030,17 +5030,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D180">
-        <v>827</v>
+        <v>11</v>
       </c>
       <c r="E180">
-        <v>2607.52</v>
+        <v>55.98</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -5056,17 +5056,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D181">
-        <v>362</v>
+        <v>829</v>
       </c>
       <c r="E181">
-        <v>1371.99</v>
+        <v>2613.82</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5077,19 +5077,19 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D182">
-        <v>26</v>
+        <v>365</v>
       </c>
       <c r="E182">
-        <v>1405.41</v>
+        <v>1383.36</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5108,14 +5108,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D183">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E183">
-        <v>1061.95</v>
+        <v>1405.41</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5134,14 +5134,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D184">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E184">
-        <v>563.66</v>
+        <v>1095.13</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5160,14 +5160,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E185">
-        <v>186.39</v>
+        <v>563.66</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -5181,19 +5181,19 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HUANCANO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>66.62</v>
+        <v>186.39</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -5268,10 +5268,10 @@
         </is>
       </c>
       <c r="D189">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E189">
-        <v>118.37</v>
+        <v>128.23</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5294,10 +5294,10 @@
         </is>
       </c>
       <c r="D190">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="E190">
-        <v>655.05</v>
+        <v>664.5599999999999</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -5320,10 +5320,10 @@
         </is>
       </c>
       <c r="D191">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E191">
-        <v>316.25</v>
+        <v>327.96</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="D192">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E192">
-        <v>358.62</v>
+        <v>365.08</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="D193">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E193">
-        <v>955.04</v>
+        <v>964.83</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="D194">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E194">
-        <v>1384.88</v>
+        <v>1412.04</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5788,10 +5788,10 @@
         </is>
       </c>
       <c r="D209">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E209">
-        <v>151.76</v>
+        <v>156.29</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         </is>
       </c>
       <c r="D212">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E212">
-        <v>264.9</v>
+        <v>278.99</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="D213">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E213">
-        <v>135.27</v>
+        <v>138.57</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5918,10 +5918,10 @@
         </is>
       </c>
       <c r="D214">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E214">
-        <v>669.48</v>
+        <v>674.02</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="D220">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E220">
-        <v>175.24</v>
+        <v>178.61</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="D222">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E222">
-        <v>34.88</v>
+        <v>29.9</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6152,10 +6152,10 @@
         </is>
       </c>
       <c r="D223">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E223">
-        <v>733.28</v>
+        <v>747.27</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6230,10 +6230,10 @@
         </is>
       </c>
       <c r="D226">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E226">
-        <v>555.2</v>
+        <v>562.23</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6308,13 +6308,13 @@
         </is>
       </c>
       <c r="D229">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="E229">
-        <v>1626.11</v>
+        <v>1648.11</v>
       </c>
       <c r="F229">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="D232">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E232">
-        <v>104.87</v>
+        <v>109.87</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="D237">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="E237">
-        <v>170.61</v>
+        <v>177.16</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         </is>
       </c>
       <c r="D238">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="E238">
-        <v>809.89</v>
+        <v>846.8099999999999</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="D239">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E239">
-        <v>318.39</v>
+        <v>329.91</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         </is>
       </c>
       <c r="D240">
-        <v>3039</v>
+        <v>3101</v>
       </c>
       <c r="E240">
-        <v>1274.98</v>
+        <v>1301</v>
       </c>
       <c r="F240">
         <v>3</v>
@@ -6620,10 +6620,10 @@
         </is>
       </c>
       <c r="D241">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E241">
-        <v>297.71</v>
+        <v>317.56</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="D246">
-        <v>965</v>
+        <v>995</v>
       </c>
       <c r="E246">
-        <v>267.46</v>
+        <v>275.78</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="D247">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E247">
-        <v>51.65</v>
+        <v>49.25</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         </is>
       </c>
       <c r="D248">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E248">
-        <v>900.52</v>
+        <v>907.5599999999999</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="D251">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E251">
-        <v>1237.3</v>
+        <v>1263.35</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6906,13 +6906,13 @@
         </is>
       </c>
       <c r="D252">
-        <v>4285</v>
+        <v>4378</v>
       </c>
       <c r="E252">
-        <v>1442.16</v>
+        <v>1473.46</v>
       </c>
       <c r="F252">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="D253">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E253">
-        <v>745.1900000000001</v>
+        <v>819.71</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="D254">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E254">
-        <v>58.61</v>
+        <v>51.29</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -7010,10 +7010,10 @@
         </is>
       </c>
       <c r="D256">
-        <v>1315</v>
+        <v>1401</v>
       </c>
       <c r="E256">
-        <v>775.8</v>
+        <v>826.53</v>
       </c>
       <c r="F256">
         <v>6</v>
@@ -7036,13 +7036,13 @@
         </is>
       </c>
       <c r="D257">
-        <v>840</v>
+        <v>904</v>
       </c>
       <c r="E257">
-        <v>828.72</v>
+        <v>891.86</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -7088,10 +7088,10 @@
         </is>
       </c>
       <c r="D259">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E259">
-        <v>209.13</v>
+        <v>249.86</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7140,10 +7140,10 @@
         </is>
       </c>
       <c r="D261">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E261">
-        <v>1224.05</v>
+        <v>1428.06</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7166,10 +7166,10 @@
         </is>
       </c>
       <c r="D262">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E262">
-        <v>686.79</v>
+        <v>702.3099999999999</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -7192,10 +7192,10 @@
         </is>
       </c>
       <c r="D263">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E263">
-        <v>1363.55</v>
+        <v>1470.49</v>
       </c>
       <c r="F263">
         <v>2</v>
@@ -7218,10 +7218,10 @@
         </is>
       </c>
       <c r="D264">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E264">
-        <v>245.42</v>
+        <v>252.97</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="D265">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E265">
-        <v>401.38</v>
+        <v>440.8</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         </is>
       </c>
       <c r="D266">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E266">
-        <v>1072.68</v>
+        <v>1094.57</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7296,10 +7296,10 @@
         </is>
       </c>
       <c r="D267">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E267">
-        <v>174</v>
+        <v>179.44</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="D268">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E268">
-        <v>89.84999999999999</v>
+        <v>124.41</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="D269">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E269">
-        <v>1476.51</v>
+        <v>1508.09</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="D270">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E270">
-        <v>1106.76</v>
+        <v>1110.05</v>
       </c>
       <c r="F270">
         <v>3</v>
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="D272">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="E272">
-        <v>1102.85</v>
+        <v>1151.58</v>
       </c>
       <c r="F272">
         <v>5</v>
@@ -7504,10 +7504,10 @@
         </is>
       </c>
       <c r="D275">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="E275">
-        <v>1716.85</v>
+        <v>1845.84</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -7530,10 +7530,10 @@
         </is>
       </c>
       <c r="D276">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E276">
-        <v>1231.68</v>
+        <v>1250.15</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -7608,10 +7608,10 @@
         </is>
       </c>
       <c r="D279">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E279">
-        <v>2217.67</v>
+        <v>2260.59</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -7634,10 +7634,10 @@
         </is>
       </c>
       <c r="D280">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E280">
-        <v>537.39</v>
+        <v>551.4400000000001</v>
       </c>
       <c r="F280">
         <v>3</v>
@@ -7686,10 +7686,10 @@
         </is>
       </c>
       <c r="D282">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E282">
-        <v>227.15</v>
+        <v>230.54</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         </is>
       </c>
       <c r="D283">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="E283">
-        <v>2959.15</v>
+        <v>2972.98</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="D284">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E284">
-        <v>324.41</v>
+        <v>350.15</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -7790,10 +7790,10 @@
         </is>
       </c>
       <c r="D286">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E286">
-        <v>295.96</v>
+        <v>310.06</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -7842,10 +7842,10 @@
         </is>
       </c>
       <c r="D288">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E288">
-        <v>62.24</v>
+        <v>73.91</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="D289">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E289">
-        <v>7.97</v>
+        <v>6.64</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         </is>
       </c>
       <c r="D290">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E290">
-        <v>14.87</v>
+        <v>18.58</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7920,10 +7920,10 @@
         </is>
       </c>
       <c r="D291">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E291">
-        <v>272.58</v>
+        <v>279.75</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -8128,10 +8128,10 @@
         </is>
       </c>
       <c r="D299">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E299">
-        <v>1041.52</v>
+        <v>1044.36</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -8440,10 +8440,10 @@
         </is>
       </c>
       <c r="D311">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E311">
-        <v>105.61</v>
+        <v>135.79</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="D312">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E312">
-        <v>1477.95</v>
+        <v>1489.87</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         </is>
       </c>
       <c r="D316">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E316">
-        <v>143.52</v>
+        <v>158.62</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -8778,10 +8778,10 @@
         </is>
       </c>
       <c r="D324">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="E324">
-        <v>262.15</v>
+        <v>313.7</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="D325">
-        <v>1201</v>
+        <v>1228</v>
       </c>
       <c r="E325">
-        <v>168.42</v>
+        <v>172.21</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="D327">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E327">
-        <v>13.28</v>
+        <v>16.34</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="D328">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="E328">
-        <v>110.54</v>
+        <v>114.76</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="D329">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="E329">
-        <v>1243.92</v>
+        <v>1278.53</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="D330">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E330">
-        <v>23.04</v>
+        <v>28.13</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="D331">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E331">
-        <v>228.6</v>
+        <v>243.34</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="D332">
-        <v>896</v>
+        <v>950</v>
       </c>
       <c r="E332">
-        <v>149.77</v>
+        <v>158.79</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="D333">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E333">
-        <v>40.64</v>
+        <v>43.21</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -9038,10 +9038,10 @@
         </is>
       </c>
       <c r="D334">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E334">
-        <v>93.67</v>
+        <v>98.83</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9064,10 +9064,10 @@
         </is>
       </c>
       <c r="D335">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E335">
-        <v>36.82</v>
+        <v>41.43</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         </is>
       </c>
       <c r="D336">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E336">
-        <v>85.88</v>
+        <v>88.25</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -9116,10 +9116,10 @@
         </is>
       </c>
       <c r="D337">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E337">
-        <v>24.03</v>
+        <v>26.58</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="D338">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E338">
-        <v>40.15</v>
+        <v>39.79</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9168,10 +9168,10 @@
         </is>
       </c>
       <c r="D339">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E339">
-        <v>65.78</v>
+        <v>67.34</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9194,10 +9194,10 @@
         </is>
       </c>
       <c r="D340">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E340">
-        <v>37.36</v>
+        <v>40.9</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9220,10 +9220,10 @@
         </is>
       </c>
       <c r="D341">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="E341">
-        <v>257.59</v>
+        <v>263.19</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="D342">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E342">
-        <v>83.23999999999999</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9272,10 +9272,10 @@
         </is>
       </c>
       <c r="D343">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E343">
-        <v>18.71</v>
+        <v>17.27</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         </is>
       </c>
       <c r="D344">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E344">
-        <v>12.01</v>
+        <v>14.59</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         </is>
       </c>
       <c r="D345">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E345">
-        <v>111.63</v>
+        <v>116.85</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="D346">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E346">
-        <v>67.09999999999999</v>
+        <v>72.69</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="D348">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="E348">
-        <v>179.34</v>
+        <v>183.42</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="D350">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="E350">
-        <v>291.26</v>
+        <v>301.93</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="D352">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E352">
-        <v>15.75</v>
+        <v>17.25</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         </is>
       </c>
       <c r="D353">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E353">
-        <v>16.89</v>
+        <v>21.12</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         </is>
       </c>
       <c r="D354">
-        <v>2795</v>
+        <v>2830</v>
       </c>
       <c r="E354">
-        <v>225.31</v>
+        <v>228.14</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -9584,10 +9584,10 @@
         </is>
       </c>
       <c r="D355">
-        <v>1870</v>
+        <v>1921</v>
       </c>
       <c r="E355">
-        <v>434.1</v>
+        <v>445.94</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         </is>
       </c>
       <c r="D356">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E356">
-        <v>18.97</v>
+        <v>17.24</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9636,10 +9636,10 @@
         </is>
       </c>
       <c r="D357">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="E357">
-        <v>54.6</v>
+        <v>57.16</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -9662,10 +9662,10 @@
         </is>
       </c>
       <c r="D358">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E358">
-        <v>11.98</v>
+        <v>13.62</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="D359">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E359">
-        <v>29.22</v>
+        <v>31.37</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="D361">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E361">
-        <v>69.68000000000001</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="D362">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E362">
-        <v>18.98</v>
+        <v>19.45</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9792,10 +9792,10 @@
         </is>
       </c>
       <c r="D363">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E363">
-        <v>11.45</v>
+        <v>13.35</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         </is>
       </c>
       <c r="D364">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E364">
-        <v>26.48</v>
+        <v>32.82</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="E365">
-        <v>133.55</v>
+        <v>141.17</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9892,14 +9892,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>YAUYOS</t>
+          <t>ALLAUCA</t>
         </is>
       </c>
       <c r="D367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E367">
-        <v>172.71</v>
+        <v>102.56</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -9908,24 +9908,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>ALTO AMAZONAS</t>
+          <t>YAUYOS</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>BALSAPUERTO</t>
+          <t>YAUYOS</t>
         </is>
       </c>
       <c r="D368">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E368">
-        <v>133.26</v>
+        <v>172.71</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -9944,14 +9944,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>JEBEROS</t>
+          <t>BALSAPUERTO</t>
         </is>
       </c>
       <c r="D369">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E369">
-        <v>707.41</v>
+        <v>133.26</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -9970,14 +9970,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>JEBEROS</t>
         </is>
       </c>
       <c r="D370">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="E370">
-        <v>1892.02</v>
+        <v>707.41</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -9996,14 +9996,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D371">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="E371">
-        <v>132.04</v>
+        <v>1892.02</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -10022,14 +10022,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>TENIENTE CESAR LOPEZ ROJAS</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D372">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E372">
-        <v>410.52</v>
+        <v>132.04</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -10048,14 +10048,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>YURIMAGUAS</t>
+          <t>TENIENTE CESAR LOPEZ ROJAS</t>
         </is>
       </c>
       <c r="D373">
-        <v>1877</v>
+        <v>27</v>
       </c>
       <c r="E373">
-        <v>1677.9</v>
+        <v>410.52</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10069,19 +10069,19 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>DATEM DEL MARAÑON</t>
+          <t>ALTO AMAZONAS</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>ANDOAS</t>
+          <t>YURIMAGUAS</t>
         </is>
       </c>
       <c r="D374">
-        <v>3</v>
+        <v>1877</v>
       </c>
       <c r="E374">
-        <v>18.16</v>
+        <v>1677.9</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -10100,14 +10100,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>ANDOAS</t>
         </is>
       </c>
       <c r="D375">
-        <v>430</v>
+        <v>3</v>
       </c>
       <c r="E375">
-        <v>2518.15</v>
+        <v>18.16</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10126,14 +10126,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>CAHUAPANAS</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="E376">
-        <v>11.67</v>
+        <v>2518.15</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -10152,14 +10152,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>MANSERICHE</t>
+          <t>CAHUAPANAS</t>
         </is>
       </c>
       <c r="D377">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E377">
-        <v>459.57</v>
+        <v>11.67</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10178,14 +10178,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>MORONA</t>
+          <t>MANSERICHE</t>
         </is>
       </c>
       <c r="D378">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="E378">
-        <v>2255.05</v>
+        <v>459.57</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -10204,14 +10204,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>PASTAZA</t>
+          <t>MORONA</t>
         </is>
       </c>
       <c r="D379">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E379">
-        <v>210.68</v>
+        <v>2255.05</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -10225,19 +10225,19 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>DATEM DEL MARAÑON</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>NAUTA</t>
+          <t>PASTAZA</t>
         </is>
       </c>
       <c r="D380">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="E380">
-        <v>328.46</v>
+        <v>210.68</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10256,14 +10256,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>PARINARI</t>
+          <t>NAUTA</t>
         </is>
       </c>
       <c r="D381">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="E381">
-        <v>770.71</v>
+        <v>331.31</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -10282,14 +10282,14 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>TIGRE</t>
+          <t>PARINARI</t>
         </is>
       </c>
       <c r="D382">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E382">
-        <v>265.89</v>
+        <v>770.71</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -10308,14 +10308,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>TROMPETEROS</t>
+          <t>TIGRE</t>
         </is>
       </c>
       <c r="D383">
         <v>21</v>
       </c>
       <c r="E383">
-        <v>185.73</v>
+        <v>265.89</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -10334,14 +10334,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>URARINAS</t>
+          <t>TROMPETEROS</t>
         </is>
       </c>
       <c r="D384">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E384">
-        <v>49.3</v>
+        <v>185.73</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -10355,19 +10355,19 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>MARISCAL RAMON CASTILLA</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>PEBAS</t>
+          <t>URARINAS</t>
         </is>
       </c>
       <c r="D385">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E385">
-        <v>280.83</v>
+        <v>42.26</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -10386,14 +10386,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>RAMON CASTILLA</t>
+          <t>PEBAS</t>
         </is>
       </c>
       <c r="D386">
-        <v>384</v>
+        <v>36</v>
       </c>
       <c r="E386">
-        <v>1539.45</v>
+        <v>280.83</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10412,14 +10412,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>RAMON CASTILLA</t>
         </is>
       </c>
       <c r="D387">
-        <v>15</v>
+        <v>385</v>
       </c>
       <c r="E387">
-        <v>113.83</v>
+        <v>1543.46</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10438,14 +10438,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>YAVARI</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D388">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E388">
-        <v>67.51000000000001</v>
+        <v>113.83</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -10459,19 +10459,19 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>MAYNAS</t>
+          <t>MARISCAL RAMON CASTILLA</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>ALTO NANAY</t>
+          <t>YAVARI</t>
         </is>
       </c>
       <c r="D389">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E389">
-        <v>114.81</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -10490,14 +10490,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>BELEN</t>
+          <t>ALTO NANAY</t>
         </is>
       </c>
       <c r="D390">
-        <v>255</v>
+        <v>4</v>
       </c>
       <c r="E390">
-        <v>353.07</v>
+        <v>114.81</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10516,14 +10516,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>FERNANDO LORES</t>
+          <t>BELEN</t>
         </is>
       </c>
       <c r="D391">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="E391">
-        <v>257.71</v>
+        <v>361.38</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -10542,14 +10542,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>INDIANA</t>
+          <t>FERNANDO LORES</t>
         </is>
       </c>
       <c r="D392">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E392">
-        <v>276.78</v>
+        <v>257.71</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -10568,14 +10568,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>IQUITOS</t>
+          <t>INDIANA</t>
         </is>
       </c>
       <c r="D393">
-        <v>1071</v>
+        <v>33</v>
       </c>
       <c r="E393">
-        <v>647.87</v>
+        <v>276.78</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10594,14 +10594,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>LAS AMAZONAS</t>
+          <t>IQUITOS</t>
         </is>
       </c>
       <c r="D394">
-        <v>8</v>
+        <v>1080</v>
       </c>
       <c r="E394">
-        <v>93.43000000000001</v>
+        <v>653.3200000000001</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -10620,14 +10620,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>MAZAN</t>
+          <t>LAS AMAZONAS</t>
         </is>
       </c>
       <c r="D395">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E395">
-        <v>227.07</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -10646,14 +10646,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>NAPO</t>
+          <t>MAZAN</t>
         </is>
       </c>
       <c r="D396">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E396">
-        <v>49.48</v>
+        <v>233.95</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -10672,14 +10672,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>PUNCHANA</t>
+          <t>NAPO</t>
         </is>
       </c>
       <c r="D397">
-        <v>1168</v>
+        <v>9</v>
       </c>
       <c r="E397">
-        <v>1275.04</v>
+        <v>49.48</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -10698,14 +10698,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>PUNCHANA</t>
         </is>
       </c>
       <c r="D398">
-        <v>601</v>
+        <v>1170</v>
       </c>
       <c r="E398">
-        <v>378.71</v>
+        <v>1277.22</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -10724,14 +10724,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>TORRES CAUSANA</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D399">
-        <v>3</v>
+        <v>596</v>
       </c>
       <c r="E399">
-        <v>56.52</v>
+        <v>375.56</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -10745,19 +10745,19 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>PUTUMAYO</t>
+          <t>MAYNAS</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>PUTUMAYO</t>
+          <t>TORRES CAUSANA</t>
         </is>
       </c>
       <c r="D400">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E400">
-        <v>3572.23</v>
+        <v>56.52</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -10776,14 +10776,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>ROSA PANDURO</t>
+          <t>PUTUMAYO</t>
         </is>
       </c>
       <c r="D401">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="E401">
-        <v>505.05</v>
+        <v>3594.55</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -10802,14 +10802,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>TENIENTE MANUEL CLAVERO</t>
+          <t>ROSA PANDURO</t>
         </is>
       </c>
       <c r="D402">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="E402">
-        <v>4637.68</v>
+        <v>505.05</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -10823,19 +10823,19 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>REQUENA</t>
+          <t>PUTUMAYO</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>ALTO TAPICHE</t>
+          <t>TENIENTE MANUEL CLAVERO</t>
         </is>
       </c>
       <c r="D403">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E403">
-        <v>178.04</v>
+        <v>4637.68</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -10854,14 +10854,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>EMILIO SAN MARTIN</t>
+          <t>ALTO TAPICHE</t>
         </is>
       </c>
       <c r="D404">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E404">
-        <v>725.6900000000001</v>
+        <v>178.04</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -10880,14 +10880,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>JENARO HERRERA</t>
+          <t>EMILIO SAN MARTIN</t>
         </is>
       </c>
       <c r="D405">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="E405">
-        <v>2357.56</v>
+        <v>725.6900000000001</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -10906,14 +10906,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>MAQUIA</t>
+          <t>JENARO HERRERA</t>
         </is>
       </c>
       <c r="D406">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E406">
-        <v>205.13</v>
+        <v>2927.31</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -10932,14 +10932,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>PUINAHUA</t>
+          <t>MAQUIA</t>
         </is>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E407">
-        <v>43.73</v>
+        <v>216.52</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -10958,14 +10958,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>REQUENA</t>
+          <t>PUINAHUA</t>
         </is>
       </c>
       <c r="D408">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="E408">
-        <v>574.87</v>
+        <v>43.73</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -10984,14 +10984,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>YAQUERANA</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="E409">
-        <v>44.76</v>
+        <v>578.38</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -11005,19 +11005,19 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>CONTAMANA</t>
+          <t>YAQUERANA</t>
         </is>
       </c>
       <c r="D410">
-        <v>445</v>
+        <v>1</v>
       </c>
       <c r="E410">
-        <v>1534.48</v>
+        <v>44.76</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -11036,17 +11036,17 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>INAHUAYA</t>
+          <t>CONTAMANA</t>
         </is>
       </c>
       <c r="D411">
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="E411">
-        <v>1722.16</v>
+        <v>1413.79</v>
       </c>
       <c r="F411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -11062,14 +11062,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>PADRE MARQUEZ</t>
+          <t>INAHUAYA</t>
         </is>
       </c>
       <c r="D412">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E412">
-        <v>323.43</v>
+        <v>1722.16</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -11088,14 +11088,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>PADRE MARQUEZ</t>
         </is>
       </c>
       <c r="D413">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E413">
-        <v>65.45999999999999</v>
+        <v>323.43</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -11114,14 +11114,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>SARAYACU</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D414">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="E414">
-        <v>1751.85</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -11140,43 +11140,43 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>VARGAS GUERRA</t>
+          <t>SARAYACU</t>
         </is>
       </c>
       <c r="D415">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="E415">
-        <v>321.75</v>
+        <v>1751.85</v>
       </c>
       <c r="F415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MANU</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>HUEPETUHE</t>
+          <t>VARGAS GUERRA</t>
         </is>
       </c>
       <c r="D416">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E416">
-        <v>535.55</v>
+        <v>321.75</v>
       </c>
       <c r="F416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -11192,14 +11192,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>HUEPETUHE</t>
         </is>
       </c>
       <c r="D417">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E417">
-        <v>492.54</v>
+        <v>535.55</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11218,14 +11218,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>MANU</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="D418">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E418">
-        <v>42.3</v>
+        <v>492.54</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -11239,19 +11239,19 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>MANU</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>IBERIA</t>
+          <t>MANU</t>
         </is>
       </c>
       <c r="D419">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="E419">
-        <v>2573.34</v>
+        <v>42.3</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -11270,14 +11270,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>IÑAPARI</t>
+          <t>IBERIA</t>
         </is>
       </c>
       <c r="D420">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="E420">
-        <v>712.8</v>
+        <v>2710.59</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -11296,14 +11296,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>IÑAPARI</t>
         </is>
       </c>
       <c r="D421">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E421">
-        <v>596.6900000000001</v>
+        <v>712.8</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -11317,19 +11317,19 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>INAMBARI</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="D422">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="E422">
-        <v>984.23</v>
+        <v>596.6900000000001</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11348,14 +11348,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>LABERINTO</t>
+          <t>INAMBARI</t>
         </is>
       </c>
       <c r="D423">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="E423">
-        <v>955.0599999999999</v>
+        <v>995.74</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -11374,14 +11374,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>LAS PIEDRAS</t>
+          <t>LABERINTO</t>
         </is>
       </c>
       <c r="D424">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="E424">
-        <v>994.48</v>
+        <v>955.0599999999999</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -11400,43 +11400,43 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>LAS PIEDRAS</t>
         </is>
       </c>
       <c r="D425">
-        <v>1066</v>
+        <v>217</v>
       </c>
       <c r="E425">
-        <v>959.88</v>
+        <v>999.08</v>
       </c>
       <c r="F425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>CONSTITUCION</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="D426">
-        <v>101</v>
+        <v>1092</v>
       </c>
       <c r="E426">
-        <v>541.7</v>
+        <v>983.29</v>
       </c>
       <c r="F426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -11452,14 +11452,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>CONSTITUCION</t>
         </is>
       </c>
       <c r="D427">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E427">
-        <v>27.46</v>
+        <v>541.7</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -11478,14 +11478,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>PALCAZU</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="D428">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E428">
-        <v>177.7</v>
+        <v>27.46</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -11504,14 +11504,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>POZUZO</t>
+          <t>PALCAZU</t>
         </is>
       </c>
       <c r="D429">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E429">
-        <v>1336.01</v>
+        <v>177.7</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -11530,14 +11530,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>PUERTO BERMUDEZ</t>
+          <t>POZUZO</t>
         </is>
       </c>
       <c r="D430">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E430">
-        <v>89.73999999999999</v>
+        <v>1336.01</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -11556,14 +11556,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>VILLA RICA</t>
+          <t>PUERTO BERMUDEZ</t>
         </is>
       </c>
       <c r="D431">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E431">
-        <v>73.38</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -11577,19 +11577,19 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>CHAUPIMARCA</t>
+          <t>VILLA RICA</t>
         </is>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E432">
-        <v>3.81</v>
+        <v>73.38</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -11608,14 +11608,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>PAUCARTAMBO</t>
+          <t>CHAUPIMARCA</t>
         </is>
       </c>
       <c r="D433">
         <v>1</v>
       </c>
       <c r="E433">
-        <v>11.6</v>
+        <v>3.81</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -11634,14 +11634,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>TINYAHUARCO</t>
+          <t>PAUCARTAMBO</t>
         </is>
       </c>
       <c r="D434">
         <v>1</v>
       </c>
       <c r="E434">
-        <v>13.82</v>
+        <v>11.6</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -11660,14 +11660,14 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>YANACANCHA</t>
+          <t>TINYAHUARCO</t>
         </is>
       </c>
       <c r="D435">
         <v>1</v>
       </c>
       <c r="E435">
-        <v>3.29</v>
+        <v>13.82</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -11676,24 +11676,24 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>AYABACA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>AYABACA</t>
+          <t>YANACANCHA</t>
         </is>
       </c>
       <c r="D436">
         <v>1</v>
       </c>
       <c r="E436">
-        <v>3.11</v>
+        <v>3.29</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -11712,14 +11712,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>FRIAS</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="D437">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E437">
-        <v>23.68</v>
+        <v>6.21</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -11738,14 +11738,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>JILILI</t>
+          <t>FRIAS</t>
         </is>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E438">
-        <v>38.14</v>
+        <v>23.68</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -11764,14 +11764,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>MONTERO</t>
+          <t>JILILI</t>
         </is>
       </c>
       <c r="D439">
         <v>1</v>
       </c>
       <c r="E439">
-        <v>15.38</v>
+        <v>38.14</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -11820,10 +11820,10 @@
         </is>
       </c>
       <c r="D441">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E441">
-        <v>95.90000000000001</v>
+        <v>124.68</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -11898,10 +11898,10 @@
         </is>
       </c>
       <c r="D444">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E444">
-        <v>44.44</v>
+        <v>41.02</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -11924,10 +11924,10 @@
         </is>
       </c>
       <c r="D445">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E445">
-        <v>18.7</v>
+        <v>24.04</v>
       </c>
       <c r="F445">
         <v>0</v>
@@ -12002,10 +12002,10 @@
         </is>
       </c>
       <c r="D448">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E448">
-        <v>691.8099999999999</v>
+        <v>701.29</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -12054,10 +12054,10 @@
         </is>
       </c>
       <c r="D450">
-        <v>4215</v>
+        <v>4319</v>
       </c>
       <c r="E450">
-        <v>4593.81</v>
+        <v>4707.15</v>
       </c>
       <c r="F450">
         <v>7</v>
@@ -12080,10 +12080,10 @@
         </is>
       </c>
       <c r="D451">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E451">
-        <v>2359.58</v>
+        <v>2372.4</v>
       </c>
       <c r="F451">
         <v>1</v>
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="D452">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="E452">
-        <v>3854.61</v>
+        <v>3909.59</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -12132,10 +12132,10 @@
         </is>
       </c>
       <c r="D453">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E453">
-        <v>2729.13</v>
+        <v>2761.36</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -12158,10 +12158,10 @@
         </is>
       </c>
       <c r="D454">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E454">
-        <v>2301.56</v>
+        <v>2434.35</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12314,10 +12314,10 @@
         </is>
       </c>
       <c r="D460">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E460">
-        <v>2115.74</v>
+        <v>2138.37</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -12340,10 +12340,10 @@
         </is>
       </c>
       <c r="D461">
-        <v>1321</v>
+        <v>1336</v>
       </c>
       <c r="E461">
-        <v>8916.639999999999</v>
+        <v>9017.889999999999</v>
       </c>
       <c r="F461">
         <v>2</v>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="D462">
-        <v>1265</v>
+        <v>1279</v>
       </c>
       <c r="E462">
-        <v>1166.01</v>
+        <v>1178.91</v>
       </c>
       <c r="F462">
         <v>2</v>
@@ -12392,10 +12392,10 @@
         </is>
       </c>
       <c r="D463">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E463">
-        <v>981.97</v>
+        <v>1017.68</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -12444,10 +12444,10 @@
         </is>
       </c>
       <c r="D465">
-        <v>4829</v>
+        <v>4895</v>
       </c>
       <c r="E465">
-        <v>2466.85</v>
+        <v>2500.56</v>
       </c>
       <c r="F465">
         <v>8</v>
@@ -12470,10 +12470,10 @@
         </is>
       </c>
       <c r="D466">
-        <v>1644</v>
+        <v>1669</v>
       </c>
       <c r="E466">
-        <v>1941.04</v>
+        <v>1970.55</v>
       </c>
       <c r="F466">
         <v>2</v>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="D467">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E467">
-        <v>2347.22</v>
+        <v>2351.99</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12548,10 +12548,10 @@
         </is>
       </c>
       <c r="D469">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E469">
-        <v>1978.94</v>
+        <v>1995.14</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="D470">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="E470">
-        <v>2741.26</v>
+        <v>2752.02</v>
       </c>
       <c r="F470">
         <v>2</v>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="D472">
-        <v>5360</v>
+        <v>5584</v>
       </c>
       <c r="E472">
-        <v>2827.78</v>
+        <v>2945.96</v>
       </c>
       <c r="F472">
         <v>11</v>
@@ -12652,10 +12652,10 @@
         </is>
       </c>
       <c r="D473">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="E473">
-        <v>941.91</v>
+        <v>929.65</v>
       </c>
       <c r="F473">
         <v>3</v>
@@ -12678,10 +12678,10 @@
         </is>
       </c>
       <c r="D474">
-        <v>2349</v>
+        <v>2419</v>
       </c>
       <c r="E474">
-        <v>1192.97</v>
+        <v>1228.52</v>
       </c>
       <c r="F474">
         <v>5</v>
@@ -12704,10 +12704,10 @@
         </is>
       </c>
       <c r="D475">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E475">
-        <v>2546.05</v>
+        <v>2564.1</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12730,10 +12730,10 @@
         </is>
       </c>
       <c r="D476">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E476">
-        <v>552.15</v>
+        <v>564.42</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -12808,10 +12808,10 @@
         </is>
       </c>
       <c r="D479">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E479">
-        <v>622.95</v>
+        <v>637.47</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -12860,13 +12860,13 @@
         </is>
       </c>
       <c r="D481">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="E481">
-        <v>1629.05</v>
+        <v>1706.27</v>
       </c>
       <c r="F481">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -12886,10 +12886,10 @@
         </is>
       </c>
       <c r="D482">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="E482">
-        <v>2803.45</v>
+        <v>2847.88</v>
       </c>
       <c r="F482">
         <v>3</v>
@@ -12912,10 +12912,10 @@
         </is>
       </c>
       <c r="D483">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E483">
-        <v>154.14</v>
+        <v>168.82</v>
       </c>
       <c r="F483">
         <v>0</v>
@@ -12938,10 +12938,10 @@
         </is>
       </c>
       <c r="D484">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="E484">
-        <v>2652.81</v>
+        <v>2667.74</v>
       </c>
       <c r="F484">
         <v>0</v>
@@ -12964,10 +12964,10 @@
         </is>
       </c>
       <c r="D485">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E485">
-        <v>2094.88</v>
+        <v>2113.67</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -12990,10 +12990,10 @@
         </is>
       </c>
       <c r="D486">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E486">
-        <v>2043</v>
+        <v>2070.61</v>
       </c>
       <c r="F486">
         <v>1</v>
@@ -13016,10 +13016,10 @@
         </is>
       </c>
       <c r="D487">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E487">
-        <v>1002.38</v>
+        <v>1052.5</v>
       </c>
       <c r="F487">
         <v>0</v>
@@ -13042,10 +13042,10 @@
         </is>
       </c>
       <c r="D488">
-        <v>3329</v>
+        <v>3386</v>
       </c>
       <c r="E488">
-        <v>1700.11</v>
+        <v>1729.22</v>
       </c>
       <c r="F488">
         <v>4</v>
@@ -13094,10 +13094,10 @@
         </is>
       </c>
       <c r="D490">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E490">
-        <v>51.77</v>
+        <v>66.56</v>
       </c>
       <c r="F490">
         <v>1</v>
@@ -13120,10 +13120,10 @@
         </is>
       </c>
       <c r="D491">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E491">
-        <v>428.27</v>
+        <v>356.89</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -13146,10 +13146,10 @@
         </is>
       </c>
       <c r="D492">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E492">
-        <v>232.95</v>
+        <v>341.1</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -13172,10 +13172,10 @@
         </is>
       </c>
       <c r="D493">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E493">
-        <v>437.91</v>
+        <v>444.75</v>
       </c>
       <c r="F493">
         <v>0</v>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="D494">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E494">
-        <v>210.12</v>
+        <v>222.1</v>
       </c>
       <c r="F494">
         <v>1</v>
@@ -13484,10 +13484,10 @@
         </is>
       </c>
       <c r="D505">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E505">
-        <v>36.02</v>
+        <v>50.42</v>
       </c>
       <c r="F505">
         <v>0</v>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="D518">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E518">
-        <v>1010.35</v>
+        <v>1041.73</v>
       </c>
       <c r="F518">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         </is>
       </c>
       <c r="D527">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E527">
-        <v>934.76</v>
+        <v>948.63</v>
       </c>
       <c r="F527">
         <v>1</v>
@@ -14212,10 +14212,10 @@
         </is>
       </c>
       <c r="D533">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="E533">
-        <v>599.45</v>
+        <v>606.21</v>
       </c>
       <c r="F533">
         <v>2</v>
@@ -14238,10 +14238,10 @@
         </is>
       </c>
       <c r="D534">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E534">
-        <v>175.9</v>
+        <v>193.06</v>
       </c>
       <c r="F534">
         <v>0</v>
@@ -14524,10 +14524,10 @@
         </is>
       </c>
       <c r="D545">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E545">
-        <v>172.82</v>
+        <v>146.89</v>
       </c>
       <c r="F545">
         <v>0</v>
@@ -14550,10 +14550,10 @@
         </is>
       </c>
       <c r="D546">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E546">
-        <v>158.3</v>
+        <v>156.27</v>
       </c>
       <c r="F546">
         <v>0</v>
@@ -14654,10 +14654,10 @@
         </is>
       </c>
       <c r="D550">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E550">
-        <v>724.25</v>
+        <v>107.3</v>
       </c>
       <c r="F550">
         <v>0</v>
@@ -14914,10 +14914,10 @@
         </is>
       </c>
       <c r="D560">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="E560">
-        <v>1413.25</v>
+        <v>1424.54</v>
       </c>
       <c r="F560">
         <v>0</v>
@@ -14940,10 +14940,10 @@
         </is>
       </c>
       <c r="D561">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E561">
-        <v>795.22</v>
+        <v>818.9299999999999</v>
       </c>
       <c r="F561">
         <v>0</v>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="D566">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E566">
-        <v>607.62</v>
+        <v>616.8200000000001</v>
       </c>
       <c r="F566">
         <v>2</v>
@@ -15096,10 +15096,10 @@
         </is>
       </c>
       <c r="D567">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E567">
-        <v>1058.08</v>
+        <v>1050.24</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -15122,10 +15122,10 @@
         </is>
       </c>
       <c r="D568">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E568">
-        <v>472.5</v>
+        <v>490.33</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -15200,10 +15200,10 @@
         </is>
       </c>
       <c r="D571">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E571">
-        <v>626.1</v>
+        <v>674.27</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -15304,10 +15304,10 @@
         </is>
       </c>
       <c r="D575">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E575">
-        <v>1440.67</v>
+        <v>1543.08</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -15330,10 +15330,10 @@
         </is>
       </c>
       <c r="D576">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E576">
-        <v>1000.99</v>
+        <v>1019.94</v>
       </c>
       <c r="F576">
         <v>0</v>
@@ -15356,10 +15356,10 @@
         </is>
       </c>
       <c r="D577">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E577">
-        <v>486.31</v>
+        <v>549.35</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -15382,10 +15382,10 @@
         </is>
       </c>
       <c r="D578">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E578">
-        <v>102.81</v>
+        <v>347</v>
       </c>
       <c r="F578">
         <v>0</v>
@@ -15408,10 +15408,10 @@
         </is>
       </c>
       <c r="D579">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E579">
-        <v>539.96</v>
+        <v>561.5599999999999</v>
       </c>
       <c r="F579">
         <v>0</v>
@@ -15434,10 +15434,10 @@
         </is>
       </c>
       <c r="D580">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E580">
-        <v>428.18</v>
+        <v>447.64</v>
       </c>
       <c r="F580">
         <v>0</v>
@@ -15460,10 +15460,10 @@
         </is>
       </c>
       <c r="D581">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="E581">
-        <v>632.7</v>
+        <v>667.4299999999999</v>
       </c>
       <c r="F581">
         <v>0</v>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="D584">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E584">
-        <v>876.73</v>
+        <v>890.01</v>
       </c>
       <c r="F584">
         <v>0</v>
@@ -15564,10 +15564,10 @@
         </is>
       </c>
       <c r="D585">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E585">
-        <v>409.59</v>
+        <v>442.8</v>
       </c>
       <c r="F585">
         <v>0</v>
@@ -15694,13 +15694,13 @@
         </is>
       </c>
       <c r="D590">
-        <v>3601</v>
+        <v>3609</v>
       </c>
       <c r="E590">
-        <v>1981.83</v>
+        <v>1986.23</v>
       </c>
       <c r="F590">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591">
@@ -15772,10 +15772,10 @@
         </is>
       </c>
       <c r="D593">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="E593">
-        <v>1265.15</v>
+        <v>1270.37</v>
       </c>
       <c r="F593">
         <v>2</v>
@@ -15798,10 +15798,10 @@
         </is>
       </c>
       <c r="D594">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E594">
-        <v>1055.98</v>
+        <v>1063.75</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -15850,10 +15850,10 @@
         </is>
       </c>
       <c r="D596">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="E596">
-        <v>1098.8</v>
+        <v>1109.88</v>
       </c>
       <c r="F596">
         <v>5</v>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -9122,7 +9122,7 @@
         <v>189.45</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F617"/>
+  <dimension ref="A1:F616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>503.6</v>
+        <v>523.35</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E3">
-        <v>2178.41</v>
+        <v>2184.97</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E6">
-        <v>911.5</v>
+        <v>899.97</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>7.43</v>
+        <v>9.91</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>635.62</v>
+        <v>647.17</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D23">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E23">
-        <v>471.8</v>
+        <v>495.15</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1047,19 +1047,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>HUARI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COCHAPETI</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>122.85</v>
+        <v>5.01</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1078,17 +1078,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>COCHAPETI</t>
         </is>
       </c>
       <c r="D28">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>783.53</v>
+        <v>122.85</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HUAYAN</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="D29">
+        <v>222</v>
+      </c>
+      <c r="E29">
+        <v>790.65</v>
+      </c>
+      <c r="F29">
         <v>1</v>
-      </c>
-      <c r="E29">
-        <v>104.49</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1125,19 +1125,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>OCROS</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>HUAYAN</t>
         </is>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>221.73</v>
+        <v>104.49</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1151,19 +1151,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>OCROS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>SAN PEDRO</t>
         </is>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>22.55</v>
+        <v>221.73</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1177,19 +1177,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>RECUAY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CACERES DEL PERU</t>
+          <t>RECUAY</t>
         </is>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>20.65</v>
+        <v>22.55</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>CACERES DEL PERU</t>
         </is>
       </c>
       <c r="D33">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>88.63</v>
+        <v>41.31</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="E34">
-        <v>11.13</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1260,14 +1260,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>44.8</v>
+        <v>11.13</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1286,14 +1286,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D36">
-        <v>624</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>4143.7</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1312,14 +1312,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D37">
-        <v>69</v>
+        <v>631</v>
       </c>
       <c r="E37">
-        <v>36.28</v>
+        <v>4190.19</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1338,14 +1338,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E38">
-        <v>18.49</v>
+        <v>37.85</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1364,14 +1364,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D39">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>304.45</v>
+        <v>18.49</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>YUNGAY</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>QUILLO</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E40">
-        <v>7.53</v>
+        <v>325.3</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1406,24 +1406,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>ANCASH</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GRAU</t>
+          <t>YUNGAY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CHUQUIBAMBILLA**</t>
+          <t>QUILLO</t>
         </is>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>19.91</v>
+        <v>7.53</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1432,24 +1432,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CARAVELI</t>
+          <t>GRAU</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CHAPARRA**</t>
+          <t>CHUQUIBAMBILLA**</t>
         </is>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>28.3</v>
+        <v>19.91</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ANDRES AVELINO CACERES D.</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>2.55</v>
+        <v>1.76</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1546,14 +1546,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1.76</v>
+        <v>13.57</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1567,19 +1567,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>13.57</v>
+        <v>1018.33</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1598,14 +1598,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E48">
-        <v>1018.33</v>
+        <v>319.24</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>SANTILLANA</t>
         </is>
       </c>
       <c r="D49">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>319.24</v>
+        <v>28.01</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E50">
-        <v>15.81</v>
+        <v>1585.76</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1671,19 +1671,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SANTILLANA</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>28.01</v>
+        <v>24.34</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1697,19 +1697,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D52">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>1568.14</v>
+        <v>53.9</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1728,14 +1728,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="E53">
-        <v>24.34</v>
+        <v>1246.14</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>CHUNGUI</t>
         </is>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>53.9</v>
+        <v>23.23</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1780,14 +1780,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D55">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="E55">
-        <v>1225.54</v>
+        <v>1650.62</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CHUNGUI</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E56">
-        <v>23.23</v>
+        <v>328.61</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1832,14 +1832,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>1650.62</v>
+        <v>24.34</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1858,14 +1858,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E58">
-        <v>215.3</v>
+        <v>415.3</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1884,17 +1884,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>24.34</v>
+        <v>696.38</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1905,19 +1905,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D60">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>391.34</v>
+        <v>40.11</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1931,22 +1931,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>696.38</v>
+        <v>7.18</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1957,19 +1957,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>40.11</v>
+        <v>16.66</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1978,24 +1978,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>7.18</v>
+        <v>2.83</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2004,24 +2004,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>16.66</v>
+        <v>13.07</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2035,19 +2035,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>2.83</v>
+        <v>2.36</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2066,14 +2066,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>13.07</v>
+        <v>13.69</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>2.36</v>
+        <v>55.25</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2113,19 +2113,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>COSPAN</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>13.69</v>
+        <v>3.41</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2139,19 +2139,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>66.31</v>
+        <v>21.18</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2165,19 +2165,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHIGUIRIP</t>
         </is>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>3.41</v>
+        <v>28.89</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>21.18</v>
+        <v>15.54</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CHIGUIRIP</t>
+          <t>HUAMBOS</t>
         </is>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>28.89</v>
+        <v>11.95</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2248,14 +2248,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E73">
-        <v>15.54</v>
+        <v>182.1</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2274,14 +2274,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HUAMBOS</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>11.95</v>
+        <v>11.56</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>182.1</v>
+        <v>105.04</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2326,14 +2326,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>11.56</v>
+        <v>117.23</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2347,19 +2347,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="E77">
-        <v>105.04</v>
+        <v>15096.48</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2373,19 +2373,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E78">
-        <v>117.23</v>
+        <v>599.11</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2404,14 +2404,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D79">
-        <v>394</v>
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>14907.3</v>
+        <v>575.15</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2430,14 +2430,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D80">
-        <v>46</v>
+        <v>590</v>
       </c>
       <c r="E80">
-        <v>586.36</v>
+        <v>8725.23</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2451,19 +2451,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>613.5</v>
+        <v>31.47</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2477,19 +2477,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="D82">
-        <v>576</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>8518.190000000001</v>
+        <v>1.98</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>31.47</v>
+        <v>7.8</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1.98</v>
+        <v>11.3</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2555,19 +2555,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="E85">
-        <v>7.8</v>
+        <v>1018.87</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2581,19 +2581,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>11.3</v>
+        <v>47.4</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2612,17 +2612,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D87">
-        <v>175</v>
+        <v>2415</v>
       </c>
       <c r="E87">
-        <v>1055.04</v>
+        <v>2211.36</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>47.4</v>
+        <v>10.59</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,17 +2664,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D89">
-        <v>2420</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>2215.93</v>
+        <v>214.1</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>10.59</v>
+        <v>21.51</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2716,14 +2716,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D91">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>199.83</v>
+        <v>36.4</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2742,14 +2742,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>21.51</v>
+        <v>9.81</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2763,19 +2763,19 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>36.4</v>
+        <v>91.39</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2789,19 +2789,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E94">
-        <v>19.61</v>
+        <v>525.3200000000001</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2820,14 +2820,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>97.48</v>
+        <v>13.83</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2846,14 +2846,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D96">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>465.75</v>
+        <v>50.17</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2872,14 +2872,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="E97">
-        <v>13.83</v>
+        <v>731.53</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2898,14 +2898,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E98">
-        <v>50.17</v>
+        <v>34.79</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D99">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>714.63</v>
+        <v>54.09</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2945,19 +2945,19 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>34.79</v>
+        <v>4.58</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2971,19 +2971,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>NANCHOC</t>
         </is>
       </c>
       <c r="D101">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E101">
-        <v>54.09</v>
+        <v>981.13</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2997,19 +2997,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PEDRO GALVEZ</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>4.58</v>
+        <v>7.43</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3028,14 +3028,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NANCHOC</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>905.66</v>
+        <v>28.39</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3049,19 +3049,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E104">
-        <v>28.39</v>
+        <v>288.06</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3075,19 +3075,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D105">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>288.06</v>
+        <v>10.32</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3106,14 +3106,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>10.32</v>
+        <v>31.65</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3122,24 +3122,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E107">
-        <v>31.65</v>
+        <v>69.81</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3158,14 +3158,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D108">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="E108">
-        <v>68.59999999999999</v>
+        <v>50.99</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3184,14 +3184,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D109">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="E109">
-        <v>49.87</v>
+        <v>47.66</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3210,14 +3210,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D110">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>45.59</v>
+        <v>22.78</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>22.78</v>
+        <v>24.98</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="E112">
-        <v>24.98</v>
+        <v>451.69</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3288,43 +3288,43 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D113">
-        <v>240</v>
+        <v>898</v>
       </c>
       <c r="E113">
-        <v>437.12</v>
+        <v>226.18</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="D114">
-        <v>872</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>219.63</v>
+        <v>4.17</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3340,17 +3340,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D115">
+        <v>46</v>
+      </c>
+      <c r="E115">
+        <v>489.73</v>
+      </c>
+      <c r="F115">
         <v>1</v>
-      </c>
-      <c r="E115">
-        <v>4.17</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D116">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>468.43</v>
+        <v>18.08</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3387,19 +3387,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>18.08</v>
+        <v>4.08</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3413,19 +3413,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E118">
-        <v>4.08</v>
+        <v>957.16</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3444,14 +3444,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D119">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E119">
-        <v>957.16</v>
+        <v>270.97</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3470,14 +3470,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>HUAYOPATA</t>
         </is>
       </c>
       <c r="D120">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>276.29</v>
+        <v>37.05</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3496,14 +3496,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HUAYOPATA</t>
+          <t>INKAWASI</t>
         </is>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>37.05</v>
+        <v>19.77</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3522,17 +3522,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>INKAWASI</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D122">
+        <v>320</v>
+      </c>
+      <c r="E122">
+        <v>2295.06</v>
+      </c>
+      <c r="F122">
         <v>1</v>
-      </c>
-      <c r="E122">
-        <v>19.77</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D123">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="E123">
-        <v>2295.06</v>
+        <v>102.25</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3574,14 +3574,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D124">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E124">
-        <v>102.25</v>
+        <v>1413.63</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3600,14 +3600,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D125">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>1413.63</v>
+        <v>198.93</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3626,14 +3626,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D126">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E126">
-        <v>218.82</v>
+        <v>875.7</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3652,14 +3652,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>OCOBAMBA</t>
         </is>
       </c>
       <c r="D127">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>875.7</v>
+        <v>51.37</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3678,17 +3678,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>OCOBAMBA</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>439</v>
       </c>
       <c r="E128">
-        <v>51.37</v>
+        <v>1865.31</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3704,17 +3704,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D129">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="E129">
-        <v>1848.31</v>
+        <v>40.15</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3730,17 +3730,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>1069</v>
       </c>
       <c r="E130">
-        <v>46.84</v>
+        <v>3585.2</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3756,14 +3756,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D131">
-        <v>1089</v>
+        <v>48</v>
       </c>
       <c r="E131">
-        <v>3652.28</v>
+        <v>870.35</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>VILCABAMBA</t>
         </is>
       </c>
       <c r="D132">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>652.77</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,14 +3808,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>VILCABAMBA</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E133">
-        <v>9.949999999999999</v>
+        <v>3283.34</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3834,14 +3834,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D134">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E134">
-        <v>3364.41</v>
+        <v>1947.78</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3855,19 +3855,19 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D135">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E135">
-        <v>2072.11</v>
+        <v>955.53</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3881,19 +3881,19 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D136">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>955.53</v>
+        <v>16.85</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3902,24 +3902,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137">
-        <v>16.85</v>
+        <v>4.21</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3933,19 +3933,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>DOS DE MAYO</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>YANAS</t>
         </is>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>4.21</v>
+        <v>49.58</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         </is>
       </c>
       <c r="D140">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E140">
-        <v>389.28</v>
+        <v>398.33</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>9.84</v>
+        <v>12.02</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>6.12</v>
+        <v>7.15</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         </is>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>9.199999999999999</v>
+        <v>7.36</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4176,10 +4176,10 @@
         </is>
       </c>
       <c r="D147">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E147">
-        <v>2204.98</v>
+        <v>2212.17</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         </is>
       </c>
       <c r="D148">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E148">
-        <v>607.4299999999999</v>
+        <v>621.5599999999999</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="D150">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E150">
-        <v>321.15</v>
+        <v>325.26</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4280,10 +4280,10 @@
         </is>
       </c>
       <c r="D151">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E151">
-        <v>1780.93</v>
+        <v>1791.23</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="D152">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E152">
-        <v>594.78</v>
+        <v>603.4</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="D155">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="E155">
-        <v>1563.53</v>
+        <v>1571.79</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4696,13 +4696,13 @@
         </is>
       </c>
       <c r="D167">
-        <v>1830</v>
+        <v>1846</v>
       </c>
       <c r="E167">
-        <v>2231</v>
+        <v>2250.51</v>
       </c>
       <c r="F167">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="D168">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E168">
-        <v>757.72</v>
+        <v>770.79</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="D169">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E169">
-        <v>363.96</v>
+        <v>377.7</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="D170">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E170">
-        <v>1121.56</v>
+        <v>1124.8</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="D171">
-        <v>1716</v>
+        <v>1734</v>
       </c>
       <c r="E171">
-        <v>2208.64</v>
+        <v>2231.8</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -4826,13 +4826,13 @@
         </is>
       </c>
       <c r="D172">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="E172">
-        <v>2020.84</v>
+        <v>2055.29</v>
       </c>
       <c r="F172">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="D174">
-        <v>1498</v>
+        <v>1545</v>
       </c>
       <c r="E174">
-        <v>824.0700000000001</v>
+        <v>849.92</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="D175">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E175">
-        <v>551.15</v>
+        <v>565.1799999999999</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4930,10 +4930,10 @@
         </is>
       </c>
       <c r="D176">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E176">
-        <v>564.2</v>
+        <v>590.1799999999999</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="D178">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E178">
-        <v>494.33</v>
+        <v>505.56</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="D179">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="E179">
-        <v>956.1799999999999</v>
+        <v>986.26</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="D180">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E180">
-        <v>1054.29</v>
+        <v>1102.76</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="D181">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E181">
-        <v>919.38</v>
+        <v>950.65</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="D182">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E182">
-        <v>1315.48</v>
+        <v>1536.67</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="D183">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E183">
-        <v>1382.17</v>
+        <v>1406.97</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         </is>
       </c>
       <c r="D184">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E184">
-        <v>1260.99</v>
+        <v>1288.47</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         </is>
       </c>
       <c r="D185">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E185">
-        <v>1148.33</v>
+        <v>1168.58</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -5190,10 +5190,10 @@
         </is>
       </c>
       <c r="D186">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E186">
-        <v>1501.99</v>
+        <v>1520.09</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -5216,10 +5216,10 @@
         </is>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>295.64</v>
+        <v>369.55</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -5320,10 +5320,10 @@
         </is>
       </c>
       <c r="D191">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E191">
-        <v>2749.4</v>
+        <v>2758.86</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="D192">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E192">
-        <v>1436.42</v>
+        <v>1447.79</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="D193">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>1459.46</v>
+        <v>1567.57</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="D194">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E194">
-        <v>1305.31</v>
+        <v>1349.56</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="D200">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E200">
-        <v>713.3</v>
+        <v>715.6799999999999</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -5580,10 +5580,10 @@
         </is>
       </c>
       <c r="D201">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E201">
-        <v>392.39</v>
+        <v>398.24</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         </is>
       </c>
       <c r="D202">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E202">
-        <v>465.24</v>
+        <v>471.7</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -5632,10 +5632,10 @@
         </is>
       </c>
       <c r="D203">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E203">
-        <v>1087.28</v>
+        <v>1126.46</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="D204">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="E204">
-        <v>1425.61</v>
+        <v>1476.53</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="D205">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="E205">
-        <v>1011.63</v>
+        <v>1024.92</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="D208">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="E208">
-        <v>1411.45</v>
+        <v>1482.53</v>
       </c>
       <c r="F208">
         <v>3</v>
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="D222">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E222">
-        <v>314.69</v>
+        <v>316.15</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         </is>
       </c>
       <c r="D224">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E224">
-        <v>164.96</v>
+        <v>158.36</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6204,10 +6204,10 @@
         </is>
       </c>
       <c r="D225">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E225">
-        <v>678.5599999999999</v>
+        <v>674.02</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="D230">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E230">
-        <v>375.92</v>
+        <v>388.24</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6490,10 +6490,10 @@
         </is>
       </c>
       <c r="D236">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="E236">
-        <v>899.12</v>
+        <v>955.0599999999999</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="D237">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E237">
-        <v>54.7</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="D239">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E239">
-        <v>688.73</v>
+        <v>716.85</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6646,10 +6646,10 @@
         </is>
       </c>
       <c r="D242">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="E242">
-        <v>1681.12</v>
+        <v>1720.72</v>
       </c>
       <c r="F242">
         <v>4</v>
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="D243">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E243">
-        <v>101.69</v>
+        <v>116.64</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -6698,10 +6698,10 @@
         </is>
       </c>
       <c r="D244">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E244">
-        <v>138.38</v>
+        <v>146.06</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         </is>
       </c>
       <c r="D245">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>124.85</v>
+        <v>144.83</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="D247">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E247">
-        <v>206.43</v>
+        <v>224.38</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="D250">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="E250">
-        <v>213.57</v>
+        <v>216.85</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="D251">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="E251">
-        <v>1127.44</v>
+        <v>1250.52</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="D252">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="E252">
-        <v>359.24</v>
+        <v>383.33</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6932,13 +6932,13 @@
         </is>
       </c>
       <c r="D253">
-        <v>3301</v>
+        <v>3356</v>
       </c>
       <c r="E253">
-        <v>1384.9</v>
+        <v>1407.98</v>
       </c>
       <c r="F253">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254">
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="D254">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E254">
-        <v>412.38</v>
+        <v>423.41</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="D255">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E255">
-        <v>58.99</v>
+        <v>63.35</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7088,10 +7088,10 @@
         </is>
       </c>
       <c r="D259">
-        <v>1157</v>
+        <v>1184</v>
       </c>
       <c r="E259">
-        <v>320.68</v>
+        <v>328.16</v>
       </c>
       <c r="F259">
         <v>1</v>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="D260">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E260">
-        <v>61.26</v>
+        <v>63.66</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7140,10 +7140,10 @@
         </is>
       </c>
       <c r="D261">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="E261">
-        <v>1120.96</v>
+        <v>1165.52</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -7192,10 +7192,10 @@
         </is>
       </c>
       <c r="D263">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E263">
-        <v>838.61</v>
+        <v>843.47</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -7218,10 +7218,10 @@
         </is>
       </c>
       <c r="D264">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E264">
-        <v>1458.71</v>
+        <v>1530.35</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -7244,13 +7244,13 @@
         </is>
       </c>
       <c r="D265">
-        <v>4858</v>
+        <v>5032</v>
       </c>
       <c r="E265">
-        <v>1635.01</v>
+        <v>1693.57</v>
       </c>
       <c r="F265">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266">
@@ -7270,10 +7270,10 @@
         </is>
       </c>
       <c r="D266">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E266">
-        <v>899.2</v>
+        <v>1018.43</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -7348,13 +7348,13 @@
         </is>
       </c>
       <c r="D269">
-        <v>1763</v>
+        <v>1806</v>
       </c>
       <c r="E269">
-        <v>1040.1</v>
+        <v>1065.47</v>
       </c>
       <c r="F269">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="D270">
-        <v>1063</v>
+        <v>1112</v>
       </c>
       <c r="E270">
-        <v>1048.73</v>
+        <v>1097.07</v>
       </c>
       <c r="F270">
         <v>2</v>
@@ -7400,10 +7400,10 @@
         </is>
       </c>
       <c r="D271">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E271">
-        <v>134.73</v>
+        <v>179.65</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="D272">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E272">
-        <v>271.59</v>
+        <v>282.46</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -7478,10 +7478,10 @@
         </is>
       </c>
       <c r="D274">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E274">
-        <v>2136.09</v>
+        <v>2160.09</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -7504,10 +7504,10 @@
         </is>
       </c>
       <c r="D275">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E275">
-        <v>725.59</v>
+        <v>779.92</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -7530,10 +7530,10 @@
         </is>
       </c>
       <c r="D276">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="E276">
-        <v>1510.59</v>
+        <v>1677.7</v>
       </c>
       <c r="F276">
         <v>2</v>
@@ -7556,13 +7556,13 @@
         </is>
       </c>
       <c r="D277">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E277">
-        <v>273.73</v>
+        <v>275.62</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="D278">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E278">
-        <v>501.72</v>
+        <v>519.64</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7608,10 +7608,10 @@
         </is>
       </c>
       <c r="D279">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E279">
-        <v>1247.81</v>
+        <v>1554.29</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -7634,10 +7634,10 @@
         </is>
       </c>
       <c r="D280">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E280">
-        <v>190.31</v>
+        <v>206.62</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -7686,10 +7686,10 @@
         </is>
       </c>
       <c r="D282">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E282">
-        <v>1547.57</v>
+        <v>1555.47</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         </is>
       </c>
       <c r="D283">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E283">
-        <v>1149.58</v>
+        <v>1166.05</v>
       </c>
       <c r="F283">
         <v>3</v>
@@ -7764,10 +7764,10 @@
         </is>
       </c>
       <c r="D285">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="E285">
-        <v>1279.82</v>
+        <v>1384.97</v>
       </c>
       <c r="F285">
         <v>7</v>
@@ -7790,10 +7790,10 @@
         </is>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E286">
-        <v>12.76</v>
+        <v>19.14</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -7842,10 +7842,10 @@
         </is>
       </c>
       <c r="D288">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="E288">
-        <v>1890.32</v>
+        <v>1957.03</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -7920,10 +7920,10 @@
         </is>
       </c>
       <c r="D291">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E291">
-        <v>972.92</v>
+        <v>982.95</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -7946,10 +7946,10 @@
         </is>
       </c>
       <c r="D292">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E292">
-        <v>2503.82</v>
+        <v>2532.43</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -7972,10 +7972,10 @@
         </is>
       </c>
       <c r="D293">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="E293">
-        <v>613.49</v>
+        <v>628.71</v>
       </c>
       <c r="F293">
         <v>3</v>
@@ -7998,10 +7998,10 @@
         </is>
       </c>
       <c r="D294">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E294">
-        <v>104.37</v>
+        <v>123.35</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         </is>
       </c>
       <c r="D295">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E295">
-        <v>239.01</v>
+        <v>245.79</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -8050,13 +8050,13 @@
         </is>
       </c>
       <c r="D296">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E296">
-        <v>3011.7</v>
+        <v>3020</v>
       </c>
       <c r="F296">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="D297">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E297">
-        <v>396.5</v>
+        <v>401.65</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -8128,10 +8128,10 @@
         </is>
       </c>
       <c r="D299">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E299">
-        <v>338.24</v>
+        <v>352.34</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="D301">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E301">
-        <v>77.8</v>
+        <v>81.69</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -8258,13 +8258,13 @@
         </is>
       </c>
       <c r="D304">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E304">
-        <v>401.69</v>
+        <v>394.52</v>
       </c>
       <c r="F304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="D312">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E312">
-        <v>1101.12</v>
+        <v>1103.95</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -8492,10 +8492,10 @@
         </is>
       </c>
       <c r="D313">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E313">
-        <v>63.16</v>
+        <v>59.84</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -8518,10 +8518,10 @@
         </is>
       </c>
       <c r="D314">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="E314">
-        <v>1773.99</v>
+        <v>1874.52</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         </is>
       </c>
       <c r="D315">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E315">
-        <v>145.83</v>
+        <v>125</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         </is>
       </c>
       <c r="D317">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E317">
-        <v>63.35</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -9038,10 +9038,10 @@
         </is>
       </c>
       <c r="D334">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E334">
-        <v>6.79</v>
+        <v>13.58</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="D338">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="E338">
-        <v>352.09</v>
+        <v>385</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9168,10 +9168,10 @@
         </is>
       </c>
       <c r="D339">
-        <v>1390</v>
+        <v>1416</v>
       </c>
       <c r="E339">
-        <v>194.92</v>
+        <v>198.57</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -9194,10 +9194,10 @@
         </is>
       </c>
       <c r="D340">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E340">
-        <v>31.98</v>
+        <v>29.31</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9220,10 +9220,10 @@
         </is>
       </c>
       <c r="D341">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E341">
-        <v>17.36</v>
+        <v>20.43</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="D342">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="E342">
-        <v>141.46</v>
+        <v>159.26</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9272,10 +9272,10 @@
         </is>
       </c>
       <c r="D343">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="E343">
-        <v>1425.64</v>
+        <v>1460.25</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         </is>
       </c>
       <c r="D344">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="E344">
-        <v>31.61</v>
+        <v>35.63</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         </is>
       </c>
       <c r="D345">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E345">
-        <v>270.38</v>
+        <v>297.42</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="D346">
-        <v>1122</v>
+        <v>1201</v>
       </c>
       <c r="E346">
-        <v>187.54</v>
+        <v>200.75</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -9376,10 +9376,10 @@
         </is>
       </c>
       <c r="D347">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E347">
-        <v>58.61</v>
+        <v>62.46</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="D348">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="E348">
-        <v>136.21</v>
+        <v>151.25</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -9428,10 +9428,10 @@
         </is>
       </c>
       <c r="D349">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E349">
-        <v>52.94</v>
+        <v>55.24</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="D350">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E350">
-        <v>95.95</v>
+        <v>100.1</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         </is>
       </c>
       <c r="D351">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E351">
-        <v>30.16</v>
+        <v>31.18</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="D352">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E352">
-        <v>53.89</v>
+        <v>58.96</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         </is>
       </c>
       <c r="D353">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E353">
-        <v>75.17</v>
+        <v>79.87</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         </is>
       </c>
       <c r="D354">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E354">
-        <v>52.35</v>
+        <v>55.9</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -9584,10 +9584,10 @@
         </is>
       </c>
       <c r="D355">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="E355">
-        <v>309.57</v>
+        <v>316.15</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -9610,10 +9610,10 @@
         </is>
       </c>
       <c r="D356">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E356">
-        <v>88.44</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9636,10 +9636,10 @@
         </is>
       </c>
       <c r="D357">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E357">
-        <v>27.34</v>
+        <v>28.78</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9662,10 +9662,10 @@
         </is>
       </c>
       <c r="D358">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E358">
-        <v>17.16</v>
+        <v>18.88</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="D359">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E359">
-        <v>133.17</v>
+        <v>135.13</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="D362">
-        <v>894</v>
+        <v>946</v>
       </c>
       <c r="E362">
-        <v>214.63</v>
+        <v>227.11</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         </is>
       </c>
       <c r="D364">
-        <v>663</v>
+        <v>722</v>
       </c>
       <c r="E364">
-        <v>353.67</v>
+        <v>385.14</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E365">
-        <v>84.89</v>
+        <v>95.5</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9870,10 +9870,10 @@
         </is>
       </c>
       <c r="D366">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E366">
-        <v>20.25</v>
+        <v>21.75</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -9922,10 +9922,10 @@
         </is>
       </c>
       <c r="D368">
-        <v>3000</v>
+        <v>3053</v>
       </c>
       <c r="E368">
-        <v>241.84</v>
+        <v>246.11</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         </is>
       </c>
       <c r="D369">
-        <v>2083</v>
+        <v>2118</v>
       </c>
       <c r="E369">
-        <v>483.55</v>
+        <v>491.68</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         </is>
       </c>
       <c r="D370">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E370">
-        <v>17.24</v>
+        <v>20.69</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -10000,10 +10000,10 @@
         </is>
       </c>
       <c r="D371">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="E371">
-        <v>67</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F371">
         <v>1</v>
@@ -10026,10 +10026,10 @@
         </is>
       </c>
       <c r="D372">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E372">
-        <v>14.16</v>
+        <v>14.71</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="D373">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E373">
-        <v>42.11</v>
+        <v>45.11</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10104,10 +10104,10 @@
         </is>
       </c>
       <c r="D375">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E375">
-        <v>81.69</v>
+        <v>91.3</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         </is>
       </c>
       <c r="D376">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E376">
-        <v>24.37</v>
+        <v>23.9</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="D377">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E377">
-        <v>17.17</v>
+        <v>19.08</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10182,13 +10182,13 @@
         </is>
       </c>
       <c r="D378">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E378">
-        <v>38.93</v>
+        <v>40.74</v>
       </c>
       <c r="F378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -10208,10 +10208,10 @@
         </is>
       </c>
       <c r="D379">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="E379">
-        <v>154.25</v>
+        <v>158.6</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -10230,14 +10230,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>ANDAJES</t>
+          <t>OYON</t>
         </is>
       </c>
       <c r="D380">
         <v>1</v>
       </c>
       <c r="E380">
-        <v>225.73</v>
+        <v>8.66</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10256,14 +10256,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>OYON</t>
+          <t>PACHANGARA</t>
         </is>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E381">
-        <v>8.66</v>
+        <v>175.05</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -10277,19 +10277,19 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>OYON</t>
+          <t>YAUYOS</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>PACHANGARA</t>
+          <t>ALLAUCA</t>
         </is>
       </c>
       <c r="D382">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E382">
-        <v>175.05</v>
+        <v>102.56</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -10308,14 +10308,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>ALLAUCA</t>
+          <t>HUANCAYA</t>
         </is>
       </c>
       <c r="D383">
         <v>1</v>
       </c>
       <c r="E383">
-        <v>102.56</v>
+        <v>216.45</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -10334,14 +10334,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>HUANCAYA</t>
+          <t>YAUYOS</t>
         </is>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E384">
-        <v>216.45</v>
+        <v>172.71</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -10350,24 +10350,24 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>YAUYOS</t>
+          <t>ALTO AMAZONAS</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>YAUYOS</t>
+          <t>BALSAPUERTO</t>
         </is>
       </c>
       <c r="D385">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E385">
-        <v>172.71</v>
+        <v>138.59</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -10386,14 +10386,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>BALSAPUERTO</t>
+          <t>JEBEROS</t>
         </is>
       </c>
       <c r="D386">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E386">
-        <v>138.59</v>
+        <v>786.01</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10412,14 +10412,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>JEBEROS</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D387">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="E387">
-        <v>786.01</v>
+        <v>1905.88</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10438,14 +10438,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D388">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="E388">
-        <v>1912.81</v>
+        <v>132.04</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -10464,14 +10464,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>TENIENTE CESAR LOPEZ ROJAS</t>
         </is>
       </c>
       <c r="D389">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E389">
-        <v>132.04</v>
+        <v>425.73</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -10490,14 +10490,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>TENIENTE CESAR LOPEZ ROJAS</t>
+          <t>YURIMAGUAS</t>
         </is>
       </c>
       <c r="D390">
-        <v>28</v>
+        <v>1878</v>
       </c>
       <c r="E390">
-        <v>425.73</v>
+        <v>1678.79</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10511,19 +10511,19 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ALTO AMAZONAS</t>
+          <t>DATEM DEL MARAÑON</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>YURIMAGUAS</t>
+          <t>ANDOAS</t>
         </is>
       </c>
       <c r="D391">
-        <v>1872</v>
+        <v>3</v>
       </c>
       <c r="E391">
-        <v>1673.43</v>
+        <v>18.16</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -10542,14 +10542,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>ANDOAS</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D392">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="E392">
-        <v>18.16</v>
+        <v>2881.24</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -10568,14 +10568,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>CAHUAPANAS</t>
         </is>
       </c>
       <c r="D393">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="E393">
-        <v>2863.67</v>
+        <v>11.67</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10594,14 +10594,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>CAHUAPANAS</t>
+          <t>MANSERICHE</t>
         </is>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E394">
-        <v>11.67</v>
+        <v>459.57</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -10620,14 +10620,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>MANSERICHE</t>
+          <t>MORONA</t>
         </is>
       </c>
       <c r="D395">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="E395">
-        <v>459.57</v>
+        <v>2313.37</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -10646,14 +10646,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>MORONA</t>
+          <t>PASTAZA</t>
         </is>
       </c>
       <c r="D396">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E396">
-        <v>2313.37</v>
+        <v>210.68</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -10667,19 +10667,19 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>DATEM DEL MARAÑON</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>PASTAZA</t>
+          <t>NAUTA</t>
         </is>
       </c>
       <c r="D397">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E397">
-        <v>210.68</v>
+        <v>328.46</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -10698,14 +10698,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>NAUTA</t>
+          <t>PARINARI</t>
         </is>
       </c>
       <c r="D398">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="E398">
-        <v>328.46</v>
+        <v>770.71</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -10724,14 +10724,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>PARINARI</t>
+          <t>TIGRE</t>
         </is>
       </c>
       <c r="D399">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E399">
-        <v>770.71</v>
+        <v>265.89</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -10750,14 +10750,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>TIGRE</t>
+          <t>TROMPETEROS</t>
         </is>
       </c>
       <c r="D400">
         <v>21</v>
       </c>
       <c r="E400">
-        <v>265.89</v>
+        <v>185.73</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -10776,14 +10776,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>TROMPETEROS</t>
+          <t>URARINAS</t>
         </is>
       </c>
       <c r="D401">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E401">
-        <v>185.73</v>
+        <v>42.26</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -10797,19 +10797,19 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>MARISCAL RAMON CASTILLA</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>URARINAS</t>
+          <t>PEBAS</t>
         </is>
       </c>
       <c r="D402">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E402">
-        <v>42.26</v>
+        <v>280.83</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -10828,14 +10828,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>PEBAS</t>
+          <t>RAMON CASTILLA</t>
         </is>
       </c>
       <c r="D403">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="E403">
-        <v>280.83</v>
+        <v>1539.45</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -10854,14 +10854,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>RAMON CASTILLA</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D404">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="E404">
-        <v>1539.45</v>
+        <v>113.83</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -10880,14 +10880,14 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>YAVARI</t>
         </is>
       </c>
       <c r="D405">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E405">
-        <v>113.83</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -10901,19 +10901,19 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>MARISCAL RAMON CASTILLA</t>
+          <t>MAYNAS</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>YAVARI</t>
+          <t>ALTO NANAY</t>
         </is>
       </c>
       <c r="D406">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E406">
-        <v>77.15000000000001</v>
+        <v>114.81</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -10932,14 +10932,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>ALTO NANAY</t>
+          <t>BELEN</t>
         </is>
       </c>
       <c r="D407">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="E407">
-        <v>114.81</v>
+        <v>408.46</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -10958,14 +10958,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>BELEN</t>
+          <t>FERNANDO LORES</t>
         </is>
       </c>
       <c r="D408">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="E408">
-        <v>405.69</v>
+        <v>257.71</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -10984,14 +10984,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>FERNANDO LORES</t>
+          <t>INDIANA</t>
         </is>
       </c>
       <c r="D409">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E409">
-        <v>257.71</v>
+        <v>293.55</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -11010,14 +11010,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>INDIANA</t>
+          <t>IQUITOS</t>
         </is>
       </c>
       <c r="D410">
-        <v>35</v>
+        <v>1174</v>
       </c>
       <c r="E410">
-        <v>293.55</v>
+        <v>710.1799999999999</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -11036,14 +11036,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>IQUITOS</t>
+          <t>LAS AMAZONAS</t>
         </is>
       </c>
       <c r="D411">
-        <v>1160</v>
+        <v>8</v>
       </c>
       <c r="E411">
-        <v>701.71</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -11062,14 +11062,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>LAS AMAZONAS</t>
+          <t>MAZAN</t>
         </is>
       </c>
       <c r="D412">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E412">
-        <v>93.43000000000001</v>
+        <v>233.95</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -11088,14 +11088,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>MAZAN</t>
+          <t>NAPO</t>
         </is>
       </c>
       <c r="D413">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E413">
-        <v>233.95</v>
+        <v>49.48</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -11114,14 +11114,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>NAPO</t>
+          <t>PUNCHANA</t>
         </is>
       </c>
       <c r="D414">
-        <v>9</v>
+        <v>1260</v>
       </c>
       <c r="E414">
-        <v>49.48</v>
+        <v>1375.47</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -11140,14 +11140,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>PUNCHANA</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D415">
-        <v>1212</v>
+        <v>595</v>
       </c>
       <c r="E415">
-        <v>1323.07</v>
+        <v>374.93</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -11166,14 +11166,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>TORRES CAUSANA</t>
         </is>
       </c>
       <c r="D416">
-        <v>578</v>
+        <v>3</v>
       </c>
       <c r="E416">
-        <v>364.22</v>
+        <v>56.52</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -11187,19 +11187,19 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MAYNAS</t>
+          <t>PUTUMAYO</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>TORRES CAUSANA</t>
+          <t>PUTUMAYO</t>
         </is>
       </c>
       <c r="D417">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="E417">
-        <v>56.52</v>
+        <v>3572.23</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11218,14 +11218,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>PUTUMAYO</t>
+          <t>ROSA PANDURO</t>
         </is>
       </c>
       <c r="D418">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E418">
-        <v>3572.23</v>
+        <v>505.05</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -11244,14 +11244,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>ROSA PANDURO</t>
+          <t>TENIENTE MANUEL CLAVERO</t>
         </is>
       </c>
       <c r="D419">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E419">
-        <v>505.05</v>
+        <v>4637.68</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -11265,19 +11265,19 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>PUTUMAYO</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>TENIENTE MANUEL CLAVERO</t>
+          <t>ALTO TAPICHE</t>
         </is>
       </c>
       <c r="D420">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="E420">
-        <v>4637.68</v>
+        <v>178.04</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -11296,14 +11296,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>ALTO TAPICHE</t>
+          <t>EMILIO SAN MARTIN</t>
         </is>
       </c>
       <c r="D421">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E421">
-        <v>178.04</v>
+        <v>725.6900000000001</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -11322,14 +11322,14 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>EMILIO SAN MARTIN</t>
+          <t>JENARO HERRERA</t>
         </is>
       </c>
       <c r="D422">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="E422">
-        <v>725.6900000000001</v>
+        <v>2888.02</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11348,14 +11348,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>JENARO HERRERA</t>
+          <t>MAQUIA</t>
         </is>
       </c>
       <c r="D423">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E423">
-        <v>2888.02</v>
+        <v>216.52</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -11374,14 +11374,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>MAQUIA</t>
+          <t>PUINAHUA</t>
         </is>
       </c>
       <c r="D424">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E424">
-        <v>216.52</v>
+        <v>43.73</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -11400,14 +11400,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>PUINAHUA</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="D425">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="E425">
-        <v>43.73</v>
+        <v>599.41</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -11426,14 +11426,14 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>REQUENA</t>
+          <t>YAQUERANA</t>
         </is>
       </c>
       <c r="D426">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="E426">
-        <v>599.41</v>
+        <v>44.76</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -11447,19 +11447,19 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>REQUENA</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>YAQUERANA</t>
+          <t>CONTAMANA</t>
         </is>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="E427">
-        <v>44.76</v>
+        <v>1386.21</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -11478,14 +11478,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>CONTAMANA</t>
+          <t>INAHUAYA</t>
         </is>
       </c>
       <c r="D428">
-        <v>396</v>
+        <v>33</v>
       </c>
       <c r="E428">
-        <v>1365.52</v>
+        <v>1894.37</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -11504,14 +11504,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>INAHUAYA</t>
+          <t>PADRE MARQUEZ</t>
         </is>
       </c>
       <c r="D429">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E429">
-        <v>1894.37</v>
+        <v>323.43</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -11530,14 +11530,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>PADRE MARQUEZ</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D430">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E430">
-        <v>323.43</v>
+        <v>130.91</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -11556,14 +11556,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>SARAYACU</t>
         </is>
       </c>
       <c r="D431">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="E431">
-        <v>130.91</v>
+        <v>1830.59</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -11582,43 +11582,43 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>SARAYACU</t>
+          <t>VARGAS GUERRA</t>
         </is>
       </c>
       <c r="D432">
-        <v>279</v>
+        <v>26</v>
       </c>
       <c r="E432">
-        <v>1830.59</v>
+        <v>334.62</v>
       </c>
       <c r="F432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>MANU</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>VARGAS GUERRA</t>
+          <t>HUEPETUHE</t>
         </is>
       </c>
       <c r="D433">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E433">
-        <v>321.75</v>
+        <v>535.55</v>
       </c>
       <c r="F433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -11634,14 +11634,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>HUEPETUHE</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="D434">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E434">
-        <v>544.78</v>
+        <v>507.93</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -11655,19 +11655,19 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MANU</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>IBERIA</t>
         </is>
       </c>
       <c r="D435">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="E435">
-        <v>492.54</v>
+        <v>2710.59</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -11686,14 +11686,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>IBERIA</t>
+          <t>IÑAPARI</t>
         </is>
       </c>
       <c r="D436">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="E436">
-        <v>2727.74</v>
+        <v>712.8</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -11712,14 +11712,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>IÑAPARI</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="D437">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E437">
-        <v>712.8</v>
+        <v>596.6900000000001</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -11733,19 +11733,19 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>INAMBARI</t>
         </is>
       </c>
       <c r="D438">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="E438">
-        <v>596.6900000000001</v>
+        <v>1001.5</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -11764,14 +11764,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>INAMBARI</t>
+          <t>LABERINTO</t>
         </is>
       </c>
       <c r="D439">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E439">
-        <v>995.74</v>
+        <v>955.0599999999999</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -11790,14 +11790,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>LABERINTO</t>
+          <t>LAS PIEDRAS</t>
         </is>
       </c>
       <c r="D440">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="E440">
-        <v>955.0599999999999</v>
+        <v>1003.68</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -11816,43 +11816,43 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>LAS PIEDRAS</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="D441">
-        <v>221</v>
+        <v>1125</v>
       </c>
       <c r="E441">
-        <v>1017.5</v>
+        <v>1013</v>
       </c>
       <c r="F441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>CONSTITUCION</t>
         </is>
       </c>
       <c r="D442">
-        <v>1128</v>
+        <v>125</v>
       </c>
       <c r="E442">
-        <v>1015.7</v>
+        <v>670.42</v>
       </c>
       <c r="F442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -11868,14 +11868,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>CONSTITUCION</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="D443">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E443">
-        <v>665.0599999999999</v>
+        <v>21.97</v>
       </c>
       <c r="F443">
         <v>0</v>
@@ -11894,14 +11894,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>PALCAZU</t>
         </is>
       </c>
       <c r="D444">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E444">
-        <v>21.97</v>
+        <v>213.24</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -11920,14 +11920,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>PALCAZU</t>
+          <t>POZUZO</t>
         </is>
       </c>
       <c r="D445">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E445">
-        <v>213.24</v>
+        <v>1358.27</v>
       </c>
       <c r="F445">
         <v>0</v>
@@ -11946,14 +11946,14 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>POZUZO</t>
+          <t>PUERTO BERMUDEZ</t>
         </is>
       </c>
       <c r="D446">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E446">
-        <v>1358.27</v>
+        <v>115.37</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -11972,14 +11972,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>PUERTO BERMUDEZ</t>
+          <t>VILLA RICA</t>
         </is>
       </c>
       <c r="D447">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E447">
-        <v>115.37</v>
+        <v>78.62</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -11993,19 +11993,19 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>VILLA RICA</t>
+          <t>CHAUPIMARCA</t>
         </is>
       </c>
       <c r="D448">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E448">
-        <v>78.62</v>
+        <v>3.81</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -12024,14 +12024,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>CHAUPIMARCA</t>
+          <t>PAUCARTAMBO</t>
         </is>
       </c>
       <c r="D449">
         <v>1</v>
       </c>
       <c r="E449">
-        <v>3.81</v>
+        <v>11.6</v>
       </c>
       <c r="F449">
         <v>0</v>
@@ -12050,14 +12050,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>PAUCARTAMBO</t>
+          <t>TINYAHUARCO</t>
         </is>
       </c>
       <c r="D450">
         <v>1</v>
       </c>
       <c r="E450">
-        <v>11.6</v>
+        <v>13.82</v>
       </c>
       <c r="F450">
         <v>0</v>
@@ -12076,14 +12076,14 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>TINYAHUARCO</t>
+          <t>YANACANCHA</t>
         </is>
       </c>
       <c r="D451">
         <v>1</v>
       </c>
       <c r="E451">
-        <v>13.82</v>
+        <v>3.29</v>
       </c>
       <c r="F451">
         <v>0</v>
@@ -12092,24 +12092,24 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>YANACANCHA</t>
+          <t>FRIAS</t>
         </is>
       </c>
       <c r="D452">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E452">
-        <v>3.29</v>
+        <v>28.42</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -12128,14 +12128,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>FRIAS</t>
+          <t>JILILI</t>
         </is>
       </c>
       <c r="D453">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E453">
-        <v>28.42</v>
+        <v>38.14</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -12154,14 +12154,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>JILILI</t>
+          <t>PACAIPAMPA</t>
         </is>
       </c>
       <c r="D454">
         <v>1</v>
       </c>
       <c r="E454">
-        <v>38.14</v>
+        <v>4.32</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12180,14 +12180,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>PACAIPAMPA</t>
+          <t>PAIMAS</t>
         </is>
       </c>
       <c r="D455">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E455">
-        <v>4.32</v>
+        <v>124.68</v>
       </c>
       <c r="F455">
         <v>0</v>
@@ -12206,14 +12206,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>PAIMAS</t>
+          <t>SUYO</t>
         </is>
       </c>
       <c r="D456">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E456">
-        <v>124.68</v>
+        <v>2380.55</v>
       </c>
       <c r="F456">
         <v>0</v>
@@ -12227,19 +12227,19 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>AYABACA</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>SUYO</t>
+          <t>CANCHAQUE</t>
         </is>
       </c>
       <c r="D457">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="E457">
-        <v>2255.26</v>
+        <v>215.11</v>
       </c>
       <c r="F457">
         <v>0</v>
@@ -12258,14 +12258,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>CANCHAQUE</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="D458">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E458">
-        <v>215.11</v>
+        <v>51.28</v>
       </c>
       <c r="F458">
         <v>0</v>
@@ -12284,14 +12284,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>HUARMACA</t>
         </is>
       </c>
       <c r="D459">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E459">
-        <v>51.28</v>
+        <v>37.39</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -12310,14 +12310,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>HUARMACA</t>
+          <t>SAN MIGUEL DE EL FAIQUE</t>
         </is>
       </c>
       <c r="D460">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E460">
-        <v>37.39</v>
+        <v>582.0700000000001</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE EL FAIQUE</t>
+          <t>SONDOR</t>
         </is>
       </c>
       <c r="D461">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E461">
-        <v>582.0700000000001</v>
+        <v>27.39</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -12357,19 +12357,19 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>SONDOR</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D462">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E462">
-        <v>27.39</v>
+        <v>691.8099999999999</v>
       </c>
       <c r="F462">
         <v>0</v>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>CHALACO</t>
         </is>
       </c>
       <c r="D463">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="E463">
-        <v>701.29</v>
+        <v>39.52</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -12414,17 +12414,17 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>CHALACO</t>
+          <t>CHULUCANAS</t>
         </is>
       </c>
       <c r="D464">
-        <v>1</v>
+        <v>4563</v>
       </c>
       <c r="E464">
-        <v>13.17</v>
+        <v>4973.08</v>
       </c>
       <c r="F464">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465">
@@ -12440,17 +12440,17 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>CHULUCANAS</t>
+          <t>LA MATANZA</t>
         </is>
       </c>
       <c r="D465">
-        <v>4534</v>
+        <v>404</v>
       </c>
       <c r="E465">
-        <v>4941.47</v>
+        <v>2590.41</v>
       </c>
       <c r="F465">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -12466,14 +12466,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>LA MATANZA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="D466">
-        <v>402</v>
+        <v>649</v>
       </c>
       <c r="E466">
-        <v>2577.58</v>
+        <v>3964.57</v>
       </c>
       <c r="F466">
         <v>1</v>
@@ -12492,14 +12492,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D467">
-        <v>662</v>
+        <v>274</v>
       </c>
       <c r="E467">
-        <v>4043.98</v>
+        <v>2944.02</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12518,14 +12518,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>SAN JUAN DE BIGOTE</t>
         </is>
       </c>
       <c r="D468">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="E468">
-        <v>2944.02</v>
+        <v>2552.38</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -12544,14 +12544,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>SAN JUAN DE BIGOTE</t>
+          <t>SANTA CATALINA DE MOSSA</t>
         </is>
       </c>
       <c r="D469">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="E469">
-        <v>2714.67</v>
+        <v>606.38</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12570,14 +12570,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>SANTA CATALINA DE MOSSA</t>
+          <t>SANTO DOMINGO</t>
         </is>
       </c>
       <c r="D470">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E470">
-        <v>606.38</v>
+        <v>120.09</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -12596,14 +12596,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>YAMANGO</t>
         </is>
       </c>
       <c r="D471">
         <v>7</v>
       </c>
       <c r="E471">
-        <v>120.09</v>
+        <v>80.27</v>
       </c>
       <c r="F471">
         <v>0</v>
@@ -12617,22 +12617,22 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>YAMANGO</t>
+          <t>AMOTAPE</t>
         </is>
       </c>
       <c r="D472">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E472">
-        <v>80.27</v>
+        <v>3819.71</v>
       </c>
       <c r="F472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -12648,17 +12648,17 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>AMOTAPE</t>
+          <t>ARENAL</t>
         </is>
       </c>
       <c r="D473">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E473">
-        <v>3132.16</v>
+        <v>691.78</v>
       </c>
       <c r="F473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -12674,14 +12674,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>ARENAL</t>
+          <t>COLAN</t>
         </is>
       </c>
       <c r="D474">
-        <v>9</v>
+        <v>424</v>
       </c>
       <c r="E474">
-        <v>691.78</v>
+        <v>2398.6</v>
       </c>
       <c r="F474">
         <v>0</v>
@@ -12700,17 +12700,17 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>COLAN</t>
+          <t>LA HUACA</t>
         </is>
       </c>
       <c r="D475">
-        <v>410</v>
+        <v>1425</v>
       </c>
       <c r="E475">
-        <v>2319.4</v>
+        <v>9618.629999999999</v>
       </c>
       <c r="F475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -12726,17 +12726,17 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>LA HUACA</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="D476">
-        <v>1410</v>
+        <v>1446</v>
       </c>
       <c r="E476">
-        <v>9517.379999999999</v>
+        <v>1332.84</v>
       </c>
       <c r="F476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -12752,17 +12752,17 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>TAMARINDO</t>
         </is>
       </c>
       <c r="D477">
-        <v>1420</v>
+        <v>74</v>
       </c>
       <c r="E477">
-        <v>1308.88</v>
+        <v>1321.19</v>
       </c>
       <c r="F477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -12778,14 +12778,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>TAMARINDO</t>
+          <t>VICHAYAL</t>
         </is>
       </c>
       <c r="D478">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E478">
-        <v>1321.19</v>
+        <v>759.9299999999999</v>
       </c>
       <c r="F478">
         <v>0</v>
@@ -12799,22 +12799,22 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>VICHAYAL</t>
+          <t>CASTILLA</t>
         </is>
       </c>
       <c r="D479">
-        <v>49</v>
+        <v>5506</v>
       </c>
       <c r="E479">
-        <v>759.9299999999999</v>
+        <v>2812.69</v>
       </c>
       <c r="F479">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480">
@@ -12830,17 +12830,17 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>CASTILLA</t>
+          <t>CATACAOS</t>
         </is>
       </c>
       <c r="D480">
-        <v>5444</v>
+        <v>1970</v>
       </c>
       <c r="E480">
-        <v>2781.01</v>
+        <v>2325.94</v>
       </c>
       <c r="F480">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -12856,17 +12856,17 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>CATACAOS</t>
+          <t>CURA MORI</t>
         </is>
       </c>
       <c r="D481">
-        <v>1915</v>
+        <v>535</v>
       </c>
       <c r="E481">
-        <v>2261</v>
+        <v>2552.36</v>
       </c>
       <c r="F481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -12882,14 +12882,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>CURA MORI</t>
+          <t>EL TALLAN</t>
         </is>
       </c>
       <c r="D482">
-        <v>535</v>
+        <v>262</v>
       </c>
       <c r="E482">
-        <v>2552.36</v>
+        <v>4500.17</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -12908,17 +12908,17 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>EL TALLAN</t>
+          <t>LA ARENA</t>
         </is>
       </c>
       <c r="D483">
-        <v>260</v>
+        <v>914</v>
       </c>
       <c r="E483">
-        <v>4465.82</v>
+        <v>2115.5</v>
       </c>
       <c r="F483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -12934,17 +12934,17 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>LA ARENA</t>
+          <t>LA UNION</t>
         </is>
       </c>
       <c r="D484">
-        <v>900</v>
+        <v>1489</v>
       </c>
       <c r="E484">
-        <v>2083.09</v>
+        <v>3203.87</v>
       </c>
       <c r="F484">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -12960,17 +12960,17 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>LA UNION</t>
+          <t>LAS LOMAS</t>
         </is>
       </c>
       <c r="D485">
-        <v>1400</v>
+        <v>155</v>
       </c>
       <c r="E485">
-        <v>3012.37</v>
+        <v>512.28</v>
       </c>
       <c r="F485">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -12986,17 +12986,17 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>LAS LOMAS</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D486">
-        <v>151</v>
+        <v>6348</v>
       </c>
       <c r="E486">
-        <v>499.06</v>
+        <v>3349.02</v>
       </c>
       <c r="F486">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="487">
@@ -13012,17 +13012,17 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>TAMBO GRANDE</t>
         </is>
       </c>
       <c r="D487">
-        <v>6265</v>
+        <v>1486</v>
       </c>
       <c r="E487">
-        <v>3305.23</v>
+        <v>1138.88</v>
       </c>
       <c r="F487">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -13038,17 +13038,17 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>TAMBO GRANDE</t>
+          <t>VEINTISEIS DE OCTUBRE</t>
         </is>
       </c>
       <c r="D488">
-        <v>1445</v>
+        <v>2734</v>
       </c>
       <c r="E488">
-        <v>1107.46</v>
+        <v>1388.49</v>
       </c>
       <c r="F488">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="489">
@@ -13059,22 +13059,22 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE</t>
+          <t>BELLAVISTA DE LA UNION</t>
         </is>
       </c>
       <c r="D489">
-        <v>2740</v>
+        <v>178</v>
       </c>
       <c r="E489">
-        <v>1391.54</v>
+        <v>3214.16</v>
       </c>
       <c r="F489">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -13090,14 +13090,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>BELLAVISTA DE LA UNION</t>
+          <t>BERNAL</t>
         </is>
       </c>
       <c r="D490">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="E490">
-        <v>3178.04</v>
+        <v>588.96</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -13116,14 +13116,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>BERNAL</t>
+          <t>CRISTO NOS VALGA</t>
         </is>
       </c>
       <c r="D491">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E491">
-        <v>576.6900000000001</v>
+        <v>678.48</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -13142,14 +13142,14 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>CRISTO NOS VALGA</t>
+          <t>RINCONADA-LLICUAR</t>
         </is>
       </c>
       <c r="D492">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E492">
-        <v>659.63</v>
+        <v>824.4299999999999</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -13168,14 +13168,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>RINCONADA-LLICUAR</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="D493">
-        <v>27</v>
+        <v>456</v>
       </c>
       <c r="E493">
-        <v>824.4299999999999</v>
+        <v>828.17</v>
       </c>
       <c r="F493">
         <v>0</v>
@@ -13194,14 +13194,14 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>VICE</t>
         </is>
       </c>
       <c r="D494">
-        <v>452</v>
+        <v>128</v>
       </c>
       <c r="E494">
-        <v>820.91</v>
+        <v>670.23</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -13215,22 +13215,22 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>VICE</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D495">
-        <v>116</v>
+        <v>724</v>
       </c>
       <c r="E495">
-        <v>607.39</v>
+        <v>1803.42</v>
       </c>
       <c r="F495">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496">
@@ -13246,17 +13246,17 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>IGNACIO ESCUDERO</t>
         </is>
       </c>
       <c r="D496">
-        <v>708</v>
+        <v>670</v>
       </c>
       <c r="E496">
-        <v>1763.56</v>
+        <v>2976.72</v>
       </c>
       <c r="F496">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -13272,17 +13272,17 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>IGNACIO ESCUDERO</t>
+          <t>LANCONES</t>
         </is>
       </c>
       <c r="D497">
-        <v>669</v>
+        <v>28</v>
       </c>
       <c r="E497">
-        <v>2972.28</v>
+        <v>205.52</v>
       </c>
       <c r="F497">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -13298,14 +13298,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>LANCONES</t>
+          <t>MARCAVELICA</t>
         </is>
       </c>
       <c r="D498">
-        <v>28</v>
+        <v>911</v>
       </c>
       <c r="E498">
-        <v>205.52</v>
+        <v>2721.52</v>
       </c>
       <c r="F498">
         <v>0</v>
@@ -13324,14 +13324,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>MARCAVELICA</t>
+          <t>MIGUEL CHECA</t>
         </is>
       </c>
       <c r="D499">
-        <v>903</v>
+        <v>300</v>
       </c>
       <c r="E499">
-        <v>2697.62</v>
+        <v>2818.22</v>
       </c>
       <c r="F499">
         <v>0</v>
@@ -13350,17 +13350,17 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>MIGUEL CHECA</t>
+          <t>QUERECOTILLO</t>
         </is>
       </c>
       <c r="D500">
-        <v>287</v>
+        <v>675</v>
       </c>
       <c r="E500">
-        <v>2696.1</v>
+        <v>2329.43</v>
       </c>
       <c r="F500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -13376,17 +13376,17 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>QUERECOTILLO</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D501">
-        <v>634</v>
+        <v>146</v>
       </c>
       <c r="E501">
-        <v>2187.94</v>
+        <v>1829.34</v>
       </c>
       <c r="F501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -13402,17 +13402,17 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="D502">
-        <v>126</v>
+        <v>3589</v>
       </c>
       <c r="E502">
-        <v>1578.75</v>
+        <v>1832.89</v>
       </c>
       <c r="F502">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="503">
@@ -13423,22 +13423,22 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>TALARA</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>EL ALTO</t>
         </is>
       </c>
       <c r="D503">
-        <v>3533</v>
+        <v>55</v>
       </c>
       <c r="E503">
-        <v>1804.29</v>
+        <v>588.99</v>
       </c>
       <c r="F503">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -13454,17 +13454,17 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>EL ALTO</t>
+          <t>LA BREA</t>
         </is>
       </c>
       <c r="D504">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E504">
-        <v>578.28</v>
+        <v>66.56</v>
       </c>
       <c r="F504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -13480,17 +13480,17 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>LA BREA</t>
+          <t>LOBITOS</t>
         </is>
       </c>
       <c r="D505">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E505">
-        <v>73.95999999999999</v>
+        <v>356.89</v>
       </c>
       <c r="F505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -13506,14 +13506,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>LOBITOS</t>
+          <t>LOS ORGANOS</t>
         </is>
       </c>
       <c r="D506">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E506">
-        <v>356.89</v>
+        <v>590.6799999999999</v>
       </c>
       <c r="F506">
         <v>0</v>
@@ -13532,14 +13532,14 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>LOS ORGANOS</t>
+          <t>MANCORA</t>
         </is>
       </c>
       <c r="D507">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E507">
-        <v>557.4</v>
+        <v>472.12</v>
       </c>
       <c r="F507">
         <v>0</v>
@@ -13558,43 +13558,43 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>MANCORA</t>
+          <t>PARIÑÃ‰AS</t>
         </is>
       </c>
       <c r="D508">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="E508">
-        <v>458.43</v>
+        <v>259.89</v>
       </c>
       <c r="F508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>TALARA</t>
+          <t>CARABAYA</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>PARIÑÃ‰AS</t>
+          <t>AYAPATA</t>
         </is>
       </c>
       <c r="D509">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="E509">
-        <v>257.12</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="F509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -13610,14 +13610,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>AYAPATA</t>
+          <t>SAN GABAN</t>
         </is>
       </c>
       <c r="D510">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="E510">
-        <v>96.26000000000001</v>
+        <v>2037.8</v>
       </c>
       <c r="F510">
         <v>0</v>
@@ -13626,24 +13626,24 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>CARABAYA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>SAN GABAN</t>
+          <t>ALTO BIAVO</t>
         </is>
       </c>
       <c r="D511">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="E511">
-        <v>2037.8</v>
+        <v>95.59</v>
       </c>
       <c r="F511">
         <v>0</v>
@@ -13662,14 +13662,14 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>ALTO BIAVO</t>
+          <t>BAJO BIAVO</t>
         </is>
       </c>
       <c r="D512">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E512">
-        <v>95.59</v>
+        <v>190.67</v>
       </c>
       <c r="F512">
         <v>0</v>
@@ -13688,17 +13688,17 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>BAJO BIAVO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D513">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="E513">
-        <v>190.67</v>
+        <v>1065.36</v>
       </c>
       <c r="F513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -13714,17 +13714,17 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="D514">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="E514">
-        <v>1039.75</v>
+        <v>361.27</v>
       </c>
       <c r="F514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -13740,14 +13740,14 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D515">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E515">
-        <v>361.27</v>
+        <v>362.61</v>
       </c>
       <c r="F515">
         <v>0</v>
@@ -13766,14 +13766,14 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="D516">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E516">
-        <v>362.61</v>
+        <v>296.04</v>
       </c>
       <c r="F516">
         <v>0</v>
@@ -13787,19 +13787,19 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>EL DORADO</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>AGUA BLANCA</t>
         </is>
       </c>
       <c r="D517">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E517">
-        <v>296.04</v>
+        <v>41.89</v>
       </c>
       <c r="F517">
         <v>0</v>
@@ -13818,17 +13818,17 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>AGUA BLANCA</t>
+          <t>SAN JOSE DE SISA</t>
         </is>
       </c>
       <c r="D518">
+        <v>24</v>
+      </c>
+      <c r="E518">
+        <v>134.03</v>
+      </c>
+      <c r="F518">
         <v>1</v>
-      </c>
-      <c r="E518">
-        <v>41.89</v>
-      </c>
-      <c r="F518">
-        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -13844,17 +13844,17 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>SAN JOSE DE SISA</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="D519">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E519">
-        <v>128.45</v>
+        <v>50.42</v>
       </c>
       <c r="F519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -13870,14 +13870,14 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D520">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E520">
-        <v>50.42</v>
+        <v>26.07</v>
       </c>
       <c r="F520">
         <v>0</v>
@@ -13896,14 +13896,14 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SHATOJA</t>
         </is>
       </c>
       <c r="D521">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E521">
-        <v>39.1</v>
+        <v>29.64</v>
       </c>
       <c r="F521">
         <v>0</v>
@@ -13917,19 +13917,19 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>EL DORADO</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>SHATOJA</t>
+          <t>ALTO SAPOSOA</t>
         </is>
       </c>
       <c r="D522">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E522">
-        <v>29.64</v>
+        <v>68.81</v>
       </c>
       <c r="F522">
         <v>0</v>
@@ -13948,14 +13948,14 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>ALTO SAPOSOA</t>
+          <t>EL ESLABON</t>
         </is>
       </c>
       <c r="D523">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E523">
-        <v>68.81</v>
+        <v>460.36</v>
       </c>
       <c r="F523">
         <v>0</v>
@@ -13974,14 +13974,14 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>EL ESLABON</t>
+          <t>PISCOYACU</t>
         </is>
       </c>
       <c r="D524">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E524">
-        <v>460.36</v>
+        <v>82.58</v>
       </c>
       <c r="F524">
         <v>0</v>
@@ -14000,14 +14000,14 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>PISCOYACU</t>
+          <t>SACANCHE</t>
         </is>
       </c>
       <c r="D525">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E525">
-        <v>82.58</v>
+        <v>678.83</v>
       </c>
       <c r="F525">
         <v>0</v>
@@ -14026,14 +14026,14 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>SACANCHE</t>
+          <t>SAPOSOA</t>
         </is>
       </c>
       <c r="D526">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E526">
-        <v>678.83</v>
+        <v>269.92</v>
       </c>
       <c r="F526">
         <v>0</v>
@@ -14052,14 +14052,14 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>SAPOSOA</t>
+          <t>TINGO DE SAPOSOA</t>
         </is>
       </c>
       <c r="D527">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E527">
-        <v>269.92</v>
+        <v>469.48</v>
       </c>
       <c r="F527">
         <v>0</v>
@@ -14073,19 +14073,19 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>TINGO DE SAPOSOA</t>
+          <t>ALONSO DE ALVARADO</t>
         </is>
       </c>
       <c r="D528">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E528">
-        <v>469.48</v>
+        <v>6.89</v>
       </c>
       <c r="F528">
         <v>0</v>
@@ -14104,14 +14104,14 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>ALONSO DE ALVARADO</t>
+          <t>BARRANQUITA</t>
         </is>
       </c>
       <c r="D529">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E529">
-        <v>6.89</v>
+        <v>788.2</v>
       </c>
       <c r="F529">
         <v>0</v>
@@ -14130,17 +14130,17 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>BARRANQUITA</t>
+          <t>CAYNARACHI</t>
         </is>
       </c>
       <c r="D530">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="E530">
-        <v>788.2</v>
+        <v>1460.67</v>
       </c>
       <c r="F530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -14156,17 +14156,17 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>CAYNARACHI</t>
+          <t>CUÑUMBUQUI</t>
         </is>
       </c>
       <c r="D531">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="E531">
-        <v>1460.67</v>
+        <v>460.07</v>
       </c>
       <c r="F531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -14182,14 +14182,14 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>CUÑUMBUQUI</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="D532">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="E532">
-        <v>460.07</v>
+        <v>1073.11</v>
       </c>
       <c r="F532">
         <v>0</v>
@@ -14208,14 +14208,14 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>PINTO RECODO</t>
         </is>
       </c>
       <c r="D533">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="E533">
-        <v>1098.21</v>
+        <v>185.29</v>
       </c>
       <c r="F533">
         <v>0</v>
@@ -14234,14 +14234,14 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>PINTO RECODO</t>
+          <t>RUMISAPA</t>
         </is>
       </c>
       <c r="D534">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E534">
-        <v>185.29</v>
+        <v>647.25</v>
       </c>
       <c r="F534">
         <v>0</v>
@@ -14260,14 +14260,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>RUMISAPA</t>
+          <t>SAN ROQUE DE CUMBAZA</t>
         </is>
       </c>
       <c r="D535">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E535">
-        <v>647.25</v>
+        <v>339.56</v>
       </c>
       <c r="F535">
         <v>0</v>
@@ -14286,14 +14286,14 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>SAN ROQUE DE CUMBAZA</t>
+          <t>SHANAO</t>
         </is>
       </c>
       <c r="D536">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E536">
-        <v>339.56</v>
+        <v>1230.6</v>
       </c>
       <c r="F536">
         <v>0</v>
@@ -14312,14 +14312,14 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>SHANAO</t>
+          <t>TABALOSOS</t>
         </is>
       </c>
       <c r="D537">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E537">
-        <v>1230.6</v>
+        <v>293.12</v>
       </c>
       <c r="F537">
         <v>0</v>
@@ -14338,14 +14338,14 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>TABALOSOS</t>
+          <t>ZAPATERO</t>
         </is>
       </c>
       <c r="D538">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E538">
-        <v>293.12</v>
+        <v>524.9299999999999</v>
       </c>
       <c r="F538">
         <v>0</v>
@@ -14359,19 +14359,19 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>MARISCAL CACERES</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>ZAPATERO</t>
+          <t>CAMPANILLA</t>
         </is>
       </c>
       <c r="D539">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E539">
-        <v>524.9299999999999</v>
+        <v>231.37</v>
       </c>
       <c r="F539">
         <v>0</v>
@@ -14390,14 +14390,14 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>CAMPANILLA</t>
+          <t>HUICUNGO</t>
         </is>
       </c>
       <c r="D540">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E540">
-        <v>231.37</v>
+        <v>176.68</v>
       </c>
       <c r="F540">
         <v>0</v>
@@ -14416,17 +14416,17 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>HUICUNGO</t>
+          <t>JUANJUI</t>
         </is>
       </c>
       <c r="D541">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="E541">
-        <v>176.68</v>
+        <v>1006.88</v>
       </c>
       <c r="F541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -14442,17 +14442,17 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>JUANJUI</t>
+          <t>PACHIZA</t>
         </is>
       </c>
       <c r="D542">
-        <v>363</v>
+        <v>16</v>
       </c>
       <c r="E542">
-        <v>1006.88</v>
+        <v>218.49</v>
       </c>
       <c r="F542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -14468,14 +14468,14 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>PACHIZA</t>
+          <t>PAJARILLO</t>
         </is>
       </c>
       <c r="D543">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E543">
-        <v>218.49</v>
+        <v>228.01</v>
       </c>
       <c r="F543">
         <v>0</v>
@@ -14489,19 +14489,19 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>MARISCAL CACERES</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>PAJARILLO</t>
+          <t>CALZADA</t>
         </is>
       </c>
       <c r="D544">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E544">
-        <v>228.01</v>
+        <v>342.47</v>
       </c>
       <c r="F544">
         <v>0</v>
@@ -14520,14 +14520,14 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>CALZADA</t>
+          <t>HABANA</t>
         </is>
       </c>
       <c r="D545">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E545">
-        <v>342.47</v>
+        <v>408.4</v>
       </c>
       <c r="F545">
         <v>0</v>
@@ -14546,14 +14546,14 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>HABANA</t>
+          <t>JEPELACIO</t>
         </is>
       </c>
       <c r="D546">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E546">
-        <v>408.4</v>
+        <v>94.37</v>
       </c>
       <c r="F546">
         <v>0</v>
@@ -14572,17 +14572,17 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>JEPELACIO</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="D547">
-        <v>15</v>
+        <v>563</v>
       </c>
       <c r="E547">
-        <v>94.37</v>
+        <v>634.38</v>
       </c>
       <c r="F547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -14598,17 +14598,17 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>SORITOR</t>
         </is>
       </c>
       <c r="D548">
-        <v>557</v>
+        <v>48</v>
       </c>
       <c r="E548">
-        <v>627.62</v>
+        <v>205.93</v>
       </c>
       <c r="F548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -14624,14 +14624,14 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>SORITOR</t>
+          <t>YANTALO</t>
         </is>
       </c>
       <c r="D549">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E549">
-        <v>197.35</v>
+        <v>132.63</v>
       </c>
       <c r="F549">
         <v>0</v>
@@ -14645,19 +14645,19 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>YANTALO</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D550">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E550">
-        <v>132.63</v>
+        <v>32.16</v>
       </c>
       <c r="F550">
         <v>0</v>
@@ -14676,14 +14676,14 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E551">
-        <v>32.16</v>
+        <v>133.31</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -14702,14 +14702,14 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>PILLUANA</t>
         </is>
       </c>
       <c r="D552">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E552">
-        <v>133.31</v>
+        <v>111.73</v>
       </c>
       <c r="F552">
         <v>0</v>
@@ -14728,14 +14728,14 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>PILLUANA</t>
+          <t>PUCACACA</t>
         </is>
       </c>
       <c r="D553">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E553">
-        <v>111.73</v>
+        <v>162.02</v>
       </c>
       <c r="F553">
         <v>0</v>
@@ -14754,14 +14754,14 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>PUCACACA</t>
+          <t>SAN HILARION</t>
         </is>
       </c>
       <c r="D554">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E554">
-        <v>162.02</v>
+        <v>105.85</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -14780,14 +14780,14 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>SAN HILARION</t>
+          <t>SHAMBOYACU</t>
         </is>
       </c>
       <c r="D555">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E555">
-        <v>105.85</v>
+        <v>9.09</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -14806,14 +14806,14 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>SHAMBOYACU</t>
+          <t>TINGO DE PONASA</t>
         </is>
       </c>
       <c r="D556">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E556">
-        <v>9.09</v>
+        <v>327.21</v>
       </c>
       <c r="F556">
         <v>0</v>
@@ -14832,14 +14832,14 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>TINGO DE PONASA</t>
+          <t>TRES UNIDOS</t>
         </is>
       </c>
       <c r="D557">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E557">
-        <v>327.21</v>
+        <v>23.64</v>
       </c>
       <c r="F557">
         <v>0</v>
@@ -14853,19 +14853,19 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>TRES UNIDOS</t>
+          <t>AWAJUN</t>
         </is>
       </c>
       <c r="D558">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E558">
-        <v>23.64</v>
+        <v>35.14</v>
       </c>
       <c r="F558">
         <v>0</v>
@@ -14884,14 +14884,14 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>AWAJUN</t>
+          <t>ELIAS SOPLIN VARGAS</t>
         </is>
       </c>
       <c r="D559">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E559">
-        <v>35.14</v>
+        <v>146.89</v>
       </c>
       <c r="F559">
         <v>0</v>
@@ -14910,14 +14910,14 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>ELIAS SOPLIN VARGAS</t>
+          <t>NUEVA CAJAMARCA</t>
         </is>
       </c>
       <c r="D560">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E560">
-        <v>146.89</v>
+        <v>158.3</v>
       </c>
       <c r="F560">
         <v>0</v>
@@ -14936,14 +14936,14 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>NUEVA CAJAMARCA</t>
+          <t>PARDO MIGUEL</t>
         </is>
       </c>
       <c r="D561">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="E561">
-        <v>158.3</v>
+        <v>39.56</v>
       </c>
       <c r="F561">
         <v>0</v>
@@ -14962,14 +14962,14 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>PARDO MIGUEL</t>
+          <t>POSIC</t>
         </is>
       </c>
       <c r="D562">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E562">
-        <v>39.56</v>
+        <v>43.98</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -14988,14 +14988,14 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>POSIC</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="D563">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E563">
-        <v>43.98</v>
+        <v>256.04</v>
       </c>
       <c r="F563">
         <v>0</v>
@@ -15014,14 +15014,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>SAN FERNANDO</t>
         </is>
       </c>
       <c r="D564">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E564">
-        <v>252.43</v>
+        <v>214.59</v>
       </c>
       <c r="F564">
         <v>0</v>
@@ -15040,14 +15040,14 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>YORONGOS</t>
         </is>
       </c>
       <c r="D565">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E565">
-        <v>214.59</v>
+        <v>38.85</v>
       </c>
       <c r="F565">
         <v>0</v>
@@ -15066,14 +15066,14 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>YORONGOS</t>
+          <t>YURACYACU</t>
         </is>
       </c>
       <c r="D566">
         <v>1</v>
       </c>
       <c r="E566">
-        <v>38.85</v>
+        <v>26.3</v>
       </c>
       <c r="F566">
         <v>0</v>
@@ -15087,19 +15087,19 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>YURACYACU</t>
+          <t>ALBERTO LEVEAU</t>
         </is>
       </c>
       <c r="D567">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E567">
-        <v>26.3</v>
+        <v>416.67</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -15118,14 +15118,14 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>ALBERTO LEVEAU</t>
+          <t>CACATACHI</t>
         </is>
       </c>
       <c r="D568">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E568">
-        <v>416.67</v>
+        <v>226.47</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -15144,14 +15144,14 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>CACATACHI</t>
+          <t>CHAZUTA</t>
         </is>
       </c>
       <c r="D569">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="E569">
-        <v>226.47</v>
+        <v>833.1799999999999</v>
       </c>
       <c r="F569">
         <v>0</v>
@@ -15170,14 +15170,14 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>CHAZUTA</t>
+          <t>CHIPURANA</t>
         </is>
       </c>
       <c r="D570">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="E570">
-        <v>833.1799999999999</v>
+        <v>38.85</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -15196,14 +15196,14 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>CHIPURANA</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E571">
-        <v>38.85</v>
+        <v>220.91</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -15222,14 +15222,14 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>HUIMBAYOC</t>
         </is>
       </c>
       <c r="D572">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E572">
-        <v>220.91</v>
+        <v>51.49</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -15248,14 +15248,14 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>HUIMBAYOC</t>
+          <t>JUAN GUERRA</t>
         </is>
       </c>
       <c r="D573">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E573">
-        <v>51.49</v>
+        <v>274.16</v>
       </c>
       <c r="F573">
         <v>0</v>
@@ -15274,14 +15274,14 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>JUAN GUERRA</t>
+          <t>LA BANDA DE SHILCAYO</t>
         </is>
       </c>
       <c r="D574">
-        <v>12</v>
+        <v>768</v>
       </c>
       <c r="E574">
-        <v>274.16</v>
+        <v>1445.24</v>
       </c>
       <c r="F574">
         <v>0</v>
@@ -15300,14 +15300,14 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="D575">
-        <v>761</v>
+        <v>394</v>
       </c>
       <c r="E575">
-        <v>1432.07</v>
+        <v>849.1</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -15326,14 +15326,14 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>PAPAPLAYA</t>
         </is>
       </c>
       <c r="D576">
-        <v>393</v>
+        <v>30</v>
       </c>
       <c r="E576">
-        <v>846.95</v>
+        <v>1409.11</v>
       </c>
       <c r="F576">
         <v>0</v>
@@ -15352,14 +15352,14 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>PAPAPLAYA</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D577">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E577">
-        <v>1409.11</v>
+        <v>276.09</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -15378,14 +15378,14 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>SAUCE</t>
         </is>
       </c>
       <c r="D578">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E578">
-        <v>276.09</v>
+        <v>119.58</v>
       </c>
       <c r="F578">
         <v>0</v>
@@ -15404,14 +15404,14 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>SAUCE</t>
+          <t>SHAPAJA</t>
         </is>
       </c>
       <c r="D579">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E579">
-        <v>119.58</v>
+        <v>884.13</v>
       </c>
       <c r="F579">
         <v>0</v>
@@ -15430,17 +15430,17 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>SHAPAJA</t>
+          <t>TARAPOTO</t>
         </is>
       </c>
       <c r="D580">
-        <v>19</v>
+        <v>569</v>
       </c>
       <c r="E580">
-        <v>884.13</v>
+        <v>654.8</v>
       </c>
       <c r="F580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -15451,22 +15451,22 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>TARAPOTO</t>
+          <t>NUEVO PROGRESO</t>
         </is>
       </c>
       <c r="D581">
-        <v>568</v>
+        <v>137</v>
       </c>
       <c r="E581">
-        <v>653.65</v>
+        <v>1073.75</v>
       </c>
       <c r="F581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -15482,14 +15482,14 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>NUEVO PROGRESO</t>
+          <t>POLVORA</t>
         </is>
       </c>
       <c r="D582">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="E582">
-        <v>1042.4</v>
+        <v>419.01</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -15508,14 +15508,14 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>POLVORA</t>
+          <t>SANTA LUCIA</t>
         </is>
       </c>
       <c r="D583">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E583">
-        <v>427.92</v>
+        <v>136.8</v>
       </c>
       <c r="F583">
         <v>0</v>
@@ -15534,14 +15534,14 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>SANTA LUCIA</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="D584">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="E584">
-        <v>136.8</v>
+        <v>497.67</v>
       </c>
       <c r="F584">
         <v>0</v>
@@ -15560,14 +15560,14 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>UCHIZA</t>
         </is>
       </c>
       <c r="D585">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="E585">
-        <v>497.67</v>
+        <v>499.97</v>
       </c>
       <c r="F585">
         <v>0</v>
@@ -15576,24 +15576,24 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>CONTRALMIRANTE VILLAR</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>UCHIZA</t>
+          <t>CANOAS DE PUNTA SAL</t>
         </is>
       </c>
       <c r="D586">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E586">
-        <v>499.97</v>
+        <v>277.81</v>
       </c>
       <c r="F586">
         <v>0</v>
@@ -15612,14 +15612,14 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>CANOAS DE PUNTA SAL</t>
+          <t>CASITAS</t>
         </is>
       </c>
       <c r="D587">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E587">
-        <v>265.73</v>
+        <v>1156.27</v>
       </c>
       <c r="F587">
         <v>0</v>
@@ -15638,14 +15638,14 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>CASITAS</t>
+          <t>ZORRITOS</t>
         </is>
       </c>
       <c r="D588">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="E588">
-        <v>1156.27</v>
+        <v>1747.92</v>
       </c>
       <c r="F588">
         <v>0</v>
@@ -15659,19 +15659,19 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>CONTRALMIRANTE VILLAR</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>ZORRITOS</t>
+          <t>CORRALES</t>
         </is>
       </c>
       <c r="D589">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="E589">
-        <v>1747.92</v>
+        <v>1118.53</v>
       </c>
       <c r="F589">
         <v>0</v>
@@ -15690,14 +15690,14 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>CORRALES</t>
+          <t>LA CRUZ</t>
         </is>
       </c>
       <c r="D590">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="E590">
-        <v>1103.36</v>
+        <v>720.46</v>
       </c>
       <c r="F590">
         <v>0</v>
@@ -15716,14 +15716,14 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>LA CRUZ</t>
+          <t>PAMPAS DE HOSPITAL</t>
         </is>
       </c>
       <c r="D591">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E591">
-        <v>702.45</v>
+        <v>861.0700000000001</v>
       </c>
       <c r="F591">
         <v>0</v>
@@ -15742,14 +15742,14 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>PAMPAS DE HOSPITAL</t>
+          <t>SAN JACINTO</t>
         </is>
       </c>
       <c r="D592">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E592">
-        <v>861.0700000000001</v>
+        <v>669.55</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -15768,14 +15768,14 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>SAN JACINTO</t>
+          <t>SAN JUAN DE LA VIRGEN</t>
         </is>
       </c>
       <c r="D593">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E593">
-        <v>593.95</v>
+        <v>778.51</v>
       </c>
       <c r="F593">
         <v>0</v>
@@ -15794,14 +15794,14 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LA VIRGEN</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="D594">
-        <v>30</v>
+        <v>1003</v>
       </c>
       <c r="E594">
-        <v>583.88</v>
+        <v>849.53</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -15815,19 +15815,19 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>AGUAS VERDES</t>
         </is>
       </c>
       <c r="D595">
-        <v>953</v>
+        <v>53</v>
       </c>
       <c r="E595">
-        <v>807.1799999999999</v>
+        <v>262.03</v>
       </c>
       <c r="F595">
         <v>0</v>
@@ -15846,14 +15846,14 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>AGUAS VERDES</t>
+          <t>MATAPALO</t>
         </is>
       </c>
       <c r="D596">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E596">
-        <v>247.19</v>
+        <v>398.57</v>
       </c>
       <c r="F596">
         <v>0</v>
@@ -15872,14 +15872,14 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>MATAPALO</t>
+          <t>PAPAYAL</t>
         </is>
       </c>
       <c r="D597">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E597">
-        <v>419.55</v>
+        <v>1009.56</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -15898,43 +15898,43 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>PAPAYAL</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="D598">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E598">
-        <v>1009.56</v>
+        <v>597.79</v>
       </c>
       <c r="F598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>ATALAYA</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>RAIMONDI</t>
         </is>
       </c>
       <c r="D599">
-        <v>143</v>
+        <v>409</v>
       </c>
       <c r="E599">
-        <v>527.6799999999999</v>
+        <v>946.12</v>
       </c>
       <c r="F599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -15950,14 +15950,14 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>RAIMONDI</t>
+          <t>SEPAHUA</t>
         </is>
       </c>
       <c r="D600">
-        <v>407</v>
+        <v>50</v>
       </c>
       <c r="E600">
-        <v>941.5</v>
+        <v>568.96</v>
       </c>
       <c r="F600">
         <v>0</v>
@@ -15976,14 +15976,14 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>SEPAHUA</t>
+          <t>TAHUANIA</t>
         </is>
       </c>
       <c r="D601">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E601">
-        <v>568.96</v>
+        <v>360.58</v>
       </c>
       <c r="F601">
         <v>0</v>
@@ -16002,14 +16002,14 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>TAHUANIA</t>
+          <t>YURUA</t>
         </is>
       </c>
       <c r="D602">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E602">
-        <v>360.58</v>
+        <v>149.87</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -16023,22 +16023,22 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>ATALAYA</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>YURUA</t>
+          <t>CALLERIA</t>
         </is>
       </c>
       <c r="D603">
+        <v>3714</v>
+      </c>
+      <c r="E603">
+        <v>2044.02</v>
+      </c>
+      <c r="F603">
         <v>4</v>
-      </c>
-      <c r="E603">
-        <v>149.87</v>
-      </c>
-      <c r="F603">
-        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -16054,17 +16054,17 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>CALLERIA</t>
+          <t>CAMPOVERDE</t>
         </is>
       </c>
       <c r="D604">
-        <v>3702</v>
+        <v>172</v>
       </c>
       <c r="E604">
-        <v>2037.41</v>
+        <v>815.09</v>
       </c>
       <c r="F604">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -16080,14 +16080,14 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>CAMPOVERDE</t>
+          <t>IPARIA</t>
         </is>
       </c>
       <c r="D605">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="E605">
-        <v>815.09</v>
+        <v>74.8</v>
       </c>
       <c r="F605">
         <v>0</v>
@@ -16106,17 +16106,17 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>IPARIA</t>
+          <t>MANANTAY</t>
         </is>
       </c>
       <c r="D606">
-        <v>10</v>
+        <v>1488</v>
       </c>
       <c r="E606">
-        <v>74.8</v>
+        <v>1292.96</v>
       </c>
       <c r="F606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -16132,17 +16132,17 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>MANANTAY</t>
+          <t>MASISEA</t>
         </is>
       </c>
       <c r="D607">
-        <v>1488</v>
+        <v>140</v>
       </c>
       <c r="E607">
-        <v>1292.96</v>
+        <v>1087.04</v>
       </c>
       <c r="F607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -16158,14 +16158,14 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>MASISEA</t>
+          <t>NUEVA REQUENA</t>
         </is>
       </c>
       <c r="D608">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E608">
-        <v>1087.04</v>
+        <v>2414.36</v>
       </c>
       <c r="F608">
         <v>0</v>
@@ -16184,17 +16184,17 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>NUEVA REQUENA</t>
+          <t>YARINACOCHA</t>
         </is>
       </c>
       <c r="D609">
-        <v>147</v>
+        <v>1437</v>
       </c>
       <c r="E609">
-        <v>2398.04</v>
+        <v>1137.59</v>
       </c>
       <c r="F609">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="610">
@@ -16205,22 +16205,22 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>PADRE ABAD</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>YARINACOCHA</t>
+          <t>ALEXANDER VON HUMBOLDT</t>
         </is>
       </c>
       <c r="D610">
-        <v>1426</v>
+        <v>35</v>
       </c>
       <c r="E610">
-        <v>1128.88</v>
+        <v>535.99</v>
       </c>
       <c r="F610">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -16236,14 +16236,14 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>ALEXANDER VON HUMBOLDT</t>
+          <t>BOQUERON</t>
         </is>
       </c>
       <c r="D611">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E611">
-        <v>535.99</v>
+        <v>192.79</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -16262,14 +16262,14 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>BOQUERON</t>
+          <t>CURIMANA</t>
         </is>
       </c>
       <c r="D612">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E612">
-        <v>192.79</v>
+        <v>277.63</v>
       </c>
       <c r="F612">
         <v>0</v>
@@ -16288,14 +16288,14 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>CURIMANA</t>
+          <t>HUIPOCA</t>
         </is>
       </c>
       <c r="D613">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E613">
-        <v>268.96</v>
+        <v>114.76</v>
       </c>
       <c r="F613">
         <v>0</v>
@@ -16314,14 +16314,14 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>HUIPOCA</t>
+          <t>IRAZOLA</t>
         </is>
       </c>
       <c r="D614">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E614">
-        <v>114.76</v>
+        <v>438.6</v>
       </c>
       <c r="F614">
         <v>0</v>
@@ -16340,14 +16340,14 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>IRAZOLA</t>
+          <t>NESHUYA</t>
         </is>
       </c>
       <c r="D615">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E615">
-        <v>438.6</v>
+        <v>765.85</v>
       </c>
       <c r="F615">
         <v>0</v>
@@ -16366,42 +16366,16 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>NESHUYA</t>
+          <t>PADRE ABAD</t>
         </is>
       </c>
       <c r="D616">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c r="E616">
-        <v>765.85</v>
+        <v>1117.91</v>
       </c>
       <c r="F616">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>UCAYALI</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>PADRE ABAD</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>PADRE ABAD</t>
-        </is>
-      </c>
-      <c r="D617">
-        <v>357</v>
-      </c>
-      <c r="E617">
-        <v>1121.06</v>
-      </c>
-      <c r="F617">
         <v>0</v>
       </c>
     </row>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E3">
-        <v>2227.62</v>
+        <v>2221.06</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>336.92</v>
+        <v>323.96</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>167.64</v>
+        <v>586.76</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E17">
-        <v>412.98</v>
+        <v>414.68</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -922,14 +922,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COLQUIOC</t>
+          <t>HUALLANCA</t>
         </is>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>47.06</v>
+        <v>16.07</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -943,19 +943,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOLOGNESI</t>
+          <t>CASMA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HUALLANCA</t>
+          <t>BUENA VISTA ALTA</t>
         </is>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>16.07</v>
+        <v>17.49</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -974,14 +974,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BUENA VISTA ALTA</t>
+          <t>CASMA</t>
         </is>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="E24">
-        <v>17.49</v>
+        <v>632.96</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CASMA</t>
+          <t>YAUTAN</t>
         </is>
       </c>
       <c r="D25">
-        <v>258</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>602.59</v>
+        <v>20.97</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1021,19 +1021,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASMA</t>
+          <t>CORONGO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>YAUTAN</t>
+          <t>CORONGO</t>
         </is>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>20.97</v>
+        <v>55.9</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1047,19 +1047,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CORONGO</t>
+          <t>HUARAZ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CORONGO</t>
+          <t>HUARAZ</t>
         </is>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>55.9</v>
+        <v>5.62</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1073,19 +1073,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HUARAZ</t>
+          <t>HUARI</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HUARAZ</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>7.03</v>
+        <v>5.01</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1099,19 +1099,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HUARI</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>COCHAPETI</t>
         </is>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>5.01</v>
+        <v>122.85</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COCHAPETI</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="D30">
+        <v>285</v>
+      </c>
+      <c r="E30">
+        <v>1015.03</v>
+      </c>
+      <c r="F30">
         <v>1</v>
-      </c>
-      <c r="E30">
-        <v>122.85</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>HUAYAN</t>
         </is>
       </c>
       <c r="D31">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>972.29</v>
+        <v>104.49</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1177,19 +1177,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>HUAYLAS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HUAYAN</t>
+          <t>CARAZ</t>
         </is>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>104.49</v>
+        <v>3.67</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1203,19 +1203,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HUAYLAS</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CARAZ</t>
+          <t>CACERES DEL PERU</t>
         </is>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>3.67</v>
+        <v>41.31</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1229,22 +1229,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RECUAY</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D34">
+        <v>240</v>
+      </c>
+      <c r="E34">
+        <v>109.09</v>
+      </c>
+      <c r="F34">
         <v>1</v>
-      </c>
-      <c r="E34">
-        <v>22.55</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1260,14 +1260,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CACERES DEL PERU</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>41.31</v>
+        <v>16.7</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D36">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>105</v>
+        <v>100.8</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>680</v>
       </c>
       <c r="E37">
-        <v>11.13</v>
+        <v>4515.57</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1338,14 +1338,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E38">
-        <v>89.59999999999999</v>
+        <v>63.09</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1364,14 +1364,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D39">
-        <v>649</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>4309.72</v>
+        <v>18.49</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D40">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E40">
-        <v>67.81999999999999</v>
+        <v>475.44</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1411,19 +1411,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>YUNGAY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>QUILLO</t>
         </is>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>18.49</v>
+        <v>7.53</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1432,24 +1432,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>AREQUIPA**</t>
         </is>
       </c>
       <c r="D42">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>458.75</v>
+        <v>3.55</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1458,24 +1458,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>YUNGAY</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>QUILLO</t>
+          <t>ACOCRO</t>
         </is>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>7.53</v>
+        <v>10.56</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ACOCRO</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>10.56</v>
+        <v>3.4</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>3.4</v>
+        <v>1.76</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1546,14 +1546,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1.76</v>
+        <v>13.57</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1567,19 +1567,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>13.57</v>
+        <v>1063.59</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1598,14 +1598,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1018.33</v>
+        <v>2.27</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E49">
-        <v>2.27</v>
+        <v>422.78</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>SANTILLANA</t>
         </is>
       </c>
       <c r="D50">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>414.15</v>
+        <v>28.01</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SANTILLANA</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E51">
-        <v>28.01</v>
+        <v>1585.76</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1697,19 +1697,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D52">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>1585.76</v>
+        <v>48.67</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1728,14 +1728,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>24.34</v>
+        <v>35.93</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="E54">
-        <v>53.9</v>
+        <v>1215.24</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1780,14 +1780,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>CHUNGUI</t>
         </is>
       </c>
       <c r="D55">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1235.84</v>
+        <v>23.23</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CHUNGUI</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E56">
-        <v>23.23</v>
+        <v>1650.62</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1832,14 +1832,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>1650.62</v>
+        <v>339.94</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1858,14 +1858,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>339.94</v>
+        <v>24.34</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1884,14 +1884,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E59">
-        <v>36.51</v>
+        <v>415.3</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1910,17 +1910,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D60">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>447.25</v>
+        <v>649.95</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1931,22 +1931,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D61">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>649.95</v>
+        <v>40.11</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1962,14 +1962,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>40.11</v>
+        <v>7.18</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1983,19 +1983,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>7.18</v>
+        <v>16.66</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2004,24 +2004,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>16.66</v>
+        <v>2.83</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2035,19 +2035,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>2.83</v>
+        <v>13.07</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2066,14 +2066,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>13.07</v>
+        <v>3.15</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>2.36</v>
+        <v>27.37</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2118,14 +2118,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>COSPAN</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>13.69</v>
+        <v>55.25</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2139,19 +2139,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>55.25</v>
+        <v>3.41</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2165,19 +2165,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>3.41</v>
+        <v>21.18</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>CHIGUIRIP</t>
         </is>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>21.18</v>
+        <v>28.89</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CHIGUIRIP</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <v>28.89</v>
+        <v>17.48</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2248,14 +2248,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>HUAMBOS</t>
         </is>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>15.54</v>
+        <v>11.95</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2274,14 +2274,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HUAMBOS</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>11.95</v>
+        <v>182.1</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>182.1</v>
+        <v>11.56</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2326,14 +2326,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>11.56</v>
+        <v>105.04</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>105.04</v>
+        <v>117.23</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2373,19 +2373,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="E78">
-        <v>117.23</v>
+        <v>16307.23</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2404,14 +2404,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D79">
-        <v>431</v>
+        <v>52</v>
       </c>
       <c r="E79">
-        <v>16307.23</v>
+        <v>662.84</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2430,14 +2430,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D80">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>675.59</v>
+        <v>881.9</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2456,14 +2456,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>655</v>
       </c>
       <c r="E81">
-        <v>881.9</v>
+        <v>9686.48</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2477,19 +2477,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D82">
-        <v>650</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>9612.540000000001</v>
+        <v>31.47</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>31.47</v>
+        <v>1.98</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>PIMPINGOS</t>
         </is>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1.98</v>
+        <v>20.29</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PIMPINGOS</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>20.29</v>
+        <v>7.8</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>7.8</v>
+        <v>11.3</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2607,19 +2607,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="E87">
-        <v>11.3</v>
+        <v>1073.13</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D88">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="E88">
-        <v>1067.1</v>
+        <v>113.77</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>HUABAL</t>
         </is>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>94.8</v>
+        <v>10.91</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,17 +2690,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HUABAL</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2561</v>
       </c>
       <c r="E90">
-        <v>10.91</v>
+        <v>2345.04</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D91">
-        <v>2553</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>2337.72</v>
+        <v>10.59</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2742,14 +2742,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E92">
-        <v>10.59</v>
+        <v>285.47</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>SALLIQUE</t>
         </is>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>285.47</v>
+        <v>52.64</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2794,14 +2794,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SALLIQUE</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>52.64</v>
+        <v>21.51</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2820,14 +2820,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>21.51</v>
+        <v>48.53</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2846,14 +2846,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>48.53</v>
+        <v>49.03</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2867,19 +2867,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E97">
-        <v>39.22</v>
+        <v>121.85</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2898,14 +2898,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D98">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E98">
-        <v>109.67</v>
+        <v>725.7</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D99">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>682.37</v>
+        <v>13.83</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2950,14 +2950,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>13.83</v>
+        <v>50.17</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>359</v>
       </c>
       <c r="E101">
-        <v>50.17</v>
+        <v>866.73</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3002,14 +3002,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D102">
-        <v>347</v>
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>837.76</v>
+        <v>34.79</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3028,14 +3028,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>39.76</v>
+        <v>103.27</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3049,19 +3049,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="D104">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>88.51000000000001</v>
+        <v>4.58</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3075,19 +3075,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PEDRO GALVEZ</t>
+          <t>CALQUIS</t>
         </is>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>4.58</v>
+        <v>23.87</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3106,14 +3106,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CALQUIS</t>
+          <t>NANCHOC</t>
         </is>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E106">
-        <v>23.87</v>
+        <v>1283.02</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3132,14 +3132,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NANCHOC</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D107">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>1056.6</v>
+        <v>22.28</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3158,14 +3158,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>22.28</v>
+        <v>28.39</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3179,19 +3179,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>28.39</v>
+        <v>376.69</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3205,19 +3205,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D110">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>376.69</v>
+        <v>10.32</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>10.32</v>
+        <v>31.65</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3252,24 +3252,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E112">
-        <v>31.65</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3288,14 +3288,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D113">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="E113">
-        <v>72.22</v>
+        <v>54.71</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3314,14 +3314,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D114">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="E114">
-        <v>53.22</v>
+        <v>55.95</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D115">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>53.88</v>
+        <v>21.26</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3366,14 +3366,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D116">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>22.78</v>
+        <v>24.98</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3392,14 +3392,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="E117">
-        <v>24.98</v>
+        <v>502.69</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3418,43 +3418,43 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D118">
-        <v>268</v>
+        <v>984</v>
       </c>
       <c r="E118">
-        <v>488.12</v>
+        <v>247.84</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="D119">
-        <v>964</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>242.81</v>
+        <v>4.17</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3470,17 +3470,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D120">
+        <v>59</v>
+      </c>
+      <c r="E120">
+        <v>628.13</v>
+      </c>
+      <c r="F120">
         <v>1</v>
-      </c>
-      <c r="E120">
-        <v>4.17</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3491,22 +3491,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D121">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>617.48</v>
+        <v>18.08</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3517,19 +3517,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E122">
-        <v>18.08</v>
+        <v>4.89</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3543,19 +3543,19 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D123">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E123">
-        <v>4.89</v>
+        <v>957.16</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3574,14 +3574,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D124">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E124">
-        <v>957.16</v>
+        <v>329.42</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3600,17 +3600,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D125">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="E125">
-        <v>313.48</v>
+        <v>2316.57</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3626,14 +3626,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HUAYOPATA</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E126">
-        <v>18.53</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3652,14 +3652,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>INKAWASI</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E127">
-        <v>19.77</v>
+        <v>1413.63</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3678,17 +3678,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D128">
-        <v>324</v>
+        <v>9</v>
       </c>
       <c r="E128">
-        <v>2323.75</v>
+        <v>179.03</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3704,14 +3704,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E129">
-        <v>85.20999999999999</v>
+        <v>936.51</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3730,14 +3730,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>OCOBAMBA</t>
         </is>
       </c>
       <c r="D130">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>1413.63</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E131">
-        <v>218.82</v>
+        <v>1878.05</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D132">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>936.51</v>
+        <v>33.46</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,17 +3808,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>OCOBAMBA</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>1051</v>
       </c>
       <c r="E133">
-        <v>68.48999999999999</v>
+        <v>3524.83</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D134">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="E134">
-        <v>1886.55</v>
+        <v>797.8200000000001</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E135">
-        <v>33.46</v>
+        <v>3567.09</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3886,17 +3886,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D136">
-        <v>1093</v>
+        <v>48</v>
       </c>
       <c r="E136">
-        <v>3665.69</v>
+        <v>1989.23</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3907,19 +3907,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D137">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E137">
-        <v>815.96</v>
+        <v>955.53</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3933,19 +3933,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>VILCABAMBA</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>9.949999999999999</v>
+        <v>16.85</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3954,24 +3954,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D139">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>3283.34</v>
+        <v>8.42</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3980,24 +3980,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>DOS DE MAYO</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>YANAS</t>
         </is>
       </c>
       <c r="D140">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>1906.34</v>
+        <v>49.58</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4006,24 +4006,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>LLATA</t>
         </is>
       </c>
       <c r="D141">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>955.53</v>
+        <v>7.43</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4032,24 +4032,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>MONZON</t>
         </is>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E142">
-        <v>16.85</v>
+        <v>425.49</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4063,19 +4063,19 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>AMARILIS</t>
         </is>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E143">
-        <v>8.42</v>
+        <v>15.3</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4089,19 +4089,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DOS DE MAYO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>YANAS</t>
+          <t>CHINCHAO</t>
         </is>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>49.58</v>
+        <v>29.99</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4115,19 +4115,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>LLATA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E145">
-        <v>7.43</v>
+        <v>7.15</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4141,19 +4141,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MONZON</t>
+          <t>PILLCO MARCA</t>
         </is>
       </c>
       <c r="D146">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>425.49</v>
+        <v>5.52</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4167,19 +4167,19 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>LAURICOCHA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AMARILIS</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="D147">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>20.77</v>
+        <v>29.74</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4193,19 +4193,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CHINCHAO</t>
+          <t>CASTILLO GRANDE</t>
         </is>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="E148">
-        <v>37.49</v>
+        <v>2269.63</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4219,19 +4219,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>DANIEL ALOMIA ROBLES</t>
         </is>
       </c>
       <c r="D149">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E149">
-        <v>7.15</v>
+        <v>607.4299999999999</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4245,19 +4245,19 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>PILLCO MARCA</t>
+          <t>HERMILIO VALDIZAN</t>
         </is>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>14.73</v>
+        <v>108.23</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4271,19 +4271,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LAURICOCHA</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>JESUS</t>
+          <t>JOSE CRESPO Y CASTILLO</t>
         </is>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="E151">
-        <v>29.74</v>
+        <v>341.73</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4302,14 +4302,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CASTILLO GRANDE</t>
+          <t>LUYANDO</t>
         </is>
       </c>
       <c r="D152">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="E152">
-        <v>2262.44</v>
+        <v>1780.93</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4328,14 +4328,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DANIEL ALOMIA ROBLES</t>
+          <t>MARIANO DAMASO BERAUN</t>
         </is>
       </c>
       <c r="D153">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E153">
-        <v>621.5599999999999</v>
+        <v>603.4</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4354,14 +4354,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>HERMILIO VALDIZAN</t>
+          <t>PUCAYACU</t>
         </is>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>108.23</v>
+        <v>25.42</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4380,14 +4380,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>JOSE CRESPO Y CASTILLO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D155">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E155">
-        <v>341.73</v>
+        <v>299.68</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>LUYANDO</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="D156">
-        <v>173</v>
+        <v>987</v>
       </c>
       <c r="E156">
-        <v>1780.93</v>
+        <v>1629.57</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4432,14 +4432,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MARIANO DAMASO BERAUN</t>
+          <t>SANTO DOMINGO DE ANDA</t>
         </is>
       </c>
       <c r="D157">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E157">
-        <v>612.02</v>
+        <v>345.36</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4453,19 +4453,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PUCAYACU</t>
+          <t>CHOLON</t>
         </is>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E158">
-        <v>25.42</v>
+        <v>213.33</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4479,19 +4479,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>LA MORADA</t>
         </is>
       </c>
       <c r="D159">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E159">
-        <v>322.73</v>
+        <v>492.36</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4505,19 +4505,19 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>SANTA ROSA DE ALTO YANAJANCA</t>
         </is>
       </c>
       <c r="D160">
-        <v>983</v>
+        <v>8</v>
       </c>
       <c r="E160">
-        <v>1622.97</v>
+        <v>289.12</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4531,19 +4531,19 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ANDA</t>
+          <t>CHAGLLA</t>
         </is>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>345.36</v>
+        <v>51.54</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4557,19 +4557,19 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>CHOLON</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="E162">
-        <v>213.33</v>
+        <v>1644.77</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4583,19 +4583,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>LA MORADA</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D163">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>492.36</v>
+        <v>82.34</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4609,19 +4609,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE ALTO YANAJANCA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D164">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="E164">
-        <v>289.12</v>
+        <v>1862.92</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4635,19 +4635,19 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>CHAGLLA</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E165">
-        <v>51.54</v>
+        <v>264.43</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4666,14 +4666,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D166">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="E166">
-        <v>1644.77</v>
+        <v>447.98</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4682,50 +4682,50 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="E167">
-        <v>82.34</v>
+        <v>1270.34</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHAVIN</t>
         </is>
       </c>
       <c r="D168">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>1862.92</v>
+        <v>31.89</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4734,50 +4734,50 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D169">
-        <v>18</v>
+        <v>1936</v>
       </c>
       <c r="E169">
-        <v>264.43</v>
+        <v>2360.23</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D170">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="E170">
-        <v>447.98</v>
+        <v>849.17</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4796,17 +4796,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D171">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="E171">
-        <v>1270.34</v>
+        <v>439.5</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4822,17 +4822,17 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CHAVIN</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="E172">
-        <v>31.89</v>
+        <v>1183.14</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4848,17 +4848,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D173">
-        <v>1915</v>
+        <v>1783</v>
       </c>
       <c r="E173">
-        <v>2334.63</v>
+        <v>2294.87</v>
       </c>
       <c r="F173">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -4874,17 +4874,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D174">
-        <v>127</v>
+        <v>760</v>
       </c>
       <c r="E174">
-        <v>829.58</v>
+        <v>2181.59</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -4900,14 +4900,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D175">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E175">
-        <v>432.63</v>
+        <v>1008.5</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4921,22 +4921,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D176">
-        <v>364</v>
+        <v>1677</v>
       </c>
       <c r="E176">
-        <v>1179.9</v>
+        <v>922.54</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4947,22 +4947,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D177">
-        <v>1782</v>
+        <v>308</v>
       </c>
       <c r="E177">
-        <v>2293.58</v>
+        <v>617.28</v>
       </c>
       <c r="F177">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4973,22 +4973,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D178">
-        <v>746</v>
+        <v>173</v>
       </c>
       <c r="E178">
-        <v>2141.4</v>
+        <v>642.14</v>
       </c>
       <c r="F178">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4999,22 +4999,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D179">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="E179">
-        <v>979.6900000000001</v>
+        <v>2309.34</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -5030,17 +5030,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D180">
-        <v>1643</v>
+        <v>49</v>
       </c>
       <c r="E180">
-        <v>903.83</v>
+        <v>550.5</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -5056,14 +5056,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D181">
-        <v>296</v>
+        <v>670</v>
       </c>
       <c r="E181">
-        <v>593.23</v>
+        <v>1060.66</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5082,14 +5082,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D182">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="E182">
-        <v>631.01</v>
+        <v>1223.95</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5108,14 +5108,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D183">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="E183">
-        <v>2273.54</v>
+        <v>1041.34</v>
       </c>
       <c r="F183">
         <v>2</v>
@@ -5134,14 +5134,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D184">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="E184">
-        <v>550.5</v>
+        <v>1885.91</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5160,14 +5160,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D185">
-        <v>650</v>
+        <v>236</v>
       </c>
       <c r="E185">
-        <v>1029</v>
+        <v>1462.75</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -5186,14 +5186,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D186">
-        <v>100</v>
+        <v>462</v>
       </c>
       <c r="E186">
-        <v>1211.83</v>
+        <v>1410.6</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D187">
-        <v>330</v>
+        <v>429</v>
       </c>
       <c r="E187">
-        <v>1031.96</v>
+        <v>1240.89</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5238,14 +5238,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D188">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E188">
-        <v>1850.99</v>
+        <v>1610.57</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5264,14 +5264,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D189">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>1444.16</v>
+        <v>443.46</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5285,19 +5285,19 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D190">
-        <v>453</v>
+        <v>34</v>
       </c>
       <c r="E190">
-        <v>1383.12</v>
+        <v>1466.78</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D191">
-        <v>422</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>1220.64</v>
+        <v>182.77</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5337,19 +5337,19 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D192">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E192">
-        <v>1592.47</v>
+        <v>61.07</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -5363,22 +5363,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D193">
-        <v>6</v>
+        <v>907</v>
       </c>
       <c r="E193">
-        <v>443.46</v>
+        <v>2859.76</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5394,14 +5394,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D194">
-        <v>34</v>
+        <v>410</v>
       </c>
       <c r="E194">
-        <v>1466.78</v>
+        <v>1553.91</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5415,19 +5415,19 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>182.77</v>
+        <v>1567.57</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -5441,19 +5441,19 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D196">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E196">
-        <v>61.07</v>
+        <v>1493.36</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -5467,22 +5467,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D197">
-        <v>905</v>
+        <v>21</v>
       </c>
       <c r="E197">
-        <v>2853.45</v>
+        <v>696.29</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5493,19 +5493,19 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D198">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>1519.8</v>
+        <v>186.39</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -5519,19 +5519,19 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>HUMAY</t>
         </is>
       </c>
       <c r="D199">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E199">
-        <v>1567.57</v>
+        <v>162.81</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -5545,19 +5545,19 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D200">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="E200">
-        <v>1493.36</v>
+        <v>366.35</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -5571,19 +5571,19 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>PARACAS</t>
         </is>
       </c>
       <c r="D201">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E201">
-        <v>663.13</v>
+        <v>157.82</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5597,22 +5597,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>664</v>
       </c>
       <c r="E202">
-        <v>186.39</v>
+        <v>789.39</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5628,14 +5628,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HUMAY</t>
+          <t>SAN ANDRES</t>
         </is>
       </c>
       <c r="D203">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E203">
-        <v>162.81</v>
+        <v>433.38</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -5654,17 +5654,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>SAN CLEMENTE</t>
         </is>
       </c>
       <c r="D204">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="E204">
-        <v>359.81</v>
+        <v>562.16</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PARACAS</t>
+          <t>TUPAC AMARU INCA</t>
         </is>
       </c>
       <c r="D205">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="E205">
-        <v>157.82</v>
+        <v>1209.72</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -5696,102 +5696,102 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="D206">
-        <v>656</v>
+        <v>444</v>
       </c>
       <c r="E206">
-        <v>779.88</v>
+        <v>1507.08</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SAN ANDRES</t>
+          <t>PERENE</t>
         </is>
       </c>
       <c r="D207">
-        <v>74</v>
+        <v>638</v>
       </c>
       <c r="E207">
-        <v>433.38</v>
+        <v>1059.8</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SAN CLEMENTE</t>
+          <t>PICHANAQUI</t>
         </is>
       </c>
       <c r="D208">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="E208">
-        <v>549.24</v>
+        <v>676.84</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>TUPAC AMARU INCA</t>
+          <t>SAN LUIS DE SHUARO</t>
         </is>
       </c>
       <c r="D209">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="E209">
-        <v>1204.82</v>
+        <v>649</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -5810,17 +5810,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>SAN RAMON</t>
         </is>
       </c>
       <c r="D210">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="E210">
-        <v>1541.02</v>
+        <v>1448.69</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -5836,17 +5836,17 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>PERENE</t>
+          <t>VITOC</t>
         </is>
       </c>
       <c r="D211">
-        <v>640</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>1063.12</v>
+        <v>185.99</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5857,22 +5857,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>PICHANAQUI</t>
+          <t>CHONGOS BAJO</t>
         </is>
       </c>
       <c r="D212">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>674.45</v>
+        <v>20.57</v>
       </c>
       <c r="F212">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5883,19 +5883,19 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SAN LUIS DE SHUARO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D213">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E213">
-        <v>649</v>
+        <v>1.92</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>SAN RAMON</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="D214">
-        <v>428</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>1448.69</v>
+        <v>6.22</v>
       </c>
       <c r="F214">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5935,19 +5935,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>VITOC</t>
+          <t>SANTO DOMINGO DE ACOBAMBA</t>
         </is>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>185.99</v>
+        <v>16.06</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -5961,19 +5961,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>CHONGOS BAJO</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D216">
         <v>1</v>
       </c>
       <c r="E216">
-        <v>20.57</v>
+        <v>22.28</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -5987,19 +5987,19 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>1.92</v>
+        <v>44.46</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -6013,19 +6013,19 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D218">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>7</v>
+        <v>51.15</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -6039,19 +6039,19 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ACOBAMBA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E219">
-        <v>16.06</v>
+        <v>38.15</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -6065,19 +6065,19 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E220">
-        <v>22.28</v>
+        <v>667.66</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6091,19 +6091,19 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E221">
-        <v>44.46</v>
+        <v>115.49</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6117,19 +6117,19 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E222">
-        <v>51.15</v>
+        <v>163.08</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6143,19 +6143,19 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>28.62</v>
+        <v>28.91</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6174,14 +6174,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D224">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="E224">
-        <v>652.8200000000001</v>
+        <v>332.26</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6200,14 +6200,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E225">
-        <v>115.49</v>
+        <v>273.35</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -6226,14 +6226,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D226">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E226">
-        <v>156.29</v>
+        <v>194.66</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6252,14 +6252,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="E227">
-        <v>28.91</v>
+        <v>696.71</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6278,14 +6278,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D228">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="E228">
-        <v>332.26</v>
+        <v>212.21</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -6299,19 +6299,19 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="D229">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>270.54</v>
+        <v>6.15</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -6320,24 +6320,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D230">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E230">
-        <v>191.36</v>
+        <v>491.97</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6346,24 +6346,24 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D231">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="E231">
-        <v>683.1</v>
+        <v>130.3</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -6372,24 +6372,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D232">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E232">
-        <v>212.21</v>
+        <v>486.84</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6398,24 +6398,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E233">
-        <v>6.15</v>
+        <v>101.61</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D234">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E234">
-        <v>405.15</v>
+        <v>192.09</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -6460,14 +6460,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D235">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>116.93</v>
+        <v>42.15</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -6486,14 +6486,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D236">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E236">
-        <v>400.57</v>
+        <v>69.77</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6507,19 +6507,19 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>LONGOTEA</t>
         </is>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>91.44</v>
+        <v>43.38</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6533,19 +6533,19 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="D238">
-        <v>56</v>
+        <v>621</v>
       </c>
       <c r="E238">
-        <v>188.72</v>
+        <v>1240.78</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6559,19 +6559,19 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>PACANGA</t>
         </is>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E239">
-        <v>42.15</v>
+        <v>132.85</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6585,19 +6585,19 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D240">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>64.79000000000001</v>
+        <v>38.62</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6611,19 +6611,19 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>LONGOTEA</t>
+          <t>CASCAS</t>
         </is>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="E241">
-        <v>43.38</v>
+        <v>906.6</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6637,19 +6637,19 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>LUCMA</t>
         </is>
       </c>
       <c r="D242">
-        <v>587</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>1172.85</v>
+        <v>21.18</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6663,19 +6663,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>PACANGA</t>
+          <t>SAYAPULLO</t>
         </is>
       </c>
       <c r="D243">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>132.85</v>
+        <v>15.6</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6689,19 +6689,19 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>JULCAN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>CALAMARCA</t>
         </is>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>38.62</v>
+        <v>20.18</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6715,19 +6715,19 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>CASCAS</t>
+          <t>AGALLPAMPA</t>
         </is>
       </c>
       <c r="D245">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>850.38</v>
+        <v>9.67</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6741,22 +6741,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>SAYAPULLO</t>
+          <t>GUADALUPE</t>
         </is>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>795</v>
       </c>
       <c r="E246">
-        <v>15.6</v>
+        <v>1749.33</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247">
@@ -6767,22 +6767,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>JULCAN</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>CALAMARCA</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="D247">
+        <v>41</v>
+      </c>
+      <c r="E247">
+        <v>122.62</v>
+      </c>
+      <c r="F247">
         <v>1</v>
-      </c>
-      <c r="E247">
-        <v>20.18</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -6798,17 +6798,17 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D248">
-        <v>795</v>
+        <v>18</v>
       </c>
       <c r="E248">
-        <v>1749.33</v>
+        <v>138.38</v>
       </c>
       <c r="F248">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -6824,17 +6824,17 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>SAN PEDRO DE LLOC</t>
         </is>
       </c>
       <c r="D249">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>113.65</v>
+        <v>144.83</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6845,19 +6845,19 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>PARCOY</t>
         </is>
       </c>
       <c r="D250">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E250">
-        <v>138.38</v>
+        <v>9.34</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6871,19 +6871,19 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE LLOC</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="D251">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E251">
-        <v>144.83</v>
+        <v>287.2</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6902,14 +6902,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>PARCOY</t>
+          <t>TAYABAMBA</t>
         </is>
       </c>
       <c r="D252">
         <v>2</v>
       </c>
       <c r="E252">
-        <v>9.34</v>
+        <v>14.26</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6923,19 +6923,19 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>SANCHEZ CARRION</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>COCHORCO</t>
         </is>
       </c>
       <c r="D253">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>305.15</v>
+        <v>9.43</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6949,19 +6949,19 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>TAYABAMBA</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>644</v>
       </c>
       <c r="E254">
-        <v>14.26</v>
+        <v>263.49</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6975,19 +6975,19 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SANCHEZ CARRION</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>COCHORCO</t>
+          <t>FLORENCIA DE MORA</t>
         </is>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>615</v>
       </c>
       <c r="E255">
-        <v>9.43</v>
+        <v>1513.92</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7006,14 +7006,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>HUANCHACO</t>
         </is>
       </c>
       <c r="D256">
-        <v>604</v>
+        <v>452</v>
       </c>
       <c r="E256">
-        <v>247.12</v>
+        <v>473.4</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7032,17 +7032,17 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA</t>
+          <t>LA ESPERANZA</t>
         </is>
       </c>
       <c r="D257">
-        <v>606</v>
+        <v>3863</v>
       </c>
       <c r="E257">
-        <v>1491.77</v>
+        <v>1620.69</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
@@ -7058,14 +7058,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>HUANCHACO</t>
+          <t>LAREDO</t>
         </is>
       </c>
       <c r="D258">
-        <v>437</v>
+        <v>281</v>
       </c>
       <c r="E258">
-        <v>457.69</v>
+        <v>619.6799999999999</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7084,17 +7084,17 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>LA ESPERANZA</t>
+          <t>MOCHE</t>
         </is>
       </c>
       <c r="D259">
-        <v>3811</v>
+        <v>30</v>
       </c>
       <c r="E259">
-        <v>1598.87</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F259">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -7110,14 +7110,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>LAREDO</t>
+          <t>POROTO</t>
         </is>
       </c>
       <c r="D260">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="E260">
-        <v>577.78</v>
+        <v>48.76</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>MOCHE</t>
+          <t>SALAVERRY</t>
         </is>
       </c>
       <c r="D261">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E261">
-        <v>67.72</v>
+        <v>69.23</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7162,14 +7162,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>POROTO</t>
+          <t>SIMBAL</t>
         </is>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>48.76</v>
+        <v>105.53</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -7188,17 +7188,17 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>SALAVERRY</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D263">
-        <v>16</v>
+        <v>1342</v>
       </c>
       <c r="E263">
-        <v>65.16</v>
+        <v>371.95</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -7214,14 +7214,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SIMBAL</t>
+          <t>VICTOR LARCO HERRERA</t>
         </is>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E264">
-        <v>84.42</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -7235,19 +7235,19 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>CHAO</t>
         </is>
       </c>
       <c r="D265">
-        <v>1325</v>
+        <v>556</v>
       </c>
       <c r="E265">
-        <v>367.24</v>
+        <v>1303.88</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -7261,19 +7261,19 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA</t>
+          <t>GUADALUPITO</t>
         </is>
       </c>
       <c r="D266">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E266">
-        <v>82.88</v>
+        <v>37.2</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7292,14 +7292,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>CHAO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="D267">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="E267">
-        <v>1252.29</v>
+        <v>937.36</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -7308,53 +7308,53 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>GUADALUPITO</t>
+          <t>CAYALTI</t>
         </is>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="E268">
-        <v>37.2</v>
+        <v>1888.51</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="D269">
-        <v>575</v>
+        <v>5651</v>
       </c>
       <c r="E269">
-        <v>930.89</v>
+        <v>1901.91</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270">
@@ -7370,17 +7370,17 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>CAYALTI</t>
+          <t>CHONGOYAPE</t>
         </is>
       </c>
       <c r="D270">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E270">
-        <v>1745.25</v>
+        <v>1182.37</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -7396,17 +7396,17 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>ETEN</t>
         </is>
       </c>
       <c r="D271">
-        <v>5471</v>
+        <v>9</v>
       </c>
       <c r="E271">
-        <v>1841.32</v>
+        <v>65.94</v>
       </c>
       <c r="F271">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -7422,17 +7422,17 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>CHONGOYAPE</t>
+          <t>ETEN PUERTO</t>
         </is>
       </c>
       <c r="D272">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="E272">
-        <v>1177.41</v>
+        <v>200.4</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -7448,17 +7448,17 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>ETEN</t>
+          <t>JOSE LEONARDO ORTIZ</t>
         </is>
       </c>
       <c r="D273">
-        <v>8</v>
+        <v>1956</v>
       </c>
       <c r="E273">
-        <v>58.61</v>
+        <v>1153.96</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
@@ -7474,17 +7474,17 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>ETEN PUERTO</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="D274">
-        <v>5</v>
+        <v>1306</v>
       </c>
       <c r="E274">
-        <v>200.4</v>
+        <v>1288.46</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -7500,17 +7500,17 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D275">
-        <v>1907</v>
+        <v>32</v>
       </c>
       <c r="E275">
-        <v>1125.05</v>
+        <v>287.43</v>
       </c>
       <c r="F275">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -7526,17 +7526,17 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>MONSEFU</t>
         </is>
       </c>
       <c r="D276">
-        <v>1237</v>
+        <v>113</v>
       </c>
       <c r="E276">
-        <v>1220.39</v>
+        <v>306.9</v>
       </c>
       <c r="F276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -7552,14 +7552,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>NUEVA ARICA</t>
         </is>
       </c>
       <c r="D277">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E277">
-        <v>260.49</v>
+        <v>1696.22</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -7578,14 +7578,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>MONSEFU</t>
+          <t>OYOTUN</t>
         </is>
       </c>
       <c r="D278">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="E278">
-        <v>306.9</v>
+        <v>2892.12</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7604,14 +7604,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>NUEVA ARICA</t>
+          <t>PATAPO</t>
         </is>
       </c>
       <c r="D279">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="E279">
-        <v>1657.67</v>
+        <v>973.9299999999999</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -7630,17 +7630,17 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>OYOTUN</t>
+          <t>PICSI</t>
         </is>
       </c>
       <c r="D280">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="E280">
-        <v>2580.1</v>
+        <v>1784.64</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -7656,17 +7656,17 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>PATAPO</t>
+          <t>PIMENTEL</t>
         </is>
       </c>
       <c r="D281">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="E281">
-        <v>939</v>
+        <v>288.84</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -7682,17 +7682,17 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>PICSI</t>
+          <t>POMALCA</t>
         </is>
       </c>
       <c r="D282">
-        <v>266</v>
+        <v>151</v>
       </c>
       <c r="E282">
-        <v>1777.96</v>
+        <v>541.14</v>
       </c>
       <c r="F282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -7708,17 +7708,17 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>PIMENTEL</t>
+          <t>PUCALA</t>
         </is>
       </c>
       <c r="D283">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E283">
-        <v>286.95</v>
+        <v>1827.93</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -7734,17 +7734,17 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>POMALCA</t>
+          <t>REQUE</t>
         </is>
       </c>
       <c r="D284">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="E284">
-        <v>537.5599999999999</v>
+        <v>511.12</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -7760,14 +7760,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>PUCALA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D285">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="E285">
-        <v>1816.99</v>
+        <v>131.32</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -7786,17 +7786,17 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>REQUE</t>
+          <t>SAÑA</t>
         </is>
       </c>
       <c r="D286">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="E286">
-        <v>250.12</v>
+        <v>1587.05</v>
       </c>
       <c r="F286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -7812,17 +7812,17 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>TUMAN</t>
         </is>
       </c>
       <c r="D287">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="E287">
-        <v>131.32</v>
+        <v>1212.16</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -7833,19 +7833,19 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>SAÑA</t>
+          <t>CAÑARIS</t>
         </is>
       </c>
       <c r="D288">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="E288">
-        <v>1563.36</v>
+        <v>15.98</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -7859,22 +7859,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>TUMAN</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="D289">
-        <v>365</v>
+        <v>593</v>
       </c>
       <c r="E289">
-        <v>1202.28</v>
+        <v>1520.9</v>
       </c>
       <c r="F289">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
@@ -7890,14 +7890,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>CAÑARIS</t>
+          <t>INCAHUASI</t>
         </is>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>15.98</v>
+        <v>19.14</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7916,17 +7916,17 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>MANUEL ANTONIO MESONES MURO</t>
         </is>
       </c>
       <c r="D291">
-        <v>571</v>
+        <v>20</v>
       </c>
       <c r="E291">
-        <v>1464.48</v>
+        <v>468.82</v>
       </c>
       <c r="F291">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -7942,17 +7942,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>INCAHUASI</t>
+          <t>PITIPO</t>
         </is>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>477</v>
       </c>
       <c r="E292">
-        <v>19.14</v>
+        <v>2121.6</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -7968,17 +7968,17 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>MANUEL ANTONIO MESONES MURO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D293">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="E293">
-        <v>445.38</v>
+        <v>1428.75</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -7989,19 +7989,19 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>PITIPO</t>
+          <t>CHOCHOPE</t>
         </is>
       </c>
       <c r="D294">
-        <v>474</v>
+        <v>15</v>
       </c>
       <c r="E294">
-        <v>2108.26</v>
+        <v>890.21</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -8015,22 +8015,22 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>ILLIMO</t>
         </is>
       </c>
       <c r="D295">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="E295">
-        <v>1404.11</v>
+        <v>1173.52</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -8046,17 +8046,17 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>CHOCHOPE</t>
+          <t>JAYANCA</t>
         </is>
       </c>
       <c r="D296">
-        <v>15</v>
+        <v>547</v>
       </c>
       <c r="E296">
-        <v>890.21</v>
+        <v>2608.74</v>
       </c>
       <c r="F296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -8072,17 +8072,17 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>ILLIMO</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="D297">
-        <v>116</v>
+        <v>594</v>
       </c>
       <c r="E297">
-        <v>1163.49</v>
+        <v>695.4400000000001</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298">
@@ -8098,14 +8098,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>JAYANCA</t>
+          <t>MOCHUMI</t>
         </is>
       </c>
       <c r="D298">
-        <v>547</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>2608.74</v>
+        <v>123.35</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -8124,17 +8124,17 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>MORROPE</t>
         </is>
       </c>
       <c r="D299">
-        <v>580</v>
+        <v>146</v>
       </c>
       <c r="E299">
-        <v>679.05</v>
+        <v>247.49</v>
       </c>
       <c r="F299">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -8150,17 +8150,17 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>MOCHUMI</t>
+          <t>MOTUPE</t>
         </is>
       </c>
       <c r="D300">
-        <v>26</v>
+        <v>1131</v>
       </c>
       <c r="E300">
-        <v>123.35</v>
+        <v>3127.85</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -8176,17 +8176,17 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>MORROPE</t>
+          <t>OLMOS</t>
         </is>
       </c>
       <c r="D301">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="E301">
-        <v>245.79</v>
+        <v>442.84</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -8202,17 +8202,17 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>MOTUPE</t>
+          <t>PACORA</t>
         </is>
       </c>
       <c r="D302">
-        <v>1129</v>
+        <v>173</v>
       </c>
       <c r="E302">
-        <v>3122.32</v>
+        <v>1837.88</v>
       </c>
       <c r="F302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -8228,17 +8228,17 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>OLMOS</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D303">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="E303">
-        <v>441.13</v>
+        <v>465.08</v>
       </c>
       <c r="F303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -8254,14 +8254,14 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>PACORA</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D304">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="E304">
-        <v>1827.26</v>
+        <v>120.6</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -8280,14 +8280,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>TUCUME</t>
         </is>
       </c>
       <c r="D305">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E305">
-        <v>465.08</v>
+        <v>101.14</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -8296,24 +8296,24 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D306">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E306">
-        <v>99.62</v>
+        <v>5.31</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8322,24 +8322,24 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>TUCUME</t>
+          <t>SUPE</t>
         </is>
       </c>
       <c r="D307">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E307">
-        <v>81.69</v>
+        <v>55.75</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -8358,14 +8358,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>SUPE PUERTO</t>
         </is>
       </c>
       <c r="D308">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E308">
-        <v>5.31</v>
+        <v>509.29</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -8379,19 +8379,19 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>SUPE</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="D309">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E309">
-        <v>55.75</v>
+        <v>321.1</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -8405,19 +8405,19 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>SUPE PUERTO</t>
+          <t>SANTA ROSA DE QUIVES</t>
         </is>
       </c>
       <c r="D310">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E310">
-        <v>509.29</v>
+        <v>34.76</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -8431,19 +8431,19 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>CAÑETE</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>ASIA</t>
         </is>
       </c>
       <c r="D311">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E311">
-        <v>321.1</v>
+        <v>168.14</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -8457,19 +8457,19 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>CAÑETE</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE QUIVES</t>
+          <t>CERRO AZUL</t>
         </is>
       </c>
       <c r="D312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E312">
-        <v>34.76</v>
+        <v>42.15</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -8488,14 +8488,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>ASIA</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D313">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E313">
-        <v>168.14</v>
+        <v>138.56</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -8514,14 +8514,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>COAYLLO</t>
         </is>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E314">
-        <v>42.15</v>
+        <v>90.83</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -8540,14 +8540,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>IMPERIAL</t>
         </is>
       </c>
       <c r="D315">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E315">
-        <v>118.76</v>
+        <v>87.23999999999999</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -8566,14 +8566,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>IMPERIAL</t>
+          <t>LUNAHUANA</t>
         </is>
       </c>
       <c r="D316">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E316">
-        <v>77.27</v>
+        <v>49.21</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -8592,17 +8592,17 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>LUNAHUANA</t>
+          <t>MALA</t>
         </is>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>526</v>
       </c>
       <c r="E317">
-        <v>49.21</v>
+        <v>1492.75</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>MALA</t>
+          <t>NUEVO IMPERIAL</t>
         </is>
       </c>
       <c r="D318">
-        <v>525</v>
+        <v>20</v>
       </c>
       <c r="E318">
-        <v>1489.91</v>
+        <v>66.48</v>
       </c>
       <c r="F318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -8644,14 +8644,14 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>NUEVO IMPERIAL</t>
+          <t>QUILMANA</t>
         </is>
       </c>
       <c r="D319">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="E319">
-        <v>66.48</v>
+        <v>1992.79</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -8670,14 +8670,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>QUILMANA</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D320">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="E320">
-        <v>1986.87</v>
+        <v>250</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -8696,14 +8696,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="D321">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E321">
-        <v>250</v>
+        <v>66.42</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -8722,14 +8722,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN VICENTE DE CAÑETE</t>
         </is>
       </c>
       <c r="D322">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E322">
-        <v>59.04</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -8748,14 +8748,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>SAN VICENTE DE CAÑETE</t>
+          <t>SANTA CRUZ DE FLORES</t>
         </is>
       </c>
       <c r="D323">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E323">
-        <v>82.34999999999999</v>
+        <v>121.1</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -8769,19 +8769,19 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CAÑETE</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE FLORES</t>
+          <t>AUCALLAMA</t>
         </is>
       </c>
       <c r="D324">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E324">
-        <v>121.1</v>
+        <v>9.01</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -8800,14 +8800,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>AUCALLAMA</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="D325">
         <v>2</v>
       </c>
       <c r="E325">
-        <v>9.01</v>
+        <v>3.16</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -8826,14 +8826,14 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="D326">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E326">
-        <v>3.16</v>
+        <v>14.53</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -8847,19 +8847,19 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>HUAROCHIRI</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>ANTIOQUIA</t>
         </is>
       </c>
       <c r="D327">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E327">
-        <v>14.53</v>
+        <v>84.03</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -8878,14 +8878,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>ANTIOQUIA</t>
+          <t>CALLAHUANCA</t>
         </is>
       </c>
       <c r="D328">
         <v>1</v>
       </c>
       <c r="E328">
-        <v>84.03</v>
+        <v>161.03</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -8904,14 +8904,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>CALLAHUANCA</t>
+          <t>HUAROCHIRI</t>
         </is>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E329">
-        <v>161.03</v>
+        <v>673.4</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -8930,14 +8930,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>HUAROCHIRI</t>
+          <t>RICARDO PALMA</t>
         </is>
       </c>
       <c r="D330">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E330">
-        <v>589.23</v>
+        <v>256.49</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -8956,14 +8956,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>RICARDO PALMA</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D331">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="E331">
-        <v>241.4</v>
+        <v>2169.25</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -8982,14 +8982,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>SAN DAMIAN</t>
         </is>
       </c>
       <c r="D332">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E332">
-        <v>2085.82</v>
+        <v>91.83</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -9008,14 +9008,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>SAN DAMIAN</t>
+          <t>SAN MATEO</t>
         </is>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E333">
-        <v>91.83</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -9034,14 +9034,14 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>SAN MATEO</t>
+          <t>SAN MATEO DE OTAO</t>
         </is>
       </c>
       <c r="D334">
         <v>3</v>
       </c>
       <c r="E334">
-        <v>79.01000000000001</v>
+        <v>235.66</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9060,14 +9060,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>SAN MATEO DE OTAO</t>
+          <t>SANTA CRUZ DE COCACHACRA</t>
         </is>
       </c>
       <c r="D335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E335">
-        <v>157.11</v>
+        <v>115.47</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -9086,14 +9086,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE COCACHACRA</t>
+          <t>SANTA EULALIA</t>
         </is>
       </c>
       <c r="D336">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E336">
-        <v>115.47</v>
+        <v>211.5</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -9112,14 +9112,14 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>SANTA EULALIA</t>
+          <t>SANTO DOMINGO DE LOS OLLEROS</t>
         </is>
       </c>
       <c r="D337">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E337">
-        <v>211.5</v>
+        <v>59.05</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9138,14 +9138,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE LOS OLLEROS</t>
+          <t>SURCO</t>
         </is>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E338">
-        <v>59.05</v>
+        <v>304.18</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9159,19 +9159,19 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>HUAROCHIRI</t>
+          <t>HUAURA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>SURCO</t>
+          <t>HUACHO</t>
         </is>
       </c>
       <c r="D339">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E339">
-        <v>228.14</v>
+        <v>8.24</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9190,14 +9190,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>HUACHO</t>
+          <t>HUALMAY</t>
         </is>
       </c>
       <c r="D340">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E340">
-        <v>8.24</v>
+        <v>13.58</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9216,14 +9216,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>HUALMAY</t>
+          <t>HUAURA</t>
         </is>
       </c>
       <c r="D341">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E341">
-        <v>20.37</v>
+        <v>10.47</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9242,14 +9242,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>HUAURA</t>
+          <t>SANTA MARIA</t>
         </is>
       </c>
       <c r="D342">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E342">
-        <v>5.24</v>
+        <v>26.92</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9268,14 +9268,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>SANTA MARIA</t>
+          <t>SAYAN</t>
         </is>
       </c>
       <c r="D343">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E343">
-        <v>24.47</v>
+        <v>3.92</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9294,14 +9294,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>SAYAN</t>
+          <t>VEGUETA</t>
         </is>
       </c>
       <c r="D344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E344">
-        <v>7.85</v>
+        <v>3.39</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         </is>
       </c>
       <c r="D345">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E345">
-        <v>434.35</v>
+        <v>445.32</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="D346">
-        <v>1572</v>
+        <v>1622</v>
       </c>
       <c r="E346">
-        <v>220.45</v>
+        <v>227.46</v>
       </c>
       <c r="F346">
         <v>2</v>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="D348">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E348">
-        <v>24.51</v>
+        <v>25.53</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -9428,10 +9428,10 @@
         </is>
       </c>
       <c r="D349">
-        <v>1000</v>
+        <v>1046</v>
       </c>
       <c r="E349">
-        <v>234.2</v>
+        <v>244.97</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="D350">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E350">
-        <v>1609.52</v>
+        <v>1622.5</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         </is>
       </c>
       <c r="D351">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E351">
-        <v>39.38</v>
+        <v>40.71</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="D352">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E352">
-        <v>366.25</v>
+        <v>385.91</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         </is>
       </c>
       <c r="D353">
-        <v>1558</v>
+        <v>1639</v>
       </c>
       <c r="E353">
-        <v>260.42</v>
+        <v>273.96</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -9558,10 +9558,10 @@
         </is>
       </c>
       <c r="D354">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E354">
-        <v>68.87</v>
+        <v>76.58</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -9584,10 +9584,10 @@
         </is>
       </c>
       <c r="D355">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="E355">
-        <v>223.01</v>
+        <v>240.63</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         </is>
       </c>
       <c r="D356">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E356">
-        <v>59.84</v>
+        <v>62.14</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9636,10 +9636,10 @@
         </is>
       </c>
       <c r="D357">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E357">
-        <v>107.2</v>
+        <v>110.76</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9662,10 +9662,10 @@
         </is>
       </c>
       <c r="D358">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E358">
-        <v>30.16</v>
+        <v>31.18</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="D359">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E359">
-        <v>68.36</v>
+        <v>69.44</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         </is>
       </c>
       <c r="D360">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E360">
-        <v>83</v>
+        <v>78.3</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="D361">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E361">
-        <v>74.98</v>
+        <v>77.44</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="D362">
-        <v>1119</v>
+        <v>1149</v>
       </c>
       <c r="E362">
-        <v>368.13</v>
+        <v>378</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -9792,10 +9792,10 @@
         </is>
       </c>
       <c r="D363">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E363">
-        <v>105.78</v>
+        <v>107.52</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         </is>
       </c>
       <c r="D364">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E364">
-        <v>33.1</v>
+        <v>34.54</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E365">
-        <v>27.46</v>
+        <v>29.18</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9870,10 +9870,10 @@
         </is>
       </c>
       <c r="D366">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E366">
-        <v>152.1</v>
+        <v>151.45</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="D367">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E367">
-        <v>167.74</v>
+        <v>201.29</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         </is>
       </c>
       <c r="D369">
-        <v>1141</v>
+        <v>1190</v>
       </c>
       <c r="E369">
-        <v>273.93</v>
+        <v>285.69</v>
       </c>
       <c r="F369">
         <v>1</v>
@@ -10000,10 +10000,10 @@
         </is>
       </c>
       <c r="D371">
-        <v>865</v>
+        <v>903</v>
       </c>
       <c r="E371">
-        <v>461.43</v>
+        <v>481.7</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="D373">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E373">
-        <v>26.25</v>
+        <v>28.5</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="D374">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E374">
-        <v>26.75</v>
+        <v>28.15</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -10104,10 +10104,10 @@
         </is>
       </c>
       <c r="D375">
-        <v>3271</v>
+        <v>3308</v>
       </c>
       <c r="E375">
-        <v>263.69</v>
+        <v>266.67</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         </is>
       </c>
       <c r="D376">
-        <v>2279</v>
+        <v>2289</v>
       </c>
       <c r="E376">
-        <v>529.05</v>
+        <v>531.37</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="D377">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E377">
-        <v>29.31</v>
+        <v>32.76</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10182,10 +10182,10 @@
         </is>
       </c>
       <c r="D378">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="E378">
-        <v>109.2</v>
+        <v>111.11</v>
       </c>
       <c r="F378">
         <v>1</v>
@@ -10234,10 +10234,10 @@
         </is>
       </c>
       <c r="D380">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E380">
-        <v>51.56</v>
+        <v>54.14</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         </is>
       </c>
       <c r="D382">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E382">
-        <v>100.92</v>
+        <v>108.12</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         </is>
       </c>
       <c r="D383">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E383">
-        <v>24.84</v>
+        <v>25.78</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -10338,10 +10338,10 @@
         </is>
       </c>
       <c r="D384">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E384">
-        <v>21.94</v>
+        <v>22.89</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         </is>
       </c>
       <c r="D385">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E385">
-        <v>49.57</v>
+        <v>50.48</v>
       </c>
       <c r="F385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="D386">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="E386">
-        <v>169.5</v>
+        <v>172.11</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         </is>
       </c>
       <c r="D397">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="E397">
-        <v>1682.37</v>
+        <v>1684.16</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -10858,10 +10858,10 @@
         </is>
       </c>
       <c r="D404">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E404">
-        <v>331.31</v>
+        <v>328.46</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         </is>
       </c>
       <c r="D406">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E406">
-        <v>265.89</v>
+        <v>253.23</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -10936,10 +10936,10 @@
         </is>
       </c>
       <c r="D407">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E407">
-        <v>194.57</v>
+        <v>185.73</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -10962,10 +10962,10 @@
         </is>
       </c>
       <c r="D408">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E408">
-        <v>42.26</v>
+        <v>35.22</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -11118,10 +11118,10 @@
         </is>
       </c>
       <c r="D414">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E414">
-        <v>436.15</v>
+        <v>297.69</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -11196,10 +11196,10 @@
         </is>
       </c>
       <c r="D417">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="E417">
-        <v>735.59</v>
+        <v>733.77</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11274,10 +11274,10 @@
         </is>
       </c>
       <c r="D420">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E420">
-        <v>49.48</v>
+        <v>43.98</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="D421">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E421">
-        <v>1404.95</v>
+        <v>1402.76</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="D422">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="E422">
-        <v>402.03</v>
+        <v>380.6</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11820,10 +11820,10 @@
         </is>
       </c>
       <c r="D441">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E441">
-        <v>554.1</v>
+        <v>538.71</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -11846,10 +11846,10 @@
         </is>
       </c>
       <c r="D442">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E442">
-        <v>2779.21</v>
+        <v>2796.36</v>
       </c>
       <c r="F442">
         <v>0</v>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="D443">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E443">
-        <v>712.8</v>
+        <v>891</v>
       </c>
       <c r="F443">
         <v>0</v>
@@ -11976,10 +11976,10 @@
         </is>
       </c>
       <c r="D447">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E447">
-        <v>1031.31</v>
+        <v>1017.5</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -12002,10 +12002,10 @@
         </is>
       </c>
       <c r="D448">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="E448">
-        <v>1027.41</v>
+        <v>1037.31</v>
       </c>
       <c r="F448">
         <v>1</v>
@@ -12028,10 +12028,10 @@
         </is>
       </c>
       <c r="D449">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E449">
-        <v>766.96</v>
+        <v>761.6</v>
       </c>
       <c r="F449">
         <v>0</v>
@@ -12418,10 +12418,10 @@
         </is>
       </c>
       <c r="D464">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E464">
-        <v>2572.67</v>
+        <v>2656.2</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -12470,10 +12470,10 @@
         </is>
       </c>
       <c r="D466">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E466">
-        <v>58.12</v>
+        <v>54.7</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -12522,10 +12522,10 @@
         </is>
       </c>
       <c r="D468">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E468">
-        <v>677.3200000000001</v>
+        <v>761.99</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="D472">
-        <v>4752</v>
+        <v>4793</v>
       </c>
       <c r="E472">
-        <v>5179.07</v>
+        <v>5223.75</v>
       </c>
       <c r="F472">
         <v>8</v>
@@ -12652,10 +12652,10 @@
         </is>
       </c>
       <c r="D473">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E473">
-        <v>2757.12</v>
+        <v>2763.53</v>
       </c>
       <c r="F473">
         <v>1</v>
@@ -12678,10 +12678,10 @@
         </is>
       </c>
       <c r="D474">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E474">
-        <v>4037.87</v>
+        <v>4050.09</v>
       </c>
       <c r="F474">
         <v>1</v>
@@ -12704,10 +12704,10 @@
         </is>
       </c>
       <c r="D475">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E475">
-        <v>3115.93</v>
+        <v>3126.68</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12756,10 +12756,10 @@
         </is>
       </c>
       <c r="D477">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E477">
-        <v>685.47</v>
+        <v>843.66</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -12834,10 +12834,10 @@
         </is>
       </c>
       <c r="D480">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E480">
-        <v>4239.88</v>
+        <v>4278.07</v>
       </c>
       <c r="F480">
         <v>1</v>
@@ -12886,10 +12886,10 @@
         </is>
       </c>
       <c r="D482">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E482">
-        <v>2630.54</v>
+        <v>2687.11</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -12912,10 +12912,10 @@
         </is>
       </c>
       <c r="D483">
-        <v>1550</v>
+        <v>1602</v>
       </c>
       <c r="E483">
-        <v>10462.37</v>
+        <v>10813.36</v>
       </c>
       <c r="F483">
         <v>2</v>
@@ -12938,10 +12938,10 @@
         </is>
       </c>
       <c r="D484">
-        <v>1538</v>
+        <v>1584</v>
       </c>
       <c r="E484">
-        <v>1417.64</v>
+        <v>1460.04</v>
       </c>
       <c r="F484">
         <v>1</v>
@@ -12964,10 +12964,10 @@
         </is>
       </c>
       <c r="D485">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E485">
-        <v>1481.88</v>
+        <v>1499.73</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -12990,10 +12990,10 @@
         </is>
       </c>
       <c r="D486">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E486">
-        <v>899.5</v>
+        <v>992.5599999999999</v>
       </c>
       <c r="F486">
         <v>0</v>
@@ -13016,10 +13016,10 @@
         </is>
       </c>
       <c r="D487">
-        <v>6092</v>
+        <v>6148</v>
       </c>
       <c r="E487">
-        <v>3112.04</v>
+        <v>3140.64</v>
       </c>
       <c r="F487">
         <v>13</v>
@@ -13042,10 +13042,10 @@
         </is>
       </c>
       <c r="D488">
-        <v>2026</v>
+        <v>2054</v>
       </c>
       <c r="E488">
-        <v>2392.06</v>
+        <v>2425.12</v>
       </c>
       <c r="F488">
         <v>2</v>
@@ -13094,10 +13094,10 @@
         </is>
       </c>
       <c r="D490">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E490">
-        <v>4723.46</v>
+        <v>4895.23</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         </is>
       </c>
       <c r="D491">
-        <v>948</v>
+        <v>967</v>
       </c>
       <c r="E491">
-        <v>2194.19</v>
+        <v>2238.17</v>
       </c>
       <c r="F491">
         <v>1</v>
@@ -13146,13 +13146,13 @@
         </is>
       </c>
       <c r="D492">
-        <v>1535</v>
+        <v>1554</v>
       </c>
       <c r="E492">
-        <v>3302.85</v>
+        <v>3343.73</v>
       </c>
       <c r="F492">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493">
@@ -13172,10 +13172,10 @@
         </is>
       </c>
       <c r="D493">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E493">
-        <v>551.9400000000001</v>
+        <v>575.0700000000001</v>
       </c>
       <c r="F493">
         <v>0</v>
@@ -13198,13 +13198,13 @@
         </is>
       </c>
       <c r="D494">
-        <v>6703</v>
+        <v>6911</v>
       </c>
       <c r="E494">
-        <v>3536.31</v>
+        <v>3646.04</v>
       </c>
       <c r="F494">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="495">
@@ -13224,10 +13224,10 @@
         </is>
       </c>
       <c r="D495">
-        <v>1668</v>
+        <v>1630</v>
       </c>
       <c r="E495">
-        <v>1278.37</v>
+        <v>1249.24</v>
       </c>
       <c r="F495">
         <v>4</v>
@@ -13250,10 +13250,10 @@
         </is>
       </c>
       <c r="D496">
-        <v>2809</v>
+        <v>2889</v>
       </c>
       <c r="E496">
-        <v>1426.58</v>
+        <v>1467.21</v>
       </c>
       <c r="F496">
         <v>8</v>
@@ -13276,10 +13276,10 @@
         </is>
       </c>
       <c r="D497">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E497">
-        <v>4062.84</v>
+        <v>4098.95</v>
       </c>
       <c r="F497">
         <v>0</v>
@@ -13328,10 +13328,10 @@
         </is>
       </c>
       <c r="D499">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E499">
-        <v>678.48</v>
+        <v>697.3200000000001</v>
       </c>
       <c r="F499">
         <v>0</v>
@@ -13354,10 +13354,10 @@
         </is>
       </c>
       <c r="D500">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E500">
-        <v>916.03</v>
+        <v>885.5</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -13380,10 +13380,10 @@
         </is>
       </c>
       <c r="D501">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="E501">
-        <v>915.35</v>
+        <v>942.59</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -13406,10 +13406,10 @@
         </is>
       </c>
       <c r="D502">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E502">
-        <v>911.09</v>
+        <v>942.51</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -13432,10 +13432,10 @@
         </is>
       </c>
       <c r="D503">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="E503">
-        <v>1860.71</v>
+        <v>1838.29</v>
       </c>
       <c r="F503">
         <v>4</v>
@@ -13458,10 +13458,10 @@
         </is>
       </c>
       <c r="D504">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="E504">
-        <v>2763.46</v>
+        <v>2807.89</v>
       </c>
       <c r="F504">
         <v>4</v>
@@ -13484,10 +13484,10 @@
         </is>
       </c>
       <c r="D505">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E505">
-        <v>227.54</v>
+        <v>242.22</v>
       </c>
       <c r="F505">
         <v>0</v>
@@ -13510,10 +13510,10 @@
         </is>
       </c>
       <c r="D506">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="E506">
-        <v>2829.06</v>
+        <v>2888.81</v>
       </c>
       <c r="F506">
         <v>0</v>
@@ -13536,10 +13536,10 @@
         </is>
       </c>
       <c r="D507">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="E507">
-        <v>3428.84</v>
+        <v>3748.24</v>
       </c>
       <c r="F507">
         <v>0</v>
@@ -13562,10 +13562,10 @@
         </is>
       </c>
       <c r="D508">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="E508">
-        <v>2388.1</v>
+        <v>2422.61</v>
       </c>
       <c r="F508">
         <v>2</v>
@@ -13588,10 +13588,10 @@
         </is>
       </c>
       <c r="D509">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E509">
-        <v>2029.82</v>
+        <v>2180.18</v>
       </c>
       <c r="F509">
         <v>0</v>
@@ -13614,10 +13614,10 @@
         </is>
       </c>
       <c r="D510">
-        <v>3702</v>
+        <v>3816</v>
       </c>
       <c r="E510">
-        <v>1890.6</v>
+        <v>1948.82</v>
       </c>
       <c r="F510">
         <v>6</v>
@@ -13640,10 +13640,10 @@
         </is>
       </c>
       <c r="D511">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E511">
-        <v>588.99</v>
+        <v>610.41</v>
       </c>
       <c r="F511">
         <v>0</v>
@@ -13718,10 +13718,10 @@
         </is>
       </c>
       <c r="D514">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E514">
-        <v>856.91</v>
+        <v>881.86</v>
       </c>
       <c r="F514">
         <v>0</v>
@@ -13744,10 +13744,10 @@
         </is>
       </c>
       <c r="D515">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E515">
-        <v>520.01</v>
+        <v>595.28</v>
       </c>
       <c r="F515">
         <v>0</v>
@@ -13770,10 +13770,10 @@
         </is>
       </c>
       <c r="D516">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E516">
-        <v>378.77</v>
+        <v>384.3</v>
       </c>
       <c r="F516">
         <v>2</v>
@@ -14628,10 +14628,10 @@
         </is>
       </c>
       <c r="D549">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E549">
-        <v>1070.68</v>
+        <v>1081.77</v>
       </c>
       <c r="F549">
         <v>1</v>
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="D552">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E552">
-        <v>402.9</v>
+        <v>423.05</v>
       </c>
       <c r="F552">
         <v>0</v>
@@ -14784,10 +14784,10 @@
         </is>
       </c>
       <c r="D555">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E555">
-        <v>627.62</v>
+        <v>636.63</v>
       </c>
       <c r="F555">
         <v>2</v>
@@ -14888,10 +14888,10 @@
         </is>
       </c>
       <c r="D559">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E559">
-        <v>133.31</v>
+        <v>174.97</v>
       </c>
       <c r="F559">
         <v>0</v>
@@ -15096,10 +15096,10 @@
         </is>
       </c>
       <c r="D567">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E567">
-        <v>146.89</v>
+        <v>151.21</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -15122,10 +15122,10 @@
         </is>
       </c>
       <c r="D568">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E568">
-        <v>180.62</v>
+        <v>184.68</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -15486,10 +15486,10 @@
         </is>
       </c>
       <c r="D582">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E582">
-        <v>1490.4</v>
+        <v>1494.17</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -15512,10 +15512,10 @@
         </is>
       </c>
       <c r="D583">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E583">
-        <v>864.1900000000001</v>
+        <v>877.12</v>
       </c>
       <c r="F583">
         <v>0</v>
@@ -15642,10 +15642,10 @@
         </is>
       </c>
       <c r="D588">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E588">
-        <v>666.3099999999999</v>
+        <v>668.61</v>
       </c>
       <c r="F588">
         <v>2</v>
@@ -15668,10 +15668,10 @@
         </is>
       </c>
       <c r="D589">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E589">
-        <v>1081.59</v>
+        <v>1183.48</v>
       </c>
       <c r="F589">
         <v>0</v>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="D590">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E590">
-        <v>436.84</v>
+        <v>454.67</v>
       </c>
       <c r="F590">
         <v>0</v>
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="D592">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E592">
-        <v>520.15</v>
+        <v>565.1</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -15772,10 +15772,10 @@
         </is>
       </c>
       <c r="D593">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E593">
-        <v>499.97</v>
+        <v>493.3</v>
       </c>
       <c r="F593">
         <v>0</v>
@@ -15798,10 +15798,10 @@
         </is>
       </c>
       <c r="D594">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E594">
-        <v>495.23</v>
+        <v>483.15</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -15824,10 +15824,10 @@
         </is>
       </c>
       <c r="D595">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E595">
-        <v>1156.27</v>
+        <v>1191.31</v>
       </c>
       <c r="F595">
         <v>0</v>
@@ -15850,10 +15850,10 @@
         </is>
       </c>
       <c r="D596">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E596">
-        <v>2007.37</v>
+        <v>2014.2</v>
       </c>
       <c r="F596">
         <v>0</v>
@@ -15876,10 +15876,10 @@
         </is>
       </c>
       <c r="D597">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E597">
-        <v>1285.36</v>
+        <v>1296.73</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -15902,10 +15902,10 @@
         </is>
       </c>
       <c r="D598">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E598">
-        <v>882.5599999999999</v>
+        <v>675.4299999999999</v>
       </c>
       <c r="F598">
         <v>0</v>
@@ -15928,10 +15928,10 @@
         </is>
       </c>
       <c r="D599">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E599">
-        <v>963.89</v>
+        <v>1028.15</v>
       </c>
       <c r="F599">
         <v>0</v>
@@ -15954,10 +15954,10 @@
         </is>
       </c>
       <c r="D600">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E600">
-        <v>1101.51</v>
+        <v>1155.51</v>
       </c>
       <c r="F600">
         <v>0</v>
@@ -16006,10 +16006,10 @@
         </is>
       </c>
       <c r="D602">
-        <v>1118</v>
+        <v>1194</v>
       </c>
       <c r="E602">
-        <v>946.9400000000001</v>
+        <v>1011.31</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -16032,10 +16032,10 @@
         </is>
       </c>
       <c r="D603">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E603">
-        <v>341.13</v>
+        <v>360.9</v>
       </c>
       <c r="F603">
         <v>0</v>
@@ -16084,10 +16084,10 @@
         </is>
       </c>
       <c r="D605">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E605">
-        <v>1261.96</v>
+        <v>1354.94</v>
       </c>
       <c r="F605">
         <v>0</v>
@@ -16110,10 +16110,10 @@
         </is>
       </c>
       <c r="D606">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E606">
-        <v>726.9400000000001</v>
+        <v>730.63</v>
       </c>
       <c r="F606">
         <v>1</v>
@@ -16136,10 +16136,10 @@
         </is>
       </c>
       <c r="D607">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E607">
-        <v>950.75</v>
+        <v>953.0599999999999</v>
       </c>
       <c r="F607">
         <v>0</v>
@@ -16162,10 +16162,10 @@
         </is>
       </c>
       <c r="D608">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E608">
-        <v>568.96</v>
+        <v>637.23</v>
       </c>
       <c r="F608">
         <v>0</v>
@@ -16240,13 +16240,13 @@
         </is>
       </c>
       <c r="D611">
-        <v>3820</v>
+        <v>3831</v>
       </c>
       <c r="E611">
-        <v>2102.35</v>
+        <v>2108.41</v>
       </c>
       <c r="F611">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="D614">
-        <v>1616</v>
+        <v>1627</v>
       </c>
       <c r="E614">
-        <v>1404.18</v>
+        <v>1413.74</v>
       </c>
       <c r="F614">
         <v>2</v>
@@ -16370,10 +16370,10 @@
         </is>
       </c>
       <c r="D616">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E616">
-        <v>2593.8</v>
+        <v>2659.05</v>
       </c>
       <c r="F616">
         <v>0</v>
@@ -16396,10 +16396,10 @@
         </is>
       </c>
       <c r="D617">
-        <v>1464</v>
+        <v>1475</v>
       </c>
       <c r="E617">
-        <v>1158.96</v>
+        <v>1167.67</v>
       </c>
       <c r="F617">
         <v>5</v>
@@ -16422,10 +16422,10 @@
         </is>
       </c>
       <c r="D618">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E618">
-        <v>719.75</v>
+        <v>704.4400000000001</v>
       </c>
       <c r="F618">
         <v>0</v>
@@ -16526,10 +16526,10 @@
         </is>
       </c>
       <c r="D622">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E622">
-        <v>438.6</v>
+        <v>431.16</v>
       </c>
       <c r="F622">
         <v>0</v>
@@ -16552,10 +16552,10 @@
         </is>
       </c>
       <c r="D623">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E623">
-        <v>836.27</v>
+        <v>827.46</v>
       </c>
       <c r="F623">
         <v>0</v>
@@ -16578,10 +16578,10 @@
         </is>
       </c>
       <c r="D624">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E624">
-        <v>1158.74</v>
+        <v>1155.6</v>
       </c>
       <c r="F624">
         <v>0</v>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F636"/>
+  <dimension ref="A1:F638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="E3">
-        <v>2198.09</v>
+        <v>2237.46</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>2440.88</v>
+        <v>2593.44</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E6">
-        <v>954.77</v>
+        <v>914.39</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>1256.32</v>
+        <v>1133.75</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E13">
-        <v>1208.02</v>
+        <v>1246.57</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>181.28</v>
+        <v>196.82</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E17">
-        <v>290.2</v>
+        <v>360.68</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>876.92</v>
+        <v>907.6900000000001</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="E24">
-        <v>840.83</v>
+        <v>885.2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="D32">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E32">
-        <v>1221.6</v>
+        <v>1264.34</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1238,10 +1238,10 @@
         </is>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>7.34</v>
+        <v>3.67</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="D36">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E36">
-        <v>159.54</v>
+        <v>156.36</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>66.79000000000001</v>
+        <v>55.66</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="D39">
-        <v>851</v>
+        <v>915</v>
       </c>
       <c r="E39">
-        <v>5651.11</v>
+        <v>6076.1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="D40">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E40">
-        <v>98.84</v>
+        <v>103.57</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="D42">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E42">
-        <v>742.35</v>
+        <v>754.86</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>9.210000000000001</v>
+        <v>18.43</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>ANDRES AVELINO CACERES D.</t>
         </is>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>4.26</v>
+        <v>3.13</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1598,14 +1598,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>1.76</v>
+        <v>3.4</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1624,14 +1624,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>13.57</v>
+        <v>1.76</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1645,19 +1645,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D50">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1063.59</v>
+        <v>13.57</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1676,14 +1676,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D51">
         <v>47</v>
       </c>
       <c r="E51">
-        <v>405.52</v>
+        <v>1063.59</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1702,14 +1702,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E52">
-        <v>15.81</v>
+        <v>414.15</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1728,14 +1728,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SANTILLANA</t>
+          <t>LURICOCHA</t>
         </is>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>28.01</v>
+        <v>15.81</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>SANTILLANA</t>
         </is>
       </c>
       <c r="D54">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1612.19</v>
+        <v>28.01</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1775,19 +1775,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E55">
-        <v>24.34</v>
+        <v>1621</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>35.93</v>
+        <v>24.34</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1832,14 +1832,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D57">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>1215.24</v>
+        <v>35.93</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1858,14 +1858,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CHUNGUI</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="E58">
-        <v>46.46</v>
+        <v>1225.54</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1884,14 +1884,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>CHUNGUI</t>
         </is>
       </c>
       <c r="D59">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>2063.27</v>
+        <v>46.46</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1910,14 +1910,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E60">
-        <v>351.27</v>
+        <v>1879.87</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1936,14 +1936,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E61">
-        <v>36.51</v>
+        <v>339.94</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1962,14 +1962,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D62">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>471.21</v>
+        <v>48.69</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1988,17 +1988,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D63">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E63">
-        <v>649.95</v>
+        <v>431.28</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2009,22 +2009,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D64">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>649.95</v>
+      </c>
+      <c r="F64">
         <v>1</v>
-      </c>
-      <c r="E64">
-        <v>40.11</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>7.18</v>
+        <v>40.11</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2061,19 +2061,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>16.66</v>
+        <v>7.18</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2082,24 +2082,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>5.66</v>
+        <v>16.66</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2113,19 +2113,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>13.07</v>
+        <v>5.66</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2144,14 +2144,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>5.9</v>
+        <v>13.07</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2170,14 +2170,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>COSPAN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>27.37</v>
+        <v>5.9</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>55.25</v>
+        <v>27.37</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2217,19 +2217,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>3.41</v>
+        <v>44.2</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2248,14 +2248,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>UTCO</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>283.29</v>
+        <v>3.41</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2269,19 +2269,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>UTCO</t>
         </is>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>10.59</v>
+        <v>283.29</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CHIGUIRIP</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>28.89</v>
+        <v>10.59</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2326,14 +2326,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CHIGUIRIP</t>
         </is>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>19.42</v>
+        <v>28.89</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HUAMBOS</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>11.95</v>
+        <v>19.42</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2378,14 +2378,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>HUAMBOS</t>
         </is>
       </c>
       <c r="D78">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>252.14</v>
+        <v>11.95</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2404,14 +2404,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MIRACOSTA</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E79">
-        <v>31.08</v>
+        <v>252.14</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2430,14 +2430,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>MIRACOSTA</t>
         </is>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>11.56</v>
+        <v>31.08</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2456,14 +2456,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>105.04</v>
+        <v>11.56</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2482,14 +2482,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TACABAMBA</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>12.38</v>
+        <v>105.04</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>TACABAMBA</t>
         </is>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>117.23</v>
+        <v>12.38</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2529,19 +2529,19 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D84">
-        <v>458</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>17328.79</v>
+        <v>117.23</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D85">
-        <v>59</v>
+        <v>450</v>
       </c>
       <c r="E85">
-        <v>752.0700000000001</v>
+        <v>17026.11</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D86">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E86">
-        <v>1188.65</v>
+        <v>713.83</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2612,14 +2612,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D87">
-        <v>693</v>
+        <v>39</v>
       </c>
       <c r="E87">
-        <v>10248.45</v>
+        <v>1495.4</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2633,19 +2633,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>698</v>
       </c>
       <c r="E88">
-        <v>31.47</v>
+        <v>10322.39</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>5.95</v>
+        <v>31.47</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PIMPINGOS</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>20.29</v>
+        <v>5.95</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2716,14 +2716,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>PIMPINGOS</t>
         </is>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>7.8</v>
+        <v>20.29</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2742,14 +2742,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>11.3</v>
+        <v>7.8</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2763,19 +2763,19 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D93">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>1266.05</v>
+        <v>11.3</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2794,14 +2794,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D94">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="E94">
-        <v>123.25</v>
+        <v>1314.28</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2820,14 +2820,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HUABAL</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E95">
-        <v>10.91</v>
+        <v>123.25</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>HUABAL</t>
         </is>
       </c>
       <c r="D96">
-        <v>2764</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>2530.93</v>
+        <v>10.91</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2872,17 +2872,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2813</v>
       </c>
       <c r="E97">
-        <v>10.59</v>
+        <v>2575.8</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2898,14 +2898,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D98">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>471.02</v>
+        <v>21.18</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SALLIQUE</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E99">
-        <v>78.95999999999999</v>
+        <v>542.39</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2950,14 +2950,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>SALLIQUE</t>
         </is>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>21.51</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>48.53</v>
+        <v>21.51</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3002,14 +3002,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E102">
-        <v>68.64</v>
+        <v>36.4</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3023,19 +3023,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D103">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E103">
-        <v>115.76</v>
+        <v>68.64</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3054,14 +3054,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D104">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="E104">
-        <v>758.1900000000001</v>
+        <v>115.76</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3080,14 +3080,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="E105">
-        <v>13.83</v>
+        <v>758.1900000000001</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3106,14 +3106,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>50.17</v>
+        <v>13.83</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3132,14 +3132,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D107">
-        <v>389</v>
+        <v>5</v>
       </c>
       <c r="E107">
-        <v>939.16</v>
+        <v>50.17</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3158,14 +3158,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="E108">
-        <v>39.76</v>
+        <v>951.23</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3184,14 +3184,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D109">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>118.02</v>
+        <v>39.76</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3205,19 +3205,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PEDRO GALVEZ</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>4.58</v>
+        <v>118.02</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3231,19 +3231,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>81.5</v>
+        <v>4.58</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CALQUIS</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>23.87</v>
+        <v>81.5</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3288,14 +3288,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NANCHOC</t>
+          <t>CALQUIS</t>
         </is>
       </c>
       <c r="D113">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>2867.92</v>
+        <v>23.87</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3314,14 +3314,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>NANCHOC</t>
         </is>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E114">
-        <v>29.71</v>
+        <v>3245.28</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>28.39</v>
+        <v>29.71</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3361,19 +3361,19 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D116">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>509.64</v>
+        <v>28.39</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3387,19 +3387,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E117">
-        <v>10.32</v>
+        <v>553.96</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3418,14 +3418,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>31.65</v>
+        <v>10.32</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3434,24 +3434,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D119">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>83.05</v>
+        <v>31.65</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3470,14 +3470,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D120">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="E120">
-        <v>59.92</v>
+        <v>86.66</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3496,14 +3496,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D121">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="E121">
-        <v>66.31</v>
+        <v>62.9</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3522,14 +3522,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D122">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E122">
-        <v>21.26</v>
+        <v>68.38</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E123">
-        <v>49.96</v>
+        <v>24.3</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3574,14 +3574,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D124">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>551.86</v>
+        <v>49.96</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3600,43 +3600,43 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D125">
-        <v>1140</v>
+        <v>317</v>
       </c>
       <c r="E125">
-        <v>287.13</v>
+        <v>577.36</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>1216</v>
       </c>
       <c r="E126">
-        <v>4.17</v>
+        <v>306.28</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3652,17 +3652,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="D127">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>681.36</v>
+        <v>4.17</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3673,22 +3673,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D128">
+        <v>64</v>
+      </c>
+      <c r="E128">
+        <v>681.36</v>
+      </c>
+      <c r="F128">
         <v>1</v>
-      </c>
-      <c r="E128">
-        <v>18.08</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3699,19 +3699,19 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D129">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>4.89</v>
+        <v>18.08</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3730,14 +3730,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SAN SEBASTIAN</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E130">
-        <v>0.7</v>
+        <v>4.89</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3751,19 +3751,19 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>2.54</v>
+        <v>0.7</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3777,19 +3777,19 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="D132">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>957.16</v>
+        <v>2.54</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,14 +3808,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D133">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E133">
-        <v>371.92</v>
+        <v>957.16</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3834,17 +3834,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D134">
-        <v>324</v>
+        <v>71</v>
       </c>
       <c r="E134">
-        <v>2323.75</v>
+        <v>377.24</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="E135">
-        <v>119.29</v>
+        <v>2345.26</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3886,14 +3886,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D136">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>1441.9</v>
+        <v>153.37</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E137">
-        <v>198.93</v>
+        <v>1441.9</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3938,14 +3938,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D138">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E138">
-        <v>936.51</v>
+        <v>198.93</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3964,14 +3964,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>OCOBAMBA</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E139">
-        <v>51.37</v>
+        <v>973</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3990,17 +3990,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>OCOBAMBA</t>
         </is>
       </c>
       <c r="D140">
-        <v>441</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>1873.8</v>
+        <v>51.37</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4016,17 +4016,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>445</v>
       </c>
       <c r="E141">
-        <v>53.53</v>
+        <v>1890.8</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4042,17 +4042,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D142">
-        <v>1044</v>
+        <v>8</v>
       </c>
       <c r="E142">
-        <v>3501.36</v>
+        <v>53.53</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SANTA TERESA</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D143">
+        <v>1051</v>
+      </c>
+      <c r="E143">
+        <v>3524.83</v>
+      </c>
+      <c r="F143">
         <v>1</v>
-      </c>
-      <c r="E143">
-        <v>14.55</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>SANTA TERESA</t>
         </is>
       </c>
       <c r="D144">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>961.02</v>
+        <v>14.55</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4120,14 +4120,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D145">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E145">
-        <v>3445.48</v>
+        <v>961.02</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4146,14 +4146,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D146">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E146">
-        <v>2362.2</v>
+        <v>3445.48</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4167,19 +4167,19 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D147">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E147">
-        <v>992.28</v>
+        <v>2362.2</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4193,19 +4193,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E148">
-        <v>16.85</v>
+        <v>992.28</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4214,24 +4214,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149">
-        <v>4.21</v>
+        <v>16.85</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4245,19 +4245,19 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DOS DE MAYO</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>YANAS</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
       <c r="E150">
-        <v>49.58</v>
+        <v>4.21</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4271,19 +4271,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>DOS DE MAYO</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>LLATA</t>
+          <t>YANAS</t>
         </is>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151">
-        <v>7.43</v>
+        <v>49.58</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4302,14 +4302,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MONZON</t>
+          <t>LLATA</t>
         </is>
       </c>
       <c r="D152">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>452.65</v>
+        <v>7.43</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4323,19 +4323,19 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>AMARILIS</t>
+          <t>MONZON</t>
         </is>
       </c>
       <c r="D153">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E153">
-        <v>42.62</v>
+        <v>470.76</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4354,14 +4354,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>CHINCHAO</t>
+          <t>AMARILIS</t>
         </is>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E154">
-        <v>15</v>
+        <v>45.9</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4380,14 +4380,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>CHINCHAO</t>
         </is>
       </c>
       <c r="D155">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>9.19</v>
+        <v>15</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>PILLCO MARCA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E156">
-        <v>5.52</v>
+        <v>8.17</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4427,19 +4427,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CASTILLO GRANDE</t>
+          <t>PILLCO MARCA</t>
         </is>
       </c>
       <c r="D157">
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="E157">
-        <v>2334.27</v>
+        <v>5.52</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4458,14 +4458,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DANIEL ALOMIA ROBLES</t>
+          <t>CASTILLO GRANDE</t>
         </is>
       </c>
       <c r="D158">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="E158">
-        <v>621.5599999999999</v>
+        <v>2355.81</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4484,14 +4484,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HERMILIO VALDIZAN</t>
+          <t>DANIEL ALOMIA ROBLES</t>
         </is>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E159">
-        <v>162.34</v>
+        <v>621.5599999999999</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4510,14 +4510,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>JOSE CRESPO Y CASTILLO</t>
+          <t>HERMILIO VALDIZAN</t>
         </is>
       </c>
       <c r="D160">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>419.96</v>
+        <v>162.34</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4536,14 +4536,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>LUYANDO</t>
+          <t>JOSE CRESPO Y CASTILLO</t>
         </is>
       </c>
       <c r="D161">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="E161">
-        <v>1894.17</v>
+        <v>415.84</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MARIANO DAMASO BERAUN</t>
+          <t>LUYANDO</t>
         </is>
       </c>
       <c r="D162">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="E162">
-        <v>620.64</v>
+        <v>1925.06</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4588,14 +4588,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PUCAYACU</t>
+          <t>MARIANO DAMASO BERAUN</t>
         </is>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E163">
-        <v>50.84</v>
+        <v>629.26</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4614,14 +4614,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PUCAYACU</t>
         </is>
       </c>
       <c r="D164">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>368.83</v>
+        <v>50.84</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4640,14 +4640,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D165">
-        <v>1054</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>1740.19</v>
+        <v>368.83</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4666,14 +4666,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ANDA</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="D166">
-        <v>9</v>
+        <v>1050</v>
       </c>
       <c r="E166">
-        <v>345.36</v>
+        <v>1733.59</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4687,19 +4687,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CHOLON</t>
+          <t>SANTO DOMINGO DE ANDA</t>
         </is>
       </c>
       <c r="D167">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>213.33</v>
+        <v>345.36</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4718,14 +4718,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>LA MORADA</t>
+          <t>CHOLON</t>
         </is>
       </c>
       <c r="D168">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>518.27</v>
+        <v>213.33</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4744,14 +4744,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE ALTO YANAJANCA</t>
+          <t>LA MORADA</t>
         </is>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E169">
-        <v>289.12</v>
+        <v>518.27</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4765,19 +4765,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>CHAGLLA</t>
+          <t>SANTA ROSA DE ALTO YANAJANCA</t>
         </is>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E170">
-        <v>41.23</v>
+        <v>289.12</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4791,19 +4791,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>CHAGLLA</t>
         </is>
       </c>
       <c r="D171">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>1644.77</v>
+        <v>41.23</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4822,14 +4822,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E172">
-        <v>123.51</v>
+        <v>1644.77</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D173">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="E173">
-        <v>2012.3</v>
+        <v>123.51</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4874,14 +4874,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D174">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="E174">
-        <v>264.43</v>
+        <v>2038.66</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4900,14 +4900,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D175">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E175">
-        <v>491.33</v>
+        <v>264.43</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4916,27 +4916,27 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D176">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="E176">
-        <v>1301.84</v>
+        <v>491.33</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CHAVIN</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D177">
+        <v>125</v>
+      </c>
+      <c r="E177">
+        <v>1312.34</v>
+      </c>
+      <c r="F177">
         <v>1</v>
-      </c>
-      <c r="E177">
-        <v>31.89</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4978,17 +4978,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>CHAVIN</t>
         </is>
       </c>
       <c r="D178">
-        <v>2087</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>2544.32</v>
+        <v>31.89</v>
       </c>
       <c r="F178">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5004,17 +5004,17 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D179">
-        <v>133</v>
+        <v>2119</v>
       </c>
       <c r="E179">
-        <v>868.77</v>
+        <v>2583.33</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180">
@@ -5030,14 +5030,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D180">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="E180">
-        <v>508.17</v>
+        <v>881.83</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D181">
-        <v>406</v>
+        <v>75</v>
       </c>
       <c r="E181">
-        <v>1316.05</v>
+        <v>515.04</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -5082,17 +5082,17 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D182">
-        <v>1873</v>
+        <v>418</v>
       </c>
       <c r="E182">
-        <v>2410.71</v>
+        <v>1354.94</v>
       </c>
       <c r="F182">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -5108,17 +5108,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D183">
-        <v>814</v>
+        <v>1888</v>
       </c>
       <c r="E183">
-        <v>2336.6</v>
+        <v>2430.01</v>
       </c>
       <c r="F183">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -5134,17 +5134,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D184">
-        <v>74</v>
+        <v>823</v>
       </c>
       <c r="E184">
-        <v>1066.13</v>
+        <v>2362.43</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185">
@@ -5155,22 +5155,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D185">
-        <v>1990</v>
+        <v>76</v>
       </c>
       <c r="E185">
-        <v>1094.72</v>
+        <v>1094.94</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5186,17 +5186,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D186">
-        <v>374</v>
+        <v>1997</v>
       </c>
       <c r="E186">
-        <v>749.5599999999999</v>
+        <v>1098.57</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5212,14 +5212,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D187">
-        <v>199</v>
+        <v>374</v>
       </c>
       <c r="E187">
-        <v>738.65</v>
+        <v>749.5599999999999</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -5238,17 +5238,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D188">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E188">
-        <v>2363.05</v>
+        <v>742.36</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5264,17 +5264,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D189">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="E189">
-        <v>629.14</v>
+        <v>2363.05</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -5290,14 +5290,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D190">
-        <v>744</v>
+        <v>56</v>
       </c>
       <c r="E190">
-        <v>1177.81</v>
+        <v>629.14</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5316,14 +5316,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D191">
-        <v>121</v>
+        <v>751</v>
       </c>
       <c r="E191">
-        <v>1466.31</v>
+        <v>1188.89</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -5342,17 +5342,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D192">
-        <v>372</v>
+        <v>121</v>
       </c>
       <c r="E192">
-        <v>1163.3</v>
+        <v>1466.31</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5368,17 +5368,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D193">
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="E193">
-        <v>2176.95</v>
+        <v>1172.68</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -5394,14 +5394,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D194">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="E194">
-        <v>1685.88</v>
+        <v>2188.59</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5420,14 +5420,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D195">
-        <v>499</v>
+        <v>274</v>
       </c>
       <c r="E195">
-        <v>1523.57</v>
+        <v>1698.28</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -5446,17 +5446,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D196">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="E196">
-        <v>1402.87</v>
+        <v>1523.57</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -5472,17 +5472,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D197">
-        <v>102</v>
+        <v>487</v>
       </c>
       <c r="E197">
-        <v>1845.82</v>
+        <v>1408.65</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5498,14 +5498,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E198">
-        <v>591.28</v>
+        <v>1936.3</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -5519,19 +5519,19 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D199">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>1509.92</v>
+        <v>591.28</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -5550,14 +5550,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D200">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E200">
-        <v>182.77</v>
+        <v>1553.06</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -5576,14 +5576,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E201">
-        <v>61.07</v>
+        <v>182.77</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D202">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>3121.45</v>
+        <v>61.07</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5628,17 +5628,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D203">
-        <v>463</v>
+        <v>1008</v>
       </c>
       <c r="E203">
-        <v>1754.78</v>
+        <v>3178.21</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5649,19 +5649,19 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D204">
-        <v>32</v>
+        <v>469</v>
       </c>
       <c r="E204">
-        <v>1729.73</v>
+        <v>1777.53</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5680,14 +5680,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D205">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="E205">
-        <v>1714.6</v>
+        <v>1729.73</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -5706,14 +5706,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D206">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="E206">
-        <v>762.6</v>
+        <v>1714.6</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -5732,14 +5732,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E207">
-        <v>186.39</v>
+        <v>762.6</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -5753,19 +5753,19 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>HUMAY</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E208">
-        <v>162.81</v>
+        <v>186.39</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5784,14 +5784,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>HUMAY</t>
         </is>
       </c>
       <c r="D209">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E209">
-        <v>366.35</v>
+        <v>162.81</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -5810,14 +5810,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>PARACAS</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D210">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E210">
-        <v>177.55</v>
+        <v>366.35</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -5836,17 +5836,17 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>PARACAS</t>
         </is>
       </c>
       <c r="D211">
-        <v>737</v>
+        <v>18</v>
       </c>
       <c r="E211">
-        <v>876.17</v>
+        <v>177.55</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5862,17 +5862,17 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>SAN ANDRES</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="D212">
-        <v>84</v>
+        <v>735</v>
       </c>
       <c r="E212">
-        <v>491.95</v>
+        <v>873.79</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5888,17 +5888,17 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SAN CLEMENTE</t>
+          <t>SAN ANDRES</t>
         </is>
       </c>
       <c r="D213">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="E213">
-        <v>607.39</v>
+        <v>509.52</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5914,40 +5914,40 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>TUPAC AMARU INCA</t>
+          <t>SAN CLEMENTE</t>
         </is>
       </c>
       <c r="D214">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="E214">
-        <v>1430.11</v>
+        <v>630.01</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>TUPAC AMARU INCA</t>
         </is>
       </c>
       <c r="D215">
-        <v>487</v>
+        <v>295</v>
       </c>
       <c r="E215">
-        <v>1653.03</v>
+        <v>1444.8</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -5966,17 +5966,17 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>PERENE</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="D216">
-        <v>675</v>
+        <v>485</v>
       </c>
       <c r="E216">
-        <v>1121.26</v>
+        <v>1646.24</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5992,17 +5992,17 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PICHANAQUI</t>
+          <t>PERENE</t>
         </is>
       </c>
       <c r="D217">
-        <v>281</v>
+        <v>678</v>
       </c>
       <c r="E217">
-        <v>669.6900000000001</v>
+        <v>1126.25</v>
       </c>
       <c r="F217">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -6018,17 +6018,17 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>SAN LUIS DE SHUARO</t>
+          <t>PICHANAQUI</t>
         </is>
       </c>
       <c r="D218">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="E218">
-        <v>811.25</v>
+        <v>672.0700000000001</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -6044,17 +6044,17 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>SAN RAMON</t>
+          <t>SAN LUIS DE SHUARO</t>
         </is>
       </c>
       <c r="D219">
-        <v>449</v>
+        <v>31</v>
       </c>
       <c r="E219">
-        <v>1519.77</v>
+        <v>838.29</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6070,17 +6070,17 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>VITOC</t>
+          <t>SAN RAMON</t>
         </is>
       </c>
       <c r="D220">
+        <v>452</v>
+      </c>
+      <c r="E220">
+        <v>1529.92</v>
+      </c>
+      <c r="F220">
         <v>3</v>
-      </c>
-      <c r="E220">
-        <v>185.99</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -6091,19 +6091,19 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>CHONGOS BAJO</t>
+          <t>VITOC</t>
         </is>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E221">
-        <v>20.57</v>
+        <v>185.99</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6117,19 +6117,19 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>CONCEPCION</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>CONCEPCION</t>
+          <t>CHONGOS BAJO</t>
         </is>
       </c>
       <c r="D222">
         <v>1</v>
       </c>
       <c r="E222">
-        <v>5.88</v>
+        <v>20.57</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6174,14 +6174,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="D224">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>7</v>
+        <v>0.55</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6200,14 +6200,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ACOBAMBA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E225">
-        <v>32.12</v>
+        <v>7</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -6221,19 +6221,19 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>SANTO DOMINGO DE ACOBAMBA</t>
         </is>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
       <c r="E226">
-        <v>22.28</v>
+        <v>16.06</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6252,14 +6252,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D227">
         <v>1</v>
       </c>
       <c r="E227">
-        <v>44.46</v>
+        <v>22.28</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6278,14 +6278,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
       <c r="E228">
-        <v>51.15</v>
+        <v>44.46</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -6299,19 +6299,19 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>47.69</v>
+        <v>51.15</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -6325,19 +6325,19 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D230">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E230">
-        <v>667.66</v>
+        <v>47.69</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6356,14 +6356,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E231">
-        <v>115.49</v>
+        <v>667.66</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -6382,14 +6382,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D232">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E232">
-        <v>174.41</v>
+        <v>115.49</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6408,14 +6408,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="E233">
-        <v>28.91</v>
+        <v>178.94</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D234">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>360.06</v>
+        <v>28.91</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -6460,14 +6460,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D235">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="E235">
-        <v>281.81</v>
+        <v>368.85</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -6486,14 +6486,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D236">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E236">
-        <v>191.36</v>
+        <v>301.54</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6512,14 +6512,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D237">
-        <v>307</v>
+        <v>60</v>
       </c>
       <c r="E237">
-        <v>696.71</v>
+        <v>197.95</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6538,14 +6538,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D238">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="E238">
-        <v>228.53</v>
+        <v>723.95</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6559,19 +6559,19 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E239">
-        <v>10.25</v>
+        <v>228.53</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6580,24 +6580,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="D240">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>651.14</v>
+        <v>10.25</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6616,14 +6616,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D241">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E241">
-        <v>147</v>
+        <v>723.48</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6642,14 +6642,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D242">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E242">
-        <v>517.66</v>
+        <v>150.34</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6668,14 +6668,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D243">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E243">
-        <v>111.77</v>
+        <v>536.14</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6694,14 +6694,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D244">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E244">
-        <v>208.94</v>
+        <v>121.93</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6720,14 +6720,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E245">
-        <v>31.61</v>
+        <v>225.79</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6746,14 +6746,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D246">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>69.77</v>
+        <v>31.61</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6767,19 +6767,19 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D247">
-        <v>838</v>
+        <v>15</v>
       </c>
       <c r="E247">
-        <v>1674.36</v>
+        <v>74.75</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6798,14 +6798,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>PACANGA</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="D248">
-        <v>62</v>
+        <v>861</v>
       </c>
       <c r="E248">
-        <v>242.26</v>
+        <v>1720.31</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PACANGA</t>
         </is>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E249">
-        <v>7.72</v>
+        <v>218.82</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6845,19 +6845,19 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>CASCAS</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D250">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>1173.66</v>
+        <v>7.72</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>SAYAPULLO</t>
+          <t>CASCAS</t>
         </is>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="E251">
-        <v>15.6</v>
+        <v>1208.8</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="D255">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="E255">
-        <v>1672.31</v>
+        <v>1694.32</v>
       </c>
       <c r="F255">
         <v>4</v>
@@ -7036,10 +7036,10 @@
         </is>
       </c>
       <c r="D257">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E257">
-        <v>173.47</v>
+        <v>152.53</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -7088,10 +7088,10 @@
         </is>
       </c>
       <c r="D259">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E259">
-        <v>199.76</v>
+        <v>169.8</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7110,14 +7110,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>CHILLIA</t>
+          <t>PARCOY</t>
         </is>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260">
-        <v>7.47</v>
+        <v>9.34</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>PARCOY</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E261">
-        <v>9.34</v>
+        <v>403.88</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7162,14 +7162,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>TAYABAMBA</t>
         </is>
       </c>
       <c r="D262">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E262">
-        <v>403.88</v>
+        <v>14.26</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -7183,19 +7183,19 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>SANCHEZ CARRION</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>TAYABAMBA</t>
+          <t>COCHORCO</t>
         </is>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>14.26</v>
+        <v>28.3</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -7214,14 +7214,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>COCHORCO</t>
+          <t>HUAMACHUCO</t>
         </is>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>18.86</v>
+        <v>1.18</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="D265">
-        <v>775</v>
+        <v>818</v>
       </c>
       <c r="E265">
-        <v>317.09</v>
+        <v>334.68</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         </is>
       </c>
       <c r="D266">
-        <v>862</v>
+        <v>936</v>
       </c>
       <c r="E266">
-        <v>2121.95</v>
+        <v>2304.11</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7296,10 +7296,10 @@
         </is>
       </c>
       <c r="D267">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="E267">
-        <v>589.65</v>
+        <v>627.36</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="D268">
-        <v>4498</v>
+        <v>4659</v>
       </c>
       <c r="E268">
-        <v>1887.09</v>
+        <v>1954.64</v>
       </c>
       <c r="F268">
         <v>4</v>
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="D269">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="E269">
-        <v>743.17</v>
+        <v>780.66</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="D270">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E270">
-        <v>83.02</v>
+        <v>87.39</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="D272">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E272">
-        <v>61.08</v>
+        <v>65.16</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -7478,10 +7478,10 @@
         </is>
       </c>
       <c r="D274">
-        <v>1810</v>
+        <v>1918</v>
       </c>
       <c r="E274">
-        <v>501.66</v>
+        <v>531.6</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -7504,10 +7504,10 @@
         </is>
       </c>
       <c r="D275">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E275">
-        <v>104.5</v>
+        <v>110.5</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -7530,10 +7530,10 @@
         </is>
       </c>
       <c r="D276">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="E276">
-        <v>1442.24</v>
+        <v>1472.73</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="D278">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="E278">
-        <v>1423.04</v>
+        <v>1450.57</v>
       </c>
       <c r="F278">
         <v>2</v>
@@ -7608,10 +7608,10 @@
         </is>
       </c>
       <c r="D279">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E279">
-        <v>2259.7</v>
+        <v>2298.78</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -7634,10 +7634,10 @@
         </is>
       </c>
       <c r="D280">
-        <v>6675</v>
+        <v>6970</v>
       </c>
       <c r="E280">
-        <v>2246.54</v>
+        <v>2345.83</v>
       </c>
       <c r="F280">
         <v>23</v>
@@ -7660,10 +7660,10 @@
         </is>
       </c>
       <c r="D281">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E281">
-        <v>1420.84</v>
+        <v>1425.8</v>
       </c>
       <c r="F281">
         <v>2</v>
@@ -7686,10 +7686,10 @@
         </is>
       </c>
       <c r="D282">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="E282">
-        <v>65.94</v>
+        <v>1641.15</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="D284">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="E284">
-        <v>1290.24</v>
+        <v>1319.74</v>
       </c>
       <c r="F284">
         <v>13</v>
@@ -7764,10 +7764,10 @@
         </is>
       </c>
       <c r="D285">
-        <v>1533</v>
+        <v>1569</v>
       </c>
       <c r="E285">
-        <v>1512.42</v>
+        <v>1547.93</v>
       </c>
       <c r="F285">
         <v>3</v>
@@ -7790,10 +7790,10 @@
         </is>
       </c>
       <c r="D286">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E286">
-        <v>476.06</v>
+        <v>485.04</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="D289">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E289">
-        <v>3048.12</v>
+        <v>3096.12</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         </is>
       </c>
       <c r="D290">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E290">
-        <v>1082.57</v>
+        <v>1098.09</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7920,10 +7920,10 @@
         </is>
       </c>
       <c r="D291">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E291">
-        <v>2072.05</v>
+        <v>2045.32</v>
       </c>
       <c r="F291">
         <v>2</v>
@@ -7946,10 +7946,10 @@
         </is>
       </c>
       <c r="D292">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E292">
-        <v>356.8</v>
+        <v>362.46</v>
       </c>
       <c r="F292">
         <v>2</v>
@@ -7972,10 +7972,10 @@
         </is>
       </c>
       <c r="D293">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E293">
-        <v>623.5700000000001</v>
+        <v>634.3200000000001</v>
       </c>
       <c r="F293">
         <v>2</v>
@@ -7998,10 +7998,10 @@
         </is>
       </c>
       <c r="D294">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E294">
-        <v>2440.89</v>
+        <v>2539.4</v>
       </c>
       <c r="F294">
         <v>2</v>
@@ -8024,10 +8024,10 @@
         </is>
       </c>
       <c r="D295">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E295">
-        <v>793.87</v>
+        <v>821.05</v>
       </c>
       <c r="F295">
         <v>3</v>
@@ -8050,10 +8050,10 @@
         </is>
       </c>
       <c r="D296">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E296">
-        <v>152.06</v>
+        <v>158.97</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="D297">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E297">
-        <v>1666.01</v>
+        <v>1721.28</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         </is>
       </c>
       <c r="D298">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E298">
-        <v>1327.45</v>
+        <v>1343.92</v>
       </c>
       <c r="F298">
         <v>6</v>
@@ -8154,10 +8154,10 @@
         </is>
       </c>
       <c r="D300">
-        <v>742</v>
+        <v>772</v>
       </c>
       <c r="E300">
-        <v>1903.05</v>
+        <v>1979.99</v>
       </c>
       <c r="F300">
         <v>10</v>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="D302">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E302">
-        <v>492.26</v>
+        <v>515.71</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -8232,10 +8232,10 @@
         </is>
       </c>
       <c r="D303">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="E303">
-        <v>2366.23</v>
+        <v>2437.4</v>
       </c>
       <c r="F303">
         <v>2</v>
@@ -8258,10 +8258,10 @@
         </is>
       </c>
       <c r="D304">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="E304">
-        <v>1514.96</v>
+        <v>1829.04</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -8310,10 +8310,10 @@
         </is>
       </c>
       <c r="D306">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E306">
-        <v>1414.24</v>
+        <v>1524.57</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8336,10 +8336,10 @@
         </is>
       </c>
       <c r="D307">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="E307">
-        <v>2770.89</v>
+        <v>2794.73</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="D308">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E308">
-        <v>923.75</v>
+        <v>933.11</v>
       </c>
       <c r="F308">
         <v>6</v>
@@ -8388,10 +8388,10 @@
         </is>
       </c>
       <c r="D309">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E309">
-        <v>132.83</v>
+        <v>147.07</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -8414,10 +8414,10 @@
         </is>
       </c>
       <c r="D310">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E310">
-        <v>257.66</v>
+        <v>259.35</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -8440,10 +8440,10 @@
         </is>
       </c>
       <c r="D311">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E311">
-        <v>3202.52</v>
+        <v>3210.82</v>
       </c>
       <c r="F311">
         <v>2</v>
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="D312">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E312">
-        <v>549.26</v>
+        <v>532.1</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -8492,10 +8492,10 @@
         </is>
       </c>
       <c r="D313">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E313">
-        <v>2135.34</v>
+        <v>2220.33</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -8518,10 +8518,10 @@
         </is>
       </c>
       <c r="D314">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E314">
-        <v>577.83</v>
+        <v>584.88</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         </is>
       </c>
       <c r="D315">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E315">
-        <v>440.44</v>
+        <v>471.9</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         </is>
       </c>
       <c r="D316">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E316">
-        <v>171.15</v>
+        <v>175.04</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -8622,10 +8622,10 @@
         </is>
       </c>
       <c r="D318">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E318">
-        <v>59.47</v>
+        <v>74.34</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="D319">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E319">
-        <v>581.02</v>
+        <v>659.92</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="D326">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E326">
-        <v>137.09</v>
+        <v>139.58</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="D328">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E328">
-        <v>1955.33</v>
+        <v>1963.84</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -9194,10 +9194,10 @@
         </is>
       </c>
       <c r="D340">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E340">
-        <v>1010.1</v>
+        <v>925.9299999999999</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="D342">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E342">
-        <v>286.66</v>
+        <v>316.84</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9272,10 +9272,10 @@
         </is>
       </c>
       <c r="D343">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E343">
-        <v>2276.52</v>
+        <v>2288.44</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         </is>
       </c>
       <c r="D347">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E347">
-        <v>256.82</v>
+        <v>271.92</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="D348">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E348">
-        <v>304.18</v>
+        <v>228.14</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         </is>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E351">
-        <v>5.24</v>
+        <v>2.62</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9584,10 +9584,10 @@
         </is>
       </c>
       <c r="D355">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="E355">
-        <v>536.36</v>
+        <v>605.46</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         </is>
       </c>
       <c r="D356">
-        <v>1807</v>
+        <v>1824</v>
       </c>
       <c r="E356">
-        <v>253.4</v>
+        <v>255.78</v>
       </c>
       <c r="F356">
         <v>2</v>
@@ -9636,10 +9636,10 @@
         </is>
       </c>
       <c r="D357">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E357">
-        <v>42.64</v>
+        <v>47.97</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9662,10 +9662,10 @@
         </is>
       </c>
       <c r="D358">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E358">
-        <v>29.62</v>
+        <v>28.6</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="D359">
-        <v>1754</v>
+        <v>1820</v>
       </c>
       <c r="E359">
-        <v>410.79</v>
+        <v>426.24</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         </is>
       </c>
       <c r="D360">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="E360">
-        <v>1815.04</v>
+        <v>1838.83</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -9740,10 +9740,10 @@
         </is>
       </c>
       <c r="D361">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E361">
-        <v>48.21</v>
+        <v>49.29</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="D362">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E362">
-        <v>474.4</v>
+        <v>479.32</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9792,10 +9792,10 @@
         </is>
       </c>
       <c r="D363">
-        <v>2679</v>
+        <v>2845</v>
       </c>
       <c r="E363">
-        <v>447.8</v>
+        <v>475.54</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -9818,10 +9818,10 @@
         </is>
       </c>
       <c r="D364">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E364">
-        <v>98.81999999999999</v>
+        <v>101.82</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>1181</v>
+        <v>1249</v>
       </c>
       <c r="E365">
-        <v>507.46</v>
+        <v>536.6799999999999</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9870,10 +9870,10 @@
         </is>
       </c>
       <c r="D366">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E366">
-        <v>78.25</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="D367">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E367">
-        <v>138</v>
+        <v>140.96</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -9922,10 +9922,10 @@
         </is>
       </c>
       <c r="D368">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E368">
-        <v>36.81</v>
+        <v>37.32</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         </is>
       </c>
       <c r="D369">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E369">
-        <v>87.89</v>
+        <v>87.53</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         </is>
       </c>
       <c r="D370">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E370">
-        <v>93.95999999999999</v>
+        <v>95.53</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -10000,10 +10000,10 @@
         </is>
       </c>
       <c r="D371">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="E371">
-        <v>132.24</v>
+        <v>143.69</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -10026,10 +10026,10 @@
         </is>
       </c>
       <c r="D372">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="E372">
-        <v>440.51</v>
+        <v>449.72</v>
       </c>
       <c r="F372">
         <v>1</v>
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="D373">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E373">
-        <v>115.32</v>
+        <v>118.79</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="D374">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E374">
-        <v>43.17</v>
+        <v>44.61</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="D377">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E377">
-        <v>279.56</v>
+        <v>285.16</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10182,10 +10182,10 @@
         </is>
       </c>
       <c r="D378">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E378">
-        <v>51.21</v>
+        <v>53.22</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         </is>
       </c>
       <c r="D379">
-        <v>1869</v>
+        <v>1983</v>
       </c>
       <c r="E379">
-        <v>448.71</v>
+        <v>476.08</v>
       </c>
       <c r="F379">
         <v>1</v>
@@ -10234,10 +10234,10 @@
         </is>
       </c>
       <c r="D380">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E380">
-        <v>34.66</v>
+        <v>30.33</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10260,10 +10260,10 @@
         </is>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E381">
-        <v>11.22</v>
+        <v>22.44</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -10286,13 +10286,13 @@
         </is>
       </c>
       <c r="D382">
-        <v>1268</v>
+        <v>1319</v>
       </c>
       <c r="E382">
-        <v>676.4</v>
+        <v>703.61</v>
       </c>
       <c r="F382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -10338,10 +10338,10 @@
         </is>
       </c>
       <c r="D384">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E384">
-        <v>35.25</v>
+        <v>33.75</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         </is>
       </c>
       <c r="D385">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E385">
-        <v>35.19</v>
+        <v>32.38</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="D386">
-        <v>3605</v>
+        <v>3697</v>
       </c>
       <c r="E386">
-        <v>290.61</v>
+        <v>298.03</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10416,10 +10416,10 @@
         </is>
       </c>
       <c r="D387">
-        <v>2246</v>
+        <v>2216</v>
       </c>
       <c r="E387">
-        <v>521.39</v>
+        <v>514.4299999999999</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10468,10 +10468,10 @@
         </is>
       </c>
       <c r="D389">
-        <v>1095</v>
+        <v>1149</v>
       </c>
       <c r="E389">
-        <v>140.01</v>
+        <v>146.92</v>
       </c>
       <c r="F389">
         <v>1</v>
@@ -10494,10 +10494,10 @@
         </is>
       </c>
       <c r="D390">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E390">
-        <v>16.34</v>
+        <v>17.43</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="D391">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E391">
-        <v>68.31999999999999</v>
+        <v>67.03</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         </is>
       </c>
       <c r="D393">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E393">
-        <v>170.6</v>
+        <v>189.82</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         </is>
       </c>
       <c r="D394">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E394">
-        <v>33.74</v>
+        <v>34.91</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -10624,10 +10624,10 @@
         </is>
       </c>
       <c r="D395">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E395">
-        <v>28.62</v>
+        <v>30.53</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="D396">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E396">
-        <v>64.51000000000001</v>
+        <v>65.42</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         </is>
       </c>
       <c r="D397">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="E397">
-        <v>197.38</v>
+        <v>200.43</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         </is>
       </c>
       <c r="D403">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E403">
-        <v>172.71</v>
+        <v>86.36</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="D405">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E405">
-        <v>825.3099999999999</v>
+        <v>923.5599999999999</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         </is>
       </c>
       <c r="D406">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E406">
-        <v>2009.84</v>
+        <v>1968.26</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -10962,10 +10962,10 @@
         </is>
       </c>
       <c r="D408">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E408">
-        <v>425.73</v>
+        <v>410.52</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="D409">
-        <v>1910</v>
+        <v>1885</v>
       </c>
       <c r="E409">
-        <v>1707.4</v>
+        <v>1685.05</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="D410">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E410">
-        <v>24.22</v>
+        <v>18.16</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         </is>
       </c>
       <c r="D413">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E413">
-        <v>469.35</v>
+        <v>479.12</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -11170,10 +11170,10 @@
         </is>
       </c>
       <c r="D416">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E416">
-        <v>377.01</v>
+        <v>388.44</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -11508,10 +11508,10 @@
         </is>
       </c>
       <c r="D429">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E429">
-        <v>780.35</v>
+        <v>782.17</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -11612,10 +11612,10 @@
         </is>
       </c>
       <c r="D433">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="E433">
-        <v>1451.89</v>
+        <v>1454.07</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -11638,10 +11638,10 @@
         </is>
       </c>
       <c r="D434">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E434">
-        <v>350.99</v>
+        <v>356.66</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="D446">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E446">
-        <v>1475.86</v>
+        <v>1486.21</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -12340,10 +12340,10 @@
         </is>
       </c>
       <c r="D461">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E461">
-        <v>1083.4</v>
+        <v>1142.4</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -12392,10 +12392,10 @@
         </is>
       </c>
       <c r="D463">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E463">
-        <v>27.46</v>
+        <v>32.95</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -12444,10 +12444,10 @@
         </is>
       </c>
       <c r="D465">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E465">
-        <v>1469.61</v>
+        <v>1514.14</v>
       </c>
       <c r="F465">
         <v>0</v>
@@ -12470,10 +12470,10 @@
         </is>
       </c>
       <c r="D466">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E466">
-        <v>153.83</v>
+        <v>217.93</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="D467">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E467">
-        <v>110.07</v>
+        <v>115.31</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12652,10 +12652,10 @@
         </is>
       </c>
       <c r="D473">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E473">
-        <v>15.38</v>
+        <v>46.13</v>
       </c>
       <c r="F473">
         <v>0</v>
@@ -12700,14 +12700,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>SUYO</t>
+          <t>SICCHEZ</t>
         </is>
       </c>
       <c r="D475">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="E475">
-        <v>2923.49</v>
+        <v>63.73</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12721,19 +12721,19 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>CANCHAQUE</t>
+          <t>SUYO</t>
         </is>
       </c>
       <c r="D476">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="E476">
-        <v>228.56</v>
+        <v>3449.72</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -12752,14 +12752,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>CANCHAQUE</t>
         </is>
       </c>
       <c r="D477">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E477">
-        <v>82.05</v>
+        <v>201.67</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -12778,14 +12778,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>HUARMACA</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="D478">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E478">
-        <v>50.75</v>
+        <v>82.05</v>
       </c>
       <c r="F478">
         <v>0</v>
@@ -12804,14 +12804,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE EL FAIQUE</t>
+          <t>HUARMACA</t>
         </is>
       </c>
       <c r="D479">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E479">
-        <v>761.99</v>
+        <v>50.75</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -12830,14 +12830,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>SONDORILLO</t>
+          <t>SAN MIGUEL DE EL FAIQUE</t>
         </is>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E480">
-        <v>8.9</v>
+        <v>761.99</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -12851,19 +12851,19 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>SONDORILLO</t>
         </is>
       </c>
       <c r="D481">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E481">
-        <v>691.8099999999999</v>
+        <v>8.9</v>
       </c>
       <c r="F481">
         <v>0</v>
@@ -12882,14 +12882,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>CHALACO</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D482">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E482">
-        <v>26.35</v>
+        <v>701.29</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -12908,17 +12908,17 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>CHULUCANAS</t>
+          <t>CHALACO</t>
         </is>
       </c>
       <c r="D483">
-        <v>4787</v>
+        <v>2</v>
       </c>
       <c r="E483">
-        <v>5217.21</v>
+        <v>26.35</v>
       </c>
       <c r="F483">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -12934,17 +12934,17 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>LA MATANZA</t>
+          <t>CHULUCANAS</t>
         </is>
       </c>
       <c r="D484">
-        <v>526</v>
+        <v>4889</v>
       </c>
       <c r="E484">
-        <v>3372.66</v>
+        <v>5328.38</v>
       </c>
       <c r="F484">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="485">
@@ -12960,17 +12960,17 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>LA MATANZA</t>
         </is>
       </c>
       <c r="D485">
-        <v>687</v>
+        <v>534</v>
       </c>
       <c r="E485">
-        <v>4196.7</v>
+        <v>3423.95</v>
       </c>
       <c r="F485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -12986,14 +12986,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="D486">
-        <v>313</v>
+        <v>697</v>
       </c>
       <c r="E486">
-        <v>3363.06</v>
+        <v>4257.79</v>
       </c>
       <c r="F486">
         <v>0</v>
@@ -13012,14 +13012,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>SAN JUAN DE BIGOTE</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D487">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="E487">
-        <v>2552.38</v>
+        <v>3363.06</v>
       </c>
       <c r="F487">
         <v>0</v>
@@ -13038,14 +13038,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>SANTA CATALINA DE MOSSA</t>
+          <t>SAN JUAN DE BIGOTE</t>
         </is>
       </c>
       <c r="D488">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="E488">
-        <v>1054.57</v>
+        <v>2581.88</v>
       </c>
       <c r="F488">
         <v>0</v>
@@ -13064,14 +13064,14 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>SANTA CATALINA DE MOSSA</t>
         </is>
       </c>
       <c r="D489">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E489">
-        <v>154.4</v>
+        <v>1054.57</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -13090,14 +13090,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>YAMANGO</t>
+          <t>SANTO DOMINGO</t>
         </is>
       </c>
       <c r="D490">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E490">
-        <v>68.8</v>
+        <v>154.4</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -13111,22 +13111,22 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>AMOTAPE</t>
+          <t>YAMANGO</t>
         </is>
       </c>
       <c r="D491">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="E491">
-        <v>4889.23</v>
+        <v>68.8</v>
       </c>
       <c r="F491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -13142,17 +13142,17 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>ARENAL</t>
+          <t>AMOTAPE</t>
         </is>
       </c>
       <c r="D492">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E492">
-        <v>1076.1</v>
+        <v>4889.23</v>
       </c>
       <c r="F492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -13168,14 +13168,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>COLAN</t>
+          <t>ARENAL</t>
         </is>
       </c>
       <c r="D493">
-        <v>488</v>
+        <v>15</v>
       </c>
       <c r="E493">
-        <v>2760.65</v>
+        <v>1152.96</v>
       </c>
       <c r="F493">
         <v>0</v>
@@ -13194,17 +13194,17 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>LA HUACA</t>
+          <t>COLAN</t>
         </is>
       </c>
       <c r="D494">
-        <v>1643</v>
+        <v>494</v>
       </c>
       <c r="E494">
-        <v>11090.11</v>
+        <v>2794.59</v>
       </c>
       <c r="F494">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -13220,14 +13220,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>LA HUACA</t>
         </is>
       </c>
       <c r="D495">
-        <v>1925</v>
+        <v>1656</v>
       </c>
       <c r="E495">
-        <v>1774.36</v>
+        <v>11177.86</v>
       </c>
       <c r="F495">
         <v>3</v>
@@ -13246,17 +13246,17 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>TAMARINDO</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="D496">
-        <v>109</v>
+        <v>2012</v>
       </c>
       <c r="E496">
-        <v>1946.08</v>
+        <v>1854.55</v>
       </c>
       <c r="F496">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -13272,17 +13272,17 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>VICHAYAL</t>
+          <t>TAMARINDO</t>
         </is>
       </c>
       <c r="D497">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E497">
-        <v>1380.27</v>
+        <v>2124.62</v>
       </c>
       <c r="F497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -13293,22 +13293,22 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>CASTILLA</t>
+          <t>VICHAYAL</t>
         </is>
       </c>
       <c r="D498">
-        <v>7208</v>
+        <v>90</v>
       </c>
       <c r="E498">
-        <v>3682.13</v>
+        <v>1395.78</v>
       </c>
       <c r="F498">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -13324,17 +13324,17 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>CATACAOS</t>
+          <t>CASTILLA</t>
         </is>
       </c>
       <c r="D499">
-        <v>2116</v>
+        <v>7383</v>
       </c>
       <c r="E499">
-        <v>2498.32</v>
+        <v>3771.53</v>
       </c>
       <c r="F499">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="500">
@@ -13350,17 +13350,17 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>CURA MORI</t>
+          <t>CATACAOS</t>
         </is>
       </c>
       <c r="D500">
-        <v>559</v>
+        <v>2175</v>
       </c>
       <c r="E500">
-        <v>2666.86</v>
+        <v>2567.98</v>
       </c>
       <c r="F500">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501">
@@ -13376,17 +13376,17 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>EL TALLAN</t>
+          <t>CURA MORI</t>
         </is>
       </c>
       <c r="D501">
-        <v>287</v>
+        <v>567</v>
       </c>
       <c r="E501">
-        <v>4929.58</v>
+        <v>2705.02</v>
       </c>
       <c r="F501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -13402,14 +13402,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>LA ARENA</t>
+          <t>EL TALLAN</t>
         </is>
       </c>
       <c r="D502">
-        <v>1009</v>
+        <v>289</v>
       </c>
       <c r="E502">
-        <v>2335.38</v>
+        <v>4963.93</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -13428,17 +13428,17 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>LA UNION</t>
+          <t>LA ARENA</t>
         </is>
       </c>
       <c r="D503">
-        <v>1674</v>
+        <v>998</v>
       </c>
       <c r="E503">
-        <v>3601.94</v>
+        <v>2309.92</v>
       </c>
       <c r="F503">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -13454,17 +13454,17 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>LAS LOMAS</t>
+          <t>LA UNION</t>
         </is>
       </c>
       <c r="D504">
-        <v>182</v>
+        <v>1711</v>
       </c>
       <c r="E504">
-        <v>601.51</v>
+        <v>3681.55</v>
       </c>
       <c r="F504">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="505">
@@ -13480,17 +13480,17 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>LAS LOMAS</t>
         </is>
       </c>
       <c r="D505">
-        <v>7841</v>
+        <v>185</v>
       </c>
       <c r="E505">
-        <v>4136.68</v>
+        <v>611.4299999999999</v>
       </c>
       <c r="F505">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -13506,17 +13506,17 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>TAMBO GRANDE</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D506">
-        <v>2044</v>
+        <v>7954</v>
       </c>
       <c r="E506">
-        <v>1566.54</v>
+        <v>4196.3</v>
       </c>
       <c r="F506">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="507">
@@ -13532,17 +13532,17 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE</t>
+          <t>TAMBO GRANDE</t>
         </is>
       </c>
       <c r="D507">
-        <v>3285</v>
+        <v>2155</v>
       </c>
       <c r="E507">
-        <v>1668.33</v>
+        <v>1651.61</v>
       </c>
       <c r="F507">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508">
@@ -13553,22 +13553,22 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>BELLAVISTA DE LA UNION</t>
+          <t>VEINTISEIS DE OCTUBRE</t>
         </is>
       </c>
       <c r="D508">
-        <v>262</v>
+        <v>3326</v>
       </c>
       <c r="E508">
-        <v>4730.95</v>
+        <v>1689.15</v>
       </c>
       <c r="F508">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="509">
@@ -13584,14 +13584,14 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>BERNAL</t>
+          <t>BELLAVISTA DE LA UNION</t>
         </is>
       </c>
       <c r="D509">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E509">
-        <v>662.58</v>
+        <v>4767.06</v>
       </c>
       <c r="F509">
         <v>0</v>
@@ -13610,14 +13610,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>CRISTO NOS VALGA</t>
+          <t>BERNAL</t>
         </is>
       </c>
       <c r="D510">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E510">
-        <v>716.17</v>
+        <v>723.9299999999999</v>
       </c>
       <c r="F510">
         <v>0</v>
@@ -13636,14 +13636,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>RINCONADA-LLICUAR</t>
+          <t>CRISTO NOS VALGA</t>
         </is>
       </c>
       <c r="D511">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E511">
-        <v>977.1</v>
+        <v>735.02</v>
       </c>
       <c r="F511">
         <v>0</v>
@@ -13662,14 +13662,14 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>RINCONADA-LLICUAR</t>
         </is>
       </c>
       <c r="D512">
-        <v>581</v>
+        <v>33</v>
       </c>
       <c r="E512">
-        <v>1055.19</v>
+        <v>1007.63</v>
       </c>
       <c r="F512">
         <v>0</v>
@@ -13688,14 +13688,14 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>VICE</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="D513">
-        <v>210</v>
+        <v>605</v>
       </c>
       <c r="E513">
-        <v>1099.59</v>
+        <v>1098.78</v>
       </c>
       <c r="F513">
         <v>0</v>
@@ -13709,22 +13709,22 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>VICE</t>
         </is>
       </c>
       <c r="D514">
-        <v>925</v>
+        <v>223</v>
       </c>
       <c r="E514">
-        <v>2304.09</v>
+        <v>1167.66</v>
       </c>
       <c r="F514">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -13740,14 +13740,14 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>IGNACIO ESCUDERO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D515">
-        <v>729</v>
+        <v>1013</v>
       </c>
       <c r="E515">
-        <v>3238.85</v>
+        <v>2523.29</v>
       </c>
       <c r="F515">
         <v>4</v>
@@ -13766,17 +13766,17 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>LANCONES</t>
+          <t>IGNACIO ESCUDERO</t>
         </is>
       </c>
       <c r="D516">
-        <v>39</v>
+        <v>740</v>
       </c>
       <c r="E516">
-        <v>286.26</v>
+        <v>3287.72</v>
       </c>
       <c r="F516">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517">
@@ -13792,14 +13792,14 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>MARCAVELICA</t>
+          <t>LANCONES</t>
         </is>
       </c>
       <c r="D517">
-        <v>1197</v>
+        <v>39</v>
       </c>
       <c r="E517">
-        <v>3575.91</v>
+        <v>286.26</v>
       </c>
       <c r="F517">
         <v>0</v>
@@ -13818,14 +13818,14 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>MIGUEL CHECA</t>
+          <t>MARCAVELICA</t>
         </is>
       </c>
       <c r="D518">
-        <v>547</v>
+        <v>1254</v>
       </c>
       <c r="E518">
-        <v>5138.56</v>
+        <v>3746.19</v>
       </c>
       <c r="F518">
         <v>0</v>
@@ -13844,17 +13844,17 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>QUERECOTILLO</t>
+          <t>MIGUEL CHECA</t>
         </is>
       </c>
       <c r="D519">
-        <v>803</v>
+        <v>580</v>
       </c>
       <c r="E519">
-        <v>2771.16</v>
+        <v>5448.57</v>
       </c>
       <c r="F519">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -13870,17 +13870,17 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>QUERECOTILLO</t>
         </is>
       </c>
       <c r="D520">
-        <v>195</v>
+        <v>828</v>
       </c>
       <c r="E520">
-        <v>2443.3</v>
+        <v>2857.44</v>
       </c>
       <c r="F520">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -13896,17 +13896,17 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D521">
-        <v>4214</v>
+        <v>210</v>
       </c>
       <c r="E521">
-        <v>2152.08</v>
+        <v>2631.25</v>
       </c>
       <c r="F521">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -13917,22 +13917,22 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>TALARA</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>EL ALTO</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="D522">
-        <v>58</v>
+        <v>4438</v>
       </c>
       <c r="E522">
-        <v>621.12</v>
+        <v>2266.47</v>
       </c>
       <c r="F522">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="523">
@@ -13948,14 +13948,14 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>LA BREA</t>
+          <t>EL ALTO</t>
         </is>
       </c>
       <c r="D523">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E523">
-        <v>140.52</v>
+        <v>653.24</v>
       </c>
       <c r="F523">
         <v>1</v>
@@ -13974,17 +13974,17 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>LOBITOS</t>
+          <t>LA BREA</t>
         </is>
       </c>
       <c r="D524">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E524">
-        <v>571.02</v>
+        <v>170.11</v>
       </c>
       <c r="F524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -14000,14 +14000,14 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>LOS ORGANOS</t>
+          <t>LOBITOS</t>
         </is>
       </c>
       <c r="D525">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E525">
-        <v>1222.96</v>
+        <v>571.02</v>
       </c>
       <c r="F525">
         <v>0</v>
@@ -14026,14 +14026,14 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>MANCORA</t>
+          <t>LOS ORGANOS</t>
         </is>
       </c>
       <c r="D526">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="E526">
-        <v>1375.3</v>
+        <v>1247.92</v>
       </c>
       <c r="F526">
         <v>0</v>
@@ -14052,43 +14052,43 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>PARIÑÃ‰AS</t>
+          <t>MANCORA</t>
         </is>
       </c>
       <c r="D527">
-        <v>623</v>
+        <v>221</v>
       </c>
       <c r="E527">
-        <v>574.15</v>
+        <v>1512.15</v>
       </c>
       <c r="F527">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>CARABAYA</t>
+          <t>TALARA</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>AYAPATA</t>
+          <t>PARIÑÃ‰AS</t>
         </is>
       </c>
       <c r="D528">
-        <v>9</v>
+        <v>843</v>
       </c>
       <c r="E528">
-        <v>96.26000000000001</v>
+        <v>776.89</v>
       </c>
       <c r="F528">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -14104,14 +14104,14 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>SAN GABAN</t>
+          <t>AYAPATA</t>
         </is>
       </c>
       <c r="D529">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="E529">
-        <v>2265.48</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="F529">
         <v>0</v>
@@ -14120,24 +14120,24 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CARABAYA</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>ALTO BIAVO</t>
+          <t>SAN GABAN</t>
         </is>
       </c>
       <c r="D530">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="E530">
-        <v>124.27</v>
+        <v>2265.48</v>
       </c>
       <c r="F530">
         <v>0</v>
@@ -14156,14 +14156,14 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>BAJO BIAVO</t>
+          <t>ALTO BIAVO</t>
         </is>
       </c>
       <c r="D531">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E531">
-        <v>190.67</v>
+        <v>124.27</v>
       </c>
       <c r="F531">
         <v>0</v>
@@ -14182,17 +14182,17 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>BAJO BIAVO</t>
         </is>
       </c>
       <c r="D532">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="E532">
-        <v>1188.28</v>
+        <v>190.67</v>
       </c>
       <c r="F532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -14208,17 +14208,17 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D533">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="E533">
-        <v>361.27</v>
+        <v>1203.65</v>
       </c>
       <c r="F533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -14234,14 +14234,14 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="D534">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E534">
-        <v>362.61</v>
+        <v>361.27</v>
       </c>
       <c r="F534">
         <v>0</v>
@@ -14260,14 +14260,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D535">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E535">
-        <v>264.88</v>
+        <v>362.61</v>
       </c>
       <c r="F535">
         <v>0</v>
@@ -14281,19 +14281,19 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>EL DORADO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>AGUA BLANCA</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="D536">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E536">
-        <v>41.89</v>
+        <v>249.3</v>
       </c>
       <c r="F536">
         <v>0</v>
@@ -14312,17 +14312,17 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>SAN JOSE DE SISA</t>
+          <t>AGUA BLANCA</t>
         </is>
       </c>
       <c r="D537">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E537">
-        <v>134.03</v>
+        <v>41.89</v>
       </c>
       <c r="F537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -14338,17 +14338,17 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>SAN JOSE DE SISA</t>
         </is>
       </c>
       <c r="D538">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E538">
-        <v>50.42</v>
+        <v>139.62</v>
       </c>
       <c r="F538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -14364,14 +14364,14 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="D539">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E539">
-        <v>26.07</v>
+        <v>50.42</v>
       </c>
       <c r="F539">
         <v>0</v>
@@ -14390,14 +14390,14 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>SHATOJA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D540">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E540">
-        <v>29.64</v>
+        <v>26.07</v>
       </c>
       <c r="F540">
         <v>0</v>
@@ -14411,19 +14411,19 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>EL DORADO</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>ALTO SAPOSOA</t>
+          <t>SHATOJA</t>
         </is>
       </c>
       <c r="D541">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E541">
-        <v>86.01000000000001</v>
+        <v>29.64</v>
       </c>
       <c r="F541">
         <v>0</v>
@@ -14442,14 +14442,14 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>EL ESLABON</t>
+          <t>ALTO SAPOSOA</t>
         </is>
       </c>
       <c r="D542">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E542">
-        <v>460.36</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="F542">
         <v>0</v>
@@ -14468,14 +14468,14 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>PISCOYACU</t>
+          <t>EL ESLABON</t>
         </is>
       </c>
       <c r="D543">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E543">
-        <v>103.22</v>
+        <v>460.36</v>
       </c>
       <c r="F543">
         <v>0</v>
@@ -14494,14 +14494,14 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>SACANCHE</t>
+          <t>PISCOYACU</t>
         </is>
       </c>
       <c r="D544">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E544">
-        <v>890.96</v>
+        <v>103.22</v>
       </c>
       <c r="F544">
         <v>0</v>
@@ -14520,14 +14520,14 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>SAPOSOA</t>
+          <t>SACANCHE</t>
         </is>
       </c>
       <c r="D545">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E545">
-        <v>302.06</v>
+        <v>890.96</v>
       </c>
       <c r="F545">
         <v>0</v>
@@ -14546,14 +14546,14 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>TINGO DE SAPOSOA</t>
+          <t>SAPOSOA</t>
         </is>
       </c>
       <c r="D546">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E546">
-        <v>3169.01</v>
+        <v>302.06</v>
       </c>
       <c r="F546">
         <v>0</v>
@@ -14567,19 +14567,19 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>ALONSO DE ALVARADO</t>
+          <t>TINGO DE SAPOSOA</t>
         </is>
       </c>
       <c r="D547">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E547">
-        <v>20.66</v>
+        <v>3169.01</v>
       </c>
       <c r="F547">
         <v>0</v>
@@ -14598,14 +14598,14 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>BARRANQUITA</t>
+          <t>ALONSO DE ALVARADO</t>
         </is>
       </c>
       <c r="D548">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E548">
-        <v>788.2</v>
+        <v>27.55</v>
       </c>
       <c r="F548">
         <v>0</v>
@@ -14624,17 +14624,17 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>CAYNARACHI</t>
+          <t>BARRANQUITA</t>
         </is>
       </c>
       <c r="D549">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="E549">
-        <v>1538.46</v>
+        <v>788.2</v>
       </c>
       <c r="F549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -14650,17 +14650,17 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>CUÑUMBUQUI</t>
+          <t>CAYNARACHI</t>
         </is>
       </c>
       <c r="D550">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E550">
-        <v>492.93</v>
+        <v>1547.1</v>
       </c>
       <c r="F550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -14676,14 +14676,14 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>CUÑUMBUQUI</t>
         </is>
       </c>
       <c r="D551">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="E551">
-        <v>1160.97</v>
+        <v>492.93</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -14702,14 +14702,14 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>PINTO RECODO</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="D552">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E552">
-        <v>326.98</v>
+        <v>1179.79</v>
       </c>
       <c r="F552">
         <v>0</v>
@@ -14728,14 +14728,14 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>RUMISAPA</t>
+          <t>PINTO RECODO</t>
         </is>
       </c>
       <c r="D553">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E553">
-        <v>672.14</v>
+        <v>337.87</v>
       </c>
       <c r="F553">
         <v>0</v>
@@ -14754,14 +14754,14 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>SAN ROQUE DE CUMBAZA</t>
+          <t>RUMISAPA</t>
         </is>
       </c>
       <c r="D554">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E554">
-        <v>452.74</v>
+        <v>672.14</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -14780,14 +14780,14 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>SHANAO</t>
+          <t>SAN ROQUE DE CUMBAZA</t>
         </is>
       </c>
       <c r="D555">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E555">
-        <v>1337.61</v>
+        <v>452.74</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -14806,14 +14806,14 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>TABALOSOS</t>
+          <t>SHANAO</t>
         </is>
       </c>
       <c r="D556">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E556">
-        <v>306.44</v>
+        <v>1337.61</v>
       </c>
       <c r="F556">
         <v>0</v>
@@ -14832,14 +14832,14 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>ZAPATERO</t>
+          <t>TABALOSOS</t>
         </is>
       </c>
       <c r="D557">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E557">
-        <v>524.9299999999999</v>
+        <v>306.44</v>
       </c>
       <c r="F557">
         <v>0</v>
@@ -14853,19 +14853,19 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>MARISCAL CACERES</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>CAMPANILLA</t>
+          <t>ZAPATERO</t>
         </is>
       </c>
       <c r="D558">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E558">
-        <v>231.37</v>
+        <v>524.9299999999999</v>
       </c>
       <c r="F558">
         <v>0</v>
@@ -14884,14 +14884,14 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>HUICUNGO</t>
+          <t>CAMPANILLA</t>
         </is>
       </c>
       <c r="D559">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E559">
-        <v>196.31</v>
+        <v>231.37</v>
       </c>
       <c r="F559">
         <v>0</v>
@@ -14910,17 +14910,17 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>JUANJUI</t>
+          <t>HUICUNGO</t>
         </is>
       </c>
       <c r="D560">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="E560">
-        <v>1162.21</v>
+        <v>196.31</v>
       </c>
       <c r="F560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -14936,17 +14936,17 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>PACHIZA</t>
+          <t>JUANJUI</t>
         </is>
       </c>
       <c r="D561">
-        <v>19</v>
+        <v>422</v>
       </c>
       <c r="E561">
-        <v>259.46</v>
+        <v>1170.53</v>
       </c>
       <c r="F561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -14962,14 +14962,14 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>PAJARILLO</t>
+          <t>PACHIZA</t>
         </is>
       </c>
       <c r="D562">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E562">
-        <v>276.87</v>
+        <v>259.46</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -14983,19 +14983,19 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>MARISCAL CACERES</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>CALZADA</t>
+          <t>PAJARILLO</t>
         </is>
       </c>
       <c r="D563">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E563">
-        <v>382.76</v>
+        <v>276.87</v>
       </c>
       <c r="F563">
         <v>0</v>
@@ -15014,14 +15014,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>HABANA</t>
+          <t>CALZADA</t>
         </is>
       </c>
       <c r="D564">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E564">
-        <v>466.74</v>
+        <v>382.76</v>
       </c>
       <c r="F564">
         <v>0</v>
@@ -15040,14 +15040,14 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>JEPELACIO</t>
+          <t>HABANA</t>
         </is>
       </c>
       <c r="D565">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E565">
-        <v>88.08</v>
+        <v>466.74</v>
       </c>
       <c r="F565">
         <v>0</v>
@@ -15066,17 +15066,17 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>JEPELACIO</t>
         </is>
       </c>
       <c r="D566">
-        <v>601</v>
+        <v>15</v>
       </c>
       <c r="E566">
-        <v>677.2</v>
+        <v>94.37</v>
       </c>
       <c r="F566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -15092,17 +15092,17 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>SORITOR</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="D567">
-        <v>58</v>
+        <v>619</v>
       </c>
       <c r="E567">
-        <v>248.83</v>
+        <v>697.48</v>
       </c>
       <c r="F567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -15118,17 +15118,17 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>YANTALO</t>
+          <t>SORITOR</t>
         </is>
       </c>
       <c r="D568">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E568">
-        <v>99.47</v>
+        <v>253.12</v>
       </c>
       <c r="F568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -15139,19 +15139,19 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>YANTALO</t>
         </is>
       </c>
       <c r="D569">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E569">
-        <v>32.16</v>
+        <v>99.47</v>
       </c>
       <c r="F569">
         <v>0</v>
@@ -15170,14 +15170,14 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>CASPIZAPA</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D570">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E570">
-        <v>88.77</v>
+        <v>32.16</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -15196,14 +15196,14 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>CASPIZAPA</t>
         </is>
       </c>
       <c r="D571">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E571">
-        <v>183.3</v>
+        <v>88.77</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -15222,14 +15222,14 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>PILLUANA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="D572">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E572">
-        <v>111.73</v>
+        <v>183.3</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -15248,14 +15248,14 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>PUCACACA</t>
+          <t>PILLUANA</t>
         </is>
       </c>
       <c r="D573">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E573">
-        <v>162.02</v>
+        <v>111.73</v>
       </c>
       <c r="F573">
         <v>0</v>
@@ -15274,14 +15274,14 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>SAN HILARION</t>
+          <t>PUCACACA</t>
         </is>
       </c>
       <c r="D574">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E574">
-        <v>105.85</v>
+        <v>162.02</v>
       </c>
       <c r="F574">
         <v>0</v>
@@ -15300,14 +15300,14 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>SHAMBOYACU</t>
+          <t>SAN HILARION</t>
         </is>
       </c>
       <c r="D575">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E575">
-        <v>9.09</v>
+        <v>105.85</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -15326,14 +15326,14 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>TINGO DE PONASA</t>
+          <t>SHAMBOYACU</t>
         </is>
       </c>
       <c r="D576">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E576">
-        <v>327.21</v>
+        <v>9.09</v>
       </c>
       <c r="F576">
         <v>0</v>
@@ -15352,14 +15352,14 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>TRES UNIDOS</t>
+          <t>TINGO DE PONASA</t>
         </is>
       </c>
       <c r="D577">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E577">
-        <v>23.64</v>
+        <v>327.21</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -15373,19 +15373,19 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>AWAJUN</t>
+          <t>TRES UNIDOS</t>
         </is>
       </c>
       <c r="D578">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E578">
-        <v>46.85</v>
+        <v>23.64</v>
       </c>
       <c r="F578">
         <v>0</v>
@@ -15404,14 +15404,14 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>ELIAS SOPLIN VARGAS</t>
+          <t>AWAJUN</t>
         </is>
       </c>
       <c r="D579">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E579">
-        <v>151.21</v>
+        <v>46.85</v>
       </c>
       <c r="F579">
         <v>0</v>
@@ -15430,14 +15430,14 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>NUEVA CAJAMARCA</t>
+          <t>ELIAS SOPLIN VARGAS</t>
         </is>
       </c>
       <c r="D580">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E580">
-        <v>196.85</v>
+        <v>151.21</v>
       </c>
       <c r="F580">
         <v>0</v>
@@ -15456,14 +15456,14 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>PARDO MIGUEL</t>
+          <t>NUEVA CAJAMARCA</t>
         </is>
       </c>
       <c r="D581">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E581">
-        <v>50.86</v>
+        <v>219.18</v>
       </c>
       <c r="F581">
         <v>0</v>
@@ -15482,14 +15482,14 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>POSIC</t>
+          <t>PARDO MIGUEL</t>
         </is>
       </c>
       <c r="D582">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E582">
-        <v>43.98</v>
+        <v>50.86</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -15508,14 +15508,14 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>POSIC</t>
         </is>
       </c>
       <c r="D583">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="E583">
-        <v>439.96</v>
+        <v>43.98</v>
       </c>
       <c r="F583">
         <v>0</v>
@@ -15534,14 +15534,14 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="D584">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E584">
-        <v>268.24</v>
+        <v>443.56</v>
       </c>
       <c r="F584">
         <v>0</v>
@@ -15560,14 +15560,14 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>YORONGOS</t>
+          <t>SAN FERNANDO</t>
         </is>
       </c>
       <c r="D585">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E585">
-        <v>38.85</v>
+        <v>268.24</v>
       </c>
       <c r="F585">
         <v>0</v>
@@ -15586,14 +15586,14 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>YURACYACU</t>
+          <t>YORONGOS</t>
         </is>
       </c>
       <c r="D586">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E586">
-        <v>105.21</v>
+        <v>38.85</v>
       </c>
       <c r="F586">
         <v>0</v>
@@ -15607,19 +15607,19 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>ALBERTO LEVEAU</t>
+          <t>YURACYACU</t>
         </is>
       </c>
       <c r="D587">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E587">
-        <v>520.83</v>
+        <v>105.21</v>
       </c>
       <c r="F587">
         <v>0</v>
@@ -15638,14 +15638,14 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>CACATACHI</t>
+          <t>ALBERTO LEVEAU</t>
         </is>
       </c>
       <c r="D588">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E588">
-        <v>251.64</v>
+        <v>520.83</v>
       </c>
       <c r="F588">
         <v>0</v>
@@ -15664,14 +15664,14 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>CHAZUTA</t>
+          <t>CACATACHI</t>
         </is>
       </c>
       <c r="D589">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E589">
-        <v>851.1</v>
+        <v>251.64</v>
       </c>
       <c r="F589">
         <v>0</v>
@@ -15690,14 +15690,14 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>CHIPURANA</t>
+          <t>CHAZUTA</t>
         </is>
       </c>
       <c r="D590">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E590">
-        <v>38.85</v>
+        <v>851.1</v>
       </c>
       <c r="F590">
         <v>0</v>
@@ -15716,14 +15716,14 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>CHIPURANA</t>
         </is>
       </c>
       <c r="D591">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E591">
-        <v>257.73</v>
+        <v>38.85</v>
       </c>
       <c r="F591">
         <v>0</v>
@@ -15742,14 +15742,14 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>HUIMBAYOC</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D592">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E592">
-        <v>68.66</v>
+        <v>257.73</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -15768,14 +15768,14 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>JUAN GUERRA</t>
+          <t>HUIMBAYOC</t>
         </is>
       </c>
       <c r="D593">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E593">
-        <v>319.85</v>
+        <v>68.66</v>
       </c>
       <c r="F593">
         <v>0</v>
@@ -15794,14 +15794,14 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO</t>
+          <t>JUAN GUERRA</t>
         </is>
       </c>
       <c r="D594">
-        <v>735</v>
+        <v>14</v>
       </c>
       <c r="E594">
-        <v>1383.14</v>
+        <v>319.85</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -15820,14 +15820,14 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>LA BANDA DE SHILCAYO</t>
         </is>
       </c>
       <c r="D595">
-        <v>422</v>
+        <v>737</v>
       </c>
       <c r="E595">
-        <v>909.4400000000001</v>
+        <v>1386.9</v>
       </c>
       <c r="F595">
         <v>0</v>
@@ -15846,14 +15846,14 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>PAPAPLAYA</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="D596">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="E596">
-        <v>1409.11</v>
+        <v>911.6</v>
       </c>
       <c r="F596">
         <v>0</v>
@@ -15872,14 +15872,14 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>PAPAPLAYA</t>
         </is>
       </c>
       <c r="D597">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E597">
-        <v>331.31</v>
+        <v>1409.11</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -15898,14 +15898,14 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>SAUCE</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D598">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E598">
-        <v>164.42</v>
+        <v>331.31</v>
       </c>
       <c r="F598">
         <v>0</v>
@@ -15924,14 +15924,14 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>SHAPAJA</t>
+          <t>SAUCE</t>
         </is>
       </c>
       <c r="D599">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E599">
-        <v>884.13</v>
+        <v>179.37</v>
       </c>
       <c r="F599">
         <v>0</v>
@@ -15950,17 +15950,17 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>TARAPOTO</t>
+          <t>SHAPAJA</t>
         </is>
       </c>
       <c r="D600">
-        <v>614</v>
+        <v>19</v>
       </c>
       <c r="E600">
-        <v>706.58</v>
+        <v>884.13</v>
       </c>
       <c r="F600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -15971,22 +15971,22 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>NUEVO PROGRESO</t>
+          <t>TARAPOTO</t>
         </is>
       </c>
       <c r="D601">
-        <v>178</v>
+        <v>623</v>
       </c>
       <c r="E601">
-        <v>1395.09</v>
+        <v>716.9400000000001</v>
       </c>
       <c r="F601">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -16002,14 +16002,14 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>POLVORA</t>
+          <t>NUEVO PROGRESO</t>
         </is>
       </c>
       <c r="D602">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="E602">
-        <v>481.41</v>
+        <v>1434.28</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -16028,14 +16028,14 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>SANTA LUCIA</t>
+          <t>POLVORA</t>
         </is>
       </c>
       <c r="D603">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E603">
-        <v>171</v>
+        <v>481.41</v>
       </c>
       <c r="F603">
         <v>0</v>
@@ -16054,14 +16054,14 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SANTA LUCIA</t>
         </is>
       </c>
       <c r="D604">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="E604">
-        <v>651.79</v>
+        <v>171</v>
       </c>
       <c r="F604">
         <v>0</v>
@@ -16080,14 +16080,14 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>UCHIZA</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="D605">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="E605">
-        <v>639.96</v>
+        <v>651.79</v>
       </c>
       <c r="F605">
         <v>0</v>
@@ -16096,24 +16096,24 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>CONTRALMIRANTE VILLAR</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>CANOAS DE PUNTA SAL</t>
+          <t>UCHIZA</t>
         </is>
       </c>
       <c r="D606">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E606">
-        <v>652.25</v>
+        <v>659.96</v>
       </c>
       <c r="F606">
         <v>0</v>
@@ -16132,14 +16132,14 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>CASITAS</t>
+          <t>CANOAS DE PUNTA SAL</t>
         </is>
       </c>
       <c r="D607">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E607">
-        <v>1226.35</v>
+        <v>652.25</v>
       </c>
       <c r="F607">
         <v>0</v>
@@ -16158,14 +16158,14 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>ZORRITOS</t>
+          <t>CASITAS</t>
         </is>
       </c>
       <c r="D608">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c r="E608">
-        <v>2348.76</v>
+        <v>1226.35</v>
       </c>
       <c r="F608">
         <v>0</v>
@@ -16179,19 +16179,19 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>CONTRALMIRANTE VILLAR</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>CORRALES</t>
+          <t>ZORRITOS</t>
         </is>
       </c>
       <c r="D609">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="E609">
-        <v>1490.1</v>
+        <v>2382.9</v>
       </c>
       <c r="F609">
         <v>0</v>
@@ -16210,14 +16210,14 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>LA CRUZ</t>
+          <t>CORRALES</t>
         </is>
       </c>
       <c r="D610">
-        <v>97</v>
+        <v>392</v>
       </c>
       <c r="E610">
-        <v>873.5599999999999</v>
+        <v>1486.31</v>
       </c>
       <c r="F610">
         <v>0</v>
@@ -16236,14 +16236,14 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>PAMPAS DE HOSPITAL</t>
+          <t>LA CRUZ</t>
         </is>
       </c>
       <c r="D611">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E611">
-        <v>1246.63</v>
+        <v>783.5</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -16262,14 +16262,14 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>SAN JACINTO</t>
+          <t>PAMPAS DE HOSPITAL</t>
         </is>
       </c>
       <c r="D612">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E612">
-        <v>1479.48</v>
+        <v>1298.03</v>
       </c>
       <c r="F612">
         <v>0</v>
@@ -16288,14 +16288,14 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LA VIRGEN</t>
+          <t>SAN JACINTO</t>
         </is>
       </c>
       <c r="D613">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="E613">
-        <v>1148.31</v>
+        <v>1479.48</v>
       </c>
       <c r="F613">
         <v>0</v>
@@ -16314,14 +16314,14 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>SAN JUAN DE LA VIRGEN</t>
         </is>
       </c>
       <c r="D614">
-        <v>1534</v>
+        <v>59</v>
       </c>
       <c r="E614">
-        <v>1299.28</v>
+        <v>1148.31</v>
       </c>
       <c r="F614">
         <v>0</v>
@@ -16335,19 +16335,19 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>AGUAS VERDES</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="D615">
-        <v>92</v>
+        <v>1574</v>
       </c>
       <c r="E615">
-        <v>454.84</v>
+        <v>1333.16</v>
       </c>
       <c r="F615">
         <v>0</v>
@@ -16366,14 +16366,14 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>MATAPALO</t>
+          <t>AGUAS VERDES</t>
         </is>
       </c>
       <c r="D616">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E616">
-        <v>335.64</v>
+        <v>479.56</v>
       </c>
       <c r="F616">
         <v>0</v>
@@ -16392,14 +16392,14 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>PAPAYAL</t>
+          <t>MATAPALO</t>
         </is>
       </c>
       <c r="D617">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E617">
-        <v>1315.09</v>
+        <v>314.66</v>
       </c>
       <c r="F617">
         <v>0</v>
@@ -16418,43 +16418,43 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>PAPAYAL</t>
         </is>
       </c>
       <c r="D618">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="E618">
-        <v>701.11</v>
+        <v>1394.79</v>
       </c>
       <c r="F618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>ATALAYA</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>RAIMONDI</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="D619">
-        <v>413</v>
+        <v>194</v>
       </c>
       <c r="E619">
-        <v>955.38</v>
+        <v>715.87</v>
       </c>
       <c r="F619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -16470,14 +16470,14 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>SEPAHUA</t>
+          <t>RAIMONDI</t>
         </is>
       </c>
       <c r="D620">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="E620">
-        <v>648.61</v>
+        <v>953.0599999999999</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -16496,14 +16496,14 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>TAHUANIA</t>
+          <t>SEPAHUA</t>
         </is>
       </c>
       <c r="D621">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E621">
-        <v>369.16</v>
+        <v>648.61</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -16522,14 +16522,14 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>YURUA</t>
+          <t>TAHUANIA</t>
         </is>
       </c>
       <c r="D622">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E622">
-        <v>149.87</v>
+        <v>369.16</v>
       </c>
       <c r="F622">
         <v>0</v>
@@ -16543,22 +16543,22 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>ATALAYA</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>CALLERIA</t>
+          <t>YURUA</t>
         </is>
       </c>
       <c r="D623">
-        <v>3901</v>
+        <v>4</v>
       </c>
       <c r="E623">
-        <v>2146.93</v>
+        <v>149.87</v>
       </c>
       <c r="F623">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -16574,17 +16574,17 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>CAMPOVERDE</t>
+          <t>CALLERIA</t>
         </is>
       </c>
       <c r="D624">
-        <v>172</v>
+        <v>3919</v>
       </c>
       <c r="E624">
-        <v>815.09</v>
+        <v>2156.84</v>
       </c>
       <c r="F624">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -16600,14 +16600,14 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>IPARIA</t>
+          <t>CAMPOVERDE</t>
         </is>
       </c>
       <c r="D625">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="E625">
-        <v>82.28</v>
+        <v>815.09</v>
       </c>
       <c r="F625">
         <v>0</v>
@@ -16626,17 +16626,17 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>MANANTAY</t>
+          <t>IPARIA</t>
         </is>
       </c>
       <c r="D626">
-        <v>1691</v>
+        <v>11</v>
       </c>
       <c r="E626">
-        <v>1469.35</v>
+        <v>82.28</v>
       </c>
       <c r="F626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -16652,17 +16652,17 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>MASISEA</t>
+          <t>MANANTAY</t>
         </is>
       </c>
       <c r="D627">
-        <v>140</v>
+        <v>1702</v>
       </c>
       <c r="E627">
-        <v>1087.04</v>
+        <v>1478.91</v>
       </c>
       <c r="F627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -16678,14 +16678,14 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>NUEVA REQUENA</t>
+          <t>MASISEA</t>
         </is>
       </c>
       <c r="D628">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E628">
-        <v>2822.19</v>
+        <v>1087.04</v>
       </c>
       <c r="F628">
         <v>0</v>
@@ -16704,17 +16704,17 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>YARINACOCHA</t>
+          <t>NUEVA REQUENA</t>
         </is>
       </c>
       <c r="D629">
-        <v>1507</v>
+        <v>173</v>
       </c>
       <c r="E629">
-        <v>1193</v>
+        <v>2822.19</v>
       </c>
       <c r="F629">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -16725,22 +16725,22 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>PADRE ABAD</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>ALEXANDER VON HUMBOLDT</t>
+          <t>YARINACOCHA</t>
         </is>
       </c>
       <c r="D630">
-        <v>48</v>
+        <v>1524</v>
       </c>
       <c r="E630">
-        <v>735.0700000000001</v>
+        <v>1206.46</v>
       </c>
       <c r="F630">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="631">
@@ -16756,14 +16756,14 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>BOQUERON</t>
+          <t>ALEXANDER VON HUMBOLDT</t>
         </is>
       </c>
       <c r="D631">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E631">
-        <v>192.79</v>
+        <v>765.7</v>
       </c>
       <c r="F631">
         <v>0</v>
@@ -16782,14 +16782,14 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>CURIMANA</t>
+          <t>BOQUERON</t>
         </is>
       </c>
       <c r="D632">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E632">
-        <v>303.66</v>
+        <v>192.79</v>
       </c>
       <c r="F632">
         <v>0</v>
@@ -16808,14 +16808,14 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>HUIPOCA</t>
+          <t>CURIMANA</t>
         </is>
       </c>
       <c r="D633">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E633">
-        <v>114.76</v>
+        <v>303.66</v>
       </c>
       <c r="F633">
         <v>0</v>
@@ -16834,14 +16834,14 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>IRAZOLA</t>
+          <t>HUIPOCA</t>
         </is>
       </c>
       <c r="D634">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E634">
-        <v>431.16</v>
+        <v>114.76</v>
       </c>
       <c r="F634">
         <v>0</v>
@@ -16860,14 +16860,14 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>NESHUYA</t>
+          <t>IRAZOLA</t>
         </is>
       </c>
       <c r="D635">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E635">
-        <v>862.6799999999999</v>
+        <v>438.6</v>
       </c>
       <c r="F635">
         <v>0</v>
@@ -16886,16 +16886,68 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
+          <t>NESHUYA</t>
+        </is>
+      </c>
+      <c r="D636">
+        <v>100</v>
+      </c>
+      <c r="E636">
+        <v>880.28</v>
+      </c>
+      <c r="F636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>UCAYALI</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
           <t>PADRE ABAD</t>
         </is>
       </c>
-      <c r="D636">
-        <v>375</v>
-      </c>
-      <c r="E636">
-        <v>1177.58</v>
-      </c>
-      <c r="F636">
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>PADRE ABAD</t>
+        </is>
+      </c>
+      <c r="D637">
+        <v>390</v>
+      </c>
+      <c r="E637">
+        <v>1224.68</v>
+      </c>
+      <c r="F637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>UCAYALI</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>PURUS</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>PURUS</t>
+        </is>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+      <c r="E638">
+        <v>30.23</v>
+      </c>
+      <c r="F638">
         <v>0</v>
       </c>
     </row>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F649"/>
+  <dimension ref="A1:F648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2">
-        <v>661.6</v>
+        <v>622.1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="E3">
-        <v>2253.86</v>
+        <v>2289.95</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E4">
-        <v>2831.23</v>
+        <v>2632.16</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>2822.27</v>
+        <v>2898.55</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E6">
-        <v>946.12</v>
+        <v>934.58</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>1133.75</v>
+        <v>1225.68</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>440.59</v>
+        <v>466.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -579,19 +579,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>BONGARA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BALSAS</t>
+          <t>VALERA</t>
         </is>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>838.22</v>
+        <v>127.88</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -610,14 +610,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>BALSAS</t>
         </is>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>12.38</v>
+        <v>922.05</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -636,14 +636,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LA JALCA</t>
+          <t>CHACHAPOYAS</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>25.72</v>
+        <v>14.86</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14">
-        <v>1178.03</v>
+        <v>1173.75</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="E17">
-        <v>509.86</v>
+        <v>559.14</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E18">
-        <v>368.97</v>
+        <v>456.03</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>969.23</v>
+        <v>1000</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="E25">
-        <v>1079.06</v>
+        <v>1144.46</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1260,17 +1260,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>CULEBRAS</t>
         </is>
       </c>
       <c r="D35">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1349.81</v>
+        <v>29.18</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HUAYAN</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="D36">
+        <v>404</v>
+      </c>
+      <c r="E36">
+        <v>1438.85</v>
+      </c>
+      <c r="F36">
         <v>1</v>
-      </c>
-      <c r="E36">
-        <v>104.49</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1307,19 +1307,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HUAYLAS</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CARAZ</t>
+          <t>HUAYAN</t>
         </is>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>3.67</v>
+        <v>104.49</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1333,19 +1333,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>HUAYLAS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CACERES DEL PERU</t>
+          <t>CARAZ</t>
         </is>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>41.31</v>
+        <v>3.67</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>CACERES DEL PERU</t>
         </is>
       </c>
       <c r="D39">
-        <v>397</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>180.45</v>
+        <v>41.31</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="E40">
-        <v>72.36</v>
+        <v>207.72</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>156.79</v>
+        <v>83.48999999999999</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1442,14 +1442,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D42">
-        <v>971</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>6447.97</v>
+        <v>167.99</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1468,14 +1468,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D43">
-        <v>258</v>
+        <v>994</v>
       </c>
       <c r="E43">
-        <v>135.65</v>
+        <v>6600.7</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>285</v>
       </c>
       <c r="E44">
-        <v>55.47</v>
+        <v>149.84</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D45">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>996.75</v>
+        <v>55.47</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1541,45 +1541,45 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>YUNGAY</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>QUILLO</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D46">
+        <v>264</v>
+      </c>
+      <c r="E46">
+        <v>1101.01</v>
+      </c>
+      <c r="F46">
         <v>1</v>
-      </c>
-      <c r="E46">
-        <v>7.53</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>ANCASH</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CHINCHEROS</t>
+          <t>YUNGAY</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ANCO HUALLO**</t>
+          <t>QUILLO</t>
         </is>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>9.73</v>
+        <v>7.53</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1588,24 +1588,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CAMANA</t>
+          <t>ANDAHUAYLAS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CAMANA**</t>
+          <t>HUAYANA**</t>
         </is>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>7.91</v>
+        <v>141.84</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1619,19 +1619,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CARAVELI</t>
+          <t>CAMANA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CHALA**</t>
+          <t>CAMANA**</t>
         </is>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>18.43</v>
+        <v>7.91</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1640,24 +1640,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CANGALLO</t>
+          <t>CARAVELI</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CHUSCHI</t>
+          <t>CHALA**</t>
         </is>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>11.14</v>
+        <v>18.43</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1671,19 +1671,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>CANGALLO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ACOCRO</t>
+          <t>CHUSCHI</t>
         </is>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>10.56</v>
+        <v>11.14</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1702,14 +1702,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ANDRES AVELINO CACERES D.</t>
+          <t>ACOCRO</t>
         </is>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>3.13</v>
+        <v>10.56</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1728,14 +1728,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>ANDRES AVELINO CACERES D.</t>
         </is>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>1.76</v>
+        <v>3.4</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1780,14 +1780,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>13.57</v>
+        <v>1.76</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1801,19 +1801,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D56">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1108.85</v>
+        <v>13.57</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1832,14 +1832,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E57">
-        <v>2.27</v>
+        <v>1108.85</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1858,14 +1858,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>CHACA</t>
         </is>
       </c>
       <c r="D58">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>414.15</v>
+        <v>47.15</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1884,14 +1884,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>15.81</v>
+        <v>2.27</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1910,14 +1910,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SANTILLANA</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E60">
-        <v>28.01</v>
+        <v>465.92</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1936,14 +1936,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>LURICOCHA</t>
         </is>
       </c>
       <c r="D61">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>1647.43</v>
+        <v>15.81</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1957,19 +1957,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="E62">
-        <v>48.67</v>
+        <v>1656.24</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1988,14 +1988,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>35.93</v>
+        <v>24.34</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2014,14 +2014,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D64">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>1235.84</v>
+        <v>71.86</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CHUNGUI</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E65">
-        <v>46.46</v>
+        <v>1256.44</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2066,14 +2066,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>CHUNGUI</t>
         </is>
       </c>
       <c r="D66">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>1604.77</v>
+        <v>46.46</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D67">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E67">
-        <v>351.27</v>
+        <v>2521.78</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2118,14 +2118,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E68">
-        <v>48.69</v>
+        <v>351.27</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2144,14 +2144,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D69">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>471.21</v>
+        <v>48.69</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2170,17 +2170,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E70">
-        <v>649.95</v>
+        <v>479.19</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2191,22 +2191,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>742.8</v>
+      </c>
+      <c r="F71">
         <v>1</v>
-      </c>
-      <c r="E71">
-        <v>40.11</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>14.37</v>
+        <v>40.11</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2243,19 +2243,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>16.66</v>
+        <v>14.37</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2264,24 +2264,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>5.66</v>
+        <v>16.66</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2295,19 +2295,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>13.07</v>
+        <v>5.66</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2326,14 +2326,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D76">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>7.09</v>
+        <v>13.07</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COSPAN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>27.37</v>
+        <v>7.48</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2378,14 +2378,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>44.2</v>
+        <v>27.37</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2399,19 +2399,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>3.41</v>
+        <v>44.2</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2430,14 +2430,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>UTCO</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>188.86</v>
+        <v>3.41</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2451,19 +2451,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>UTCO</t>
         </is>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>10.59</v>
+        <v>188.86</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2482,14 +2482,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CHIGUIRIP</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>28.89</v>
+        <v>10.59</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CHIGUIRIP</t>
         </is>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>19.42</v>
+        <v>28.89</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HUAMBOS</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>11.95</v>
+        <v>21.37</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>HUAMBOS</t>
         </is>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>266.14</v>
+        <v>11.95</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MIRACOSTA</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E86">
-        <v>31.08</v>
+        <v>266.14</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2612,14 +2612,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>MIRACOSTA</t>
         </is>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>11.56</v>
+        <v>31.08</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>105.04</v>
+        <v>11.56</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TACABAMBA</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>12.38</v>
+        <v>105.04</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>TACABAMBA</t>
         </is>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>117.23</v>
+        <v>12.38</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2711,19 +2711,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D91">
-        <v>452</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>17101.78</v>
+        <v>117.23</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2742,14 +2742,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D92">
-        <v>53</v>
+        <v>451</v>
       </c>
       <c r="E92">
-        <v>675.59</v>
+        <v>17063.94</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D93">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E93">
-        <v>1687.12</v>
+        <v>675.59</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2794,14 +2794,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D94">
-        <v>716</v>
+        <v>44</v>
       </c>
       <c r="E94">
-        <v>10588.58</v>
+        <v>1687.12</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2815,19 +2815,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CALLAYUC</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>726</v>
       </c>
       <c r="E95">
-        <v>10.7</v>
+        <v>10736.47</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2846,14 +2846,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>CALLAYUC</t>
         </is>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>31.47</v>
+        <v>10.7</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2872,14 +2872,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>7.94</v>
+        <v>31.47</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2898,14 +2898,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PIMPINGOS</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>20.29</v>
+        <v>7.94</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>PIMPINGOS</t>
         </is>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>7.8</v>
+        <v>20.29</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2950,14 +2950,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>11.3</v>
+        <v>7.8</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2971,19 +2971,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D101">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>1452.95</v>
+        <v>11.3</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3002,14 +3002,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D102">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="E102">
-        <v>132.73</v>
+        <v>1513.23</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3028,14 +3028,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HUABAL</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>10.91</v>
+        <v>142.21</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3054,17 +3054,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>HUABAL</t>
         </is>
       </c>
       <c r="D104">
-        <v>2963</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>2713.15</v>
+        <v>10.91</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3080,17 +3080,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3037</v>
       </c>
       <c r="E105">
-        <v>21.18</v>
+        <v>2780.91</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3106,14 +3106,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D106">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>699.4</v>
+        <v>21.18</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3132,14 +3132,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SALLIQUE</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D107">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E107">
-        <v>236.87</v>
+        <v>742.22</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3158,14 +3158,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>SALLIQUE</t>
         </is>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E108">
-        <v>21.51</v>
+        <v>250.03</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3184,14 +3184,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>36.4</v>
+        <v>21.51</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3210,14 +3210,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>68.64</v>
+        <v>36.4</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3231,19 +3231,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>121.85</v>
+        <v>156.89</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D112">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="E112">
-        <v>893.58</v>
+        <v>134.04</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3288,14 +3288,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="E113">
-        <v>18.44</v>
+        <v>909.83</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3314,14 +3314,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>50.17</v>
+        <v>18.44</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D115">
-        <v>424</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>1023.66</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3366,14 +3366,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>417</v>
       </c>
       <c r="E116">
-        <v>39.76</v>
+        <v>1006.76</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3392,14 +3392,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D117">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>142.6</v>
+        <v>39.76</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3413,19 +3413,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PEDRO GALVEZ</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E118">
-        <v>4.58</v>
+        <v>142.6</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3439,19 +3439,19 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>81.5</v>
+        <v>4.58</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3470,14 +3470,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CALQUIS</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>23.87</v>
+        <v>81.5</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3496,14 +3496,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NANCHOC</t>
+          <t>CALQUIS</t>
         </is>
       </c>
       <c r="D121">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>3169.81</v>
+        <v>23.87</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3522,14 +3522,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>NANCHOC</t>
         </is>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E122">
-        <v>44.56</v>
+        <v>3169.81</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>28.39</v>
+        <v>51.99</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3569,19 +3569,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D124">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>576.11</v>
+        <v>28.39</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3595,19 +3595,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E125">
-        <v>10.32</v>
+        <v>576.11</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3626,14 +3626,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>105.51</v>
+        <v>10.32</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3642,24 +3642,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D127">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E127">
-        <v>92.68000000000001</v>
+        <v>105.51</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3678,14 +3678,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D128">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="E128">
-        <v>62.71</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3704,14 +3704,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D129">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="E129">
-        <v>74.59999999999999</v>
+        <v>63.27</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3730,14 +3730,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D130">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E130">
-        <v>22.78</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3756,14 +3756,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E131">
-        <v>49.96</v>
+        <v>24.3</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D132">
-        <v>312</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>568.25</v>
+        <v>49.96</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,43 +3808,43 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D133">
-        <v>1267</v>
+        <v>313</v>
       </c>
       <c r="E133">
-        <v>319.12</v>
+        <v>570.08</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>1292</v>
       </c>
       <c r="E134">
-        <v>4.17</v>
+        <v>325.42</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="D135">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>532.3099999999999</v>
+        <v>4.17</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3881,22 +3881,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D136">
+        <v>47</v>
+      </c>
+      <c r="E136">
+        <v>500.37</v>
+      </c>
+      <c r="F136">
         <v>1</v>
-      </c>
-      <c r="E136">
-        <v>18.08</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3907,19 +3907,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>5.71</v>
+        <v>18.08</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3938,14 +3938,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SAN SEBASTIAN</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>0.7</v>
+        <v>5.71</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3959,19 +3959,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139">
-        <v>2.54</v>
+        <v>0.7</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3985,19 +3985,19 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="D140">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>1002.73</v>
+        <v>2.54</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D141">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E141">
-        <v>366.61</v>
+        <v>1002.73</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D142">
-        <v>340</v>
+        <v>69</v>
       </c>
       <c r="E142">
-        <v>2438.5</v>
+        <v>366.61</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D143">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="E143">
-        <v>187.46</v>
+        <v>2460.02</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D144">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>1470.17</v>
+        <v>221.54</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4120,14 +4120,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E145">
-        <v>99.45999999999999</v>
+        <v>1611.54</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4146,14 +4146,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D146">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E146">
-        <v>973</v>
+        <v>119.36</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D147">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="E147">
-        <v>1963.03</v>
+        <v>985.16</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4198,17 +4198,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D148">
-        <v>15</v>
+        <v>467</v>
       </c>
       <c r="E148">
-        <v>100.37</v>
+        <v>1984.28</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4224,17 +4224,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D149">
-        <v>1107</v>
+        <v>14</v>
       </c>
       <c r="E149">
-        <v>3712.65</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4250,17 +4250,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D150">
-        <v>52</v>
+        <v>1114</v>
       </c>
       <c r="E150">
-        <v>942.88</v>
+        <v>3736.12</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4276,14 +4276,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>SANTA TERESA</t>
         </is>
       </c>
       <c r="D151">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>3486.02</v>
+        <v>14.55</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4302,14 +4302,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D152">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E152">
-        <v>2445.09</v>
+        <v>1124.21</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4323,19 +4323,19 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D153">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E153">
-        <v>992.28</v>
+        <v>3567.09</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4349,19 +4349,19 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E154">
-        <v>16.85</v>
+        <v>2445.09</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4370,24 +4370,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E155">
-        <v>4.21</v>
+        <v>992.28</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4396,24 +4396,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DOS DE MAYO</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>YANAS</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>49.58</v>
+        <v>16.85</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4427,19 +4427,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>LLATA</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157">
-        <v>7.43</v>
+        <v>4.21</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4453,19 +4453,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>DOS DE MAYO</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>MONZON</t>
+          <t>YANAS</t>
         </is>
       </c>
       <c r="D158">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>479.81</v>
+        <v>49.58</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4479,19 +4479,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>AMARILIS</t>
+          <t>LLATA</t>
         </is>
       </c>
       <c r="D159">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>41.53</v>
+        <v>7.43</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4505,19 +4505,19 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>CHINCHAO</t>
+          <t>MONZON</t>
         </is>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E160">
-        <v>22.5</v>
+        <v>479.81</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4536,14 +4536,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>AMARILIS</t>
         </is>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E161">
-        <v>10.21</v>
+        <v>50.27</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PILLCO MARCA</t>
+          <t>CHINCHAO</t>
         </is>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>5.52</v>
+        <v>15</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4583,19 +4583,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>CASTILLO GRANDE</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D163">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>2377.36</v>
+        <v>12.25</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4609,19 +4609,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DANIEL ALOMIA ROBLES</t>
+          <t>PILLCO MARCA</t>
         </is>
       </c>
       <c r="D164">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E164">
-        <v>593.3</v>
+        <v>11.05</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4640,14 +4640,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HERMILIO VALDIZAN</t>
+          <t>CASTILLO GRANDE</t>
         </is>
       </c>
       <c r="D165">
-        <v>9</v>
+        <v>332</v>
       </c>
       <c r="E165">
-        <v>243.51</v>
+        <v>2384.54</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4666,14 +4666,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>JOSE CRESPO Y CASTILLO</t>
+          <t>DANIEL ALOMIA ROBLES</t>
         </is>
       </c>
       <c r="D166">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="E166">
-        <v>440.55</v>
+        <v>621.5599999999999</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4692,14 +4692,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>LUYANDO</t>
+          <t>HERMILIO VALDIZAN</t>
         </is>
       </c>
       <c r="D167">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="E167">
-        <v>1863.29</v>
+        <v>135.28</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4718,14 +4718,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MARIANO DAMASO BERAUN</t>
+          <t>JOSE CRESPO Y CASTILLO</t>
         </is>
       </c>
       <c r="D168">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E168">
-        <v>603.4</v>
+        <v>428.19</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4744,14 +4744,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PUCAYACU</t>
+          <t>LUYANDO</t>
         </is>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="E169">
-        <v>50.84</v>
+        <v>1863.29</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4770,14 +4770,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>MARIANO DAMASO BERAUN</t>
         </is>
       </c>
       <c r="D170">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E170">
-        <v>345.78</v>
+        <v>612.02</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4796,14 +4796,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>PUCAYACU</t>
         </is>
       </c>
       <c r="D171">
-        <v>1074</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>1773.21</v>
+        <v>76.26000000000001</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4822,14 +4822,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ANDA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E172">
-        <v>345.36</v>
+        <v>437.99</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4843,19 +4843,19 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CHOLON</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="D173">
-        <v>12</v>
+        <v>1086</v>
       </c>
       <c r="E173">
-        <v>213.33</v>
+        <v>1793.03</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4869,19 +4869,19 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>LA MORADA</t>
+          <t>SANTO DOMINGO DE ANDA</t>
         </is>
       </c>
       <c r="D174">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E174">
-        <v>544.1799999999999</v>
+        <v>383.73</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4900,14 +4900,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE ALTO YANAJANCA</t>
+          <t>CHOLON</t>
         </is>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E175">
-        <v>289.12</v>
+        <v>213.33</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4921,19 +4921,19 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>CHAGLLA</t>
+          <t>LA MORADA</t>
         </is>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E176">
-        <v>41.23</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4947,19 +4947,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>SANTA ROSA DE ALTO YANAJANCA</t>
         </is>
       </c>
       <c r="D177">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="E177">
-        <v>1656.2</v>
+        <v>289.12</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4973,19 +4973,19 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>CHAGLLA</t>
         </is>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>123.51</v>
+        <v>41.23</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5004,14 +5004,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D179">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="E179">
-        <v>2047.45</v>
+        <v>1656.2</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5030,14 +5030,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D180">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E180">
-        <v>264.43</v>
+        <v>123.51</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5056,14 +5056,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D181">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="E181">
-        <v>505.78</v>
+        <v>2091.39</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5072,50 +5072,50 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D182">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="E182">
-        <v>1322.83</v>
+        <v>264.43</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CHAVIN</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E183">
-        <v>31.89</v>
+        <v>534.6799999999999</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5134,17 +5134,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D184">
-        <v>2207</v>
+        <v>126</v>
       </c>
       <c r="E184">
-        <v>2690.61</v>
+        <v>1322.83</v>
       </c>
       <c r="F184">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5160,14 +5160,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>CHAVIN</t>
         </is>
       </c>
       <c r="D185">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>901.4299999999999</v>
+        <v>31.89</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -5186,17 +5186,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D186">
-        <v>81</v>
+        <v>2239</v>
       </c>
       <c r="E186">
-        <v>556.24</v>
+        <v>2729.62</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187">
@@ -5212,17 +5212,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D187">
-        <v>447</v>
+        <v>137</v>
       </c>
       <c r="E187">
-        <v>1448.95</v>
+        <v>894.9</v>
       </c>
       <c r="F187">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5238,17 +5238,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D188">
-        <v>1927</v>
+        <v>86</v>
       </c>
       <c r="E188">
-        <v>2480.21</v>
+        <v>590.58</v>
       </c>
       <c r="F188">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5264,17 +5264,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D189">
-        <v>845</v>
+        <v>458</v>
       </c>
       <c r="E189">
-        <v>2425.58</v>
+        <v>1484.6</v>
       </c>
       <c r="F189">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -5290,17 +5290,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D190">
-        <v>80</v>
+        <v>1930</v>
       </c>
       <c r="E190">
-        <v>1152.57</v>
+        <v>2484.07</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D191">
-        <v>2097</v>
+        <v>846</v>
       </c>
       <c r="E191">
-        <v>1153.59</v>
+        <v>2428.45</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
@@ -5337,22 +5337,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D192">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="E192">
-        <v>777.62</v>
+        <v>1123.76</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5368,17 +5368,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D193">
-        <v>202</v>
+        <v>2121</v>
       </c>
       <c r="E193">
-        <v>749.79</v>
+        <v>1166.79</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5394,17 +5394,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D194">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="E194">
-        <v>2452.56</v>
+        <v>791.65</v>
       </c>
       <c r="F194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5420,14 +5420,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D195">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="E195">
-        <v>730.26</v>
+        <v>753.5</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -5446,17 +5446,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D196">
-        <v>769</v>
+        <v>138</v>
       </c>
       <c r="E196">
-        <v>1217.39</v>
+        <v>2470.46</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D197">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E197">
-        <v>1539.02</v>
+        <v>786.4299999999999</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -5498,17 +5498,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D198">
-        <v>385</v>
+        <v>780</v>
       </c>
       <c r="E198">
-        <v>1203.95</v>
+        <v>1234.8</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5524,14 +5524,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D199">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="E199">
-        <v>2258.44</v>
+        <v>1539.02</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -5550,17 +5550,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D200">
-        <v>284</v>
+        <v>387</v>
       </c>
       <c r="E200">
-        <v>1760.26</v>
+        <v>1210.21</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -5576,14 +5576,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D201">
-        <v>519</v>
+        <v>197</v>
       </c>
       <c r="E201">
-        <v>1584.64</v>
+        <v>2293.36</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D202">
-        <v>503</v>
+        <v>284</v>
       </c>
       <c r="E202">
-        <v>1454.93</v>
+        <v>1760.26</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5628,14 +5628,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D203">
-        <v>118</v>
+        <v>533</v>
       </c>
       <c r="E203">
-        <v>2135.36</v>
+        <v>1627.38</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -5654,17 +5654,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D204">
-        <v>9</v>
+        <v>505</v>
       </c>
       <c r="E204">
-        <v>665.1900000000001</v>
+        <v>1460.72</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5675,19 +5675,19 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D205">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="E205">
-        <v>1596.2</v>
+        <v>2117.26</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -5701,19 +5701,19 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E206">
-        <v>182.77</v>
+        <v>665.1900000000001</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -5732,14 +5732,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D207">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E207">
-        <v>66.16</v>
+        <v>1682.48</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -5758,17 +5758,17 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D208">
-        <v>1073</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>3383.15</v>
+        <v>208.88</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5784,14 +5784,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D209">
-        <v>491</v>
+        <v>13</v>
       </c>
       <c r="E209">
-        <v>1860.91</v>
+        <v>66.16</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -5805,22 +5805,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D210">
-        <v>37</v>
+        <v>1094</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>3449.36</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5831,19 +5831,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D211">
-        <v>164</v>
+        <v>506</v>
       </c>
       <c r="E211">
-        <v>1814.16</v>
+        <v>1917.76</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5862,14 +5862,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D212">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E212">
-        <v>762.6</v>
+        <v>2000</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5888,14 +5888,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="E213">
-        <v>186.39</v>
+        <v>1825.22</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5909,19 +5909,19 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>HUMAY</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E214">
-        <v>162.81</v>
+        <v>762.6</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5935,19 +5935,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D215">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>379.43</v>
+        <v>186.39</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -5966,14 +5966,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>PARACAS</t>
+          <t>HUMAY</t>
         </is>
       </c>
       <c r="D216">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>177.55</v>
+        <v>162.81</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -5992,17 +5992,17 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D217">
-        <v>769</v>
+        <v>59</v>
       </c>
       <c r="E217">
-        <v>914.21</v>
+        <v>385.97</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -6018,14 +6018,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>SAN ANDRES</t>
+          <t>PARACAS</t>
         </is>
       </c>
       <c r="D218">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="E218">
-        <v>550.51</v>
+        <v>187.41</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>SAN CLEMENTE</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="D219">
-        <v>206</v>
+        <v>789</v>
       </c>
       <c r="E219">
-        <v>665.55</v>
+        <v>937.99</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -6070,14 +6070,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TUPAC AMARU INCA</t>
+          <t>SAN ANDRES</t>
         </is>
       </c>
       <c r="D220">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="E220">
-        <v>1596.63</v>
+        <v>573.9400000000001</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6086,53 +6086,53 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>SAN CLEMENTE</t>
         </is>
       </c>
       <c r="D221">
-        <v>498</v>
+        <v>219</v>
       </c>
       <c r="E221">
-        <v>1690.37</v>
+        <v>707.55</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>PERENE</t>
+          <t>TUPAC AMARU INCA</t>
         </is>
       </c>
       <c r="D222">
-        <v>699</v>
+        <v>333</v>
       </c>
       <c r="E222">
-        <v>1161.13</v>
+        <v>1630.91</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -6148,17 +6148,17 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>PICHANAQUI</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="D223">
-        <v>289</v>
+        <v>503</v>
       </c>
       <c r="E223">
-        <v>688.75</v>
+        <v>1707.34</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -6174,17 +6174,17 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>SAN LUIS DE SHUARO</t>
+          <t>PERENE</t>
         </is>
       </c>
       <c r="D224">
-        <v>30</v>
+        <v>716</v>
       </c>
       <c r="E224">
-        <v>811.25</v>
+        <v>1189.37</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6200,17 +6200,17 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>SAN RAMON</t>
+          <t>PICHANAQUI</t>
         </is>
       </c>
       <c r="D225">
-        <v>462</v>
+        <v>284</v>
       </c>
       <c r="E225">
-        <v>1563.77</v>
+        <v>676.84</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -6226,14 +6226,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>VITOC</t>
+          <t>SAN LUIS DE SHUARO</t>
         </is>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E226">
-        <v>185.99</v>
+        <v>865.33</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6247,22 +6247,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>CHONGOS BAJO</t>
+          <t>SAN RAMON</t>
         </is>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>459</v>
       </c>
       <c r="E227">
-        <v>20.57</v>
+        <v>1553.61</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -6273,19 +6273,19 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>VITOC</t>
         </is>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>1.92</v>
+        <v>185.99</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -6299,19 +6299,19 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>CHONGOS BAJO</t>
         </is>
       </c>
       <c r="D229">
         <v>1</v>
       </c>
       <c r="E229">
-        <v>0.55</v>
+        <v>20.57</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -6330,14 +6330,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>7</v>
+        <v>1.92</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6356,14 +6356,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ACOBAMBA</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="D231">
         <v>1</v>
       </c>
       <c r="E231">
-        <v>16.06</v>
+        <v>0.55</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -6377,19 +6377,19 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E232">
-        <v>22.28</v>
+        <v>7</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6403,19 +6403,19 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>SANTO DOMINGO DE ACOBAMBA</t>
         </is>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233">
-        <v>44.46</v>
+        <v>16.06</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234">
-        <v>51.15</v>
+        <v>22.28</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -6455,19 +6455,19 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D235">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>47.69</v>
+        <v>44.46</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -6481,19 +6481,19 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D236">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>667.66</v>
+        <v>51.15</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6507,19 +6507,19 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>115.49</v>
+        <v>47.69</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6538,14 +6538,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D238">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E238">
-        <v>176.67</v>
+        <v>667.66</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6564,14 +6564,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E239">
-        <v>28.91</v>
+        <v>115.49</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D240">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="E240">
-        <v>376.17</v>
+        <v>181.2</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6616,14 +6616,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D241">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>309.99</v>
+        <v>28.91</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6642,14 +6642,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D242">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="E242">
-        <v>201.25</v>
+        <v>377.63</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6668,14 +6668,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D243">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="E243">
-        <v>698.98</v>
+        <v>315.63</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6694,14 +6694,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D244">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E244">
-        <v>767.22</v>
+        <v>211.15</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6715,19 +6715,19 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>314</v>
       </c>
       <c r="E245">
-        <v>10.25</v>
+        <v>712.6</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6736,24 +6736,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D246">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E246">
-        <v>824.77</v>
+        <v>767.22</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6762,24 +6762,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="D247">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E247">
-        <v>173.73</v>
+        <v>10.25</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6798,14 +6798,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D248">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="E248">
-        <v>788.8099999999999</v>
+        <v>868.1799999999999</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D249">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E249">
-        <v>142.25</v>
+        <v>173.73</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6850,14 +6850,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D250">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E250">
-        <v>299.94</v>
+        <v>788.8099999999999</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>42.15</v>
+        <v>142.25</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6902,14 +6902,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D252">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E252">
-        <v>74.75</v>
+        <v>306.68</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6923,19 +6923,19 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D253">
-        <v>1049</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>2095.95</v>
+        <v>42.15</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6949,19 +6949,19 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>PACANGA</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D254">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E254">
-        <v>261.8</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6980,14 +6980,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>1118</v>
       </c>
       <c r="E255">
-        <v>15.45</v>
+        <v>2233.81</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7001,19 +7001,19 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CASCAS</t>
+          <t>PACANGA</t>
         </is>
       </c>
       <c r="D256">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="E256">
-        <v>1250.97</v>
+        <v>296.97</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7027,19 +7027,19 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>JULCAN</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CALAMARCA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>40.36</v>
+        <v>7.72</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -7053,19 +7053,19 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>AGALLPAMPA</t>
+          <t>CASCAS</t>
         </is>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="E258">
-        <v>9.67</v>
+        <v>1300.16</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7079,19 +7079,19 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>JULCAN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>LA CUESTA</t>
+          <t>CALAMARCA</t>
         </is>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259">
-        <v>152.91</v>
+        <v>40.36</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>AGALLPAMPA</t>
         </is>
       </c>
       <c r="D260">
-        <v>761</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>1674.51</v>
+        <v>9.67</v>
       </c>
       <c r="F260">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -7131,19 +7131,19 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>JEQUETEPEQUE</t>
+          <t>LA CUESTA</t>
         </is>
       </c>
       <c r="D261">
         <v>1</v>
       </c>
       <c r="E261">
-        <v>20.76</v>
+        <v>152.91</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7162,17 +7162,17 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>GUADALUPE</t>
         </is>
       </c>
       <c r="D262">
-        <v>54</v>
+        <v>750</v>
       </c>
       <c r="E262">
-        <v>161.5</v>
+        <v>1650.31</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263">
@@ -7188,14 +7188,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>JEQUETEPEQUE</t>
         </is>
       </c>
       <c r="D263">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>76.88</v>
+        <v>20.76</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -7214,17 +7214,17 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE LLOC</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="D264">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E264">
-        <v>189.77</v>
+        <v>164.49</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -7235,19 +7235,19 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>PARCOY</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E265">
-        <v>9.34</v>
+        <v>76.88</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7261,19 +7261,19 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>SAN PEDRO DE LLOC</t>
         </is>
       </c>
       <c r="D266">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E266">
-        <v>601.33</v>
+        <v>214.74</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7292,14 +7292,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>TAYABAMBA</t>
+          <t>PARCOY</t>
         </is>
       </c>
       <c r="D267">
         <v>2</v>
       </c>
       <c r="E267">
-        <v>14.26</v>
+        <v>9.34</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -7313,19 +7313,19 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SANCHEZ CARRION</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>COCHORCO</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E268">
-        <v>28.3</v>
+        <v>601.33</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7339,19 +7339,19 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SANCHEZ CARRION</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>HUAMACHUCO</t>
+          <t>TAYABAMBA</t>
         </is>
       </c>
       <c r="D269">
         <v>2</v>
       </c>
       <c r="E269">
-        <v>2.36</v>
+        <v>14.26</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7365,19 +7365,19 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>SANCHEZ CARRION</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>COCHORCO</t>
         </is>
       </c>
       <c r="D270">
-        <v>901</v>
+        <v>3</v>
       </c>
       <c r="E270">
-        <v>368.64</v>
+        <v>28.3</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7391,19 +7391,19 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>SANCHEZ CARRION</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA</t>
+          <t>HUAMACHUCO</t>
         </is>
       </c>
       <c r="D271">
-        <v>1096</v>
+        <v>2</v>
       </c>
       <c r="E271">
-        <v>2697.98</v>
+        <v>2.36</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -7422,14 +7422,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>HUANCHACO</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D272">
-        <v>671</v>
+        <v>991</v>
       </c>
       <c r="E272">
-        <v>702.76</v>
+        <v>405.46</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -7448,17 +7448,17 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>LA ESPERANZA</t>
+          <t>FLORENCIA DE MORA</t>
         </is>
       </c>
       <c r="D273">
-        <v>4992</v>
+        <v>1131</v>
       </c>
       <c r="E273">
-        <v>2094.35</v>
+        <v>2784.14</v>
       </c>
       <c r="F273">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -7474,14 +7474,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>LAREDO</t>
+          <t>HUANCHACO</t>
         </is>
       </c>
       <c r="D274">
-        <v>399</v>
+        <v>696</v>
       </c>
       <c r="E274">
-        <v>879.9</v>
+        <v>728.95</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -7500,17 +7500,17 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>MOCHE</t>
+          <t>LA ESPERANZA</t>
         </is>
       </c>
       <c r="D275">
-        <v>42</v>
+        <v>5108</v>
       </c>
       <c r="E275">
-        <v>91.76000000000001</v>
+        <v>2143.01</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276">
@@ -7526,14 +7526,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>POROTO</t>
+          <t>LAREDO</t>
         </is>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="E276">
-        <v>73.14</v>
+        <v>1001.19</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -7552,14 +7552,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>SALAVERRY</t>
+          <t>MOCHE</t>
         </is>
       </c>
       <c r="D277">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E277">
-        <v>73.3</v>
+        <v>91.76000000000001</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -7578,14 +7578,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>SIMBAL</t>
+          <t>POROTO</t>
         </is>
       </c>
       <c r="D278">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E278">
-        <v>147.74</v>
+        <v>73.14</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7604,17 +7604,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>SALAVERRY</t>
         </is>
       </c>
       <c r="D279">
-        <v>2148</v>
+        <v>18</v>
       </c>
       <c r="E279">
-        <v>595.34</v>
+        <v>73.3</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -7630,14 +7630,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA</t>
+          <t>SIMBAL</t>
         </is>
       </c>
       <c r="D280">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E280">
-        <v>116.51</v>
+        <v>168.85</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -7651,22 +7651,22 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>CHAO</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D281">
-        <v>692</v>
+        <v>2251</v>
       </c>
       <c r="E281">
-        <v>1622.81</v>
+        <v>623.89</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -7677,19 +7677,19 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>GUADALUPITO</t>
+          <t>VICTOR LARCO HERRERA</t>
         </is>
       </c>
       <c r="D282">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E282">
-        <v>62</v>
+        <v>82.88</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7708,69 +7708,69 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CHAO</t>
         </is>
       </c>
       <c r="D283">
-        <v>1046</v>
+        <v>701</v>
       </c>
       <c r="E283">
-        <v>1693.41</v>
+        <v>1643.92</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>CAYALTI</t>
+          <t>GUADALUPITO</t>
         </is>
       </c>
       <c r="D284">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="E284">
-        <v>2474.6</v>
+        <v>86.79000000000001</v>
       </c>
       <c r="F284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="D285">
-        <v>7984</v>
+        <v>1076</v>
       </c>
       <c r="E285">
-        <v>2687.1</v>
+        <v>1741.97</v>
       </c>
       <c r="F285">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -7786,14 +7786,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>CHONGOYAPE</t>
+          <t>CAYALTI</t>
         </is>
       </c>
       <c r="D286">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="E286">
-        <v>1530.13</v>
+        <v>2539.72</v>
       </c>
       <c r="F286">
         <v>2</v>
@@ -7812,17 +7812,17 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>ETEN</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="D287">
-        <v>242</v>
+        <v>8494</v>
       </c>
       <c r="E287">
-        <v>1773.02</v>
+        <v>2858.75</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288">
@@ -7838,17 +7838,17 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>ETEN PUERTO</t>
+          <t>CHONGOYAPE</t>
         </is>
       </c>
       <c r="D288">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="E288">
-        <v>280.56</v>
+        <v>1530.13</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -7864,17 +7864,17 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ</t>
+          <t>ETEN</t>
         </is>
       </c>
       <c r="D289">
-        <v>2577</v>
+        <v>245</v>
       </c>
       <c r="E289">
-        <v>1520.33</v>
+        <v>1795</v>
       </c>
       <c r="F289">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -7890,17 +7890,17 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>ETEN PUERTO</t>
         </is>
       </c>
       <c r="D290">
-        <v>1735</v>
+        <v>7</v>
       </c>
       <c r="E290">
-        <v>1711.7</v>
+        <v>280.56</v>
       </c>
       <c r="F290">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -7916,17 +7916,17 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>JOSE LEONARDO ORTIZ</t>
         </is>
       </c>
       <c r="D291">
-        <v>77</v>
+        <v>2731</v>
       </c>
       <c r="E291">
-        <v>691.64</v>
+        <v>1611.18</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292">
@@ -7942,17 +7942,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>MONSEFU</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="D292">
-        <v>145</v>
+        <v>1761</v>
       </c>
       <c r="E292">
-        <v>393.81</v>
+        <v>1737.35</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -7968,14 +7968,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>NUEVA ARICA</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D293">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E293">
-        <v>1811.87</v>
+        <v>727.5700000000001</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -7994,14 +7994,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>OYOTUN</t>
+          <t>MONSEFU</t>
         </is>
       </c>
       <c r="D294">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="E294">
-        <v>3108.12</v>
+        <v>399.24</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -8020,14 +8020,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>PATAPO</t>
+          <t>NUEVA ARICA</t>
         </is>
       </c>
       <c r="D295">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="E295">
-        <v>1133.01</v>
+        <v>1811.87</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -8046,17 +8046,17 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>PICSI</t>
+          <t>OYOTUN</t>
         </is>
       </c>
       <c r="D296">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="E296">
-        <v>2112.16</v>
+        <v>3096.12</v>
       </c>
       <c r="F296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -8072,17 +8072,17 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>PIMENTEL</t>
+          <t>PATAPO</t>
         </is>
       </c>
       <c r="D297">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="E297">
-        <v>388.89</v>
+        <v>1129.13</v>
       </c>
       <c r="F297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -8098,14 +8098,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>POMALCA</t>
+          <t>PICSI</t>
         </is>
       </c>
       <c r="D298">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="E298">
-        <v>831.42</v>
+        <v>2506.52</v>
       </c>
       <c r="F298">
         <v>2</v>
@@ -8124,14 +8124,14 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>PUCALA</t>
+          <t>PIMENTEL</t>
         </is>
       </c>
       <c r="D299">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="E299">
-        <v>2692.64</v>
+        <v>400.22</v>
       </c>
       <c r="F299">
         <v>2</v>
@@ -8150,17 +8150,17 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>REQUE</t>
+          <t>POMALCA</t>
         </is>
       </c>
       <c r="D300">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="E300">
-        <v>946.11</v>
+        <v>892.35</v>
       </c>
       <c r="F300">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -8176,17 +8176,17 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>PUCALA</t>
         </is>
       </c>
       <c r="D301">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="E301">
-        <v>158.97</v>
+        <v>2747.37</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -8202,17 +8202,17 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>SAÑA</t>
+          <t>REQUE</t>
         </is>
       </c>
       <c r="D302">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="E302">
-        <v>1776.55</v>
+        <v>956.99</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -8228,17 +8228,17 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>TUMAN</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D303">
-        <v>412</v>
+        <v>24</v>
       </c>
       <c r="E303">
-        <v>1357.09</v>
+        <v>165.88</v>
       </c>
       <c r="F303">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -8249,19 +8249,19 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>CAÑARIS</t>
+          <t>SAÑA</t>
         </is>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="E304">
-        <v>23.97</v>
+        <v>1776.55</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -8275,22 +8275,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>TUMAN</t>
         </is>
       </c>
       <c r="D305">
-        <v>876</v>
+        <v>415</v>
       </c>
       <c r="E305">
-        <v>2246.73</v>
+        <v>1366.98</v>
       </c>
       <c r="F305">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
@@ -8306,14 +8306,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>INCAHUASI</t>
+          <t>CAÑARIS</t>
         </is>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E306">
-        <v>25.52</v>
+        <v>23.97</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8332,17 +8332,17 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>MANUEL ANTONIO MESONES MURO</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="D307">
-        <v>22</v>
+        <v>924</v>
       </c>
       <c r="E307">
-        <v>515.71</v>
+        <v>2369.84</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308">
@@ -8358,17 +8358,17 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>PITIPO</t>
+          <t>INCAHUASI</t>
         </is>
       </c>
       <c r="D308">
-        <v>649</v>
+        <v>3</v>
       </c>
       <c r="E308">
-        <v>2886.63</v>
+        <v>19.14</v>
       </c>
       <c r="F308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -8384,17 +8384,17 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>MANUEL ANTONIO MESONES MURO</t>
         </is>
       </c>
       <c r="D309">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="E309">
-        <v>2143.12</v>
+        <v>515.71</v>
       </c>
       <c r="F309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -8405,22 +8405,22 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>CHOCHOPE</t>
+          <t>PITIPO</t>
         </is>
       </c>
       <c r="D310">
-        <v>16</v>
+        <v>663</v>
       </c>
       <c r="E310">
-        <v>949.55</v>
+        <v>2948.89</v>
       </c>
       <c r="F310">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -8431,22 +8431,22 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>ILLIMO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D311">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="E311">
-        <v>1865.6</v>
+        <v>2136.96</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -8462,17 +8462,17 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>JAYANCA</t>
+          <t>CHOCHOPE</t>
         </is>
       </c>
       <c r="D312">
-        <v>608</v>
+        <v>16</v>
       </c>
       <c r="E312">
-        <v>2899.66</v>
+        <v>949.55</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -8488,17 +8488,17 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>ILLIMO</t>
         </is>
       </c>
       <c r="D313">
-        <v>896</v>
+        <v>212</v>
       </c>
       <c r="E313">
-        <v>1049.02</v>
+        <v>2126.38</v>
       </c>
       <c r="F313">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -8514,14 +8514,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>MOCHUMI</t>
+          <t>JAYANCA</t>
         </is>
       </c>
       <c r="D314">
-        <v>37</v>
+        <v>619</v>
       </c>
       <c r="E314">
-        <v>175.53</v>
+        <v>2952.12</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -8540,17 +8540,17 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>MORROPE</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="D315">
-        <v>153</v>
+        <v>910</v>
       </c>
       <c r="E315">
-        <v>259.35</v>
+        <v>1065.41</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316">
@@ -8566,17 +8566,17 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>MOTUPE</t>
+          <t>MOCHUMI</t>
         </is>
       </c>
       <c r="D316">
-        <v>1200</v>
+        <v>38</v>
       </c>
       <c r="E316">
-        <v>3318.68</v>
+        <v>180.27</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -8592,17 +8592,17 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>OLMOS</t>
+          <t>MORROPE</t>
         </is>
       </c>
       <c r="D317">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="E317">
-        <v>653.96</v>
+        <v>261.05</v>
       </c>
       <c r="F317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>PACORA</t>
+          <t>MOTUPE</t>
         </is>
       </c>
       <c r="D318">
-        <v>218</v>
+        <v>1270</v>
       </c>
       <c r="E318">
-        <v>2315.95</v>
+        <v>3512.27</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -8644,17 +8644,17 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>OLMOS</t>
         </is>
       </c>
       <c r="D319">
-        <v>85</v>
+        <v>396</v>
       </c>
       <c r="E319">
-        <v>598.97</v>
+        <v>679.71</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -8670,14 +8670,14 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>PACORA</t>
         </is>
       </c>
       <c r="D320">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="E320">
-        <v>566.28</v>
+        <v>2390.31</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -8696,14 +8696,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>TUCUME</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D321">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E321">
-        <v>206.16</v>
+        <v>641.25</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -8712,24 +8712,24 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D322">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E322">
-        <v>7.97</v>
+        <v>555.79</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -8738,24 +8738,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>PATIVILCA</t>
+          <t>TUCUME</t>
         </is>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E323">
-        <v>5.45</v>
+        <v>213.94</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>SUPE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D324">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E324">
-        <v>104.07</v>
+        <v>6.64</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -8800,14 +8800,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>SUPE PUERTO</t>
+          <t>SUPE</t>
         </is>
       </c>
       <c r="D325">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E325">
-        <v>695.79</v>
+        <v>111.5</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -8821,19 +8821,19 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CAJATAMBO</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>CAJATAMBO</t>
+          <t>SUPE PUERTO</t>
         </is>
       </c>
       <c r="D326">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E326">
-        <v>54.41</v>
+        <v>717.3099999999999</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -8847,19 +8847,19 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>CAJATAMBO</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>CAJATAMBO</t>
         </is>
       </c>
       <c r="D327">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E327">
-        <v>412.84</v>
+        <v>54.41</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -8878,14 +8878,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE QUIVES</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E328">
-        <v>34.76</v>
+        <v>412.84</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -8899,19 +8899,19 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CAÑETE</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>ASIA</t>
+          <t>SANTA ROSA DE QUIVES</t>
         </is>
       </c>
       <c r="D329">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E329">
-        <v>398.23</v>
+        <v>34.76</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -8930,14 +8930,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>CALANGO</t>
+          <t>ASIA</t>
         </is>
       </c>
       <c r="D330">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E330">
-        <v>163.87</v>
+        <v>407.08</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="D332">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E332">
-        <v>197.94</v>
+        <v>201.9</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -9038,10 +9038,10 @@
         </is>
       </c>
       <c r="D334">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E334">
-        <v>152.04</v>
+        <v>169.49</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         </is>
       </c>
       <c r="D336">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="E336">
-        <v>2199.39</v>
+        <v>2261.83</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -9116,10 +9116,10 @@
         </is>
       </c>
       <c r="D337">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E337">
-        <v>79.78</v>
+        <v>83.11</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="D338">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E338">
-        <v>2264.8</v>
+        <v>2306.19</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9168,10 +9168,10 @@
         </is>
       </c>
       <c r="D339">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E339">
-        <v>520.83</v>
+        <v>541.67</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9220,10 +9220,10 @@
         </is>
       </c>
       <c r="D341">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E341">
-        <v>104.52</v>
+        <v>110.86</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         </is>
       </c>
       <c r="D344">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E344">
-        <v>4.74</v>
+        <v>6.32</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         </is>
       </c>
       <c r="D345">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E345">
-        <v>16.35</v>
+        <v>14.53</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="D348">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E348">
-        <v>925.9299999999999</v>
+        <v>1010.1</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -9428,10 +9428,10 @@
         </is>
       </c>
       <c r="D349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E349">
-        <v>50.96</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="D350">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E350">
-        <v>377.19</v>
+        <v>467.71</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         </is>
       </c>
       <c r="D351">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E351">
-        <v>2514.9</v>
+        <v>2598.33</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9636,10 +9636,10 @@
         </is>
       </c>
       <c r="D357">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E357">
-        <v>12.36</v>
+        <v>13.73</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="D359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E359">
-        <v>2.62</v>
+        <v>5.24</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         </is>
       </c>
       <c r="D360">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E360">
-        <v>29.36</v>
+        <v>34.26</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="D362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E362">
-        <v>6.77</v>
+        <v>3.39</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9792,10 +9792,10 @@
         </is>
       </c>
       <c r="D363">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="E363">
-        <v>637.27</v>
+        <v>653.72</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         </is>
       </c>
       <c r="D364">
-        <v>1861</v>
+        <v>1850</v>
       </c>
       <c r="E364">
-        <v>260.97</v>
+        <v>259.43</v>
       </c>
       <c r="F364">
         <v>3</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E365">
-        <v>50.63</v>
+        <v>53.3</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9870,10 +9870,10 @@
         </is>
       </c>
       <c r="D366">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E366">
-        <v>32.68</v>
+        <v>38.81</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -9896,13 +9896,13 @@
         </is>
       </c>
       <c r="D367">
-        <v>2020</v>
+        <v>2093</v>
       </c>
       <c r="E367">
-        <v>473.08</v>
+        <v>490.18</v>
       </c>
       <c r="F367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -9922,10 +9922,10 @@
         </is>
       </c>
       <c r="D368">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="E368">
-        <v>1849.65</v>
+        <v>1890.75</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         </is>
       </c>
       <c r="D369">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E369">
-        <v>54.38</v>
+        <v>54.64</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         </is>
       </c>
       <c r="D370">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E370">
-        <v>452.28</v>
+        <v>459.65</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -10000,10 +10000,10 @@
         </is>
       </c>
       <c r="D371">
-        <v>3114</v>
+        <v>3252</v>
       </c>
       <c r="E371">
-        <v>520.51</v>
+        <v>543.5700000000001</v>
       </c>
       <c r="F371">
         <v>1</v>
@@ -10026,10 +10026,10 @@
         </is>
       </c>
       <c r="D372">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E372">
-        <v>101.39</v>
+        <v>103.95</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="D373">
-        <v>1338</v>
+        <v>1399</v>
       </c>
       <c r="E373">
-        <v>574.9299999999999</v>
+        <v>601.14</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="D374">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E374">
-        <v>82.84999999999999</v>
+        <v>86.31</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -10104,10 +10104,10 @@
         </is>
       </c>
       <c r="D375">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E375">
-        <v>142.15</v>
+        <v>143.33</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         </is>
       </c>
       <c r="D376">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E376">
-        <v>41.92</v>
+        <v>44.47</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="D377">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E377">
-        <v>100.91</v>
+        <v>101.63</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10182,10 +10182,10 @@
         </is>
       </c>
       <c r="D378">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E378">
-        <v>100.23</v>
+        <v>101.79</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         </is>
       </c>
       <c r="D379">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="E379">
-        <v>164.96</v>
+        <v>174.23</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -10234,10 +10234,10 @@
         </is>
       </c>
       <c r="D380">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="E380">
-        <v>473.74</v>
+        <v>475.71</v>
       </c>
       <c r="F380">
         <v>1</v>
@@ -10260,10 +10260,10 @@
         </is>
       </c>
       <c r="D381">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E381">
-        <v>123.99</v>
+        <v>123.12</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         </is>
       </c>
       <c r="D382">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E382">
-        <v>46.05</v>
+        <v>47.49</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -10338,10 +10338,10 @@
         </is>
       </c>
       <c r="D384">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E384">
-        <v>118.81</v>
+        <v>119.46</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="D386">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E386">
-        <v>55.23</v>
+        <v>59.24</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10416,10 +10416,10 @@
         </is>
       </c>
       <c r="D387">
-        <v>2180</v>
+        <v>2250</v>
       </c>
       <c r="E387">
-        <v>523.37</v>
+        <v>540.1799999999999</v>
       </c>
       <c r="F387">
         <v>1</v>
@@ -10494,10 +10494,10 @@
         </is>
       </c>
       <c r="D390">
-        <v>1463</v>
+        <v>1500</v>
       </c>
       <c r="E390">
-        <v>780.42</v>
+        <v>800.16</v>
       </c>
       <c r="F390">
         <v>1</v>
@@ -10598,10 +10598,10 @@
         </is>
       </c>
       <c r="D394">
-        <v>3820</v>
+        <v>3864</v>
       </c>
       <c r="E394">
-        <v>307.94</v>
+        <v>311.49</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -10624,10 +10624,10 @@
         </is>
       </c>
       <c r="D395">
-        <v>2159</v>
+        <v>2192</v>
       </c>
       <c r="E395">
-        <v>501.19</v>
+        <v>508.85</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="D396">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E396">
-        <v>44.83</v>
+        <v>43.1</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         </is>
       </c>
       <c r="D397">
-        <v>1268</v>
+        <v>1298</v>
       </c>
       <c r="E397">
-        <v>162.13</v>
+        <v>165.97</v>
       </c>
       <c r="F397">
         <v>1</v>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="D398">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E398">
-        <v>20.15</v>
+        <v>19.61</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -10728,10 +10728,10 @@
         </is>
       </c>
       <c r="D399">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E399">
-        <v>69.18000000000001</v>
+        <v>69.61</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -10780,10 +10780,10 @@
         </is>
       </c>
       <c r="D401">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E401">
-        <v>199.43</v>
+        <v>211.44</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -10806,10 +10806,10 @@
         </is>
       </c>
       <c r="D402">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E402">
-        <v>36.32</v>
+        <v>37.96</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -10858,10 +10858,10 @@
         </is>
       </c>
       <c r="D404">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E404">
-        <v>70.62</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="D405">
-        <v>974</v>
+        <v>995</v>
       </c>
       <c r="E405">
-        <v>212.2</v>
+        <v>216.77</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="D410">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E410">
-        <v>432.9</v>
+        <v>216.45</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         </is>
       </c>
       <c r="D412">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E412">
-        <v>143.92</v>
+        <v>138.59</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -11118,10 +11118,10 @@
         </is>
       </c>
       <c r="D414">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E414">
-        <v>1947.47</v>
+        <v>1933.61</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -11196,10 +11196,10 @@
         </is>
       </c>
       <c r="D417">
-        <v>1915</v>
+        <v>1889</v>
       </c>
       <c r="E417">
-        <v>1711.87</v>
+        <v>1688.63</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11222,10 +11222,10 @@
         </is>
       </c>
       <c r="D418">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E418">
-        <v>18.16</v>
+        <v>24.22</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -11248,10 +11248,10 @@
         </is>
       </c>
       <c r="D419">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="E419">
-        <v>3226.75</v>
+        <v>3291.17</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="D422">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E422">
-        <v>2896.58</v>
+        <v>2935.46</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="D424">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E424">
-        <v>357.02</v>
+        <v>342.74</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -11404,10 +11404,10 @@
         </is>
       </c>
       <c r="D425">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E425">
-        <v>770.71</v>
+        <v>786.77</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -11430,10 +11430,10 @@
         </is>
       </c>
       <c r="D426">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E426">
-        <v>265.89</v>
+        <v>278.55</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -11482,10 +11482,10 @@
         </is>
       </c>
       <c r="D428">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E428">
-        <v>28.17</v>
+        <v>35.22</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -11534,10 +11534,10 @@
         </is>
       </c>
       <c r="D430">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E430">
-        <v>1615.62</v>
+        <v>1611.61</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="D432">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E432">
-        <v>163.95</v>
+        <v>86.8</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -11638,10 +11638,10 @@
         </is>
       </c>
       <c r="D434">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E434">
-        <v>314.3</v>
+        <v>325.38</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -11716,10 +11716,10 @@
         </is>
       </c>
       <c r="D437">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="E437">
-        <v>805.15</v>
+        <v>808.1799999999999</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -11768,10 +11768,10 @@
         </is>
       </c>
       <c r="D439">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E439">
-        <v>268.35</v>
+        <v>261.47</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -11820,10 +11820,10 @@
         </is>
       </c>
       <c r="D441">
-        <v>1360</v>
+        <v>1378</v>
       </c>
       <c r="E441">
-        <v>1484.64</v>
+        <v>1504.28</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -11846,10 +11846,10 @@
         </is>
       </c>
       <c r="D442">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="E442">
-        <v>370.52</v>
+        <v>378.08</v>
       </c>
       <c r="F442">
         <v>0</v>
@@ -12028,10 +12028,10 @@
         </is>
       </c>
       <c r="D449">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E449">
-        <v>2888.02</v>
+        <v>2868.37</v>
       </c>
       <c r="F449">
         <v>0</v>
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="D452">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E452">
-        <v>606.42</v>
+        <v>620.4400000000001</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -12158,10 +12158,10 @@
         </is>
       </c>
       <c r="D454">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E454">
-        <v>1527.59</v>
+        <v>1555.17</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12236,10 +12236,10 @@
         </is>
       </c>
       <c r="D457">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E457">
-        <v>130.91</v>
+        <v>163.64</v>
       </c>
       <c r="F457">
         <v>0</v>
@@ -12314,10 +12314,10 @@
         </is>
       </c>
       <c r="D460">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E460">
-        <v>544.78</v>
+        <v>563.25</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -12340,10 +12340,10 @@
         </is>
       </c>
       <c r="D461">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E461">
-        <v>554.1</v>
+        <v>569.49</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="D462">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E462">
-        <v>2933.61</v>
+        <v>2899.3</v>
       </c>
       <c r="F462">
         <v>0</v>
@@ -12392,10 +12392,10 @@
         </is>
       </c>
       <c r="D463">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E463">
-        <v>1217.7</v>
+        <v>1128.6</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -12418,10 +12418,10 @@
         </is>
       </c>
       <c r="D464">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E464">
-        <v>623.8099999999999</v>
+        <v>650.9400000000001</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -12444,10 +12444,10 @@
         </is>
       </c>
       <c r="D465">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E465">
-        <v>1030.28</v>
+        <v>1070.57</v>
       </c>
       <c r="F465">
         <v>0</v>
@@ -12470,10 +12470,10 @@
         </is>
       </c>
       <c r="D466">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E466">
-        <v>1109.55</v>
+        <v>983.15</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="D467">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E467">
-        <v>1063.54</v>
+        <v>1022.1</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12522,10 +12522,10 @@
         </is>
       </c>
       <c r="D468">
-        <v>1182</v>
+        <v>1109</v>
       </c>
       <c r="E468">
-        <v>1064.33</v>
+        <v>998.6</v>
       </c>
       <c r="F468">
         <v>2</v>
@@ -12544,14 +12544,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>CONSTITUCION</t>
+          <t>CHONTABAMBA</t>
         </is>
       </c>
       <c r="D469">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="E469">
-        <v>1255.03</v>
+        <v>14.49</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12570,14 +12570,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>CONSTITUCION</t>
         </is>
       </c>
       <c r="D470">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="E470">
-        <v>13.6</v>
+        <v>1255.03</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -12596,14 +12596,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="D471">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E471">
-        <v>32.95</v>
+        <v>13.6</v>
       </c>
       <c r="F471">
         <v>0</v>
@@ -12622,14 +12622,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>PALCAZU</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="D472">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E472">
-        <v>438.34</v>
+        <v>32.95</v>
       </c>
       <c r="F472">
         <v>0</v>
@@ -12648,14 +12648,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>POZUZO</t>
+          <t>PALCAZU</t>
         </is>
       </c>
       <c r="D473">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E473">
-        <v>1558.67</v>
+        <v>473.88</v>
       </c>
       <c r="F473">
         <v>0</v>
@@ -12674,14 +12674,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>PUERTO BERMUDEZ</t>
+          <t>POZUZO</t>
         </is>
       </c>
       <c r="D474">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E474">
-        <v>115.37</v>
+        <v>1647.74</v>
       </c>
       <c r="F474">
         <v>0</v>
@@ -12700,14 +12700,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>VILLA RICA</t>
+          <t>PUERTO BERMUDEZ</t>
         </is>
       </c>
       <c r="D475">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E475">
-        <v>120.55</v>
+        <v>119.65</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12721,19 +12721,19 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>CHAUPIMARCA</t>
+          <t>VILLA RICA</t>
         </is>
       </c>
       <c r="D476">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E476">
-        <v>7.63</v>
+        <v>141.52</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -12752,14 +12752,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>PAUCARTAMBO</t>
+          <t>CHAUPIMARCA</t>
         </is>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E477">
-        <v>11.6</v>
+        <v>7.63</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -12778,14 +12778,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>TINYAHUARCO</t>
+          <t>PAUCARTAMBO</t>
         </is>
       </c>
       <c r="D478">
         <v>1</v>
       </c>
       <c r="E478">
-        <v>13.82</v>
+        <v>11.6</v>
       </c>
       <c r="F478">
         <v>0</v>
@@ -12804,14 +12804,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>YANACANCHA</t>
+          <t>TINYAHUARCO</t>
         </is>
       </c>
       <c r="D479">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E479">
-        <v>6.58</v>
+        <v>13.82</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -12820,24 +12820,24 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AYABACA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>AYABACA</t>
+          <t>YANACANCHA</t>
         </is>
       </c>
       <c r="D480">
         <v>2</v>
       </c>
       <c r="E480">
-        <v>6.21</v>
+        <v>6.58</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -12856,14 +12856,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>FRIAS</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="D481">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E481">
-        <v>18.94</v>
+        <v>3.11</v>
       </c>
       <c r="F481">
         <v>0</v>
@@ -12882,14 +12882,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>MONTERO</t>
+          <t>FRIAS</t>
         </is>
       </c>
       <c r="D482">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E482">
-        <v>61.51</v>
+        <v>33.15</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -12908,14 +12908,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>PAIMAS</t>
+          <t>MONTERO</t>
         </is>
       </c>
       <c r="D483">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E483">
-        <v>498.71</v>
+        <v>61.51</v>
       </c>
       <c r="F483">
         <v>0</v>
@@ -12934,14 +12934,14 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>SICCHEZ</t>
+          <t>PAIMAS</t>
         </is>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E484">
-        <v>63.73</v>
+        <v>556.25</v>
       </c>
       <c r="F484">
         <v>0</v>
@@ -12964,10 +12964,10 @@
         </is>
       </c>
       <c r="D485">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E485">
-        <v>3758.77</v>
+        <v>3800.53</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -13068,10 +13068,10 @@
         </is>
       </c>
       <c r="D489">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E489">
-        <v>24.48</v>
+        <v>48.96</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="D494">
-        <v>4977</v>
+        <v>5003</v>
       </c>
       <c r="E494">
-        <v>5424.29</v>
+        <v>5452.62</v>
       </c>
       <c r="F494">
         <v>7</v>
@@ -13224,10 +13224,10 @@
         </is>
       </c>
       <c r="D495">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E495">
-        <v>3411.13</v>
+        <v>3417.54</v>
       </c>
       <c r="F495">
         <v>2</v>
@@ -13250,10 +13250,10 @@
         </is>
       </c>
       <c r="D496">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E496">
-        <v>4294.44</v>
+        <v>4324.98</v>
       </c>
       <c r="F496">
         <v>0</v>
@@ -13276,10 +13276,10 @@
         </is>
       </c>
       <c r="D497">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E497">
-        <v>3534.97</v>
+        <v>3642.42</v>
       </c>
       <c r="F497">
         <v>0</v>
@@ -13302,10 +13302,10 @@
         </is>
       </c>
       <c r="D498">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E498">
-        <v>2965.48</v>
+        <v>3231.04</v>
       </c>
       <c r="F498">
         <v>0</v>
@@ -13328,10 +13328,10 @@
         </is>
       </c>
       <c r="D499">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E499">
-        <v>922.75</v>
+        <v>949.12</v>
       </c>
       <c r="F499">
         <v>0</v>
@@ -13380,10 +13380,10 @@
         </is>
       </c>
       <c r="D501">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E501">
-        <v>137.6</v>
+        <v>149.07</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -13406,10 +13406,10 @@
         </is>
       </c>
       <c r="D502">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E502">
-        <v>5042.02</v>
+        <v>5118.41</v>
       </c>
       <c r="F502">
         <v>1</v>
@@ -13458,10 +13458,10 @@
         </is>
       </c>
       <c r="D504">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E504">
-        <v>2902.08</v>
+        <v>2919.05</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -13510,10 +13510,10 @@
         </is>
       </c>
       <c r="D506">
-        <v>2223</v>
+        <v>2231</v>
       </c>
       <c r="E506">
-        <v>2049.04</v>
+        <v>2056.41</v>
       </c>
       <c r="F506">
         <v>4</v>
@@ -13536,10 +13536,10 @@
         </is>
       </c>
       <c r="D507">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E507">
-        <v>2713.8</v>
+        <v>2981.61</v>
       </c>
       <c r="F507">
         <v>0</v>
@@ -13588,10 +13588,10 @@
         </is>
       </c>
       <c r="D509">
-        <v>8021</v>
+        <v>8200</v>
       </c>
       <c r="E509">
-        <v>4097.45</v>
+        <v>4188.89</v>
       </c>
       <c r="F509">
         <v>13</v>
@@ -13614,10 +13614,10 @@
         </is>
       </c>
       <c r="D510">
-        <v>2332</v>
+        <v>2382</v>
       </c>
       <c r="E510">
-        <v>2753.34</v>
+        <v>2812.38</v>
       </c>
       <c r="F510">
         <v>4</v>
@@ -13640,10 +13640,10 @@
         </is>
       </c>
       <c r="D511">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E511">
-        <v>2843.38</v>
+        <v>2852.92</v>
       </c>
       <c r="F511">
         <v>2</v>
@@ -13692,10 +13692,10 @@
         </is>
       </c>
       <c r="D513">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="E513">
-        <v>2154.84</v>
+        <v>2177.99</v>
       </c>
       <c r="F513">
         <v>0</v>
@@ -13718,10 +13718,10 @@
         </is>
       </c>
       <c r="D514">
-        <v>1749</v>
+        <v>1779</v>
       </c>
       <c r="E514">
-        <v>3763.31</v>
+        <v>3827.86</v>
       </c>
       <c r="F514">
         <v>5</v>
@@ -13744,10 +13744,10 @@
         </is>
       </c>
       <c r="D515">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E515">
-        <v>651.09</v>
+        <v>657.7</v>
       </c>
       <c r="F515">
         <v>1</v>
@@ -13770,10 +13770,10 @@
         </is>
       </c>
       <c r="D516">
-        <v>8532</v>
+        <v>8668</v>
       </c>
       <c r="E516">
-        <v>4501.23</v>
+        <v>4572.98</v>
       </c>
       <c r="F516">
         <v>23</v>
@@ -13796,13 +13796,13 @@
         </is>
       </c>
       <c r="D517">
-        <v>2512</v>
+        <v>2669</v>
       </c>
       <c r="E517">
-        <v>1925.21</v>
+        <v>2045.54</v>
       </c>
       <c r="F517">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="518">
@@ -13822,13 +13822,13 @@
         </is>
       </c>
       <c r="D518">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="E518">
-        <v>1783.1</v>
+        <v>1784.12</v>
       </c>
       <c r="F518">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519">
@@ -13848,10 +13848,10 @@
         </is>
       </c>
       <c r="D519">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E519">
-        <v>4785.12</v>
+        <v>5074.03</v>
       </c>
       <c r="F519">
         <v>0</v>
@@ -13874,10 +13874,10 @@
         </is>
       </c>
       <c r="D520">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E520">
-        <v>797.55</v>
+        <v>822.09</v>
       </c>
       <c r="F520">
         <v>0</v>
@@ -13900,10 +13900,10 @@
         </is>
       </c>
       <c r="D521">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E521">
-        <v>753.86</v>
+        <v>848.1</v>
       </c>
       <c r="F521">
         <v>0</v>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="D523">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E523">
-        <v>1156.9</v>
+        <v>1164.16</v>
       </c>
       <c r="F523">
         <v>0</v>
@@ -13978,10 +13978,10 @@
         </is>
       </c>
       <c r="D524">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E524">
-        <v>1429.47</v>
+        <v>1450.41</v>
       </c>
       <c r="F524">
         <v>0</v>
@@ -14004,10 +14004,10 @@
         </is>
       </c>
       <c r="D525">
-        <v>1166</v>
+        <v>1205</v>
       </c>
       <c r="E525">
-        <v>2904.4</v>
+        <v>3001.54</v>
       </c>
       <c r="F525">
         <v>4</v>
@@ -14030,10 +14030,10 @@
         </is>
       </c>
       <c r="D526">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="E526">
-        <v>3700.91</v>
+        <v>3767.55</v>
       </c>
       <c r="F526">
         <v>5</v>
@@ -14056,10 +14056,10 @@
         </is>
       </c>
       <c r="D527">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E527">
-        <v>300.94</v>
+        <v>315.62</v>
       </c>
       <c r="F527">
         <v>0</v>
@@ -14082,10 +14082,10 @@
         </is>
       </c>
       <c r="D528">
-        <v>1359</v>
+        <v>1400</v>
       </c>
       <c r="E528">
-        <v>4059.87</v>
+        <v>4182.35</v>
       </c>
       <c r="F528">
         <v>0</v>
@@ -14108,10 +14108,10 @@
         </is>
       </c>
       <c r="D529">
-        <v>658</v>
+        <v>679</v>
       </c>
       <c r="E529">
-        <v>6181.31</v>
+        <v>6378.58</v>
       </c>
       <c r="F529">
         <v>0</v>
@@ -14134,10 +14134,10 @@
         </is>
       </c>
       <c r="D530">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="E530">
-        <v>3036.89</v>
+        <v>3085.21</v>
       </c>
       <c r="F530">
         <v>3</v>
@@ -14160,10 +14160,10 @@
         </is>
       </c>
       <c r="D531">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E531">
-        <v>3094.85</v>
+        <v>3282.8</v>
       </c>
       <c r="F531">
         <v>1</v>
@@ -14186,10 +14186,10 @@
         </is>
       </c>
       <c r="D532">
-        <v>5007</v>
+        <v>5329</v>
       </c>
       <c r="E532">
-        <v>2557.06</v>
+        <v>2721.5</v>
       </c>
       <c r="F532">
         <v>10</v>
@@ -14212,10 +14212,10 @@
         </is>
       </c>
       <c r="D533">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E533">
-        <v>749.63</v>
+        <v>760.33</v>
       </c>
       <c r="F533">
         <v>1</v>
@@ -14238,13 +14238,13 @@
         </is>
       </c>
       <c r="D534">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E534">
-        <v>318.02</v>
+        <v>332.82</v>
       </c>
       <c r="F534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -14316,10 +14316,10 @@
         </is>
       </c>
       <c r="D537">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="E537">
-        <v>1813.21</v>
+        <v>1505.3</v>
       </c>
       <c r="F537">
         <v>0</v>
@@ -14342,10 +14342,10 @@
         </is>
       </c>
       <c r="D538">
-        <v>1534</v>
+        <v>1740</v>
       </c>
       <c r="E538">
-        <v>1413.71</v>
+        <v>1603.55</v>
       </c>
       <c r="F538">
         <v>4</v>
@@ -14472,10 +14472,10 @@
         </is>
       </c>
       <c r="D543">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E543">
-        <v>190.67</v>
+        <v>120.76</v>
       </c>
       <c r="F543">
         <v>0</v>
@@ -14498,10 +14498,10 @@
         </is>
       </c>
       <c r="D544">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E544">
-        <v>1172.92</v>
+        <v>1234.38</v>
       </c>
       <c r="F544">
         <v>1</v>
@@ -14550,10 +14550,10 @@
         </is>
       </c>
       <c r="D546">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E546">
-        <v>362.61</v>
+        <v>351.27</v>
       </c>
       <c r="F546">
         <v>0</v>
@@ -14576,10 +14576,10 @@
         </is>
       </c>
       <c r="D547">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E547">
-        <v>249.3</v>
+        <v>311.62</v>
       </c>
       <c r="F547">
         <v>0</v>
@@ -14628,10 +14628,10 @@
         </is>
       </c>
       <c r="D549">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E549">
-        <v>139.62</v>
+        <v>145.2</v>
       </c>
       <c r="F549">
         <v>1</v>
@@ -14810,10 +14810,10 @@
         </is>
       </c>
       <c r="D556">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E556">
-        <v>848.54</v>
+        <v>890.96</v>
       </c>
       <c r="F556">
         <v>0</v>
@@ -14836,10 +14836,10 @@
         </is>
       </c>
       <c r="D557">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E557">
-        <v>308.48</v>
+        <v>327.76</v>
       </c>
       <c r="F557">
         <v>0</v>
@@ -14888,10 +14888,10 @@
         </is>
       </c>
       <c r="D559">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E559">
-        <v>27.55</v>
+        <v>20.66</v>
       </c>
       <c r="F559">
         <v>0</v>
@@ -14940,10 +14940,10 @@
         </is>
       </c>
       <c r="D561">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E561">
-        <v>1555.75</v>
+        <v>1564.39</v>
       </c>
       <c r="F561">
         <v>1</v>
@@ -14966,10 +14966,10 @@
         </is>
       </c>
       <c r="D562">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E562">
-        <v>525.8</v>
+        <v>558.66</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -14992,10 +14992,10 @@
         </is>
       </c>
       <c r="D563">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E563">
-        <v>1186.07</v>
+        <v>1211.17</v>
       </c>
       <c r="F563">
         <v>0</v>
@@ -15122,10 +15122,10 @@
         </is>
       </c>
       <c r="D568">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E568">
-        <v>306.44</v>
+        <v>313.1</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -15148,10 +15148,10 @@
         </is>
       </c>
       <c r="D569">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E569">
-        <v>524.9299999999999</v>
+        <v>541.34</v>
       </c>
       <c r="F569">
         <v>0</v>
@@ -15174,10 +15174,10 @@
         </is>
       </c>
       <c r="D570">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E570">
-        <v>231.37</v>
+        <v>236.63</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -15226,10 +15226,10 @@
         </is>
       </c>
       <c r="D572">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="E572">
-        <v>1234.33</v>
+        <v>1256.52</v>
       </c>
       <c r="F572">
         <v>1</v>
@@ -15304,10 +15304,10 @@
         </is>
       </c>
       <c r="D575">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E575">
-        <v>362.61</v>
+        <v>423.05</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -15356,10 +15356,10 @@
         </is>
       </c>
       <c r="D577">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E577">
-        <v>94.37</v>
+        <v>106.95</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -15382,10 +15382,10 @@
         </is>
       </c>
       <c r="D578">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E578">
-        <v>736.92</v>
+        <v>734.66</v>
       </c>
       <c r="F578">
         <v>2</v>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="D590">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E590">
-        <v>46.85</v>
+        <v>58.57</v>
       </c>
       <c r="F590">
         <v>0</v>
@@ -15824,10 +15824,10 @@
         </is>
       </c>
       <c r="D595">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E595">
-        <v>501.26</v>
+        <v>555.36</v>
       </c>
       <c r="F595">
         <v>0</v>
@@ -15960,7 +15960,7 @@
         <v>276.8</v>
       </c>
       <c r="F600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -15980,10 +15980,10 @@
         </is>
       </c>
       <c r="D601">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E601">
-        <v>869.02</v>
+        <v>877.98</v>
       </c>
       <c r="F601">
         <v>0</v>
@@ -16084,10 +16084,10 @@
         </is>
       </c>
       <c r="D605">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E605">
-        <v>342.7</v>
+        <v>365.55</v>
       </c>
       <c r="F605">
         <v>0</v>
@@ -16110,10 +16110,10 @@
         </is>
       </c>
       <c r="D606">
-        <v>774</v>
+        <v>695</v>
       </c>
       <c r="E606">
-        <v>1456.53</v>
+        <v>1307.87</v>
       </c>
       <c r="F606">
         <v>0</v>
@@ -16136,10 +16136,10 @@
         </is>
       </c>
       <c r="D607">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E607">
-        <v>946.08</v>
+        <v>961.17</v>
       </c>
       <c r="F607">
         <v>0</v>
@@ -16266,10 +16266,10 @@
         </is>
       </c>
       <c r="D612">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="E612">
-        <v>739.96</v>
+        <v>751.46</v>
       </c>
       <c r="F612">
         <v>2</v>
@@ -16292,10 +16292,10 @@
         </is>
       </c>
       <c r="D613">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E613">
-        <v>1614.55</v>
+        <v>1551.85</v>
       </c>
       <c r="F613">
         <v>0</v>
@@ -16344,10 +16344,10 @@
         </is>
       </c>
       <c r="D615">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E615">
-        <v>171</v>
+        <v>188.1</v>
       </c>
       <c r="F615">
         <v>0</v>
@@ -16370,10 +16370,10 @@
         </is>
       </c>
       <c r="D616">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E616">
-        <v>558.6799999999999</v>
+        <v>529.78</v>
       </c>
       <c r="F616">
         <v>0</v>
@@ -16396,10 +16396,10 @@
         </is>
       </c>
       <c r="D617">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E617">
-        <v>799.95</v>
+        <v>766.62</v>
       </c>
       <c r="F617">
         <v>0</v>
@@ -16422,10 +16422,10 @@
         </is>
       </c>
       <c r="D618">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E618">
-        <v>688.49</v>
+        <v>736.8</v>
       </c>
       <c r="F618">
         <v>0</v>
@@ -16448,10 +16448,10 @@
         </is>
       </c>
       <c r="D619">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E619">
-        <v>1331.46</v>
+        <v>1366.5</v>
       </c>
       <c r="F619">
         <v>0</v>
@@ -16474,10 +16474,10 @@
         </is>
       </c>
       <c r="D620">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="E620">
-        <v>2615.05</v>
+        <v>2806.23</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -16500,10 +16500,10 @@
         </is>
       </c>
       <c r="D621">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="E621">
-        <v>1528.02</v>
+        <v>1592.48</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -16526,10 +16526,10 @@
         </is>
       </c>
       <c r="D622">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E622">
-        <v>864.55</v>
+        <v>891.5700000000001</v>
       </c>
       <c r="F622">
         <v>0</v>
@@ -16552,10 +16552,10 @@
         </is>
       </c>
       <c r="D623">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E623">
-        <v>1375.14</v>
+        <v>1503.66</v>
       </c>
       <c r="F623">
         <v>0</v>
@@ -16578,10 +16578,10 @@
         </is>
       </c>
       <c r="D624">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E624">
-        <v>1555.08</v>
+        <v>1587.47</v>
       </c>
       <c r="F624">
         <v>0</v>
@@ -16604,10 +16604,10 @@
         </is>
       </c>
       <c r="D625">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E625">
-        <v>1226.16</v>
+        <v>1245.62</v>
       </c>
       <c r="F625">
         <v>0</v>
@@ -16630,10 +16630,10 @@
         </is>
       </c>
       <c r="D626">
-        <v>1783</v>
+        <v>1867</v>
       </c>
       <c r="E626">
-        <v>1510.19</v>
+        <v>1581.33</v>
       </c>
       <c r="F626">
         <v>0</v>
@@ -16656,10 +16656,10 @@
         </is>
       </c>
       <c r="D627">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E627">
-        <v>484.5</v>
+        <v>538.88</v>
       </c>
       <c r="F627">
         <v>0</v>
@@ -16682,10 +16682,10 @@
         </is>
       </c>
       <c r="D628">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E628">
-        <v>335.64</v>
+        <v>377.6</v>
       </c>
       <c r="F628">
         <v>0</v>
@@ -16708,10 +16708,10 @@
         </is>
       </c>
       <c r="D629">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E629">
-        <v>1129.12</v>
+        <v>1155.69</v>
       </c>
       <c r="F629">
         <v>0</v>
@@ -16734,10 +16734,10 @@
         </is>
       </c>
       <c r="D630">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E630">
-        <v>833.95</v>
+        <v>867.16</v>
       </c>
       <c r="F630">
         <v>1</v>
@@ -16760,10 +16760,10 @@
         </is>
       </c>
       <c r="D631">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E631">
-        <v>962.3200000000001</v>
+        <v>971.5700000000001</v>
       </c>
       <c r="F631">
         <v>0</v>
@@ -16864,10 +16864,10 @@
         </is>
       </c>
       <c r="D635">
-        <v>3983</v>
+        <v>4010</v>
       </c>
       <c r="E635">
-        <v>2192.06</v>
+        <v>2206.92</v>
       </c>
       <c r="F635">
         <v>3</v>
@@ -16890,10 +16890,10 @@
         </is>
       </c>
       <c r="D636">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E636">
-        <v>815.09</v>
+        <v>829.3099999999999</v>
       </c>
       <c r="F636">
         <v>0</v>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="D638">
-        <v>1724</v>
+        <v>1743</v>
       </c>
       <c r="E638">
-        <v>1498.02</v>
+        <v>1514.53</v>
       </c>
       <c r="F638">
         <v>2</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="D640">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E640">
-        <v>2822.19</v>
+        <v>2871.13</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -17020,10 +17020,10 @@
         </is>
       </c>
       <c r="D641">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="E641">
-        <v>1231</v>
+        <v>1240.5</v>
       </c>
       <c r="F641">
         <v>5</v>
@@ -17046,10 +17046,10 @@
         </is>
       </c>
       <c r="D642">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E642">
-        <v>765.7</v>
+        <v>781.01</v>
       </c>
       <c r="F642">
         <v>0</v>
@@ -17072,10 +17072,10 @@
         </is>
       </c>
       <c r="D643">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E643">
-        <v>192.79</v>
+        <v>212.07</v>
       </c>
       <c r="F643">
         <v>0</v>
@@ -17150,10 +17150,10 @@
         </is>
       </c>
       <c r="D646">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E646">
-        <v>535.24</v>
+        <v>944.1</v>
       </c>
       <c r="F646">
         <v>0</v>
@@ -17176,10 +17176,10 @@
         </is>
       </c>
       <c r="D647">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E647">
-        <v>880.28</v>
+        <v>897.89</v>
       </c>
       <c r="F647">
         <v>0</v>
@@ -17202,38 +17202,12 @@
         </is>
       </c>
       <c r="D648">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="E648">
-        <v>1290.63</v>
+        <v>1328.31</v>
       </c>
       <c r="F648">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>UCAYALI</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>PURUS</t>
-        </is>
-      </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>PURUS</t>
-        </is>
-      </c>
-      <c r="D649">
-        <v>1</v>
-      </c>
-      <c r="E649">
-        <v>30.23</v>
-      </c>
-      <c r="F649">
         <v>0</v>
       </c>
     </row>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2">
-        <v>602.35</v>
+        <v>631.97</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="E3">
-        <v>2286.67</v>
+        <v>2326.04</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>2632.16</v>
+        <v>2654.28</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6">
-        <v>937.46</v>
+        <v>934.58</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7">
-        <v>1225.68</v>
+        <v>1164.39</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>14.86</v>
+        <v>12.38</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="E14">
-        <v>1165.18</v>
+        <v>985.26</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>181.28</v>
+        <v>176.1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E17">
-        <v>542.15</v>
+        <v>555.74</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E18">
-        <v>451.89</v>
+        <v>439.45</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>1046.15</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>34.99</v>
+        <v>69.98</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E25">
-        <v>1186.5</v>
+        <v>1202.85</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>4.22</v>
+        <v>2.81</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="D36">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E36">
-        <v>1502.96</v>
+        <v>1506.52</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1333,19 +1333,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HUAYLAS</t>
+          <t>POMABAMBA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CARAZ</t>
+          <t>PAROBAMBA</t>
         </is>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>3.67</v>
+        <v>16.02</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1359,19 +1359,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>POMABAMBA</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PAROBAMBA</t>
+          <t>CACERES DEL PERU</t>
         </is>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>16.02</v>
+        <v>41.31</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CACERES DEL PERU</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>554</v>
       </c>
       <c r="E40">
-        <v>41.31</v>
+        <v>251.81</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D41">
-        <v>565</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>256.81</v>
+        <v>83.48999999999999</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>83.48999999999999</v>
+        <v>190.39</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1468,14 +1468,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>1030</v>
       </c>
       <c r="E43">
-        <v>190.39</v>
+        <v>6839.76</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D44">
-        <v>1019</v>
+        <v>333</v>
       </c>
       <c r="E44">
-        <v>6766.72</v>
+        <v>175.08</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1520,14 +1520,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D45">
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>170.87</v>
+        <v>55.47</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>321</v>
       </c>
       <c r="E46">
-        <v>55.47</v>
+        <v>1338.73</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1567,45 +1567,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>YUNGAY</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>QUILLO</t>
         </is>
       </c>
       <c r="D47">
-        <v>319</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>1330.39</v>
+        <v>7.53</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>YUNGAY</t>
+          <t>ABANCAY</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QUILLO</t>
+          <t>ABANCAY**</t>
         </is>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>7.53</v>
+        <v>1.26</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1614,24 +1614,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ABANCAY</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ABANCAY**</t>
+          <t>AREQUIPA**</t>
         </is>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1.26</v>
+        <v>1.77</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1645,19 +1645,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
+          <t>CAMANA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AREQUIPA**</t>
+          <t>CAMANA**</t>
         </is>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1.77</v>
+        <v>7.91</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1671,19 +1671,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CAMANA</t>
+          <t>CARAVELI</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CAMANA**</t>
+          <t>CHALA**</t>
         </is>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>7.91</v>
+        <v>18.43</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1692,24 +1692,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CARAVELI</t>
+          <t>CANGALLO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CHALA**</t>
+          <t>CHUSCHI</t>
         </is>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>18.43</v>
+        <v>11.14</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1723,19 +1723,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CANGALLO</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CHUSCHI</t>
+          <t>ACOCRO</t>
         </is>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>11.14</v>
+        <v>10.56</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ACOCRO</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>10.56</v>
+        <v>3.4</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1780,14 +1780,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ANDRES AVELINO CACERES D.</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>3.13</v>
+        <v>1.76</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>3.4</v>
+        <v>13.57</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1827,19 +1827,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E57">
-        <v>1.76</v>
+        <v>1131.48</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1853,19 +1853,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>13.57</v>
+        <v>4.55</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1884,14 +1884,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D59">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E59">
-        <v>1108.85</v>
+        <v>457.29</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1910,14 +1910,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LURICOCHA</t>
         </is>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>4.55</v>
+        <v>15.81</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1936,14 +1936,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D61">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="E61">
-        <v>465.92</v>
+        <v>1656.24</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1957,19 +1957,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>15.81</v>
+        <v>24.34</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1983,19 +1983,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D63">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>1673.86</v>
+        <v>71.86</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2014,14 +2014,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="E64">
-        <v>24.34</v>
+        <v>1256.44</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>CHUNGUI</t>
         </is>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>89.83</v>
+        <v>46.46</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2066,14 +2066,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D66">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="E66">
-        <v>1287.33</v>
+        <v>1558.92</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CHUNGUI</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>46.46</v>
+        <v>339.94</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2118,14 +2118,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D68">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>1696.47</v>
+        <v>48.69</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2144,14 +2144,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E69">
-        <v>339.94</v>
+        <v>495.17</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2170,17 +2170,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>48.69</v>
+        <v>742.8</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2191,19 +2191,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D71">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>503.15</v>
+        <v>40.11</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2217,22 +2217,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>742.8</v>
+        <v>14.37</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2243,19 +2243,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>40.11</v>
+        <v>16.66</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2264,24 +2264,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74">
-        <v>14.37</v>
+        <v>5.66</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2290,24 +2290,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>16.66</v>
+        <v>13.07</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2321,19 +2321,19 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>5.66</v>
+        <v>7.48</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>13.07</v>
+        <v>27.37</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2378,14 +2378,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>7.48</v>
+        <v>44.2</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2399,19 +2399,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>COSPAN</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79">
-        <v>27.37</v>
+        <v>6.82</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2425,19 +2425,19 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>UTCO</t>
         </is>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>44.2</v>
+        <v>188.86</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2451,19 +2451,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>3.41</v>
+        <v>10.59</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2477,19 +2477,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>UTCO</t>
+          <t>CHIGUIRIP</t>
         </is>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>188.86</v>
+        <v>28.89</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>10.59</v>
+        <v>21.37</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CHIGUIRIP</t>
+          <t>HUAMBOS</t>
         </is>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>28.89</v>
+        <v>11.95</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E85">
-        <v>21.37</v>
+        <v>266.14</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HUAMBOS</t>
+          <t>MIRACOSTA</t>
         </is>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>11.95</v>
+        <v>62.15</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2612,14 +2612,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D87">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>266.14</v>
+        <v>11.56</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MIRACOSTA</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>62.15</v>
+        <v>105.04</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>TACABAMBA</t>
         </is>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>11.56</v>
+        <v>12.38</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>105.04</v>
+        <v>117.23</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2711,19 +2711,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TACABAMBA</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>451</v>
       </c>
       <c r="E91">
-        <v>12.38</v>
+        <v>17063.94</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2737,19 +2737,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E92">
-        <v>117.23</v>
+        <v>688.34</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D93">
-        <v>452</v>
+        <v>50</v>
       </c>
       <c r="E93">
-        <v>17101.78</v>
+        <v>1917.18</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2794,14 +2794,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D94">
-        <v>53</v>
+        <v>737</v>
       </c>
       <c r="E94">
-        <v>675.59</v>
+        <v>10899.14</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2815,19 +2815,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>CALLAYUC</t>
         </is>
       </c>
       <c r="D95">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>1687.12</v>
+        <v>10.7</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2841,19 +2841,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D96">
-        <v>735</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>10869.57</v>
+        <v>31.47</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2872,14 +2872,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CALLAYUC</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>10.7</v>
+        <v>7.94</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2898,14 +2898,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>PIMPINGOS</t>
         </is>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>31.47</v>
+        <v>20.29</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>7.94</v>
+        <v>7.8</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2950,14 +2950,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PIMPINGOS</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>20.29</v>
+        <v>11.3</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2971,19 +2971,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E101">
-        <v>7.8</v>
+        <v>1585.58</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2997,19 +2997,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>11.3</v>
+        <v>189.61</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3028,14 +3028,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>HUABAL</t>
         </is>
       </c>
       <c r="D103">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>1549.41</v>
+        <v>10.91</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3054,17 +3054,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D104">
-        <v>18</v>
+        <v>3125</v>
       </c>
       <c r="E104">
-        <v>170.65</v>
+        <v>2861.49</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3080,14 +3080,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HUABAL</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>10.91</v>
+        <v>21.18</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3106,17 +3106,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D106">
-        <v>3087</v>
+        <v>61</v>
       </c>
       <c r="E106">
-        <v>2826.69</v>
+        <v>870.6799999999999</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3132,14 +3132,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>SALLIQUE</t>
         </is>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E107">
-        <v>21.18</v>
+        <v>263.19</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3158,14 +3158,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D108">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>813.59</v>
+        <v>21.51</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3184,14 +3184,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SALLIQUE</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D109">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>250.03</v>
+        <v>60.66</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3210,14 +3210,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E110">
-        <v>21.51</v>
+        <v>156.89</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3231,19 +3231,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E111">
-        <v>36.4</v>
+        <v>115.76</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3257,19 +3257,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D112">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="E112">
-        <v>156.89</v>
+        <v>920.66</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3288,14 +3288,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D113">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>127.95</v>
+        <v>18.44</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3314,14 +3314,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D114">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="E114">
-        <v>909.83</v>
+        <v>110.36</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="E115">
-        <v>23.05</v>
+        <v>1004.35</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3366,14 +3366,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>70.23</v>
+        <v>39.76</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3392,14 +3392,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D117">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="E117">
-        <v>1016.42</v>
+        <v>186.86</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3413,19 +3413,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>39.76</v>
+        <v>4.58</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3439,19 +3439,19 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="D119">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>181.94</v>
+        <v>81.5</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3465,19 +3465,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PEDRO GALVEZ</t>
+          <t>CALQUIS</t>
         </is>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>4.58</v>
+        <v>23.87</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3496,14 +3496,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>NANCHOC</t>
         </is>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E121">
-        <v>81.5</v>
+        <v>3169.81</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3522,14 +3522,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CALQUIS</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E122">
-        <v>23.87</v>
+        <v>66.84</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NANCHOC</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D123">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>3169.81</v>
+        <v>28.39</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3569,19 +3569,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E124">
-        <v>66.84</v>
+        <v>731.22</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3595,19 +3595,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>28.39</v>
+        <v>10.32</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3621,19 +3621,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D126">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>576.11</v>
+        <v>105.51</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3642,24 +3642,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="E127">
-        <v>10.32</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3668,24 +3668,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="E128">
-        <v>105.51</v>
+        <v>61.78</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3704,14 +3704,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D129">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E129">
-        <v>92.68000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3730,14 +3730,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D130">
-        <v>335</v>
+        <v>17</v>
       </c>
       <c r="E130">
-        <v>62.34</v>
+        <v>25.82</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3756,14 +3756,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D131">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>74.59999999999999</v>
+        <v>49.96</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D132">
-        <v>17</v>
+        <v>352</v>
       </c>
       <c r="E132">
-        <v>25.82</v>
+        <v>641.11</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,69 +3808,69 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D133">
+        <v>1382</v>
+      </c>
+      <c r="E133">
+        <v>348.09</v>
+      </c>
+      <c r="F133">
         <v>2</v>
-      </c>
-      <c r="E133">
-        <v>49.96</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D134">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="E134">
-        <v>571.9</v>
+        <v>500.37</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D135">
-        <v>1300</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>327.43</v>
+        <v>18.08</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3881,22 +3881,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D136">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>500.37</v>
+        <v>5.71</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3907,19 +3907,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137">
-        <v>18.08</v>
+        <v>0.7</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3933,19 +3933,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="D138">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>5.71</v>
+        <v>2.54</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3959,19 +3959,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SAN SEBASTIAN</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E139">
-        <v>0.7</v>
+        <v>1002.73</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3985,19 +3985,19 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="E140">
-        <v>2.54</v>
+        <v>361.3</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>INKAWASI</t>
         </is>
       </c>
       <c r="D141">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>1002.73</v>
+        <v>19.77</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4042,17 +4042,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D142">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="E142">
-        <v>361.3</v>
+        <v>2524.56</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D143">
-        <v>349</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>2503.05</v>
+        <v>153.37</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D144">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E144">
-        <v>187.46</v>
+        <v>1611.54</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4120,14 +4120,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D145">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E145">
-        <v>1611.54</v>
+        <v>119.36</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4146,14 +4146,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E146">
-        <v>119.36</v>
+        <v>924.35</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D147">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="E147">
-        <v>936.51</v>
+        <v>1988.53</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4198,17 +4198,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D148">
-        <v>469</v>
+        <v>16</v>
       </c>
       <c r="E148">
-        <v>1992.78</v>
+        <v>107.06</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4224,17 +4224,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>1002</v>
       </c>
       <c r="E149">
-        <v>100.37</v>
+        <v>3360.5</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4250,17 +4250,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>SANTA TERESA</t>
         </is>
       </c>
       <c r="D150">
-        <v>1043</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>3498</v>
+        <v>14.55</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4276,14 +4276,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SANTA TERESA</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E151">
-        <v>14.55</v>
+        <v>997.28</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4302,14 +4302,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D152">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E152">
-        <v>997.28</v>
+        <v>3729.23</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4328,14 +4328,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D153">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E153">
-        <v>3729.23</v>
+        <v>2569.42</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4349,19 +4349,19 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D154">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E154">
-        <v>2569.42</v>
+        <v>1029.03</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4375,19 +4375,19 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D155">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>992.28</v>
+        <v>16.85</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4396,24 +4396,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>16.85</v>
+        <v>4.21</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4427,19 +4427,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>DOS DE MAYO</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>YANAS</t>
         </is>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157">
-        <v>4.21</v>
+        <v>49.58</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4453,19 +4453,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DOS DE MAYO</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>YANAS</t>
+          <t>LLATA</t>
         </is>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158">
-        <v>49.58</v>
+        <v>7.43</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4484,14 +4484,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>LLATA</t>
+          <t>MONZON</t>
         </is>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E159">
-        <v>14.87</v>
+        <v>434.55</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4505,19 +4505,19 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MONZON</t>
+          <t>AMARILIS</t>
         </is>
       </c>
       <c r="D160">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E160">
-        <v>488.86</v>
+        <v>53.55</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4536,14 +4536,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>AMARILIS</t>
+          <t>CHINCHAO</t>
         </is>
       </c>
       <c r="D161">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>48.09</v>
+        <v>15</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>CHINCHAO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>15</v>
+        <v>11.23</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4588,14 +4588,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>PILLCO MARCA</t>
         </is>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>10.21</v>
+        <v>7.36</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4609,19 +4609,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PILLCO MARCA</t>
+          <t>CASTILLO GRANDE</t>
         </is>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>327</v>
       </c>
       <c r="E164">
-        <v>9.199999999999999</v>
+        <v>2348.63</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4640,14 +4640,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>CASTILLO GRANDE</t>
+          <t>DANIEL ALOMIA ROBLES</t>
         </is>
       </c>
       <c r="D165">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="E165">
-        <v>2355.81</v>
+        <v>621.5599999999999</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4666,14 +4666,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DANIEL ALOMIA ROBLES</t>
+          <t>HERMILIO VALDIZAN</t>
         </is>
       </c>
       <c r="D166">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E166">
-        <v>621.5599999999999</v>
+        <v>162.34</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4692,14 +4692,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HERMILIO VALDIZAN</t>
+          <t>JOSE CRESPO Y CASTILLO</t>
         </is>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="E167">
-        <v>135.28</v>
+        <v>477.6</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4718,14 +4718,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>JOSE CRESPO Y CASTILLO</t>
+          <t>LUYANDO</t>
         </is>
       </c>
       <c r="D168">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="E168">
-        <v>448.78</v>
+        <v>1935.35</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4744,14 +4744,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>LUYANDO</t>
+          <t>MARIANO DAMASO BERAUN</t>
         </is>
       </c>
       <c r="D169">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="E169">
-        <v>1863.29</v>
+        <v>620.64</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4770,14 +4770,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>MARIANO DAMASO BERAUN</t>
+          <t>PUCAYACU</t>
         </is>
       </c>
       <c r="D170">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>612.02</v>
+        <v>50.84</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4796,14 +4796,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PUCAYACU</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E171">
-        <v>76.26000000000001</v>
+        <v>530.2</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4822,14 +4822,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="D172">
-        <v>21</v>
+        <v>1102</v>
       </c>
       <c r="E172">
-        <v>484.09</v>
+        <v>1819.44</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>SANTO DOMINGO DE ANDA</t>
         </is>
       </c>
       <c r="D173">
-        <v>1091</v>
+        <v>12</v>
       </c>
       <c r="E173">
-        <v>1801.28</v>
+        <v>460.48</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4869,19 +4869,19 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ANDA</t>
+          <t>CHOLON</t>
         </is>
       </c>
       <c r="D174">
         <v>12</v>
       </c>
       <c r="E174">
-        <v>460.48</v>
+        <v>213.33</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4900,14 +4900,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CHOLON</t>
+          <t>LA MORADA</t>
         </is>
       </c>
       <c r="D175">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E175">
-        <v>213.33</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4926,14 +4926,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>LA MORADA</t>
+          <t>SANTA ROSA DE ALTO YANAJANCA</t>
         </is>
       </c>
       <c r="D176">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E176">
-        <v>544.1799999999999</v>
+        <v>325.26</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4947,19 +4947,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE ALTO YANAJANCA</t>
+          <t>CHAGLLA</t>
         </is>
       </c>
       <c r="D177">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>289.12</v>
+        <v>51.54</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4973,19 +4973,19 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CHAGLLA</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="E178">
-        <v>41.23</v>
+        <v>1656.2</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5004,14 +5004,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D179">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="E179">
-        <v>1656.2</v>
+        <v>123.51</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5030,14 +5030,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D180">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="E180">
-        <v>123.51</v>
+        <v>2100.18</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5056,14 +5056,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D181">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="E181">
-        <v>2091.39</v>
+        <v>264.43</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5082,14 +5082,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D182">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E182">
-        <v>264.43</v>
+        <v>534.6799999999999</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5098,27 +5098,27 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D183">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E183">
-        <v>534.6799999999999</v>
+        <v>1333.33</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5134,17 +5134,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>CHAVIN</t>
         </is>
       </c>
       <c r="D184">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>1333.33</v>
+        <v>31.89</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5160,17 +5160,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CHAVIN</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2259</v>
       </c>
       <c r="E185">
-        <v>31.89</v>
+        <v>2754</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186">
@@ -5186,17 +5186,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D186">
-        <v>2254</v>
+        <v>137</v>
       </c>
       <c r="E186">
-        <v>2747.91</v>
+        <v>894.9</v>
       </c>
       <c r="F186">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5212,14 +5212,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D187">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="E187">
-        <v>894.9</v>
+        <v>611.1799999999999</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -5238,17 +5238,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D188">
-        <v>87</v>
+        <v>472</v>
       </c>
       <c r="E188">
-        <v>597.45</v>
+        <v>1529.98</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -5264,17 +5264,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D189">
-        <v>466</v>
+        <v>1936</v>
       </c>
       <c r="E189">
-        <v>1510.53</v>
+        <v>2491.79</v>
       </c>
       <c r="F189">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -5290,17 +5290,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D190">
-        <v>1933</v>
+        <v>858</v>
       </c>
       <c r="E190">
-        <v>2487.93</v>
+        <v>2462.9</v>
       </c>
       <c r="F190">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
@@ -5316,17 +5316,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D191">
-        <v>857</v>
+        <v>81</v>
       </c>
       <c r="E191">
-        <v>2460.03</v>
+        <v>1166.98</v>
       </c>
       <c r="F191">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5337,22 +5337,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D192">
-        <v>79</v>
+        <v>2180</v>
       </c>
       <c r="E192">
-        <v>1138.16</v>
+        <v>1199.25</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5368,17 +5368,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D193">
-        <v>2159</v>
+        <v>403</v>
       </c>
       <c r="E193">
-        <v>1187.69</v>
+        <v>807.6799999999999</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -5394,14 +5394,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D194">
-        <v>400</v>
+        <v>214</v>
       </c>
       <c r="E194">
-        <v>801.67</v>
+        <v>794.33</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5420,17 +5420,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D195">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="E195">
-        <v>768.35</v>
+        <v>2506.27</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -5446,17 +5446,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D196">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="E196">
-        <v>2488.36</v>
+        <v>808.9</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -5472,17 +5472,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D197">
-        <v>71</v>
+        <v>800</v>
       </c>
       <c r="E197">
-        <v>797.66</v>
+        <v>1266.46</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5498,17 +5498,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D198">
-        <v>794</v>
+        <v>129</v>
       </c>
       <c r="E198">
-        <v>1256.97</v>
+        <v>1563.26</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5524,17 +5524,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D199">
-        <v>128</v>
+        <v>394</v>
       </c>
       <c r="E199">
-        <v>1551.14</v>
+        <v>1232.1</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -5550,17 +5550,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D200">
-        <v>391</v>
+        <v>206</v>
       </c>
       <c r="E200">
-        <v>1222.72</v>
+        <v>2398.14</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -5576,14 +5576,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D201">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="E201">
-        <v>2328.29</v>
+        <v>1766.46</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5602,14 +5602,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D202">
-        <v>285</v>
+        <v>543</v>
       </c>
       <c r="E202">
-        <v>1766.46</v>
+        <v>1657.91</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -5628,17 +5628,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D203">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="E203">
-        <v>1645.7</v>
+        <v>1486.75</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5654,17 +5654,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D204">
-        <v>511</v>
+        <v>125</v>
       </c>
       <c r="E204">
-        <v>1478.07</v>
+        <v>2262.03</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5680,14 +5680,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D205">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>2207.75</v>
+        <v>665.1900000000001</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -5701,19 +5701,19 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E206">
-        <v>665.1900000000001</v>
+        <v>1682.48</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -5732,14 +5732,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D207">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>1682.48</v>
+        <v>208.88</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -5758,14 +5758,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D208">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E208">
-        <v>208.88</v>
+        <v>66.16</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5784,17 +5784,17 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D209">
-        <v>13</v>
+        <v>1121</v>
       </c>
       <c r="E209">
-        <v>66.16</v>
+        <v>3534.49</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5810,17 +5810,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D210">
-        <v>1111</v>
+        <v>524</v>
       </c>
       <c r="E210">
-        <v>3502.96</v>
+        <v>1985.98</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5831,19 +5831,19 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D211">
-        <v>514</v>
+        <v>39</v>
       </c>
       <c r="E211">
-        <v>1948.08</v>
+        <v>2108.11</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5862,14 +5862,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D212">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="E212">
-        <v>2000</v>
+        <v>1858.41</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5888,14 +5888,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D213">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="E213">
-        <v>1847.35</v>
+        <v>762.6</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5914,14 +5914,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D214">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>762.6</v>
+        <v>186.39</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5935,19 +5935,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>HUMAY</t>
         </is>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>186.39</v>
+        <v>179.09</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -5966,14 +5966,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>HUMAY</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E216">
-        <v>162.81</v>
+        <v>385.97</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -5992,14 +5992,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>PARACAS</t>
         </is>
       </c>
       <c r="D217">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E217">
-        <v>385.97</v>
+        <v>187.41</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -6018,17 +6018,17 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>PARACAS</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="D218">
-        <v>19</v>
+        <v>803</v>
       </c>
       <c r="E218">
-        <v>187.41</v>
+        <v>954.63</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -6044,17 +6044,17 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>SAN ANDRES</t>
         </is>
       </c>
       <c r="D219">
-        <v>797</v>
+        <v>104</v>
       </c>
       <c r="E219">
-        <v>947.5</v>
+        <v>609.08</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6070,17 +6070,17 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>SAN ANDRES</t>
+          <t>SAN CLEMENTE</t>
         </is>
       </c>
       <c r="D220">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="E220">
-        <v>591.51</v>
+        <v>733.39</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -6096,40 +6096,40 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>SAN CLEMENTE</t>
+          <t>TUPAC AMARU INCA</t>
         </is>
       </c>
       <c r="D221">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="E221">
-        <v>717.24</v>
+        <v>1684.79</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>TUPAC AMARU INCA</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="D222">
-        <v>342</v>
+        <v>518</v>
       </c>
       <c r="E222">
-        <v>1674.99</v>
+        <v>1758.26</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6148,17 +6148,17 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>PERENE</t>
         </is>
       </c>
       <c r="D223">
-        <v>518</v>
+        <v>725</v>
       </c>
       <c r="E223">
-        <v>1758.26</v>
+        <v>1204.32</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6174,17 +6174,17 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>PERENE</t>
+          <t>PICHANAQUI</t>
         </is>
       </c>
       <c r="D224">
-        <v>725</v>
+        <v>286</v>
       </c>
       <c r="E224">
-        <v>1204.32</v>
+        <v>681.6</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -6200,17 +6200,17 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>PICHANAQUI</t>
+          <t>SAN LUIS DE SHUARO</t>
         </is>
       </c>
       <c r="D225">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="E225">
-        <v>681.6</v>
+        <v>865.33</v>
       </c>
       <c r="F225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -6226,17 +6226,17 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>SAN LUIS DE SHUARO</t>
+          <t>SAN RAMON</t>
         </is>
       </c>
       <c r="D226">
-        <v>32</v>
+        <v>469</v>
       </c>
       <c r="E226">
-        <v>865.33</v>
+        <v>1587.46</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -6252,17 +6252,17 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>SAN RAMON</t>
+          <t>VITOC</t>
         </is>
       </c>
       <c r="D227">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>1570.54</v>
+        <v>185.99</v>
       </c>
       <c r="F227">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -6273,19 +6273,19 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>VITOC</t>
+          <t>CHONGOS BAJO</t>
         </is>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>185.99</v>
+        <v>20.57</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -6299,19 +6299,19 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>CHONGOS BAJO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229">
-        <v>20.57</v>
+        <v>1.92</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -6330,14 +6330,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>1.92</v>
+        <v>0.55</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6356,14 +6356,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>0.55</v>
+        <v>7</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -6382,14 +6382,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>SANTO DOMINGO DE ACOBAMBA</t>
         </is>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>7</v>
+        <v>16.06</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6403,19 +6403,19 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ACOBAMBA</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233">
-        <v>16.06</v>
+        <v>22.28</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234">
-        <v>22.28</v>
+        <v>44.46</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -6460,14 +6460,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
       <c r="E235">
-        <v>44.46</v>
+        <v>51.15</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -6481,19 +6481,19 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>51.15</v>
+        <v>47.69</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6507,19 +6507,19 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E237">
-        <v>47.69</v>
+        <v>682.49</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6538,14 +6538,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D238">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E238">
-        <v>667.66</v>
+        <v>115.49</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6564,14 +6564,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E239">
-        <v>115.49</v>
+        <v>185.73</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D240">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>185.73</v>
+        <v>28.91</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6616,14 +6616,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="E241">
-        <v>28.91</v>
+        <v>382.02</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6642,14 +6642,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D242">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="E242">
-        <v>398.12</v>
+        <v>321.26</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6668,14 +6668,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D243">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E243">
-        <v>309.99</v>
+        <v>211.15</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6694,14 +6694,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D244">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="E244">
-        <v>204.55</v>
+        <v>717.14</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6720,14 +6720,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D245">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="E245">
-        <v>705.79</v>
+        <v>244.86</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6741,19 +6741,19 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="D246">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>244.86</v>
+        <v>10.25</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6762,24 +6762,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D247">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E247">
-        <v>10.25</v>
+        <v>955</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6798,14 +6798,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D248">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E248">
-        <v>897.12</v>
+        <v>183.75</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D249">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E249">
-        <v>177.07</v>
+        <v>1047.64</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6850,14 +6850,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D250">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="E250">
-        <v>1004.5</v>
+        <v>142.25</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>MAGDALENA DE CAO</t>
         </is>
       </c>
       <c r="D251">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>142.25</v>
+        <v>37.74</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6902,14 +6902,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>MAGDALENA DE CAO</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E252">
-        <v>37.74</v>
+        <v>313.42</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6928,14 +6928,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D253">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>310.05</v>
+        <v>52.68</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6954,14 +6954,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E254">
-        <v>42.15</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6975,19 +6975,19 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>BAMBAMARCA</t>
         </is>
       </c>
       <c r="D255">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>79.73999999999999</v>
+        <v>31.35</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7010,10 +7010,10 @@
         </is>
       </c>
       <c r="D256">
-        <v>1138</v>
+        <v>1158</v>
       </c>
       <c r="E256">
-        <v>2273.77</v>
+        <v>2313.73</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7036,10 +7036,10 @@
         </is>
       </c>
       <c r="D257">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E257">
-        <v>328.23</v>
+        <v>336.04</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -7218,10 +7218,10 @@
         </is>
       </c>
       <c r="D264">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="E264">
-        <v>1663.51</v>
+        <v>1705.32</v>
       </c>
       <c r="F264">
         <v>4</v>
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="D268">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E268">
-        <v>229.72</v>
+        <v>239.71</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="D270">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E270">
-        <v>601.33</v>
+        <v>655.1799999999999</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7478,10 +7478,10 @@
         </is>
       </c>
       <c r="D274">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E274">
-        <v>402.19</v>
+        <v>401.78</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -7504,10 +7504,10 @@
         </is>
       </c>
       <c r="D275">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="E275">
-        <v>2857.99</v>
+        <v>2870.3</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -7530,10 +7530,10 @@
         </is>
       </c>
       <c r="D276">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="E276">
-        <v>756.1799999999999</v>
+        <v>772.9400000000001</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -7556,13 +7556,13 @@
         </is>
       </c>
       <c r="D277">
-        <v>5227</v>
+        <v>5289</v>
       </c>
       <c r="E277">
-        <v>2192.94</v>
+        <v>2218.95</v>
       </c>
       <c r="F277">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278">
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="D278">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E278">
-        <v>968.11</v>
+        <v>974.73</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7608,10 +7608,10 @@
         </is>
       </c>
       <c r="D279">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E279">
-        <v>102.68</v>
+        <v>100.49</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         </is>
       </c>
       <c r="D283">
-        <v>2323</v>
+        <v>2415</v>
       </c>
       <c r="E283">
-        <v>643.85</v>
+        <v>669.35</v>
       </c>
       <c r="F283">
         <v>2</v>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="D284">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E284">
-        <v>86.48</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         </is>
       </c>
       <c r="D285">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="E285">
-        <v>1646.26</v>
+        <v>1681.44</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -7816,13 +7816,13 @@
         </is>
       </c>
       <c r="D287">
-        <v>1073</v>
+        <v>1141</v>
       </c>
       <c r="E287">
-        <v>1737.12</v>
+        <v>1847.2</v>
       </c>
       <c r="F287">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -7842,10 +7842,10 @@
         </is>
       </c>
       <c r="D288">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E288">
-        <v>2598.33</v>
+        <v>2624.38</v>
       </c>
       <c r="F288">
         <v>2</v>
@@ -7868,13 +7868,13 @@
         </is>
       </c>
       <c r="D289">
-        <v>8817</v>
+        <v>8872</v>
       </c>
       <c r="E289">
-        <v>2967.46</v>
+        <v>2985.97</v>
       </c>
       <c r="F289">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="290">
@@ -7894,10 +7894,10 @@
         </is>
       </c>
       <c r="D290">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E290">
-        <v>1589.75</v>
+        <v>1554.97</v>
       </c>
       <c r="F290">
         <v>3</v>
@@ -7972,10 +7972,10 @@
         </is>
       </c>
       <c r="D293">
-        <v>2863</v>
+        <v>2942</v>
       </c>
       <c r="E293">
-        <v>1689.06</v>
+        <v>1735.66</v>
       </c>
       <c r="F293">
         <v>17</v>
@@ -7998,13 +7998,13 @@
         </is>
       </c>
       <c r="D294">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="E294">
-        <v>1768.92</v>
+        <v>1778.79</v>
       </c>
       <c r="F294">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295">
@@ -8024,10 +8024,10 @@
         </is>
       </c>
       <c r="D295">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E295">
-        <v>727.5700000000001</v>
+        <v>718.58</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -8050,10 +8050,10 @@
         </is>
       </c>
       <c r="D296">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E296">
-        <v>423.68</v>
+        <v>456.27</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         </is>
       </c>
       <c r="D298">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E298">
-        <v>3096.12</v>
+        <v>3276.13</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -8128,10 +8128,10 @@
         </is>
       </c>
       <c r="D299">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="E299">
-        <v>1148.53</v>
+        <v>1059.29</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         </is>
       </c>
       <c r="D300">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E300">
-        <v>2907.56</v>
+        <v>2920.93</v>
       </c>
       <c r="F300">
         <v>2</v>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="D301">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E301">
-        <v>407.77</v>
+        <v>403.99</v>
       </c>
       <c r="F301">
         <v>2</v>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="D302">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E302">
-        <v>935.35</v>
+        <v>971.1900000000001</v>
       </c>
       <c r="F302">
         <v>2</v>
@@ -8232,10 +8232,10 @@
         </is>
       </c>
       <c r="D303">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E303">
-        <v>3546.41</v>
+        <v>3502.63</v>
       </c>
       <c r="F303">
         <v>2</v>
@@ -8284,10 +8284,10 @@
         </is>
       </c>
       <c r="D305">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E305">
-        <v>165.88</v>
+        <v>172.8</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         </is>
       </c>
       <c r="D306">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E306">
-        <v>1776.55</v>
+        <v>1816.03</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8336,10 +8336,10 @@
         </is>
       </c>
       <c r="D307">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="E307">
-        <v>1373.56</v>
+        <v>1515.2</v>
       </c>
       <c r="F307">
         <v>6</v>
@@ -8388,10 +8388,10 @@
         </is>
       </c>
       <c r="D309">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="E309">
-        <v>2436.52</v>
+        <v>2480.12</v>
       </c>
       <c r="F309">
         <v>11</v>
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="D312">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="E312">
-        <v>3002.27</v>
+        <v>3073.43</v>
       </c>
       <c r="F312">
         <v>2</v>
@@ -8544,13 +8544,13 @@
         </is>
       </c>
       <c r="D315">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E315">
-        <v>2236.71</v>
+        <v>2266.8</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -8570,10 +8570,10 @@
         </is>
       </c>
       <c r="D316">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E316">
-        <v>2961.66</v>
+        <v>2980.73</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -8596,13 +8596,13 @@
         </is>
       </c>
       <c r="D317">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="E317">
-        <v>1075.95</v>
+        <v>1090</v>
       </c>
       <c r="F317">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
@@ -8622,10 +8622,10 @@
         </is>
       </c>
       <c r="D318">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E318">
-        <v>194.51</v>
+        <v>218.23</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="D319">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="E319">
-        <v>262.74</v>
+        <v>340.72</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="D321">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E321">
-        <v>715.76</v>
+        <v>717.47</v>
       </c>
       <c r="F321">
         <v>2</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="D322">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E322">
-        <v>2400.93</v>
+        <v>2273.45</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         </is>
       </c>
       <c r="D323">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E323">
-        <v>648.3</v>
+        <v>669.4400000000001</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -8778,10 +8778,10 @@
         </is>
       </c>
       <c r="D324">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E324">
-        <v>618.71</v>
+        <v>602.98</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="D325">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E325">
-        <v>237.28</v>
+        <v>229.5</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="D326">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E326">
-        <v>6.64</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="D327">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E327">
-        <v>118.94</v>
+        <v>126.37</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="D328">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E328">
-        <v>717.3099999999999</v>
+        <v>731.65</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         </is>
       </c>
       <c r="D336">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E336">
-        <v>171.98</v>
+        <v>169.49</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="D338">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E338">
-        <v>2270.34</v>
+        <v>2276.02</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -9168,10 +9168,10 @@
         </is>
       </c>
       <c r="D339">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E339">
-        <v>83.11</v>
+        <v>79.78</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="D362">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E362">
-        <v>13.73</v>
+        <v>16.48</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E365">
-        <v>34.26</v>
+        <v>31.81</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9922,10 +9922,10 @@
         </is>
       </c>
       <c r="D368">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E368">
-        <v>665.79</v>
+        <v>666.89</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         </is>
       </c>
       <c r="D369">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E369">
-        <v>252.7</v>
+        <v>252.56</v>
       </c>
       <c r="F369">
         <v>3</v>
@@ -10000,10 +10000,10 @@
         </is>
       </c>
       <c r="D371">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E371">
-        <v>38.81</v>
+        <v>37.79</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -10026,10 +10026,10 @@
         </is>
       </c>
       <c r="D372">
-        <v>2146</v>
+        <v>2162</v>
       </c>
       <c r="E372">
-        <v>502.59</v>
+        <v>506.34</v>
       </c>
       <c r="F372">
         <v>1</v>
@@ -10052,10 +10052,10 @@
         </is>
       </c>
       <c r="D373">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E373">
-        <v>1912.39</v>
+        <v>1914.55</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="D374">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E374">
-        <v>55.18</v>
+        <v>55.98</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -10104,10 +10104,10 @@
         </is>
       </c>
       <c r="D375">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E375">
-        <v>474.4</v>
+        <v>481.77</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         </is>
       </c>
       <c r="D376">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="E376">
-        <v>557.95</v>
+        <v>558.45</v>
       </c>
       <c r="F376">
         <v>1</v>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="D377">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E377">
-        <v>105.67</v>
+        <v>104.81</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10182,10 +10182,10 @@
         </is>
       </c>
       <c r="D378">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E378">
-        <v>621.76</v>
+        <v>620.9</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         </is>
       </c>
       <c r="D379">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E379">
-        <v>85.16</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -10234,10 +10234,10 @@
         </is>
       </c>
       <c r="D380">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E380">
-        <v>143.92</v>
+        <v>143.33</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10260,10 +10260,10 @@
         </is>
       </c>
       <c r="D381">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E381">
-        <v>42.94</v>
+        <v>42.43</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         </is>
       </c>
       <c r="D382">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E382">
-        <v>101.27</v>
+        <v>98.38</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         </is>
       </c>
       <c r="D383">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E383">
-        <v>101.79</v>
+        <v>104.93</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         </is>
       </c>
       <c r="D385">
-        <v>1458</v>
+        <v>1472</v>
       </c>
       <c r="E385">
-        <v>479.66</v>
+        <v>484.26</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="D386">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E386">
-        <v>121.39</v>
+        <v>122.26</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10416,10 +10416,10 @@
         </is>
       </c>
       <c r="D387">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E387">
-        <v>47.49</v>
+        <v>44.61</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="D391">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E391">
-        <v>59.24</v>
+        <v>58.24</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="D392">
-        <v>2326</v>
+        <v>2352</v>
       </c>
       <c r="E392">
-        <v>558.42</v>
+        <v>564.66</v>
       </c>
       <c r="F392">
         <v>1</v>
@@ -10624,10 +10624,10 @@
         </is>
       </c>
       <c r="D395">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="E395">
-        <v>809.23</v>
+        <v>802.83</v>
       </c>
       <c r="F395">
         <v>1</v>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="D398">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E398">
-        <v>26.75</v>
+        <v>28.15</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -10728,10 +10728,10 @@
         </is>
       </c>
       <c r="D399">
-        <v>3915</v>
+        <v>3937</v>
       </c>
       <c r="E399">
-        <v>315.6</v>
+        <v>317.37</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -10754,10 +10754,10 @@
         </is>
       </c>
       <c r="D400">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="E400">
-        <v>501.66</v>
+        <v>499.8</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -10806,10 +10806,10 @@
         </is>
       </c>
       <c r="D402">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="E402">
-        <v>170.06</v>
+        <v>170.7</v>
       </c>
       <c r="F402">
         <v>1</v>
@@ -10910,10 +10910,10 @@
         </is>
       </c>
       <c r="D406">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E406">
-        <v>213.84</v>
+        <v>216.25</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -10936,10 +10936,10 @@
         </is>
       </c>
       <c r="D407">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E407">
-        <v>37.02</v>
+        <v>36.79</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -10962,10 +10962,10 @@
         </is>
       </c>
       <c r="D408">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E408">
-        <v>29.57</v>
+        <v>28.62</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="D409">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E409">
-        <v>72.88</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="D410">
-        <v>1032</v>
+        <v>1055</v>
       </c>
       <c r="E410">
-        <v>224.83</v>
+        <v>229.84</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -11196,10 +11196,10 @@
         </is>
       </c>
       <c r="D417">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E417">
-        <v>143.92</v>
+        <v>133.26</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11248,10 +11248,10 @@
         </is>
       </c>
       <c r="D419">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E419">
-        <v>1892.02</v>
+        <v>1774.2</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="D421">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E421">
-        <v>395.32</v>
+        <v>380.11</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="D422">
-        <v>1853</v>
+        <v>1771</v>
       </c>
       <c r="E422">
-        <v>1656.45</v>
+        <v>1583.14</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="D424">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E424">
-        <v>3279.46</v>
+        <v>3291.17</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -11508,10 +11508,10 @@
         </is>
       </c>
       <c r="D429">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E429">
-        <v>345.6</v>
+        <v>342.74</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -11560,10 +11560,10 @@
         </is>
       </c>
       <c r="D431">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E431">
-        <v>278.55</v>
+        <v>265.89</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -11612,10 +11612,10 @@
         </is>
       </c>
       <c r="D433">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E433">
-        <v>28.17</v>
+        <v>21.13</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -11768,10 +11768,10 @@
         </is>
       </c>
       <c r="D439">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E439">
-        <v>336.46</v>
+        <v>344.77</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -11820,10 +11820,10 @@
         </is>
       </c>
       <c r="D441">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E441">
-        <v>310.32</v>
+        <v>343.87</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -11846,10 +11846,10 @@
         </is>
       </c>
       <c r="D442">
-        <v>1344</v>
+        <v>1354</v>
       </c>
       <c r="E442">
-        <v>813.02</v>
+        <v>819.0700000000001</v>
       </c>
       <c r="F442">
         <v>0</v>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="D446">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="E446">
-        <v>1545.77</v>
+        <v>1561.05</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -11976,10 +11976,10 @@
         </is>
       </c>
       <c r="D447">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="E447">
-        <v>388.79</v>
+        <v>393.2</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -12028,10 +12028,10 @@
         </is>
       </c>
       <c r="D449">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E449">
-        <v>3884.8</v>
+        <v>3951.77</v>
       </c>
       <c r="F449">
         <v>0</v>
@@ -12080,10 +12080,10 @@
         </is>
       </c>
       <c r="D451">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E451">
-        <v>4679.09</v>
+        <v>4637.68</v>
       </c>
       <c r="F451">
         <v>0</v>
@@ -12158,10 +12158,10 @@
         </is>
       </c>
       <c r="D454">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E454">
-        <v>2868.37</v>
+        <v>2789.78</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12288,10 +12288,10 @@
         </is>
       </c>
       <c r="D459">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E459">
-        <v>1596.55</v>
+        <v>1593.1</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="D462">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E462">
-        <v>180</v>
+        <v>261.82</v>
       </c>
       <c r="F462">
         <v>0</v>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="D467">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E467">
-        <v>2899.3</v>
+        <v>3173.79</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="D470">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E470">
-        <v>1076.32</v>
+        <v>1110.86</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="D472">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E472">
-        <v>1022.1</v>
+        <v>1040.52</v>
       </c>
       <c r="F472">
         <v>0</v>
@@ -12652,10 +12652,10 @@
         </is>
       </c>
       <c r="D473">
-        <v>1108</v>
+        <v>1164</v>
       </c>
       <c r="E473">
-        <v>997.6900000000001</v>
+        <v>1048.12</v>
       </c>
       <c r="F473">
         <v>2</v>
@@ -12704,10 +12704,10 @@
         </is>
       </c>
       <c r="D475">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E475">
-        <v>1276.48</v>
+        <v>1335.48</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12808,10 +12808,10 @@
         </is>
       </c>
       <c r="D479">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E479">
-        <v>1736.81</v>
+        <v>1714.54</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -12834,10 +12834,10 @@
         </is>
       </c>
       <c r="D480">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E480">
-        <v>119.65</v>
+        <v>141.01</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -12860,10 +12860,10 @@
         </is>
       </c>
       <c r="D481">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E481">
-        <v>146.76</v>
+        <v>141.52</v>
       </c>
       <c r="F481">
         <v>0</v>
@@ -13068,10 +13068,10 @@
         </is>
       </c>
       <c r="D489">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E489">
-        <v>3850.65</v>
+        <v>3909.12</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -13120,10 +13120,10 @@
         </is>
       </c>
       <c r="D491">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E491">
-        <v>102.56</v>
+        <v>116.24</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="D494">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E494">
-        <v>804.3200000000001</v>
+        <v>814.9</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -13250,10 +13250,10 @@
         </is>
       </c>
       <c r="D496">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E496">
-        <v>720.24</v>
+        <v>748.67</v>
       </c>
       <c r="F496">
         <v>0</v>
@@ -13302,10 +13302,10 @@
         </is>
       </c>
       <c r="D498">
-        <v>5035</v>
+        <v>5152</v>
       </c>
       <c r="E498">
-        <v>5487.5</v>
+        <v>5615.01</v>
       </c>
       <c r="F498">
         <v>7</v>
@@ -13328,10 +13328,10 @@
         </is>
       </c>
       <c r="D499">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E499">
-        <v>3411.13</v>
+        <v>3417.54</v>
       </c>
       <c r="F499">
         <v>2</v>
@@ -13354,10 +13354,10 @@
         </is>
       </c>
       <c r="D500">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="E500">
-        <v>4379.96</v>
+        <v>4428.83</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -13380,10 +13380,10 @@
         </is>
       </c>
       <c r="D501">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E501">
-        <v>3642.42</v>
+        <v>3653.16</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -13406,10 +13406,10 @@
         </is>
       </c>
       <c r="D502">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E502">
-        <v>3231.04</v>
+        <v>3245.8</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -13458,10 +13458,10 @@
         </is>
       </c>
       <c r="D504">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E504">
-        <v>188.71</v>
+        <v>205.87</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -13510,10 +13510,10 @@
         </is>
       </c>
       <c r="D506">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E506">
-        <v>5271.2</v>
+        <v>5309.4</v>
       </c>
       <c r="F506">
         <v>1</v>
@@ -13562,10 +13562,10 @@
         </is>
       </c>
       <c r="D508">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E508">
-        <v>2930.36</v>
+        <v>2936.02</v>
       </c>
       <c r="F508">
         <v>0</v>
@@ -13588,10 +13588,10 @@
         </is>
       </c>
       <c r="D509">
-        <v>1692</v>
+        <v>1705</v>
       </c>
       <c r="E509">
-        <v>11420.86</v>
+        <v>11508.61</v>
       </c>
       <c r="F509">
         <v>3</v>
@@ -13614,13 +13614,13 @@
         </is>
       </c>
       <c r="D510">
-        <v>2279</v>
+        <v>2359</v>
       </c>
       <c r="E510">
-        <v>2100.65</v>
+        <v>2174.39</v>
       </c>
       <c r="F510">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -13640,10 +13640,10 @@
         </is>
       </c>
       <c r="D511">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E511">
-        <v>3124.44</v>
+        <v>3249.42</v>
       </c>
       <c r="F511">
         <v>0</v>
@@ -13666,13 +13666,13 @@
         </is>
       </c>
       <c r="D512">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E512">
-        <v>1628.41</v>
+        <v>1674.94</v>
       </c>
       <c r="F512">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -13692,10 +13692,10 @@
         </is>
       </c>
       <c r="D513">
-        <v>8248</v>
+        <v>8309</v>
       </c>
       <c r="E513">
-        <v>4213.41</v>
+        <v>4244.57</v>
       </c>
       <c r="F513">
         <v>14</v>
@@ -13718,10 +13718,10 @@
         </is>
       </c>
       <c r="D514">
-        <v>2394</v>
+        <v>2429</v>
       </c>
       <c r="E514">
-        <v>2826.55</v>
+        <v>2867.87</v>
       </c>
       <c r="F514">
         <v>4</v>
@@ -13744,10 +13744,10 @@
         </is>
       </c>
       <c r="D515">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E515">
-        <v>2862.46</v>
+        <v>2872</v>
       </c>
       <c r="F515">
         <v>2</v>
@@ -13770,10 +13770,10 @@
         </is>
       </c>
       <c r="D516">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E516">
-        <v>4981.11</v>
+        <v>5066.99</v>
       </c>
       <c r="F516">
         <v>0</v>
@@ -13796,10 +13796,10 @@
         </is>
       </c>
       <c r="D517">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E517">
-        <v>2175.67</v>
+        <v>2180.3</v>
       </c>
       <c r="F517">
         <v>0</v>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="D518">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="E518">
-        <v>3827.86</v>
+        <v>3834.32</v>
       </c>
       <c r="F518">
         <v>5</v>
@@ -13848,10 +13848,10 @@
         </is>
       </c>
       <c r="D519">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E519">
-        <v>690.75</v>
+        <v>703.97</v>
       </c>
       <c r="F519">
         <v>1</v>
@@ -13874,13 +13874,13 @@
         </is>
       </c>
       <c r="D520">
-        <v>8735</v>
+        <v>8785</v>
       </c>
       <c r="E520">
-        <v>4608.33</v>
+        <v>4634.71</v>
       </c>
       <c r="F520">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="521">
@@ -13900,13 +13900,13 @@
         </is>
       </c>
       <c r="D521">
-        <v>2752</v>
+        <v>2876</v>
       </c>
       <c r="E521">
-        <v>2109.15</v>
+        <v>2204.19</v>
       </c>
       <c r="F521">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -13926,10 +13926,10 @@
         </is>
       </c>
       <c r="D522">
-        <v>3503</v>
+        <v>3520</v>
       </c>
       <c r="E522">
-        <v>1779.04</v>
+        <v>1787.67</v>
       </c>
       <c r="F522">
         <v>12</v>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="D523">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E523">
-        <v>5074.03</v>
+        <v>5218.49</v>
       </c>
       <c r="F523">
         <v>0</v>
@@ -14004,10 +14004,10 @@
         </is>
       </c>
       <c r="D525">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E525">
-        <v>848.1</v>
+        <v>1978.89</v>
       </c>
       <c r="F525">
         <v>0</v>
@@ -14082,10 +14082,10 @@
         </is>
       </c>
       <c r="D528">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="E528">
-        <v>1508.01</v>
+        <v>1623.21</v>
       </c>
       <c r="F528">
         <v>0</v>
@@ -14108,10 +14108,10 @@
         </is>
       </c>
       <c r="D529">
-        <v>1280</v>
+        <v>1330</v>
       </c>
       <c r="E529">
-        <v>3188.36</v>
+        <v>3312.91</v>
       </c>
       <c r="F529">
         <v>4</v>
@@ -14134,10 +14134,10 @@
         </is>
       </c>
       <c r="D530">
-        <v>875</v>
+        <v>902</v>
       </c>
       <c r="E530">
-        <v>3887.51</v>
+        <v>4007.46</v>
       </c>
       <c r="F530">
         <v>5</v>
@@ -14186,10 +14186,10 @@
         </is>
       </c>
       <c r="D532">
-        <v>1443</v>
+        <v>1466</v>
       </c>
       <c r="E532">
-        <v>4310.81</v>
+        <v>4379.52</v>
       </c>
       <c r="F532">
         <v>0</v>
@@ -14212,10 +14212,10 @@
         </is>
       </c>
       <c r="D533">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="E533">
-        <v>6491.31</v>
+        <v>6594.65</v>
       </c>
       <c r="F533">
         <v>0</v>
@@ -14238,10 +14238,10 @@
         </is>
       </c>
       <c r="D534">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E534">
-        <v>3126.62</v>
+        <v>3147.32</v>
       </c>
       <c r="F534">
         <v>3</v>
@@ -14264,10 +14264,10 @@
         </is>
       </c>
       <c r="D535">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E535">
-        <v>3383.03</v>
+        <v>3433.15</v>
       </c>
       <c r="F535">
         <v>1</v>
@@ -14290,10 +14290,10 @@
         </is>
       </c>
       <c r="D536">
-        <v>5685</v>
+        <v>5976</v>
       </c>
       <c r="E536">
-        <v>2903.31</v>
+        <v>3051.92</v>
       </c>
       <c r="F536">
         <v>10</v>
@@ -14394,10 +14394,10 @@
         </is>
       </c>
       <c r="D540">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E540">
-        <v>1272.88</v>
+        <v>1372.71</v>
       </c>
       <c r="F540">
         <v>0</v>
@@ -14420,10 +14420,10 @@
         </is>
       </c>
       <c r="D541">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E541">
-        <v>1512.15</v>
+        <v>1560.04</v>
       </c>
       <c r="F541">
         <v>0</v>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="D542">
-        <v>2027</v>
+        <v>2179</v>
       </c>
       <c r="E542">
-        <v>1868.05</v>
+        <v>2008.13</v>
       </c>
       <c r="F542">
         <v>4</v>
@@ -14472,10 +14472,10 @@
         </is>
       </c>
       <c r="D543">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E543">
-        <v>96.26000000000001</v>
+        <v>53.48</v>
       </c>
       <c r="F543">
         <v>0</v>
@@ -14498,10 +14498,10 @@
         </is>
       </c>
       <c r="D544">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="E544">
-        <v>2265.48</v>
+        <v>1275.05</v>
       </c>
       <c r="F544">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         </is>
       </c>
       <c r="D548">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E548">
-        <v>1183.16</v>
+        <v>1178.04</v>
       </c>
       <c r="F548">
         <v>1</v>
@@ -14680,10 +14680,10 @@
         </is>
       </c>
       <c r="D551">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E551">
-        <v>311.62</v>
+        <v>280.46</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -14836,10 +14836,10 @@
         </is>
       </c>
       <c r="D557">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E557">
-        <v>86.01000000000001</v>
+        <v>68.81</v>
       </c>
       <c r="F557">
         <v>0</v>
@@ -14992,10 +14992,10 @@
         </is>
       </c>
       <c r="D563">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E563">
-        <v>20.66</v>
+        <v>13.78</v>
       </c>
       <c r="F563">
         <v>0</v>
@@ -15018,10 +15018,10 @@
         </is>
       </c>
       <c r="D564">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E564">
-        <v>788.2</v>
+        <v>775.49</v>
       </c>
       <c r="F564">
         <v>0</v>
@@ -15096,10 +15096,10 @@
         </is>
       </c>
       <c r="D567">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E567">
-        <v>1004.08</v>
+        <v>1010.35</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -15278,10 +15278,10 @@
         </is>
       </c>
       <c r="D574">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E574">
-        <v>226.11</v>
+        <v>220.86</v>
       </c>
       <c r="F574">
         <v>0</v>
@@ -15330,10 +15330,10 @@
         </is>
       </c>
       <c r="D576">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E576">
-        <v>1173.31</v>
+        <v>1164.98</v>
       </c>
       <c r="F576">
         <v>1</v>
@@ -15356,10 +15356,10 @@
         </is>
       </c>
       <c r="D577">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E577">
-        <v>286.77</v>
+        <v>245.8</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -15434,10 +15434,10 @@
         </is>
       </c>
       <c r="D580">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E580">
-        <v>466.74</v>
+        <v>408.4</v>
       </c>
       <c r="F580">
         <v>0</v>
@@ -15460,10 +15460,10 @@
         </is>
       </c>
       <c r="D581">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E581">
-        <v>106.95</v>
+        <v>113.24</v>
       </c>
       <c r="F581">
         <v>0</v>
@@ -15512,10 +15512,10 @@
         </is>
       </c>
       <c r="D583">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E583">
-        <v>287.44</v>
+        <v>188.77</v>
       </c>
       <c r="F583">
         <v>1</v>
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="D592">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E592">
-        <v>276.87</v>
+        <v>201.36</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -15798,10 +15798,10 @@
         </is>
       </c>
       <c r="D594">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E594">
-        <v>58.57</v>
+        <v>46.85</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -15824,10 +15824,10 @@
         </is>
       </c>
       <c r="D595">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E595">
-        <v>155.53</v>
+        <v>164.18</v>
       </c>
       <c r="F595">
         <v>0</v>
@@ -15850,10 +15850,10 @@
         </is>
       </c>
       <c r="D596">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E596">
-        <v>237.44</v>
+        <v>223.24</v>
       </c>
       <c r="F596">
         <v>0</v>
@@ -15876,10 +15876,10 @@
         </is>
       </c>
       <c r="D597">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E597">
-        <v>45.21</v>
+        <v>39.56</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -15928,10 +15928,10 @@
         </is>
       </c>
       <c r="D599">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E599">
-        <v>613.05</v>
+        <v>573.39</v>
       </c>
       <c r="F599">
         <v>0</v>
@@ -16084,10 +16084,10 @@
         </is>
       </c>
       <c r="D605">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E605">
-        <v>913.8099999999999</v>
+        <v>931.73</v>
       </c>
       <c r="F605">
         <v>0</v>
@@ -16214,13 +16214,13 @@
         </is>
       </c>
       <c r="D610">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="E610">
-        <v>854.35</v>
+        <v>652.99</v>
       </c>
       <c r="F610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -16240,10 +16240,10 @@
         </is>
       </c>
       <c r="D611">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E611">
-        <v>933.15</v>
+        <v>922.37</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -16370,10 +16370,10 @@
         </is>
       </c>
       <c r="D616">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E616">
-        <v>738.8099999999999</v>
+        <v>742.26</v>
       </c>
       <c r="F616">
         <v>2</v>
@@ -16396,10 +16396,10 @@
         </is>
       </c>
       <c r="D617">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E617">
-        <v>1363.74</v>
+        <v>1434.28</v>
       </c>
       <c r="F617">
         <v>0</v>
@@ -16474,10 +16474,10 @@
         </is>
       </c>
       <c r="D620">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E620">
-        <v>462.35</v>
+        <v>478.41</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -16500,10 +16500,10 @@
         </is>
       </c>
       <c r="D621">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E621">
-        <v>586.63</v>
+        <v>619.96</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -16578,10 +16578,10 @@
         </is>
       </c>
       <c r="D624">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E624">
-        <v>2894.99</v>
+        <v>2922.3</v>
       </c>
       <c r="F624">
         <v>0</v>
@@ -16604,10 +16604,10 @@
         </is>
       </c>
       <c r="D625">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E625">
-        <v>1645.56</v>
+        <v>1672.1</v>
       </c>
       <c r="F625">
         <v>0</v>
@@ -16630,10 +16630,10 @@
         </is>
       </c>
       <c r="D626">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E626">
-        <v>1044.67</v>
+        <v>1107.71</v>
       </c>
       <c r="F626">
         <v>0</v>
@@ -16656,10 +16656,10 @@
         </is>
       </c>
       <c r="D627">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E627">
-        <v>1619.33</v>
+        <v>1722.14</v>
       </c>
       <c r="F627">
         <v>0</v>
@@ -16682,10 +16682,10 @@
         </is>
       </c>
       <c r="D628">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E628">
-        <v>1652.27</v>
+        <v>1684.67</v>
       </c>
       <c r="F628">
         <v>0</v>
@@ -16708,10 +16708,10 @@
         </is>
       </c>
       <c r="D629">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E629">
-        <v>1342.93</v>
+        <v>1420.79</v>
       </c>
       <c r="F629">
         <v>0</v>
@@ -16734,10 +16734,10 @@
         </is>
       </c>
       <c r="D630">
-        <v>2022</v>
+        <v>2122</v>
       </c>
       <c r="E630">
-        <v>1712.62</v>
+        <v>1797.32</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -16760,10 +16760,10 @@
         </is>
       </c>
       <c r="D631">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E631">
-        <v>578.4299999999999</v>
+        <v>598.21</v>
       </c>
       <c r="F631">
         <v>0</v>
@@ -16838,10 +16838,10 @@
         </is>
       </c>
       <c r="D634">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E634">
-        <v>926.2</v>
+        <v>974.17</v>
       </c>
       <c r="F634">
         <v>1</v>
@@ -16864,10 +16864,10 @@
         </is>
       </c>
       <c r="D635">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E635">
-        <v>983.14</v>
+        <v>985.45</v>
       </c>
       <c r="F635">
         <v>0</v>
@@ -16968,10 +16968,10 @@
         </is>
       </c>
       <c r="D639">
-        <v>4014</v>
+        <v>4026</v>
       </c>
       <c r="E639">
-        <v>2209.12</v>
+        <v>2215.73</v>
       </c>
       <c r="F639">
         <v>3</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="D640">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E640">
-        <v>834.04</v>
+        <v>838.78</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -17046,10 +17046,10 @@
         </is>
       </c>
       <c r="D642">
-        <v>1743</v>
+        <v>1757</v>
       </c>
       <c r="E642">
-        <v>1514.53</v>
+        <v>1526.7</v>
       </c>
       <c r="F642">
         <v>2</v>
@@ -17098,10 +17098,10 @@
         </is>
       </c>
       <c r="D644">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E644">
-        <v>2903.75</v>
+        <v>2920.07</v>
       </c>
       <c r="F644">
         <v>0</v>
@@ -17124,10 +17124,10 @@
         </is>
       </c>
       <c r="D645">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="E645">
-        <v>1241.29</v>
+        <v>1250.79</v>
       </c>
       <c r="F645">
         <v>5</v>
@@ -17228,10 +17228,10 @@
         </is>
       </c>
       <c r="D649">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E649">
-        <v>160.66</v>
+        <v>137.71</v>
       </c>
       <c r="F649">
         <v>0</v>
@@ -17306,10 +17306,10 @@
         </is>
       </c>
       <c r="D652">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E652">
-        <v>1362.85</v>
+        <v>1365.99</v>
       </c>
       <c r="F652">
         <v>0</v>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F660"/>
+  <dimension ref="A1:F663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>631.97</v>
+        <v>641.85</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="E3">
-        <v>2536.01</v>
+        <v>2499.92</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4">
-        <v>2698.52</v>
+        <v>2676.4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E6">
-        <v>946.12</v>
+        <v>951.89</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>1118.43</v>
+        <v>1133.75</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E14">
-        <v>980.98</v>
+        <v>1023.82</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E17">
-        <v>620.33</v>
+        <v>632.22</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E18">
-        <v>464.33</v>
+        <v>476.76</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E21">
-        <v>1298.59</v>
+        <v>1316.02</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="E25">
-        <v>1289.27</v>
+        <v>1312.62</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="D36">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E36">
-        <v>1542.13</v>
+        <v>1549.26</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="D40">
-        <v>745</v>
+        <v>801</v>
       </c>
       <c r="E40">
-        <v>338.63</v>
+        <v>364.08</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>122.45</v>
+        <v>139.15</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="D43">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="E43">
-        <v>7244.84</v>
+        <v>7297.96</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D44">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E44">
-        <v>221.34</v>
+        <v>226.08</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="D46">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="E46">
-        <v>1805.82</v>
+        <v>1876.72</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CHALA**</t>
+          <t>ACARI**</t>
         </is>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>9.210000000000001</v>
+        <v>36.68</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1666,24 +1666,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CANGALLO</t>
+          <t>CARAVELI</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CHUSCHI</t>
+          <t>CHALA**</t>
         </is>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>11.14</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1697,19 +1697,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>CANGALLO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ACOCRO</t>
+          <t>CHUSCHI</t>
         </is>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>10.56</v>
+        <v>11.14</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1728,14 +1728,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>ACOCRO</t>
         </is>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>3.4</v>
+        <v>10.56</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>1.76</v>
+        <v>3.4</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1780,14 +1780,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOCOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>13.57</v>
+        <v>1.76</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1801,19 +1801,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CANAYRE</t>
+          <t>SOCOS</t>
         </is>
       </c>
       <c r="D56">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1154.11</v>
+        <v>13.57</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1832,14 +1832,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>CANAYRE</t>
         </is>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E57">
-        <v>4.55</v>
+        <v>1176.74</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1858,14 +1858,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LLOCHEGUA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="D58">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>491.8</v>
+        <v>4.55</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1884,14 +1884,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>LLOCHEGUA</t>
         </is>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E59">
-        <v>15.81</v>
+        <v>500.43</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1910,14 +1910,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>LURICOCHA</t>
         </is>
       </c>
       <c r="D60">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1656.24</v>
+        <v>15.81</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1931,19 +1931,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E61">
-        <v>24.34</v>
+        <v>1673.86</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1962,14 +1962,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>53.9</v>
+        <v>24.34</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1988,14 +1988,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D63">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>1266.74</v>
+        <v>53.9</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2014,14 +2014,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CHUNGUI</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E64">
-        <v>69.69</v>
+        <v>1266.74</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>CHUNGUI</t>
         </is>
       </c>
       <c r="D65">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>1513.07</v>
+        <v>116.14</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2066,14 +2066,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E66">
-        <v>362.61</v>
+        <v>1558.92</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E67">
-        <v>48.69</v>
+        <v>362.61</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2118,14 +2118,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D68">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>535.1</v>
+        <v>48.69</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2144,14 +2144,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E69">
-        <v>742.8</v>
+        <v>583.02</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2165,19 +2165,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>40.11</v>
+        <v>789.23</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PUQUIO</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>14.37</v>
+        <v>40.11</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2217,19 +2217,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>PUQUIO</t>
         </is>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>16.66</v>
+        <v>14.37</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2238,24 +2238,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CACHACHI</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>3.84</v>
+        <v>16.66</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2274,14 +2274,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CACHACHI</t>
         </is>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>16.98</v>
+        <v>3.84</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2295,19 +2295,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>13.07</v>
+        <v>14.15</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2326,14 +2326,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>7.48</v>
+        <v>13.07</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COSPAN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>27.37</v>
+        <v>7.48</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2378,14 +2378,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>44.2</v>
+        <v>27.37</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2399,19 +2399,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>3.41</v>
+        <v>44.2</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2430,14 +2430,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>UTCO</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>283.29</v>
+        <v>3.41</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2451,19 +2451,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>UTCO</t>
         </is>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>10.59</v>
+        <v>283.29</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2482,14 +2482,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CHIGUIRIP</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>28.89</v>
+        <v>10.59</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CHIGUIRIP</t>
         </is>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>23.31</v>
+        <v>28.89</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CONCHAN</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>17.34</v>
+        <v>21.37</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HUAMBOS</t>
+          <t>CONCHAN</t>
         </is>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>23.89</v>
+        <v>17.34</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>HUAMBOS</t>
         </is>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>266.14</v>
+        <v>23.89</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2612,14 +2612,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MIRACOSTA</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>62.15</v>
+        <v>266.14</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>MIRACOSTA</t>
         </is>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>11.56</v>
+        <v>62.15</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>105.04</v>
+        <v>11.56</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TACABAMBA</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>12.38</v>
+        <v>105.04</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2716,14 +2716,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>TACABAMBA</t>
         </is>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>117.23</v>
+        <v>12.38</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2737,19 +2737,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D92">
-        <v>455</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>17215.29</v>
+        <v>117.23</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D93">
-        <v>56</v>
+        <v>455</v>
       </c>
       <c r="E93">
-        <v>713.83</v>
+        <v>17215.29</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2794,14 +2794,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D94">
         <v>56</v>
       </c>
       <c r="E94">
-        <v>2147.24</v>
+        <v>713.83</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2820,17 +2820,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D95">
-        <v>741</v>
+        <v>56</v>
       </c>
       <c r="E95">
-        <v>10958.3</v>
+        <v>2147.24</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2841,22 +2841,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CALLAYUC</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>744</v>
       </c>
       <c r="E96">
-        <v>10.7</v>
+        <v>11002.66</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2872,14 +2872,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>CALLAYUC</t>
         </is>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>31.47</v>
+        <v>10.7</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2898,14 +2898,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>7.94</v>
+        <v>31.47</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PIMPINGOS</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>20.29</v>
+        <v>7.94</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2950,14 +2950,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>PIMPINGOS</t>
         </is>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>7.8</v>
+        <v>20.29</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>11.3</v>
+        <v>7.8</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2997,19 +2997,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HUALGAYOC</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>HUALGAYOC</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>6.28</v>
+        <v>11.3</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3023,19 +3023,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>HUALGAYOC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>HUALGAYOC</t>
         </is>
       </c>
       <c r="D103">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>1736.3</v>
+        <v>6.28</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3054,14 +3054,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CHONTALI</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>299</v>
       </c>
       <c r="E104">
-        <v>28.34</v>
+        <v>1802.62</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3080,14 +3080,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>CHONTALI</t>
         </is>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>218.05</v>
+        <v>28.34</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3106,14 +3106,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HUABAL</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E106">
-        <v>10.91</v>
+        <v>227.53</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3132,17 +3132,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>HUABAL</t>
         </is>
       </c>
       <c r="D107">
-        <v>3274</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>2997.92</v>
+        <v>10.91</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3158,17 +3158,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3317</v>
       </c>
       <c r="E108">
-        <v>21.18</v>
+        <v>3037.3</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3184,14 +3184,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D109">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>1013.42</v>
+        <v>31.77</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3210,14 +3210,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SALLIQUE</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D110">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E110">
-        <v>236.87</v>
+        <v>1099.06</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>SALLIQUE</t>
         </is>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>86.02</v>
+        <v>236.87</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>145.6</v>
+        <v>86.02</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3288,14 +3288,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D113">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>176.51</v>
+        <v>194.13</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3309,19 +3309,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D114">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E114">
-        <v>127.95</v>
+        <v>196.12</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D115">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="E115">
-        <v>996.48</v>
+        <v>127.95</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3366,14 +3366,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="E116">
-        <v>18.44</v>
+        <v>985.65</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3392,14 +3392,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>160.53</v>
+        <v>18.44</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3418,14 +3418,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D118">
-        <v>441</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>1064.7</v>
+        <v>100.33</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3444,14 +3444,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>444</v>
       </c>
       <c r="E119">
-        <v>39.76</v>
+        <v>1071.95</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3470,14 +3470,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D120">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>186.86</v>
+        <v>39.76</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3491,19 +3491,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PEDRO GALVEZ</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E121">
-        <v>4.58</v>
+        <v>191.78</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3517,19 +3517,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>81.5</v>
+        <v>4.58</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CALQUIS</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>23.87</v>
+        <v>81.5</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3574,14 +3574,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NANCHOC</t>
+          <t>CALQUIS</t>
         </is>
       </c>
       <c r="D124">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>3169.81</v>
+        <v>23.87</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3600,14 +3600,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SAN GREGORIO</t>
+          <t>NANCHOC</t>
         </is>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E125">
-        <v>45.33</v>
+        <v>3169.81</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3626,14 +3626,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN GREGORIO</t>
         </is>
       </c>
       <c r="D126">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>148.54</v>
+        <v>45.33</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3652,14 +3652,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E127">
-        <v>28.39</v>
+        <v>148.54</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3673,19 +3673,19 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D128">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>731.22</v>
+        <v>28.39</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3699,19 +3699,19 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E129">
-        <v>10.32</v>
+        <v>797.7</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3730,14 +3730,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>105.51</v>
+        <v>10.32</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3746,24 +3746,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D131">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>95.08</v>
+        <v>105.51</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D132">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="E132">
-        <v>65.13</v>
+        <v>95.08</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,14 +3808,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D133">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="E133">
-        <v>78.73999999999999</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3834,14 +3834,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D134">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E134">
-        <v>27.34</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>49.96</v>
+        <v>25.82</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3886,14 +3886,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D136">
-        <v>370</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>673.89</v>
+        <v>49.96</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3912,43 +3912,43 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D137">
-        <v>1419</v>
+        <v>370</v>
       </c>
       <c r="E137">
-        <v>357.41</v>
+        <v>673.89</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D138">
-        <v>47</v>
+        <v>1428</v>
       </c>
       <c r="E138">
-        <v>500.37</v>
+        <v>359.67</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3959,22 +3959,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D139">
+        <v>48</v>
+      </c>
+      <c r="E139">
+        <v>511.02</v>
+      </c>
+      <c r="F139">
         <v>1</v>
-      </c>
-      <c r="E139">
-        <v>18.08</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3985,19 +3985,19 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>5.71</v>
+        <v>18.08</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SAN SEBASTIAN</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E141">
-        <v>0.7</v>
+        <v>5.71</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4042,14 +4042,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4068,14 +4068,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>WANCHAQ</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>1.56</v>
+        <v>0.92</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4089,19 +4089,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>WANCHAQ</t>
         </is>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4115,19 +4115,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="D145">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>1002.73</v>
+        <v>2.54</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4146,14 +4146,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D146">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E146">
-        <v>355.99</v>
+        <v>1002.73</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D147">
-        <v>369</v>
+        <v>67</v>
       </c>
       <c r="E147">
-        <v>2646.49</v>
+        <v>355.99</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4198,17 +4198,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D148">
-        <v>7</v>
+        <v>372</v>
       </c>
       <c r="E148">
-        <v>119.29</v>
+        <v>2668.01</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4224,14 +4224,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D149">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>1611.54</v>
+        <v>119.29</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4250,14 +4250,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E150">
-        <v>159.14</v>
+        <v>1611.54</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4276,14 +4276,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D151">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>948.67</v>
+        <v>159.14</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4302,14 +4302,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>OCOBAMBA</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E152">
-        <v>17.12</v>
+        <v>948.67</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="D153">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E153">
-        <v>2026.77</v>
+        <v>2073.51</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -4358,10 +4358,10 @@
         </is>
       </c>
       <c r="D154">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E154">
-        <v>120.44</v>
+        <v>140.52</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="D156">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E156">
-        <v>1069.81</v>
+        <v>1106.07</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="D157">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E157">
-        <v>3729.23</v>
+        <v>3810.3</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="D158">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E158">
-        <v>2735.18</v>
+        <v>2859.51</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="D166">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E166">
-        <v>525.08</v>
+        <v>452.65</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>5.52</v>
+        <v>7.36</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>4.44</v>
+        <v>13.33</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="D172">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E172">
-        <v>2240.9</v>
+        <v>2248.08</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="D173">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E173">
-        <v>437.91</v>
+        <v>409.66</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>162.34</v>
+        <v>135.28</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="D175">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E175">
-        <v>424.08</v>
+        <v>391.14</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4930,10 +4930,10 @@
         </is>
       </c>
       <c r="D176">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E176">
-        <v>1760.35</v>
+        <v>1729.46</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4956,10 +4956,10 @@
         </is>
       </c>
       <c r="D177">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E177">
-        <v>620.64</v>
+        <v>629.26</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>76.26000000000001</v>
+        <v>50.84</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="D179">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E179">
-        <v>530.2</v>
+        <v>553.25</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="D180">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="E180">
-        <v>1807.89</v>
+        <v>1817.79</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>345.36</v>
+        <v>383.73</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="D183">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>466.44</v>
+        <v>388.7</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5242,10 +5242,10 @@
         </is>
       </c>
       <c r="D188">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E188">
-        <v>2205.62</v>
+        <v>2223.2</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5268,10 +5268,10 @@
         </is>
       </c>
       <c r="D189">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E189">
-        <v>264.43</v>
+        <v>279.12</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5294,10 +5294,10 @@
         </is>
       </c>
       <c r="D190">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E190">
-        <v>534.6799999999999</v>
+        <v>549.13</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5320,10 +5320,10 @@
         </is>
       </c>
       <c r="D191">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E191">
-        <v>1343.83</v>
+        <v>1354.33</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="D193">
-        <v>2298</v>
+        <v>2303</v>
       </c>
       <c r="E193">
-        <v>2801.55</v>
+        <v>2807.65</v>
       </c>
       <c r="F193">
         <v>25</v>
@@ -5450,13 +5450,13 @@
         </is>
       </c>
       <c r="D196">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E196">
-        <v>1607.78</v>
+        <v>1614.26</v>
       </c>
       <c r="F196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -5476,10 +5476,10 @@
         </is>
       </c>
       <c r="D197">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="E197">
-        <v>2526.55</v>
+        <v>2529.12</v>
       </c>
       <c r="F197">
         <v>8</v>
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="D200">
-        <v>2251</v>
+        <v>2263</v>
       </c>
       <c r="E200">
-        <v>1238.3</v>
+        <v>1244.9</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -5580,10 +5580,10 @@
         </is>
       </c>
       <c r="D201">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E201">
-        <v>831.73</v>
+        <v>833.73</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         </is>
       </c>
       <c r="D202">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E202">
-        <v>801.75</v>
+        <v>816.6</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -5632,10 +5632,10 @@
         </is>
       </c>
       <c r="D203">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E203">
-        <v>2559.97</v>
+        <v>2577.87</v>
       </c>
       <c r="F203">
         <v>2</v>
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="D205">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E205">
-        <v>1304.46</v>
+        <v>1309.21</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -5736,10 +5736,10 @@
         </is>
       </c>
       <c r="D207">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E207">
-        <v>1260.24</v>
+        <v>1266.5</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="D208">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E208">
-        <v>2467.99</v>
+        <v>2479.63</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5814,10 +5814,10 @@
         </is>
       </c>
       <c r="D210">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E210">
-        <v>1712.87</v>
+        <v>1722.03</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -5840,10 +5840,10 @@
         </is>
       </c>
       <c r="D211">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="E211">
-        <v>1518.57</v>
+        <v>1533.03</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -5866,10 +5866,10 @@
         </is>
       </c>
       <c r="D212">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E212">
-        <v>2243.94</v>
+        <v>2225.84</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="D217">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="E217">
-        <v>3644.85</v>
+        <v>3676.38</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="D218">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E218">
-        <v>2069.36</v>
+        <v>2080.73</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="D220">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E220">
-        <v>1902.65</v>
+        <v>1891.59</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="D221">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E221">
-        <v>729.4400000000001</v>
+        <v>696.29</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         </is>
       </c>
       <c r="D224">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E224">
-        <v>399.06</v>
+        <v>412.14</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6230,10 +6230,10 @@
         </is>
       </c>
       <c r="D226">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E226">
-        <v>995.05</v>
+        <v>997.4299999999999</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="D227">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E227">
-        <v>679.36</v>
+        <v>691.0700000000001</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6282,10 +6282,10 @@
         </is>
       </c>
       <c r="D228">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E228">
-        <v>820.63</v>
+        <v>833.55</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -6308,10 +6308,10 @@
         </is>
       </c>
       <c r="D229">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E229">
-        <v>1733.76</v>
+        <v>1738.66</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="D230">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E230">
-        <v>1798.99</v>
+        <v>1809.17</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="D231">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E231">
-        <v>1205.98</v>
+        <v>1204.32</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="D232">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E232">
-        <v>672.0700000000001</v>
+        <v>669.6900000000001</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -6412,10 +6412,10 @@
         </is>
       </c>
       <c r="D233">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E233">
-        <v>973.5</v>
+        <v>1000.54</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -6438,10 +6438,10 @@
         </is>
       </c>
       <c r="D234">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E234">
-        <v>1607.77</v>
+        <v>1590.85</v>
       </c>
       <c r="F234">
         <v>3</v>
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>SAN AGUSTIN</t>
+          <t>SANTO DOMINGO DE ACOBAMBA</t>
         </is>
       </c>
       <c r="D240">
         <v>1</v>
       </c>
       <c r="E240">
-        <v>4.96</v>
+        <v>16.06</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6611,19 +6611,19 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ACOBAMBA</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D241">
         <v>1</v>
       </c>
       <c r="E241">
-        <v>16.06</v>
+        <v>22.28</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6642,14 +6642,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242">
-        <v>22.28</v>
+        <v>44.46</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6668,14 +6668,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243">
-        <v>44.46</v>
+        <v>51.15</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6689,19 +6689,19 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>51.15</v>
+        <v>47.69</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6715,19 +6715,19 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E245">
-        <v>47.69</v>
+        <v>667.66</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6746,14 +6746,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D246">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E246">
-        <v>667.66</v>
+        <v>115.49</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6772,14 +6772,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D247">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E247">
-        <v>115.49</v>
+        <v>206.12</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6798,14 +6798,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D248">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>192.53</v>
+        <v>28.91</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="E249">
-        <v>28.91</v>
+        <v>393.73</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6850,14 +6850,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D250">
-        <v>264</v>
+        <v>124</v>
       </c>
       <c r="E250">
-        <v>386.41</v>
+        <v>349.44</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D251">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E251">
-        <v>324.08</v>
+        <v>240.84</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6902,14 +6902,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D252">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="E252">
-        <v>224.35</v>
+        <v>698.98</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6928,14 +6928,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D253">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="E253">
-        <v>714.87</v>
+        <v>244.86</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6949,19 +6949,19 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="D254">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>244.86</v>
+        <v>10.25</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6970,24 +6970,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E255">
-        <v>10.25</v>
+        <v>1200.98</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7006,14 +7006,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D256">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E256">
-        <v>1200.98</v>
+        <v>223.84</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7032,14 +7032,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D257">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="E257">
-        <v>223.84</v>
+        <v>1300.3</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -7058,14 +7058,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D258">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="E258">
-        <v>1201.7</v>
+        <v>152.41</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7084,14 +7084,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>MAGDALENA DE CAO</t>
         </is>
       </c>
       <c r="D259">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>152.41</v>
+        <v>37.74</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7110,14 +7110,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MAGDALENA DE CAO</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E260">
-        <v>37.74</v>
+        <v>387.56</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D261">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>387.56</v>
+        <v>52.68</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7162,14 +7162,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E262">
-        <v>52.68</v>
+        <v>74.75</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -7183,19 +7183,19 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>BAMBAMARCA</t>
         </is>
       </c>
       <c r="D263">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>79.73999999999999</v>
+        <v>125.39</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -7209,19 +7209,19 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>BAMBAMARCA</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>1330</v>
       </c>
       <c r="E264">
-        <v>125.39</v>
+        <v>2657.4</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -7240,14 +7240,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>PACANGA</t>
         </is>
       </c>
       <c r="D265">
-        <v>1282</v>
+        <v>121</v>
       </c>
       <c r="E265">
-        <v>2561.49</v>
+        <v>472.8</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7266,14 +7266,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>PACANGA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D266">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E266">
-        <v>449.36</v>
+        <v>7.72</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7287,19 +7287,19 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>CASCAS</t>
         </is>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E267">
-        <v>7.72</v>
+        <v>1335.3</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -7313,19 +7313,19 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>JULCAN</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CASCAS</t>
+          <t>CALAMARCA</t>
         </is>
       </c>
       <c r="D268">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="E268">
-        <v>1257.99</v>
+        <v>40.36</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7339,19 +7339,19 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>JULCAN</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>CALAMARCA</t>
+          <t>AGALLPAMPA</t>
         </is>
       </c>
       <c r="D269">
         <v>2</v>
       </c>
       <c r="E269">
-        <v>40.36</v>
+        <v>19.35</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7370,14 +7370,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>AGALLPAMPA</t>
+          <t>LA CUESTA</t>
         </is>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>19.35</v>
+        <v>152.91</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7391,22 +7391,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>LA CUESTA</t>
+          <t>GUADALUPE</t>
         </is>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>765</v>
       </c>
       <c r="E271">
-        <v>152.91</v>
+        <v>1683.32</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272">
@@ -7422,17 +7422,17 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>JEQUETEPEQUE</t>
         </is>
       </c>
       <c r="D272">
-        <v>762</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>1676.72</v>
+        <v>20.76</v>
       </c>
       <c r="F272">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -7452,10 +7452,10 @@
         </is>
       </c>
       <c r="D273">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E273">
-        <v>242.25</v>
+        <v>260.2</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -7478,10 +7478,10 @@
         </is>
       </c>
       <c r="D274">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E274">
-        <v>99.94</v>
+        <v>92.25</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="D278">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E278">
-        <v>691.08</v>
+        <v>700.05</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         </is>
       </c>
       <c r="D283">
-        <v>1146</v>
+        <v>1174</v>
       </c>
       <c r="E283">
-        <v>468.88</v>
+        <v>480.33</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="D284">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="E284">
-        <v>3256.78</v>
+        <v>3269.08</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -7764,10 +7764,10 @@
         </is>
       </c>
       <c r="D285">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="E285">
-        <v>845.2</v>
+        <v>855.6799999999999</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -7790,10 +7790,10 @@
         </is>
       </c>
       <c r="D286">
-        <v>5633</v>
+        <v>5726</v>
       </c>
       <c r="E286">
-        <v>2363.27</v>
+        <v>2402.29</v>
       </c>
       <c r="F286">
         <v>7</v>
@@ -7816,10 +7816,10 @@
         </is>
       </c>
       <c r="D287">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="E287">
-        <v>1016.63</v>
+        <v>1069.55</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -7842,10 +7842,10 @@
         </is>
       </c>
       <c r="D288">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E288">
-        <v>104.86</v>
+        <v>109.23</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         </is>
       </c>
       <c r="D290">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E290">
-        <v>118.1</v>
+        <v>122.17</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7946,10 +7946,10 @@
         </is>
       </c>
       <c r="D292">
-        <v>2686</v>
+        <v>2791</v>
       </c>
       <c r="E292">
-        <v>744.46</v>
+        <v>773.5599999999999</v>
       </c>
       <c r="F292">
         <v>2</v>
@@ -7998,10 +7998,10 @@
         </is>
       </c>
       <c r="D294">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="E294">
-        <v>1742.41</v>
+        <v>1758.83</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -8024,10 +8024,10 @@
         </is>
       </c>
       <c r="D295">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E295">
-        <v>123.99</v>
+        <v>136.39</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -8050,10 +8050,10 @@
         </is>
       </c>
       <c r="D296">
-        <v>1255</v>
+        <v>1268</v>
       </c>
       <c r="E296">
-        <v>2031.76</v>
+        <v>2052.81</v>
       </c>
       <c r="F296">
         <v>3</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="D297">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E297">
-        <v>2839.28</v>
+        <v>2852.31</v>
       </c>
       <c r="F297">
         <v>2</v>
@@ -8102,10 +8102,10 @@
         </is>
       </c>
       <c r="D298">
-        <v>9440</v>
+        <v>9556</v>
       </c>
       <c r="E298">
-        <v>3177.14</v>
+        <v>3216.18</v>
       </c>
       <c r="F298">
         <v>31</v>
@@ -8128,10 +8128,10 @@
         </is>
       </c>
       <c r="D299">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E299">
-        <v>1639.43</v>
+        <v>1659.3</v>
       </c>
       <c r="F299">
         <v>3</v>
@@ -8154,10 +8154,10 @@
         </is>
       </c>
       <c r="D300">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E300">
-        <v>1875.6</v>
+        <v>1897.57</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="D302">
-        <v>3052</v>
+        <v>3066</v>
       </c>
       <c r="E302">
-        <v>1800.56</v>
+        <v>1808.82</v>
       </c>
       <c r="F302">
         <v>20</v>
@@ -8232,10 +8232,10 @@
         </is>
       </c>
       <c r="D303">
-        <v>1909</v>
+        <v>1935</v>
       </c>
       <c r="E303">
-        <v>1883.37</v>
+        <v>1909.02</v>
       </c>
       <c r="F303">
         <v>3</v>
@@ -8258,10 +8258,10 @@
         </is>
       </c>
       <c r="D304">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E304">
-        <v>790.4400000000001</v>
+        <v>871.28</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -8284,10 +8284,10 @@
         </is>
       </c>
       <c r="D305">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E305">
-        <v>458.99</v>
+        <v>467.14</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="D308">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E308">
-        <v>1078.69</v>
+        <v>1090.33</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -8414,10 +8414,10 @@
         </is>
       </c>
       <c r="D310">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E310">
-        <v>441.75</v>
+        <v>447.41</v>
       </c>
       <c r="F310">
         <v>2</v>
@@ -8440,10 +8440,10 @@
         </is>
       </c>
       <c r="D311">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E311">
-        <v>1050.03</v>
+        <v>1071.53</v>
       </c>
       <c r="F311">
         <v>2</v>
@@ -8544,10 +8544,10 @@
         </is>
       </c>
       <c r="D315">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E315">
-        <v>1863.4</v>
+        <v>1879.19</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         </is>
       </c>
       <c r="D316">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="E316">
-        <v>1610.72</v>
+        <v>1693.07</v>
       </c>
       <c r="F316">
         <v>6</v>
@@ -8622,10 +8622,10 @@
         </is>
       </c>
       <c r="D318">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E318">
-        <v>2562.2</v>
+        <v>2577.58</v>
       </c>
       <c r="F318">
         <v>13</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="D319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E319">
-        <v>12.76</v>
+        <v>6.38</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="D321">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="E321">
-        <v>3224.66</v>
+        <v>3295.82</v>
       </c>
       <c r="F321">
         <v>2</v>
@@ -8778,10 +8778,10 @@
         </is>
       </c>
       <c r="D324">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E324">
-        <v>2647.94</v>
+        <v>2657.97</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="D325">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E325">
-        <v>3052.27</v>
+        <v>3066.58</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="D326">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="E326">
-        <v>1169.61</v>
+        <v>1190.69</v>
       </c>
       <c r="F326">
         <v>8</v>
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="D327">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E327">
-        <v>303.62</v>
+        <v>336.83</v>
       </c>
       <c r="F327">
         <v>1</v>
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="D328">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E328">
-        <v>347.5</v>
+        <v>349.19</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="D329">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="E329">
-        <v>3647.78</v>
+        <v>3653.31</v>
       </c>
       <c r="F329">
         <v>2</v>
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="D330">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E330">
-        <v>1000.69</v>
+        <v>1014.42</v>
       </c>
       <c r="F330">
         <v>2</v>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="D332">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E332">
-        <v>669.4400000000001</v>
+        <v>676.49</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="D333">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E333">
-        <v>655.41</v>
+        <v>676.38</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -9038,10 +9038,10 @@
         </is>
       </c>
       <c r="D334">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E334">
-        <v>260.62</v>
+        <v>287.85</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         </is>
       </c>
       <c r="D336">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E336">
-        <v>167.26</v>
+        <v>182.12</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -9116,10 +9116,10 @@
         </is>
       </c>
       <c r="D337">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E337">
-        <v>939.67</v>
+        <v>1018.58</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9272,10 +9272,10 @@
         </is>
       </c>
       <c r="D343">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E343">
-        <v>265.24</v>
+        <v>269.2</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         </is>
       </c>
       <c r="D345">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E345">
-        <v>181.95</v>
+        <v>186.93</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="D346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E346">
-        <v>73.81999999999999</v>
+        <v>49.21</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         </is>
       </c>
       <c r="D347">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="E347">
-        <v>2307.23</v>
+        <v>2329.94</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -9428,10 +9428,10 @@
         </is>
       </c>
       <c r="D349">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E349">
-        <v>2353.5</v>
+        <v>2400.8</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="D352">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E352">
-        <v>120.36</v>
+        <v>121.94</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         </is>
       </c>
       <c r="D356">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E356">
-        <v>17.26</v>
+        <v>19.98</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9766,10 +9766,10 @@
         </is>
       </c>
       <c r="D362">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E362">
-        <v>512.98</v>
+        <v>497.89</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9792,10 +9792,10 @@
         </is>
       </c>
       <c r="D363">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E363">
-        <v>2634.09</v>
+        <v>2693.68</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E365">
-        <v>105.35</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9922,10 +9922,10 @@
         </is>
       </c>
       <c r="D368">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E368">
-        <v>302.14</v>
+        <v>309.69</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -10104,10 +10104,10 @@
         </is>
       </c>
       <c r="D375">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E375">
-        <v>697.6</v>
+        <v>700.89</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         </is>
       </c>
       <c r="D376">
-        <v>1793</v>
+        <v>1804</v>
       </c>
       <c r="E376">
-        <v>251.44</v>
+        <v>252.98</v>
       </c>
       <c r="F376">
         <v>3</v>
@@ -10156,10 +10156,10 @@
         </is>
       </c>
       <c r="D377">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E377">
-        <v>53.3</v>
+        <v>50.63</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10182,10 +10182,10 @@
         </is>
       </c>
       <c r="D378">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E378">
-        <v>39.83</v>
+        <v>41.88</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         </is>
       </c>
       <c r="D379">
-        <v>2244</v>
+        <v>2254</v>
       </c>
       <c r="E379">
-        <v>525.55</v>
+        <v>527.89</v>
       </c>
       <c r="F379">
         <v>1</v>
@@ -10234,10 +10234,10 @@
         </is>
       </c>
       <c r="D380">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E380">
-        <v>1966.47</v>
+        <v>1968.63</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10260,10 +10260,10 @@
         </is>
       </c>
       <c r="D381">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E381">
-        <v>56.79</v>
+        <v>57.59</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         </is>
       </c>
       <c r="D382">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E382">
-        <v>496.52</v>
+        <v>506.35</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         </is>
       </c>
       <c r="D383">
-        <v>3471</v>
+        <v>3492</v>
       </c>
       <c r="E383">
-        <v>580.1799999999999</v>
+        <v>583.6900000000001</v>
       </c>
       <c r="F383">
         <v>1</v>
@@ -10338,10 +10338,10 @@
         </is>
       </c>
       <c r="D384">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E384">
-        <v>100.96</v>
+        <v>101.82</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         </is>
       </c>
       <c r="D385">
-        <v>1528</v>
+        <v>1550</v>
       </c>
       <c r="E385">
-        <v>656.5700000000001</v>
+        <v>666.02</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="D386">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E386">
-        <v>85.16</v>
+        <v>86.31</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10416,10 +10416,10 @@
         </is>
       </c>
       <c r="D387">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E387">
-        <v>148.07</v>
+        <v>147.48</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         </is>
       </c>
       <c r="D388">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E388">
-        <v>48.05</v>
+        <v>48.56</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -10468,10 +10468,10 @@
         </is>
       </c>
       <c r="D389">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E389">
-        <v>107.06</v>
+        <v>108.14</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -10494,10 +10494,10 @@
         </is>
       </c>
       <c r="D390">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E390">
-        <v>108.06</v>
+        <v>109.63</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="D391">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="E391">
-        <v>194.41</v>
+        <v>196.05</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -10624,10 +10624,10 @@
         </is>
       </c>
       <c r="D395">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E395">
-        <v>31.75</v>
+        <v>28.32</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="D396">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E396">
-        <v>114.24</v>
+        <v>115.54</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="D398">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E398">
-        <v>66.27</v>
+        <v>67.28</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -10728,10 +10728,10 @@
         </is>
       </c>
       <c r="D399">
-        <v>2517</v>
+        <v>2532</v>
       </c>
       <c r="E399">
-        <v>604.28</v>
+        <v>607.88</v>
       </c>
       <c r="F399">
         <v>1</v>
@@ -10754,10 +10754,10 @@
         </is>
       </c>
       <c r="D400">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E400">
-        <v>34.66</v>
+        <v>26</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -10806,10 +10806,10 @@
         </is>
       </c>
       <c r="D402">
-        <v>1559</v>
+        <v>1569</v>
       </c>
       <c r="E402">
-        <v>831.64</v>
+        <v>836.97</v>
       </c>
       <c r="F402">
         <v>1</v>
@@ -10858,10 +10858,10 @@
         </is>
       </c>
       <c r="D404">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E404">
-        <v>37.5</v>
+        <v>36.75</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="D405">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E405">
-        <v>29.56</v>
+        <v>25.34</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         </is>
       </c>
       <c r="D406">
-        <v>4060</v>
+        <v>4097</v>
       </c>
       <c r="E406">
-        <v>327.29</v>
+        <v>330.27</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -10936,10 +10936,10 @@
         </is>
       </c>
       <c r="D407">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E407">
-        <v>463.35</v>
+        <v>464.28</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="D409">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="E409">
-        <v>177.48</v>
+        <v>178.24</v>
       </c>
       <c r="F409">
         <v>1</v>
@@ -11040,10 +11040,10 @@
         </is>
       </c>
       <c r="D411">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E411">
-        <v>73.90000000000001</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -11118,10 +11118,10 @@
         </is>
       </c>
       <c r="D414">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E414">
-        <v>38.43</v>
+        <v>37.96</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -11170,10 +11170,10 @@
         </is>
       </c>
       <c r="D416">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E416">
-        <v>75.59999999999999</v>
+        <v>75.83</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -11196,10 +11196,10 @@
         </is>
       </c>
       <c r="D417">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E417">
-        <v>232.89</v>
+        <v>233.55</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="D424">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E424">
-        <v>117.27</v>
+        <v>122.6</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -11508,10 +11508,10 @@
         </is>
       </c>
       <c r="D429">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="E429">
-        <v>1551.86</v>
+        <v>1555.43</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -11638,10 +11638,10 @@
         </is>
       </c>
       <c r="D434">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E434">
-        <v>2935.46</v>
+        <v>2993.78</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="D446">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E446">
-        <v>365.53</v>
+        <v>372.46</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -12028,10 +12028,10 @@
         </is>
       </c>
       <c r="D449">
-        <v>1360</v>
+        <v>1386</v>
       </c>
       <c r="E449">
-        <v>822.7</v>
+        <v>838.42</v>
       </c>
       <c r="F449">
         <v>0</v>
@@ -12132,10 +12132,10 @@
         </is>
       </c>
       <c r="D453">
-        <v>1444</v>
+        <v>1451</v>
       </c>
       <c r="E453">
-        <v>1576.33</v>
+        <v>1583.97</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -12158,10 +12158,10 @@
         </is>
       </c>
       <c r="D454">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="E454">
-        <v>326.41</v>
+        <v>333.34</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12418,10 +12418,10 @@
         </is>
       </c>
       <c r="D464">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E464">
-        <v>623.95</v>
+        <v>627.45</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -12440,14 +12440,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>YAQUERANA</t>
+          <t>SOPLIN</t>
         </is>
       </c>
       <c r="D465">
         <v>1</v>
       </c>
       <c r="E465">
-        <v>44.76</v>
+        <v>139.47</v>
       </c>
       <c r="F465">
         <v>0</v>
@@ -12461,19 +12461,19 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>CONTAMANA</t>
+          <t>YAQUERANA</t>
         </is>
       </c>
       <c r="D466">
-        <v>453</v>
+        <v>1</v>
       </c>
       <c r="E466">
-        <v>1562.07</v>
+        <v>44.76</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -12492,14 +12492,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>INAHUAYA</t>
+          <t>CONTAMANA</t>
         </is>
       </c>
       <c r="D467">
-        <v>56</v>
+        <v>456</v>
       </c>
       <c r="E467">
-        <v>3214.7</v>
+        <v>1572.41</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12518,14 +12518,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>PADRE MARQUEZ</t>
+          <t>INAHUAYA</t>
         </is>
       </c>
       <c r="D468">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E468">
-        <v>352.84</v>
+        <v>3214.7</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -12544,14 +12544,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>PADRE MARQUEZ</t>
         </is>
       </c>
       <c r="D469">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E469">
-        <v>261.82</v>
+        <v>382.24</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12570,14 +12570,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>SARAYACU</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D470">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="E470">
-        <v>1909.32</v>
+        <v>261.82</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -12596,43 +12596,43 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>VARGAS GUERRA</t>
+          <t>SARAYACU</t>
         </is>
       </c>
       <c r="D471">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="E471">
-        <v>347.49</v>
+        <v>1909.32</v>
       </c>
       <c r="F471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MANU</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>HUEPETUHE</t>
+          <t>VARGAS GUERRA</t>
         </is>
       </c>
       <c r="D472">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E472">
-        <v>572.48</v>
+        <v>347.49</v>
       </c>
       <c r="F472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -12648,14 +12648,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>HUEPETUHE</t>
         </is>
       </c>
       <c r="D473">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E473">
-        <v>569.49</v>
+        <v>572.48</v>
       </c>
       <c r="F473">
         <v>0</v>
@@ -12669,19 +12669,19 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>MANU</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>IBERIA</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="D474">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="E474">
-        <v>3173.79</v>
+        <v>569.49</v>
       </c>
       <c r="F474">
         <v>0</v>
@@ -12700,14 +12700,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>IÑAPARI</t>
+          <t>IBERIA</t>
         </is>
       </c>
       <c r="D475">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="E475">
-        <v>1069.2</v>
+        <v>3173.79</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12726,14 +12726,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>IÑAPARI</t>
         </is>
       </c>
       <c r="D476">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E476">
-        <v>678.0599999999999</v>
+        <v>1039.5</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -12747,19 +12747,19 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>INAMBARI</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="D477">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="E477">
-        <v>1151.15</v>
+        <v>705.1799999999999</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -12778,14 +12778,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>LABERINTO</t>
+          <t>INAMBARI</t>
         </is>
       </c>
       <c r="D478">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="E478">
-        <v>1137.64</v>
+        <v>1128.12</v>
       </c>
       <c r="F478">
         <v>0</v>
@@ -12804,14 +12804,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>LAS PIEDRAS</t>
+          <t>LABERINTO</t>
         </is>
       </c>
       <c r="D479">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="E479">
-        <v>1045.12</v>
+        <v>1025.28</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -12830,43 +12830,43 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>LAS PIEDRAS</t>
         </is>
       </c>
       <c r="D480">
-        <v>1193</v>
+        <v>225</v>
       </c>
       <c r="E480">
-        <v>1074.23</v>
+        <v>1035.91</v>
       </c>
       <c r="F480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>CHONTABAMBA</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>1136</v>
       </c>
       <c r="E481">
-        <v>14.49</v>
+        <v>1022.91</v>
       </c>
       <c r="F481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -12882,14 +12882,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>CONSTITUCION</t>
+          <t>CHONTABAMBA</t>
         </is>
       </c>
       <c r="D482">
-        <v>276</v>
+        <v>1</v>
       </c>
       <c r="E482">
-        <v>1480.29</v>
+        <v>14.49</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -12908,14 +12908,14 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>CONSTITUCION</t>
         </is>
       </c>
       <c r="D483">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="E483">
-        <v>13.6</v>
+        <v>1501.74</v>
       </c>
       <c r="F483">
         <v>0</v>
@@ -12934,14 +12934,14 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="D484">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E484">
-        <v>32.95</v>
+        <v>13.6</v>
       </c>
       <c r="F484">
         <v>0</v>
@@ -12960,14 +12960,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>PALCAZU</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="D485">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E485">
-        <v>521.27</v>
+        <v>32.95</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -12986,14 +12986,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>POZUZO</t>
+          <t>PALCAZU</t>
         </is>
       </c>
       <c r="D486">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E486">
-        <v>1714.54</v>
+        <v>450.18</v>
       </c>
       <c r="F486">
         <v>0</v>
@@ -13012,14 +13012,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>PUERTO BERMUDEZ</t>
+          <t>POZUZO</t>
         </is>
       </c>
       <c r="D487">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E487">
-        <v>119.65</v>
+        <v>1714.54</v>
       </c>
       <c r="F487">
         <v>0</v>
@@ -13038,14 +13038,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>VILLA RICA</t>
+          <t>PUERTO BERMUDEZ</t>
         </is>
       </c>
       <c r="D488">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E488">
-        <v>110.07</v>
+        <v>119.65</v>
       </c>
       <c r="F488">
         <v>0</v>
@@ -13059,19 +13059,19 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>CHAUPIMARCA</t>
+          <t>VILLA RICA</t>
         </is>
       </c>
       <c r="D489">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E489">
-        <v>7.63</v>
+        <v>115.31</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -13090,14 +13090,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>PAUCARTAMBO</t>
+          <t>CHAUPIMARCA</t>
         </is>
       </c>
       <c r="D490">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E490">
-        <v>11.6</v>
+        <v>7.63</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -13116,14 +13116,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>TINYAHUARCO</t>
+          <t>PAUCARTAMBO</t>
         </is>
       </c>
       <c r="D491">
         <v>1</v>
       </c>
       <c r="E491">
-        <v>13.82</v>
+        <v>11.6</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -13142,14 +13142,14 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>YANACANCHA</t>
+          <t>TINYAHUARCO</t>
         </is>
       </c>
       <c r="D492">
         <v>1</v>
       </c>
       <c r="E492">
-        <v>3.29</v>
+        <v>13.82</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -13158,24 +13158,24 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AYABACA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>FRIAS</t>
+          <t>YANACANCHA</t>
         </is>
       </c>
       <c r="D493">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E493">
-        <v>33.15</v>
+        <v>3.29</v>
       </c>
       <c r="F493">
         <v>0</v>
@@ -13194,14 +13194,14 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>MONTERO</t>
+          <t>FRIAS</t>
         </is>
       </c>
       <c r="D494">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E494">
-        <v>92.27</v>
+        <v>33.15</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -13220,14 +13220,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>PAIMAS</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D495">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="E495">
-        <v>882.3200000000001</v>
+        <v>17.25</v>
       </c>
       <c r="F495">
         <v>0</v>
@@ -13246,14 +13246,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>SUYO</t>
+          <t>MONTERO</t>
         </is>
       </c>
       <c r="D496">
-        <v>499</v>
+        <v>5</v>
       </c>
       <c r="E496">
-        <v>4168.06</v>
+        <v>76.89</v>
       </c>
       <c r="F496">
         <v>0</v>
@@ -13267,19 +13267,19 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>CANCHAQUE</t>
+          <t>PACAIPAMPA</t>
         </is>
       </c>
       <c r="D497">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E497">
-        <v>161.33</v>
+        <v>4.32</v>
       </c>
       <c r="F497">
         <v>0</v>
@@ -13293,19 +13293,19 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>EL CARMEN DE LA FRONTERA</t>
+          <t>PAIMAS</t>
         </is>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E498">
-        <v>8.5</v>
+        <v>920.6900000000001</v>
       </c>
       <c r="F498">
         <v>0</v>
@@ -13319,19 +13319,19 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>SUYO</t>
         </is>
       </c>
       <c r="D499">
-        <v>36</v>
+        <v>499</v>
       </c>
       <c r="E499">
-        <v>123.07</v>
+        <v>4168.06</v>
       </c>
       <c r="F499">
         <v>0</v>
@@ -13350,14 +13350,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>HUARMACA</t>
+          <t>CANCHAQUE</t>
         </is>
       </c>
       <c r="D500">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E500">
-        <v>56.09</v>
+        <v>188.22</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -13376,14 +13376,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>LALAQUIZ</t>
+          <t>EL CARMEN DE LA FRONTERA</t>
         </is>
       </c>
       <c r="D501">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E501">
-        <v>48.96</v>
+        <v>8.5</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -13402,14 +13402,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE EL FAIQUE</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="D502">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E502">
-        <v>814.9</v>
+        <v>123.07</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -13428,14 +13428,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>SONDORILLO</t>
+          <t>HUARMACA</t>
         </is>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E503">
-        <v>8.9</v>
+        <v>56.09</v>
       </c>
       <c r="F503">
         <v>0</v>
@@ -13449,19 +13449,19 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>LALAQUIZ</t>
         </is>
       </c>
       <c r="D504">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="E504">
-        <v>767.63</v>
+        <v>48.96</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -13475,19 +13475,19 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>CHALACO</t>
+          <t>SAN MIGUEL DE EL FAIQUE</t>
         </is>
       </c>
       <c r="D505">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E505">
-        <v>39.52</v>
+        <v>814.9</v>
       </c>
       <c r="F505">
         <v>0</v>
@@ -13501,22 +13501,22 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>CHULUCANAS</t>
+          <t>SONDORILLO</t>
         </is>
       </c>
       <c r="D506">
-        <v>5176</v>
+        <v>1</v>
       </c>
       <c r="E506">
-        <v>5641.17</v>
+        <v>8.9</v>
       </c>
       <c r="F506">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -13532,17 +13532,17 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>LA MATANZA</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D507">
-        <v>535</v>
+        <v>81</v>
       </c>
       <c r="E507">
-        <v>3430.37</v>
+        <v>767.63</v>
       </c>
       <c r="F507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -13558,14 +13558,14 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>CHALACO</t>
         </is>
       </c>
       <c r="D508">
-        <v>735</v>
+        <v>3</v>
       </c>
       <c r="E508">
-        <v>4489.92</v>
+        <v>39.52</v>
       </c>
       <c r="F508">
         <v>0</v>
@@ -13584,17 +13584,17 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>CHULUCANAS</t>
         </is>
       </c>
       <c r="D509">
-        <v>349</v>
+        <v>5189</v>
       </c>
       <c r="E509">
-        <v>3749.87</v>
+        <v>5655.34</v>
       </c>
       <c r="F509">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="510">
@@ -13610,17 +13610,17 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>SAN JUAN DE BIGOTE</t>
+          <t>LA MATANZA</t>
         </is>
       </c>
       <c r="D510">
-        <v>296</v>
+        <v>536</v>
       </c>
       <c r="E510">
-        <v>4367.07</v>
+        <v>3436.78</v>
       </c>
       <c r="F510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -13636,14 +13636,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>SANTA CATALINA DE MOSSA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="D511">
-        <v>35</v>
+        <v>735</v>
       </c>
       <c r="E511">
-        <v>922.75</v>
+        <v>4489.92</v>
       </c>
       <c r="F511">
         <v>0</v>
@@ -13662,14 +13662,14 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D512">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="E512">
-        <v>171.56</v>
+        <v>3889.55</v>
       </c>
       <c r="F512">
         <v>0</v>
@@ -13688,14 +13688,14 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>YAMANGO</t>
+          <t>SAN JUAN DE BIGOTE</t>
         </is>
       </c>
       <c r="D513">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="E513">
-        <v>149.07</v>
+        <v>3909.71</v>
       </c>
       <c r="F513">
         <v>0</v>
@@ -13709,22 +13709,22 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>AMOTAPE</t>
+          <t>SANTA CATALINA DE MOSSA</t>
         </is>
       </c>
       <c r="D514">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="E514">
-        <v>5500.38</v>
+        <v>949.12</v>
       </c>
       <c r="F514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -13735,19 +13735,19 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>ARENAL</t>
+          <t>SANTO DOMINGO</t>
         </is>
       </c>
       <c r="D515">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E515">
-        <v>1383.55</v>
+        <v>171.56</v>
       </c>
       <c r="F515">
         <v>0</v>
@@ -13761,19 +13761,19 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>COLAN</t>
+          <t>YAMANGO</t>
         </is>
       </c>
       <c r="D516">
-        <v>530</v>
+        <v>15</v>
       </c>
       <c r="E516">
-        <v>2998.25</v>
+        <v>172</v>
       </c>
       <c r="F516">
         <v>0</v>
@@ -13792,17 +13792,17 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>LA HUACA</t>
+          <t>AMOTAPE</t>
         </is>
       </c>
       <c r="D517">
-        <v>1724</v>
+        <v>145</v>
       </c>
       <c r="E517">
-        <v>11636.85</v>
+        <v>5538.58</v>
       </c>
       <c r="F517">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -13818,17 +13818,17 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>ARENAL</t>
         </is>
       </c>
       <c r="D518">
-        <v>2459</v>
+        <v>19</v>
       </c>
       <c r="E518">
-        <v>2266.57</v>
+        <v>1460.42</v>
       </c>
       <c r="F518">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -13844,14 +13844,14 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>TAMARINDO</t>
+          <t>COLAN</t>
         </is>
       </c>
       <c r="D519">
-        <v>218</v>
+        <v>530</v>
       </c>
       <c r="E519">
-        <v>3892.16</v>
+        <v>2998.25</v>
       </c>
       <c r="F519">
         <v>0</v>
@@ -13870,14 +13870,14 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>VICHAYAL</t>
+          <t>LA HUACA</t>
         </is>
       </c>
       <c r="D520">
-        <v>131</v>
+        <v>1725</v>
       </c>
       <c r="E520">
-        <v>2031.64</v>
+        <v>11643.6</v>
       </c>
       <c r="F520">
         <v>3</v>
@@ -13891,22 +13891,22 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>CASTILLA</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="D521">
-        <v>8462</v>
+        <v>2563</v>
       </c>
       <c r="E521">
-        <v>4322.73</v>
+        <v>2362.43</v>
       </c>
       <c r="F521">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="522">
@@ -13917,22 +13917,22 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>CATACAOS</t>
+          <t>TAMARINDO</t>
         </is>
       </c>
       <c r="D522">
-        <v>2555</v>
+        <v>221</v>
       </c>
       <c r="E522">
-        <v>3016.64</v>
+        <v>3945.72</v>
       </c>
       <c r="F522">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -13943,22 +13943,22 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>CURA MORI</t>
+          <t>VICHAYAL</t>
         </is>
       </c>
       <c r="D523">
-        <v>629</v>
+        <v>136</v>
       </c>
       <c r="E523">
-        <v>3000.81</v>
+        <v>2109.18</v>
       </c>
       <c r="F523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -13974,17 +13974,17 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>EL TALLAN</t>
+          <t>CASTILLA</t>
         </is>
       </c>
       <c r="D524">
-        <v>298</v>
+        <v>8501</v>
       </c>
       <c r="E524">
-        <v>5118.52</v>
+        <v>4342.65</v>
       </c>
       <c r="F524">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="525">
@@ -14000,17 +14000,17 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>LA ARENA</t>
+          <t>CATACAOS</t>
         </is>
       </c>
       <c r="D525">
-        <v>951</v>
+        <v>2577</v>
       </c>
       <c r="E525">
-        <v>2201.13</v>
+        <v>3042.61</v>
       </c>
       <c r="F525">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526">
@@ -14026,17 +14026,17 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>LA UNION</t>
+          <t>CURA MORI</t>
         </is>
       </c>
       <c r="D526">
-        <v>1806</v>
+        <v>632</v>
       </c>
       <c r="E526">
-        <v>3885.96</v>
+        <v>3015.12</v>
       </c>
       <c r="F526">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527">
@@ -14052,17 +14052,17 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>LAS LOMAS</t>
+          <t>EL TALLAN</t>
         </is>
       </c>
       <c r="D527">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="E527">
-        <v>737.02</v>
+        <v>5118.52</v>
       </c>
       <c r="F527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -14078,17 +14078,17 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>LA ARENA</t>
         </is>
       </c>
       <c r="D528">
-        <v>9070</v>
+        <v>953</v>
       </c>
       <c r="E528">
-        <v>4785.07</v>
+        <v>2205.76</v>
       </c>
       <c r="F528">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -14104,17 +14104,17 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>TAMBO GRANDE</t>
+          <t>LA UNION</t>
         </is>
       </c>
       <c r="D529">
-        <v>3157</v>
+        <v>1830</v>
       </c>
       <c r="E529">
-        <v>2419.55</v>
+        <v>3937.6</v>
       </c>
       <c r="F529">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="530">
@@ -14130,17 +14130,17 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE</t>
+          <t>LAS LOMAS</t>
         </is>
       </c>
       <c r="D530">
-        <v>3564</v>
+        <v>223</v>
       </c>
       <c r="E530">
-        <v>1810.02</v>
+        <v>737.02</v>
       </c>
       <c r="F530">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -14151,22 +14151,22 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>BELLAVISTA DE LA UNION</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D531">
-        <v>384</v>
+        <v>9128</v>
       </c>
       <c r="E531">
-        <v>6933.91</v>
+        <v>4815.67</v>
       </c>
       <c r="F531">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="532">
@@ -14177,22 +14177,22 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>BERNAL</t>
+          <t>TAMBO GRANDE</t>
         </is>
       </c>
       <c r="D532">
-        <v>71</v>
+        <v>3283</v>
       </c>
       <c r="E532">
-        <v>871.17</v>
+        <v>2516.11</v>
       </c>
       <c r="F532">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -14203,22 +14203,22 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>CRISTO NOS VALGA</t>
+          <t>VEINTISEIS DE OCTUBRE</t>
         </is>
       </c>
       <c r="D533">
-        <v>130</v>
+        <v>3576</v>
       </c>
       <c r="E533">
-        <v>2450.06</v>
+        <v>1816.11</v>
       </c>
       <c r="F533">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="534">
@@ -14234,14 +14234,14 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>RINCONADA-LLICUAR</t>
+          <t>BELLAVISTA DE LA UNION</t>
         </is>
       </c>
       <c r="D534">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="E534">
-        <v>1068.7</v>
+        <v>6933.91</v>
       </c>
       <c r="F534">
         <v>0</v>
@@ -14260,14 +14260,14 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>BERNAL</t>
         </is>
       </c>
       <c r="D535">
-        <v>703</v>
+        <v>73</v>
       </c>
       <c r="E535">
-        <v>1276.77</v>
+        <v>895.71</v>
       </c>
       <c r="F535">
         <v>0</v>
@@ -14286,14 +14286,14 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>VICE</t>
+          <t>CRISTO NOS VALGA</t>
         </is>
       </c>
       <c r="D536">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="E536">
-        <v>1743.64</v>
+        <v>2468.9</v>
       </c>
       <c r="F536">
         <v>0</v>
@@ -14307,22 +14307,22 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>RINCONADA-LLICUAR</t>
         </is>
       </c>
       <c r="D537">
-        <v>1476</v>
+        <v>35</v>
       </c>
       <c r="E537">
-        <v>3676.58</v>
+        <v>1068.7</v>
       </c>
       <c r="F537">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -14333,22 +14333,22 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>IGNACIO ESCUDERO</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="D538">
-        <v>936</v>
+        <v>712</v>
       </c>
       <c r="E538">
-        <v>4158.52</v>
+        <v>1293.11</v>
       </c>
       <c r="F538">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -14359,19 +14359,19 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>LANCONES</t>
+          <t>VICE</t>
         </is>
       </c>
       <c r="D539">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="E539">
-        <v>352.32</v>
+        <v>1743.64</v>
       </c>
       <c r="F539">
         <v>0</v>
@@ -14390,17 +14390,17 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>MARCAVELICA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D540">
-        <v>1674</v>
+        <v>1480</v>
       </c>
       <c r="E540">
-        <v>5000.9</v>
+        <v>3686.54</v>
       </c>
       <c r="F540">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541">
@@ -14416,17 +14416,17 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>MIGUEL CHECA</t>
+          <t>IGNACIO ESCUDERO</t>
         </is>
       </c>
       <c r="D541">
-        <v>735</v>
+        <v>944</v>
       </c>
       <c r="E541">
-        <v>6904.65</v>
+        <v>4194.06</v>
       </c>
       <c r="F541">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="542">
@@ -14442,17 +14442,17 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>QUERECOTILLO</t>
+          <t>LANCONES</t>
         </is>
       </c>
       <c r="D542">
-        <v>943</v>
+        <v>48</v>
       </c>
       <c r="E542">
-        <v>3254.31</v>
+        <v>352.32</v>
       </c>
       <c r="F542">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -14468,17 +14468,17 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>MARCAVELICA</t>
         </is>
       </c>
       <c r="D543">
-        <v>299</v>
+        <v>1682</v>
       </c>
       <c r="E543">
-        <v>3746.4</v>
+        <v>5024.8</v>
       </c>
       <c r="F543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -14494,17 +14494,17 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>MIGUEL CHECA</t>
         </is>
       </c>
       <c r="D544">
-        <v>6482</v>
+        <v>743</v>
       </c>
       <c r="E544">
-        <v>3310.33</v>
+        <v>6979.8</v>
       </c>
       <c r="F544">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -14515,22 +14515,22 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>TALARA</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>EL ALTO</t>
+          <t>QUERECOTILLO</t>
         </is>
       </c>
       <c r="D545">
-        <v>143</v>
+        <v>948</v>
       </c>
       <c r="E545">
-        <v>1531.38</v>
+        <v>3271.56</v>
       </c>
       <c r="F545">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546">
@@ -14541,22 +14541,22 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>TALARA</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>LA BREA</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D546">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="E546">
-        <v>465.94</v>
+        <v>3746.4</v>
       </c>
       <c r="F546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -14567,22 +14567,22 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>TALARA</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>LOBITOS</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="D547">
-        <v>9</v>
+        <v>6533</v>
       </c>
       <c r="E547">
-        <v>642.4</v>
+        <v>3336.38</v>
       </c>
       <c r="F547">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="548">
@@ -14598,17 +14598,17 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>LOS ORGANOS</t>
+          <t>EL ALTO</t>
         </is>
       </c>
       <c r="D548">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E548">
-        <v>1963.39</v>
+        <v>2152.5</v>
       </c>
       <c r="F548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -14624,14 +14624,14 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>MANCORA</t>
+          <t>LA BREA</t>
         </is>
       </c>
       <c r="D549">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="E549">
-        <v>1662.68</v>
+        <v>465.94</v>
       </c>
       <c r="F549">
         <v>0</v>
@@ -14650,40 +14650,40 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>PARIÑÃ‰AS</t>
+          <t>LOBITOS</t>
         </is>
       </c>
       <c r="D550">
-        <v>2476</v>
+        <v>9</v>
       </c>
       <c r="E550">
-        <v>2281.84</v>
+        <v>642.4</v>
       </c>
       <c r="F550">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>CARABAYA</t>
+          <t>TALARA</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>AYAPATA</t>
+          <t>LOS ORGANOS</t>
         </is>
       </c>
       <c r="D551">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="E551">
-        <v>53.48</v>
+        <v>2063.23</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -14692,24 +14692,24 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>CARABAYA</t>
+          <t>TALARA</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>SAN GABAN</t>
+          <t>MANCORA</t>
         </is>
       </c>
       <c r="D552">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="E552">
-        <v>1309.2</v>
+        <v>1655.83</v>
       </c>
       <c r="F552">
         <v>0</v>
@@ -14718,50 +14718,50 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>TALARA</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>PARIÑÃ‰AS</t>
         </is>
       </c>
       <c r="D553">
-        <v>1</v>
+        <v>2518</v>
       </c>
       <c r="E553">
-        <v>0.6899999999999999</v>
+        <v>2320.54</v>
       </c>
       <c r="F553">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CARABAYA</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>ALTO BIAVO</t>
+          <t>AYAPATA</t>
         </is>
       </c>
       <c r="D554">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E554">
-        <v>133.83</v>
+        <v>64.17</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -14770,24 +14770,24 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CARABAYA</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>BAJO BIAVO</t>
+          <t>SAN GABAN</t>
         </is>
       </c>
       <c r="D555">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="E555">
-        <v>120.76</v>
+        <v>1320.58</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -14796,27 +14796,27 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D556">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="E556">
-        <v>1157.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -14832,14 +14832,14 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>ALTO BIAVO</t>
         </is>
       </c>
       <c r="D557">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E557">
-        <v>361.27</v>
+        <v>133.83</v>
       </c>
       <c r="F557">
         <v>0</v>
@@ -14858,14 +14858,14 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>BAJO BIAVO</t>
         </is>
       </c>
       <c r="D558">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E558">
-        <v>351.27</v>
+        <v>120.76</v>
       </c>
       <c r="F558">
         <v>0</v>
@@ -14884,17 +14884,17 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D559">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="E559">
-        <v>296.04</v>
+        <v>1157.55</v>
       </c>
       <c r="F559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -14905,19 +14905,19 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>EL DORADO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>AGUA BLANCA</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="D560">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E560">
-        <v>41.89</v>
+        <v>361.27</v>
       </c>
       <c r="F560">
         <v>0</v>
@@ -14931,22 +14931,22 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>EL DORADO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>SAN JOSE DE SISA</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D561">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E561">
-        <v>139.62</v>
+        <v>351.27</v>
       </c>
       <c r="F561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -14957,19 +14957,19 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>EL DORADO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="D562">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E562">
-        <v>57.62</v>
+        <v>296.04</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -14988,14 +14988,14 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>AGUA BLANCA</t>
         </is>
       </c>
       <c r="D563">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E563">
-        <v>39.1</v>
+        <v>41.89</v>
       </c>
       <c r="F563">
         <v>0</v>
@@ -15014,17 +15014,17 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>SHATOJA</t>
+          <t>SAN JOSE DE SISA</t>
         </is>
       </c>
       <c r="D564">
+        <v>25</v>
+      </c>
+      <c r="E564">
+        <v>139.62</v>
+      </c>
+      <c r="F564">
         <v>1</v>
-      </c>
-      <c r="E564">
-        <v>29.64</v>
-      </c>
-      <c r="F564">
-        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -15035,19 +15035,19 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>EL DORADO</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>ALTO SAPOSOA</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="D565">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E565">
-        <v>68.81</v>
+        <v>57.62</v>
       </c>
       <c r="F565">
         <v>0</v>
@@ -15061,19 +15061,19 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>EL DORADO</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>EL ESLABON</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D566">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E566">
-        <v>511.51</v>
+        <v>39.1</v>
       </c>
       <c r="F566">
         <v>0</v>
@@ -15087,19 +15087,19 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>EL DORADO</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>PISCOYACU</t>
+          <t>SHATOJA</t>
         </is>
       </c>
       <c r="D567">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E567">
-        <v>123.86</v>
+        <v>29.64</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -15118,14 +15118,14 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>SACANCHE</t>
+          <t>ALTO SAPOSOA</t>
         </is>
       </c>
       <c r="D568">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E568">
-        <v>890.96</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -15144,14 +15144,14 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>SAPOSOA</t>
+          <t>EL ESLABON</t>
         </is>
       </c>
       <c r="D569">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E569">
-        <v>314.91</v>
+        <v>511.51</v>
       </c>
       <c r="F569">
         <v>0</v>
@@ -15170,14 +15170,14 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>TINGO DE SAPOSOA</t>
+          <t>PISCOYACU</t>
         </is>
       </c>
       <c r="D570">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E570">
-        <v>3169.01</v>
+        <v>103.22</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -15191,19 +15191,19 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>ALONSO DE ALVARADO</t>
+          <t>SACANCHE</t>
         </is>
       </c>
       <c r="D571">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E571">
-        <v>13.78</v>
+        <v>890.96</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -15217,19 +15217,19 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>BARRANQUITA</t>
+          <t>SAPOSOA</t>
         </is>
       </c>
       <c r="D572">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E572">
-        <v>673.79</v>
+        <v>314.91</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -15243,22 +15243,22 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>CAYNARACHI</t>
+          <t>TINGO DE SAPOSOA</t>
         </is>
       </c>
       <c r="D573">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="E573">
-        <v>1590.32</v>
+        <v>3169.01</v>
       </c>
       <c r="F573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -15274,14 +15274,14 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>CUÑUMBUQUI</t>
+          <t>ALONSO DE ALVARADO</t>
         </is>
       </c>
       <c r="D574">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E574">
-        <v>427.21</v>
+        <v>13.78</v>
       </c>
       <c r="F574">
         <v>0</v>
@@ -15300,14 +15300,14 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>BARRANQUITA</t>
         </is>
       </c>
       <c r="D575">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="E575">
-        <v>1029.18</v>
+        <v>673.79</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -15326,17 +15326,17 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>PINTO RECODO</t>
+          <t>CAYNARACHI</t>
         </is>
       </c>
       <c r="D576">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="E576">
-        <v>326.98</v>
+        <v>1598.96</v>
       </c>
       <c r="F576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577">
@@ -15352,14 +15352,14 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>RUMISAPA</t>
+          <t>CUÑUMBUQUI</t>
         </is>
       </c>
       <c r="D577">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E577">
-        <v>522.78</v>
+        <v>427.21</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -15378,14 +15378,14 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>SAN ROQUE DE CUMBAZA</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="D578">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="E578">
-        <v>339.56</v>
+        <v>1029.18</v>
       </c>
       <c r="F578">
         <v>0</v>
@@ -15404,14 +15404,14 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>SHANAO</t>
+          <t>PINTO RECODO</t>
         </is>
       </c>
       <c r="D579">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E579">
-        <v>1016.59</v>
+        <v>337.87</v>
       </c>
       <c r="F579">
         <v>0</v>
@@ -15430,14 +15430,14 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>TABALOSOS</t>
+          <t>RUMISAPA</t>
         </is>
       </c>
       <c r="D580">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E580">
-        <v>213.18</v>
+        <v>522.78</v>
       </c>
       <c r="F580">
         <v>0</v>
@@ -15456,14 +15456,14 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>ZAPATERO</t>
+          <t>SAN ROQUE DE CUMBAZA</t>
         </is>
       </c>
       <c r="D581">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E581">
-        <v>410.1</v>
+        <v>339.56</v>
       </c>
       <c r="F581">
         <v>0</v>
@@ -15477,19 +15477,19 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>MARISCAL CACERES</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>CAMPANILLA</t>
+          <t>SHANAO</t>
         </is>
       </c>
       <c r="D582">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E582">
-        <v>231.37</v>
+        <v>1016.59</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -15503,19 +15503,19 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>MARISCAL CACERES</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>HUICUNGO</t>
+          <t>TABALOSOS</t>
         </is>
       </c>
       <c r="D583">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E583">
-        <v>196.31</v>
+        <v>213.18</v>
       </c>
       <c r="F583">
         <v>0</v>
@@ -15529,22 +15529,22 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>MARISCAL CACERES</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>JUANJUI</t>
+          <t>ZAPATERO</t>
         </is>
       </c>
       <c r="D584">
-        <v>430</v>
+        <v>25</v>
       </c>
       <c r="E584">
-        <v>1192.72</v>
+        <v>410.1</v>
       </c>
       <c r="F584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -15560,14 +15560,14 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>PACHIZA</t>
+          <t>CAMPANILLA</t>
         </is>
       </c>
       <c r="D585">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E585">
-        <v>232.15</v>
+        <v>231.37</v>
       </c>
       <c r="F585">
         <v>0</v>
@@ -15586,14 +15586,14 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>PAJARILLO</t>
+          <t>HUICUNGO</t>
         </is>
       </c>
       <c r="D586">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E586">
-        <v>260.59</v>
+        <v>196.31</v>
       </c>
       <c r="F586">
         <v>0</v>
@@ -15607,22 +15607,22 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>MARISCAL CACERES</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>CALZADA</t>
+          <t>JUANJUI</t>
         </is>
       </c>
       <c r="D587">
-        <v>14</v>
+        <v>434</v>
       </c>
       <c r="E587">
-        <v>282.03</v>
+        <v>1203.82</v>
       </c>
       <c r="F587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -15633,19 +15633,19 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>MARISCAL CACERES</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>HABANA</t>
+          <t>PACHIZA</t>
         </is>
       </c>
       <c r="D588">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E588">
-        <v>408.4</v>
+        <v>232.15</v>
       </c>
       <c r="F588">
         <v>0</v>
@@ -15659,19 +15659,19 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>MARISCAL CACERES</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>JEPELACIO</t>
+          <t>PAJARILLO</t>
         </is>
       </c>
       <c r="D589">
         <v>16</v>
       </c>
       <c r="E589">
-        <v>100.66</v>
+        <v>260.59</v>
       </c>
       <c r="F589">
         <v>0</v>
@@ -15690,17 +15690,17 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>CALZADA</t>
         </is>
       </c>
       <c r="D590">
-        <v>634</v>
+        <v>14</v>
       </c>
       <c r="E590">
-        <v>714.38</v>
+        <v>282.03</v>
       </c>
       <c r="F590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -15716,17 +15716,17 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>SORITOR</t>
+          <t>HABANA</t>
         </is>
       </c>
       <c r="D591">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E591">
-        <v>201.64</v>
+        <v>408.4</v>
       </c>
       <c r="F591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -15742,14 +15742,14 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>YANTALO</t>
+          <t>JEPELACIO</t>
         </is>
       </c>
       <c r="D592">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E592">
-        <v>99.47</v>
+        <v>100.66</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -15763,22 +15763,22 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="D593">
+        <v>632</v>
+      </c>
+      <c r="E593">
+        <v>712.13</v>
+      </c>
+      <c r="F593">
         <v>2</v>
-      </c>
-      <c r="E593">
-        <v>64.33</v>
-      </c>
-      <c r="F593">
-        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -15789,22 +15789,22 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>CASPIZAPA</t>
+          <t>SORITOR</t>
         </is>
       </c>
       <c r="D594">
+        <v>46</v>
+      </c>
+      <c r="E594">
+        <v>197.35</v>
+      </c>
+      <c r="F594">
         <v>1</v>
-      </c>
-      <c r="E594">
-        <v>44.39</v>
-      </c>
-      <c r="F594">
-        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -15815,19 +15815,19 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>YANTALO</t>
         </is>
       </c>
       <c r="D595">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E595">
-        <v>174.97</v>
+        <v>99.47</v>
       </c>
       <c r="F595">
         <v>0</v>
@@ -15846,14 +15846,14 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>PILLUANA</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D596">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E596">
-        <v>111.73</v>
+        <v>64.33</v>
       </c>
       <c r="F596">
         <v>0</v>
@@ -15872,14 +15872,14 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>PUCACACA</t>
+          <t>CASPIZAPA</t>
         </is>
       </c>
       <c r="D597">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E597">
-        <v>129.62</v>
+        <v>88.77</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -15898,14 +15898,14 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>SAN HILARION</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="D598">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E598">
-        <v>105.85</v>
+        <v>174.97</v>
       </c>
       <c r="F598">
         <v>0</v>
@@ -15924,14 +15924,14 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>SHAMBOYACU</t>
+          <t>PILLUANA</t>
         </is>
       </c>
       <c r="D599">
         <v>1</v>
       </c>
       <c r="E599">
-        <v>9.09</v>
+        <v>111.73</v>
       </c>
       <c r="F599">
         <v>0</v>
@@ -15950,14 +15950,14 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>TINGO DE PONASA</t>
+          <t>PUCACACA</t>
         </is>
       </c>
       <c r="D600">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E600">
-        <v>201.36</v>
+        <v>129.62</v>
       </c>
       <c r="F600">
         <v>0</v>
@@ -15976,14 +15976,14 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>TRES UNIDOS</t>
+          <t>SAN HILARION</t>
         </is>
       </c>
       <c r="D601">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E601">
-        <v>47.28</v>
+        <v>105.85</v>
       </c>
       <c r="F601">
         <v>0</v>
@@ -15997,19 +15997,19 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>AWAJUN</t>
+          <t>SHAMBOYACU</t>
         </is>
       </c>
       <c r="D602">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E602">
-        <v>58.57</v>
+        <v>18.18</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -16023,19 +16023,19 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>ELIAS SOPLIN VARGAS</t>
+          <t>TINGO DE PONASA</t>
         </is>
       </c>
       <c r="D603">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E603">
-        <v>164.18</v>
+        <v>201.36</v>
       </c>
       <c r="F603">
         <v>0</v>
@@ -16049,19 +16049,19 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>NUEVA CAJAMARCA</t>
+          <t>TRES UNIDOS</t>
         </is>
       </c>
       <c r="D604">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E604">
-        <v>146.12</v>
+        <v>47.28</v>
       </c>
       <c r="F604">
         <v>0</v>
@@ -16080,14 +16080,14 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>PARDO MIGUEL</t>
+          <t>AWAJUN</t>
         </is>
       </c>
       <c r="D605">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E605">
-        <v>45.21</v>
+        <v>46.85</v>
       </c>
       <c r="F605">
         <v>0</v>
@@ -16106,14 +16106,14 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>POSIC</t>
+          <t>ELIAS SOPLIN VARGAS</t>
         </is>
       </c>
       <c r="D606">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E606">
-        <v>43.98</v>
+        <v>155.53</v>
       </c>
       <c r="F606">
         <v>0</v>
@@ -16132,14 +16132,14 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>NUEVA CAJAMARCA</t>
         </is>
       </c>
       <c r="D607">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="E607">
-        <v>429.14</v>
+        <v>160.32</v>
       </c>
       <c r="F607">
         <v>0</v>
@@ -16158,14 +16158,14 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>PARDO MIGUEL</t>
         </is>
       </c>
       <c r="D608">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E608">
-        <v>295.06</v>
+        <v>33.91</v>
       </c>
       <c r="F608">
         <v>0</v>
@@ -16184,14 +16184,14 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>YORONGOS</t>
+          <t>POSIC</t>
         </is>
       </c>
       <c r="D609">
         <v>1</v>
       </c>
       <c r="E609">
-        <v>38.85</v>
+        <v>43.98</v>
       </c>
       <c r="F609">
         <v>0</v>
@@ -16210,14 +16210,14 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>YURACYACU</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="D610">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="E610">
-        <v>26.3</v>
+        <v>468.81</v>
       </c>
       <c r="F610">
         <v>0</v>
@@ -16231,19 +16231,19 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>ALBERTO LEVEAU</t>
+          <t>SAN FERNANDO</t>
         </is>
       </c>
       <c r="D611">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E611">
-        <v>104.17</v>
+        <v>160.94</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -16257,19 +16257,19 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>CACATACHI</t>
+          <t>YORONGOS</t>
         </is>
       </c>
       <c r="D612">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E612">
-        <v>251.64</v>
+        <v>38.85</v>
       </c>
       <c r="F612">
         <v>0</v>
@@ -16283,19 +16283,19 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>CHAZUTA</t>
+          <t>YURACYACU</t>
         </is>
       </c>
       <c r="D613">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="E613">
-        <v>967.5700000000001</v>
+        <v>26.3</v>
       </c>
       <c r="F613">
         <v>0</v>
@@ -16314,14 +16314,14 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>CHIPURANA</t>
+          <t>ALBERTO LEVEAU</t>
         </is>
       </c>
       <c r="D614">
         <v>1</v>
       </c>
       <c r="E614">
-        <v>38.85</v>
+        <v>104.17</v>
       </c>
       <c r="F614">
         <v>0</v>
@@ -16340,14 +16340,14 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>CACATACHI</t>
         </is>
       </c>
       <c r="D615">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E615">
-        <v>257.73</v>
+        <v>251.64</v>
       </c>
       <c r="F615">
         <v>0</v>
@@ -16366,14 +16366,14 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>HUIMBAYOC</t>
+          <t>CHAZUTA</t>
         </is>
       </c>
       <c r="D616">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E616">
-        <v>85.81999999999999</v>
+        <v>967.5700000000001</v>
       </c>
       <c r="F616">
         <v>0</v>
@@ -16392,14 +16392,14 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>JUAN GUERRA</t>
+          <t>CHIPURANA</t>
         </is>
       </c>
       <c r="D617">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E617">
-        <v>297.01</v>
+        <v>38.85</v>
       </c>
       <c r="F617">
         <v>0</v>
@@ -16418,14 +16418,14 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D618">
-        <v>287</v>
+        <v>7</v>
       </c>
       <c r="E618">
-        <v>540.08</v>
+        <v>257.73</v>
       </c>
       <c r="F618">
         <v>0</v>
@@ -16444,14 +16444,14 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>HUIMBAYOC</t>
         </is>
       </c>
       <c r="D619">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="E619">
-        <v>564.63</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="F619">
         <v>0</v>
@@ -16470,14 +16470,14 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>PAPAPLAYA</t>
+          <t>JUAN GUERRA</t>
         </is>
       </c>
       <c r="D620">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E620">
-        <v>1409.11</v>
+        <v>297.01</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -16496,14 +16496,14 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>LA BANDA DE SHILCAYO</t>
         </is>
       </c>
       <c r="D621">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E621">
-        <v>165.65</v>
+        <v>543.85</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -16522,14 +16522,14 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>SAUCE</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="D622">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="E622">
-        <v>179.37</v>
+        <v>568.9400000000001</v>
       </c>
       <c r="F622">
         <v>0</v>
@@ -16548,14 +16548,14 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>SHAPAJA</t>
+          <t>PAPAPLAYA</t>
         </is>
       </c>
       <c r="D623">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E623">
-        <v>698</v>
+        <v>1409.11</v>
       </c>
       <c r="F623">
         <v>0</v>
@@ -16574,17 +16574,17 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>TARAPOTO</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D624">
-        <v>607</v>
+        <v>4</v>
       </c>
       <c r="E624">
-        <v>698.53</v>
+        <v>220.87</v>
       </c>
       <c r="F624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -16595,19 +16595,19 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>NUEVO PROGRESO</t>
+          <t>SAUCE</t>
         </is>
       </c>
       <c r="D625">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="E625">
-        <v>1449.96</v>
+        <v>179.37</v>
       </c>
       <c r="F625">
         <v>0</v>
@@ -16621,19 +16621,19 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>POLVORA</t>
+          <t>SHAPAJA</t>
         </is>
       </c>
       <c r="D626">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E626">
-        <v>312.03</v>
+        <v>698</v>
       </c>
       <c r="F626">
         <v>0</v>
@@ -16647,22 +16647,22 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>SANTA LUCIA</t>
+          <t>TARAPOTO</t>
         </is>
       </c>
       <c r="D627">
-        <v>10</v>
+        <v>608</v>
       </c>
       <c r="E627">
-        <v>171</v>
+        <v>699.6799999999999</v>
       </c>
       <c r="F627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -16678,14 +16678,14 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>NUEVO PROGRESO</t>
         </is>
       </c>
       <c r="D628">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="E628">
-        <v>433.46</v>
+        <v>1355.91</v>
       </c>
       <c r="F628">
         <v>0</v>
@@ -16704,14 +16704,14 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>UCHIZA</t>
+          <t>POLVORA</t>
         </is>
       </c>
       <c r="D629">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="E629">
-        <v>719.95</v>
+        <v>312.03</v>
       </c>
       <c r="F629">
         <v>0</v>
@@ -16720,24 +16720,24 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>CONTRALMIRANTE VILLAR</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>CANOAS DE PUNTA SAL</t>
+          <t>SANTA LUCIA</t>
         </is>
       </c>
       <c r="D630">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="E630">
-        <v>1364.9</v>
+        <v>171</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -16746,24 +16746,24 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>CONTRALMIRANTE VILLAR</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>CASITAS</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="D631">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="E631">
-        <v>1436.58</v>
+        <v>427.03</v>
       </c>
       <c r="F631">
         <v>0</v>
@@ -16772,24 +16772,24 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>CONTRALMIRANTE VILLAR</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>ZORRITOS</t>
+          <t>UCHIZA</t>
         </is>
       </c>
       <c r="D632">
-        <v>464</v>
+        <v>95</v>
       </c>
       <c r="E632">
-        <v>3168.1</v>
+        <v>633.29</v>
       </c>
       <c r="F632">
         <v>0</v>
@@ -16803,19 +16803,19 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>CONTRALMIRANTE VILLAR</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>CORRALES</t>
+          <t>CANOAS DE PUNTA SAL</t>
         </is>
       </c>
       <c r="D633">
-        <v>502</v>
+        <v>113</v>
       </c>
       <c r="E633">
-        <v>1903.39</v>
+        <v>1364.9</v>
       </c>
       <c r="F633">
         <v>0</v>
@@ -16829,19 +16829,19 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>CONTRALMIRANTE VILLAR</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>LA CRUZ</t>
+          <t>CASITAS</t>
         </is>
       </c>
       <c r="D634">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="E634">
-        <v>1413.9</v>
+        <v>1436.58</v>
       </c>
       <c r="F634">
         <v>0</v>
@@ -16855,19 +16855,19 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>CONTRALMIRANTE VILLAR</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>PAMPAS DE HOSPITAL</t>
+          <t>ZORRITOS</t>
         </is>
       </c>
       <c r="D635">
-        <v>159</v>
+        <v>463</v>
       </c>
       <c r="E635">
-        <v>2043.44</v>
+        <v>3161.27</v>
       </c>
       <c r="F635">
         <v>0</v>
@@ -16886,14 +16886,14 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>SAN JACINTO</t>
+          <t>CORRALES</t>
         </is>
       </c>
       <c r="D636">
-        <v>200</v>
+        <v>508</v>
       </c>
       <c r="E636">
-        <v>2159.83</v>
+        <v>1926.14</v>
       </c>
       <c r="F636">
         <v>0</v>
@@ -16912,14 +16912,14 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LA VIRGEN</t>
+          <t>LA CRUZ</t>
         </is>
       </c>
       <c r="D637">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="E637">
-        <v>1926.82</v>
+        <v>1467.94</v>
       </c>
       <c r="F637">
         <v>0</v>
@@ -16938,14 +16938,14 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>PAMPAS DE HOSPITAL</t>
         </is>
       </c>
       <c r="D638">
-        <v>2474</v>
+        <v>191</v>
       </c>
       <c r="E638">
-        <v>2095.46</v>
+        <v>2454.7</v>
       </c>
       <c r="F638">
         <v>0</v>
@@ -16959,19 +16959,19 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>AGUAS VERDES</t>
+          <t>SAN JACINTO</t>
         </is>
       </c>
       <c r="D639">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="E639">
-        <v>855.29</v>
+        <v>2203.02</v>
       </c>
       <c r="F639">
         <v>0</v>
@@ -16985,19 +16985,19 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>MATAPALO</t>
+          <t>SAN JUAN DE LA VIRGEN</t>
         </is>
       </c>
       <c r="D640">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="E640">
-        <v>629.33</v>
+        <v>1985.21</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -17011,19 +17011,19 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>PAPAYAL</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="D641">
-        <v>176</v>
+        <v>2575</v>
       </c>
       <c r="E641">
-        <v>2337.94</v>
+        <v>2181</v>
       </c>
       <c r="F641">
         <v>0</v>
@@ -17042,40 +17042,40 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>AGUAS VERDES</t>
         </is>
       </c>
       <c r="D642">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="E642">
-        <v>1420.66</v>
+        <v>865.1799999999999</v>
       </c>
       <c r="F642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>ATALAYA</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>RAIMONDI</t>
+          <t>MATAPALO</t>
         </is>
       </c>
       <c r="D643">
-        <v>431</v>
+        <v>32</v>
       </c>
       <c r="E643">
-        <v>997.02</v>
+        <v>671.28</v>
       </c>
       <c r="F643">
         <v>0</v>
@@ -17084,24 +17084,24 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>ATALAYA</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>SEPAHUA</t>
+          <t>PAPAYAL</t>
         </is>
       </c>
       <c r="D644">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="E644">
-        <v>648.61</v>
+        <v>2337.94</v>
       </c>
       <c r="F644">
         <v>0</v>
@@ -17110,27 +17110,27 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>ATALAYA</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>TAHUANIA</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="D645">
-        <v>43</v>
+        <v>390</v>
       </c>
       <c r="E645">
-        <v>369.16</v>
+        <v>1439.11</v>
       </c>
       <c r="F645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -17146,14 +17146,14 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>YURUA</t>
+          <t>RAIMONDI</t>
         </is>
       </c>
       <c r="D646">
-        <v>4</v>
+        <v>436</v>
       </c>
       <c r="E646">
-        <v>149.87</v>
+        <v>1008.58</v>
       </c>
       <c r="F646">
         <v>0</v>
@@ -17167,22 +17167,22 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>ATALAYA</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>CALLERIA</t>
+          <t>SEPAHUA</t>
         </is>
       </c>
       <c r="D647">
-        <v>4067</v>
+        <v>57</v>
       </c>
       <c r="E647">
-        <v>2238.29</v>
+        <v>648.61</v>
       </c>
       <c r="F647">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -17193,19 +17193,19 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>ATALAYA</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>CAMPOVERDE</t>
+          <t>TAHUANIA</t>
         </is>
       </c>
       <c r="D648">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="E648">
-        <v>838.78</v>
+        <v>369.16</v>
       </c>
       <c r="F648">
         <v>0</v>
@@ -17219,19 +17219,19 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>ATALAYA</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>IPARIA</t>
+          <t>YURUA</t>
         </is>
       </c>
       <c r="D649">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E649">
-        <v>89.76000000000001</v>
+        <v>149.87</v>
       </c>
       <c r="F649">
         <v>0</v>
@@ -17250,17 +17250,17 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>MANANTAY</t>
+          <t>CALLERIA</t>
         </is>
       </c>
       <c r="D650">
-        <v>1777</v>
+        <v>4079</v>
       </c>
       <c r="E650">
-        <v>1544.08</v>
+        <v>2244.9</v>
       </c>
       <c r="F650">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -17276,14 +17276,14 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>MASISEA</t>
+          <t>CAMPOVERDE</t>
         </is>
       </c>
       <c r="D651">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="E651">
-        <v>1094.81</v>
+        <v>843.52</v>
       </c>
       <c r="F651">
         <v>0</v>
@@ -17302,14 +17302,14 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>NUEVA REQUENA</t>
+          <t>IPARIA</t>
         </is>
       </c>
       <c r="D652">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="E652">
-        <v>2985.32</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="F652">
         <v>0</v>
@@ -17328,17 +17328,17 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>YARINACOCHA</t>
+          <t>MANANTAY</t>
         </is>
       </c>
       <c r="D653">
-        <v>1593</v>
+        <v>1781</v>
       </c>
       <c r="E653">
-        <v>1261.08</v>
+        <v>1547.55</v>
       </c>
       <c r="F653">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -17349,19 +17349,19 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>PADRE ABAD</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>ALEXANDER VON HUMBOLDT</t>
+          <t>MASISEA</t>
         </is>
       </c>
       <c r="D654">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="E654">
-        <v>781.01</v>
+        <v>1094.81</v>
       </c>
       <c r="F654">
         <v>0</v>
@@ -17375,19 +17375,19 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>PADRE ABAD</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>BOQUERON</t>
+          <t>NUEVA REQUENA</t>
         </is>
       </c>
       <c r="D655">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="E655">
-        <v>289.18</v>
+        <v>2985.32</v>
       </c>
       <c r="F655">
         <v>0</v>
@@ -17401,22 +17401,22 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>PADRE ABAD</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>CURIMANA</t>
+          <t>YARINACOCHA</t>
         </is>
       </c>
       <c r="D656">
-        <v>39</v>
+        <v>1596</v>
       </c>
       <c r="E656">
-        <v>338.37</v>
+        <v>1263.46</v>
       </c>
       <c r="F656">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="657">
@@ -17432,14 +17432,14 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>HUIPOCA</t>
+          <t>ALEXANDER VON HUMBOLDT</t>
         </is>
       </c>
       <c r="D657">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E657">
-        <v>252.47</v>
+        <v>781.01</v>
       </c>
       <c r="F657">
         <v>0</v>
@@ -17458,14 +17458,14 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>IRAZOLA</t>
+          <t>BOQUERON</t>
         </is>
       </c>
       <c r="D658">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E658">
-        <v>966.4</v>
+        <v>289.18</v>
       </c>
       <c r="F658">
         <v>0</v>
@@ -17484,14 +17484,14 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>NESHUYA</t>
+          <t>CURIMANA</t>
         </is>
       </c>
       <c r="D659">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="E659">
-        <v>933.1</v>
+        <v>347.04</v>
       </c>
       <c r="F659">
         <v>0</v>
@@ -17510,16 +17510,94 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
+          <t>HUIPOCA</t>
+        </is>
+      </c>
+      <c r="D660">
+        <v>10</v>
+      </c>
+      <c r="E660">
+        <v>229.52</v>
+      </c>
+      <c r="F660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>UCAYALI</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
           <t>PADRE ABAD</t>
         </is>
       </c>
-      <c r="D660">
-        <v>468</v>
-      </c>
-      <c r="E660">
-        <v>1469.62</v>
-      </c>
-      <c r="F660">
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>IRAZOLA</t>
+        </is>
+      </c>
+      <c r="D661">
+        <v>131</v>
+      </c>
+      <c r="E661">
+        <v>973.83</v>
+      </c>
+      <c r="F661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>UCAYALI</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>PADRE ABAD</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>NESHUYA</t>
+        </is>
+      </c>
+      <c r="D662">
+        <v>106</v>
+      </c>
+      <c r="E662">
+        <v>933.1</v>
+      </c>
+      <c r="F662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>UCAYALI</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>PADRE ABAD</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>PADRE ABAD</t>
+        </is>
+      </c>
+      <c r="D663">
+        <v>471</v>
+      </c>
+      <c r="E663">
+        <v>1479.04</v>
+      </c>
+      <c r="F663">
         <v>0</v>
       </c>
     </row>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F666"/>
+  <dimension ref="A1:F667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="E3">
-        <v>2519.6</v>
+        <v>2585.22</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>2720.64</v>
+        <v>2654.28</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>4118.99</v>
+        <v>4195.27</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E6">
-        <v>972.08</v>
+        <v>963.42</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7">
-        <v>1164.39</v>
+        <v>1149.07</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -558,14 +558,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FLORIDA</t>
+          <t>JAZAN</t>
         </is>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E8">
-        <v>15.87</v>
+        <v>686.8</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -584,14 +584,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JAZAN</t>
+          <t>SAN CARLOS</t>
         </is>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>686.8</v>
+        <v>173.91</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -605,19 +605,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BONGARA</t>
+          <t>CHACHAPOYAS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SAN CARLOS</t>
+          <t>BALSAS</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>173.91</v>
+        <v>838.22</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -636,14 +636,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BALSAS</t>
+          <t>CHACHAPOYAS</t>
         </is>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>838.22</v>
+        <v>12.38</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -662,14 +662,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>MONTEVIDEO</t>
         </is>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>12.38</v>
+        <v>202.84</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -683,19 +683,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>CONDORCANQUI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MONTEVIDEO</t>
+          <t>EL CENEPA</t>
         </is>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>202.84</v>
+        <v>99.95</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -714,14 +714,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EL CENEPA</t>
+          <t>NIEVA</t>
         </is>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="E14">
-        <v>99.95</v>
+        <v>873.89</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -740,14 +740,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NIEVA</t>
+          <t>RIO SANTIAGO</t>
         </is>
       </c>
       <c r="D15">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>972.41</v>
+        <v>186.46</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -761,19 +761,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CONDORCANQUI</t>
+          <t>LUYA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RIO SANTIAGO</t>
+          <t>CAMPORREDONDO</t>
         </is>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>186.46</v>
+        <v>13.24</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -787,19 +787,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LUYA</t>
+          <t>RODRIGUEZ DE MENDOZA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CAMPORREDONDO</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>13.24</v>
+        <v>22.29</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -813,19 +813,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RODRIGUEZ DE MENDOZA</t>
+          <t>UTCUBAMBA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>BAGUA GRANDE</t>
         </is>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="E18">
-        <v>22.29</v>
+        <v>678.11</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -844,14 +844,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BAGUA GRANDE</t>
+          <t>CAJARURO</t>
         </is>
       </c>
       <c r="D19">
-        <v>384</v>
+        <v>127</v>
       </c>
       <c r="E19">
-        <v>652.62</v>
+        <v>526.51</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -870,14 +870,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CAJARURO</t>
+          <t>CUMBA</t>
         </is>
       </c>
       <c r="D20">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="E20">
-        <v>493.35</v>
+        <v>820.52</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -896,14 +896,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUMBA</t>
+          <t>EL MILAGRO</t>
         </is>
       </c>
       <c r="D21">
         <v>71</v>
       </c>
       <c r="E21">
-        <v>820.52</v>
+        <v>1092.31</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -922,14 +922,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EL MILAGRO</t>
+          <t>LONYA GRANDE</t>
         </is>
       </c>
       <c r="D22">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="E22">
-        <v>1046.15</v>
+        <v>1542.62</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -938,24 +938,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AMAZONAS</t>
+          <t>ANCASH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UTCUBAMBA</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LONYA GRANDE</t>
+          <t>CHACAS</t>
         </is>
       </c>
       <c r="D23">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1507.76</v>
+        <v>21.6</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -969,19 +969,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>BOLOGNESI</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CHACAS</t>
+          <t>HUALLANCA</t>
         </is>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>21.6</v>
+        <v>16.07</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -995,19 +995,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOLOGNESI</t>
+          <t>CASMA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HUALLANCA</t>
+          <t>BUENA VISTA ALTA</t>
         </is>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>16.07</v>
+        <v>262.42</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1026,14 +1026,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BUENA VISTA ALTA</t>
+          <t>CASMA</t>
         </is>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>590</v>
       </c>
       <c r="E26">
-        <v>262.42</v>
+        <v>1378.02</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1052,14 +1052,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CASMA</t>
+          <t>COMANDANTE NOEL</t>
         </is>
       </c>
       <c r="D27">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1333.64</v>
+        <v>41.1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1078,14 +1078,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COMANDANTE NOEL</t>
+          <t>YAUTAN</t>
         </is>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>41.1</v>
+        <v>20.97</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1099,19 +1099,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CASMA</t>
+          <t>CORONGO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>YAUTAN</t>
+          <t>CORONGO</t>
         </is>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>20.97</v>
+        <v>55.9</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CORONGO</t>
+          <t>HUARAZ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CORONGO</t>
+          <t>COCHABAMBA</t>
         </is>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>55.9</v>
+        <v>58.38</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1156,14 +1156,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COCHABAMBA</t>
+          <t>HUARAZ</t>
         </is>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>58.38</v>
+        <v>4.22</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1182,14 +1182,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HUARAZ</t>
+          <t>JANGAS</t>
         </is>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>4.22</v>
+        <v>18.62</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1203,19 +1203,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HUARAZ</t>
+          <t>HUARI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JANGAS</t>
+          <t>HUARI</t>
         </is>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>18.62</v>
+        <v>10.35</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1234,14 +1234,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HUARI</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>10.35</v>
+        <v>5.01</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1255,19 +1255,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HUARI</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>COCHAPETI</t>
         </is>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>5.01</v>
+        <v>122.85</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1286,14 +1286,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>COCHAPETI</t>
+          <t>CULEBRAS</t>
         </is>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>122.85</v>
+        <v>29.18</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="D37">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E37">
-        <v>1705.96</v>
+        <v>1698.84</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="D41">
-        <v>929</v>
+        <v>979</v>
       </c>
       <c r="E41">
-        <v>422.26</v>
+        <v>444.99</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>150.28</v>
+        <v>166.98</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D44">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="E44">
-        <v>7437.41</v>
+        <v>7503.82</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="D45">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="E45">
-        <v>276.55</v>
+        <v>289.17</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1576,10 +1576,10 @@
         </is>
       </c>
       <c r="D47">
-        <v>570</v>
+        <v>620</v>
       </c>
       <c r="E47">
-        <v>2377.18</v>
+        <v>2585.7</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         </is>
       </c>
       <c r="D56">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E56">
-        <v>1176.74</v>
+        <v>1199.37</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="D60">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E60">
-        <v>1682.67</v>
+        <v>1691.48</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>53.9</v>
+        <v>35.93</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="D63">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E63">
-        <v>1287.33</v>
+        <v>1297.63</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E65">
-        <v>1467.22</v>
+        <v>1513.07</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="D68">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E68">
-        <v>567.05</v>
+        <v>575.03</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>210.45</v>
+        <v>247.59</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="D78">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78">
-        <v>7.09</v>
+        <v>7.48</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="D95">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E95">
-        <v>21112.37</v>
+        <v>21263.72</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="D98">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E98">
-        <v>11017.45</v>
+        <v>11032.24</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>11.3</v>
+        <v>22.6</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="D106">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E106">
-        <v>1929.22</v>
+        <v>1941.28</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="D108">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E108">
-        <v>237.01</v>
+        <v>246.49</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="D110">
-        <v>3616</v>
+        <v>3678</v>
       </c>
       <c r="E110">
-        <v>3311.08</v>
+        <v>3367.85</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>63.55</v>
+        <v>52.95</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="D112">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E112">
-        <v>1812.73</v>
+        <v>1727.09</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="D113">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>223.71</v>
+        <v>52.64</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="D115">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E115">
-        <v>206.26</v>
+        <v>157.73</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="D118">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E118">
-        <v>991.0599999999999</v>
+        <v>1012.73</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>18.44</v>
+        <v>23.05</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="D121">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E121">
-        <v>1084.02</v>
+        <v>1098.5</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3552,10 +3552,10 @@
         </is>
       </c>
       <c r="D123">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E123">
-        <v>211.45</v>
+        <v>221.28</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         </is>
       </c>
       <c r="D128">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E128">
-        <v>163.4</v>
+        <v>178.25</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3734,10 +3734,10 @@
         </is>
       </c>
       <c r="D130">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E130">
-        <v>797.7</v>
+        <v>842.01</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="D134">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E134">
-        <v>98.69</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="D135">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E135">
-        <v>66.43000000000001</v>
+        <v>66.06</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3890,10 +3890,10 @@
         </is>
       </c>
       <c r="D136">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E136">
-        <v>80.81</v>
+        <v>87.03</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="D137">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E137">
-        <v>25.82</v>
+        <v>27.34</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         </is>
       </c>
       <c r="D139">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E139">
-        <v>697.5700000000001</v>
+        <v>703.03</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         </is>
       </c>
       <c r="D140">
-        <v>1477</v>
+        <v>1484</v>
       </c>
       <c r="E140">
-        <v>372.02</v>
+        <v>373.78</v>
       </c>
       <c r="F140">
         <v>2</v>
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="D141">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E141">
-        <v>511.02</v>
+        <v>542.96</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="D149">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E149">
-        <v>345.36</v>
+        <v>350.67</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="D150">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="E150">
-        <v>2739.73</v>
+        <v>2460.02</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="D152">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E152">
-        <v>1611.54</v>
+        <v>1526.72</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="D155">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="E155">
-        <v>2103.25</v>
+        <v>2022.52</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="D156">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E156">
-        <v>140.52</v>
+        <v>147.21</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="D157">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="E157">
-        <v>3605.33</v>
+        <v>3638.86</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -4488,10 +4488,10 @@
         </is>
       </c>
       <c r="D159">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E159">
-        <v>3850.83</v>
+        <v>3526.55</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="D160">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E160">
-        <v>2900.95</v>
+        <v>2652.3</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="D168">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E168">
-        <v>624.66</v>
+        <v>651.8200000000001</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="D171">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E171">
-        <v>13.27</v>
+        <v>12.25</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>7.36</v>
+        <v>5.52</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="D174">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E174">
-        <v>2248.08</v>
+        <v>2276.81</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4956,10 +4956,10 @@
         </is>
       </c>
       <c r="D177">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E177">
-        <v>411.73</v>
+        <v>415.84</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="D179">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E179">
-        <v>655.12</v>
+        <v>646.5</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="D182">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="E182">
-        <v>1860.72</v>
+        <v>1867.32</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5190,10 +5190,10 @@
         </is>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>325.26</v>
+        <v>361.4</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -5268,10 +5268,10 @@
         </is>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E189">
-        <v>123.51</v>
+        <v>144.09</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5294,10 +5294,10 @@
         </is>
       </c>
       <c r="D190">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E190">
-        <v>2267.14</v>
+        <v>2275.92</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5424,10 +5424,10 @@
         </is>
       </c>
       <c r="D195">
-        <v>2307</v>
+        <v>2300</v>
       </c>
       <c r="E195">
-        <v>2812.52</v>
+        <v>2803.99</v>
       </c>
       <c r="F195">
         <v>25</v>
@@ -5450,10 +5450,10 @@
         </is>
       </c>
       <c r="D196">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E196">
-        <v>940.62</v>
+        <v>947.16</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -5502,10 +5502,10 @@
         </is>
       </c>
       <c r="D198">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E198">
-        <v>1627.23</v>
+        <v>1630.47</v>
       </c>
       <c r="F198">
         <v>4</v>
@@ -5528,10 +5528,10 @@
         </is>
       </c>
       <c r="D199">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E199">
-        <v>2531.69</v>
+        <v>2530.41</v>
       </c>
       <c r="F199">
         <v>8</v>
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="D200">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E200">
-        <v>2505.96</v>
+        <v>2491.6</v>
       </c>
       <c r="F200">
         <v>6</v>
@@ -5606,10 +5606,10 @@
         </is>
       </c>
       <c r="D202">
-        <v>2315</v>
+        <v>2330</v>
       </c>
       <c r="E202">
-        <v>1273.51</v>
+        <v>1281.76</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -5632,10 +5632,10 @@
         </is>
       </c>
       <c r="D203">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E203">
-        <v>853.78</v>
+        <v>861.79</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="D204">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E204">
-        <v>835.16</v>
+        <v>838.87</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5736,10 +5736,10 @@
         </is>
       </c>
       <c r="D207">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="E207">
-        <v>1336.12</v>
+        <v>1340.87</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="D208">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E208">
-        <v>1648.09</v>
+        <v>1660.2</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5918,10 +5918,10 @@
         </is>
       </c>
       <c r="D214">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E214">
-        <v>2225.84</v>
+        <v>2243.94</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>234.99</v>
+        <v>208.88</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="D219">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="E219">
-        <v>3711.06</v>
+        <v>3695.3</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="D220">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E220">
-        <v>2145.16</v>
+        <v>2148.95</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="D222">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E222">
-        <v>1891.59</v>
+        <v>1913.72</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="D227">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E227">
-        <v>217.01</v>
+        <v>226.87</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6282,10 +6282,10 @@
         </is>
       </c>
       <c r="D228">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="E228">
-        <v>1022.4</v>
+        <v>1037.85</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="D230">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E230">
-        <v>856.16</v>
+        <v>875.55</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="D232">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E232">
-        <v>1846.51</v>
+        <v>1856.69</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6412,10 +6412,10 @@
         </is>
       </c>
       <c r="D233">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="E233">
-        <v>1209.3</v>
+        <v>1225.91</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -6464,10 +6464,10 @@
         </is>
       </c>
       <c r="D235">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E235">
-        <v>1000.54</v>
+        <v>1027.58</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -6490,10 +6490,10 @@
         </is>
       </c>
       <c r="D236">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E236">
-        <v>1621.31</v>
+        <v>1631.46</v>
       </c>
       <c r="F236">
         <v>3</v>
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="D249">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E249">
-        <v>199.33</v>
+        <v>203.86</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="D251">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E251">
-        <v>403.98</v>
+        <v>405.44</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="D253">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E253">
-        <v>204.55</v>
+        <v>207.85</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="D254">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E254">
-        <v>703.52</v>
+        <v>712.6</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -7062,10 +7062,10 @@
         </is>
       </c>
       <c r="D258">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E258">
-        <v>1200.98</v>
+        <v>1215.45</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7088,10 +7088,10 @@
         </is>
       </c>
       <c r="D259">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E259">
-        <v>257.25</v>
+        <v>267.27</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="D260">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E260">
-        <v>1361.93</v>
+        <v>1411.23</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7140,10 +7140,10 @@
         </is>
       </c>
       <c r="D261">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E261">
-        <v>142.25</v>
+        <v>162.57</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7192,10 +7192,10 @@
         </is>
       </c>
       <c r="D263">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E263">
-        <v>428</v>
+        <v>441.48</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="D268">
-        <v>1402</v>
+        <v>1426</v>
       </c>
       <c r="E268">
-        <v>2801.25</v>
+        <v>2849.21</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         </is>
       </c>
       <c r="D271">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E271">
-        <v>1321.25</v>
+        <v>1328.27</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -7556,10 +7556,10 @@
         </is>
       </c>
       <c r="D277">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E277">
-        <v>1672.31</v>
+        <v>1689.92</v>
       </c>
       <c r="F277">
         <v>4</v>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E278">
-        <v>20.76</v>
+        <v>41.52</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7608,10 +7608,10 @@
         </is>
       </c>
       <c r="D279">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E279">
-        <v>326</v>
+        <v>328.99</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -7660,10 +7660,10 @@
         </is>
       </c>
       <c r="D281">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E281">
-        <v>569.3200000000001</v>
+        <v>634.24</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="D289">
-        <v>1364</v>
+        <v>1405</v>
       </c>
       <c r="E289">
-        <v>558.0700000000001</v>
+        <v>574.85</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         </is>
       </c>
       <c r="D290">
-        <v>1426</v>
+        <v>1471</v>
       </c>
       <c r="E290">
-        <v>3510.33</v>
+        <v>3621.1</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7920,10 +7920,10 @@
         </is>
       </c>
       <c r="D291">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="E291">
-        <v>925.85</v>
+        <v>931.09</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -7946,10 +7946,10 @@
         </is>
       </c>
       <c r="D292">
-        <v>5968</v>
+        <v>6019</v>
       </c>
       <c r="E292">
-        <v>2503.82</v>
+        <v>2525.21</v>
       </c>
       <c r="F292">
         <v>7</v>
@@ -7972,10 +7972,10 @@
         </is>
       </c>
       <c r="D293">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E293">
-        <v>1162.18</v>
+        <v>1164.38</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -7998,10 +7998,10 @@
         </is>
       </c>
       <c r="D294">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E294">
-        <v>115.79</v>
+        <v>124.52</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -8050,10 +8050,10 @@
         </is>
       </c>
       <c r="D296">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E296">
-        <v>171.04</v>
+        <v>191.4</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -8102,13 +8102,13 @@
         </is>
       </c>
       <c r="D298">
-        <v>3032</v>
+        <v>3084</v>
       </c>
       <c r="E298">
-        <v>840.35</v>
+        <v>854.77</v>
       </c>
       <c r="F298">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299">
@@ -8154,10 +8154,10 @@
         </is>
       </c>
       <c r="D300">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="E300">
-        <v>1791.66</v>
+        <v>1808.08</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -8180,10 +8180,10 @@
         </is>
       </c>
       <c r="D301">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E301">
-        <v>185.99</v>
+        <v>198.39</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="D302">
-        <v>1355</v>
+        <v>1378</v>
       </c>
       <c r="E302">
-        <v>2193.66</v>
+        <v>2230.89</v>
       </c>
       <c r="F302">
         <v>4</v>
@@ -8258,10 +8258,10 @@
         </is>
       </c>
       <c r="D304">
-        <v>10093</v>
+        <v>10212</v>
       </c>
       <c r="E304">
-        <v>3396.91</v>
+        <v>3436.96</v>
       </c>
       <c r="F304">
         <v>32</v>
@@ -8310,10 +8310,10 @@
         </is>
       </c>
       <c r="D306">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E306">
-        <v>1919.55</v>
+        <v>1956.19</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="D308">
-        <v>3141</v>
+        <v>3264</v>
       </c>
       <c r="E308">
-        <v>1853.06</v>
+        <v>1925.63</v>
       </c>
       <c r="F308">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309">
@@ -8388,13 +8388,13 @@
         </is>
       </c>
       <c r="D309">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="E309">
-        <v>1990.9</v>
+        <v>2000.77</v>
       </c>
       <c r="F309">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310">
@@ -8518,10 +8518,10 @@
         </is>
       </c>
       <c r="D314">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E314">
-        <v>1098.09</v>
+        <v>1090.33</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         </is>
       </c>
       <c r="D315">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E315">
-        <v>3041.24</v>
+        <v>3074.66</v>
       </c>
       <c r="F315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -8570,13 +8570,13 @@
         </is>
       </c>
       <c r="D316">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E316">
-        <v>517.26</v>
+        <v>532.37</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -8596,10 +8596,10 @@
         </is>
       </c>
       <c r="D317">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E317">
-        <v>1232.8</v>
+        <v>1275.8</v>
       </c>
       <c r="F317">
         <v>3</v>
@@ -8622,10 +8622,10 @@
         </is>
       </c>
       <c r="D318">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E318">
-        <v>3710.6</v>
+        <v>3721.54</v>
       </c>
       <c r="F318">
         <v>2</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="D319">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E319">
-        <v>1060.3</v>
+        <v>1065.74</v>
       </c>
       <c r="F319">
         <v>3</v>
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="D321">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E321">
-        <v>1910.78</v>
+        <v>1958.15</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="D322">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E322">
-        <v>1706.25</v>
+        <v>1689.78</v>
       </c>
       <c r="F322">
         <v>8</v>
@@ -8778,10 +8778,10 @@
         </is>
       </c>
       <c r="D324">
-        <v>1023</v>
+        <v>1043</v>
       </c>
       <c r="E324">
-        <v>2623.75</v>
+        <v>2675.04</v>
       </c>
       <c r="F324">
         <v>14</v>
@@ -8804,10 +8804,10 @@
         </is>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E325">
-        <v>12.76</v>
+        <v>6.38</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         </is>
       </c>
       <c r="D327">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="E327">
-        <v>3407.02</v>
+        <v>3433.71</v>
       </c>
       <c r="F327">
         <v>2</v>
@@ -8882,10 +8882,10 @@
         </is>
       </c>
       <c r="D328">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E328">
-        <v>2290.92</v>
+        <v>2303.24</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="D329">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E329">
-        <v>1008.9</v>
+        <v>1305.64</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -8934,10 +8934,10 @@
         </is>
       </c>
       <c r="D330">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E330">
-        <v>2878.64</v>
+        <v>2908.73</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -8960,10 +8960,10 @@
         </is>
       </c>
       <c r="D331">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E331">
-        <v>3066.58</v>
+        <v>3076.12</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -8986,10 +8986,10 @@
         </is>
       </c>
       <c r="D332">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="E332">
-        <v>1235.17</v>
+        <v>1242.2</v>
       </c>
       <c r="F332">
         <v>8</v>
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="D333">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E333">
-        <v>398.5</v>
+        <v>412.73</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -9038,10 +9038,10 @@
         </is>
       </c>
       <c r="D334">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E334">
-        <v>354.28</v>
+        <v>355.97</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9064,10 +9064,10 @@
         </is>
       </c>
       <c r="D335">
-        <v>1349</v>
+        <v>1379</v>
       </c>
       <c r="E335">
-        <v>3730.74</v>
+        <v>3813.71</v>
       </c>
       <c r="F335">
         <v>2</v>
@@ -9090,10 +9090,10 @@
         </is>
       </c>
       <c r="D336">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E336">
-        <v>1040.16</v>
+        <v>1029.87</v>
       </c>
       <c r="F336">
         <v>2</v>
@@ -9168,10 +9168,10 @@
         </is>
       </c>
       <c r="D339">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E339">
-        <v>713.09</v>
+        <v>728.8200000000001</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9194,10 +9194,10 @@
         </is>
       </c>
       <c r="D340">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E340">
-        <v>326.75</v>
+        <v>318.97</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9220,10 +9220,10 @@
         </is>
       </c>
       <c r="D341">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E341">
-        <v>10.63</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         </is>
       </c>
       <c r="D342">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E342">
-        <v>215.57</v>
+        <v>230.44</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9272,10 +9272,10 @@
         </is>
       </c>
       <c r="D343">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E343">
-        <v>1068.79</v>
+        <v>1255.29</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         </is>
       </c>
       <c r="D351">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E351">
-        <v>189.43</v>
+        <v>186.93</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         </is>
       </c>
       <c r="D353">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="E353">
-        <v>2346.96</v>
+        <v>2358.32</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -9584,10 +9584,10 @@
         </is>
       </c>
       <c r="D355">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E355">
-        <v>2424.46</v>
+        <v>2430.37</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -9662,10 +9662,10 @@
         </is>
       </c>
       <c r="D358">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E358">
-        <v>121.94</v>
+        <v>125.11</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="D367">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E367">
-        <v>101.91</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         </is>
       </c>
       <c r="D369">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E369">
-        <v>2705.6</v>
+        <v>2717.52</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         </is>
       </c>
       <c r="D376">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E376">
-        <v>17.85</v>
+        <v>19.23</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -10260,10 +10260,10 @@
         </is>
       </c>
       <c r="D381">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="E381">
-        <v>737.08</v>
+        <v>742.5700000000001</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -10286,10 +10286,10 @@
         </is>
       </c>
       <c r="D382">
-        <v>1796</v>
+        <v>1807</v>
       </c>
       <c r="E382">
-        <v>251.86</v>
+        <v>253.4</v>
       </c>
       <c r="F382">
         <v>3</v>
@@ -10364,10 +10364,10 @@
         </is>
       </c>
       <c r="D385">
-        <v>2384</v>
+        <v>2421</v>
       </c>
       <c r="E385">
-        <v>558.33</v>
+        <v>567</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="D386">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="E386">
-        <v>1745.81</v>
+        <v>1693.89</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10416,10 +10416,10 @@
         </is>
       </c>
       <c r="D387">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E387">
-        <v>60.27</v>
+        <v>61.88</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10468,10 +10468,10 @@
         </is>
       </c>
       <c r="D389">
-        <v>3777</v>
+        <v>3889</v>
       </c>
       <c r="E389">
-        <v>631.33</v>
+        <v>650.05</v>
       </c>
       <c r="F389">
         <v>1</v>
@@ -10494,10 +10494,10 @@
         </is>
       </c>
       <c r="D390">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E390">
-        <v>106.09</v>
+        <v>105.24</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="D391">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="E391">
-        <v>709.85</v>
+        <v>712</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="D392">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E392">
-        <v>85.16</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         </is>
       </c>
       <c r="D393">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E393">
-        <v>151.03</v>
+        <v>150.44</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         </is>
       </c>
       <c r="D394">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E394">
-        <v>49.07</v>
+        <v>48.56</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -10624,10 +10624,10 @@
         </is>
       </c>
       <c r="D395">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E395">
-        <v>111.04</v>
+        <v>110.68</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="D396">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E396">
-        <v>111.19</v>
+        <v>108.06</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         </is>
       </c>
       <c r="D397">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="E397">
-        <v>208.32</v>
+        <v>212.68</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="D398">
-        <v>1460</v>
+        <v>1428</v>
       </c>
       <c r="E398">
-        <v>480.32</v>
+        <v>469.79</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -10754,10 +10754,10 @@
         </is>
       </c>
       <c r="D400">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E400">
-        <v>50.37</v>
+        <v>48.93</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -10806,10 +10806,10 @@
         </is>
       </c>
       <c r="D402">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E402">
-        <v>114.89</v>
+        <v>115.54</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         </is>
       </c>
       <c r="D403">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E403">
-        <v>313.11</v>
+        <v>318.7</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -10858,10 +10858,10 @@
         </is>
       </c>
       <c r="D404">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E404">
-        <v>66.27</v>
+        <v>67.28</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="D405">
-        <v>2654</v>
+        <v>2682</v>
       </c>
       <c r="E405">
-        <v>637.17</v>
+        <v>643.89</v>
       </c>
       <c r="F405">
         <v>1</v>
@@ -10910,10 +10910,10 @@
         </is>
       </c>
       <c r="D406">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E406">
-        <v>26</v>
+        <v>30.33</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -10962,10 +10962,10 @@
         </is>
       </c>
       <c r="D408">
-        <v>1629</v>
+        <v>1592</v>
       </c>
       <c r="E408">
-        <v>868.98</v>
+        <v>849.24</v>
       </c>
       <c r="F408">
         <v>1</v>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="D409">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E409">
-        <v>435.06</v>
+        <v>509.34</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -11014,10 +11014,10 @@
         </is>
       </c>
       <c r="D410">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E410">
-        <v>37.5</v>
+        <v>38.25</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         </is>
       </c>
       <c r="D412">
-        <v>4159</v>
+        <v>4171</v>
       </c>
       <c r="E412">
-        <v>335.27</v>
+        <v>336.24</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         </is>
       </c>
       <c r="D413">
-        <v>1979</v>
+        <v>1991</v>
       </c>
       <c r="E413">
-        <v>459.41</v>
+        <v>462.19</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         </is>
       </c>
       <c r="D415">
-        <v>1444</v>
+        <v>1452</v>
       </c>
       <c r="E415">
-        <v>184.64</v>
+        <v>185.66</v>
       </c>
       <c r="F415">
         <v>1</v>
@@ -11170,10 +11170,10 @@
         </is>
       </c>
       <c r="D416">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E416">
-        <v>23.42</v>
+        <v>23.97</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -11196,10 +11196,10 @@
         </is>
       </c>
       <c r="D417">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E417">
-        <v>74.76000000000001</v>
+        <v>75.62</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11222,10 +11222,10 @@
         </is>
       </c>
       <c r="D418">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E418">
-        <v>559.55</v>
+        <v>639.49</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -11274,10 +11274,10 @@
         </is>
       </c>
       <c r="D420">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E420">
-        <v>38.9</v>
+        <v>40.3</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="D422">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="E422">
-        <v>78.77</v>
+        <v>80.81</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11352,10 +11352,10 @@
         </is>
       </c>
       <c r="D423">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E423">
-        <v>237.03</v>
+        <v>237.47</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -11534,10 +11534,10 @@
         </is>
       </c>
       <c r="D430">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E430">
-        <v>122.6</v>
+        <v>117.27</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="D432">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E432">
-        <v>1656.39</v>
+        <v>1663.32</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -11612,10 +11612,10 @@
         </is>
       </c>
       <c r="D433">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E433">
-        <v>176.06</v>
+        <v>154.05</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -11664,10 +11664,10 @@
         </is>
       </c>
       <c r="D435">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="E435">
-        <v>1564.37</v>
+        <v>1568.84</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -11794,10 +11794,10 @@
         </is>
       </c>
       <c r="D440">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E440">
-        <v>300.98</v>
+        <v>285.93</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -12080,10 +12080,10 @@
         </is>
       </c>
       <c r="D451">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="E451">
-        <v>355.84</v>
+        <v>265.84</v>
       </c>
       <c r="F451">
         <v>0</v>
@@ -12132,10 +12132,10 @@
         </is>
       </c>
       <c r="D453">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E453">
-        <v>268.39</v>
+        <v>310.32</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -12158,10 +12158,10 @@
         </is>
       </c>
       <c r="D454">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="E454">
-        <v>834.8</v>
+        <v>836.01</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         </is>
       </c>
       <c r="D456">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E456">
-        <v>254.59</v>
+        <v>261.47</v>
       </c>
       <c r="F456">
         <v>0</v>
@@ -12262,10 +12262,10 @@
         </is>
       </c>
       <c r="D458">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E458">
-        <v>1605.81</v>
+        <v>1604.72</v>
       </c>
       <c r="F458">
         <v>0</v>
@@ -12288,10 +12288,10 @@
         </is>
       </c>
       <c r="D459">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E459">
-        <v>332.71</v>
+        <v>327.67</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -12548,10 +12548,10 @@
         </is>
       </c>
       <c r="D469">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E469">
-        <v>623.95</v>
+        <v>627.45</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="D472">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E472">
-        <v>1648.28</v>
+        <v>1668.97</v>
       </c>
       <c r="F472">
         <v>0</v>
@@ -12704,10 +12704,10 @@
         </is>
       </c>
       <c r="D475">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E475">
-        <v>310.91</v>
+        <v>327.28</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12782,10 +12782,10 @@
         </is>
       </c>
       <c r="D478">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E478">
-        <v>600.1799999999999</v>
+        <v>609.42</v>
       </c>
       <c r="F478">
         <v>0</v>
@@ -12834,10 +12834,10 @@
         </is>
       </c>
       <c r="D480">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E480">
-        <v>3088.01</v>
+        <v>3053.7</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -12990,10 +12990,10 @@
         </is>
       </c>
       <c r="D486">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E486">
-        <v>1020.21</v>
+        <v>1017.5</v>
       </c>
       <c r="F486">
         <v>2</v>
@@ -13012,14 +13012,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>CONSTITUCION</t>
+          <t>CHONTABAMBA</t>
         </is>
       </c>
       <c r="D487">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="E487">
-        <v>1560.74</v>
+        <v>14.49</v>
       </c>
       <c r="F487">
         <v>0</v>
@@ -13038,14 +13038,14 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>CONSTITUCION</t>
         </is>
       </c>
       <c r="D488">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="E488">
-        <v>13.6</v>
+        <v>1566.1</v>
       </c>
       <c r="F488">
         <v>0</v>
@@ -13064,14 +13064,14 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="D489">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E489">
-        <v>32.95</v>
+        <v>13.6</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -13090,14 +13090,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>PALCAZU</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="D490">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E490">
-        <v>414.64</v>
+        <v>38.44</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -13116,14 +13116,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>POZUZO</t>
+          <t>PALCAZU</t>
         </is>
       </c>
       <c r="D491">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E491">
-        <v>1759.07</v>
+        <v>568.65</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -13142,14 +13142,14 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>PUERTO BERMUDEZ</t>
+          <t>POZUZO</t>
         </is>
       </c>
       <c r="D492">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E492">
-        <v>119.65</v>
+        <v>1759.07</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -13168,14 +13168,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>VILLA RICA</t>
+          <t>PUERTO BERMUDEZ</t>
         </is>
       </c>
       <c r="D493">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E493">
-        <v>120.55</v>
+        <v>123.92</v>
       </c>
       <c r="F493">
         <v>0</v>
@@ -13189,19 +13189,19 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>CHAUPIMARCA</t>
+          <t>VILLA RICA</t>
         </is>
       </c>
       <c r="D494">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E494">
-        <v>7.63</v>
+        <v>125.79</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -13220,14 +13220,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>PAUCARTAMBO</t>
+          <t>CHAUPIMARCA</t>
         </is>
       </c>
       <c r="D495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E495">
-        <v>11.6</v>
+        <v>7.63</v>
       </c>
       <c r="F495">
         <v>0</v>
@@ -13246,14 +13246,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>TINYAHUARCO</t>
+          <t>PAUCARTAMBO</t>
         </is>
       </c>
       <c r="D496">
         <v>1</v>
       </c>
       <c r="E496">
-        <v>13.82</v>
+        <v>11.6</v>
       </c>
       <c r="F496">
         <v>0</v>
@@ -13272,14 +13272,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>YANACANCHA</t>
+          <t>TINYAHUARCO</t>
         </is>
       </c>
       <c r="D497">
         <v>1</v>
       </c>
       <c r="E497">
-        <v>3.29</v>
+        <v>13.82</v>
       </c>
       <c r="F497">
         <v>0</v>
@@ -13288,24 +13288,24 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>AYABACA</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>FRIAS</t>
+          <t>YANACANCHA</t>
         </is>
       </c>
       <c r="D498">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E498">
-        <v>33.15</v>
+        <v>3.29</v>
       </c>
       <c r="F498">
         <v>0</v>
@@ -13324,14 +13324,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>MONTERO</t>
+          <t>FRIAS</t>
         </is>
       </c>
       <c r="D499">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E499">
-        <v>92.27</v>
+        <v>33.15</v>
       </c>
       <c r="F499">
         <v>0</v>
@@ -13350,14 +13350,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>PACAIPAMPA</t>
+          <t>MONTERO</t>
         </is>
       </c>
       <c r="D500">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E500">
-        <v>8.630000000000001</v>
+        <v>92.27</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -13376,14 +13376,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>PAIMAS</t>
+          <t>PACAIPAMPA</t>
         </is>
       </c>
       <c r="D501">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E501">
-        <v>949.46</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -13402,14 +13402,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>SUYO</t>
+          <t>PAIMAS</t>
         </is>
       </c>
       <c r="D502">
-        <v>499</v>
+        <v>99</v>
       </c>
       <c r="E502">
-        <v>4168.06</v>
+        <v>949.46</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -13423,19 +13423,19 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>AYABACA</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>CANCHAQUE</t>
+          <t>SUYO</t>
         </is>
       </c>
       <c r="D503">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="E503">
-        <v>188.22</v>
+        <v>4176.41</v>
       </c>
       <c r="F503">
         <v>0</v>
@@ -13454,14 +13454,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>EL CARMEN DE LA FRONTERA</t>
+          <t>CANCHAQUE</t>
         </is>
       </c>
       <c r="D504">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E504">
-        <v>16.99</v>
+        <v>188.22</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -13480,14 +13480,14 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>HUANCABAMBA</t>
+          <t>EL CARMEN DE LA FRONTERA</t>
         </is>
       </c>
       <c r="D505">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E505">
-        <v>119.65</v>
+        <v>16.99</v>
       </c>
       <c r="F505">
         <v>0</v>
@@ -13506,14 +13506,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>HUARMACA</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="D506">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E506">
-        <v>61.43</v>
+        <v>129.91</v>
       </c>
       <c r="F506">
         <v>0</v>
@@ -13532,14 +13532,14 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>LALAQUIZ</t>
+          <t>HUARMACA</t>
         </is>
       </c>
       <c r="D507">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E507">
-        <v>48.96</v>
+        <v>61.43</v>
       </c>
       <c r="F507">
         <v>0</v>
@@ -13558,14 +13558,14 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE EL FAIQUE</t>
+          <t>LALAQUIZ</t>
         </is>
       </c>
       <c r="D508">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E508">
-        <v>814.9</v>
+        <v>48.96</v>
       </c>
       <c r="F508">
         <v>0</v>
@@ -13584,14 +13584,14 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>SONDORILLO</t>
+          <t>SAN MIGUEL DE EL FAIQUE</t>
         </is>
       </c>
       <c r="D509">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="E509">
-        <v>8.9</v>
+        <v>814.9</v>
       </c>
       <c r="F509">
         <v>0</v>
@@ -13605,19 +13605,19 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>HUANCABAMBA</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>SONDORILLO</t>
         </is>
       </c>
       <c r="D510">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E510">
-        <v>777.1</v>
+        <v>8.9</v>
       </c>
       <c r="F510">
         <v>0</v>
@@ -13636,14 +13636,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>CHALACO</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D511">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E511">
-        <v>39.52</v>
+        <v>777.1</v>
       </c>
       <c r="F511">
         <v>0</v>
@@ -13662,17 +13662,17 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>CHULUCANAS</t>
+          <t>CHALACO</t>
         </is>
       </c>
       <c r="D512">
-        <v>5244</v>
+        <v>3</v>
       </c>
       <c r="E512">
-        <v>5715.28</v>
+        <v>39.52</v>
       </c>
       <c r="F512">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -13688,17 +13688,17 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>LA MATANZA</t>
+          <t>CHULUCANAS</t>
         </is>
       </c>
       <c r="D513">
-        <v>537</v>
+        <v>5269</v>
       </c>
       <c r="E513">
-        <v>3443.19</v>
+        <v>5742.53</v>
       </c>
       <c r="F513">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="514">
@@ -13714,17 +13714,17 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>MORROPON</t>
+          <t>LA MATANZA</t>
         </is>
       </c>
       <c r="D514">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="E514">
-        <v>4581.55</v>
+        <v>3449.6</v>
       </c>
       <c r="F514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -13740,14 +13740,14 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="D515">
-        <v>371</v>
+        <v>751</v>
       </c>
       <c r="E515">
-        <v>3986.25</v>
+        <v>4587.66</v>
       </c>
       <c r="F515">
         <v>0</v>
@@ -13766,14 +13766,14 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>SAN JUAN DE BIGOTE</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D516">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="E516">
-        <v>4012.98</v>
+        <v>4029.23</v>
       </c>
       <c r="F516">
         <v>0</v>
@@ -13792,14 +13792,14 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>SANTA CATALINA DE MOSSA</t>
+          <t>SAN JUAN DE BIGOTE</t>
         </is>
       </c>
       <c r="D517">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="E517">
-        <v>949.12</v>
+        <v>4204.78</v>
       </c>
       <c r="F517">
         <v>0</v>
@@ -13818,14 +13818,14 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>SANTA CATALINA DE MOSSA</t>
         </is>
       </c>
       <c r="D518">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E518">
-        <v>171.56</v>
+        <v>949.12</v>
       </c>
       <c r="F518">
         <v>0</v>
@@ -13844,14 +13844,14 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>YAMANGO</t>
+          <t>SANTO DOMINGO</t>
         </is>
       </c>
       <c r="D519">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E519">
-        <v>172</v>
+        <v>171.56</v>
       </c>
       <c r="F519">
         <v>0</v>
@@ -13865,22 +13865,22 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>MORROPON</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>AMOTAPE</t>
+          <t>YAMANGO</t>
         </is>
       </c>
       <c r="D520">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="E520">
-        <v>5576.78</v>
+        <v>172</v>
       </c>
       <c r="F520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -13896,17 +13896,17 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>ARENAL</t>
+          <t>AMOTAPE</t>
         </is>
       </c>
       <c r="D521">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="E521">
-        <v>1614.14</v>
+        <v>5576.78</v>
       </c>
       <c r="F521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -13922,14 +13922,14 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>COLAN</t>
+          <t>ARENAL</t>
         </is>
       </c>
       <c r="D522">
-        <v>536</v>
+        <v>21</v>
       </c>
       <c r="E522">
-        <v>3032.19</v>
+        <v>1614.14</v>
       </c>
       <c r="F522">
         <v>0</v>
@@ -13948,17 +13948,17 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>LA HUACA</t>
+          <t>COLAN</t>
         </is>
       </c>
       <c r="D523">
-        <v>1724</v>
+        <v>537</v>
       </c>
       <c r="E523">
-        <v>11636.85</v>
+        <v>3037.85</v>
       </c>
       <c r="F523">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -13974,17 +13974,17 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>PAITA</t>
+          <t>LA HUACA</t>
         </is>
       </c>
       <c r="D524">
-        <v>2733</v>
+        <v>1726</v>
       </c>
       <c r="E524">
-        <v>2519.13</v>
+        <v>11650.35</v>
       </c>
       <c r="F524">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -14000,17 +14000,17 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>TAMARINDO</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="D525">
-        <v>235</v>
+        <v>2698</v>
       </c>
       <c r="E525">
-        <v>4195.68</v>
+        <v>2486.87</v>
       </c>
       <c r="F525">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="526">
@@ -14026,17 +14026,17 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>VICHAYAL</t>
+          <t>TAMARINDO</t>
         </is>
       </c>
       <c r="D526">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="E526">
-        <v>2326.3</v>
+        <v>4374.22</v>
       </c>
       <c r="F526">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -14047,22 +14047,22 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PAITA</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>CASTILLA</t>
+          <t>VICHAYAL</t>
         </is>
       </c>
       <c r="D527">
-        <v>8827</v>
+        <v>157</v>
       </c>
       <c r="E527">
-        <v>4509.18</v>
+        <v>2434.86</v>
       </c>
       <c r="F527">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -14078,17 +14078,17 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>CATACAOS</t>
+          <t>CASTILLA</t>
         </is>
       </c>
       <c r="D528">
-        <v>2645</v>
+        <v>8978</v>
       </c>
       <c r="E528">
-        <v>3122.9</v>
+        <v>4586.32</v>
       </c>
       <c r="F528">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="529">
@@ -14104,17 +14104,17 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>CURA MORI</t>
+          <t>CATACAOS</t>
         </is>
       </c>
       <c r="D529">
-        <v>641</v>
+        <v>2670</v>
       </c>
       <c r="E529">
-        <v>3058.06</v>
+        <v>3152.41</v>
       </c>
       <c r="F529">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530">
@@ -14130,17 +14130,17 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>EL TALLAN</t>
+          <t>CURA MORI</t>
         </is>
       </c>
       <c r="D530">
-        <v>305</v>
+        <v>642</v>
       </c>
       <c r="E530">
-        <v>5238.75</v>
+        <v>3062.83</v>
       </c>
       <c r="F530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -14156,14 +14156,14 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>LA ARENA</t>
+          <t>EL TALLAN</t>
         </is>
       </c>
       <c r="D531">
-        <v>972</v>
+        <v>304</v>
       </c>
       <c r="E531">
-        <v>2249.74</v>
+        <v>5221.57</v>
       </c>
       <c r="F531">
         <v>0</v>
@@ -14182,17 +14182,17 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>LA UNION</t>
+          <t>LA ARENA</t>
         </is>
       </c>
       <c r="D532">
-        <v>1870</v>
+        <v>759</v>
       </c>
       <c r="E532">
-        <v>4023.67</v>
+        <v>1756.74</v>
       </c>
       <c r="F532">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -14208,17 +14208,17 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>LAS LOMAS</t>
+          <t>LA UNION</t>
         </is>
       </c>
       <c r="D533">
-        <v>235</v>
+        <v>1658</v>
       </c>
       <c r="E533">
-        <v>776.6799999999999</v>
+        <v>3567.51</v>
       </c>
       <c r="F533">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="534">
@@ -14234,17 +14234,17 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>LAS LOMAS</t>
         </is>
       </c>
       <c r="D534">
-        <v>9588</v>
+        <v>238</v>
       </c>
       <c r="E534">
-        <v>5058.35</v>
+        <v>786.59</v>
       </c>
       <c r="F534">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -14260,17 +14260,17 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>TAMBO GRANDE</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D535">
-        <v>3526</v>
+        <v>9614</v>
       </c>
       <c r="E535">
-        <v>2702.35</v>
+        <v>5072.07</v>
       </c>
       <c r="F535">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="536">
@@ -14286,17 +14286,17 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE</t>
+          <t>TAMBO GRANDE</t>
         </is>
       </c>
       <c r="D536">
-        <v>3698</v>
+        <v>3579</v>
       </c>
       <c r="E536">
-        <v>1878.07</v>
+        <v>2742.97</v>
       </c>
       <c r="F536">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -14307,22 +14307,22 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>BELLAVISTA DE LA UNION</t>
+          <t>VEINTISEIS DE OCTUBRE</t>
         </is>
       </c>
       <c r="D537">
-        <v>400</v>
+        <v>3706</v>
       </c>
       <c r="E537">
-        <v>7222.82</v>
+        <v>1882.14</v>
       </c>
       <c r="F537">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="538">
@@ -14338,14 +14338,14 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>BERNAL</t>
+          <t>BELLAVISTA DE LA UNION</t>
         </is>
       </c>
       <c r="D538">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="E538">
-        <v>957.0599999999999</v>
+        <v>7313.11</v>
       </c>
       <c r="F538">
         <v>0</v>
@@ -14364,14 +14364,14 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>CRISTO NOS VALGA</t>
+          <t>BERNAL</t>
         </is>
       </c>
       <c r="D539">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="E539">
-        <v>2657.37</v>
+        <v>957.0599999999999</v>
       </c>
       <c r="F539">
         <v>0</v>
@@ -14390,14 +14390,14 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>RINCONADA-LLICUAR</t>
+          <t>CRISTO NOS VALGA</t>
         </is>
       </c>
       <c r="D540">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="E540">
-        <v>1190.84</v>
+        <v>2657.37</v>
       </c>
       <c r="F540">
         <v>0</v>
@@ -14416,14 +14416,14 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>RINCONADA-LLICUAR</t>
         </is>
       </c>
       <c r="D541">
-        <v>776</v>
+        <v>40</v>
       </c>
       <c r="E541">
-        <v>1409.35</v>
+        <v>1221.37</v>
       </c>
       <c r="F541">
         <v>0</v>
@@ -14442,14 +14442,14 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>VICE</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="D542">
-        <v>337</v>
+        <v>782</v>
       </c>
       <c r="E542">
-        <v>1764.58</v>
+        <v>1420.24</v>
       </c>
       <c r="F542">
         <v>0</v>
@@ -14463,22 +14463,22 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>VICE</t>
         </is>
       </c>
       <c r="D543">
-        <v>1596</v>
+        <v>333</v>
       </c>
       <c r="E543">
-        <v>3975.49</v>
+        <v>1743.64</v>
       </c>
       <c r="F543">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -14494,17 +14494,17 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>IGNACIO ESCUDERO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D544">
-        <v>979</v>
+        <v>1601</v>
       </c>
       <c r="E544">
-        <v>4349.56</v>
+        <v>3987.94</v>
       </c>
       <c r="F544">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545">
@@ -14520,17 +14520,17 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>LANCONES</t>
+          <t>IGNACIO ESCUDERO</t>
         </is>
       </c>
       <c r="D545">
-        <v>67</v>
+        <v>983</v>
       </c>
       <c r="E545">
-        <v>491.78</v>
+        <v>4367.34</v>
       </c>
       <c r="F545">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="546">
@@ -14546,14 +14546,14 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>MARCAVELICA</t>
+          <t>LANCONES</t>
         </is>
       </c>
       <c r="D546">
-        <v>1817</v>
+        <v>67</v>
       </c>
       <c r="E546">
-        <v>5428.09</v>
+        <v>491.78</v>
       </c>
       <c r="F546">
         <v>0</v>
@@ -14572,14 +14572,14 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>MIGUEL CHECA</t>
+          <t>MARCAVELICA</t>
         </is>
       </c>
       <c r="D547">
-        <v>780</v>
+        <v>1891</v>
       </c>
       <c r="E547">
-        <v>7327.38</v>
+        <v>5649.16</v>
       </c>
       <c r="F547">
         <v>0</v>
@@ -14598,17 +14598,17 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>QUERECOTILLO</t>
+          <t>MIGUEL CHECA</t>
         </is>
       </c>
       <c r="D548">
-        <v>966</v>
+        <v>783</v>
       </c>
       <c r="E548">
-        <v>3333.68</v>
+        <v>7355.57</v>
       </c>
       <c r="F548">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -14624,17 +14624,17 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>SALITRAL</t>
+          <t>QUERECOTILLO</t>
         </is>
       </c>
       <c r="D549">
-        <v>307</v>
+        <v>976</v>
       </c>
       <c r="E549">
-        <v>3846.64</v>
+        <v>3368.19</v>
       </c>
       <c r="F549">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550">
@@ -14650,17 +14650,17 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SALITRAL</t>
         </is>
       </c>
       <c r="D550">
-        <v>6883</v>
+        <v>308</v>
       </c>
       <c r="E550">
-        <v>3515.12</v>
+        <v>3859.17</v>
       </c>
       <c r="F550">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -14671,22 +14671,22 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>TALARA</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>EL ALTO</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="D551">
-        <v>217</v>
+        <v>7029</v>
       </c>
       <c r="E551">
-        <v>2323.84</v>
+        <v>3589.69</v>
       </c>
       <c r="F551">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="552">
@@ -14702,17 +14702,17 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>LA BREA</t>
+          <t>EL ALTO</t>
         </is>
       </c>
       <c r="D552">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="E552">
-        <v>510.32</v>
+        <v>2334.55</v>
       </c>
       <c r="F552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -14728,17 +14728,17 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>LOBITOS</t>
+          <t>LA BREA</t>
         </is>
       </c>
       <c r="D553">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E553">
-        <v>571.02</v>
+        <v>569.48</v>
       </c>
       <c r="F553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -14754,14 +14754,14 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>LOS ORGANOS</t>
+          <t>LOBITOS</t>
         </is>
       </c>
       <c r="D554">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="E554">
-        <v>2262.9</v>
+        <v>428.27</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -14780,14 +14780,14 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>MANCORA</t>
+          <t>LOS ORGANOS</t>
         </is>
       </c>
       <c r="D555">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="E555">
-        <v>1703.73</v>
+        <v>2304.49</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -14806,43 +14806,43 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>PARIÑÃ‰AS</t>
+          <t>MANCORA</t>
         </is>
       </c>
       <c r="D556">
-        <v>2704</v>
+        <v>251</v>
       </c>
       <c r="E556">
-        <v>2491.96</v>
+        <v>1717.41</v>
       </c>
       <c r="F556">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>CARABAYA</t>
+          <t>TALARA</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>AYAPATA</t>
+          <t>PARIÑÃ‰AS</t>
         </is>
       </c>
       <c r="D557">
-        <v>6</v>
+        <v>2836</v>
       </c>
       <c r="E557">
-        <v>64.17</v>
+        <v>2613.61</v>
       </c>
       <c r="F557">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558">
@@ -14858,14 +14858,14 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>SAN GABAN</t>
+          <t>AYAPATA</t>
         </is>
       </c>
       <c r="D558">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="E558">
-        <v>1320.58</v>
+        <v>64.17</v>
       </c>
       <c r="F558">
         <v>0</v>
@@ -14879,19 +14879,19 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>CARABAYA</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>SAN GABAN</t>
         </is>
       </c>
       <c r="D559">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="E559">
-        <v>0.6899999999999999</v>
+        <v>1320.58</v>
       </c>
       <c r="F559">
         <v>0</v>
@@ -14900,24 +14900,24 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>ALTO BIAVO</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D560">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E560">
-        <v>152.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F560">
         <v>0</v>
@@ -14936,14 +14936,14 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>BAJO BIAVO</t>
+          <t>ALTO BIAVO</t>
         </is>
       </c>
       <c r="D561">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E561">
-        <v>120.76</v>
+        <v>152.95</v>
       </c>
       <c r="F561">
         <v>0</v>
@@ -14962,17 +14962,17 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>BAJO BIAVO</t>
         </is>
       </c>
       <c r="D562">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="E562">
-        <v>1162.67</v>
+        <v>120.76</v>
       </c>
       <c r="F562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -14988,17 +14988,17 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D563">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="E563">
-        <v>361.27</v>
+        <v>1162.67</v>
       </c>
       <c r="F563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -15014,14 +15014,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="D564">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E564">
-        <v>351.27</v>
+        <v>361.27</v>
       </c>
       <c r="F564">
         <v>0</v>
@@ -15040,14 +15040,14 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D565">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E565">
-        <v>296.04</v>
+        <v>351.27</v>
       </c>
       <c r="F565">
         <v>0</v>
@@ -15061,19 +15061,19 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>EL DORADO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>AGUA BLANCA</t>
+          <t>SAN RAFAEL</t>
         </is>
       </c>
       <c r="D566">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E566">
-        <v>41.89</v>
+        <v>296.04</v>
       </c>
       <c r="F566">
         <v>0</v>
@@ -15092,17 +15092,17 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>SAN JOSE DE SISA</t>
+          <t>AGUA BLANCA</t>
         </is>
       </c>
       <c r="D567">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E567">
-        <v>139.62</v>
+        <v>41.89</v>
       </c>
       <c r="F567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -15118,17 +15118,17 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>SAN JOSE DE SISA</t>
         </is>
       </c>
       <c r="D568">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E568">
-        <v>50.42</v>
+        <v>134.03</v>
       </c>
       <c r="F568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -15144,14 +15144,14 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="D569">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E569">
-        <v>52.14</v>
+        <v>50.42</v>
       </c>
       <c r="F569">
         <v>0</v>
@@ -15170,14 +15170,14 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>SHATOJA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D570">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E570">
-        <v>29.64</v>
+        <v>52.14</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -15191,19 +15191,19 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>HUALLAGA</t>
+          <t>EL DORADO</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>ALTO SAPOSOA</t>
+          <t>SHATOJA</t>
         </is>
       </c>
       <c r="D571">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E571">
-        <v>86.01000000000001</v>
+        <v>29.64</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -15222,14 +15222,14 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>EL ESLABON</t>
+          <t>ALTO SAPOSOA</t>
         </is>
       </c>
       <c r="D572">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E572">
-        <v>511.51</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -15248,14 +15248,14 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>PISCOYACU</t>
+          <t>EL ESLABON</t>
         </is>
       </c>
       <c r="D573">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E573">
-        <v>103.22</v>
+        <v>511.51</v>
       </c>
       <c r="F573">
         <v>0</v>
@@ -15274,14 +15274,14 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>SACANCHE</t>
+          <t>PISCOYACU</t>
         </is>
       </c>
       <c r="D574">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E574">
-        <v>890.96</v>
+        <v>103.22</v>
       </c>
       <c r="F574">
         <v>0</v>
@@ -15300,14 +15300,14 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>SAPOSOA</t>
+          <t>SACANCHE</t>
         </is>
       </c>
       <c r="D575">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E575">
-        <v>314.91</v>
+        <v>890.96</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -15326,14 +15326,14 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>TINGO DE SAPOSOA</t>
+          <t>SAPOSOA</t>
         </is>
       </c>
       <c r="D576">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E576">
-        <v>3169.01</v>
+        <v>314.91</v>
       </c>
       <c r="F576">
         <v>0</v>
@@ -15347,19 +15347,19 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>HUALLAGA</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>ALONSO DE ALVARADO</t>
+          <t>TINGO DE SAPOSOA</t>
         </is>
       </c>
       <c r="D577">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E577">
-        <v>13.78</v>
+        <v>3169.01</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -15378,14 +15378,14 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>BARRANQUITA</t>
+          <t>ALONSO DE ALVARADO</t>
         </is>
       </c>
       <c r="D578">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E578">
-        <v>673.79</v>
+        <v>13.78</v>
       </c>
       <c r="F578">
         <v>0</v>
@@ -15404,17 +15404,17 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>CAYNARACHI</t>
+          <t>BARRANQUITA</t>
         </is>
       </c>
       <c r="D579">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="E579">
-        <v>1529.82</v>
+        <v>686.5</v>
       </c>
       <c r="F579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -15430,17 +15430,17 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>CUÑUMBUQUI</t>
+          <t>CAYNARACHI</t>
         </is>
       </c>
       <c r="D580">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="E580">
-        <v>460.07</v>
+        <v>1538.46</v>
       </c>
       <c r="F580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -15456,14 +15456,14 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>LAMAS</t>
+          <t>CUÑUMBUQUI</t>
         </is>
       </c>
       <c r="D581">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="E581">
-        <v>853.47</v>
+        <v>460.07</v>
       </c>
       <c r="F581">
         <v>0</v>
@@ -15482,14 +15482,14 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>PINTO RECODO</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="D582">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="E582">
-        <v>316.08</v>
+        <v>866.02</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -15508,14 +15508,14 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>RUMISAPA</t>
+          <t>PINTO RECODO</t>
         </is>
       </c>
       <c r="D583">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E583">
-        <v>398.31</v>
+        <v>316.08</v>
       </c>
       <c r="F583">
         <v>0</v>
@@ -15534,14 +15534,14 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>SAN ROQUE DE CUMBAZA</t>
+          <t>RUMISAPA</t>
         </is>
       </c>
       <c r="D584">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E584">
-        <v>339.56</v>
+        <v>398.31</v>
       </c>
       <c r="F584">
         <v>0</v>
@@ -15560,14 +15560,14 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>SHANAO</t>
+          <t>SAN ROQUE DE CUMBAZA</t>
         </is>
       </c>
       <c r="D585">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E585">
-        <v>856.0700000000001</v>
+        <v>339.56</v>
       </c>
       <c r="F585">
         <v>0</v>
@@ -15586,14 +15586,14 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>TABALOSOS</t>
+          <t>SHANAO</t>
         </is>
       </c>
       <c r="D586">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E586">
-        <v>186.53</v>
+        <v>856.0700000000001</v>
       </c>
       <c r="F586">
         <v>0</v>
@@ -15612,14 +15612,14 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>ZAPATERO</t>
+          <t>TABALOSOS</t>
         </is>
       </c>
       <c r="D587">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E587">
-        <v>377.3</v>
+        <v>193.19</v>
       </c>
       <c r="F587">
         <v>0</v>
@@ -15633,19 +15633,19 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>MARISCAL CACERES</t>
+          <t>LAMAS</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>CAMPANILLA</t>
+          <t>ZAPATERO</t>
         </is>
       </c>
       <c r="D588">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E588">
-        <v>226.11</v>
+        <v>377.3</v>
       </c>
       <c r="F588">
         <v>0</v>
@@ -15664,14 +15664,14 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>HUICUNGO</t>
+          <t>CAMPANILLA</t>
         </is>
       </c>
       <c r="D589">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E589">
-        <v>206.12</v>
+        <v>226.11</v>
       </c>
       <c r="F589">
         <v>0</v>
@@ -15690,17 +15690,17 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>JUANJUI</t>
+          <t>HUICUNGO</t>
         </is>
       </c>
       <c r="D590">
-        <v>429</v>
+        <v>21</v>
       </c>
       <c r="E590">
-        <v>1189.95</v>
+        <v>206.12</v>
       </c>
       <c r="F590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -15716,17 +15716,17 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>PACHIZA</t>
+          <t>JUANJUI</t>
         </is>
       </c>
       <c r="D591">
-        <v>17</v>
+        <v>433</v>
       </c>
       <c r="E591">
-        <v>232.15</v>
+        <v>1201.04</v>
       </c>
       <c r="F591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -15742,14 +15742,14 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>PAJARILLO</t>
+          <t>PACHIZA</t>
         </is>
       </c>
       <c r="D592">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E592">
-        <v>276.87</v>
+        <v>259.46</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -15763,19 +15763,19 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>MARISCAL CACERES</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>CALZADA</t>
+          <t>PAJARILLO</t>
         </is>
       </c>
       <c r="D593">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E593">
-        <v>302.18</v>
+        <v>276.87</v>
       </c>
       <c r="F593">
         <v>0</v>
@@ -15794,14 +15794,14 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>HABANA</t>
+          <t>CALZADA</t>
         </is>
       </c>
       <c r="D594">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E594">
-        <v>408.4</v>
+        <v>342.47</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -15820,14 +15820,14 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>JEPELACIO</t>
+          <t>HABANA</t>
         </is>
       </c>
       <c r="D595">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E595">
-        <v>94.37</v>
+        <v>408.4</v>
       </c>
       <c r="F595">
         <v>0</v>
@@ -15846,17 +15846,17 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>MOYOBAMBA</t>
+          <t>JEPELACIO</t>
         </is>
       </c>
       <c r="D596">
-        <v>641</v>
+        <v>15</v>
       </c>
       <c r="E596">
-        <v>722.27</v>
+        <v>94.37</v>
       </c>
       <c r="F596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -15872,17 +15872,17 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>SORITOR</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="D597">
-        <v>48</v>
+        <v>644</v>
       </c>
       <c r="E597">
-        <v>205.93</v>
+        <v>725.65</v>
       </c>
       <c r="F597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -15898,17 +15898,17 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>YANTALO</t>
+          <t>SORITOR</t>
         </is>
       </c>
       <c r="D598">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E598">
-        <v>99.47</v>
+        <v>197.35</v>
       </c>
       <c r="F598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -15919,19 +15919,19 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>MOYOBAMBA</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>BUENOS AIRES</t>
+          <t>YANTALO</t>
         </is>
       </c>
       <c r="D599">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E599">
-        <v>64.33</v>
+        <v>99.47</v>
       </c>
       <c r="F599">
         <v>0</v>
@@ -15950,14 +15950,14 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>CASPIZAPA</t>
+          <t>BUENOS AIRES</t>
         </is>
       </c>
       <c r="D600">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E600">
-        <v>355.08</v>
+        <v>32.16</v>
       </c>
       <c r="F600">
         <v>0</v>
@@ -15976,14 +15976,14 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>PICOTA</t>
+          <t>CASPIZAPA</t>
         </is>
       </c>
       <c r="D601">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E601">
-        <v>158.31</v>
+        <v>355.08</v>
       </c>
       <c r="F601">
         <v>0</v>
@@ -16002,14 +16002,14 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>PILLUANA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="D602">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E602">
-        <v>111.73</v>
+        <v>141.64</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -16028,14 +16028,14 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>PUCACACA</t>
+          <t>PILLUANA</t>
         </is>
       </c>
       <c r="D603">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E603">
-        <v>129.62</v>
+        <v>111.73</v>
       </c>
       <c r="F603">
         <v>0</v>
@@ -16054,14 +16054,14 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>SAN HILARION</t>
+          <t>PUCACACA</t>
         </is>
       </c>
       <c r="D604">
         <v>4</v>
       </c>
       <c r="E604">
-        <v>105.85</v>
+        <v>129.62</v>
       </c>
       <c r="F604">
         <v>0</v>
@@ -16080,14 +16080,14 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>SHAMBOYACU</t>
+          <t>SAN HILARION</t>
         </is>
       </c>
       <c r="D605">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E605">
-        <v>18.18</v>
+        <v>105.85</v>
       </c>
       <c r="F605">
         <v>0</v>
@@ -16106,14 +16106,14 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>TINGO DE PONASA</t>
+          <t>SHAMBOYACU</t>
         </is>
       </c>
       <c r="D606">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E606">
-        <v>201.36</v>
+        <v>18.18</v>
       </c>
       <c r="F606">
         <v>0</v>
@@ -16132,14 +16132,14 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>TRES UNIDOS</t>
+          <t>TINGO DE PONASA</t>
         </is>
       </c>
       <c r="D607">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E607">
-        <v>47.28</v>
+        <v>201.36</v>
       </c>
       <c r="F607">
         <v>0</v>
@@ -16153,19 +16153,19 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>PICOTA</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>AWAJUN</t>
+          <t>TRES UNIDOS</t>
         </is>
       </c>
       <c r="D608">
         <v>2</v>
       </c>
       <c r="E608">
-        <v>23.43</v>
+        <v>47.28</v>
       </c>
       <c r="F608">
         <v>0</v>
@@ -16184,14 +16184,14 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>ELIAS SOPLIN VARGAS</t>
+          <t>AWAJUN</t>
         </is>
       </c>
       <c r="D609">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E609">
-        <v>159.85</v>
+        <v>23.43</v>
       </c>
       <c r="F609">
         <v>0</v>
@@ -16210,14 +16210,14 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>NUEVA CAJAMARCA</t>
+          <t>ELIAS SOPLIN VARGAS</t>
         </is>
       </c>
       <c r="D610">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E610">
-        <v>172.5</v>
+        <v>159.85</v>
       </c>
       <c r="F610">
         <v>0</v>
@@ -16236,14 +16236,14 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>PARDO MIGUEL</t>
+          <t>NUEVA CAJAMARCA</t>
         </is>
       </c>
       <c r="D611">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="E611">
-        <v>33.91</v>
+        <v>188.74</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -16262,14 +16262,14 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>POSIC</t>
+          <t>PARDO MIGUEL</t>
         </is>
       </c>
       <c r="D612">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E612">
-        <v>43.98</v>
+        <v>33.91</v>
       </c>
       <c r="F612">
         <v>0</v>
@@ -16288,14 +16288,14 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>RIOJA</t>
+          <t>POSIC</t>
         </is>
       </c>
       <c r="D613">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="E613">
-        <v>439.96</v>
+        <v>43.98</v>
       </c>
       <c r="F613">
         <v>0</v>
@@ -16314,14 +16314,14 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="D614">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="E614">
-        <v>107.3</v>
+        <v>519.29</v>
       </c>
       <c r="F614">
         <v>0</v>
@@ -16340,14 +16340,14 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>YORONGOS</t>
+          <t>SAN FERNANDO</t>
         </is>
       </c>
       <c r="D615">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E615">
-        <v>38.85</v>
+        <v>107.3</v>
       </c>
       <c r="F615">
         <v>0</v>
@@ -16366,14 +16366,14 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>YURACYACU</t>
+          <t>YORONGOS</t>
         </is>
       </c>
       <c r="D616">
         <v>1</v>
       </c>
       <c r="E616">
-        <v>26.3</v>
+        <v>38.85</v>
       </c>
       <c r="F616">
         <v>0</v>
@@ -16387,19 +16387,19 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>RIOJA</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>ALBERTO LEVEAU</t>
+          <t>YURACYACU</t>
         </is>
       </c>
       <c r="D617">
         <v>1</v>
       </c>
       <c r="E617">
-        <v>104.17</v>
+        <v>26.3</v>
       </c>
       <c r="F617">
         <v>0</v>
@@ -16418,14 +16418,14 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>CACATACHI</t>
+          <t>ALBERTO LEVEAU</t>
         </is>
       </c>
       <c r="D618">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E618">
-        <v>226.47</v>
+        <v>104.17</v>
       </c>
       <c r="F618">
         <v>0</v>
@@ -16444,14 +16444,14 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>CHAZUTA</t>
+          <t>CACATACHI</t>
         </is>
       </c>
       <c r="D619">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="E619">
-        <v>967.5700000000001</v>
+        <v>226.47</v>
       </c>
       <c r="F619">
         <v>0</v>
@@ -16470,14 +16470,14 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>CHIPURANA</t>
+          <t>CHAZUTA</t>
         </is>
       </c>
       <c r="D620">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E620">
-        <v>38.85</v>
+        <v>1030.28</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -16496,14 +16496,14 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>CHIPURANA</t>
         </is>
       </c>
       <c r="D621">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E621">
-        <v>257.73</v>
+        <v>38.85</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -16522,14 +16522,14 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>HUIMBAYOC</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D622">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E622">
-        <v>85.81999999999999</v>
+        <v>257.73</v>
       </c>
       <c r="F622">
         <v>0</v>
@@ -16548,14 +16548,14 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>JUAN GUERRA</t>
+          <t>HUIMBAYOC</t>
         </is>
       </c>
       <c r="D623">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E623">
-        <v>297.01</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="F623">
         <v>0</v>
@@ -16574,14 +16574,14 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO</t>
+          <t>JUAN GUERRA</t>
         </is>
       </c>
       <c r="D624">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="E624">
-        <v>557.02</v>
+        <v>297.01</v>
       </c>
       <c r="F624">
         <v>0</v>
@@ -16600,14 +16600,14 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>LA BANDA DE SHILCAYO</t>
         </is>
       </c>
       <c r="D625">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="E625">
-        <v>536.61</v>
+        <v>566.4299999999999</v>
       </c>
       <c r="F625">
         <v>0</v>
@@ -16626,14 +16626,14 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>PAPAPLAYA</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="D626">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="E626">
-        <v>1409.11</v>
+        <v>536.61</v>
       </c>
       <c r="F626">
         <v>0</v>
@@ -16652,14 +16652,14 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>PAPAPLAYA</t>
         </is>
       </c>
       <c r="D627">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E627">
-        <v>220.87</v>
+        <v>1409.11</v>
       </c>
       <c r="F627">
         <v>0</v>
@@ -16678,14 +16678,14 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>SAUCE</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D628">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E628">
-        <v>179.37</v>
+        <v>220.87</v>
       </c>
       <c r="F628">
         <v>0</v>
@@ -16704,14 +16704,14 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>SHAPAJA</t>
+          <t>SAUCE</t>
         </is>
       </c>
       <c r="D629">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E629">
-        <v>698</v>
+        <v>179.37</v>
       </c>
       <c r="F629">
         <v>0</v>
@@ -16730,17 +16730,17 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>TARAPOTO</t>
+          <t>SHAPAJA</t>
         </is>
       </c>
       <c r="D630">
-        <v>589</v>
+        <v>15</v>
       </c>
       <c r="E630">
-        <v>677.8099999999999</v>
+        <v>698</v>
       </c>
       <c r="F630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -16751,22 +16751,22 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>NUEVO PROGRESO</t>
+          <t>TARAPOTO</t>
         </is>
       </c>
       <c r="D631">
-        <v>171</v>
+        <v>588</v>
       </c>
       <c r="E631">
-        <v>1340.23</v>
+        <v>676.66</v>
       </c>
       <c r="F631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -16782,14 +16782,14 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>POLVORA</t>
+          <t>NUEVO PROGRESO</t>
         </is>
       </c>
       <c r="D632">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E632">
-        <v>329.86</v>
+        <v>1175.64</v>
       </c>
       <c r="F632">
         <v>0</v>
@@ -16808,14 +16808,14 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>SANTA LUCIA</t>
+          <t>POLVORA</t>
         </is>
       </c>
       <c r="D633">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E633">
-        <v>153.9</v>
+        <v>294.2</v>
       </c>
       <c r="F633">
         <v>0</v>
@@ -16834,14 +16834,14 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>TOCACHE</t>
+          <t>SANTA LUCIA</t>
         </is>
       </c>
       <c r="D634">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="E634">
-        <v>404.56</v>
+        <v>153.9</v>
       </c>
       <c r="F634">
         <v>0</v>
@@ -16860,14 +16860,14 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>UCHIZA</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="D635">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E635">
-        <v>666.62</v>
+        <v>385.29</v>
       </c>
       <c r="F635">
         <v>0</v>
@@ -16876,24 +16876,24 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>CONTRALMIRANTE VILLAR</t>
+          <t>TOCACHE</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>CANOAS DE PUNTA SAL</t>
+          <t>UCHIZA</t>
         </is>
       </c>
       <c r="D636">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="E636">
-        <v>1920.52</v>
+        <v>666.62</v>
       </c>
       <c r="F636">
         <v>0</v>
@@ -16912,14 +16912,14 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>CASITAS</t>
+          <t>CANOAS DE PUNTA SAL</t>
         </is>
       </c>
       <c r="D637">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="E637">
-        <v>2312.54</v>
+        <v>1920.52</v>
       </c>
       <c r="F637">
         <v>0</v>
@@ -16938,14 +16938,14 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>ZORRITOS</t>
+          <t>CASITAS</t>
         </is>
       </c>
       <c r="D638">
-        <v>484</v>
+        <v>66</v>
       </c>
       <c r="E638">
-        <v>3304.66</v>
+        <v>2312.54</v>
       </c>
       <c r="F638">
         <v>0</v>
@@ -16959,19 +16959,19 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>CONTRALMIRANTE VILLAR</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>CORRALES</t>
+          <t>ZORRITOS</t>
         </is>
       </c>
       <c r="D639">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="E639">
-        <v>2146.05</v>
+        <v>3311.48</v>
       </c>
       <c r="F639">
         <v>0</v>
@@ -16990,14 +16990,14 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>LA CRUZ</t>
+          <t>CORRALES</t>
         </is>
       </c>
       <c r="D640">
-        <v>195</v>
+        <v>584</v>
       </c>
       <c r="E640">
-        <v>1756.12</v>
+        <v>2214.3</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -17016,14 +17016,14 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>PAMPAS DE HOSPITAL</t>
+          <t>LA CRUZ</t>
         </is>
       </c>
       <c r="D641">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="E641">
-        <v>3521.4</v>
+        <v>1783.14</v>
       </c>
       <c r="F641">
         <v>0</v>
@@ -17042,14 +17042,14 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>SAN JACINTO</t>
+          <t>PAMPAS DE HOSPITAL</t>
         </is>
       </c>
       <c r="D642">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="E642">
-        <v>2580.99</v>
+        <v>3495.69</v>
       </c>
       <c r="F642">
         <v>0</v>
@@ -17068,14 +17068,14 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LA VIRGEN</t>
+          <t>SAN JACINTO</t>
         </is>
       </c>
       <c r="D643">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="E643">
-        <v>1848.97</v>
+        <v>2634.99</v>
       </c>
       <c r="F643">
         <v>0</v>
@@ -17094,14 +17094,14 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>TUMBES</t>
+          <t>SAN JUAN DE LA VIRGEN</t>
         </is>
       </c>
       <c r="D644">
-        <v>2920</v>
+        <v>97</v>
       </c>
       <c r="E644">
-        <v>2473.21</v>
+        <v>1887.89</v>
       </c>
       <c r="F644">
         <v>0</v>
@@ -17115,19 +17115,19 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>AGUAS VERDES</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="D645">
-        <v>232</v>
+        <v>3036</v>
       </c>
       <c r="E645">
-        <v>1146.98</v>
+        <v>2571.46</v>
       </c>
       <c r="F645">
         <v>0</v>
@@ -17146,14 +17146,14 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>MATAPALO</t>
+          <t>AGUAS VERDES</t>
         </is>
       </c>
       <c r="D646">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="E646">
-        <v>1195.72</v>
+        <v>1156.87</v>
       </c>
       <c r="F646">
         <v>0</v>
@@ -17172,14 +17172,14 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>PAPAYAL</t>
+          <t>MATAPALO</t>
         </is>
       </c>
       <c r="D647">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="E647">
-        <v>3095.11</v>
+        <v>1237.68</v>
       </c>
       <c r="F647">
         <v>0</v>
@@ -17198,43 +17198,43 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>ZARUMILLA</t>
+          <t>PAPAYAL</t>
         </is>
       </c>
       <c r="D648">
-        <v>523</v>
+        <v>234</v>
       </c>
       <c r="E648">
-        <v>1929.89</v>
+        <v>3108.4</v>
       </c>
       <c r="F648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>TUMBES</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>ATALAYA</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>RAIMONDI</t>
+          <t>ZARUMILLA</t>
         </is>
       </c>
       <c r="D649">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="E649">
-        <v>1015.52</v>
+        <v>1955.72</v>
       </c>
       <c r="F649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -17250,14 +17250,14 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>SEPAHUA</t>
+          <t>RAIMONDI</t>
         </is>
       </c>
       <c r="D650">
-        <v>57</v>
+        <v>444</v>
       </c>
       <c r="E650">
-        <v>648.61</v>
+        <v>1027.09</v>
       </c>
       <c r="F650">
         <v>0</v>
@@ -17276,14 +17276,14 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>TAHUANIA</t>
+          <t>SEPAHUA</t>
         </is>
       </c>
       <c r="D651">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E651">
-        <v>369.16</v>
+        <v>648.61</v>
       </c>
       <c r="F651">
         <v>0</v>
@@ -17302,14 +17302,14 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>YURUA</t>
+          <t>TAHUANIA</t>
         </is>
       </c>
       <c r="D652">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E652">
-        <v>187.34</v>
+        <v>369.16</v>
       </c>
       <c r="F652">
         <v>0</v>
@@ -17323,22 +17323,22 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>ATALAYA</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>CALLERIA</t>
+          <t>YURUA</t>
         </is>
       </c>
       <c r="D653">
-        <v>4131</v>
+        <v>5</v>
       </c>
       <c r="E653">
-        <v>2273.52</v>
+        <v>187.34</v>
       </c>
       <c r="F653">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -17354,17 +17354,17 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>CAMPOVERDE</t>
+          <t>CALLERIA</t>
         </is>
       </c>
       <c r="D654">
-        <v>178</v>
+        <v>4152</v>
       </c>
       <c r="E654">
-        <v>843.52</v>
+        <v>2285.07</v>
       </c>
       <c r="F654">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="655">
@@ -17380,14 +17380,14 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>IPARIA</t>
+          <t>CAMPOVERDE</t>
         </is>
       </c>
       <c r="D655">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="E655">
-        <v>89.76000000000001</v>
+        <v>848.26</v>
       </c>
       <c r="F655">
         <v>0</v>
@@ -17406,17 +17406,17 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>MANANTAY</t>
+          <t>IPARIA</t>
         </is>
       </c>
       <c r="D656">
-        <v>1812</v>
+        <v>12</v>
       </c>
       <c r="E656">
-        <v>1574.49</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="F656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -17432,17 +17432,17 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>MASISEA</t>
+          <t>MANANTAY</t>
         </is>
       </c>
       <c r="D657">
-        <v>141</v>
+        <v>1826</v>
       </c>
       <c r="E657">
-        <v>1094.81</v>
+        <v>1586.65</v>
       </c>
       <c r="F657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658">
@@ -17458,14 +17458,14 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>NUEVA REQUENA</t>
+          <t>MASISEA</t>
         </is>
       </c>
       <c r="D658">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="E658">
-        <v>3115.82</v>
+        <v>1094.81</v>
       </c>
       <c r="F658">
         <v>0</v>
@@ -17484,17 +17484,17 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>YARINACOCHA</t>
+          <t>NUEVA REQUENA</t>
         </is>
       </c>
       <c r="D659">
-        <v>1608</v>
+        <v>191</v>
       </c>
       <c r="E659">
-        <v>1272.96</v>
+        <v>3115.82</v>
       </c>
       <c r="F659">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -17505,22 +17505,22 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>PADRE ABAD</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>ALEXANDER VON HUMBOLDT</t>
+          <t>YARINACOCHA</t>
         </is>
       </c>
       <c r="D660">
-        <v>51</v>
+        <v>1609</v>
       </c>
       <c r="E660">
-        <v>781.01</v>
+        <v>1273.75</v>
       </c>
       <c r="F660">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="661">
@@ -17536,14 +17536,14 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>BOQUERON</t>
+          <t>ALEXANDER VON HUMBOLDT</t>
         </is>
       </c>
       <c r="D661">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E661">
-        <v>308.46</v>
+        <v>781.01</v>
       </c>
       <c r="F661">
         <v>0</v>
@@ -17562,14 +17562,14 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>CURIMANA</t>
+          <t>BOQUERON</t>
         </is>
       </c>
       <c r="D662">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E662">
-        <v>347.04</v>
+        <v>289.18</v>
       </c>
       <c r="F662">
         <v>0</v>
@@ -17588,17 +17588,17 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>HUIPOCA</t>
+          <t>CURIMANA</t>
         </is>
       </c>
       <c r="D663">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E663">
-        <v>252.47</v>
+        <v>355.72</v>
       </c>
       <c r="F663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -17614,17 +17614,17 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>IRAZOLA</t>
+          <t>HUIPOCA</t>
         </is>
       </c>
       <c r="D664">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="E664">
-        <v>973.83</v>
+        <v>252.47</v>
       </c>
       <c r="F664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -17640,14 +17640,14 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>NESHUYA</t>
+          <t>IRAZOLA</t>
         </is>
       </c>
       <c r="D665">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E665">
-        <v>933.1</v>
+        <v>973.83</v>
       </c>
       <c r="F665">
         <v>0</v>
@@ -17666,16 +17666,42 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
+          <t>NESHUYA</t>
+        </is>
+      </c>
+      <c r="D666">
+        <v>106</v>
+      </c>
+      <c r="E666">
+        <v>933.1</v>
+      </c>
+      <c r="F666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>UCAYALI</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
           <t>PADRE ABAD</t>
         </is>
       </c>
-      <c r="D666">
-        <v>491</v>
-      </c>
-      <c r="E666">
-        <v>1541.84</v>
-      </c>
-      <c r="F666">
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>PADRE ABAD</t>
+        </is>
+      </c>
+      <c r="D667">
+        <v>493</v>
+      </c>
+      <c r="E667">
+        <v>1548.12</v>
+      </c>
+      <c r="F667">
         <v>0</v>
       </c>
     </row>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="E3">
-        <v>2585.22</v>
+        <v>2598.34</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E6">
-        <v>963.42</v>
+        <v>957.66</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>838.22</v>
+        <v>754.4</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E18">
-        <v>678.11</v>
+        <v>679.8099999999999</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E19">
-        <v>526.51</v>
+        <v>534.8</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25">
-        <v>262.42</v>
+        <v>297.41</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E26">
-        <v>1378.02</v>
+        <v>1385.03</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CULEBRAS</t>
+          <t>HUARMEY</t>
         </is>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>475</v>
       </c>
       <c r="E36">
-        <v>29.18</v>
+        <v>1691.72</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1312,17 +1312,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>HUAYAN</t>
         </is>
       </c>
       <c r="D37">
-        <v>477</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1698.84</v>
+        <v>104.49</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1333,19 +1333,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HUARMEY</t>
+          <t>POMABAMBA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HUAYAN</t>
+          <t>PAROBAMBA</t>
         </is>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>104.49</v>
+        <v>16.02</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1359,19 +1359,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>POMABAMBA</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PAROBAMBA</t>
+          <t>CACERES DEL PERU</t>
         </is>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>16.02</v>
+        <v>41.31</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CACERES DEL PERU</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1097</v>
       </c>
       <c r="E40">
-        <v>41.31</v>
+        <v>498.62</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D41">
-        <v>979</v>
+        <v>28</v>
       </c>
       <c r="E41">
-        <v>444.99</v>
+        <v>155.85</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>166.98</v>
+        <v>369.58</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1468,14 +1468,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>1137</v>
       </c>
       <c r="E43">
-        <v>335.98</v>
+        <v>7550.3</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1494,17 +1494,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D44">
-        <v>1130</v>
+        <v>552</v>
       </c>
       <c r="E44">
-        <v>7503.82</v>
+        <v>290.22</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1520,17 +1520,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D45">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>289.17</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1546,14 +1546,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>636</v>
       </c>
       <c r="E46">
-        <v>73.95999999999999</v>
+        <v>2652.43</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1567,19 +1567,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>YUNGAY</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>QUILLO</t>
         </is>
       </c>
       <c r="D47">
-        <v>620</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>2585.7</v>
+        <v>7.53</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1588,24 +1588,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>YUNGAY</t>
+          <t>GRAU</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QUILLO</t>
+          <t>CHUQUIBAMBILLA**</t>
         </is>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>7.53</v>
+        <v>19.91</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="D58">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E58">
-        <v>474.55</v>
+        <v>457.29</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="D60">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E60">
-        <v>1691.48</v>
+        <v>1656.24</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="D63">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63">
-        <v>1297.63</v>
+        <v>1318.23</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>14.37</v>
+        <v>7.18</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E76">
-        <v>247.59</v>
+        <v>371.38</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>62.15</v>
+        <v>93.23</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>11.56</v>
+        <v>23.11</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="D98">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E98">
-        <v>11032.24</v>
+        <v>11017.45</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>22.6</v>
+        <v>11.3</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="D106">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E106">
-        <v>1941.28</v>
+        <v>2007.6</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="D110">
-        <v>3678</v>
+        <v>3730</v>
       </c>
       <c r="E110">
-        <v>3367.85</v>
+        <v>3415.47</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="D115">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E115">
-        <v>157.73</v>
+        <v>181.99</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="D117">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E117">
-        <v>140.13</v>
+        <v>146.23</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="D118">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E118">
-        <v>1012.73</v>
+        <v>991.0599999999999</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="D121">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E121">
-        <v>1098.5</v>
+        <v>1084.02</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3552,10 +3552,10 @@
         </is>
       </c>
       <c r="D123">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E123">
-        <v>221.28</v>
+        <v>226.2</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3808,14 +3808,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CHANCAYBAÑOS</t>
         </is>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>105.51</v>
+        <v>29.83</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3824,24 +3824,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D134">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E134">
-        <v>97.48999999999999</v>
+        <v>105.51</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D135">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="E135">
-        <v>66.06</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3886,14 +3886,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D136">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="E136">
-        <v>87.03</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D137">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E137">
-        <v>27.34</v>
+        <v>87.03</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3938,14 +3938,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E138">
-        <v>49.96</v>
+        <v>28.85</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3964,14 +3964,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D139">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>703.03</v>
+        <v>24.98</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3990,43 +3990,43 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D140">
-        <v>1484</v>
+        <v>387</v>
       </c>
       <c r="E140">
-        <v>373.78</v>
+        <v>704.85</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D141">
-        <v>51</v>
+        <v>1489</v>
       </c>
       <c r="E141">
-        <v>542.96</v>
+        <v>375.04</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -4037,22 +4037,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D142">
+        <v>51</v>
+      </c>
+      <c r="E142">
+        <v>542.96</v>
+      </c>
+      <c r="F142">
         <v>1</v>
-      </c>
-      <c r="E142">
-        <v>18.08</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4063,19 +4063,19 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>5.71</v>
+        <v>18.08</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4094,14 +4094,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SAN SEBASTIAN</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E144">
-        <v>0.7</v>
+        <v>5.71</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4120,14 +4120,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="E145">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4146,14 +4146,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>WANCHAQ</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146">
-        <v>1.56</v>
+        <v>0.92</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4167,19 +4167,19 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>WANCHAQ</t>
         </is>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4193,19 +4193,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="D148">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>1002.73</v>
+        <v>2.54</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4224,14 +4224,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D149">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E149">
-        <v>350.67</v>
+        <v>1002.73</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D150">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="E150">
-        <v>2460.02</v>
+        <v>355.99</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4276,17 +4276,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="E151">
-        <v>102.25</v>
+        <v>2452.84</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4302,14 +4302,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D152">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E152">
-        <v>1526.72</v>
+        <v>102.25</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4328,14 +4328,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D153">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E153">
-        <v>119.36</v>
+        <v>1526.72</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4354,14 +4354,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D154">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>948.67</v>
+        <v>119.36</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4380,17 +4380,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D155">
-        <v>476</v>
+        <v>78</v>
       </c>
       <c r="E155">
-        <v>2022.52</v>
+        <v>948.67</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D156">
-        <v>22</v>
+        <v>461</v>
       </c>
       <c r="E156">
-        <v>147.21</v>
+        <v>1958.78</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4432,17 +4432,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D157">
-        <v>1085</v>
+        <v>22</v>
       </c>
       <c r="E157">
-        <v>3638.86</v>
+        <v>147.21</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4458,17 +4458,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D158">
-        <v>63</v>
+        <v>1093</v>
       </c>
       <c r="E158">
-        <v>1142.34</v>
+        <v>3665.69</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4484,14 +4484,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D159">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E159">
-        <v>3526.55</v>
+        <v>1142.34</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4510,14 +4510,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D160">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E160">
-        <v>2652.3</v>
+        <v>3567.09</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4531,19 +4531,19 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PAUCARTAMBO</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>KOSÑIPATA</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E161">
-        <v>20.04</v>
+        <v>2693.74</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4557,19 +4557,19 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>PAUCARTAMBO</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>KOSÑIPATA</t>
         </is>
       </c>
       <c r="D162">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>1102.54</v>
+        <v>20.04</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4583,19 +4583,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E163">
-        <v>16.85</v>
+        <v>1102.54</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4604,24 +4604,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HUANCAVELICA</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>HUAYTARA</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>QUITO ARMA</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D164">
         <v>1</v>
       </c>
       <c r="E164">
-        <v>149.48</v>
+        <v>16.85</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4630,24 +4630,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>HUANCAVELICA</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>HUAYTARA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>QUITO ARMA</t>
         </is>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
       <c r="E165">
-        <v>4.21</v>
+        <v>149.48</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4661,19 +4661,19 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DOS DE MAYO</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>YANAS</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
       <c r="E166">
-        <v>49.58</v>
+        <v>4.21</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4687,19 +4687,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>DOS DE MAYO</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>LLATA</t>
+          <t>YANAS</t>
         </is>
       </c>
       <c r="D167">
         <v>1</v>
       </c>
       <c r="E167">
-        <v>7.43</v>
+        <v>49.58</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4718,14 +4718,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MONZON</t>
+          <t>LLATA</t>
         </is>
       </c>
       <c r="D168">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>651.8200000000001</v>
+        <v>7.43</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4739,19 +4739,19 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>AMARILIS</t>
+          <t>MONZON</t>
         </is>
       </c>
       <c r="D169">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E169">
-        <v>50.27</v>
+        <v>633.71</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4770,14 +4770,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>CHINCHAO</t>
+          <t>AMARILIS</t>
         </is>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E170">
-        <v>22.5</v>
+        <v>52.46</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4796,14 +4796,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>CHINCHAO</t>
         </is>
       </c>
       <c r="D171">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>12.25</v>
+        <v>22.5</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4822,14 +4822,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PILLCO MARCA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>5.52</v>
+        <v>12.25</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SANTA MARIA DEL VALLE</t>
+          <t>PILLCO MARCA</t>
         </is>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>4.44</v>
+        <v>5.52</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4869,19 +4869,19 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CASTILLO GRANDE</t>
+          <t>SANTA MARIA DEL VALLE</t>
         </is>
       </c>
       <c r="D174">
-        <v>317</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>2276.81</v>
+        <v>4.44</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4900,14 +4900,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DANIEL ALOMIA ROBLES</t>
+          <t>CASTILLO GRANDE</t>
         </is>
       </c>
       <c r="D175">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="E175">
-        <v>466.17</v>
+        <v>2283.99</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4926,14 +4926,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HERMILIO VALDIZAN</t>
+          <t>DANIEL ALOMIA ROBLES</t>
         </is>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E176">
-        <v>135.28</v>
+        <v>452.04</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4952,14 +4952,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>JOSE CRESPO Y CASTILLO</t>
+          <t>HERMILIO VALDIZAN</t>
         </is>
       </c>
       <c r="D177">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>415.84</v>
+        <v>135.28</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4978,14 +4978,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>LUYANDO</t>
+          <t>JOSE CRESPO Y CASTILLO</t>
         </is>
       </c>
       <c r="D178">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="E178">
-        <v>1770.64</v>
+        <v>407.61</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5004,14 +5004,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MARIANO DAMASO BERAUN</t>
+          <t>LUYANDO</t>
         </is>
       </c>
       <c r="D179">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="E179">
-        <v>646.5</v>
+        <v>1780.93</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5030,14 +5030,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>PUCAYACU</t>
+          <t>MARIANO DAMASO BERAUN</t>
         </is>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E180">
-        <v>50.84</v>
+        <v>646.5</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5056,14 +5056,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PUCAYACU</t>
         </is>
       </c>
       <c r="D181">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>530.2</v>
+        <v>50.84</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5082,14 +5082,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D182">
-        <v>1131</v>
+        <v>23</v>
       </c>
       <c r="E182">
-        <v>1867.32</v>
+        <v>530.2</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5108,14 +5108,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ANDA</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>1129</v>
       </c>
       <c r="E183">
-        <v>345.36</v>
+        <v>1864.02</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5129,19 +5129,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CHOLON</t>
+          <t>SANTO DOMINGO DE ANDA</t>
         </is>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>106.67</v>
+        <v>345.36</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5160,14 +5160,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>LA MORADA</t>
+          <t>CHOLON</t>
         </is>
       </c>
       <c r="D185">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E185">
-        <v>388.7</v>
+        <v>106.67</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -5186,14 +5186,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE ALTO YANAJANCA</t>
+          <t>LA MORADA</t>
         </is>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E186">
-        <v>361.4</v>
+        <v>388.7</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -5207,19 +5207,19 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>CHAGLLA</t>
+          <t>SANTA ROSA DE ALTO YANAJANCA</t>
         </is>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>51.54</v>
+        <v>361.4</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -5233,19 +5233,19 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>CHAGLLA</t>
         </is>
       </c>
       <c r="D188">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="E188">
-        <v>1667.62</v>
+        <v>30.92</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5264,14 +5264,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D189">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="E189">
-        <v>144.09</v>
+        <v>1667.62</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5290,14 +5290,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D190">
-        <v>259</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>2275.92</v>
+        <v>144.09</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -5316,14 +5316,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D191">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="E191">
-        <v>279.12</v>
+        <v>2275.92</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -5342,14 +5342,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D192">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E192">
-        <v>606.9400000000001</v>
+        <v>279.12</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -5358,27 +5358,27 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D193">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="E193">
-        <v>1354.33</v>
+        <v>606.9400000000001</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -5394,17 +5394,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CHAVIN</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D194">
+        <v>129</v>
+      </c>
+      <c r="E194">
+        <v>1354.33</v>
+      </c>
+      <c r="F194">
         <v>1</v>
-      </c>
-      <c r="E194">
-        <v>31.89</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>CHAVIN</t>
         </is>
       </c>
       <c r="D195">
-        <v>2300</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>2803.99</v>
+        <v>31.89</v>
       </c>
       <c r="F195">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -5446,17 +5446,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D196">
-        <v>145</v>
+        <v>2307</v>
       </c>
       <c r="E196">
-        <v>947.16</v>
+        <v>2812.52</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D197">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="E197">
-        <v>652.38</v>
+        <v>947.16</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -5498,17 +5498,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D198">
-        <v>503</v>
+        <v>95</v>
       </c>
       <c r="E198">
-        <v>1630.47</v>
+        <v>652.38</v>
       </c>
       <c r="F198">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5524,17 +5524,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D199">
-        <v>1966</v>
+        <v>506</v>
       </c>
       <c r="E199">
-        <v>2530.41</v>
+        <v>1640.19</v>
       </c>
       <c r="F199">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -5550,17 +5550,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D200">
-        <v>868</v>
+        <v>1967</v>
       </c>
       <c r="E200">
-        <v>2491.6</v>
+        <v>2531.69</v>
       </c>
       <c r="F200">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -5576,17 +5576,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D201">
-        <v>84</v>
+        <v>869</v>
       </c>
       <c r="E201">
-        <v>1210.2</v>
+        <v>2494.47</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
@@ -5597,22 +5597,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D202">
-        <v>2330</v>
+        <v>84</v>
       </c>
       <c r="E202">
-        <v>1281.76</v>
+        <v>1210.2</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5628,17 +5628,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D203">
-        <v>430</v>
+        <v>2376</v>
       </c>
       <c r="E203">
-        <v>861.79</v>
+        <v>1307.07</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5654,14 +5654,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D204">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="E204">
-        <v>838.87</v>
+        <v>873.8200000000001</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5680,17 +5680,17 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D205">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="E205">
-        <v>2559.97</v>
+        <v>842.58</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5706,17 +5706,17 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D206">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="E206">
-        <v>808.9</v>
+        <v>2559.97</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5732,17 +5732,17 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D207">
-        <v>847</v>
+        <v>74</v>
       </c>
       <c r="E207">
-        <v>1340.87</v>
+        <v>831.37</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5758,14 +5758,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D208">
-        <v>137</v>
+        <v>850</v>
       </c>
       <c r="E208">
-        <v>1660.2</v>
+        <v>1345.62</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5784,17 +5784,17 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D209">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="E209">
-        <v>1282.13</v>
+        <v>1672.32</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5810,17 +5810,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D210">
-        <v>213</v>
+        <v>411</v>
       </c>
       <c r="E210">
-        <v>2479.63</v>
+        <v>1285.26</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -5836,14 +5836,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D211">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="E211">
-        <v>1797.45</v>
+        <v>2491.27</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5862,14 +5862,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D212">
-        <v>570</v>
+        <v>290</v>
       </c>
       <c r="E212">
-        <v>1740.35</v>
+        <v>1797.45</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5888,17 +5888,17 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D213">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="E213">
-        <v>1570.64</v>
+        <v>1758.67</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5914,17 +5914,17 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D214">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="E214">
-        <v>2243.94</v>
+        <v>1576.42</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5940,14 +5940,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="E215">
-        <v>665.1900000000001</v>
+        <v>2262.03</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -5961,19 +5961,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D216">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>1768.77</v>
+        <v>739.1</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -5992,14 +5992,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E217">
-        <v>208.88</v>
+        <v>1768.77</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -6018,14 +6018,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E218">
-        <v>66.16</v>
+        <v>208.88</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -6044,17 +6044,17 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D219">
-        <v>1172</v>
+        <v>13</v>
       </c>
       <c r="E219">
-        <v>3695.3</v>
+        <v>66.16</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6070,17 +6070,17 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D220">
-        <v>567</v>
+        <v>1174</v>
       </c>
       <c r="E220">
-        <v>2148.95</v>
+        <v>3701.6</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -6091,19 +6091,19 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D221">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="E221">
-        <v>2162.16</v>
+        <v>2152.74</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6122,14 +6122,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D222">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="E222">
-        <v>1913.72</v>
+        <v>2162.16</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6148,14 +6148,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D223">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="E223">
-        <v>762.6</v>
+        <v>1913.72</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6174,14 +6174,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E224">
-        <v>186.39</v>
+        <v>762.6</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6195,19 +6195,19 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>HUMAY</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D225">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E225">
-        <v>211.66</v>
+        <v>186.39</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -6226,14 +6226,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>HUMAY</t>
         </is>
       </c>
       <c r="D226">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E226">
-        <v>425.23</v>
+        <v>211.66</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6252,14 +6252,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>PARACAS</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D227">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E227">
-        <v>226.87</v>
+        <v>431.77</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6278,17 +6278,17 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>PARACAS</t>
         </is>
       </c>
       <c r="D228">
-        <v>873</v>
+        <v>25</v>
       </c>
       <c r="E228">
-        <v>1037.85</v>
+        <v>246.6</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -6304,17 +6304,17 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>SAN ANDRES</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="D229">
-        <v>120</v>
+        <v>878</v>
       </c>
       <c r="E229">
-        <v>702.78</v>
+        <v>1043.8</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6330,14 +6330,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>SAN CLEMENTE</t>
+          <t>SAN ANDRES</t>
         </is>
       </c>
       <c r="D230">
-        <v>271</v>
+        <v>120</v>
       </c>
       <c r="E230">
-        <v>875.55</v>
+        <v>702.78</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -6356,14 +6356,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>TUPAC AMARU INCA</t>
+          <t>SAN CLEMENTE</t>
         </is>
       </c>
       <c r="D231">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="E231">
-        <v>1753.35</v>
+        <v>878.78</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -6372,24 +6372,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>TUPAC AMARU INCA</t>
         </is>
       </c>
       <c r="D232">
-        <v>547</v>
+        <v>362</v>
       </c>
       <c r="E232">
-        <v>1856.69</v>
+        <v>1772.95</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -6408,17 +6408,17 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>PERENE</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="D233">
-        <v>738</v>
+        <v>548</v>
       </c>
       <c r="E233">
-        <v>1225.91</v>
+        <v>1860.09</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -6434,17 +6434,17 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PICHANAQUI</t>
+          <t>PERENE</t>
         </is>
       </c>
       <c r="D234">
-        <v>284</v>
+        <v>738</v>
       </c>
       <c r="E234">
-        <v>676.84</v>
+        <v>1225.91</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -6460,17 +6460,17 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>SAN LUIS DE SHUARO</t>
+          <t>PICHANAQUI</t>
         </is>
       </c>
       <c r="D235">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="E235">
-        <v>1027.58</v>
+        <v>676.84</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -6486,17 +6486,17 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>SAN RAMON</t>
+          <t>SAN LUIS DE SHUARO</t>
         </is>
       </c>
       <c r="D236">
-        <v>482</v>
+        <v>38</v>
       </c>
       <c r="E236">
-        <v>1631.46</v>
+        <v>1027.58</v>
       </c>
       <c r="F236">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -6512,17 +6512,17 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>VITOC</t>
+          <t>SAN RAMON</t>
         </is>
       </c>
       <c r="D237">
+        <v>475</v>
+      </c>
+      <c r="E237">
+        <v>1607.77</v>
+      </c>
+      <c r="F237">
         <v>3</v>
-      </c>
-      <c r="E237">
-        <v>185.99</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -6533,19 +6533,19 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>CHONGOS BAJO</t>
+          <t>VITOC</t>
         </is>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>20.57</v>
+        <v>185.99</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6559,19 +6559,19 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>CHONGOS BAJO</t>
         </is>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>1.92</v>
+        <v>20.57</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>0.55</v>
+        <v>1.92</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6616,14 +6616,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>7</v>
+        <v>0.55</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6642,14 +6642,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ACOBAMBA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>16.06</v>
+        <v>7</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6663,19 +6663,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>SANTO DOMINGO DE ACOBAMBA</t>
         </is>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243">
-        <v>22.28</v>
+        <v>16.06</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6694,14 +6694,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D244">
         <v>1</v>
       </c>
       <c r="E244">
-        <v>44.46</v>
+        <v>22.28</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6720,14 +6720,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D245">
         <v>1</v>
       </c>
       <c r="E245">
-        <v>51.15</v>
+        <v>44.46</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6741,19 +6741,19 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>47.69</v>
+        <v>51.15</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6767,19 +6767,19 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D247">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E247">
-        <v>667.66</v>
+        <v>47.69</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6798,14 +6798,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D248">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E248">
-        <v>115.49</v>
+        <v>697.33</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D249">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E249">
-        <v>203.86</v>
+        <v>115.49</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6850,14 +6850,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E250">
-        <v>28.91</v>
+        <v>201.59</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D251">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>405.44</v>
+        <v>28.91</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6902,14 +6902,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D252">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="E252">
-        <v>324.08</v>
+        <v>403.98</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6928,14 +6928,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D253">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E253">
-        <v>207.85</v>
+        <v>324.08</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6954,14 +6954,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D254">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="E254">
-        <v>712.6</v>
+        <v>211.15</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6980,14 +6980,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D255">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="E255">
-        <v>244.86</v>
+        <v>710.33</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7001,19 +7001,19 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E256">
-        <v>8.199999999999999</v>
+        <v>244.86</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7027,19 +7027,19 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>YAULI</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE SACCO</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>12.49</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -7048,24 +7048,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>YAULI</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>SANTA ROSA DE SACCO</t>
         </is>
       </c>
       <c r="D258">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>1215.45</v>
+        <v>12.49</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7084,14 +7084,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D259">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E259">
-        <v>267.27</v>
+        <v>1229.92</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7110,14 +7110,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D260">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="E260">
-        <v>1411.23</v>
+        <v>273.95</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D261">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="E261">
-        <v>162.57</v>
+        <v>1435.88</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7162,14 +7162,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>MAGDALENA DE CAO</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E262">
-        <v>37.74</v>
+        <v>182.89</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -7188,14 +7188,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>MAGDALENA DE CAO</t>
         </is>
       </c>
       <c r="D263">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>441.48</v>
+        <v>37.74</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -7214,14 +7214,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D264">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="E264">
-        <v>63.22</v>
+        <v>451.59</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -7240,14 +7240,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D265">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E265">
-        <v>74.75</v>
+        <v>63.22</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7261,19 +7261,19 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>BAMBAMARCA</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E266">
-        <v>94.04000000000001</v>
+        <v>74.75</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7292,14 +7292,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>UCUNCHA</t>
+          <t>BAMBAMARCA</t>
         </is>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E267">
-        <v>109.41</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -7313,19 +7313,19 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>UCUNCHA</t>
         </is>
       </c>
       <c r="D268">
-        <v>1426</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>2849.21</v>
+        <v>109.41</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7344,14 +7344,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>PACANGA</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="D269">
-        <v>162</v>
+        <v>1437</v>
       </c>
       <c r="E269">
-        <v>633.01</v>
+        <v>2871.19</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7370,14 +7370,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PACANGA</t>
         </is>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="E270">
-        <v>7.72</v>
+        <v>633.01</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7391,19 +7391,19 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>CASCAS</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D271">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>1328.27</v>
+        <v>7.72</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -7417,19 +7417,19 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>JULCAN</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>CALAMARCA</t>
+          <t>CASCAS</t>
         </is>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="E272">
-        <v>40.36</v>
+        <v>1328.27</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -7448,14 +7448,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>JULCAN</t>
+          <t>CALAMARCA</t>
         </is>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>7.88</v>
+        <v>40.36</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -7469,19 +7469,19 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>JULCAN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>AGALLPAMPA</t>
+          <t>JULCAN</t>
         </is>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E274">
-        <v>19.35</v>
+        <v>7.88</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -7500,14 +7500,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>LA CUESTA</t>
+          <t>AGALLPAMPA</t>
         </is>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E275">
-        <v>152.91</v>
+        <v>19.35</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -7526,14 +7526,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>LA CUESTA</t>
         </is>
       </c>
       <c r="D276">
         <v>1</v>
       </c>
       <c r="E276">
-        <v>3.7</v>
+        <v>152.91</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -7547,22 +7547,22 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="D277">
-        <v>768</v>
+        <v>1</v>
       </c>
       <c r="E277">
-        <v>1689.92</v>
+        <v>3.7</v>
       </c>
       <c r="F277">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -7578,17 +7578,17 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>JEQUETEPEQUE</t>
+          <t>GUADALUPE</t>
         </is>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>769</v>
       </c>
       <c r="E278">
-        <v>41.52</v>
+        <v>1692.12</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279">
@@ -7604,17 +7604,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>JEQUETEPEQUE</t>
         </is>
       </c>
       <c r="D279">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>328.99</v>
+        <v>41.52</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -7630,17 +7630,17 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="D280">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E280">
-        <v>76.88</v>
+        <v>326</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -7656,14 +7656,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE LLOC</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D281">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E281">
-        <v>634.24</v>
+        <v>76.88</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -7677,19 +7677,19 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>CHILLIA</t>
+          <t>SAN PEDRO DE LLOC</t>
         </is>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E282">
-        <v>7.47</v>
+        <v>639.23</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7708,14 +7708,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>PARCOY</t>
+          <t>CHILLIA</t>
         </is>
       </c>
       <c r="D283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E283">
-        <v>9.34</v>
+        <v>7.47</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -7734,14 +7734,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>PARCOY</t>
         </is>
       </c>
       <c r="D284">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="E284">
-        <v>1005.21</v>
+        <v>9.34</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -7760,14 +7760,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>TAYABAMBA</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="E285">
-        <v>14.26</v>
+        <v>1032.13</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -7781,19 +7781,19 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>SANCHEZ CARRION</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>COCHORCO</t>
+          <t>TAYABAMBA</t>
         </is>
       </c>
       <c r="D286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E286">
-        <v>28.3</v>
+        <v>14.26</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -7812,14 +7812,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>HUAMACHUCO</t>
+          <t>COCHORCO</t>
         </is>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E287">
-        <v>1.18</v>
+        <v>37.73</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -7833,19 +7833,19 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CHUCO</t>
+          <t>SANCHEZ CARRION</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>SITABAMBA</t>
+          <t>HUAMACHUCO</t>
         </is>
       </c>
       <c r="D288">
         <v>1</v>
       </c>
       <c r="E288">
-        <v>27.18</v>
+        <v>1.18</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -7859,19 +7859,19 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>SANTIAGO DE CHUCO</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>SITABAMBA</t>
         </is>
       </c>
       <c r="D289">
-        <v>1405</v>
+        <v>1</v>
       </c>
       <c r="E289">
-        <v>574.85</v>
+        <v>27.18</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7890,14 +7890,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D290">
-        <v>1471</v>
+        <v>1429</v>
       </c>
       <c r="E290">
-        <v>3621.1</v>
+        <v>584.67</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7916,17 +7916,17 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>HUANCHACO</t>
+          <t>FLORENCIA DE MORA</t>
         </is>
       </c>
       <c r="D291">
-        <v>889</v>
+        <v>1525</v>
       </c>
       <c r="E291">
-        <v>931.09</v>
+        <v>3754.03</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -7942,17 +7942,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>LA ESPERANZA</t>
+          <t>HUANCHACO</t>
         </is>
       </c>
       <c r="D292">
-        <v>6019</v>
+        <v>903</v>
       </c>
       <c r="E292">
-        <v>2525.21</v>
+        <v>945.75</v>
       </c>
       <c r="F292">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -7968,17 +7968,17 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>LAREDO</t>
+          <t>LA ESPERANZA</t>
         </is>
       </c>
       <c r="D293">
-        <v>528</v>
+        <v>6046</v>
       </c>
       <c r="E293">
-        <v>1164.38</v>
+        <v>2536.54</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294">
@@ -7994,14 +7994,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>MOCHE</t>
+          <t>LAREDO</t>
         </is>
       </c>
       <c r="D294">
-        <v>57</v>
+        <v>528</v>
       </c>
       <c r="E294">
-        <v>124.52</v>
+        <v>1164.38</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -8020,14 +8020,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>POROTO</t>
+          <t>MOCHE</t>
         </is>
       </c>
       <c r="D295">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E295">
-        <v>73.14</v>
+        <v>137.63</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -8046,14 +8046,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>SALAVERRY</t>
+          <t>POROTO</t>
         </is>
       </c>
       <c r="D296">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E296">
-        <v>191.4</v>
+        <v>73.14</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -8072,14 +8072,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>SIMBAL</t>
+          <t>SALAVERRY</t>
         </is>
       </c>
       <c r="D297">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E297">
-        <v>105.53</v>
+        <v>219.91</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -8098,17 +8098,17 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>SIMBAL</t>
         </is>
       </c>
       <c r="D298">
-        <v>3084</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>854.77</v>
+        <v>105.53</v>
       </c>
       <c r="F298">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -8124,17 +8124,17 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D299">
-        <v>87</v>
+        <v>3143</v>
       </c>
       <c r="E299">
-        <v>104.5</v>
+        <v>871.12</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
@@ -8145,22 +8145,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>CHAO</t>
+          <t>VICTOR LARCO HERRERA</t>
         </is>
       </c>
       <c r="D300">
-        <v>771</v>
+        <v>86</v>
       </c>
       <c r="E300">
-        <v>1808.08</v>
+        <v>103.29</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -8176,17 +8176,17 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>GUADALUPITO</t>
+          <t>CHAO</t>
         </is>
       </c>
       <c r="D301">
-        <v>16</v>
+        <v>779</v>
       </c>
       <c r="E301">
-        <v>198.39</v>
+        <v>1826.84</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -8202,43 +8202,43 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>GUADALUPITO</t>
         </is>
       </c>
       <c r="D302">
-        <v>1378</v>
+        <v>19</v>
       </c>
       <c r="E302">
-        <v>2230.89</v>
+        <v>235.59</v>
       </c>
       <c r="F302">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>CAYALTI</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="D303">
-        <v>467</v>
+        <v>1393</v>
       </c>
       <c r="E303">
-        <v>3041.16</v>
+        <v>2255.18</v>
       </c>
       <c r="F303">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304">
@@ -8254,17 +8254,17 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>CAYALTI</t>
         </is>
       </c>
       <c r="D304">
-        <v>10212</v>
+        <v>477</v>
       </c>
       <c r="E304">
-        <v>3436.96</v>
+        <v>3106.28</v>
       </c>
       <c r="F304">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -8280,17 +8280,17 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>CHONGOYAPE</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="D305">
-        <v>342</v>
+        <v>10356</v>
       </c>
       <c r="E305">
-        <v>1699.04</v>
+        <v>3485.43</v>
       </c>
       <c r="F305">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="306">
@@ -8306,17 +8306,17 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>ETEN</t>
+          <t>CHONGOYAPE</t>
         </is>
       </c>
       <c r="D306">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="E306">
-        <v>1956.19</v>
+        <v>1708.98</v>
       </c>
       <c r="F306">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -8332,14 +8332,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>ETEN PUERTO</t>
+          <t>ETEN</t>
         </is>
       </c>
       <c r="D307">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="E307">
-        <v>320.64</v>
+        <v>1956.19</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -8358,17 +8358,17 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ</t>
+          <t>ETEN PUERTO</t>
         </is>
       </c>
       <c r="D308">
-        <v>3264</v>
+        <v>8</v>
       </c>
       <c r="E308">
-        <v>1925.63</v>
+        <v>320.64</v>
       </c>
       <c r="F308">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -8384,17 +8384,17 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>JOSE LEONARDO ORTIZ</t>
         </is>
       </c>
       <c r="D309">
-        <v>2028</v>
+        <v>3287</v>
       </c>
       <c r="E309">
-        <v>2000.77</v>
+        <v>1939.2</v>
       </c>
       <c r="F309">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="310">
@@ -8410,17 +8410,17 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="D310">
-        <v>122</v>
+        <v>2057</v>
       </c>
       <c r="E310">
-        <v>1095.84</v>
+        <v>2029.38</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311">
@@ -8436,14 +8436,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>MONSEFU</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D311">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="E311">
-        <v>491.58</v>
+        <v>1086.86</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -8462,14 +8462,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>NUEVA ARICA</t>
+          <t>MONSEFU</t>
         </is>
       </c>
       <c r="D312">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="E312">
-        <v>1850.42</v>
+        <v>491.58</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -8488,14 +8488,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>OYOTUN</t>
+          <t>NUEVA ARICA</t>
         </is>
       </c>
       <c r="D313">
-        <v>274</v>
+        <v>48</v>
       </c>
       <c r="E313">
-        <v>3288.13</v>
+        <v>1850.42</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -8514,14 +8514,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>PATAPO</t>
+          <t>OYOTUN</t>
         </is>
       </c>
       <c r="D314">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E314">
-        <v>1090.33</v>
+        <v>3288.13</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -8540,17 +8540,17 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>PICSI</t>
+          <t>PATAPO</t>
         </is>
       </c>
       <c r="D315">
-        <v>460</v>
+        <v>282</v>
       </c>
       <c r="E315">
-        <v>3074.66</v>
+        <v>1094.21</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -8566,17 +8566,17 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>PIMENTEL</t>
+          <t>PICSI</t>
         </is>
       </c>
       <c r="D316">
-        <v>282</v>
+        <v>490</v>
       </c>
       <c r="E316">
-        <v>532.37</v>
+        <v>3275.18</v>
       </c>
       <c r="F316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -8592,14 +8592,14 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>POMALCA</t>
+          <t>PIMENTEL</t>
         </is>
       </c>
       <c r="D317">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="E317">
-        <v>1275.8</v>
+        <v>536.14</v>
       </c>
       <c r="F317">
         <v>3</v>
@@ -8618,17 +8618,17 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>PUCALA</t>
+          <t>POMALCA</t>
         </is>
       </c>
       <c r="D318">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="E318">
-        <v>3721.54</v>
+        <v>1333.14</v>
       </c>
       <c r="F318">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -8644,17 +8644,17 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>REQUE</t>
+          <t>PUCALA</t>
         </is>
       </c>
       <c r="D319">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="E319">
-        <v>1065.74</v>
+        <v>3721.54</v>
       </c>
       <c r="F319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -8670,17 +8670,17 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>REQUE</t>
         </is>
       </c>
       <c r="D320">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="E320">
-        <v>186.62</v>
+        <v>1065.74</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -8696,14 +8696,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>SAÑA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D321">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="E321">
-        <v>1958.15</v>
+        <v>200.44</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -8722,17 +8722,17 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>TUMAN</t>
+          <t>SAÑA</t>
         </is>
       </c>
       <c r="D322">
-        <v>513</v>
+        <v>264</v>
       </c>
       <c r="E322">
-        <v>1689.78</v>
+        <v>2084.48</v>
       </c>
       <c r="F322">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -8743,22 +8743,22 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>CAÑARIS</t>
+          <t>TUMAN</t>
         </is>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>513</v>
       </c>
       <c r="E323">
-        <v>7.99</v>
+        <v>1689.78</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324">
@@ -8774,17 +8774,17 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>CAÑARIS</t>
         </is>
       </c>
       <c r="D324">
-        <v>1043</v>
+        <v>1</v>
       </c>
       <c r="E324">
-        <v>2675.04</v>
+        <v>7.99</v>
       </c>
       <c r="F324">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -8800,17 +8800,17 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>INCAHUASI</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>1046</v>
       </c>
       <c r="E325">
-        <v>6.38</v>
+        <v>2682.74</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326">
@@ -8826,17 +8826,17 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>MANUEL ANTONIO MESONES MURO</t>
+          <t>INCAHUASI</t>
         </is>
       </c>
       <c r="D326">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E326">
-        <v>539.15</v>
+        <v>6.38</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -8852,17 +8852,17 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>PITIPO</t>
+          <t>MANUEL ANTONIO MESONES MURO</t>
         </is>
       </c>
       <c r="D327">
-        <v>772</v>
+        <v>23</v>
       </c>
       <c r="E327">
-        <v>3433.71</v>
+        <v>539.15</v>
       </c>
       <c r="F327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -8878,17 +8878,17 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PITIPO</t>
         </is>
       </c>
       <c r="D328">
-        <v>374</v>
+        <v>773</v>
       </c>
       <c r="E328">
-        <v>2303.24</v>
+        <v>3438.15</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -8899,19 +8899,19 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>CHOCHOPE</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D329">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="E329">
-        <v>1305.64</v>
+        <v>2303.24</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -8930,14 +8930,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>ILLIMO</t>
+          <t>CHOCHOPE</t>
         </is>
       </c>
       <c r="D330">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="E330">
-        <v>2908.73</v>
+        <v>1305.64</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -8956,17 +8956,17 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>JAYANCA</t>
+          <t>ILLIMO</t>
         </is>
       </c>
       <c r="D331">
-        <v>645</v>
+        <v>290</v>
       </c>
       <c r="E331">
-        <v>3076.12</v>
+        <v>2908.73</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -8982,17 +8982,17 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>JAYANCA</t>
         </is>
       </c>
       <c r="D332">
-        <v>1061</v>
+        <v>645</v>
       </c>
       <c r="E332">
-        <v>1242.2</v>
+        <v>3076.12</v>
       </c>
       <c r="F332">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -9008,17 +9008,17 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>MOCHUMI</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="D333">
-        <v>87</v>
+        <v>1062</v>
       </c>
       <c r="E333">
-        <v>412.73</v>
+        <v>1243.37</v>
       </c>
       <c r="F333">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334">
@@ -9034,17 +9034,17 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>MORROPE</t>
+          <t>MOCHUMI</t>
         </is>
       </c>
       <c r="D334">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="E334">
-        <v>355.97</v>
+        <v>412.73</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -9060,17 +9060,17 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>MOTUPE</t>
+          <t>MORROPE</t>
         </is>
       </c>
       <c r="D335">
-        <v>1379</v>
+        <v>210</v>
       </c>
       <c r="E335">
-        <v>3813.71</v>
+        <v>355.97</v>
       </c>
       <c r="F335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -9086,14 +9086,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>OLMOS</t>
+          <t>MOTUPE</t>
         </is>
       </c>
       <c r="D336">
-        <v>600</v>
+        <v>1379</v>
       </c>
       <c r="E336">
-        <v>1029.87</v>
+        <v>3813.71</v>
       </c>
       <c r="F336">
         <v>2</v>
@@ -9112,17 +9112,17 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>PACORA</t>
+          <t>OLMOS</t>
         </is>
       </c>
       <c r="D337">
-        <v>236</v>
+        <v>604</v>
       </c>
       <c r="E337">
-        <v>2507.17</v>
+        <v>1036.73</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -9138,14 +9138,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>PACORA</t>
         </is>
       </c>
       <c r="D338">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="E338">
-        <v>782.1900000000001</v>
+        <v>2517.79</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9164,14 +9164,14 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D339">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E339">
-        <v>728.8200000000001</v>
+        <v>782.1900000000001</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9190,14 +9190,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>TUCUME</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D340">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E340">
-        <v>318.97</v>
+        <v>734.0599999999999</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9206,24 +9206,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>TUCUME</t>
         </is>
       </c>
       <c r="D341">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E341">
-        <v>9.300000000000001</v>
+        <v>318.97</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9242,14 +9242,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>SUPE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D342">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E342">
-        <v>230.44</v>
+        <v>10.63</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9268,14 +9268,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>SUPE PUERTO</t>
+          <t>SUPE</t>
         </is>
       </c>
       <c r="D343">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="E343">
-        <v>1255.29</v>
+        <v>230.44</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9289,19 +9289,19 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>CAJATAMBO</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>CAJATAMBO</t>
+          <t>SUPE PUERTO</t>
         </is>
       </c>
       <c r="D344">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="E344">
-        <v>54.41</v>
+        <v>1276.81</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9315,19 +9315,19 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>CAJATAMBO</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>CAJATAMBO</t>
         </is>
       </c>
       <c r="D345">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E345">
-        <v>137.61</v>
+        <v>54.41</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -9346,14 +9346,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE QUIVES</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="D346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E346">
-        <v>34.76</v>
+        <v>137.61</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -9367,19 +9367,19 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>CAÑETE</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>ASIA</t>
+          <t>SANTA ROSA DE QUIVES</t>
         </is>
       </c>
       <c r="D347">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E347">
-        <v>477.88</v>
+        <v>34.76</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -9398,14 +9398,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>ASIA</t>
         </is>
       </c>
       <c r="D348">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E348">
-        <v>63.23</v>
+        <v>477.88</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -9424,14 +9424,14 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>CERRO AZUL</t>
         </is>
       </c>
       <c r="D349">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E349">
-        <v>265.24</v>
+        <v>63.23</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -9450,14 +9450,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>COAYLLO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E350">
-        <v>90.83</v>
+        <v>233.57</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -9476,14 +9476,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>IMPERIAL</t>
+          <t>COAYLLO</t>
         </is>
       </c>
       <c r="D351">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E351">
-        <v>186.93</v>
+        <v>90.83</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9502,14 +9502,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>LUNAHUANA</t>
+          <t>IMPERIAL</t>
         </is>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E352">
-        <v>49.21</v>
+        <v>186.93</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -9528,17 +9528,17 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>MALA</t>
+          <t>LUNAHUANA</t>
         </is>
       </c>
       <c r="D353">
-        <v>831</v>
+        <v>2</v>
       </c>
       <c r="E353">
-        <v>2358.32</v>
+        <v>49.21</v>
       </c>
       <c r="F353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -9554,17 +9554,17 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>NUEVO IMPERIAL</t>
+          <t>MALA</t>
         </is>
       </c>
       <c r="D354">
-        <v>26</v>
+        <v>831</v>
       </c>
       <c r="E354">
-        <v>86.43000000000001</v>
+        <v>2358.32</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -9580,14 +9580,14 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>QUILMANA</t>
+          <t>NUEVO IMPERIAL</t>
         </is>
       </c>
       <c r="D355">
-        <v>411</v>
+        <v>26</v>
       </c>
       <c r="E355">
-        <v>2430.37</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -9606,14 +9606,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>QUILMANA</t>
         </is>
       </c>
       <c r="D356">
-        <v>30</v>
+        <v>413</v>
       </c>
       <c r="E356">
-        <v>625</v>
+        <v>2442.2</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9632,14 +9632,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D357">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E357">
-        <v>73.8</v>
+        <v>604.17</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9658,14 +9658,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>SAN VICENTE DE CAÑETE</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="D358">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E358">
-        <v>125.11</v>
+        <v>73.8</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9684,14 +9684,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE FLORES</t>
+          <t>SAN VICENTE DE CAÑETE</t>
         </is>
       </c>
       <c r="D359">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E359">
-        <v>242.2</v>
+        <v>128.28</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9705,19 +9705,19 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CAÑETE</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>AUCALLAMA</t>
+          <t>SANTA CRUZ DE FLORES</t>
         </is>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E360">
-        <v>4.5</v>
+        <v>242.2</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -9736,14 +9736,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>AUCALLAMA</t>
         </is>
       </c>
       <c r="D361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E361">
-        <v>3.16</v>
+        <v>4.5</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -9762,14 +9762,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="D362">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E362">
-        <v>19.07</v>
+        <v>3.16</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9788,14 +9788,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>IHUARI</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E363">
-        <v>51.26</v>
+        <v>19.07</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -9809,19 +9809,19 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>HUAROCHIRI</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>ANTIOQUIA</t>
+          <t>IHUARI</t>
         </is>
       </c>
       <c r="D364">
         <v>1</v>
       </c>
       <c r="E364">
-        <v>84.03</v>
+        <v>51.26</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -9840,14 +9840,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>CALLAHUANCA</t>
+          <t>ANTIOQUIA</t>
         </is>
       </c>
       <c r="D365">
         <v>1</v>
       </c>
       <c r="E365">
-        <v>161.03</v>
+        <v>84.03</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9866,14 +9866,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>HUAROCHIRI</t>
+          <t>CALLAHUANCA</t>
         </is>
       </c>
       <c r="D366">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E366">
-        <v>841.75</v>
+        <v>161.03</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -9892,14 +9892,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>MATUCANA</t>
+          <t>HUAROCHIRI</t>
         </is>
       </c>
       <c r="D367">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E367">
-        <v>76.43000000000001</v>
+        <v>841.75</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -9918,14 +9918,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>RICARDO PALMA</t>
+          <t>MATUCANA</t>
         </is>
       </c>
       <c r="D368">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E368">
-        <v>528.0599999999999</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -9944,14 +9944,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>RICARDO PALMA</t>
         </is>
       </c>
       <c r="D369">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="E369">
-        <v>2717.52</v>
+        <v>543.15</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -9970,14 +9970,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>SAN BARTOLOME</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D370">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="E370">
-        <v>97.94</v>
+        <v>2741.36</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -9996,14 +9996,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>SAN MATEO</t>
+          <t>SAN BARTOLOME</t>
         </is>
       </c>
       <c r="D371">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E371">
-        <v>79.01000000000001</v>
+        <v>97.94</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -10022,14 +10022,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>SAN MATEO DE OTAO</t>
+          <t>SAN MATEO</t>
         </is>
       </c>
       <c r="D372">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E372">
-        <v>314.22</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -10048,14 +10048,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE COCACHACRA</t>
+          <t>SAN MATEO DE OTAO</t>
         </is>
       </c>
       <c r="D373">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E373">
-        <v>192.46</v>
+        <v>314.22</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10074,14 +10074,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>SANTA EULALIA</t>
+          <t>SANTA CRUZ DE COCACHACRA</t>
         </is>
       </c>
       <c r="D374">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E374">
-        <v>324.8</v>
+        <v>192.46</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -10100,14 +10100,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>SURCO</t>
+          <t>SANTA EULALIA</t>
         </is>
       </c>
       <c r="D375">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E375">
-        <v>228.14</v>
+        <v>324.8</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10121,19 +10121,19 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>HUAURA</t>
+          <t>HUAROCHIRI</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>HUACHO</t>
+          <t>SURCO</t>
         </is>
       </c>
       <c r="D376">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E376">
-        <v>19.23</v>
+        <v>228.14</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -10152,14 +10152,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>HUALMAY</t>
+          <t>HUACHO</t>
         </is>
       </c>
       <c r="D377">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E377">
-        <v>6.79</v>
+        <v>20.6</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10178,14 +10178,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>HUAURA</t>
+          <t>HUALMAY</t>
         </is>
       </c>
       <c r="D378">
         <v>2</v>
       </c>
       <c r="E378">
-        <v>5.24</v>
+        <v>6.79</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -10204,14 +10204,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>SANTA MARIA</t>
+          <t>HUAURA</t>
         </is>
       </c>
       <c r="D379">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E379">
-        <v>39.15</v>
+        <v>7.85</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -10230,14 +10230,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>SAYAN</t>
+          <t>SANTA MARIA</t>
         </is>
       </c>
       <c r="D380">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E380">
-        <v>3.92</v>
+        <v>39.15</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10251,19 +10251,19 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>HUAURA</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>ANCON</t>
+          <t>SAYAN</t>
         </is>
       </c>
       <c r="D381">
-        <v>677</v>
+        <v>1</v>
       </c>
       <c r="E381">
-        <v>742.5700000000001</v>
+        <v>3.92</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -10282,17 +10282,17 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>ANCON</t>
         </is>
       </c>
       <c r="D382">
-        <v>1807</v>
+        <v>674</v>
       </c>
       <c r="E382">
-        <v>253.4</v>
+        <v>739.28</v>
       </c>
       <c r="F382">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -10308,17 +10308,17 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>BARRANCO</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="D383">
-        <v>19</v>
+        <v>1800</v>
       </c>
       <c r="E383">
-        <v>50.63</v>
+        <v>252.42</v>
       </c>
       <c r="F383">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -10334,14 +10334,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>BREÑA</t>
+          <t>BARRANCO</t>
         </is>
       </c>
       <c r="D384">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E384">
-        <v>44.94</v>
+        <v>50.63</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -10360,17 +10360,17 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>CARABAYLLO</t>
+          <t>BREÑA</t>
         </is>
       </c>
       <c r="D385">
-        <v>2421</v>
+        <v>44</v>
       </c>
       <c r="E385">
-        <v>567</v>
+        <v>44.94</v>
       </c>
       <c r="F385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -10386,17 +10386,17 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>CHACLACAYO</t>
+          <t>CARABAYLLO</t>
         </is>
       </c>
       <c r="D386">
-        <v>783</v>
+        <v>2427</v>
       </c>
       <c r="E386">
-        <v>1693.89</v>
+        <v>568.4</v>
       </c>
       <c r="F386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -10412,14 +10412,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>CHACLACAYO</t>
         </is>
       </c>
       <c r="D387">
-        <v>231</v>
+        <v>705</v>
       </c>
       <c r="E387">
-        <v>61.88</v>
+        <v>1525.15</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10438,14 +10438,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>CIENEGUILLA</t>
+          <t>CHORRILLOS</t>
         </is>
       </c>
       <c r="D388">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E388">
-        <v>516.1900000000001</v>
+        <v>62.14</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -10464,17 +10464,17 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>COMAS</t>
+          <t>CIENEGUILLA</t>
         </is>
       </c>
       <c r="D389">
-        <v>3889</v>
+        <v>212</v>
       </c>
       <c r="E389">
-        <v>650.05</v>
+        <v>521.1</v>
       </c>
       <c r="F389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -10490,17 +10490,17 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>EL AGUSTINO</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="D390">
-        <v>246</v>
+        <v>3898</v>
       </c>
       <c r="E390">
-        <v>105.24</v>
+        <v>651.55</v>
       </c>
       <c r="F390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -10516,14 +10516,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>EL AGUSTINO</t>
         </is>
       </c>
       <c r="D391">
-        <v>1657</v>
+        <v>248</v>
       </c>
       <c r="E391">
-        <v>712</v>
+        <v>106.09</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -10542,14 +10542,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D392">
-        <v>76</v>
+        <v>1661</v>
       </c>
       <c r="E392">
-        <v>87.45999999999999</v>
+        <v>713.71</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -10568,14 +10568,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="D393">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="E393">
-        <v>150.44</v>
+        <v>86.31</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10594,14 +10594,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="D394">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="E394">
-        <v>48.56</v>
+        <v>152.81</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -10620,14 +10620,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="D395">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="E395">
-        <v>110.68</v>
+        <v>49.59</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -10646,14 +10646,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D396">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="E396">
-        <v>108.06</v>
+        <v>111.04</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -10672,14 +10672,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>LOS OLIVOS</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="D397">
-        <v>780</v>
+        <v>71</v>
       </c>
       <c r="E397">
-        <v>212.68</v>
+        <v>111.19</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -10698,17 +10698,17 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>LURIGANCHO</t>
+          <t>LOS OLIVOS</t>
         </is>
       </c>
       <c r="D398">
-        <v>1428</v>
+        <v>786</v>
       </c>
       <c r="E398">
-        <v>469.79</v>
+        <v>214.31</v>
       </c>
       <c r="F398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -10724,17 +10724,17 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>LURIGANCHO</t>
         </is>
       </c>
       <c r="D399">
-        <v>146</v>
+        <v>1420</v>
       </c>
       <c r="E399">
-        <v>126.59</v>
+        <v>467.16</v>
       </c>
       <c r="F399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -10750,14 +10750,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>MAGDALENA DEL MAR</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="D400">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="E400">
-        <v>48.93</v>
+        <v>126.59</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -10776,14 +10776,14 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>MAGDALENA DEL MAR</t>
         </is>
       </c>
       <c r="D401">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E401">
-        <v>28.32</v>
+        <v>48.93</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -10802,14 +10802,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>PACHACAMAC</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="D402">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="E402">
-        <v>115.54</v>
+        <v>29.18</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -10828,14 +10828,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>PUCUSANA</t>
+          <t>PACHACAMAC</t>
         </is>
       </c>
       <c r="D403">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="E403">
-        <v>318.7</v>
+        <v>115.54</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -10854,14 +10854,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>PUEBLO LIBRE</t>
+          <t>PUCUSANA</t>
         </is>
       </c>
       <c r="D404">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E404">
-        <v>67.28</v>
+        <v>313.11</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -10880,17 +10880,17 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>PUENTE PIEDRA</t>
+          <t>PUEBLO LIBRE</t>
         </is>
       </c>
       <c r="D405">
-        <v>2682</v>
+        <v>67</v>
       </c>
       <c r="E405">
-        <v>643.89</v>
+        <v>67.28</v>
       </c>
       <c r="F405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -10906,17 +10906,17 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>PUENTE PIEDRA</t>
         </is>
       </c>
       <c r="D406">
-        <v>7</v>
+        <v>2652</v>
       </c>
       <c r="E406">
-        <v>30.33</v>
+        <v>636.6900000000001</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -10932,14 +10932,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>PUNTA NEGRA</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E407">
-        <v>22.44</v>
+        <v>30.33</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -10958,17 +10958,17 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>RIMAC</t>
+          <t>PUNTA NEGRA</t>
         </is>
       </c>
       <c r="D408">
-        <v>1592</v>
+        <v>2</v>
       </c>
       <c r="E408">
-        <v>849.24</v>
+        <v>22.44</v>
       </c>
       <c r="F408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -10984,17 +10984,17 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>SAN BARTOLO</t>
+          <t>RIMAC</t>
         </is>
       </c>
       <c r="D409">
-        <v>48</v>
+        <v>1592</v>
       </c>
       <c r="E409">
-        <v>509.34</v>
+        <v>849.24</v>
       </c>
       <c r="F409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -11010,14 +11010,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>SAN BARTOLO</t>
         </is>
       </c>
       <c r="D410">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E410">
-        <v>38.25</v>
+        <v>509.34</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -11036,14 +11036,14 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="D411">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E411">
-        <v>28.15</v>
+        <v>39</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -11062,14 +11062,14 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LURIGANCHO</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="D412">
-        <v>4171</v>
+        <v>22</v>
       </c>
       <c r="E412">
-        <v>336.24</v>
+        <v>30.97</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -11088,14 +11088,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>SAN JUAN DE MIRAFLORES</t>
+          <t>SAN JUAN DE LURIGANCHO</t>
         </is>
       </c>
       <c r="D413">
-        <v>1991</v>
+        <v>4184</v>
       </c>
       <c r="E413">
-        <v>462.19</v>
+        <v>337.29</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -11114,14 +11114,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN JUAN DE MIRAFLORES</t>
         </is>
       </c>
       <c r="D414">
-        <v>25</v>
+        <v>1995</v>
       </c>
       <c r="E414">
-        <v>43.1</v>
+        <v>463.12</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -11140,17 +11140,17 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>SAN MARTIN DE PORRES</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="D415">
-        <v>1452</v>
+        <v>25</v>
       </c>
       <c r="E415">
-        <v>185.66</v>
+        <v>43.1</v>
       </c>
       <c r="F415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -11166,17 +11166,17 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN MARTIN DE PORRES</t>
         </is>
       </c>
       <c r="D416">
-        <v>44</v>
+        <v>1462</v>
       </c>
       <c r="E416">
-        <v>23.97</v>
+        <v>186.94</v>
       </c>
       <c r="F416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -11192,14 +11192,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>SANTA ANITA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D417">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="E417">
-        <v>75.62</v>
+        <v>25.6</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11218,14 +11218,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>SANTA MARIA DEL MAR</t>
+          <t>SANTA ANITA</t>
         </is>
       </c>
       <c r="D418">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="E418">
-        <v>639.49</v>
+        <v>76.05</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -11244,14 +11244,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SANTA MARIA DEL MAR</t>
         </is>
       </c>
       <c r="D419">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E419">
-        <v>237.87</v>
+        <v>639.49</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -11270,14 +11270,14 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D420">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="E420">
-        <v>40.3</v>
+        <v>237.87</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -11296,14 +11296,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>SURQUILLO</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="D421">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="E421">
-        <v>29.57</v>
+        <v>41.24</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -11322,14 +11322,14 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>SURQUILLO</t>
         </is>
       </c>
       <c r="D422">
-        <v>357</v>
+        <v>32</v>
       </c>
       <c r="E422">
-        <v>80.81</v>
+        <v>30.53</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11348,14 +11348,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>VILLA MARIA DEL TRIUNFO</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="D423">
-        <v>1090</v>
+        <v>356</v>
       </c>
       <c r="E423">
-        <v>237.47</v>
+        <v>80.58</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -11369,19 +11369,19 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>OYON</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>OYON</t>
+          <t>VILLA MARIA DEL TRIUNFO</t>
         </is>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="E424">
-        <v>8.66</v>
+        <v>239.65</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -11400,14 +11400,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>PACHANGARA</t>
+          <t>OYON</t>
         </is>
       </c>
       <c r="D425">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E425">
-        <v>131.29</v>
+        <v>8.66</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -11421,19 +11421,19 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>YAUYOS</t>
+          <t>OYON</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>ALLAUCA</t>
+          <t>PACHANGARA</t>
         </is>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E426">
-        <v>102.56</v>
+        <v>131.29</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -11452,14 +11452,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>HONGOS</t>
+          <t>ALLAUCA</t>
         </is>
       </c>
       <c r="D427">
         <v>1</v>
       </c>
       <c r="E427">
-        <v>333.33</v>
+        <v>102.56</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -11478,14 +11478,14 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>HUANCAYA</t>
+          <t>HONGOS</t>
         </is>
       </c>
       <c r="D428">
         <v>1</v>
       </c>
       <c r="E428">
-        <v>216.45</v>
+        <v>333.33</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -11504,14 +11504,14 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>YAUYOS</t>
+          <t>HUANCAYA</t>
         </is>
       </c>
       <c r="D429">
         <v>1</v>
       </c>
       <c r="E429">
-        <v>86.36</v>
+        <v>216.45</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -11520,24 +11520,24 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ALTO AMAZONAS</t>
+          <t>YAUYOS</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>BALSAPUERTO</t>
+          <t>YAUYOS</t>
         </is>
       </c>
       <c r="D430">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E430">
-        <v>117.27</v>
+        <v>86.36</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -11556,14 +11556,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>JEBEROS</t>
+          <t>BALSAPUERTO</t>
         </is>
       </c>
       <c r="D431">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E431">
-        <v>1002.16</v>
+        <v>117.27</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -11582,14 +11582,14 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>JEBEROS</t>
         </is>
       </c>
       <c r="D432">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="E432">
-        <v>1663.32</v>
+        <v>1002.16</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -11608,14 +11608,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D433">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="E433">
-        <v>154.05</v>
+        <v>1663.32</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -11634,14 +11634,14 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>TENIENTE CESAR LOPEZ ROJAS</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D434">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E434">
-        <v>395.32</v>
+        <v>154.05</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -11660,14 +11660,14 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>YURIMAGUAS</t>
+          <t>TENIENTE CESAR LOPEZ ROJAS</t>
         </is>
       </c>
       <c r="D435">
-        <v>1755</v>
+        <v>26</v>
       </c>
       <c r="E435">
-        <v>1568.84</v>
+        <v>395.32</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -11681,19 +11681,19 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>DATEM DEL MARAÑON</t>
+          <t>ALTO AMAZONAS</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>ANDOAS</t>
+          <t>YURIMAGUAS</t>
         </is>
       </c>
       <c r="D436">
-        <v>4</v>
+        <v>1752</v>
       </c>
       <c r="E436">
-        <v>24.22</v>
+        <v>1566.16</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -11712,14 +11712,14 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>ANDOAS</t>
         </is>
       </c>
       <c r="D437">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="E437">
-        <v>3285.31</v>
+        <v>24.22</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -11738,14 +11738,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>MANSERICHE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D438">
-        <v>48</v>
+        <v>561</v>
       </c>
       <c r="E438">
-        <v>469.35</v>
+        <v>3285.31</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -11764,17 +11764,17 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>MORONA</t>
+          <t>MANSERICHE</t>
         </is>
       </c>
       <c r="D439">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="E439">
-        <v>2974.34</v>
+        <v>469.35</v>
       </c>
       <c r="F439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -11790,14 +11790,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>PASTAZA</t>
+          <t>MORONA</t>
         </is>
       </c>
       <c r="D440">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E440">
-        <v>285.93</v>
+        <v>2974.34</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -11811,19 +11811,19 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>DATEM DEL MARAÑON</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>NAUTA</t>
+          <t>PASTAZA</t>
         </is>
       </c>
       <c r="D441">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="E441">
-        <v>339.88</v>
+        <v>285.93</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -11842,14 +11842,14 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>PARINARI</t>
+          <t>NAUTA</t>
         </is>
       </c>
       <c r="D442">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="E442">
-        <v>770.71</v>
+        <v>339.88</v>
       </c>
       <c r="F442">
         <v>0</v>
@@ -11868,14 +11868,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>TIGRE</t>
+          <t>PARINARI</t>
         </is>
       </c>
       <c r="D443">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E443">
-        <v>265.89</v>
+        <v>770.71</v>
       </c>
       <c r="F443">
         <v>0</v>
@@ -11894,14 +11894,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>TROMPETEROS</t>
+          <t>TIGRE</t>
         </is>
       </c>
       <c r="D444">
         <v>21</v>
       </c>
       <c r="E444">
-        <v>185.73</v>
+        <v>265.89</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -11920,14 +11920,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>URARINAS</t>
+          <t>TROMPETEROS</t>
         </is>
       </c>
       <c r="D445">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E445">
-        <v>14.09</v>
+        <v>185.73</v>
       </c>
       <c r="F445">
         <v>0</v>
@@ -11941,19 +11941,19 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>MARISCAL RAMON CASTILLA</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>PEBAS</t>
+          <t>URARINAS</t>
         </is>
       </c>
       <c r="D446">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E446">
-        <v>280.83</v>
+        <v>14.09</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -11972,14 +11972,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>RAMON CASTILLA</t>
+          <t>PEBAS</t>
         </is>
       </c>
       <c r="D447">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="E447">
-        <v>1579.54</v>
+        <v>280.83</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -11998,14 +11998,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>RAMON CASTILLA</t>
         </is>
       </c>
       <c r="D448">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="E448">
-        <v>121.41</v>
+        <v>1579.54</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -12024,14 +12024,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>YAVARI</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D449">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E449">
-        <v>96.44</v>
+        <v>121.41</v>
       </c>
       <c r="F449">
         <v>0</v>
@@ -12045,19 +12045,19 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>MAYNAS</t>
+          <t>MARISCAL RAMON CASTILLA</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>ALTO NANAY</t>
+          <t>YAVARI</t>
         </is>
       </c>
       <c r="D450">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E450">
-        <v>57.41</v>
+        <v>96.44</v>
       </c>
       <c r="F450">
         <v>0</v>
@@ -12076,14 +12076,14 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>BELEN</t>
+          <t>ALTO NANAY</t>
         </is>
       </c>
       <c r="D451">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="E451">
-        <v>265.84</v>
+        <v>57.41</v>
       </c>
       <c r="F451">
         <v>0</v>
@@ -12102,14 +12102,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>FERNANDO LORES</t>
+          <t>BELEN</t>
         </is>
       </c>
       <c r="D452">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="E452">
-        <v>257.71</v>
+        <v>261.69</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -12128,14 +12128,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>INDIANA</t>
+          <t>FERNANDO LORES</t>
         </is>
       </c>
       <c r="D453">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E453">
-        <v>310.32</v>
+        <v>257.71</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -12154,14 +12154,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>IQUITOS</t>
+          <t>INDIANA</t>
         </is>
       </c>
       <c r="D454">
-        <v>1382</v>
+        <v>37</v>
       </c>
       <c r="E454">
-        <v>836.01</v>
+        <v>310.32</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12180,14 +12180,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>LAS AMAZONAS</t>
+          <t>IQUITOS</t>
         </is>
       </c>
       <c r="D455">
-        <v>7</v>
+        <v>1384</v>
       </c>
       <c r="E455">
-        <v>81.75</v>
+        <v>837.21</v>
       </c>
       <c r="F455">
         <v>0</v>
@@ -12206,14 +12206,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>MAZAN</t>
+          <t>LAS AMAZONAS</t>
         </is>
       </c>
       <c r="D456">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E456">
-        <v>261.47</v>
+        <v>81.75</v>
       </c>
       <c r="F456">
         <v>0</v>
@@ -12232,14 +12232,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>NAPO</t>
+          <t>MAZAN</t>
         </is>
       </c>
       <c r="D457">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E457">
-        <v>43.98</v>
+        <v>261.47</v>
       </c>
       <c r="F457">
         <v>0</v>
@@ -12258,14 +12258,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>PUNCHANA</t>
+          <t>NAPO</t>
         </is>
       </c>
       <c r="D458">
-        <v>1470</v>
+        <v>8</v>
       </c>
       <c r="E458">
-        <v>1604.72</v>
+        <v>43.98</v>
       </c>
       <c r="F458">
         <v>0</v>
@@ -12284,14 +12284,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>PUNCHANA</t>
         </is>
       </c>
       <c r="D459">
-        <v>520</v>
+        <v>1470</v>
       </c>
       <c r="E459">
-        <v>327.67</v>
+        <v>1604.72</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -12310,14 +12310,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>TORRES CAUSANA</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D460">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="E460">
-        <v>56.52</v>
+        <v>327.67</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -12331,19 +12331,19 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>PUTUMAYO</t>
+          <t>MAYNAS</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>PUTUMAYO</t>
+          <t>TORRES CAUSANA</t>
         </is>
       </c>
       <c r="D461">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E461">
-        <v>4197.37</v>
+        <v>56.52</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -12362,14 +12362,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>ROSA PANDURO</t>
+          <t>PUTUMAYO</t>
         </is>
       </c>
       <c r="D462">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E462">
-        <v>505.05</v>
+        <v>4197.37</v>
       </c>
       <c r="F462">
         <v>0</v>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>TENIENTE MANUEL CLAVERO</t>
+          <t>ROSA PANDURO</t>
         </is>
       </c>
       <c r="D463">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E463">
-        <v>4844.72</v>
+        <v>505.05</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -12409,19 +12409,19 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>REQUENA</t>
+          <t>PUTUMAYO</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>ALTO TAPICHE</t>
+          <t>TENIENTE MANUEL CLAVERO</t>
         </is>
       </c>
       <c r="D464">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E464">
-        <v>178.04</v>
+        <v>4844.72</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -12440,14 +12440,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>EMILIO SAN MARTIN</t>
+          <t>ALTO TAPICHE</t>
         </is>
       </c>
       <c r="D465">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E465">
-        <v>711.1799999999999</v>
+        <v>178.04</v>
       </c>
       <c r="F465">
         <v>0</v>
@@ -12466,14 +12466,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>JENARO HERRERA</t>
+          <t>EMILIO SAN MARTIN</t>
         </is>
       </c>
       <c r="D466">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="E466">
-        <v>2789.78</v>
+        <v>711.1799999999999</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -12492,14 +12492,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>MAQUIA</t>
+          <t>JENARO HERRERA</t>
         </is>
       </c>
       <c r="D467">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E467">
-        <v>216.52</v>
+        <v>2789.78</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12518,14 +12518,14 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>PUINAHUA</t>
+          <t>MAQUIA</t>
         </is>
       </c>
       <c r="D468">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E468">
-        <v>21.87</v>
+        <v>216.52</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -12544,14 +12544,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>REQUENA</t>
+          <t>PUINAHUA</t>
         </is>
       </c>
       <c r="D469">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="E469">
-        <v>627.45</v>
+        <v>21.87</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12570,14 +12570,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>SOPLIN</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="D470">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="E470">
-        <v>139.47</v>
+        <v>627.45</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -12596,14 +12596,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>YAQUERANA</t>
+          <t>SOPLIN</t>
         </is>
       </c>
       <c r="D471">
         <v>1</v>
       </c>
       <c r="E471">
-        <v>44.76</v>
+        <v>139.47</v>
       </c>
       <c r="F471">
         <v>0</v>
@@ -12617,19 +12617,19 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>CONTAMANA</t>
+          <t>YAQUERANA</t>
         </is>
       </c>
       <c r="D472">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="E472">
-        <v>1668.97</v>
+        <v>44.76</v>
       </c>
       <c r="F472">
         <v>0</v>
@@ -12648,14 +12648,14 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>INAHUAYA</t>
+          <t>CONTAMANA</t>
         </is>
       </c>
       <c r="D473">
-        <v>56</v>
+        <v>484</v>
       </c>
       <c r="E473">
-        <v>3214.7</v>
+        <v>1668.97</v>
       </c>
       <c r="F473">
         <v>0</v>
@@ -12674,14 +12674,14 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>PADRE MARQUEZ</t>
+          <t>INAHUAYA</t>
         </is>
       </c>
       <c r="D474">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E474">
-        <v>382.24</v>
+        <v>3214.7</v>
       </c>
       <c r="F474">
         <v>0</v>
@@ -12700,14 +12700,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>PADRE MARQUEZ</t>
         </is>
       </c>
       <c r="D475">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E475">
-        <v>327.28</v>
+        <v>382.24</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12726,14 +12726,14 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>SARAYACU</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D476">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="E476">
-        <v>1909.32</v>
+        <v>327.28</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -12752,43 +12752,43 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>VARGAS GUERRA</t>
+          <t>SARAYACU</t>
         </is>
       </c>
       <c r="D477">
-        <v>28</v>
+        <v>298</v>
       </c>
       <c r="E477">
-        <v>360.36</v>
+        <v>1955.25</v>
       </c>
       <c r="F477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MANU</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>HUEPETUHE</t>
+          <t>VARGAS GUERRA</t>
         </is>
       </c>
       <c r="D478">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E478">
-        <v>609.42</v>
+        <v>360.36</v>
       </c>
       <c r="F478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -12804,14 +12804,14 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>HUEPETUHE</t>
         </is>
       </c>
       <c r="D479">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E479">
-        <v>538.71</v>
+        <v>627.89</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -12825,19 +12825,19 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>MANU</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>IBERIA</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="D480">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="E480">
-        <v>3053.7</v>
+        <v>538.71</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -12856,14 +12856,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>IÑAPARI</t>
+          <t>IBERIA</t>
         </is>
       </c>
       <c r="D481">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="E481">
-        <v>1009.8</v>
+        <v>3088.01</v>
       </c>
       <c r="F481">
         <v>0</v>
@@ -12882,14 +12882,14 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>IÑAPARI</t>
         </is>
       </c>
       <c r="D482">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E482">
-        <v>705.1799999999999</v>
+        <v>1098.9</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -12903,19 +12903,19 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>INAMBARI</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="D483">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="E483">
-        <v>1064.81</v>
+        <v>705.1799999999999</v>
       </c>
       <c r="F483">
         <v>0</v>
@@ -12934,14 +12934,14 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>LABERINTO</t>
+          <t>INAMBARI</t>
         </is>
       </c>
       <c r="D484">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="E484">
-        <v>1095.51</v>
+        <v>1070.57</v>
       </c>
       <c r="F484">
         <v>0</v>
@@ -12960,14 +12960,14 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>LAS PIEDRAS</t>
+          <t>LABERINTO</t>
         </is>
       </c>
       <c r="D485">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="E485">
-        <v>1040.52</v>
+        <v>1193.82</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -12986,43 +12986,43 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>LAS PIEDRAS</t>
         </is>
       </c>
       <c r="D486">
-        <v>1130</v>
+        <v>232</v>
       </c>
       <c r="E486">
-        <v>1017.5</v>
+        <v>1068.14</v>
       </c>
       <c r="F486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>PASCO</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>OXAPAMPA</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>CHONTABAMBA</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="D487">
-        <v>1</v>
+        <v>1179</v>
       </c>
       <c r="E487">
-        <v>14.49</v>
+        <v>1061.63</v>
       </c>
       <c r="F487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -13042,10 +13042,10 @@
         </is>
       </c>
       <c r="D488">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E488">
-        <v>1566.1</v>
+        <v>1587.56</v>
       </c>
       <c r="F488">
         <v>0</v>
@@ -13094,10 +13094,10 @@
         </is>
       </c>
       <c r="D490">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E490">
-        <v>38.44</v>
+        <v>32.95</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -13432,10 +13432,10 @@
         </is>
       </c>
       <c r="D503">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E503">
-        <v>4176.41</v>
+        <v>4184.76</v>
       </c>
       <c r="F503">
         <v>0</v>
@@ -13692,13 +13692,13 @@
         </is>
       </c>
       <c r="D513">
-        <v>5269</v>
+        <v>5274</v>
       </c>
       <c r="E513">
-        <v>5742.53</v>
+        <v>5747.98</v>
       </c>
       <c r="F513">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="514">
@@ -13718,10 +13718,10 @@
         </is>
       </c>
       <c r="D514">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E514">
-        <v>3449.6</v>
+        <v>3456.01</v>
       </c>
       <c r="F514">
         <v>2</v>
@@ -13744,10 +13744,10 @@
         </is>
       </c>
       <c r="D515">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E515">
-        <v>4587.66</v>
+        <v>4593.77</v>
       </c>
       <c r="F515">
         <v>0</v>
@@ -13770,10 +13770,10 @@
         </is>
       </c>
       <c r="D516">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E516">
-        <v>4029.23</v>
+        <v>4039.97</v>
       </c>
       <c r="F516">
         <v>0</v>
@@ -13796,10 +13796,10 @@
         </is>
       </c>
       <c r="D517">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E517">
-        <v>4204.78</v>
+        <v>4190.03</v>
       </c>
       <c r="F517">
         <v>0</v>
@@ -13900,10 +13900,10 @@
         </is>
       </c>
       <c r="D521">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E521">
-        <v>5576.78</v>
+        <v>5614.97</v>
       </c>
       <c r="F521">
         <v>1</v>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="D523">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E523">
-        <v>3037.85</v>
+        <v>3043.5</v>
       </c>
       <c r="F523">
         <v>0</v>
@@ -13978,10 +13978,10 @@
         </is>
       </c>
       <c r="D524">
-        <v>1726</v>
+        <v>1735</v>
       </c>
       <c r="E524">
-        <v>11650.35</v>
+        <v>11711.1</v>
       </c>
       <c r="F524">
         <v>3</v>
@@ -14004,10 +14004,10 @@
         </is>
       </c>
       <c r="D525">
-        <v>2698</v>
+        <v>2712</v>
       </c>
       <c r="E525">
-        <v>2486.87</v>
+        <v>2499.77</v>
       </c>
       <c r="F525">
         <v>6</v>
@@ -14030,10 +14030,10 @@
         </is>
       </c>
       <c r="D526">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E526">
-        <v>4374.22</v>
+        <v>4427.78</v>
       </c>
       <c r="F526">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         </is>
       </c>
       <c r="D527">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E527">
-        <v>2434.86</v>
+        <v>2589.95</v>
       </c>
       <c r="F527">
         <v>3</v>
@@ -14082,10 +14082,10 @@
         </is>
       </c>
       <c r="D528">
-        <v>8978</v>
+        <v>9125</v>
       </c>
       <c r="E528">
-        <v>4586.32</v>
+        <v>4661.42</v>
       </c>
       <c r="F528">
         <v>14</v>
@@ -14108,10 +14108,10 @@
         </is>
       </c>
       <c r="D529">
-        <v>2670</v>
+        <v>2705</v>
       </c>
       <c r="E529">
-        <v>3152.41</v>
+        <v>3193.74</v>
       </c>
       <c r="F529">
         <v>4</v>
@@ -14134,10 +14134,10 @@
         </is>
       </c>
       <c r="D530">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="E530">
-        <v>3062.83</v>
+        <v>3124.85</v>
       </c>
       <c r="F530">
         <v>2</v>
@@ -14186,10 +14186,10 @@
         </is>
       </c>
       <c r="D532">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E532">
-        <v>1756.74</v>
+        <v>1761.37</v>
       </c>
       <c r="F532">
         <v>0</v>
@@ -14212,10 +14212,10 @@
         </is>
       </c>
       <c r="D533">
-        <v>1658</v>
+        <v>1673</v>
       </c>
       <c r="E533">
-        <v>3567.51</v>
+        <v>3599.78</v>
       </c>
       <c r="F533">
         <v>5</v>
@@ -14238,10 +14238,10 @@
         </is>
       </c>
       <c r="D534">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E534">
-        <v>786.59</v>
+        <v>783.29</v>
       </c>
       <c r="F534">
         <v>0</v>
@@ -14264,10 +14264,10 @@
         </is>
       </c>
       <c r="D535">
-        <v>9614</v>
+        <v>9633</v>
       </c>
       <c r="E535">
-        <v>5072.07</v>
+        <v>5082.09</v>
       </c>
       <c r="F535">
         <v>24</v>
@@ -14290,10 +14290,10 @@
         </is>
       </c>
       <c r="D536">
-        <v>3579</v>
+        <v>3614</v>
       </c>
       <c r="E536">
-        <v>2742.97</v>
+        <v>2769.79</v>
       </c>
       <c r="F536">
         <v>3</v>
@@ -14316,10 +14316,10 @@
         </is>
       </c>
       <c r="D537">
-        <v>3706</v>
+        <v>3701</v>
       </c>
       <c r="E537">
-        <v>1882.14</v>
+        <v>1879.6</v>
       </c>
       <c r="F537">
         <v>13</v>
@@ -14342,10 +14342,10 @@
         </is>
       </c>
       <c r="D538">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E538">
-        <v>7313.11</v>
+        <v>7349.22</v>
       </c>
       <c r="F538">
         <v>0</v>
@@ -14368,10 +14368,10 @@
         </is>
       </c>
       <c r="D539">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E539">
-        <v>957.0599999999999</v>
+        <v>969.33</v>
       </c>
       <c r="F539">
         <v>0</v>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="D542">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="E542">
-        <v>1420.24</v>
+        <v>1425.69</v>
       </c>
       <c r="F542">
         <v>0</v>
@@ -14472,10 +14472,10 @@
         </is>
       </c>
       <c r="D543">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E543">
-        <v>1743.64</v>
+        <v>1785.53</v>
       </c>
       <c r="F543">
         <v>0</v>
@@ -14498,10 +14498,10 @@
         </is>
       </c>
       <c r="D544">
-        <v>1601</v>
+        <v>1608</v>
       </c>
       <c r="E544">
-        <v>3987.94</v>
+        <v>4005.38</v>
       </c>
       <c r="F544">
         <v>4</v>
@@ -14524,10 +14524,10 @@
         </is>
       </c>
       <c r="D545">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="E545">
-        <v>4367.34</v>
+        <v>4402.88</v>
       </c>
       <c r="F545">
         <v>5</v>
@@ -14576,10 +14576,10 @@
         </is>
       </c>
       <c r="D547">
-        <v>1891</v>
+        <v>1917</v>
       </c>
       <c r="E547">
-        <v>5649.16</v>
+        <v>5726.83</v>
       </c>
       <c r="F547">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         </is>
       </c>
       <c r="D548">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="E548">
-        <v>7355.57</v>
+        <v>7393.14</v>
       </c>
       <c r="F548">
         <v>0</v>
@@ -14628,10 +14628,10 @@
         </is>
       </c>
       <c r="D549">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="E549">
-        <v>3368.19</v>
+        <v>3388.89</v>
       </c>
       <c r="F549">
         <v>4</v>
@@ -14680,10 +14680,10 @@
         </is>
       </c>
       <c r="D551">
-        <v>7029</v>
+        <v>7078</v>
       </c>
       <c r="E551">
-        <v>3589.69</v>
+        <v>3614.71</v>
       </c>
       <c r="F551">
         <v>12</v>
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="D552">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E552">
-        <v>2334.55</v>
+        <v>2441.64</v>
       </c>
       <c r="F552">
         <v>2</v>
@@ -14758,10 +14758,10 @@
         </is>
       </c>
       <c r="D554">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E554">
-        <v>428.27</v>
+        <v>499.64</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -14784,10 +14784,10 @@
         </is>
       </c>
       <c r="D555">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E555">
-        <v>2304.49</v>
+        <v>2312.81</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -14810,10 +14810,10 @@
         </is>
       </c>
       <c r="D556">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E556">
-        <v>1717.41</v>
+        <v>1731.1</v>
       </c>
       <c r="F556">
         <v>0</v>
@@ -14836,13 +14836,13 @@
         </is>
       </c>
       <c r="D557">
-        <v>2836</v>
+        <v>3111</v>
       </c>
       <c r="E557">
-        <v>2613.61</v>
+        <v>2867.04</v>
       </c>
       <c r="F557">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558">
@@ -14966,10 +14966,10 @@
         </is>
       </c>
       <c r="D562">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E562">
-        <v>120.76</v>
+        <v>127.11</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -15122,10 +15122,10 @@
         </is>
       </c>
       <c r="D568">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E568">
-        <v>134.03</v>
+        <v>128.45</v>
       </c>
       <c r="F568">
         <v>1</v>
@@ -15434,10 +15434,10 @@
         </is>
       </c>
       <c r="D580">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E580">
-        <v>1538.46</v>
+        <v>1529.82</v>
       </c>
       <c r="F580">
         <v>1</v>
@@ -15460,10 +15460,10 @@
         </is>
       </c>
       <c r="D581">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E581">
-        <v>460.07</v>
+        <v>492.93</v>
       </c>
       <c r="F581">
         <v>0</v>
@@ -15486,10 +15486,10 @@
         </is>
       </c>
       <c r="D582">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E582">
-        <v>866.02</v>
+        <v>859.74</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="D584">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E584">
-        <v>398.31</v>
+        <v>373.41</v>
       </c>
       <c r="F584">
         <v>0</v>
@@ -15590,10 +15590,10 @@
         </is>
       </c>
       <c r="D586">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E586">
-        <v>856.0700000000001</v>
+        <v>802.5700000000001</v>
       </c>
       <c r="F586">
         <v>0</v>
@@ -15616,10 +15616,10 @@
         </is>
       </c>
       <c r="D587">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E587">
-        <v>193.19</v>
+        <v>186.53</v>
       </c>
       <c r="F587">
         <v>0</v>
@@ -15642,10 +15642,10 @@
         </is>
       </c>
       <c r="D588">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E588">
-        <v>377.3</v>
+        <v>360.89</v>
       </c>
       <c r="F588">
         <v>0</v>
@@ -15720,10 +15720,10 @@
         </is>
       </c>
       <c r="D591">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E591">
-        <v>1201.04</v>
+        <v>1192.72</v>
       </c>
       <c r="F591">
         <v>1</v>
@@ -15850,10 +15850,10 @@
         </is>
       </c>
       <c r="D596">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E596">
-        <v>94.37</v>
+        <v>100.66</v>
       </c>
       <c r="F596">
         <v>0</v>
@@ -15876,10 +15876,10 @@
         </is>
       </c>
       <c r="D597">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="E597">
-        <v>725.65</v>
+        <v>729.03</v>
       </c>
       <c r="F597">
         <v>2</v>
@@ -16240,10 +16240,10 @@
         </is>
       </c>
       <c r="D611">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E611">
-        <v>188.74</v>
+        <v>190.77</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="D614">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E614">
-        <v>519.29</v>
+        <v>526.51</v>
       </c>
       <c r="F614">
         <v>0</v>
@@ -16474,10 +16474,10 @@
         </is>
       </c>
       <c r="D620">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E620">
-        <v>1030.28</v>
+        <v>1021.32</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -16552,10 +16552,10 @@
         </is>
       </c>
       <c r="D623">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E623">
-        <v>85.81999999999999</v>
+        <v>68.66</v>
       </c>
       <c r="F623">
         <v>0</v>
@@ -16630,10 +16630,10 @@
         </is>
       </c>
       <c r="D626">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E626">
-        <v>536.61</v>
+        <v>525.84</v>
       </c>
       <c r="F626">
         <v>0</v>
@@ -16760,10 +16760,10 @@
         </is>
       </c>
       <c r="D631">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="E631">
-        <v>676.66</v>
+        <v>634.08</v>
       </c>
       <c r="F631">
         <v>2</v>
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="D632">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E632">
-        <v>1175.64</v>
+        <v>1191.32</v>
       </c>
       <c r="F632">
         <v>0</v>
@@ -16812,10 +16812,10 @@
         </is>
       </c>
       <c r="D633">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E633">
-        <v>294.2</v>
+        <v>303.11</v>
       </c>
       <c r="F633">
         <v>0</v>
@@ -16890,10 +16890,10 @@
         </is>
       </c>
       <c r="D636">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E636">
-        <v>666.62</v>
+        <v>699.95</v>
       </c>
       <c r="F636">
         <v>0</v>
@@ -16916,10 +16916,10 @@
         </is>
       </c>
       <c r="D637">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E637">
-        <v>1920.52</v>
+        <v>1968.84</v>
       </c>
       <c r="F637">
         <v>0</v>
@@ -16968,10 +16968,10 @@
         </is>
       </c>
       <c r="D639">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="E639">
-        <v>3311.48</v>
+        <v>3400.25</v>
       </c>
       <c r="F639">
         <v>0</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="D640">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="E640">
-        <v>2214.3</v>
+        <v>2259.8</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -17046,10 +17046,10 @@
         </is>
       </c>
       <c r="D642">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E642">
-        <v>3495.69</v>
+        <v>3482.84</v>
       </c>
       <c r="F642">
         <v>0</v>
@@ -17072,10 +17072,10 @@
         </is>
       </c>
       <c r="D643">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E643">
-        <v>2634.99</v>
+        <v>2645.79</v>
       </c>
       <c r="F643">
         <v>0</v>
@@ -17124,10 +17124,10 @@
         </is>
       </c>
       <c r="D645">
-        <v>3036</v>
+        <v>3121</v>
       </c>
       <c r="E645">
-        <v>2571.46</v>
+        <v>2643.46</v>
       </c>
       <c r="F645">
         <v>0</v>
@@ -17150,10 +17150,10 @@
         </is>
       </c>
       <c r="D646">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E646">
-        <v>1156.87</v>
+        <v>1181.59</v>
       </c>
       <c r="F646">
         <v>0</v>
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="D648">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E648">
-        <v>3108.4</v>
+        <v>3214.67</v>
       </c>
       <c r="F648">
         <v>0</v>
@@ -17228,10 +17228,10 @@
         </is>
       </c>
       <c r="D649">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="E649">
-        <v>1955.72</v>
+        <v>2051.66</v>
       </c>
       <c r="F649">
         <v>1</v>
@@ -17358,10 +17358,10 @@
         </is>
       </c>
       <c r="D654">
-        <v>4152</v>
+        <v>4161</v>
       </c>
       <c r="E654">
-        <v>2285.07</v>
+        <v>2290.03</v>
       </c>
       <c r="F654">
         <v>3</v>
@@ -17514,10 +17514,10 @@
         </is>
       </c>
       <c r="D660">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="E660">
-        <v>1273.75</v>
+        <v>1276.92</v>
       </c>
       <c r="F660">
         <v>5</v>
@@ -17540,10 +17540,10 @@
         </is>
       </c>
       <c r="D661">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E661">
-        <v>781.01</v>
+        <v>796.3200000000001</v>
       </c>
       <c r="F661">
         <v>0</v>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="D662">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E662">
-        <v>289.18</v>
+        <v>327.74</v>
       </c>
       <c r="F662">
         <v>0</v>
@@ -17644,10 +17644,10 @@
         </is>
       </c>
       <c r="D665">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E665">
-        <v>973.83</v>
+        <v>996.13</v>
       </c>
       <c r="F665">
         <v>0</v>
@@ -17670,10 +17670,10 @@
         </is>
       </c>
       <c r="D666">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E666">
-        <v>933.1</v>
+        <v>941.9</v>
       </c>
       <c r="F666">
         <v>0</v>
@@ -17696,10 +17696,10 @@
         </is>
       </c>
       <c r="D667">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E667">
-        <v>1548.12</v>
+        <v>1560.68</v>
       </c>
       <c r="F667">
         <v>0</v>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>641.85</v>
+        <v>651.72</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E3">
-        <v>2601.62</v>
+        <v>2581.94</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E6">
-        <v>969.1900000000001</v>
+        <v>972.08</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E18">
-        <v>718.9</v>
+        <v>720.6</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19">
-        <v>534.8</v>
+        <v>530.66</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21">
-        <v>1138.46</v>
+        <v>1107.69</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E26">
-        <v>1452.76</v>
+        <v>1469.11</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="D36">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E36">
-        <v>1752.26</v>
+        <v>1762.95</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="D40">
-        <v>1343</v>
+        <v>1444</v>
       </c>
       <c r="E40">
-        <v>610.4400000000001</v>
+        <v>656.35</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>183.68</v>
+        <v>205.94</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="D43">
-        <v>1176</v>
+        <v>1202</v>
       </c>
       <c r="E43">
-        <v>7809.28</v>
+        <v>7981.94</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D44">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="E44">
-        <v>342.8</v>
+        <v>348.58</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="D46">
-        <v>708</v>
+        <v>759</v>
       </c>
       <c r="E46">
-        <v>2952.71</v>
+        <v>3165.4</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         </is>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="D57">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E57">
-        <v>500.43</v>
+        <v>474.55</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1858,14 +1858,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LURICOCHA</t>
+          <t>SIVIA</t>
         </is>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="E58">
-        <v>15.81</v>
+        <v>1656.24</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1879,19 +1879,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SIVIA</t>
+          <t>ANCHIHUAY</t>
         </is>
       </c>
       <c r="D59">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>1665.05</v>
+        <v>24.34</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1910,14 +1910,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ANCHIHUAY</t>
+          <t>ANCO</t>
         </is>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60">
-        <v>48.67</v>
+        <v>35.93</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1936,14 +1936,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ANCO</t>
+          <t>AYNA</t>
         </is>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="E61">
-        <v>35.93</v>
+        <v>1338.83</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1962,14 +1962,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AYNA</t>
+          <t>CHUNGUI</t>
         </is>
       </c>
       <c r="D62">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>1338.83</v>
+        <v>69.69</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1988,14 +1988,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CHUNGUI</t>
+          <t>RIO MAGDALENA</t>
         </is>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E63">
-        <v>69.69</v>
+        <v>1604.77</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2014,14 +2014,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>RIO MAGDALENA</t>
+          <t>SAMUGARI</t>
         </is>
       </c>
       <c r="D64">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E64">
-        <v>1558.92</v>
+        <v>362.61</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2040,14 +2040,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SAMUGARI</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>362.61</v>
+        <v>36.51</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2066,14 +2066,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E66">
-        <v>36.51</v>
+        <v>583.02</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2092,14 +2092,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>UNION PROGRESO</t>
         </is>
       </c>
       <c r="D67">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>583.02</v>
+        <v>789.23</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2113,19 +2113,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>UNION PROGRESO</t>
+          <t>LUCANAS</t>
         </is>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>789.23</v>
+        <v>40.11</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2139,19 +2139,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LUCANAS</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>40.11</v>
+        <v>16.66</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2160,24 +2160,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>CACHACHI</t>
         </is>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>16.66</v>
+        <v>3.84</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2186,24 +2186,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>VISCHONGO</t>
+          <t>CAJABAMBA</t>
         </is>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>27.43</v>
+        <v>11.32</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2222,14 +2222,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CACHACHI</t>
+          <t>SITACOCHA</t>
         </is>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>3.84</v>
+        <v>618.97</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2243,19 +2243,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>ASUNCION</t>
         </is>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>8.49</v>
+        <v>13.07</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2269,19 +2269,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CAJABAMBA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SITACOCHA</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D74">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>445.65</v>
+        <v>7.87</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ASUNCION</t>
+          <t>COSPAN</t>
         </is>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>13.07</v>
+        <v>13.69</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2326,14 +2326,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>7.87</v>
+        <v>33.15</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2347,19 +2347,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COSPAN</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>13.69</v>
+        <v>3.41</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2373,19 +2373,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CELENDIN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>UTCO</t>
         </is>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>33.15</v>
+        <v>377.71</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2399,19 +2399,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHALAMARCA</t>
         </is>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>3.41</v>
+        <v>10.59</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2425,19 +2425,19 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CELENDIN</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>UTCO</t>
+          <t>CHIGUIRIP</t>
         </is>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>377.71</v>
+        <v>28.89</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2456,14 +2456,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CHALAMARCA</t>
+          <t>CHOTA</t>
         </is>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E81">
-        <v>10.59</v>
+        <v>21.37</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2482,14 +2482,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CHIGUIRIP</t>
+          <t>COCHABAMBA</t>
         </is>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>28.89</v>
+        <v>17.72</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2508,14 +2508,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONCHAN</t>
         </is>
       </c>
       <c r="D83">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>21.37</v>
+        <v>17.34</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>COCHABAMBA</t>
+          <t>HUAMBOS</t>
         </is>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>17.72</v>
+        <v>11.95</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2560,14 +2560,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CONCHAN</t>
+          <t>LLAMA</t>
         </is>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>17.34</v>
+        <v>280.15</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HUAMBOS</t>
+          <t>MIRACOSTA</t>
         </is>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>11.95</v>
+        <v>93.23</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2612,14 +2612,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LLAMA</t>
+          <t>QUEROCOTO</t>
         </is>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>280.15</v>
+        <v>23.11</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2638,14 +2638,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MIRACOSTA</t>
+          <t>SAN JUAN DE LICUPIS</t>
         </is>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>93.23</v>
+        <v>105.04</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>QUEROCOTO</t>
+          <t>TACABAMBA</t>
         </is>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89">
-        <v>23.11</v>
+        <v>12.38</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2690,14 +2690,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LICUPIS</t>
+          <t>TOCMOCHE</t>
         </is>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>105.04</v>
+        <v>117.23</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2711,19 +2711,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TACABAMBA</t>
+          <t>CHILETE</t>
         </is>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>574</v>
       </c>
       <c r="E91">
-        <v>12.38</v>
+        <v>21717.74</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -2737,19 +2737,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CHOTA</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TOCMOCHE</t>
+          <t>CONTUMAZA</t>
         </is>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>117.23</v>
+        <v>38.24</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CHILETE</t>
+          <t>TANTARICA</t>
         </is>
       </c>
       <c r="D93">
-        <v>586</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>22171.77</v>
+        <v>191.72</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2794,17 +2794,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>YONAN</t>
         </is>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>747</v>
       </c>
       <c r="E94">
-        <v>38.24</v>
+        <v>11047.03</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2815,19 +2815,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TANTARICA</t>
+          <t>CALLAYUC</t>
         </is>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>153.37</v>
+        <v>21.4</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2841,22 +2841,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CONTUMAZA</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>YONAN</t>
+          <t>CHOROS</t>
         </is>
       </c>
       <c r="D96">
-        <v>748</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>11061.82</v>
+        <v>62.93</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2872,14 +2872,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CALLAYUC</t>
+          <t>CUTERVO</t>
         </is>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>21.4</v>
+        <v>9.92</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2898,14 +2898,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CHOROS</t>
+          <t>PIMPINGOS</t>
         </is>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>62.93</v>
+        <v>20.29</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2924,14 +2924,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>QUEROCOTILLO</t>
         </is>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>9.92</v>
+        <v>7.8</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2950,14 +2950,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PIMPINGOS</t>
+          <t>SOCOTA</t>
         </is>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>20.29</v>
+        <v>11.3</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2971,19 +2971,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>HUALGAYOC</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>QUEROCOTILLO</t>
+          <t>HUALGAYOC</t>
         </is>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>7.8</v>
+        <v>6.28</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2997,19 +2997,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SOCOTA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="E102">
-        <v>11.3</v>
+        <v>2110.09</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3023,19 +3023,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>HUALGAYOC</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HUALGAYOC</t>
+          <t>CHONTALI</t>
         </is>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103">
-        <v>6.28</v>
+        <v>28.34</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3054,14 +3054,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>COLASAY</t>
         </is>
       </c>
       <c r="D104">
-        <v>347</v>
+        <v>28</v>
       </c>
       <c r="E104">
-        <v>2092</v>
+        <v>265.45</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3080,14 +3080,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CHONTALI</t>
+          <t>HUABAL</t>
         </is>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>28.34</v>
+        <v>10.91</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3106,17 +3106,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>COLASAY</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="D106">
-        <v>28</v>
+        <v>3946</v>
       </c>
       <c r="E106">
-        <v>265.45</v>
+        <v>3613.26</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3132,14 +3132,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HUABAL</t>
+          <t>POMAHUACA</t>
         </is>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>10.91</v>
+        <v>63.55</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3158,17 +3158,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>PUCARA</t>
         </is>
       </c>
       <c r="D108">
-        <v>3936</v>
+        <v>135</v>
       </c>
       <c r="E108">
-        <v>3604.1</v>
+        <v>1926.92</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3184,14 +3184,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>POMAHUACA</t>
+          <t>SALLIQUE</t>
         </is>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>63.55</v>
+        <v>52.64</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3210,14 +3210,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PUCARA</t>
+          <t>SAN FELIPE</t>
         </is>
       </c>
       <c r="D110">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="E110">
-        <v>1827.01</v>
+        <v>129.03</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SALLIQUE</t>
+          <t>SAN JOSE DEL ALTO</t>
         </is>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E111">
-        <v>52.64</v>
+        <v>181.99</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>107.53</v>
+        <v>137.28</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3283,19 +3283,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SAN JOSE DEL ALTO</t>
+          <t>CHIRINOS</t>
         </is>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E113">
-        <v>181.99</v>
+        <v>152.32</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3309,19 +3309,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>HUARANGO</t>
         </is>
       </c>
       <c r="D114">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="E114">
-        <v>147.09</v>
+        <v>985.65</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CHIRINOS</t>
+          <t>LA COIPA</t>
         </is>
       </c>
       <c r="D115">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>152.32</v>
+        <v>23.05</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3366,14 +3366,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HUARANGO</t>
+          <t>NAMBALLE</t>
         </is>
       </c>
       <c r="D116">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="E116">
-        <v>1007.31</v>
+        <v>170.56</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3392,14 +3392,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>LA COIPA</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>463</v>
       </c>
       <c r="E117">
-        <v>23.05</v>
+        <v>1117.82</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3418,14 +3418,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>NAMBALLE</t>
+          <t>SAN JOSE DE LOURDES</t>
         </is>
       </c>
       <c r="D118">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>180.6</v>
+        <v>44.73</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3444,14 +3444,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>TABACONAS</t>
         </is>
       </c>
       <c r="D119">
-        <v>459</v>
+        <v>45</v>
       </c>
       <c r="E119">
-        <v>1108.16</v>
+        <v>221.28</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3465,19 +3465,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOURDES</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>49.7</v>
+        <v>81.5</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3491,19 +3491,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TABACONAS</t>
+          <t>CALQUIS</t>
         </is>
       </c>
       <c r="D121">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>221.28</v>
+        <v>23.87</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3522,14 +3522,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>NANCHOC</t>
         </is>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E122">
-        <v>81.5</v>
+        <v>3169.81</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CALQUIS</t>
+          <t>SAN GREGORIO</t>
         </is>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>23.87</v>
+        <v>45.33</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3574,14 +3574,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NANCHOC</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D124">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E124">
-        <v>3169.81</v>
+        <v>185.68</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3600,14 +3600,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SAN GREGORIO</t>
+          <t>SAN SILVESTRE DE COCHAN</t>
         </is>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>45.33</v>
+        <v>28.39</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3621,19 +3621,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN BERNARDINO</t>
         </is>
       </c>
       <c r="D126">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E126">
-        <v>185.68</v>
+        <v>842.01</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3647,19 +3647,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SAN SILVESTRE DE COCHAN</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>28.39</v>
+        <v>114.16</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3673,19 +3673,19 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SAN BERNARDINO</t>
+          <t>CATACHE</t>
         </is>
       </c>
       <c r="D128">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>842.01</v>
+        <v>10.32</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3699,19 +3699,19 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>CHANCAYBAÑOS</t>
         </is>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>114.16</v>
+        <v>29.83</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3730,14 +3730,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CATACHE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E130">
-        <v>10.32</v>
+        <v>116.06</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3746,24 +3746,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CHANCAYBAÑOS</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E131">
-        <v>29.83</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3772,24 +3772,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="E132">
-        <v>116.06</v>
+        <v>68.11</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3808,14 +3808,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>CARMEN DE LA LEGUA-REYNOSO</t>
         </is>
       </c>
       <c r="D133">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E133">
-        <v>96.29000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3834,14 +3834,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="D134">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="E134">
-        <v>68.11</v>
+        <v>28.85</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3860,14 +3860,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA-REYNOSO</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="D135">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>87.03</v>
+        <v>24.98</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3886,14 +3886,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="D136">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="E136">
-        <v>28.85</v>
+        <v>743.1</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3912,69 +3912,69 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>1555</v>
       </c>
       <c r="E137">
-        <v>24.98</v>
+        <v>391.66</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CALCA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>YANATILE</t>
         </is>
       </c>
       <c r="D138">
-        <v>402</v>
+        <v>51</v>
       </c>
       <c r="E138">
-        <v>732.17</v>
+        <v>542.96</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>TINTA</t>
         </is>
       </c>
       <c r="D139">
-        <v>1543</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>388.64</v>
+        <v>18.08</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3985,22 +3985,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CALCA</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>YANATILE</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D140">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>542.96</v>
+        <v>5.71</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4011,19 +4011,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>TINTA</t>
+          <t>SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141">
-        <v>18.08</v>
+        <v>0.7</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -4042,14 +4042,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>5.71</v>
+        <v>0.92</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4068,14 +4068,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SAN SEBASTIAN</t>
+          <t>WANCHAQ</t>
         </is>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>0.7</v>
+        <v>1.56</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4089,19 +4089,19 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144">
-        <v>0.92</v>
+        <v>2.54</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4115,19 +4115,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>WANCHAQ</t>
+          <t>CIELO PUNCO</t>
         </is>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E145">
-        <v>1.56</v>
+        <v>1002.73</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -4141,19 +4141,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>LA CONVENCION</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>ECHARATE</t>
         </is>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E146">
-        <v>2.54</v>
+        <v>382.55</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4172,17 +4172,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CIELO PUNCO</t>
+          <t>KIMBIRI</t>
         </is>
       </c>
       <c r="D147">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="E147">
-        <v>1002.73</v>
+        <v>2510.22</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4198,14 +4198,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ECHARATE</t>
+          <t>KUMPIRUSHIATO</t>
         </is>
       </c>
       <c r="D148">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>393.18</v>
+        <v>119.29</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4224,17 +4224,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>KIMBIRI</t>
+          <t>MANITEA</t>
         </is>
       </c>
       <c r="D149">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="E149">
-        <v>2481.53</v>
+        <v>1526.72</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>KUMPIRUSHIATO</t>
+          <t>MARANURA</t>
         </is>
       </c>
       <c r="D150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E150">
-        <v>119.29</v>
+        <v>119.36</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4276,14 +4276,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MANITEA</t>
+          <t>MEGANTONI</t>
         </is>
       </c>
       <c r="D151">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E151">
-        <v>1526.72</v>
+        <v>960.84</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4302,14 +4302,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MARANURA</t>
+          <t>PICHARI</t>
         </is>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>471</v>
       </c>
       <c r="E152">
-        <v>119.36</v>
+        <v>2001.27</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4328,14 +4328,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MEGANTONI</t>
+          <t>QUELLOUNO</t>
         </is>
       </c>
       <c r="D153">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="E153">
-        <v>997.3200000000001</v>
+        <v>160.59</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4354,17 +4354,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>PICHARI</t>
+          <t>SANTA ANA</t>
         </is>
       </c>
       <c r="D154">
-        <v>472</v>
+        <v>1083</v>
       </c>
       <c r="E154">
-        <v>2005.52</v>
+        <v>3632.16</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4380,14 +4380,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>QUELLOUNO</t>
+          <t>UNION ASHANINKA</t>
         </is>
       </c>
       <c r="D155">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E155">
-        <v>167.28</v>
+        <v>1160.47</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4406,17 +4406,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>VILLA KINTIARINA</t>
         </is>
       </c>
       <c r="D156">
-        <v>1138</v>
+        <v>87</v>
       </c>
       <c r="E156">
-        <v>3816.61</v>
+        <v>3526.55</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4432,14 +4432,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>UNION ASHANINKA</t>
+          <t>VILLA VIRGEN</t>
         </is>
       </c>
       <c r="D157">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E157">
-        <v>1087.94</v>
+        <v>2610.86</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4453,19 +4453,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>QUISPICANCHI</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>VILLA KINTIARINA</t>
+          <t>CAMANTI</t>
         </is>
       </c>
       <c r="D158">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E158">
-        <v>3567.09</v>
+        <v>992.28</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4479,19 +4479,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LA CONVENCION</t>
+          <t>URUBAMBA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>VILLA VIRGEN</t>
+          <t>MACHUPICCHU</t>
         </is>
       </c>
       <c r="D159">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>2610.86</v>
+        <v>16.85</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4500,24 +4500,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANCAVELICA</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>QUISPICANCHI</t>
+          <t>HUAYTARA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>CAMANTI</t>
+          <t>QUITO ARMA</t>
         </is>
       </c>
       <c r="D160">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>992.28</v>
+        <v>149.48</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4526,24 +4526,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>URUBAMBA</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MACHUPICCHU</t>
+          <t>AMBO</t>
         </is>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161">
-        <v>16.85</v>
+        <v>4.21</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4552,24 +4552,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HUANCAVELICA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>HUAYTARA</t>
+          <t>DOS DE MAYO</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>QUITO ARMA</t>
+          <t>YANAS</t>
         </is>
       </c>
       <c r="D162">
         <v>1</v>
       </c>
       <c r="E162">
-        <v>149.48</v>
+        <v>49.58</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4583,19 +4583,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>AMBO</t>
+          <t>LLATA</t>
         </is>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163">
-        <v>4.21</v>
+        <v>7.43</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4609,19 +4609,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DOS DE MAYO</t>
+          <t>HUAMALIES</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>YANAS</t>
+          <t>MONZON</t>
         </is>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E164">
-        <v>49.58</v>
+        <v>642.77</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4635,19 +4635,19 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>LLATA</t>
+          <t>AMARILIS</t>
         </is>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E165">
-        <v>7.43</v>
+        <v>50.27</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4661,19 +4661,19 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>HUAMALIES</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MONZON</t>
+          <t>CHINCHAO</t>
         </is>
       </c>
       <c r="D166">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>633.71</v>
+        <v>15</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4692,14 +4692,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>AMARILIS</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D167">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>50.27</v>
+        <v>12.25</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4718,14 +4718,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CHINCHAO</t>
+          <t>PILLCO MARCA</t>
         </is>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>15</v>
+        <v>5.52</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4744,14 +4744,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>SANTA MARIA DEL VALLE</t>
         </is>
       </c>
       <c r="D169">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>13.27</v>
+        <v>4.44</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4765,19 +4765,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>PILLCO MARCA</t>
+          <t>CASTILLO GRANDE</t>
         </is>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>317</v>
       </c>
       <c r="E170">
-        <v>5.52</v>
+        <v>2276.81</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4791,19 +4791,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SANTA MARIA DEL VALLE</t>
+          <t>DANIEL ALOMIA ROBLES</t>
         </is>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E171">
-        <v>4.44</v>
+        <v>480.29</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4822,14 +4822,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CASTILLO GRANDE</t>
+          <t>HERMILIO VALDIZAN</t>
         </is>
       </c>
       <c r="D172">
-        <v>315</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>2262.44</v>
+        <v>135.28</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DANIEL ALOMIA ROBLES</t>
+          <t>JOSE CRESPO Y CASTILLO</t>
         </is>
       </c>
       <c r="D173">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E173">
-        <v>452.04</v>
+        <v>424.08</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4874,14 +4874,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>HERMILIO VALDIZAN</t>
+          <t>LUYANDO</t>
         </is>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="E174">
-        <v>135.28</v>
+        <v>1719.17</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4900,14 +4900,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>JOSE CRESPO Y CASTILLO</t>
+          <t>MARIANO DAMASO BERAUN</t>
         </is>
       </c>
       <c r="D175">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E175">
-        <v>419.96</v>
+        <v>672.36</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4926,14 +4926,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>LUYANDO</t>
+          <t>PUCAYACU</t>
         </is>
       </c>
       <c r="D176">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>1729.46</v>
+        <v>50.84</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4952,14 +4952,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>MARIANO DAMASO BERAUN</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D177">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E177">
-        <v>680.98</v>
+        <v>553.25</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4978,14 +4978,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>PUCAYACU</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1110</v>
       </c>
       <c r="E178">
-        <v>50.84</v>
+        <v>1832.65</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5004,14 +5004,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SANTO DOMINGO DE ANDA</t>
         </is>
       </c>
       <c r="D179">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E179">
-        <v>553.25</v>
+        <v>306.98</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5025,19 +5025,19 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>CHOLON</t>
         </is>
       </c>
       <c r="D180">
-        <v>1110</v>
+        <v>6</v>
       </c>
       <c r="E180">
-        <v>1832.65</v>
+        <v>106.67</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -5051,19 +5051,19 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>MARAÑON</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ANDA</t>
+          <t>LA MORADA</t>
         </is>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E181">
-        <v>345.36</v>
+        <v>388.7</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5082,14 +5082,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>CHOLON</t>
+          <t>SANTA ROSA DE ALTO YANAJANCA</t>
         </is>
       </c>
       <c r="D182">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>106.67</v>
+        <v>361.4</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5103,19 +5103,19 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>LA MORADA</t>
+          <t>CHAGLLA</t>
         </is>
       </c>
       <c r="D183">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>388.7</v>
+        <v>30.92</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5129,19 +5129,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MARAÑON</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE ALTO YANAJANCA</t>
+          <t>UMARI</t>
         </is>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>361.4</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5155,19 +5155,19 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CHAGLLA</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E185">
-        <v>30.92</v>
+        <v>2284.41</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -5186,14 +5186,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D186">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="E186">
-        <v>2284.41</v>
+        <v>144.09</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -5212,14 +5212,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D187">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="E187">
-        <v>144.09</v>
+        <v>2328.65</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -5238,14 +5238,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D188">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="E188">
-        <v>2328.65</v>
+        <v>279.12</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5264,14 +5264,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D189">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E189">
-        <v>279.12</v>
+        <v>635.84</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5280,27 +5280,27 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D190">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="E190">
-        <v>635.84</v>
+        <v>1354.33</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5316,17 +5316,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>CHAVIN</t>
         </is>
       </c>
       <c r="D191">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>1354.33</v>
+        <v>31.89</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5342,17 +5342,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CHAVIN</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2335</v>
       </c>
       <c r="E192">
-        <v>31.89</v>
+        <v>2846.66</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193">
@@ -5368,17 +5368,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D193">
-        <v>2332</v>
+        <v>148</v>
       </c>
       <c r="E193">
-        <v>2843</v>
+        <v>966.75</v>
       </c>
       <c r="F193">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -5394,14 +5394,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D194">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="E194">
-        <v>966.75</v>
+        <v>666.12</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -5420,17 +5420,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D195">
-        <v>97</v>
+        <v>520</v>
       </c>
       <c r="E195">
-        <v>666.12</v>
+        <v>1685.58</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -5446,17 +5446,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D196">
-        <v>514</v>
+        <v>1973</v>
       </c>
       <c r="E196">
-        <v>1666.13</v>
+        <v>2539.42</v>
       </c>
       <c r="F196">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
@@ -5472,17 +5472,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D197">
-        <v>1972</v>
+        <v>877</v>
       </c>
       <c r="E197">
-        <v>2538.13</v>
+        <v>2517.44</v>
       </c>
       <c r="F197">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -5498,17 +5498,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D198">
-        <v>874</v>
+        <v>84</v>
       </c>
       <c r="E198">
-        <v>2508.83</v>
+        <v>1210.2</v>
       </c>
       <c r="F198">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5519,22 +5519,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D199">
-        <v>84</v>
+        <v>2400</v>
       </c>
       <c r="E199">
-        <v>1210.2</v>
+        <v>1320.27</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -5550,17 +5550,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D200">
-        <v>2395</v>
+        <v>443</v>
       </c>
       <c r="E200">
-        <v>1317.52</v>
+        <v>887.85</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -5576,14 +5576,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D201">
-        <v>439</v>
+        <v>225</v>
       </c>
       <c r="E201">
-        <v>879.83</v>
+        <v>835.16</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D202">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="E202">
-        <v>835.16</v>
+        <v>2542.07</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5628,17 +5628,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D203">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E203">
-        <v>2542.07</v>
+        <v>831.37</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -5654,17 +5654,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D204">
-        <v>74</v>
+        <v>848</v>
       </c>
       <c r="E204">
-        <v>831.37</v>
+        <v>1342.45</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -5680,17 +5680,17 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D205">
-        <v>845</v>
+        <v>137</v>
       </c>
       <c r="E205">
-        <v>1337.7</v>
+        <v>1660.2</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5706,17 +5706,17 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D206">
-        <v>137</v>
+        <v>414</v>
       </c>
       <c r="E206">
-        <v>1660.2</v>
+        <v>1294.64</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5732,17 +5732,17 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D207">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="E207">
-        <v>1294.64</v>
+        <v>2514.55</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5758,14 +5758,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D208">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="E208">
-        <v>2514.55</v>
+        <v>1809.84</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5784,14 +5784,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D209">
-        <v>291</v>
+        <v>576</v>
       </c>
       <c r="E209">
-        <v>1803.64</v>
+        <v>1758.67</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -5810,17 +5810,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D210">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="E210">
-        <v>1749.51</v>
+        <v>1593.78</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5836,17 +5836,17 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D211">
-        <v>549</v>
+        <v>129</v>
       </c>
       <c r="E211">
-        <v>1587.99</v>
+        <v>2334.42</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5862,14 +5862,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D212">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E212">
-        <v>2316.32</v>
+        <v>739.1</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5883,19 +5883,19 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E213">
-        <v>739.1</v>
+        <v>1768.77</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5914,14 +5914,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D214">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>1768.77</v>
+        <v>261.1</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5940,14 +5940,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D215">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E215">
-        <v>261.1</v>
+        <v>66.16</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -5966,17 +5966,17 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D216">
-        <v>13</v>
+        <v>1226</v>
       </c>
       <c r="E216">
-        <v>66.16</v>
+        <v>3865.56</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -5992,17 +5992,17 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D217">
-        <v>1221</v>
+        <v>584</v>
       </c>
       <c r="E217">
-        <v>3849.79</v>
+        <v>2213.38</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -6013,19 +6013,19 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D218">
-        <v>582</v>
+        <v>41</v>
       </c>
       <c r="E218">
-        <v>2205.8</v>
+        <v>2216.22</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D219">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="E219">
-        <v>2216.22</v>
+        <v>1891.59</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -6070,14 +6070,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D220">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="E220">
-        <v>1891.59</v>
+        <v>729.4400000000001</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6096,14 +6096,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D221">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>762.6</v>
+        <v>186.39</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6117,19 +6117,19 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>HUMAY</t>
         </is>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>186.39</v>
+        <v>211.66</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6148,14 +6148,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>HUMAY</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D223">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E223">
-        <v>211.66</v>
+        <v>379.43</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6174,14 +6174,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>PARACAS</t>
         </is>
       </c>
       <c r="D224">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E224">
-        <v>379.43</v>
+        <v>236.73</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -6200,17 +6200,17 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>PARACAS</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="D225">
-        <v>26</v>
+        <v>829</v>
       </c>
       <c r="E225">
-        <v>256.46</v>
+        <v>985.54</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6226,17 +6226,17 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>SAN ANDRES</t>
         </is>
       </c>
       <c r="D226">
-        <v>831</v>
+        <v>111</v>
       </c>
       <c r="E226">
-        <v>987.92</v>
+        <v>650.0700000000001</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6252,14 +6252,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>SAN ANDRES</t>
+          <t>SAN CLEMENTE</t>
         </is>
       </c>
       <c r="D227">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="E227">
-        <v>655.9299999999999</v>
+        <v>720.47</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6278,14 +6278,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>SAN CLEMENTE</t>
+          <t>TUPAC AMARU INCA</t>
         </is>
       </c>
       <c r="D228">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="E228">
-        <v>830.3200000000001</v>
+        <v>1528.06</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -6294,24 +6294,24 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>TUPAC AMARU INCA</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="D229">
-        <v>348</v>
+        <v>565</v>
       </c>
       <c r="E229">
-        <v>1704.38</v>
+        <v>1917.79</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -6330,17 +6330,17 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>PERENE</t>
         </is>
       </c>
       <c r="D230">
-        <v>564</v>
+        <v>758</v>
       </c>
       <c r="E230">
-        <v>1914.4</v>
+        <v>1259.14</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6356,17 +6356,17 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>PERENE</t>
+          <t>PICHANAQUI</t>
         </is>
       </c>
       <c r="D231">
-        <v>755</v>
+        <v>296</v>
       </c>
       <c r="E231">
-        <v>1254.15</v>
+        <v>705.4299999999999</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -6382,17 +6382,17 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>PICHANAQUI</t>
+          <t>SAN LUIS DE SHUARO</t>
         </is>
       </c>
       <c r="D232">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="E232">
-        <v>703.05</v>
+        <v>1108.71</v>
       </c>
       <c r="F232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -6408,17 +6408,17 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>SAN LUIS DE SHUARO</t>
+          <t>SAN RAMON</t>
         </is>
       </c>
       <c r="D233">
-        <v>41</v>
+        <v>480</v>
       </c>
       <c r="E233">
-        <v>1108.71</v>
+        <v>1624.7</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -6434,17 +6434,17 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>SAN RAMON</t>
+          <t>VITOC</t>
         </is>
       </c>
       <c r="D234">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="E234">
-        <v>1624.7</v>
+        <v>185.99</v>
       </c>
       <c r="F234">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -6455,19 +6455,19 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>VITOC</t>
+          <t>CHONGOS BAJO</t>
         </is>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>185.99</v>
+        <v>20.57</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -6481,19 +6481,19 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CHONGOS BAJO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>20.57</v>
+        <v>1.92</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6512,14 +6512,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>1.92</v>
+        <v>0.55</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6538,14 +6538,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E238">
-        <v>0.55</v>
+        <v>7</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6564,14 +6564,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>SANTO DOMINGO DE ACOBAMBA</t>
         </is>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>7</v>
+        <v>16.06</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6585,19 +6585,19 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ACOBAMBA</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D240">
         <v>1</v>
       </c>
       <c r="E240">
-        <v>16.06</v>
+        <v>22.28</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6616,14 +6616,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D241">
         <v>1</v>
       </c>
       <c r="E241">
-        <v>22.28</v>
+        <v>44.46</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6642,14 +6642,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
       <c r="E242">
-        <v>44.46</v>
+        <v>51.15</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6663,19 +6663,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>51.15</v>
+        <v>57.23</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6689,19 +6689,19 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E244">
-        <v>57.23</v>
+        <v>682.49</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6720,14 +6720,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D245">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E245">
-        <v>682.49</v>
+        <v>115.49</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6746,14 +6746,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D246">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E246">
-        <v>115.49</v>
+        <v>203.86</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6772,14 +6772,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D247">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>201.59</v>
+        <v>28.91</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6798,14 +6798,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="E248">
-        <v>28.91</v>
+        <v>414.22</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D249">
-        <v>281</v>
+        <v>116</v>
       </c>
       <c r="E249">
-        <v>411.29</v>
+        <v>326.9</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6850,14 +6850,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D250">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="E250">
-        <v>335.35</v>
+        <v>207.85</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D251">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="E251">
-        <v>211.15</v>
+        <v>710.33</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6902,14 +6902,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D252">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="E252">
-        <v>721.6799999999999</v>
+        <v>228.53</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6923,19 +6923,19 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="D253">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>228.53</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6949,19 +6949,19 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>YAULI</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>SANTA ROSA DE SACCO</t>
         </is>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>8.199999999999999</v>
+        <v>12.49</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6970,24 +6970,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>YAULI</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE SACCO</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E255">
-        <v>12.49</v>
+        <v>1302.27</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7006,14 +7006,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D256">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E256">
-        <v>1302.27</v>
+        <v>334.09</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7032,14 +7032,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D257">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="E257">
-        <v>327.41</v>
+        <v>1657.73</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -7058,14 +7058,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D258">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="E258">
-        <v>1540.64</v>
+        <v>193.05</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7084,14 +7084,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>MAGDALENA DE CAO</t>
         </is>
       </c>
       <c r="D259">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E259">
-        <v>182.89</v>
+        <v>75.47</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7110,14 +7110,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MAGDALENA DE CAO</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="E260">
-        <v>75.47</v>
+        <v>498.77</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D261">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="E261">
-        <v>495.4</v>
+        <v>63.22</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7162,14 +7162,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E262">
-        <v>63.22</v>
+        <v>84.72</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -7183,19 +7183,19 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>BAMBAMARCA</t>
         </is>
       </c>
       <c r="D263">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E263">
-        <v>84.72</v>
+        <v>156.74</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -7214,14 +7214,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>BAMBAMARCA</t>
+          <t>UCUNCHA</t>
         </is>
       </c>
       <c r="D264">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>156.74</v>
+        <v>109.41</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -7235,19 +7235,19 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>UCUNCHA</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>1449</v>
       </c>
       <c r="E265">
-        <v>109.41</v>
+        <v>2895.16</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7266,14 +7266,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>PACANGA</t>
         </is>
       </c>
       <c r="D266">
-        <v>1446</v>
+        <v>190</v>
       </c>
       <c r="E266">
-        <v>2889.17</v>
+        <v>742.42</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7287,19 +7287,19 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>PACANGA</t>
+          <t>CASCAS</t>
         </is>
       </c>
       <c r="D267">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E267">
-        <v>718.97</v>
+        <v>1405.58</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -7313,19 +7313,19 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>JULCAN</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CASCAS</t>
+          <t>CALAMARCA</t>
         </is>
       </c>
       <c r="D268">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E268">
-        <v>1405.58</v>
+        <v>40.36</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7339,19 +7339,19 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>JULCAN</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>CALAMARCA</t>
+          <t>AGALLPAMPA</t>
         </is>
       </c>
       <c r="D269">
         <v>2</v>
       </c>
       <c r="E269">
-        <v>40.36</v>
+        <v>19.35</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7370,14 +7370,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>AGALLPAMPA</t>
+          <t>LA CUESTA</t>
         </is>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>19.35</v>
+        <v>152.91</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7396,14 +7396,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>LA CUESTA</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="D271">
         <v>1</v>
       </c>
       <c r="E271">
-        <v>152.91</v>
+        <v>3.7</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -7417,22 +7417,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>GUADALUPE</t>
         </is>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>781</v>
       </c>
       <c r="E272">
-        <v>3.7</v>
+        <v>1718.52</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -7448,17 +7448,17 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="D273">
-        <v>781</v>
+        <v>133</v>
       </c>
       <c r="E273">
-        <v>1718.52</v>
+        <v>397.77</v>
       </c>
       <c r="F273">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -7474,17 +7474,17 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D274">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="E274">
-        <v>394.78</v>
+        <v>76.88</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -7500,14 +7500,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>SAN PEDRO DE LLOC</t>
         </is>
       </c>
       <c r="D275">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="E275">
-        <v>76.88</v>
+        <v>704.16</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -7521,19 +7521,19 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE LLOC</t>
+          <t>CHILLIA</t>
         </is>
       </c>
       <c r="D276">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="E276">
-        <v>704.16</v>
+        <v>7.47</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -7552,14 +7552,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>CHILLIA</t>
+          <t>PARCOY</t>
         </is>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E277">
-        <v>7.47</v>
+        <v>9.34</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -7578,14 +7578,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>PARCOY</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="E278">
-        <v>9.34</v>
+        <v>1050.08</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7604,14 +7604,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>TAYABAMBA</t>
         </is>
       </c>
       <c r="D279">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>1041.11</v>
+        <v>14.26</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -7625,19 +7625,19 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>SANCHEZ CARRION</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>TAYABAMBA</t>
+          <t>COCHORCO</t>
         </is>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E280">
-        <v>14.26</v>
+        <v>37.73</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -7656,14 +7656,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>COCHORCO</t>
+          <t>HUAMACHUCO</t>
         </is>
       </c>
       <c r="D281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E281">
-        <v>37.73</v>
+        <v>1.18</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -7682,14 +7682,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>HUAMACHUCO</t>
+          <t>SANAGORAN</t>
         </is>
       </c>
       <c r="D282">
         <v>1</v>
       </c>
       <c r="E282">
-        <v>1.18</v>
+        <v>6.42</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7703,19 +7703,19 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SANCHEZ CARRION</t>
+          <t>SANTIAGO DE CHUCO</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SANAGORAN</t>
+          <t>SITABAMBA</t>
         </is>
       </c>
       <c r="D283">
         <v>1</v>
       </c>
       <c r="E283">
-        <v>6.42</v>
+        <v>27.18</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -7729,22 +7729,22 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CHUCO</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>SITABAMBA</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D284">
+        <v>1535</v>
+      </c>
+      <c r="E284">
+        <v>628.04</v>
+      </c>
+      <c r="F284">
         <v>1</v>
-      </c>
-      <c r="E284">
-        <v>27.18</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -7760,17 +7760,17 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>FLORENCIA DE MORA</t>
         </is>
       </c>
       <c r="D285">
-        <v>1484</v>
+        <v>1637</v>
       </c>
       <c r="E285">
-        <v>607.17</v>
+        <v>4029.74</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -7786,17 +7786,17 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA</t>
+          <t>HUANCHACO</t>
         </is>
       </c>
       <c r="D286">
-        <v>1623</v>
+        <v>946</v>
       </c>
       <c r="E286">
-        <v>3995.27</v>
+        <v>990.78</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -7812,17 +7812,17 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>HUANCHACO</t>
+          <t>LA ESPERANZA</t>
         </is>
       </c>
       <c r="D287">
-        <v>932</v>
+        <v>6265</v>
       </c>
       <c r="E287">
-        <v>976.12</v>
+        <v>2628.42</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288">
@@ -7838,17 +7838,17 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>LA ESPERANZA</t>
+          <t>LAREDO</t>
         </is>
       </c>
       <c r="D288">
-        <v>6190</v>
+        <v>602</v>
       </c>
       <c r="E288">
-        <v>2596.96</v>
+        <v>1327.57</v>
       </c>
       <c r="F288">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -7864,14 +7864,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>LAREDO</t>
+          <t>MOCHE</t>
         </is>
       </c>
       <c r="D289">
-        <v>583</v>
+        <v>157</v>
       </c>
       <c r="E289">
-        <v>1285.67</v>
+        <v>342.99</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7890,14 +7890,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>MOCHE</t>
+          <t>POROTO</t>
         </is>
       </c>
       <c r="D290">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>342.99</v>
+        <v>73.14</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7916,14 +7916,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>POROTO</t>
+          <t>SALAVERRY</t>
         </is>
       </c>
       <c r="D291">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="E291">
-        <v>97.51000000000001</v>
+        <v>342.08</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -7942,14 +7942,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SALAVERRY</t>
+          <t>SIMBAL</t>
         </is>
       </c>
       <c r="D292">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>342.08</v>
+        <v>84.42</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -7968,17 +7968,17 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>SIMBAL</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>3399</v>
       </c>
       <c r="E293">
-        <v>84.42</v>
+        <v>942.0700000000001</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
@@ -7994,17 +7994,17 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>VICTOR LARCO HERRERA</t>
         </is>
       </c>
       <c r="D294">
-        <v>3365</v>
+        <v>91</v>
       </c>
       <c r="E294">
-        <v>932.65</v>
+        <v>109.3</v>
       </c>
       <c r="F294">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -8015,22 +8015,22 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA</t>
+          <t>CHAO</t>
         </is>
       </c>
       <c r="D295">
-        <v>91</v>
+        <v>801</v>
       </c>
       <c r="E295">
-        <v>109.3</v>
+        <v>1878.43</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -8046,17 +8046,17 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>CHAO</t>
+          <t>GUADALUPITO</t>
         </is>
       </c>
       <c r="D296">
-        <v>802</v>
+        <v>20</v>
       </c>
       <c r="E296">
-        <v>1880.77</v>
+        <v>247.99</v>
       </c>
       <c r="F296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -8072,43 +8072,43 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>GUADALUPITO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="D297">
-        <v>19</v>
+        <v>1442</v>
       </c>
       <c r="E297">
-        <v>235.59</v>
+        <v>2334.5</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CAYALTI</t>
         </is>
       </c>
       <c r="D298">
-        <v>1431</v>
+        <v>503</v>
       </c>
       <c r="E298">
-        <v>2316.7</v>
+        <v>3275.59</v>
       </c>
       <c r="F298">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -8124,17 +8124,17 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>CAYALTI</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="D299">
-        <v>497</v>
+        <v>10656</v>
       </c>
       <c r="E299">
-        <v>3236.52</v>
+        <v>3586.39</v>
       </c>
       <c r="F299">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="300">
@@ -8150,17 +8150,17 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>CHONGOYAPE</t>
         </is>
       </c>
       <c r="D300">
-        <v>10608</v>
+        <v>349</v>
       </c>
       <c r="E300">
-        <v>3570.24</v>
+        <v>1733.82</v>
       </c>
       <c r="F300">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -8176,17 +8176,17 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>CHONGOYAPE</t>
+          <t>ETEN</t>
         </is>
       </c>
       <c r="D301">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E301">
-        <v>1733.82</v>
+        <v>1978.17</v>
       </c>
       <c r="F301">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -8202,14 +8202,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>ETEN</t>
+          <t>ETEN PUERTO</t>
         </is>
       </c>
       <c r="D302">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="E302">
-        <v>1978.17</v>
+        <v>320.64</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -8228,17 +8228,17 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>ETEN PUERTO</t>
+          <t>JOSE LEONARDO ORTIZ</t>
         </is>
       </c>
       <c r="D303">
-        <v>8</v>
+        <v>3660</v>
       </c>
       <c r="E303">
-        <v>320.64</v>
+        <v>2159.25</v>
       </c>
       <c r="F303">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304">
@@ -8254,17 +8254,17 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="D304">
-        <v>3549</v>
+        <v>2183</v>
       </c>
       <c r="E304">
-        <v>2093.77</v>
+        <v>2153.69</v>
       </c>
       <c r="F304">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305">
@@ -8280,17 +8280,17 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D305">
-        <v>2143</v>
+        <v>124</v>
       </c>
       <c r="E305">
-        <v>2114.23</v>
+        <v>1113.81</v>
       </c>
       <c r="F305">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -8306,14 +8306,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>MONSEFU</t>
         </is>
       </c>
       <c r="D306">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="E306">
-        <v>1104.82</v>
+        <v>494.3</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8332,14 +8332,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>MONSEFU</t>
+          <t>NUEVA ARICA</t>
         </is>
       </c>
       <c r="D307">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="E307">
-        <v>494.3</v>
+        <v>1850.42</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -8358,14 +8358,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>NUEVA ARICA</t>
+          <t>OYOTUN</t>
         </is>
       </c>
       <c r="D308">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="E308">
-        <v>1850.42</v>
+        <v>3420.14</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -8384,14 +8384,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>OYOTUN</t>
+          <t>PATAPO</t>
         </is>
       </c>
       <c r="D309">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E309">
-        <v>3420.14</v>
+        <v>1164.05</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -8410,17 +8410,17 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>PATAPO</t>
+          <t>PICSI</t>
         </is>
       </c>
       <c r="D310">
-        <v>300</v>
+        <v>493</v>
       </c>
       <c r="E310">
-        <v>1164.05</v>
+        <v>3295.23</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -8436,17 +8436,17 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>PICSI</t>
+          <t>PIMENTEL</t>
         </is>
       </c>
       <c r="D311">
-        <v>494</v>
+        <v>293</v>
       </c>
       <c r="E311">
-        <v>3301.92</v>
+        <v>553.13</v>
       </c>
       <c r="F311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -8462,14 +8462,14 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>PIMENTEL</t>
+          <t>POMALCA</t>
         </is>
       </c>
       <c r="D312">
-        <v>292</v>
+        <v>438</v>
       </c>
       <c r="E312">
-        <v>551.25</v>
+        <v>1569.67</v>
       </c>
       <c r="F312">
         <v>3</v>
@@ -8488,17 +8488,17 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>POMALCA</t>
+          <t>PUCALA</t>
         </is>
       </c>
       <c r="D313">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="E313">
-        <v>1533.83</v>
+        <v>4126.53</v>
       </c>
       <c r="F313">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -8514,17 +8514,17 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>PUCALA</t>
+          <t>REQUE</t>
         </is>
       </c>
       <c r="D314">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="E314">
-        <v>4126.53</v>
+        <v>1087.49</v>
       </c>
       <c r="F314">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -8540,17 +8540,17 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>REQUE</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D315">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="E315">
-        <v>1082.05</v>
+        <v>207.35</v>
       </c>
       <c r="F315">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -8566,14 +8566,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAÑA</t>
         </is>
       </c>
       <c r="D316">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="E316">
-        <v>207.35</v>
+        <v>2668.77</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -8592,17 +8592,17 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>SAÑA</t>
+          <t>TUMAN</t>
         </is>
       </c>
       <c r="D317">
-        <v>337</v>
+        <v>575</v>
       </c>
       <c r="E317">
-        <v>2660.88</v>
+        <v>1894</v>
       </c>
       <c r="F317">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
@@ -8613,22 +8613,22 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>TUMAN</t>
+          <t>CAÑARIS</t>
         </is>
       </c>
       <c r="D318">
-        <v>573</v>
+        <v>1</v>
       </c>
       <c r="E318">
-        <v>1887.41</v>
+        <v>7.99</v>
       </c>
       <c r="F318">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -8644,17 +8644,17 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>CAÑARIS</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>1051</v>
       </c>
       <c r="E319">
-        <v>7.99</v>
+        <v>2695.56</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320">
@@ -8670,17 +8670,17 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>INCAHUASI</t>
         </is>
       </c>
       <c r="D320">
-        <v>1051</v>
+        <v>1</v>
       </c>
       <c r="E320">
-        <v>2695.56</v>
+        <v>6.38</v>
       </c>
       <c r="F320">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -8696,17 +8696,17 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>INCAHUASI</t>
+          <t>MANUEL ANTONIO MESONES MURO</t>
         </is>
       </c>
       <c r="D321">
+        <v>24</v>
+      </c>
+      <c r="E321">
+        <v>562.59</v>
+      </c>
+      <c r="F321">
         <v>1</v>
-      </c>
-      <c r="E321">
-        <v>6.38</v>
-      </c>
-      <c r="F321">
-        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -8722,17 +8722,17 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>MANUEL ANTONIO MESONES MURO</t>
+          <t>PITIPO</t>
         </is>
       </c>
       <c r="D322">
-        <v>24</v>
+        <v>787</v>
       </c>
       <c r="E322">
-        <v>562.59</v>
+        <v>3500.42</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -8748,17 +8748,17 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>PITIPO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D323">
-        <v>788</v>
+        <v>421</v>
       </c>
       <c r="E323">
-        <v>3504.87</v>
+        <v>2592.68</v>
       </c>
       <c r="F323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -8769,19 +8769,19 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>CHOCHOPE</t>
         </is>
       </c>
       <c r="D324">
-        <v>421</v>
+        <v>22</v>
       </c>
       <c r="E324">
-        <v>2592.68</v>
+        <v>1305.64</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -8800,14 +8800,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>CHOCHOPE</t>
+          <t>ILLIMO</t>
         </is>
       </c>
       <c r="D325">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="E325">
-        <v>1305.64</v>
+        <v>3089.27</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -8826,17 +8826,17 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>ILLIMO</t>
+          <t>JAYANCA</t>
         </is>
       </c>
       <c r="D326">
-        <v>308</v>
+        <v>650</v>
       </c>
       <c r="E326">
-        <v>3089.27</v>
+        <v>3099.96</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -8852,17 +8852,17 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>JAYANCA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="D327">
-        <v>649</v>
+        <v>1097</v>
       </c>
       <c r="E327">
-        <v>3095.19</v>
+        <v>1284.35</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
@@ -8878,17 +8878,17 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>MOCHUMI</t>
         </is>
       </c>
       <c r="D328">
-        <v>1096</v>
+        <v>102</v>
       </c>
       <c r="E328">
-        <v>1283.18</v>
+        <v>483.89</v>
       </c>
       <c r="F328">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -8904,17 +8904,17 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>MOCHUMI</t>
+          <t>MORROPE</t>
         </is>
       </c>
       <c r="D329">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="E329">
-        <v>464.92</v>
+        <v>357.67</v>
       </c>
       <c r="F329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -8930,17 +8930,17 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>MORROPE</t>
+          <t>MOTUPE</t>
         </is>
       </c>
       <c r="D330">
-        <v>211</v>
+        <v>1384</v>
       </c>
       <c r="E330">
-        <v>357.67</v>
+        <v>3827.54</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -8956,14 +8956,14 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>MOTUPE</t>
+          <t>OLMOS</t>
         </is>
       </c>
       <c r="D331">
-        <v>1384</v>
+        <v>631</v>
       </c>
       <c r="E331">
-        <v>3827.54</v>
+        <v>1083.08</v>
       </c>
       <c r="F331">
         <v>2</v>
@@ -8982,17 +8982,17 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>OLMOS</t>
+          <t>PACORA</t>
         </is>
       </c>
       <c r="D332">
-        <v>619</v>
+        <v>241</v>
       </c>
       <c r="E332">
-        <v>1062.48</v>
+        <v>2560.29</v>
       </c>
       <c r="F332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -9008,14 +9008,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>PACORA</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D333">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="E333">
-        <v>2560.29</v>
+        <v>782.1900000000001</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -9034,14 +9034,14 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D334">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="E334">
-        <v>782.1900000000001</v>
+        <v>817.95</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9060,14 +9060,14 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>TUCUME</t>
         </is>
       </c>
       <c r="D335">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="E335">
-        <v>812.71</v>
+        <v>361.76</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -9076,24 +9076,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>TUCUME</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D336">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E336">
-        <v>361.76</v>
+        <v>10.63</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -9112,14 +9112,14 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>SUPE</t>
         </is>
       </c>
       <c r="D337">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E337">
-        <v>10.63</v>
+        <v>275.04</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9138,14 +9138,14 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>SUPE</t>
+          <t>SUPE PUERTO</t>
         </is>
       </c>
       <c r="D338">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E338">
-        <v>267.61</v>
+        <v>1384.41</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9159,19 +9159,19 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>CAJATAMBO</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>SUPE PUERTO</t>
+          <t>CAJATAMBO</t>
         </is>
       </c>
       <c r="D339">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="E339">
-        <v>1377.23</v>
+        <v>54.41</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -9185,19 +9185,19 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CAJATAMBO</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>CAJATAMBO</t>
+          <t>CANTA</t>
         </is>
       </c>
       <c r="D340">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E340">
-        <v>54.41</v>
+        <v>183.49</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -9216,14 +9216,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>SANTA ROSA DE QUIVES</t>
         </is>
       </c>
       <c r="D341">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E341">
-        <v>183.49</v>
+        <v>34.76</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -9237,19 +9237,19 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CANTA</t>
+          <t>CAÑETE</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE QUIVES</t>
+          <t>ASIA</t>
         </is>
       </c>
       <c r="D342">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E342">
-        <v>34.76</v>
+        <v>389.38</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -9268,14 +9268,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>ASIA</t>
+          <t>CERRO AZUL</t>
         </is>
       </c>
       <c r="D343">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E343">
-        <v>389.38</v>
+        <v>63.23</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -9294,14 +9294,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D344">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E344">
-        <v>63.23</v>
+        <v>213.78</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9320,14 +9320,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>COAYLLO</t>
         </is>
       </c>
       <c r="D345">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E345">
-        <v>213.78</v>
+        <v>90.83</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -9346,14 +9346,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>COAYLLO</t>
+          <t>IMPERIAL</t>
         </is>
       </c>
       <c r="D346">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="E346">
-        <v>90.83</v>
+        <v>189.43</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -9372,14 +9372,14 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>IMPERIAL</t>
+          <t>LUNAHUANA</t>
         </is>
       </c>
       <c r="D347">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="E347">
-        <v>189.43</v>
+        <v>49.21</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -9398,17 +9398,17 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>LUNAHUANA</t>
+          <t>MALA</t>
         </is>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>839</v>
       </c>
       <c r="E348">
-        <v>49.21</v>
+        <v>2381.02</v>
       </c>
       <c r="F348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -9424,17 +9424,17 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>MALA</t>
+          <t>NUEVO IMPERIAL</t>
         </is>
       </c>
       <c r="D349">
-        <v>839</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>2381.02</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="F349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -9450,14 +9450,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>NUEVO IMPERIAL</t>
+          <t>QUILMANA</t>
         </is>
       </c>
       <c r="D350">
-        <v>25</v>
+        <v>420</v>
       </c>
       <c r="E350">
-        <v>83.11</v>
+        <v>2483.59</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -9476,14 +9476,14 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>QUILMANA</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D351">
-        <v>418</v>
+        <v>29</v>
       </c>
       <c r="E351">
-        <v>2471.76</v>
+        <v>604.17</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9502,14 +9502,14 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="D352">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E352">
-        <v>604.17</v>
+        <v>81.17</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -9528,14 +9528,14 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN VICENTE DE CAÑETE</t>
         </is>
       </c>
       <c r="D353">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E353">
-        <v>73.8</v>
+        <v>128.28</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -9554,14 +9554,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>SAN VICENTE DE CAÑETE</t>
+          <t>SANTA CRUZ DE FLORES</t>
         </is>
       </c>
       <c r="D354">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E354">
-        <v>126.69</v>
+        <v>242.2</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -9575,19 +9575,19 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>CAÑETE</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE FLORES</t>
+          <t>AUCALLAMA</t>
         </is>
       </c>
       <c r="D355">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E355">
-        <v>242.2</v>
+        <v>4.5</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -9606,14 +9606,14 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>AUCALLAMA</t>
+          <t>CHANCAY</t>
         </is>
       </c>
       <c r="D356">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E356">
-        <v>4.5</v>
+        <v>6.32</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9632,14 +9632,14 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>CHANCAY</t>
+          <t>HUARAL</t>
         </is>
       </c>
       <c r="D357">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E357">
-        <v>6.32</v>
+        <v>18.17</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9658,14 +9658,14 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>IHUARI</t>
         </is>
       </c>
       <c r="D358">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E358">
-        <v>18.17</v>
+        <v>51.26</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9684,14 +9684,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>IHUARI</t>
+          <t>SANTA CRUZ DE ANDAMARCA</t>
         </is>
       </c>
       <c r="D359">
         <v>1</v>
       </c>
       <c r="E359">
-        <v>51.26</v>
+        <v>135.32</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9705,19 +9705,19 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>HUARAL</t>
+          <t>HUAROCHIRI</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE ANDAMARCA</t>
+          <t>ANTIOQUIA</t>
         </is>
       </c>
       <c r="D360">
         <v>1</v>
       </c>
       <c r="E360">
-        <v>135.32</v>
+        <v>84.03</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -9736,14 +9736,14 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>ANTIOQUIA</t>
+          <t>CALLAHUANCA</t>
         </is>
       </c>
       <c r="D361">
         <v>1</v>
       </c>
       <c r="E361">
-        <v>84.03</v>
+        <v>161.03</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -9762,14 +9762,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>CALLAHUANCA</t>
+          <t>HUAROCHIRI</t>
         </is>
       </c>
       <c r="D362">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E362">
-        <v>161.03</v>
+        <v>841.75</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9788,14 +9788,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>HUAROCHIRI</t>
+          <t>MATUCANA</t>
         </is>
       </c>
       <c r="D363">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E363">
-        <v>841.75</v>
+        <v>101.91</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -9814,14 +9814,14 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>MATUCANA</t>
+          <t>RICARDO PALMA</t>
         </is>
       </c>
       <c r="D364">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E364">
-        <v>101.91</v>
+        <v>588.41</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -9840,14 +9840,14 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>RICARDO PALMA</t>
+          <t>SAN ANTONIO</t>
         </is>
       </c>
       <c r="D365">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="E365">
-        <v>588.41</v>
+        <v>2741.36</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -9866,14 +9866,14 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>SAN BARTOLOME</t>
         </is>
       </c>
       <c r="D366">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="E366">
-        <v>2741.36</v>
+        <v>97.94</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -9892,14 +9892,14 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>SAN BARTOLOME</t>
+          <t>SAN MATEO</t>
         </is>
       </c>
       <c r="D367">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E367">
-        <v>97.94</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -9918,14 +9918,14 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>SAN MATEO</t>
+          <t>SAN MATEO DE OTAO</t>
         </is>
       </c>
       <c r="D368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E368">
-        <v>79.01000000000001</v>
+        <v>314.22</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -9944,14 +9944,14 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>SAN MATEO DE OTAO</t>
+          <t>SANTA CRUZ DE COCACHACRA</t>
         </is>
       </c>
       <c r="D369">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E369">
-        <v>314.22</v>
+        <v>192.46</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -9970,14 +9970,14 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE COCACHACRA</t>
+          <t>SANTA EULALIA</t>
         </is>
       </c>
       <c r="D370">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E370">
-        <v>192.46</v>
+        <v>324.8</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -9996,14 +9996,14 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>SANTA EULALIA</t>
+          <t>SURCO</t>
         </is>
       </c>
       <c r="D371">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E371">
-        <v>324.8</v>
+        <v>152.09</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -10017,19 +10017,19 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>HUAROCHIRI</t>
+          <t>HUAURA</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>SURCO</t>
+          <t>HUACHO</t>
         </is>
       </c>
       <c r="D372">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E372">
-        <v>228.14</v>
+        <v>21.97</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -10048,14 +10048,14 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>HUACHO</t>
+          <t>HUALMAY</t>
         </is>
       </c>
       <c r="D373">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E373">
-        <v>21.97</v>
+        <v>6.79</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -10074,14 +10074,14 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>HUALMAY</t>
+          <t>HUAURA</t>
         </is>
       </c>
       <c r="D374">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E374">
-        <v>6.79</v>
+        <v>10.47</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -10100,14 +10100,14 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>HUAURA</t>
+          <t>SANTA MARIA</t>
         </is>
       </c>
       <c r="D375">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E375">
-        <v>10.47</v>
+        <v>39.15</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -10126,14 +10126,14 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>SANTA MARIA</t>
+          <t>SAYAN</t>
         </is>
       </c>
       <c r="D376">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E376">
-        <v>39.15</v>
+        <v>3.92</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -10147,19 +10147,19 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>HUAURA</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>SAYAN</t>
+          <t>ANCON</t>
         </is>
       </c>
       <c r="D377">
-        <v>1</v>
+        <v>682</v>
       </c>
       <c r="E377">
-        <v>3.92</v>
+        <v>748.05</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -10178,17 +10178,17 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>ANCON</t>
+          <t>ATE</t>
         </is>
       </c>
       <c r="D378">
-        <v>681</v>
+        <v>1771</v>
       </c>
       <c r="E378">
-        <v>746.96</v>
+        <v>248.35</v>
       </c>
       <c r="F378">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -10204,17 +10204,17 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>BARRANCO</t>
         </is>
       </c>
       <c r="D379">
-        <v>1775</v>
+        <v>19</v>
       </c>
       <c r="E379">
-        <v>248.91</v>
+        <v>50.63</v>
       </c>
       <c r="F379">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -10230,14 +10230,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>BARRANCO</t>
+          <t>BREÑA</t>
         </is>
       </c>
       <c r="D380">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E380">
-        <v>50.63</v>
+        <v>41.88</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10256,17 +10256,17 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>BREÑA</t>
+          <t>CARABAYLLO</t>
         </is>
       </c>
       <c r="D381">
-        <v>41</v>
+        <v>2463</v>
       </c>
       <c r="E381">
-        <v>41.88</v>
+        <v>576.84</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -10282,17 +10282,17 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>CARABAYLLO</t>
+          <t>CHACLACAYO</t>
         </is>
       </c>
       <c r="D382">
-        <v>2451</v>
+        <v>691</v>
       </c>
       <c r="E382">
-        <v>574.02</v>
+        <v>1494.86</v>
       </c>
       <c r="F382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -10308,14 +10308,14 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>CHACLACAYO</t>
+          <t>CHORRILLOS</t>
         </is>
       </c>
       <c r="D383">
-        <v>691</v>
+        <v>237</v>
       </c>
       <c r="E383">
-        <v>1494.86</v>
+        <v>63.48</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -10334,14 +10334,14 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>CIENEGUILLA</t>
         </is>
       </c>
       <c r="D384">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="E384">
-        <v>63.48</v>
+        <v>521.1</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -10360,17 +10360,17 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>CIENEGUILLA</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="D385">
-        <v>211</v>
+        <v>4147</v>
       </c>
       <c r="E385">
-        <v>518.64</v>
+        <v>693.17</v>
       </c>
       <c r="F385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -10386,17 +10386,17 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>COMAS</t>
+          <t>EL AGUSTINO</t>
         </is>
       </c>
       <c r="D386">
-        <v>4055</v>
+        <v>252</v>
       </c>
       <c r="E386">
-        <v>677.8</v>
+        <v>107.8</v>
       </c>
       <c r="F386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -10412,14 +10412,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>EL AGUSTINO</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D387">
-        <v>250</v>
+        <v>1675</v>
       </c>
       <c r="E387">
-        <v>106.95</v>
+        <v>719.73</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10438,14 +10438,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="D388">
-        <v>1682</v>
+        <v>73</v>
       </c>
       <c r="E388">
-        <v>722.74</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -10464,14 +10464,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="D389">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="E389">
-        <v>84.01000000000001</v>
+        <v>153.99</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -10490,14 +10490,14 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="D390">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="E390">
-        <v>154.59</v>
+        <v>51.12</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10516,14 +10516,14 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D391">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="E391">
-        <v>51.63</v>
+        <v>114.29</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -10542,14 +10542,14 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="D392">
-        <v>311</v>
+        <v>69</v>
       </c>
       <c r="E392">
-        <v>112.48</v>
+        <v>108.06</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -10568,14 +10568,14 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>LOS OLIVOS</t>
         </is>
       </c>
       <c r="D393">
-        <v>69</v>
+        <v>799</v>
       </c>
       <c r="E393">
-        <v>108.06</v>
+        <v>217.86</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10594,17 +10594,17 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>LOS OLIVOS</t>
+          <t>LURIGANCHO</t>
         </is>
       </c>
       <c r="D394">
-        <v>801</v>
+        <v>1368</v>
       </c>
       <c r="E394">
-        <v>218.4</v>
+        <v>450.05</v>
       </c>
       <c r="F394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -10620,17 +10620,17 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>LURIGANCHO</t>
+          <t>LURIN</t>
         </is>
       </c>
       <c r="D395">
-        <v>1370</v>
+        <v>150</v>
       </c>
       <c r="E395">
-        <v>450.71</v>
+        <v>130.06</v>
       </c>
       <c r="F395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -10646,14 +10646,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>LURIN</t>
+          <t>MAGDALENA DEL MAR</t>
         </is>
       </c>
       <c r="D396">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="E396">
-        <v>129.19</v>
+        <v>48.93</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -10672,14 +10672,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>MAGDALENA DEL MAR</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="D397">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E397">
-        <v>48.93</v>
+        <v>30.04</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -10698,14 +10698,14 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>PACHACAMAC</t>
         </is>
       </c>
       <c r="D398">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="E398">
-        <v>30.04</v>
+        <v>115.54</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -10724,14 +10724,14 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>PACHACAMAC</t>
+          <t>PUCUSANA</t>
         </is>
       </c>
       <c r="D399">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="E399">
-        <v>115.54</v>
+        <v>341.07</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -10750,14 +10750,14 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>PUCUSANA</t>
+          <t>PUEBLO LIBRE</t>
         </is>
       </c>
       <c r="D400">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E400">
-        <v>341.07</v>
+        <v>68.28</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -10776,17 +10776,17 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>PUEBLO LIBRE</t>
+          <t>PUENTE PIEDRA</t>
         </is>
       </c>
       <c r="D401">
-        <v>67</v>
+        <v>2677</v>
       </c>
       <c r="E401">
-        <v>67.28</v>
+        <v>642.6900000000001</v>
       </c>
       <c r="F401">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402">
@@ -10802,17 +10802,17 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>PUENTE PIEDRA</t>
+          <t>PUNTA HERMOSA</t>
         </is>
       </c>
       <c r="D402">
-        <v>2693</v>
+        <v>6</v>
       </c>
       <c r="E402">
-        <v>646.53</v>
+        <v>26</v>
       </c>
       <c r="F402">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -10828,14 +10828,14 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>PUNTA HERMOSA</t>
+          <t>PUNTA NEGRA</t>
         </is>
       </c>
       <c r="D403">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E403">
-        <v>26</v>
+        <v>22.44</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -10854,17 +10854,17 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>PUNTA NEGRA</t>
+          <t>RIMAC</t>
         </is>
       </c>
       <c r="D404">
-        <v>2</v>
+        <v>1610</v>
       </c>
       <c r="E404">
-        <v>22.44</v>
+        <v>858.84</v>
       </c>
       <c r="F404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -10880,17 +10880,17 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>RIMAC</t>
+          <t>SAN BARTOLO</t>
         </is>
       </c>
       <c r="D405">
-        <v>1612</v>
+        <v>37</v>
       </c>
       <c r="E405">
-        <v>859.91</v>
+        <v>392.61</v>
       </c>
       <c r="F405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -10906,14 +10906,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>SAN BARTOLO</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="D406">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E406">
-        <v>392.61</v>
+        <v>40.5</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -10932,14 +10932,14 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="D407">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E407">
-        <v>39.75</v>
+        <v>30.97</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -10958,14 +10958,14 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>SAN JUAN DE LURIGANCHO</t>
         </is>
       </c>
       <c r="D408">
-        <v>22</v>
+        <v>4240</v>
       </c>
       <c r="E408">
-        <v>30.97</v>
+        <v>341.8</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -10984,14 +10984,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LURIGANCHO</t>
+          <t>SAN JUAN DE MIRAFLORES</t>
         </is>
       </c>
       <c r="D409">
-        <v>4236</v>
+        <v>1992</v>
       </c>
       <c r="E409">
-        <v>341.48</v>
+        <v>462.43</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -11010,14 +11010,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>SAN JUAN DE MIRAFLORES</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="D410">
-        <v>1990</v>
+        <v>25</v>
       </c>
       <c r="E410">
-        <v>461.96</v>
+        <v>43.1</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -11036,17 +11036,17 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN MARTIN DE PORRES</t>
         </is>
       </c>
       <c r="D411">
-        <v>25</v>
+        <v>1466</v>
       </c>
       <c r="E411">
-        <v>43.1</v>
+        <v>187.45</v>
       </c>
       <c r="F411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -11062,17 +11062,17 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>SAN MARTIN DE PORRES</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="D412">
-        <v>1468</v>
+        <v>46</v>
       </c>
       <c r="E412">
-        <v>187.71</v>
+        <v>25.05</v>
       </c>
       <c r="F412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -11088,14 +11088,14 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SANTA ANITA</t>
         </is>
       </c>
       <c r="D413">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="E413">
-        <v>25.05</v>
+        <v>76.91</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -11114,14 +11114,14 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>SANTA ANITA</t>
+          <t>SANTA MARIA DEL MAR</t>
         </is>
       </c>
       <c r="D414">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="E414">
-        <v>79.06</v>
+        <v>559.55</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -11140,14 +11140,14 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>SANTA MARIA DEL MAR</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D415">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E415">
-        <v>559.55</v>
+        <v>247.48</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -11166,14 +11166,14 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="D416">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="E416">
-        <v>249.89</v>
+        <v>42.65</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -11192,14 +11192,14 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>SURQUILLO</t>
         </is>
       </c>
       <c r="D417">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="E417">
-        <v>42.41</v>
+        <v>32.43</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -11218,14 +11218,14 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>SURQUILLO</t>
+          <t>VILLA EL SALVADOR</t>
         </is>
       </c>
       <c r="D418">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="E418">
-        <v>32.43</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -11244,14 +11244,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>VILLA MARIA DEL TRIUNFO</t>
         </is>
       </c>
       <c r="D419">
-        <v>361</v>
+        <v>1111</v>
       </c>
       <c r="E419">
-        <v>81.70999999999999</v>
+        <v>242.04</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -11265,19 +11265,19 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>OYON</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>VILLA MARIA DEL TRIUNFO</t>
+          <t>OYON</t>
         </is>
       </c>
       <c r="D420">
-        <v>1110</v>
+        <v>1</v>
       </c>
       <c r="E420">
-        <v>241.82</v>
+        <v>8.66</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -11296,14 +11296,14 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>OYON</t>
+          <t>PACHANGARA</t>
         </is>
       </c>
       <c r="D421">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E421">
-        <v>8.66</v>
+        <v>131.29</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -11317,19 +11317,19 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>OYON</t>
+          <t>YAUYOS</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>PACHANGARA</t>
+          <t>ALLAUCA</t>
         </is>
       </c>
       <c r="D422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E422">
-        <v>131.29</v>
+        <v>102.56</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -11348,14 +11348,14 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>ALLAUCA</t>
+          <t>HONGOS</t>
         </is>
       </c>
       <c r="D423">
         <v>1</v>
       </c>
       <c r="E423">
-        <v>102.56</v>
+        <v>333.33</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -11374,14 +11374,14 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>HONGOS</t>
+          <t>HUANCAYA</t>
         </is>
       </c>
       <c r="D424">
         <v>1</v>
       </c>
       <c r="E424">
-        <v>333.33</v>
+        <v>216.45</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -11400,14 +11400,14 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>HUANCAYA</t>
+          <t>YAUYOS</t>
         </is>
       </c>
       <c r="D425">
         <v>1</v>
       </c>
       <c r="E425">
-        <v>216.45</v>
+        <v>86.36</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -11416,24 +11416,24 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>YAUYOS</t>
+          <t>ALTO AMAZONAS</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>YAUYOS</t>
+          <t>BALSAPUERTO</t>
         </is>
       </c>
       <c r="D426">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E426">
-        <v>86.36</v>
+        <v>122.6</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -11452,14 +11452,14 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>BALSAPUERTO</t>
+          <t>JEBEROS</t>
         </is>
       </c>
       <c r="D427">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E427">
-        <v>122.6</v>
+        <v>1002.16</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -11478,17 +11478,17 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>JEBEROS</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D428">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="E428">
-        <v>1002.16</v>
+        <v>1739.55</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -11504,17 +11504,17 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D429">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="E429">
-        <v>1739.55</v>
+        <v>154.05</v>
       </c>
       <c r="F429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -11530,14 +11530,14 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>TENIENTE CESAR LOPEZ ROJAS</t>
         </is>
       </c>
       <c r="D430">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E430">
-        <v>154.05</v>
+        <v>395.32</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -11556,14 +11556,14 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>TENIENTE CESAR LOPEZ ROJAS</t>
+          <t>YURIMAGUAS</t>
         </is>
       </c>
       <c r="D431">
-        <v>26</v>
+        <v>1779</v>
       </c>
       <c r="E431">
-        <v>395.32</v>
+        <v>1590.3</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -11577,19 +11577,19 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ALTO AMAZONAS</t>
+          <t>DATEM DEL MARAÑON</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>YURIMAGUAS</t>
+          <t>ANDOAS</t>
         </is>
       </c>
       <c r="D432">
-        <v>1771</v>
+        <v>4</v>
       </c>
       <c r="E432">
-        <v>1583.14</v>
+        <v>24.22</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -11608,14 +11608,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>ANDOAS</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D433">
-        <v>4</v>
+        <v>562</v>
       </c>
       <c r="E433">
-        <v>24.22</v>
+        <v>3291.17</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -11634,17 +11634,17 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>MANSERICHE</t>
         </is>
       </c>
       <c r="D434">
-        <v>562</v>
+        <v>48</v>
       </c>
       <c r="E434">
-        <v>3291.17</v>
+        <v>469.35</v>
       </c>
       <c r="F434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -11660,17 +11660,17 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>MANSERICHE</t>
+          <t>MORONA</t>
         </is>
       </c>
       <c r="D435">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="E435">
-        <v>469.35</v>
+        <v>3013.22</v>
       </c>
       <c r="F435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -11686,14 +11686,14 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>MORONA</t>
+          <t>PASTAZA</t>
         </is>
       </c>
       <c r="D436">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="E436">
-        <v>3013.22</v>
+        <v>285.93</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -11707,19 +11707,19 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>DATEM DEL MARAÑON</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>PASTAZA</t>
+          <t>NAUTA</t>
         </is>
       </c>
       <c r="D437">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="E437">
-        <v>285.93</v>
+        <v>342.74</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -11738,14 +11738,14 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>NAUTA</t>
+          <t>PARINARI</t>
         </is>
       </c>
       <c r="D438">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="E438">
-        <v>339.88</v>
+        <v>738.6</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -11764,14 +11764,14 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>PARINARI</t>
+          <t>TIGRE</t>
         </is>
       </c>
       <c r="D439">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E439">
-        <v>738.6</v>
+        <v>265.89</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -11790,14 +11790,14 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>TIGRE</t>
+          <t>TROMPETEROS</t>
         </is>
       </c>
       <c r="D440">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E440">
-        <v>265.89</v>
+        <v>203.41</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -11816,14 +11816,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>TROMPETEROS</t>
+          <t>URARINAS</t>
         </is>
       </c>
       <c r="D441">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E441">
-        <v>203.41</v>
+        <v>14.09</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -11837,19 +11837,19 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>MARISCAL RAMON CASTILLA</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>URARINAS</t>
+          <t>PEBAS</t>
         </is>
       </c>
       <c r="D442">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E442">
-        <v>14.09</v>
+        <v>273.03</v>
       </c>
       <c r="F442">
         <v>0</v>
@@ -11868,14 +11868,14 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>PEBAS</t>
+          <t>RAMON CASTILLA</t>
         </is>
       </c>
       <c r="D443">
-        <v>35</v>
+        <v>393</v>
       </c>
       <c r="E443">
-        <v>273.03</v>
+        <v>1575.53</v>
       </c>
       <c r="F443">
         <v>0</v>
@@ -11894,14 +11894,14 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>RAMON CASTILLA</t>
+          <t>SAN PABLO</t>
         </is>
       </c>
       <c r="D444">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="E444">
-        <v>1575.53</v>
+        <v>121.41</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -11920,14 +11920,14 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>SAN PABLO</t>
+          <t>YAVARI</t>
         </is>
       </c>
       <c r="D445">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E445">
-        <v>121.41</v>
+        <v>96.44</v>
       </c>
       <c r="F445">
         <v>0</v>
@@ -11941,19 +11941,19 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>MARISCAL RAMON CASTILLA</t>
+          <t>MAYNAS</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>YAVARI</t>
+          <t>ALTO NANAY</t>
         </is>
       </c>
       <c r="D446">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E446">
-        <v>96.44</v>
+        <v>57.41</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -11972,14 +11972,14 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>ALTO NANAY</t>
+          <t>BELEN</t>
         </is>
       </c>
       <c r="D447">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="E447">
-        <v>57.41</v>
+        <v>272.77</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -11998,14 +11998,14 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>BELEN</t>
+          <t>FERNANDO LORES</t>
         </is>
       </c>
       <c r="D448">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="E448">
-        <v>267.23</v>
+        <v>257.71</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -12024,14 +12024,14 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>FERNANDO LORES</t>
+          <t>INDIANA</t>
         </is>
       </c>
       <c r="D449">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E449">
-        <v>257.71</v>
+        <v>327.1</v>
       </c>
       <c r="F449">
         <v>0</v>
@@ -12050,14 +12050,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>INDIANA</t>
+          <t>IQUITOS</t>
         </is>
       </c>
       <c r="D450">
-        <v>39</v>
+        <v>1420</v>
       </c>
       <c r="E450">
-        <v>327.1</v>
+        <v>858.99</v>
       </c>
       <c r="F450">
         <v>0</v>
@@ -12076,14 +12076,14 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>IQUITOS</t>
+          <t>LAS AMAZONAS</t>
         </is>
       </c>
       <c r="D451">
-        <v>1419</v>
+        <v>7</v>
       </c>
       <c r="E451">
-        <v>858.39</v>
+        <v>81.75</v>
       </c>
       <c r="F451">
         <v>0</v>
@@ -12102,14 +12102,14 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>LAS AMAZONAS</t>
+          <t>MAZAN</t>
         </is>
       </c>
       <c r="D452">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E452">
-        <v>81.75</v>
+        <v>261.47</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -12128,14 +12128,14 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>MAZAN</t>
+          <t>NAPO</t>
         </is>
       </c>
       <c r="D453">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E453">
-        <v>261.47</v>
+        <v>43.98</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -12154,14 +12154,14 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>NAPO</t>
+          <t>PUNCHANA</t>
         </is>
       </c>
       <c r="D454">
-        <v>8</v>
+        <v>1475</v>
       </c>
       <c r="E454">
-        <v>43.98</v>
+        <v>1610.17</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12180,14 +12180,14 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>PUNCHANA</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D455">
-        <v>1474</v>
+        <v>541</v>
       </c>
       <c r="E455">
-        <v>1609.08</v>
+        <v>340.9</v>
       </c>
       <c r="F455">
         <v>0</v>
@@ -12206,14 +12206,14 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>TORRES CAUSANA</t>
         </is>
       </c>
       <c r="D456">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="E456">
-        <v>337.12</v>
+        <v>56.52</v>
       </c>
       <c r="F456">
         <v>0</v>
@@ -12227,19 +12227,19 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>MAYNAS</t>
+          <t>PUTUMAYO</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TORRES CAUSANA</t>
+          <t>PUTUMAYO</t>
         </is>
       </c>
       <c r="D457">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="E457">
-        <v>56.52</v>
+        <v>4197.37</v>
       </c>
       <c r="F457">
         <v>0</v>
@@ -12258,14 +12258,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>PUTUMAYO</t>
+          <t>ROSA PANDURO</t>
         </is>
       </c>
       <c r="D458">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="E458">
-        <v>4197.37</v>
+        <v>505.05</v>
       </c>
       <c r="F458">
         <v>0</v>
@@ -12284,14 +12284,14 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>ROSA PANDURO</t>
+          <t>TENIENTE MANUEL CLAVERO</t>
         </is>
       </c>
       <c r="D459">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E459">
-        <v>505.05</v>
+        <v>4844.72</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -12305,19 +12305,19 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>PUTUMAYO</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>TENIENTE MANUEL CLAVERO</t>
+          <t>ALTO TAPICHE</t>
         </is>
       </c>
       <c r="D460">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E460">
-        <v>4844.72</v>
+        <v>178.04</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -12336,14 +12336,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>ALTO TAPICHE</t>
+          <t>EMILIO SAN MARTIN</t>
         </is>
       </c>
       <c r="D461">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E461">
-        <v>178.04</v>
+        <v>711.1799999999999</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -12362,14 +12362,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>EMILIO SAN MARTIN</t>
+          <t>JENARO HERRERA</t>
         </is>
       </c>
       <c r="D462">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="E462">
-        <v>711.1799999999999</v>
+        <v>2770.14</v>
       </c>
       <c r="F462">
         <v>0</v>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>JENARO HERRERA</t>
+          <t>MAQUIA</t>
         </is>
       </c>
       <c r="D463">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="E463">
-        <v>2770.14</v>
+        <v>216.52</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -12414,14 +12414,14 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>MAQUIA</t>
+          <t>PUINAHUA</t>
         </is>
       </c>
       <c r="D464">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E464">
-        <v>216.52</v>
+        <v>21.87</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -12440,14 +12440,14 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>PUINAHUA</t>
+          <t>REQUENA</t>
         </is>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E465">
-        <v>21.87</v>
+        <v>634.46</v>
       </c>
       <c r="F465">
         <v>0</v>
@@ -12466,14 +12466,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>REQUENA</t>
+          <t>SOPLIN</t>
         </is>
       </c>
       <c r="D466">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="E466">
-        <v>634.46</v>
+        <v>139.47</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -12492,14 +12492,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>SOPLIN</t>
+          <t>YAQUERANA</t>
         </is>
       </c>
       <c r="D467">
         <v>1</v>
       </c>
       <c r="E467">
-        <v>139.47</v>
+        <v>44.76</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -12513,19 +12513,19 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>REQUENA</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>YAQUERANA</t>
+          <t>CONTAMANA</t>
         </is>
       </c>
       <c r="D468">
-        <v>1</v>
+        <v>493</v>
       </c>
       <c r="E468">
-        <v>44.76</v>
+        <v>1700</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -12544,14 +12544,14 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>CONTAMANA</t>
+          <t>INAHUAYA</t>
         </is>
       </c>
       <c r="D469">
-        <v>492</v>
+        <v>56</v>
       </c>
       <c r="E469">
-        <v>1696.55</v>
+        <v>3214.7</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -12570,14 +12570,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>INAHUAYA</t>
+          <t>PADRE MARQUEZ</t>
         </is>
       </c>
       <c r="D470">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E470">
-        <v>3214.7</v>
+        <v>382.24</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -12596,14 +12596,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>PADRE MARQUEZ</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D471">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E471">
-        <v>382.24</v>
+        <v>343.64</v>
       </c>
       <c r="F471">
         <v>0</v>
@@ -12622,14 +12622,14 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>SARAYACU</t>
         </is>
       </c>
       <c r="D472">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="E472">
-        <v>343.64</v>
+        <v>1968.37</v>
       </c>
       <c r="F472">
         <v>0</v>
@@ -12648,43 +12648,43 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>SARAYACU</t>
+          <t>VARGAS GUERRA</t>
         </is>
       </c>
       <c r="D473">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="E473">
-        <v>1968.37</v>
+        <v>398.97</v>
       </c>
       <c r="F473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>MANU</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>VARGAS GUERRA</t>
+          <t>HUEPETUHE</t>
         </is>
       </c>
       <c r="D474">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E474">
-        <v>398.97</v>
+        <v>535.55</v>
       </c>
       <c r="F474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -12700,14 +12700,14 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>HUEPETUHE</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="D475">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E475">
-        <v>535.55</v>
+        <v>538.71</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -12721,19 +12721,19 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MANU</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>IBERIA</t>
         </is>
       </c>
       <c r="D476">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="E476">
-        <v>538.71</v>
+        <v>3036.54</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -12752,14 +12752,14 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>IBERIA</t>
+          <t>IÑAPARI</t>
         </is>
       </c>
       <c r="D477">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="E477">
-        <v>3053.7</v>
+        <v>950.4</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -12778,14 +12778,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>IÑAPARI</t>
+          <t>TAHUAMANU</t>
         </is>
       </c>
       <c r="D478">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E478">
-        <v>950.4</v>
+        <v>705.1799999999999</v>
       </c>
       <c r="F478">
         <v>0</v>
@@ -12799,19 +12799,19 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>TAHUAMANU</t>
+          <t>INAMBARI</t>
         </is>
       </c>
       <c r="D479">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="E479">
-        <v>705.1799999999999</v>
+        <v>1053.3</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -12830,14 +12830,14 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>INAMBARI</t>
+          <t>LABERINTO</t>
         </is>
       </c>
       <c r="D480">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="E480">
-        <v>1053.3</v>
+        <v>1039.33</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -12856,14 +12856,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>LABERINTO</t>
+          <t>LAS PIEDRAS</t>
         </is>
       </c>
       <c r="D481">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="E481">
-        <v>1039.33</v>
+        <v>1031.31</v>
       </c>
       <c r="F481">
         <v>0</v>
@@ -12882,43 +12882,43 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>LAS PIEDRAS</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="D482">
-        <v>224</v>
+        <v>1110</v>
       </c>
       <c r="E482">
-        <v>1031.31</v>
+        <v>999.5</v>
       </c>
       <c r="F482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>PASCO</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>OXAPAMPA</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>CHONTABAMBA</t>
         </is>
       </c>
       <c r="D483">
-        <v>1110</v>
+        <v>1</v>
       </c>
       <c r="E483">
-        <v>999.5</v>
+        <v>14.49</v>
       </c>
       <c r="F483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -13614,10 +13614,10 @@
         </is>
       </c>
       <c r="D510">
-        <v>5310</v>
+        <v>5313</v>
       </c>
       <c r="E510">
-        <v>5787.21</v>
+        <v>5790.48</v>
       </c>
       <c r="F510">
         <v>7</v>
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="D512">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E512">
-        <v>4581.55</v>
+        <v>4612.1</v>
       </c>
       <c r="F512">
         <v>0</v>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="D518">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E518">
-        <v>5767.76</v>
+        <v>5805.96</v>
       </c>
       <c r="F518">
         <v>1</v>
@@ -13874,10 +13874,10 @@
         </is>
       </c>
       <c r="D520">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E520">
-        <v>3054.82</v>
+        <v>3066.13</v>
       </c>
       <c r="F520">
         <v>0</v>
@@ -13926,10 +13926,10 @@
         </is>
       </c>
       <c r="D522">
-        <v>2909</v>
+        <v>2927</v>
       </c>
       <c r="E522">
-        <v>2681.35</v>
+        <v>2697.94</v>
       </c>
       <c r="F522">
         <v>7</v>
@@ -13978,10 +13978,10 @@
         </is>
       </c>
       <c r="D524">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E524">
-        <v>2884.62</v>
+        <v>3008.68</v>
       </c>
       <c r="F524">
         <v>3</v>
@@ -14004,13 +14004,13 @@
         </is>
       </c>
       <c r="D525">
-        <v>9582</v>
+        <v>9622</v>
       </c>
       <c r="E525">
-        <v>4894.87</v>
+        <v>4915.3</v>
       </c>
       <c r="F525">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="526">
@@ -14030,13 +14030,13 @@
         </is>
       </c>
       <c r="D526">
-        <v>2857</v>
+        <v>2994</v>
       </c>
       <c r="E526">
-        <v>3373.2</v>
+        <v>3534.95</v>
       </c>
       <c r="F526">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="527">
@@ -14056,10 +14056,10 @@
         </is>
       </c>
       <c r="D527">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="E527">
-        <v>3296.6</v>
+        <v>3372.93</v>
       </c>
       <c r="F527">
         <v>2</v>
@@ -14108,10 +14108,10 @@
         </is>
       </c>
       <c r="D529">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E529">
-        <v>1965.05</v>
+        <v>1962.74</v>
       </c>
       <c r="F529">
         <v>0</v>
@@ -14134,10 +14134,10 @@
         </is>
       </c>
       <c r="D530">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="E530">
-        <v>3640.67</v>
+        <v>3647.12</v>
       </c>
       <c r="F530">
         <v>5</v>
@@ -14160,10 +14160,10 @@
         </is>
       </c>
       <c r="D531">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E531">
-        <v>799.8099999999999</v>
+        <v>803.12</v>
       </c>
       <c r="F531">
         <v>0</v>
@@ -14186,13 +14186,13 @@
         </is>
       </c>
       <c r="D532">
-        <v>9972</v>
+        <v>9978</v>
       </c>
       <c r="E532">
-        <v>5260.94</v>
+        <v>5264.1</v>
       </c>
       <c r="F532">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="533">
@@ -14212,10 +14212,10 @@
         </is>
       </c>
       <c r="D533">
-        <v>3779</v>
+        <v>3813</v>
       </c>
       <c r="E533">
-        <v>2896.25</v>
+        <v>2922.31</v>
       </c>
       <c r="F533">
         <v>3</v>
@@ -14238,10 +14238,10 @@
         </is>
       </c>
       <c r="D534">
-        <v>3753</v>
+        <v>3761</v>
       </c>
       <c r="E534">
-        <v>1906</v>
+        <v>1910.07</v>
       </c>
       <c r="F534">
         <v>14</v>
@@ -14264,10 +14264,10 @@
         </is>
       </c>
       <c r="D535">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E535">
-        <v>7421.45</v>
+        <v>7439.51</v>
       </c>
       <c r="F535">
         <v>0</v>
@@ -14342,10 +14342,10 @@
         </is>
       </c>
       <c r="D538">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E538">
-        <v>1282.44</v>
+        <v>1251.91</v>
       </c>
       <c r="F538">
         <v>0</v>
@@ -14368,10 +14368,10 @@
         </is>
       </c>
       <c r="D539">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E539">
-        <v>1574.62</v>
+        <v>1576.43</v>
       </c>
       <c r="F539">
         <v>0</v>
@@ -14420,10 +14420,10 @@
         </is>
       </c>
       <c r="D541">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="E541">
-        <v>4095.05</v>
+        <v>4105.02</v>
       </c>
       <c r="F541">
         <v>4</v>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="D542">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E542">
-        <v>4500.62</v>
+        <v>4509.51</v>
       </c>
       <c r="F542">
         <v>5</v>
@@ -14498,10 +14498,10 @@
         </is>
       </c>
       <c r="D544">
-        <v>2006</v>
+        <v>2026</v>
       </c>
       <c r="E544">
-        <v>5992.71</v>
+        <v>6052.46</v>
       </c>
       <c r="F544">
         <v>0</v>
@@ -14524,10 +14524,10 @@
         </is>
       </c>
       <c r="D545">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E545">
-        <v>7440.11</v>
+        <v>7458.9</v>
       </c>
       <c r="F545">
         <v>0</v>
@@ -14550,10 +14550,10 @@
         </is>
       </c>
       <c r="D546">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E546">
-        <v>3447.56</v>
+        <v>3464.82</v>
       </c>
       <c r="F546">
         <v>4</v>
@@ -14576,10 +14576,10 @@
         </is>
       </c>
       <c r="D547">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="E547">
-        <v>5024.43</v>
+        <v>6302.47</v>
       </c>
       <c r="F547">
         <v>1</v>
@@ -14602,13 +14602,13 @@
         </is>
       </c>
       <c r="D548">
-        <v>7219</v>
+        <v>7293</v>
       </c>
       <c r="E548">
-        <v>3686.72</v>
+        <v>3724.51</v>
       </c>
       <c r="F548">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="549">
@@ -14628,13 +14628,13 @@
         </is>
       </c>
       <c r="D549">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E549">
-        <v>2687.94</v>
+        <v>2677.23</v>
       </c>
       <c r="F549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -14654,10 +14654,10 @@
         </is>
       </c>
       <c r="D550">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E550">
-        <v>599.0700000000001</v>
+        <v>606.46</v>
       </c>
       <c r="F550">
         <v>1</v>
@@ -14732,10 +14732,10 @@
         </is>
       </c>
       <c r="D553">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E553">
-        <v>1731.1</v>
+        <v>1737.94</v>
       </c>
       <c r="F553">
         <v>0</v>
@@ -14758,10 +14758,10 @@
         </is>
       </c>
       <c r="D554">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="E554">
-        <v>2958.28</v>
+        <v>2961.97</v>
       </c>
       <c r="F554">
         <v>5</v>
@@ -14862,10 +14862,10 @@
         </is>
       </c>
       <c r="D558">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E558">
-        <v>162.51</v>
+        <v>152.95</v>
       </c>
       <c r="F558">
         <v>0</v>
@@ -14914,10 +14914,10 @@
         </is>
       </c>
       <c r="D560">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E560">
-        <v>1178.04</v>
+        <v>1162.67</v>
       </c>
       <c r="F560">
         <v>1</v>
@@ -15096,10 +15096,10 @@
         </is>
       </c>
       <c r="D567">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E567">
-        <v>52.14</v>
+        <v>65.17</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -15382,10 +15382,10 @@
         </is>
       </c>
       <c r="D578">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E578">
-        <v>884.84</v>
+        <v>891.12</v>
       </c>
       <c r="F578">
         <v>0</v>
@@ -15616,10 +15616,10 @@
         </is>
       </c>
       <c r="D587">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E587">
-        <v>1189.95</v>
+        <v>1187.17</v>
       </c>
       <c r="F587">
         <v>1</v>
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="D592">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E592">
-        <v>106.95</v>
+        <v>113.24</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -15772,10 +15772,10 @@
         </is>
       </c>
       <c r="D593">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E593">
-        <v>740.3</v>
+        <v>742.55</v>
       </c>
       <c r="F593">
         <v>2</v>
@@ -16188,10 +16188,10 @@
         </is>
       </c>
       <c r="D609">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E609">
-        <v>544.54</v>
+        <v>569.78</v>
       </c>
       <c r="F609">
         <v>0</v>
@@ -16448,10 +16448,10 @@
         </is>
       </c>
       <c r="D619">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E619">
-        <v>297.01</v>
+        <v>319.85</v>
       </c>
       <c r="F619">
         <v>0</v>
@@ -16474,10 +16474,10 @@
         </is>
       </c>
       <c r="D620">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E620">
-        <v>589.01</v>
+        <v>594.66</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -16500,10 +16500,10 @@
         </is>
       </c>
       <c r="D621">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E621">
-        <v>504.29</v>
+        <v>502.13</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -16630,10 +16630,10 @@
         </is>
       </c>
       <c r="D626">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E626">
-        <v>556.98</v>
+        <v>560.4299999999999</v>
       </c>
       <c r="F626">
         <v>2</v>
@@ -16734,10 +16734,10 @@
         </is>
       </c>
       <c r="D630">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E630">
-        <v>407.77</v>
+        <v>410.98</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -16838,10 +16838,10 @@
         </is>
       </c>
       <c r="D634">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E634">
-        <v>3550.46</v>
+        <v>3611.91</v>
       </c>
       <c r="F634">
         <v>0</v>
@@ -16864,10 +16864,10 @@
         </is>
       </c>
       <c r="D635">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E635">
-        <v>2510.05</v>
+        <v>2540.38</v>
       </c>
       <c r="F635">
         <v>0</v>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="D638">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E638">
-        <v>3056.16</v>
+        <v>3077.75</v>
       </c>
       <c r="F638">
         <v>0</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="D640">
-        <v>3423</v>
+        <v>3473</v>
       </c>
       <c r="E640">
-        <v>2899.25</v>
+        <v>2941.6</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -17020,10 +17020,10 @@
         </is>
       </c>
       <c r="D641">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E641">
-        <v>1226.08</v>
+        <v>1231.03</v>
       </c>
       <c r="F641">
         <v>0</v>
@@ -17046,10 +17046,10 @@
         </is>
       </c>
       <c r="D642">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E642">
-        <v>1321.59</v>
+        <v>1342.56</v>
       </c>
       <c r="F642">
         <v>0</v>
@@ -17072,10 +17072,10 @@
         </is>
       </c>
       <c r="D643">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E643">
-        <v>3387.35</v>
+        <v>3400.64</v>
       </c>
       <c r="F643">
         <v>0</v>
@@ -17098,10 +17098,10 @@
         </is>
       </c>
       <c r="D644">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E644">
-        <v>2173.43</v>
+        <v>2169.74</v>
       </c>
       <c r="F644">
         <v>1</v>
@@ -17228,10 +17228,10 @@
         </is>
       </c>
       <c r="D649">
-        <v>4196</v>
+        <v>4200</v>
       </c>
       <c r="E649">
-        <v>2309.29</v>
+        <v>2311.49</v>
       </c>
       <c r="F649">
         <v>3</v>
@@ -17280,10 +17280,10 @@
         </is>
       </c>
       <c r="D651">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E651">
-        <v>89.76000000000001</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="F651">
         <v>0</v>
@@ -17384,10 +17384,10 @@
         </is>
       </c>
       <c r="D655">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="E655">
-        <v>1295.92</v>
+        <v>1299.87</v>
       </c>
       <c r="F655">
         <v>5</v>
@@ -17514,10 +17514,10 @@
         </is>
       </c>
       <c r="D660">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E660">
-        <v>1025.87</v>
+        <v>1018.44</v>
       </c>
       <c r="F660">
         <v>0</v>

--- a/indicadores_dengue_diario_distrito.xlsx
+++ b/indicadores_dengue_diario_distrito.xlsx
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E3">
-        <v>2581.94</v>
+        <v>2591.78</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E6">
-        <v>972.08</v>
+        <v>989.39</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7">
-        <v>1179.72</v>
+        <v>1195.04</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E18">
-        <v>720.6</v>
+        <v>732.49</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21">
-        <v>1107.69</v>
+        <v>1123.08</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E22">
-        <v>1586.19</v>
+        <v>1629.77</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>297.41</v>
+        <v>314.91</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E26">
-        <v>1469.11</v>
+        <v>1464.44</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="D36">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="E36">
-        <v>1762.95</v>
+        <v>1802.12</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1333,19 +1333,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>POMABAMBA</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PAROBAMBA</t>
+          <t>CACERES DEL PERU</t>
         </is>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>16.02</v>
+        <v>41.31</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CACERES DEL PERU</t>
+          <t>CHIMBOTE</t>
         </is>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1446</v>
       </c>
       <c r="E39">
-        <v>41.31</v>
+        <v>657.25</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>COISHCO</t>
         </is>
       </c>
       <c r="D40">
-        <v>1444</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>656.35</v>
+        <v>200.38</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COISHCO</t>
+          <t>MORO</t>
         </is>
       </c>
       <c r="D41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>205.94</v>
+        <v>447.98</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1442,14 +1442,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MORO</t>
+          <t>NEPEÑÃ‰A</t>
         </is>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>1209</v>
       </c>
       <c r="E42">
-        <v>447.98</v>
+        <v>8028.42</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NEPEÑÃ‰A</t>
+          <t>NUEVO CHIMBOTE</t>
         </is>
       </c>
       <c r="D43">
-        <v>1202</v>
+        <v>673</v>
       </c>
       <c r="E43">
-        <v>7981.94</v>
+        <v>353.84</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1494,17 +1494,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NUEVO CHIMBOTE</t>
+          <t>SAMANCO</t>
         </is>
       </c>
       <c r="D44">
-        <v>663</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>348.58</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1520,14 +1520,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SAMANCO</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>766</v>
       </c>
       <c r="E45">
-        <v>92.45999999999999</v>
+        <v>3194.6</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1541,19 +1541,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>YUNGAY</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>QUILLO</t>
         </is>
       </c>
       <c r="D46">
-        <v>759</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>3165.4</v>
+        <v>7.53</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1562,24 +1562,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>YUNGAY</t>
+          <t>AYMARAES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QUILLO</t>
+          <t>COTARUSE**</t>
         </is>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>7.53</v>
+        <v>43.1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="D57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E57">
-        <v>474.55</v>
+        <v>483.18</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="D58">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E58">
-        <v>1656.24</v>
+        <v>1691.48</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>24.34</v>
+        <v>48.67</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="D61">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61">
-        <v>1338.83</v>
+        <v>1328.53</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>789.23</v>
+        <v>882.08</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E85">
-        <v>280.15</v>
+        <v>406.22</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="D91">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E91">
-        <v>21717.74</v>
+        <v>21755.58</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         </is>
       </c>
       <c r="D102">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E102">
-        <v>2110.09</v>
+        <v>2146.26</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="D106">
-        <v>3946</v>
+        <v>3955</v>
       </c>
       <c r="E106">
-        <v>3613.26</v>
+        <v>3621.5</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3188,10 +3188,10 @@
         </is>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>52.64</v>
+        <v>39.48</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>181.99</v>
+        <v>194.13</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="D113">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E113">
-        <v>152.32</v>
+        <v>158.41</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3318,10 +3318,10 @@
         </is>
       </c>
       <c r="D114">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E114">
-        <v>985.65</v>
+        <v>991.0599999999999</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="D117">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E117">
-        <v>1117.82</v>
+        <v>1112.99</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="D132">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E132">
-        <v>68.11</v>
+        <v>68.67</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3890,10 +3890,10 @@
         </is>
       </c>
       <c r="D136">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E136">
-        <v>743.1</v>
+        <v>746.74</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="D137">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="E137">
-        <v>391.66</v>
+        <v>393.17</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="D146">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E146">
-        <v>382.55</v>
+        <v>393.18</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -4176,10 +4176,10 @@
         </is>
       </c>
       <c r="D147">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E147">
-        <v>2510.22</v>
+        <v>2517.39</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="D150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E150">
-        <v>119.36</v>
+        <v>139.25</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="D152">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E152">
-        <v>2001.27</v>
+        <v>1992.78</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         </is>
       </c>
       <c r="D154">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="E154">
-        <v>3632.16</v>
+        <v>3665.69</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4618,10 +4618,10 @@
         </is>
       </c>
       <c r="D164">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E164">
-        <v>642.77</v>
+        <v>651.8200000000001</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="D165">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E165">
-        <v>50.27</v>
+        <v>51.37</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E168">
-        <v>5.52</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="D170">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E170">
-        <v>2276.81</v>
+        <v>2283.99</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="D173">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E173">
-        <v>424.08</v>
+        <v>415.84</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="D174">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E174">
-        <v>1719.17</v>
+        <v>1739.76</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="D178">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="E178">
-        <v>1832.65</v>
+        <v>1847.51</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>30.92</v>
+        <v>20.61</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5129,19 +5129,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>UMARI</t>
+          <t>CODO DEL POZUZO</t>
         </is>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E184">
-        <v>9.960000000000001</v>
+        <v>2284.41</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -5160,14 +5160,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CODO DEL POZUZO</t>
+          <t>HONORIA</t>
         </is>
       </c>
       <c r="D185">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="E185">
-        <v>2284.41</v>
+        <v>144.09</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -5186,14 +5186,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HONORIA</t>
+          <t>PUERTO INCA</t>
         </is>
       </c>
       <c r="D186">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="E186">
-        <v>144.09</v>
+        <v>2337.43</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -5212,14 +5212,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>TOURNAVISTA</t>
         </is>
       </c>
       <c r="D187">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="E187">
-        <v>2328.65</v>
+        <v>279.12</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -5238,14 +5238,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TOURNAVISTA</t>
+          <t>YUYAPICHIS</t>
         </is>
       </c>
       <c r="D188">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E188">
-        <v>279.12</v>
+        <v>635.84</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5254,27 +5254,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PUERTO INCA</t>
+          <t>CHINCHA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>YUYAPICHIS</t>
+          <t>ALTO LARAN</t>
         </is>
       </c>
       <c r="D189">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="E189">
-        <v>635.84</v>
+        <v>1354.33</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5290,17 +5290,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ALTO LARAN</t>
+          <t>CHAVIN</t>
         </is>
       </c>
       <c r="D190">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>1354.33</v>
+        <v>31.89</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5316,17 +5316,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>CHAVIN</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>2338</v>
       </c>
       <c r="E191">
-        <v>31.89</v>
+        <v>2850.32</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192">
@@ -5342,17 +5342,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>CHINCHA BAJA</t>
         </is>
       </c>
       <c r="D192">
-        <v>2335</v>
+        <v>149</v>
       </c>
       <c r="E192">
-        <v>2846.66</v>
+        <v>973.28</v>
       </c>
       <c r="F192">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5368,14 +5368,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>CHINCHA BAJA</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="D193">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="E193">
-        <v>966.75</v>
+        <v>666.12</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -5394,17 +5394,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>GROCIO PRADO</t>
         </is>
       </c>
       <c r="D194">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="E194">
-        <v>666.12</v>
+        <v>1692.06</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>GROCIO PRADO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D195">
-        <v>520</v>
+        <v>1974</v>
       </c>
       <c r="E195">
-        <v>1685.58</v>
+        <v>2540.7</v>
       </c>
       <c r="F195">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
@@ -5446,17 +5446,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="D196">
-        <v>1973</v>
+        <v>877</v>
       </c>
       <c r="E196">
-        <v>2539.42</v>
+        <v>2517.44</v>
       </c>
       <c r="F196">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -5472,17 +5472,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>TAMBO DE MORA</t>
         </is>
       </c>
       <c r="D197">
-        <v>877</v>
+        <v>84</v>
       </c>
       <c r="E197">
-        <v>2517.44</v>
+        <v>1210.2</v>
       </c>
       <c r="F197">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5493,22 +5493,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CHINCHA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>TAMBO DE MORA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="D198">
-        <v>84</v>
+        <v>2411</v>
       </c>
       <c r="E198">
-        <v>1210.2</v>
+        <v>1326.32</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -5524,17 +5524,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LA TINGUIÑA</t>
         </is>
       </c>
       <c r="D199">
-        <v>2400</v>
+        <v>443</v>
       </c>
       <c r="E199">
-        <v>1320.27</v>
+        <v>887.85</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -5550,14 +5550,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>LA TINGUIÑA</t>
+          <t>LOS AQUIJES</t>
         </is>
       </c>
       <c r="D200">
-        <v>443</v>
+        <v>227</v>
       </c>
       <c r="E200">
-        <v>887.85</v>
+        <v>842.58</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -5576,17 +5576,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>LOS AQUIJES</t>
+          <t>OCUCAJE</t>
         </is>
       </c>
       <c r="D201">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="E201">
-        <v>835.16</v>
+        <v>2524.17</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5602,17 +5602,17 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>OCUCAJE</t>
+          <t>PACHACUTEC</t>
         </is>
       </c>
       <c r="D202">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E202">
-        <v>2542.07</v>
+        <v>831.37</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5628,17 +5628,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>PACHACUTEC</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="D203">
-        <v>74</v>
+        <v>850</v>
       </c>
       <c r="E203">
-        <v>831.37</v>
+        <v>1345.62</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5654,17 +5654,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D204">
-        <v>848</v>
+        <v>137</v>
       </c>
       <c r="E204">
-        <v>1342.45</v>
+        <v>1660.2</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5680,17 +5680,17 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D205">
-        <v>137</v>
+        <v>416</v>
       </c>
       <c r="E205">
-        <v>1660.2</v>
+        <v>1300.89</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5706,17 +5706,17 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>SAN JOSE DE LOS MOLINOS</t>
         </is>
       </c>
       <c r="D206">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="E206">
-        <v>1294.64</v>
+        <v>2514.55</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5732,14 +5732,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SAN JOSE DE LOS MOLINOS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="D207">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="E207">
-        <v>2514.55</v>
+        <v>1822.24</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -5758,14 +5758,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="D208">
-        <v>292</v>
+        <v>580</v>
       </c>
       <c r="E208">
-        <v>1809.84</v>
+        <v>1770.88</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -5784,17 +5784,17 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SUBTANJALLA</t>
         </is>
       </c>
       <c r="D209">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="E209">
-        <v>1758.67</v>
+        <v>1596.67</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5810,17 +5810,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SUBTANJALLA</t>
+          <t>TATE</t>
         </is>
       </c>
       <c r="D210">
-        <v>551</v>
+        <v>131</v>
       </c>
       <c r="E210">
-        <v>1593.78</v>
+        <v>2370.61</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5836,14 +5836,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TATE</t>
+          <t>YAUCA DEL ROSARIO</t>
         </is>
       </c>
       <c r="D211">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>2334.42</v>
+        <v>739.1</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5857,19 +5857,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>YAUCA DEL ROSARIO</t>
+          <t>CHANGUILLO</t>
         </is>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E212">
-        <v>739.1</v>
+        <v>1768.77</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5888,14 +5888,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>CHANGUILLO</t>
+          <t>EL INGENIO</t>
         </is>
       </c>
       <c r="D213">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E213">
-        <v>1768.77</v>
+        <v>261.1</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5914,14 +5914,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EL INGENIO</t>
+          <t>MARCONA</t>
         </is>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E214">
-        <v>261.1</v>
+        <v>66.16</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5940,17 +5940,17 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MARCONA</t>
+          <t>NAZCA</t>
         </is>
       </c>
       <c r="D215">
-        <v>13</v>
+        <v>1229</v>
       </c>
       <c r="E215">
-        <v>66.16</v>
+        <v>3875.02</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5966,17 +5966,17 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>VISTA ALEGRE</t>
         </is>
       </c>
       <c r="D216">
-        <v>1226</v>
+        <v>586</v>
       </c>
       <c r="E216">
-        <v>3865.56</v>
+        <v>2220.96</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5987,19 +5987,19 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NAZCA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>VISTA ALEGRE</t>
+          <t>LLIPATA</t>
         </is>
       </c>
       <c r="D217">
-        <v>584</v>
+        <v>41</v>
       </c>
       <c r="E217">
-        <v>2213.38</v>
+        <v>2216.22</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -6018,14 +6018,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>LLIPATA</t>
+          <t>PALPA</t>
         </is>
       </c>
       <c r="D218">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="E218">
-        <v>2216.22</v>
+        <v>1891.59</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -6044,14 +6044,14 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>RIO GRANDE</t>
         </is>
       </c>
       <c r="D219">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="E219">
-        <v>1891.59</v>
+        <v>729.4400000000001</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -6070,14 +6070,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>RIO GRANDE</t>
+          <t>SANTA CRUZ</t>
         </is>
       </c>
       <c r="D220">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>729.4400000000001</v>
+        <v>186.39</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -6091,19 +6091,19 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PALPA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>SANTA CRUZ</t>
+          <t>HUMAY</t>
         </is>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E221">
-        <v>186.39</v>
+        <v>211.66</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6122,14 +6122,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>HUMAY</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="D222">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E222">
-        <v>211.66</v>
+        <v>379.43</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6148,14 +6148,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>PARACAS</t>
         </is>
       </c>
       <c r="D223">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E223">
-        <v>379.43</v>
+        <v>236.73</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6174,17 +6174,17 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>PARACAS</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="D224">
-        <v>24</v>
+        <v>831</v>
       </c>
       <c r="E224">
-        <v>236.73</v>
+        <v>987.92</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6200,17 +6200,17 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>SAN ANDRES</t>
         </is>
       </c>
       <c r="D225">
-        <v>829</v>
+        <v>112</v>
       </c>
       <c r="E225">
-        <v>985.54</v>
+        <v>655.9299999999999</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -6226,14 +6226,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>SAN ANDRES</t>
+          <t>SAN CLEMENTE</t>
         </is>
       </c>
       <c r="D226">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="E226">
-        <v>650.0700000000001</v>
+        <v>723.7</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6252,14 +6252,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>SAN CLEMENTE</t>
+          <t>TUPAC AMARU INCA</t>
         </is>
       </c>
       <c r="D227">
-        <v>223</v>
+        <v>312</v>
       </c>
       <c r="E227">
-        <v>720.47</v>
+        <v>1528.06</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6268,24 +6268,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>TUPAC AMARU INCA</t>
+          <t>CHANCHAMAYO</t>
         </is>
       </c>
       <c r="D228">
-        <v>312</v>
+        <v>566</v>
       </c>
       <c r="E228">
-        <v>1528.06</v>
+        <v>1921.18</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -6304,17 +6304,17 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>PERENE</t>
         </is>
       </c>
       <c r="D229">
-        <v>565</v>
+        <v>760</v>
       </c>
       <c r="E229">
-        <v>1917.79</v>
+        <v>1262.46</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6330,17 +6330,17 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>PERENE</t>
+          <t>PICHANAQUI</t>
         </is>
       </c>
       <c r="D230">
-        <v>758</v>
+        <v>297</v>
       </c>
       <c r="E230">
-        <v>1259.14</v>
+        <v>707.8200000000001</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -6356,17 +6356,17 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>PICHANAQUI</t>
+          <t>SAN LUIS DE SHUARO</t>
         </is>
       </c>
       <c r="D231">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="E231">
-        <v>705.4299999999999</v>
+        <v>1108.71</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -6382,17 +6382,17 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>SAN LUIS DE SHUARO</t>
+          <t>SAN RAMON</t>
         </is>
       </c>
       <c r="D232">
-        <v>41</v>
+        <v>477</v>
       </c>
       <c r="E232">
-        <v>1108.71</v>
+        <v>1614.54</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -6408,17 +6408,17 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>SAN RAMON</t>
+          <t>VITOC</t>
         </is>
       </c>
       <c r="D233">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>1624.7</v>
+        <v>185.99</v>
       </c>
       <c r="F233">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -6429,19 +6429,19 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CHANCHAMAYO</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>VITOC</t>
+          <t>CHONGOS BAJO</t>
         </is>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>185.99</v>
+        <v>20.57</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -6455,19 +6455,19 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CHONGOS BAJO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>20.57</v>
+        <v>1.92</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -6486,14 +6486,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>1.92</v>
+        <v>0.55</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -6512,14 +6512,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E237">
-        <v>0.55</v>
+        <v>7</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6538,14 +6538,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>SANTO DOMINGO DE ACOBAMBA</t>
         </is>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>7</v>
+        <v>16.06</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -6559,19 +6559,19 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>JAUJA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE ACOBAMBA</t>
+          <t>APATA</t>
         </is>
       </c>
       <c r="D239">
         <v>1</v>
       </c>
       <c r="E239">
-        <v>16.06</v>
+        <v>22.28</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6590,14 +6590,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>APATA</t>
+          <t>HUERTAS</t>
         </is>
       </c>
       <c r="D240">
         <v>1</v>
       </c>
       <c r="E240">
-        <v>22.28</v>
+        <v>44.46</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6616,14 +6616,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>HUERTAS</t>
+          <t>MONOBAMBA</t>
         </is>
       </c>
       <c r="D241">
         <v>1</v>
       </c>
       <c r="E241">
-        <v>44.46</v>
+        <v>51.15</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6637,19 +6637,19 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>JAUJA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MONOBAMBA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>51.15</v>
+        <v>57.23</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6663,19 +6663,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>COVIRIALI</t>
         </is>
       </c>
       <c r="D243">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E243">
-        <v>57.23</v>
+        <v>682.49</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6694,14 +6694,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>COVIRIALI</t>
+          <t>LLAYLLA</t>
         </is>
       </c>
       <c r="D244">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>682.49</v>
+        <v>115.49</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -6720,14 +6720,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>LLAYLLA</t>
+          <t>MAZAMARI</t>
         </is>
       </c>
       <c r="D245">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E245">
-        <v>115.49</v>
+        <v>206.12</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6746,14 +6746,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MAZAMARI</t>
+          <t>PAMPA HERMOSA</t>
         </is>
       </c>
       <c r="D246">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>203.86</v>
+        <v>28.91</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6772,14 +6772,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>PAMPA HERMOSA</t>
+          <t>PANGOA</t>
         </is>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="E247">
-        <v>28.91</v>
+        <v>415.68</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -6798,14 +6798,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>PANGOA</t>
+          <t>RIO NEGRO</t>
         </is>
       </c>
       <c r="D248">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="E248">
-        <v>414.22</v>
+        <v>326.9</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>RIO NEGRO</t>
+          <t>RIO TAMBO</t>
         </is>
       </c>
       <c r="D249">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="E249">
-        <v>326.9</v>
+        <v>211.15</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -6850,14 +6850,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>RIO TAMBO</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="D250">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="E250">
-        <v>207.85</v>
+        <v>710.33</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>VIZCATAN DEL ENE</t>
         </is>
       </c>
       <c r="D251">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>710.33</v>
+        <v>228.53</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6897,19 +6897,19 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>VIZCATAN DEL ENE</t>
+          <t>TARMA</t>
         </is>
       </c>
       <c r="D252">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E252">
-        <v>228.53</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -6923,19 +6923,19 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>YAULI</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>TARMA</t>
+          <t>SANTA ROSA DE SACCO</t>
         </is>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>8.199999999999999</v>
+        <v>12.49</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6944,24 +6944,24 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>YAULI</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>SANTA ROSA DE SACCO</t>
+          <t>ASCOPE</t>
         </is>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E254">
-        <v>12.49</v>
+        <v>1287.8</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6980,14 +6980,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>CASA GRANDE</t>
         </is>
       </c>
       <c r="D255">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E255">
-        <v>1302.27</v>
+        <v>354.14</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7006,14 +7006,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CASA GRANDE</t>
+          <t>CHICAMA</t>
         </is>
       </c>
       <c r="D256">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="E256">
-        <v>334.09</v>
+        <v>1670.06</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -7032,14 +7032,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CHICAMA</t>
+          <t>CHOCOPE</t>
         </is>
       </c>
       <c r="D257">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="E257">
-        <v>1657.73</v>
+        <v>193.05</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -7058,14 +7058,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>CHOCOPE</t>
+          <t>MAGDALENA DE CAO</t>
         </is>
       </c>
       <c r="D258">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E258">
-        <v>193.05</v>
+        <v>75.47</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7084,14 +7084,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MAGDALENA DE CAO</t>
+          <t>PAIJAN</t>
         </is>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="E259">
-        <v>75.47</v>
+        <v>502.14</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -7110,14 +7110,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>PAIJAN</t>
+          <t>RAZURI</t>
         </is>
       </c>
       <c r="D260">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>498.77</v>
+        <v>63.22</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7136,14 +7136,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>RAZURI</t>
+          <t>SANTIAGO DE CAO</t>
         </is>
       </c>
       <c r="D261">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E261">
-        <v>63.22</v>
+        <v>84.72</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7157,19 +7157,19 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ASCOPE</t>
+          <t>BOLIVAR</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CAO</t>
+          <t>BAMBAMARCA</t>
         </is>
       </c>
       <c r="D262">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>84.72</v>
+        <v>156.74</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -7188,14 +7188,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>BAMBAMARCA</t>
+          <t>UCUNCHA</t>
         </is>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>156.74</v>
+        <v>109.41</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -7209,19 +7209,19 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BOLIVAR</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>UCUNCHA</t>
+          <t>CHEPEN</t>
         </is>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>1449</v>
       </c>
       <c r="E264">
-        <v>109.41</v>
+        <v>2895.16</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -7240,14 +7240,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>PACANGA</t>
         </is>
       </c>
       <c r="D265">
-        <v>1449</v>
+        <v>197</v>
       </c>
       <c r="E265">
-        <v>2895.16</v>
+        <v>769.77</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -7261,19 +7261,19 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>CHEPEN</t>
+          <t>GRAN CHIMU</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>PACANGA</t>
+          <t>CASCAS</t>
         </is>
       </c>
       <c r="D266">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E266">
-        <v>742.42</v>
+        <v>1433.69</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7287,19 +7287,19 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>GRAN CHIMU</t>
+          <t>JULCAN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>CASCAS</t>
+          <t>CALAMARCA</t>
         </is>
       </c>
       <c r="D267">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>1405.58</v>
+        <v>40.36</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -7313,19 +7313,19 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>JULCAN</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CALAMARCA</t>
+          <t>AGALLPAMPA</t>
         </is>
       </c>
       <c r="D268">
         <v>2</v>
       </c>
       <c r="E268">
-        <v>40.36</v>
+        <v>19.35</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -7344,14 +7344,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>AGALLPAMPA</t>
+          <t>LA CUESTA</t>
         </is>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E269">
-        <v>19.35</v>
+        <v>152.91</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7370,14 +7370,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>LA CUESTA</t>
+          <t>OTUZCO</t>
         </is>
       </c>
       <c r="D270">
         <v>1</v>
       </c>
       <c r="E270">
-        <v>152.91</v>
+        <v>3.7</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7391,22 +7391,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>OTUZCO</t>
+          <t>GUADALUPE</t>
         </is>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>782</v>
       </c>
       <c r="E271">
-        <v>3.7</v>
+        <v>1720.72</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272">
@@ -7422,17 +7422,17 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>PACASMAYO</t>
         </is>
       </c>
       <c r="D272">
-        <v>781</v>
+        <v>148</v>
       </c>
       <c r="E272">
-        <v>1718.52</v>
+        <v>442.64</v>
       </c>
       <c r="F272">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -7448,17 +7448,17 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D273">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="E273">
-        <v>397.77</v>
+        <v>53.81</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -7474,14 +7474,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>SAN PEDRO DE LLOC</t>
         </is>
       </c>
       <c r="D274">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="E274">
-        <v>76.88</v>
+        <v>779.0700000000001</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -7495,19 +7495,19 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PACASMAYO</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE LLOC</t>
+          <t>CHILLIA</t>
         </is>
       </c>
       <c r="D275">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="E275">
-        <v>704.16</v>
+        <v>7.47</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -7526,14 +7526,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>CHILLIA</t>
+          <t>PARCOY</t>
         </is>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E276">
-        <v>7.47</v>
+        <v>9.34</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -7552,14 +7552,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>PARCOY</t>
+          <t>PATAZ</t>
         </is>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="E277">
-        <v>9.34</v>
+        <v>1068.03</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -7578,14 +7578,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>TAYABAMBA</t>
         </is>
       </c>
       <c r="D278">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="E278">
-        <v>1050.08</v>
+        <v>14.26</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -7599,19 +7599,19 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PATAZ</t>
+          <t>SANCHEZ CARRION</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>TAYABAMBA</t>
+          <t>COCHORCO</t>
         </is>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E279">
-        <v>14.26</v>
+        <v>37.73</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -7630,14 +7630,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>COCHORCO</t>
+          <t>HUAMACHUCO</t>
         </is>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E280">
-        <v>37.73</v>
+        <v>1.18</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -7656,14 +7656,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>HUAMACHUCO</t>
+          <t>SANAGORAN</t>
         </is>
       </c>
       <c r="D281">
         <v>1</v>
       </c>
       <c r="E281">
-        <v>1.18</v>
+        <v>6.42</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -7677,19 +7677,19 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SANCHEZ CARRION</t>
+          <t>SANTIAGO DE CHUCO</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>SANAGORAN</t>
+          <t>SITABAMBA</t>
         </is>
       </c>
       <c r="D282">
         <v>1</v>
       </c>
       <c r="E282">
-        <v>6.42</v>
+        <v>27.18</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7703,22 +7703,22 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SANTIAGO DE CHUCO</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SITABAMBA</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="D283">
+        <v>1560</v>
+      </c>
+      <c r="E283">
+        <v>638.26</v>
+      </c>
+      <c r="F283">
         <v>1</v>
-      </c>
-      <c r="E283">
-        <v>27.18</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -7734,17 +7734,17 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>FLORENCIA DE MORA</t>
         </is>
       </c>
       <c r="D284">
-        <v>1535</v>
+        <v>1661</v>
       </c>
       <c r="E284">
-        <v>628.04</v>
+        <v>4088.82</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -7760,17 +7760,17 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA</t>
+          <t>HUANCHACO</t>
         </is>
       </c>
       <c r="D285">
-        <v>1637</v>
+        <v>958</v>
       </c>
       <c r="E285">
-        <v>4029.74</v>
+        <v>1003.35</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -7786,17 +7786,17 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>HUANCHACO</t>
+          <t>LA ESPERANZA</t>
         </is>
       </c>
       <c r="D286">
-        <v>946</v>
+        <v>6341</v>
       </c>
       <c r="E286">
-        <v>990.78</v>
+        <v>2660.31</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
@@ -7812,17 +7812,17 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>LA ESPERANZA</t>
+          <t>LAREDO</t>
         </is>
       </c>
       <c r="D287">
-        <v>6265</v>
+        <v>602</v>
       </c>
       <c r="E287">
-        <v>2628.42</v>
+        <v>1327.57</v>
       </c>
       <c r="F287">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -7838,14 +7838,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>LAREDO</t>
+          <t>MOCHE</t>
         </is>
       </c>
       <c r="D288">
-        <v>602</v>
+        <v>160</v>
       </c>
       <c r="E288">
-        <v>1327.57</v>
+        <v>349.54</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -7864,14 +7864,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>MOCHE</t>
+          <t>POROTO</t>
         </is>
       </c>
       <c r="D289">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="E289">
-        <v>342.99</v>
+        <v>73.14</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -7890,14 +7890,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>POROTO</t>
+          <t>SALAVERRY</t>
         </is>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E290">
-        <v>73.14</v>
+        <v>346.15</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7916,14 +7916,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>SALAVERRY</t>
+          <t>SIMBAL</t>
         </is>
       </c>
       <c r="D291">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E291">
-        <v>342.08</v>
+        <v>84.42</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -7942,17 +7942,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SIMBAL</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="D292">
-        <v>4</v>
+        <v>3424</v>
       </c>
       <c r="E292">
-        <v>84.42</v>
+        <v>949</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293">
@@ -7968,17 +7968,17 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>VICTOR LARCO HERRERA</t>
         </is>
       </c>
       <c r="D293">
-        <v>3399</v>
+        <v>93</v>
       </c>
       <c r="E293">
-        <v>942.0700000000001</v>
+        <v>111.7</v>
       </c>
       <c r="F293">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -7989,22 +7989,22 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA</t>
+          <t>CHAO</t>
         </is>
       </c>
       <c r="D294">
-        <v>91</v>
+        <v>800</v>
       </c>
       <c r="E294">
-        <v>109.3</v>
+        <v>1876.08</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -8020,17 +8020,17 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>CHAO</t>
+          <t>GUADALUPITO</t>
         </is>
       </c>
       <c r="D295">
-        <v>801</v>
+        <v>22</v>
       </c>
       <c r="E295">
-        <v>1878.43</v>
+        <v>272.78</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -8046,43 +8046,43 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>GUADALUPITO</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="D296">
-        <v>20</v>
+        <v>1424</v>
       </c>
       <c r="E296">
-        <v>247.99</v>
+        <v>2305.36</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>CAYALTI</t>
         </is>
       </c>
       <c r="D297">
-        <v>1442</v>
+        <v>508</v>
       </c>
       <c r="E297">
-        <v>2334.5</v>
+        <v>3308.15</v>
       </c>
       <c r="F297">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -8098,17 +8098,17 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>CAYALTI</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="D298">
-        <v>503</v>
+        <v>10693</v>
       </c>
       <c r="E298">
-        <v>3275.59</v>
+        <v>3598.85</v>
       </c>
       <c r="F298">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299">
@@ -8124,17 +8124,17 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>CHONGOYAPE</t>
         </is>
       </c>
       <c r="D299">
-        <v>10656</v>
+        <v>350</v>
       </c>
       <c r="E299">
-        <v>3586.39</v>
+        <v>1738.78</v>
       </c>
       <c r="F299">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -8150,17 +8150,17 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>CHONGOYAPE</t>
+          <t>ETEN</t>
         </is>
       </c>
       <c r="D300">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E300">
-        <v>1733.82</v>
+        <v>1978.17</v>
       </c>
       <c r="F300">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -8176,14 +8176,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>ETEN</t>
+          <t>ETEN PUERTO</t>
         </is>
       </c>
       <c r="D301">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="E301">
-        <v>1978.17</v>
+        <v>320.64</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -8202,17 +8202,17 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>ETEN PUERTO</t>
+          <t>JOSE LEONARDO ORTIZ</t>
         </is>
       </c>
       <c r="D302">
-        <v>8</v>
+        <v>3791</v>
       </c>
       <c r="E302">
-        <v>320.64</v>
+        <v>2236.54</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303">
@@ -8228,17 +8228,17 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="D303">
-        <v>3660</v>
+        <v>2201</v>
       </c>
       <c r="E303">
-        <v>2159.25</v>
+        <v>2171.45</v>
       </c>
       <c r="F303">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304">
@@ -8254,17 +8254,17 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>LAGUNAS</t>
         </is>
       </c>
       <c r="D304">
-        <v>2183</v>
+        <v>124</v>
       </c>
       <c r="E304">
-        <v>2153.69</v>
+        <v>1113.81</v>
       </c>
       <c r="F304">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -8280,14 +8280,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>LAGUNAS</t>
+          <t>MONSEFU</t>
         </is>
       </c>
       <c r="D305">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="E305">
-        <v>1113.81</v>
+        <v>497.01</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -8306,14 +8306,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>MONSEFU</t>
+          <t>NUEVA ARICA</t>
         </is>
       </c>
       <c r="D306">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="E306">
-        <v>494.3</v>
+        <v>1850.42</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -8332,14 +8332,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>NUEVA ARICA</t>
+          <t>OYOTUN</t>
         </is>
       </c>
       <c r="D307">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="E307">
-        <v>1850.42</v>
+        <v>3420.14</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -8358,14 +8358,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>OYOTUN</t>
+          <t>PATAPO</t>
         </is>
       </c>
       <c r="D308">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E308">
-        <v>3420.14</v>
+        <v>1167.93</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -8384,17 +8384,17 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>PATAPO</t>
+          <t>PICSI</t>
         </is>
       </c>
       <c r="D309">
-        <v>300</v>
+        <v>495</v>
       </c>
       <c r="E309">
-        <v>1164.05</v>
+        <v>3308.6</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -8410,17 +8410,17 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>PICSI</t>
+          <t>PIMENTEL</t>
         </is>
       </c>
       <c r="D310">
-        <v>493</v>
+        <v>297</v>
       </c>
       <c r="E310">
-        <v>3295.23</v>
+        <v>560.6799999999999</v>
       </c>
       <c r="F310">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -8436,14 +8436,14 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>PIMENTEL</t>
+          <t>POMALCA</t>
         </is>
       </c>
       <c r="D311">
-        <v>293</v>
+        <v>452</v>
       </c>
       <c r="E311">
-        <v>553.13</v>
+        <v>1619.84</v>
       </c>
       <c r="F311">
         <v>3</v>
@@ -8462,17 +8462,17 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>POMALCA</t>
+          <t>PUCALA</t>
         </is>
       </c>
       <c r="D312">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="E312">
-        <v>1569.67</v>
+        <v>4137.48</v>
       </c>
       <c r="F312">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -8488,17 +8488,17 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>PUCALA</t>
+          <t>REQUE</t>
         </is>
       </c>
       <c r="D313">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="E313">
-        <v>4126.53</v>
+        <v>1087.49</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -8514,17 +8514,17 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>REQUE</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="D314">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E314">
-        <v>1087.49</v>
+        <v>207.35</v>
       </c>
       <c r="F314">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -8540,14 +8540,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>SAÑA</t>
         </is>
       </c>
       <c r="D315">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="E315">
-        <v>207.35</v>
+        <v>2676.67</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -8566,17 +8566,17 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>SAÑA</t>
+          <t>TUMAN</t>
         </is>
       </c>
       <c r="D316">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="E316">
-        <v>2668.77</v>
+        <v>1894</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317">
@@ -8587,22 +8587,22 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>TUMAN</t>
+          <t>CAÑARIS</t>
         </is>
       </c>
       <c r="D317">
-        <v>575</v>
+        <v>1</v>
       </c>
       <c r="E317">
-        <v>1894</v>
+        <v>7.99</v>
       </c>
       <c r="F317">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>CAÑARIS</t>
+          <t>FERREÑAFE</t>
         </is>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>1053</v>
       </c>
       <c r="E318">
-        <v>7.99</v>
+        <v>2700.69</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
@@ -8644,17 +8644,17 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>INCAHUASI</t>
         </is>
       </c>
       <c r="D319">
-        <v>1051</v>
+        <v>1</v>
       </c>
       <c r="E319">
-        <v>2695.56</v>
+        <v>6.38</v>
       </c>
       <c r="F319">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -8670,17 +8670,17 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>INCAHUASI</t>
+          <t>MANUEL ANTONIO MESONES MURO</t>
         </is>
       </c>
       <c r="D320">
+        <v>24</v>
+      </c>
+      <c r="E320">
+        <v>562.59</v>
+      </c>
+      <c r="F320">
         <v>1</v>
-      </c>
-      <c r="E320">
-        <v>6.38</v>
-      </c>
-      <c r="F320">
-        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -8696,17 +8696,17 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>MANUEL ANTONIO MESONES MURO</t>
+          <t>PITIPO</t>
         </is>
       </c>
       <c r="D321">
-        <v>24</v>
+        <v>793</v>
       </c>
       <c r="E321">
-        <v>562.59</v>
+        <v>3527.11</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -8722,17 +8722,17 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>PITIPO</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="D322">
-        <v>787</v>
+        <v>421</v>
       </c>
       <c r="E322">
-        <v>3500.42</v>
+        <v>2592.68</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -8743,19 +8743,19 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>FERREÑAFE</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>CHOCHOPE</t>
         </is>
       </c>
       <c r="D323">
-        <v>421</v>
+        <v>22</v>
       </c>
       <c r="E323">
-        <v>2592.68</v>
+        <v>1305.64</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>CHOCHOPE</t>
+          <t>ILLIMO</t>
         </is>
       </c>
       <c r="D324">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="E324">
-        <v>1305.64</v>
+        <v>3139.42</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -8800,17 +8800,17 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>ILLIMO</t>
+          <t>JAYANCA</t>
         </is>
       </c>
       <c r="D325">
-        <v>308</v>
+        <v>651</v>
       </c>
       <c r="E325">
-        <v>3089.27</v>
+        <v>3104.73</v>
       </c>
       <c r="F325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -8826,17 +8826,17 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>JAYANCA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="D326">
-        <v>650</v>
+        <v>1106</v>
       </c>
       <c r="E326">
-        <v>3099.96</v>
+        <v>1294.88</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
@@ -8852,17 +8852,17 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>MOCHUMI</t>
         </is>
       </c>
       <c r="D327">
-        <v>1097</v>
+        <v>105</v>
       </c>
       <c r="E327">
-        <v>1284.35</v>
+        <v>498.13</v>
       </c>
       <c r="F327">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -8878,17 +8878,17 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>MOCHUMI</t>
+          <t>MORROPE</t>
         </is>
       </c>
       <c r="D328">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="E328">
-        <v>483.89</v>
+        <v>359.36</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -8904,17 +8904,17 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>MORROPE</t>
+          <t>MOTUPE</t>
         </is>
       </c>
       <c r="D329">
-        <v>211</v>
+        <v>1391</v>
       </c>
       <c r="E329">
-        <v>357.67</v>
+        <v>3846.9</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -8930,14 +8930,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>MOTUPE</t>
+          <t>OLMOS</t>
         </is>
       </c>
       <c r="D330">
-        <v>1384</v>
+        <v>640</v>
       </c>
       <c r="E330">
-        <v>3827.54</v>
+        <v>1098.52</v>
       </c>
       <c r="F330">
         <v>2</v>
@@ -8956,17 +8956,17 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>OLMOS</t>
+          <t>PACORA</t>
         </is>
       </c>
       <c r="D331">
-        <v>631</v>
+        <v>241</v>
       </c>
       <c r="E331">
-        <v>1083.08</v>
+        <v>2560.29</v>
       </c>
       <c r="F331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -8982,14 +8982,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>PACORA</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="D332">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="E332">
-        <v>2560.29</v>
+        <v>838.5599999999999</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -9008,14 +9008,14 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
       <c r="D333">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="E333">
-        <v>782.1900000000001</v>
+        <v>828.4400000000001</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -9034,14 +9034,14 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>SAN JOSE</t>
+          <t>TUCUME</t>
         </is>
       </c>
       <c r="D334">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="E334">
-        <v>817.95</v>
+        <v>361.76</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -9050,24 +9050,24 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>TUCUME</t>
+          <t>BARRANCA</t>
         </is>
       </c>
       <c r="D335">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="E335">
-        <v>361.76</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -9086,14 +9086,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>BARRANCA</t>
+          <t>PARAMONGA</t>
         </is>
       </c>
       <c r="D336">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E336">
-        <v>10.63</v>
+        <v>4.58</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -9116,10 +9116,10 @@
         </is>
       </c>
       <c r="D337">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E337">
-        <v>275.04</v>
+        <v>278.76</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="D338">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E338">
-        <v>1384.41</v>
+        <v>1391.58</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         </is>
       </c>
       <c r="D344">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E344">
-        <v>213.78</v>
+        <v>221.69</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="D346">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E346">
-        <v>189.43</v>
+        <v>186.93</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="D348">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E348">
-        <v>2381.02</v>
+        <v>2378.18</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -9428,10 +9428,10 @@
         </is>
       </c>
       <c r="D349">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E349">
-        <v>86.43000000000001</v>
+        <v>89.75</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -9532,10 +9532,10 @@
         </is>
       </c>
       <c r="D353">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E353">
-        <v>128.28</v>
+        <v>123.53</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="D365">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E365">
-        <v>2741.36</v>
+        <v>2729.44</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -10182,10 +10182,10 @@
         </is>
       </c>
       <c r="D378">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="E378">
-        <v>248.35</v>
+        <v>247.51</v>
       </c>
       <c r="F378">
         <v>3</v>
@@ -10234,10 +10234,10 @@
         </is>
       </c>
       <c r="D380">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E380">
-        <v>41.88</v>
+        <v>40.86</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -10260,10 +10260,10 @@
         </is>
       </c>
       <c r="D381">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="E381">
-        <v>576.84</v>
+        <v>574.73</v>
       </c>
       <c r="F381">
         <v>1</v>
@@ -10286,10 +10286,10 @@
         </is>
       </c>
       <c r="D382">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E382">
-        <v>1494.86</v>
+        <v>1501.35</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         </is>
       </c>
       <c r="D383">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E383">
-        <v>63.48</v>
+        <v>63.75</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         </is>
       </c>
       <c r="D385">
-        <v>4147</v>
+        <v>4125</v>
       </c>
       <c r="E385">
-        <v>693.17</v>
+        <v>689.5</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="D386">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E386">
-        <v>107.8</v>
+        <v>108.66</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -10416,10 +10416,10 @@
         </is>
       </c>
       <c r="D387">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="E387">
-        <v>719.73</v>
+        <v>717.58</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -10468,10 +10468,10 @@
         </is>
       </c>
       <c r="D389">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E389">
-        <v>153.99</v>
+        <v>153.4</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -10494,10 +10494,10 @@
         </is>
       </c>
       <c r="D390">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E390">
-        <v>51.12</v>
+        <v>50.61</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         </is>
       </c>
       <c r="D393">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="E393">
-        <v>217.86</v>
+        <v>215.95</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         </is>
       </c>
       <c r="D394">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="E394">
-        <v>450.05</v>
+        <v>451.04</v>
       </c>
       <c r="F394">
         <v>1</v>
@@ -10754,10 +10754,10 @@
         </is>
       </c>
       <c r="D400">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E400">
-        <v>68.28</v>
+        <v>66.27</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -10780,13 +10780,13 @@
         </is>
       </c>
       <c r="D401">
-        <v>2677</v>
+        <v>2662</v>
       </c>
       <c r="E401">
-        <v>642.6900000000001</v>
+        <v>639.09</v>
       </c>
       <c r="F401">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402">
@@ -10858,10 +10858,10 @@
         </is>
       </c>
       <c r="D404">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E404">
-        <v>858.84</v>
+        <v>857.77</v>
       </c>
       <c r="F404">
         <v>1</v>
@@ -10936,10 +10936,10 @@
         </is>
       </c>
       <c r="D407">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E407">
-        <v>30.97</v>
+        <v>29.56</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -10962,10 +10962,10 @@
         </is>
       </c>
       <c r="D408">
-        <v>4240</v>
+        <v>4248</v>
       </c>
       <c r="E408">
-        <v>341.8</v>
+        <v>342.45</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="D409">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="E409">
-        <v>462.43</v>
+        <v>461.26</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -11040,10 +11040,10 @@
         </is>
       </c>
       <c r="D411">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="E411">
-        <v>187.45</v>
+        <v>185.92</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -11092,10 +11092,10 @@
         </is>
       </c>
       <c r="D413">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E413">
-        <v>76.91</v>
+        <v>77.34</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         </is>
       </c>
       <c r="D415">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E415">
-        <v>247.48</v>
+        <v>252.29</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -11170,10 +11170,10 @@
         </is>
       </c>
       <c r="D416">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E416">
-        <v>42.65</v>
+        <v>43.12</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -11222,10 +11222,10 @@
         </is>
       </c>
       <c r="D418">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E418">
-        <v>81.48999999999999</v>
+        <v>81.94</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -11560,10 +11560,10 @@
         </is>
       </c>
       <c r="D431">
-        <v>1779</v>
+        <v>1784</v>
       </c>
       <c r="E431">
-        <v>1590.3</v>
+        <v>1594.77</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -11976,10 +11976,10 @@
         </is>
       </c>
       <c r="D447">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E447">
-        <v>272.77</v>
+        <v>270</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -12054,10 +12054,10 @@
         </is>
       </c>
       <c r="D450">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="E450">
-        <v>858.99</v>
+        <v>860.8099999999999</v>
       </c>
       <c r="F450">
         <v>0</v>
@@ -12106,10 +12106,10 @@
         </is>
       </c>
       <c r="D452">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E452">
-        <v>261.47</v>
+        <v>268.35</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -12158,10 +12158,10 @@
         </is>
       </c>
       <c r="D454">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E454">
-        <v>1610.17</v>
+        <v>1611.27</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -12184,10 +12184,10 @@
         </is>
       </c>
       <c r="D455">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E455">
-        <v>340.9</v>
+        <v>337.12</v>
       </c>
       <c r="F455">
         <v>0</v>
@@ -12938,10 +12938,10 @@
         </is>
       </c>
       <c r="D484">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E484">
-        <v>1684.1</v>
+        <v>1743.09</v>
       </c>
       <c r="F484">
         <v>0</v>
@@ -13614,10 +13614,10 @@
         </is>
       </c>
       <c r="D510">
-        <v>5313</v>
+        <v>5316</v>
       </c>
       <c r="E510">
-        <v>5790.48</v>
+        <v>5793.75</v>
       </c>
       <c r="F510">
         <v>7</v>
@@ -13640,10 +13640,10 @@
         </is>
       </c>
       <c r="D511">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E511">
-        <v>3468.84</v>
+        <v>3481.66</v>
       </c>
       <c r="F511">
         <v>2</v>
@@ -13666,10 +13666,10 @@
         </is>
       </c>
       <c r="D512">
-        <v>755</v>
+        <v>757</v>
       </c